--- a/Bases_de_Dados_(2022-2023)/England EFL League One_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/England EFL League One_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1227" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1257" uniqueCount="319">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -673,6 +673,21 @@
     <t>['15', '83']</t>
   </si>
   <si>
+    <t>['27', '58', '70', '84']</t>
+  </si>
+  <si>
+    <t>['50']</t>
+  </si>
+  <si>
+    <t>['4', '61']</t>
+  </si>
+  <si>
+    <t>['45+2']</t>
+  </si>
+  <si>
+    <t>['60']</t>
+  </si>
+  <si>
     <t>['36', '90+4']</t>
   </si>
   <si>
@@ -716,12 +731,6 @@
   </si>
   <si>
     <t>['21', '45+1']</t>
-  </si>
-  <si>
-    <t>['60']</t>
-  </si>
-  <si>
-    <t>['50']</t>
   </si>
   <si>
     <t>['61']</t>
@@ -950,6 +959,18 @@
   </si>
   <si>
     <t>['82']</t>
+  </si>
+  <si>
+    <t>['25', '52']</t>
+  </si>
+  <si>
+    <t>['2']</t>
+  </si>
+  <si>
+    <t>['45+7', '77']</t>
+  </si>
+  <si>
+    <t>['59']</t>
   </si>
 </sst>
 </file>
@@ -1311,7 +1332,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK195"/>
+  <dimension ref="A1:BK200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1555,7 +1576,7 @@
         <v>89</v>
       </c>
       <c r="P2" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="Q2">
         <v>6</v>
@@ -1833,7 +1854,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT3">
         <v>0.5600000000000001</v>
@@ -1937,7 +1958,7 @@
         <v>91</v>
       </c>
       <c r="P4" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="Q4">
         <v>7</v>
@@ -2128,7 +2149,7 @@
         <v>92</v>
       </c>
       <c r="P5" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="Q5">
         <v>10</v>
@@ -2218,7 +2239,7 @@
         <v>1.33</v>
       </c>
       <c r="AT5">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2406,7 +2427,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AT6">
         <v>1.33</v>
@@ -2597,10 +2618,10 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AT7">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -3083,7 +3104,7 @@
         <v>97</v>
       </c>
       <c r="P10" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="Q10">
         <v>2</v>
@@ -3465,7 +3486,7 @@
         <v>99</v>
       </c>
       <c r="P12" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="Q12">
         <v>4</v>
@@ -3656,7 +3677,7 @@
         <v>100</v>
       </c>
       <c r="P13" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="Q13">
         <v>8</v>
@@ -3847,7 +3868,7 @@
         <v>93</v>
       </c>
       <c r="P14" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="Q14">
         <v>5</v>
@@ -4128,7 +4149,7 @@
         <v>1.43</v>
       </c>
       <c r="AT15">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -4802,7 +4823,7 @@
         <v>103</v>
       </c>
       <c r="P19" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -4993,7 +5014,7 @@
         <v>93</v>
       </c>
       <c r="P20" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -5274,7 +5295,7 @@
         <v>1.63</v>
       </c>
       <c r="AT21">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AU21">
         <v>0</v>
@@ -5465,7 +5486,7 @@
         <v>1.78</v>
       </c>
       <c r="AT22">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU22">
         <v>0</v>
@@ -5948,7 +5969,7 @@
         <v>108</v>
       </c>
       <c r="P25" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="Q25">
         <v>2</v>
@@ -6330,7 +6351,7 @@
         <v>110</v>
       </c>
       <c r="P27" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="Q27">
         <v>5</v>
@@ -6417,10 +6438,10 @@
         <v>0</v>
       </c>
       <c r="AS27">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AT27">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AU27">
         <v>0.9</v>
@@ -6521,7 +6542,7 @@
         <v>111</v>
       </c>
       <c r="P28" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="Q28">
         <v>12</v>
@@ -6608,7 +6629,7 @@
         <v>1</v>
       </c>
       <c r="AS28">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT28">
         <v>1.33</v>
@@ -7181,7 +7202,7 @@
         <v>3</v>
       </c>
       <c r="AS31">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AT31">
         <v>0.78</v>
@@ -7858,7 +7879,7 @@
         <v>93</v>
       </c>
       <c r="P35" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="Q35">
         <v>5</v>
@@ -8139,7 +8160,7 @@
         <v>1.5</v>
       </c>
       <c r="AT36">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU36">
         <v>1.6</v>
@@ -8240,7 +8261,7 @@
         <v>118</v>
       </c>
       <c r="P37" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8813,7 +8834,7 @@
         <v>121</v>
       </c>
       <c r="P40" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="Q40">
         <v>10</v>
@@ -9094,7 +9115,7 @@
         <v>0.5</v>
       </c>
       <c r="AT41">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AU41">
         <v>1.36</v>
@@ -9476,7 +9497,7 @@
         <v>1.43</v>
       </c>
       <c r="AT43">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU43">
         <v>1.48</v>
@@ -9768,7 +9789,7 @@
         <v>93</v>
       </c>
       <c r="P45" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -10341,7 +10362,7 @@
         <v>126</v>
       </c>
       <c r="P48" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="Q48">
         <v>10</v>
@@ -10622,7 +10643,7 @@
         <v>1.22</v>
       </c>
       <c r="AT49">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU49">
         <v>1.23</v>
@@ -10723,7 +10744,7 @@
         <v>127</v>
       </c>
       <c r="P50" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q50">
         <v>12</v>
@@ -11105,7 +11126,7 @@
         <v>129</v>
       </c>
       <c r="P52" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q52">
         <v>8</v>
@@ -11386,7 +11407,7 @@
         <v>0.5</v>
       </c>
       <c r="AT53">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU53">
         <v>1.32</v>
@@ -11487,7 +11508,7 @@
         <v>93</v>
       </c>
       <c r="P54" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q54">
         <v>6</v>
@@ -11678,7 +11699,7 @@
         <v>131</v>
       </c>
       <c r="P55" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="Q55">
         <v>8</v>
@@ -11869,7 +11890,7 @@
         <v>93</v>
       </c>
       <c r="P56" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q56">
         <v>2</v>
@@ -12060,7 +12081,7 @@
         <v>93</v>
       </c>
       <c r="P57" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q57">
         <v>7</v>
@@ -12150,7 +12171,7 @@
         <v>0.88</v>
       </c>
       <c r="AT57">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AU57">
         <v>1.11</v>
@@ -12251,7 +12272,7 @@
         <v>93</v>
       </c>
       <c r="P58" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q58">
         <v>4</v>
@@ -12442,7 +12463,7 @@
         <v>93</v>
       </c>
       <c r="P59" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q59">
         <v>7</v>
@@ -13015,7 +13036,7 @@
         <v>93</v>
       </c>
       <c r="P62" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="Q62">
         <v>3</v>
@@ -13206,7 +13227,7 @@
         <v>133</v>
       </c>
       <c r="P63" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q63">
         <v>9</v>
@@ -13293,7 +13314,7 @@
         <v>0.5</v>
       </c>
       <c r="AS63">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT63">
         <v>0.88</v>
@@ -13397,7 +13418,7 @@
         <v>93</v>
       </c>
       <c r="P64" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q64">
         <v>7</v>
@@ -13484,7 +13505,7 @@
         <v>0</v>
       </c>
       <c r="AS64">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AT64">
         <v>1.25</v>
@@ -13779,7 +13800,7 @@
         <v>135</v>
       </c>
       <c r="P66" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q66">
         <v>3</v>
@@ -13866,10 +13887,10 @@
         <v>0.5</v>
       </c>
       <c r="AS66">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AT66">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AU66">
         <v>1.42</v>
@@ -13970,7 +13991,7 @@
         <v>136</v>
       </c>
       <c r="P67" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q67">
         <v>4</v>
@@ -14352,7 +14373,7 @@
         <v>113</v>
       </c>
       <c r="P69" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q69">
         <v>3</v>
@@ -14543,7 +14564,7 @@
         <v>138</v>
       </c>
       <c r="P70" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q70">
         <v>6</v>
@@ -14734,7 +14755,7 @@
         <v>139</v>
       </c>
       <c r="P71" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q71">
         <v>4</v>
@@ -15015,7 +15036,7 @@
         <v>1.13</v>
       </c>
       <c r="AT72">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU72">
         <v>2.24</v>
@@ -15116,7 +15137,7 @@
         <v>93</v>
       </c>
       <c r="P73" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q73">
         <v>9</v>
@@ -15498,7 +15519,7 @@
         <v>141</v>
       </c>
       <c r="P75" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q75">
         <v>2</v>
@@ -15689,7 +15710,7 @@
         <v>93</v>
       </c>
       <c r="P76" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q76">
         <v>6</v>
@@ -16644,7 +16665,7 @@
         <v>145</v>
       </c>
       <c r="P81" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q81">
         <v>11</v>
@@ -16835,7 +16856,7 @@
         <v>146</v>
       </c>
       <c r="P82" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q82">
         <v>5</v>
@@ -17026,7 +17047,7 @@
         <v>93</v>
       </c>
       <c r="P83" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q83">
         <v>6</v>
@@ -17217,7 +17238,7 @@
         <v>147</v>
       </c>
       <c r="P84" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q84">
         <v>4</v>
@@ -17408,7 +17429,7 @@
         <v>148</v>
       </c>
       <c r="P85" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q85">
         <v>1</v>
@@ -17498,7 +17519,7 @@
         <v>0.75</v>
       </c>
       <c r="AT85">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU85">
         <v>1.43</v>
@@ -17599,7 +17620,7 @@
         <v>149</v>
       </c>
       <c r="P86" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q86">
         <v>6</v>
@@ -18068,10 +18089,10 @@
         <v>0.67</v>
       </c>
       <c r="AS88">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AT88">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU88">
         <v>1.31</v>
@@ -18172,7 +18193,7 @@
         <v>93</v>
       </c>
       <c r="P89" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q89">
         <v>3</v>
@@ -18363,7 +18384,7 @@
         <v>152</v>
       </c>
       <c r="P90" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q90">
         <v>5</v>
@@ -18453,7 +18474,7 @@
         <v>1.43</v>
       </c>
       <c r="AT90">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU90">
         <v>1.17</v>
@@ -18554,7 +18575,7 @@
         <v>93</v>
       </c>
       <c r="P91" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="Q91">
         <v>11</v>
@@ -18644,7 +18665,7 @@
         <v>2.44</v>
       </c>
       <c r="AT91">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AU91">
         <v>2.02</v>
@@ -19023,10 +19044,10 @@
         <v>1.33</v>
       </c>
       <c r="AS93">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT93">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU93">
         <v>2.16</v>
@@ -19127,7 +19148,7 @@
         <v>93</v>
       </c>
       <c r="P94" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q94">
         <v>4</v>
@@ -19318,7 +19339,7 @@
         <v>93</v>
       </c>
       <c r="P95" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q95">
         <v>3</v>
@@ -19405,7 +19426,7 @@
         <v>2</v>
       </c>
       <c r="AS95">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AT95">
         <v>2</v>
@@ -19509,7 +19530,7 @@
         <v>155</v>
       </c>
       <c r="P96" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="Q96">
         <v>9</v>
@@ -19599,7 +19620,7 @@
         <v>1.63</v>
       </c>
       <c r="AT96">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AU96">
         <v>1.68</v>
@@ -19891,7 +19912,7 @@
         <v>93</v>
       </c>
       <c r="P98" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q98">
         <v>5</v>
@@ -20273,7 +20294,7 @@
         <v>157</v>
       </c>
       <c r="P100" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q100">
         <v>6</v>
@@ -20464,7 +20485,7 @@
         <v>158</v>
       </c>
       <c r="P101" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q101">
         <v>8</v>
@@ -20655,7 +20676,7 @@
         <v>93</v>
       </c>
       <c r="P102" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q102">
         <v>3</v>
@@ -20846,7 +20867,7 @@
         <v>159</v>
       </c>
       <c r="P103" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q103">
         <v>9</v>
@@ -21419,7 +21440,7 @@
         <v>162</v>
       </c>
       <c r="P106" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q106">
         <v>2</v>
@@ -21610,7 +21631,7 @@
         <v>163</v>
       </c>
       <c r="P107" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q107">
         <v>3</v>
@@ -21801,7 +21822,7 @@
         <v>130</v>
       </c>
       <c r="P108" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q108">
         <v>9</v>
@@ -21992,7 +22013,7 @@
         <v>164</v>
       </c>
       <c r="P109" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q109">
         <v>5</v>
@@ -22183,7 +22204,7 @@
         <v>93</v>
       </c>
       <c r="P110" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q110">
         <v>3</v>
@@ -22273,7 +22294,7 @@
         <v>0.75</v>
       </c>
       <c r="AT110">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU110">
         <v>1.37</v>
@@ -22374,7 +22395,7 @@
         <v>165</v>
       </c>
       <c r="P111" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q111">
         <v>4</v>
@@ -22655,7 +22676,7 @@
         <v>1.13</v>
       </c>
       <c r="AT112">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU112">
         <v>1.62</v>
@@ -22756,7 +22777,7 @@
         <v>166</v>
       </c>
       <c r="P113" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q113">
         <v>0</v>
@@ -22843,7 +22864,7 @@
         <v>0.25</v>
       </c>
       <c r="AS113">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AT113">
         <v>0.78</v>
@@ -22947,7 +22968,7 @@
         <v>167</v>
       </c>
       <c r="P114" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q114">
         <v>3</v>
@@ -23228,7 +23249,7 @@
         <v>2.44</v>
       </c>
       <c r="AT115">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AU115">
         <v>2.02</v>
@@ -23329,7 +23350,7 @@
         <v>169</v>
       </c>
       <c r="P116" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q116">
         <v>12</v>
@@ -23711,7 +23732,7 @@
         <v>93</v>
       </c>
       <c r="P118" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q118">
         <v>11</v>
@@ -23798,7 +23819,7 @@
         <v>1.4</v>
       </c>
       <c r="AS118">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT118">
         <v>1.75</v>
@@ -24093,7 +24114,7 @@
         <v>171</v>
       </c>
       <c r="P120" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q120">
         <v>5</v>
@@ -24284,7 +24305,7 @@
         <v>172</v>
       </c>
       <c r="P121" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q121">
         <v>8</v>
@@ -24475,7 +24496,7 @@
         <v>93</v>
       </c>
       <c r="P122" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q122">
         <v>5</v>
@@ -24666,7 +24687,7 @@
         <v>173</v>
       </c>
       <c r="P123" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q123">
         <v>6</v>
@@ -25048,7 +25069,7 @@
         <v>175</v>
       </c>
       <c r="P125" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q125">
         <v>1</v>
@@ -25239,7 +25260,7 @@
         <v>93</v>
       </c>
       <c r="P126" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q126">
         <v>2</v>
@@ -25329,7 +25350,7 @@
         <v>1.5</v>
       </c>
       <c r="AT126">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU126">
         <v>1.58</v>
@@ -25812,7 +25833,7 @@
         <v>178</v>
       </c>
       <c r="P129" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q129">
         <v>9</v>
@@ -26475,7 +26496,7 @@
         <v>0.88</v>
       </c>
       <c r="AT132">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AU132">
         <v>1.28</v>
@@ -26854,7 +26875,7 @@
         <v>0.5</v>
       </c>
       <c r="AS134">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AT134">
         <v>0.88</v>
@@ -27149,7 +27170,7 @@
         <v>182</v>
       </c>
       <c r="P136" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q136">
         <v>7</v>
@@ -27239,7 +27260,7 @@
         <v>2</v>
       </c>
       <c r="AT136">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AU136">
         <v>1.79</v>
@@ -27531,7 +27552,7 @@
         <v>184</v>
       </c>
       <c r="P138" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q138">
         <v>8</v>
@@ -27722,7 +27743,7 @@
         <v>93</v>
       </c>
       <c r="P139" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q139">
         <v>7</v>
@@ -27812,7 +27833,7 @@
         <v>1.63</v>
       </c>
       <c r="AT139">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU139">
         <v>1.63</v>
@@ -28003,7 +28024,7 @@
         <v>3</v>
       </c>
       <c r="AT140">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU140">
         <v>1.91</v>
@@ -28104,7 +28125,7 @@
         <v>186</v>
       </c>
       <c r="P141" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q141">
         <v>6</v>
@@ -28194,7 +28215,7 @@
         <v>1.75</v>
       </c>
       <c r="AT141">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AU141">
         <v>1.5</v>
@@ -28677,7 +28698,7 @@
         <v>109</v>
       </c>
       <c r="P144" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Q144">
         <v>2</v>
@@ -28764,7 +28785,7 @@
         <v>2.17</v>
       </c>
       <c r="AS144">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AT144">
         <v>2.22</v>
@@ -28868,7 +28889,7 @@
         <v>93</v>
       </c>
       <c r="P145" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q145">
         <v>11</v>
@@ -29059,7 +29080,7 @@
         <v>189</v>
       </c>
       <c r="P146" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q146">
         <v>4</v>
@@ -29149,7 +29170,7 @@
         <v>1.78</v>
       </c>
       <c r="AT146">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU146">
         <v>1.64</v>
@@ -29250,7 +29271,7 @@
         <v>93</v>
       </c>
       <c r="P147" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q147">
         <v>0</v>
@@ -29632,7 +29653,7 @@
         <v>94</v>
       </c>
       <c r="P149" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="Q149">
         <v>1</v>
@@ -30014,7 +30035,7 @@
         <v>93</v>
       </c>
       <c r="P151" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q151">
         <v>14</v>
@@ -30205,7 +30226,7 @@
         <v>191</v>
       </c>
       <c r="P152" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Q152">
         <v>13</v>
@@ -30396,7 +30417,7 @@
         <v>192</v>
       </c>
       <c r="P153" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="Q153">
         <v>4</v>
@@ -30483,7 +30504,7 @@
         <v>1</v>
       </c>
       <c r="AS153">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT153">
         <v>1.13</v>
@@ -30587,7 +30608,7 @@
         <v>193</v>
       </c>
       <c r="P154" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q154">
         <v>5</v>
@@ -30778,7 +30799,7 @@
         <v>93</v>
       </c>
       <c r="P155" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Q155">
         <v>6</v>
@@ -30969,7 +30990,7 @@
         <v>194</v>
       </c>
       <c r="P156" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="Q156">
         <v>7</v>
@@ -31542,7 +31563,7 @@
         <v>93</v>
       </c>
       <c r="P159" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Q159">
         <v>5</v>
@@ -31632,7 +31653,7 @@
         <v>1.13</v>
       </c>
       <c r="AT159">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU159">
         <v>1.73</v>
@@ -32014,7 +32035,7 @@
         <v>2.13</v>
       </c>
       <c r="AT161">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU161">
         <v>2.19</v>
@@ -32202,7 +32223,7 @@
         <v>2.14</v>
       </c>
       <c r="AS162">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AT162">
         <v>2</v>
@@ -32306,7 +32327,7 @@
         <v>197</v>
       </c>
       <c r="P163" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="Q163">
         <v>6</v>
@@ -32775,7 +32796,7 @@
         <v>1.57</v>
       </c>
       <c r="AS165">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AT165">
         <v>1.38</v>
@@ -32879,7 +32900,7 @@
         <v>93</v>
       </c>
       <c r="P166" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="Q166">
         <v>6</v>
@@ -33070,7 +33091,7 @@
         <v>198</v>
       </c>
       <c r="P167" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q167">
         <v>3</v>
@@ -33160,7 +33181,7 @@
         <v>1.63</v>
       </c>
       <c r="AT167">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AU167">
         <v>1.54</v>
@@ -33261,7 +33282,7 @@
         <v>93</v>
       </c>
       <c r="P168" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q168">
         <v>4</v>
@@ -33351,7 +33372,7 @@
         <v>1.5</v>
       </c>
       <c r="AT168">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AU168">
         <v>1.43</v>
@@ -33643,7 +33664,7 @@
         <v>199</v>
       </c>
       <c r="P170" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="Q170">
         <v>8</v>
@@ -33834,7 +33855,7 @@
         <v>200</v>
       </c>
       <c r="P171" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="Q171">
         <v>4</v>
@@ -34306,7 +34327,7 @@
         <v>2</v>
       </c>
       <c r="AT173">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU173">
         <v>1.73</v>
@@ -34598,7 +34619,7 @@
         <v>203</v>
       </c>
       <c r="P175" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="Q175">
         <v>7</v>
@@ -34688,7 +34709,7 @@
         <v>2.44</v>
       </c>
       <c r="AT175">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU175">
         <v>2.07</v>
@@ -34789,7 +34810,7 @@
         <v>204</v>
       </c>
       <c r="P176" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="Q176">
         <v>4</v>
@@ -34980,7 +35001,7 @@
         <v>153</v>
       </c>
       <c r="P177" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="Q177">
         <v>8</v>
@@ -35171,7 +35192,7 @@
         <v>205</v>
       </c>
       <c r="P178" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="Q178">
         <v>6</v>
@@ -35553,7 +35574,7 @@
         <v>207</v>
       </c>
       <c r="P180" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="Q180">
         <v>11</v>
@@ -35640,7 +35661,7 @@
         <v>0.57</v>
       </c>
       <c r="AS180">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT180">
         <v>0.78</v>
@@ -35935,7 +35956,7 @@
         <v>93</v>
       </c>
       <c r="P182" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="Q182">
         <v>6</v>
@@ -36126,7 +36147,7 @@
         <v>93</v>
       </c>
       <c r="P183" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="Q183">
         <v>1</v>
@@ -36317,7 +36338,7 @@
         <v>209</v>
       </c>
       <c r="P184" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="Q184">
         <v>7</v>
@@ -36514,10 +36535,10 @@
         <v>3</v>
       </c>
       <c r="R185">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S185">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="T185">
         <v>3.25</v>
@@ -36699,7 +36720,7 @@
         <v>210</v>
       </c>
       <c r="P186" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="Q186">
         <v>1</v>
@@ -36980,7 +37001,7 @@
         <v>1.22</v>
       </c>
       <c r="AT187">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU187">
         <v>1.42</v>
@@ -37081,7 +37102,7 @@
         <v>212</v>
       </c>
       <c r="P188" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="Q188">
         <v>7</v>
@@ -37272,16 +37293,16 @@
         <v>213</v>
       </c>
       <c r="P189" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="Q189">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R189">
         <v>4</v>
       </c>
       <c r="S189">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="T189">
         <v>2.63</v>
@@ -37845,7 +37866,7 @@
         <v>215</v>
       </c>
       <c r="P192" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="Q192">
         <v>7</v>
@@ -38036,7 +38057,7 @@
         <v>216</v>
       </c>
       <c r="P193" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="Q193">
         <v>7</v>
@@ -38227,16 +38248,16 @@
         <v>217</v>
       </c>
       <c r="P194" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="Q194">
         <v>13</v>
       </c>
       <c r="R194">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S194">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T194">
         <v>2.1</v>
@@ -38314,7 +38335,7 @@
         <v>0.75</v>
       </c>
       <c r="AS194">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT194">
         <v>0.78</v>
@@ -38560,6 +38581,961 @@
       </c>
       <c r="BK195">
         <v>4</v>
+      </c>
+    </row>
+    <row r="196" spans="1:63">
+      <c r="A196" s="1">
+        <v>195</v>
+      </c>
+      <c r="B196">
+        <v>2568129</v>
+      </c>
+      <c r="C196" t="s">
+        <v>63</v>
+      </c>
+      <c r="D196" t="s">
+        <v>64</v>
+      </c>
+      <c r="E196" s="2">
+        <v>44865.70833333334</v>
+      </c>
+      <c r="F196">
+        <v>17</v>
+      </c>
+      <c r="G196" t="s">
+        <v>71</v>
+      </c>
+      <c r="H196" t="s">
+        <v>84</v>
+      </c>
+      <c r="I196">
+        <v>1</v>
+      </c>
+      <c r="J196">
+        <v>1</v>
+      </c>
+      <c r="K196">
+        <v>2</v>
+      </c>
+      <c r="L196">
+        <v>4</v>
+      </c>
+      <c r="M196">
+        <v>2</v>
+      </c>
+      <c r="N196">
+        <v>6</v>
+      </c>
+      <c r="O196" t="s">
+        <v>219</v>
+      </c>
+      <c r="P196" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q196">
+        <v>6</v>
+      </c>
+      <c r="R196">
+        <v>7</v>
+      </c>
+      <c r="S196">
+        <v>13</v>
+      </c>
+      <c r="T196">
+        <v>2.5</v>
+      </c>
+      <c r="U196">
+        <v>2.3</v>
+      </c>
+      <c r="V196">
+        <v>4</v>
+      </c>
+      <c r="W196">
+        <v>1.33</v>
+      </c>
+      <c r="X196">
+        <v>3.25</v>
+      </c>
+      <c r="Y196">
+        <v>2.63</v>
+      </c>
+      <c r="Z196">
+        <v>1.44</v>
+      </c>
+      <c r="AA196">
+        <v>6.5</v>
+      </c>
+      <c r="AB196">
+        <v>1.11</v>
+      </c>
+      <c r="AC196">
+        <v>1.86</v>
+      </c>
+      <c r="AD196">
+        <v>3.4</v>
+      </c>
+      <c r="AE196">
+        <v>3.45</v>
+      </c>
+      <c r="AF196">
+        <v>1.05</v>
+      </c>
+      <c r="AG196">
+        <v>9</v>
+      </c>
+      <c r="AH196">
+        <v>1.29</v>
+      </c>
+      <c r="AI196">
+        <v>3.5</v>
+      </c>
+      <c r="AJ196">
+        <v>1.79</v>
+      </c>
+      <c r="AK196">
+        <v>1.94</v>
+      </c>
+      <c r="AL196">
+        <v>1.67</v>
+      </c>
+      <c r="AM196">
+        <v>2.1</v>
+      </c>
+      <c r="AN196">
+        <v>1.28</v>
+      </c>
+      <c r="AO196">
+        <v>1.3</v>
+      </c>
+      <c r="AP196">
+        <v>1.65</v>
+      </c>
+      <c r="AQ196">
+        <v>3</v>
+      </c>
+      <c r="AR196">
+        <v>1.13</v>
+      </c>
+      <c r="AS196">
+        <v>3</v>
+      </c>
+      <c r="AT196">
+        <v>1</v>
+      </c>
+      <c r="AU196">
+        <v>1.78</v>
+      </c>
+      <c r="AV196">
+        <v>1.36</v>
+      </c>
+      <c r="AW196">
+        <v>3.14</v>
+      </c>
+      <c r="AX196">
+        <v>1.72</v>
+      </c>
+      <c r="AY196">
+        <v>7.5</v>
+      </c>
+      <c r="AZ196">
+        <v>2.6</v>
+      </c>
+      <c r="BA196">
+        <v>1.18</v>
+      </c>
+      <c r="BB196">
+        <v>1.3</v>
+      </c>
+      <c r="BC196">
+        <v>1.55</v>
+      </c>
+      <c r="BD196">
+        <v>1.93</v>
+      </c>
+      <c r="BE196">
+        <v>2.45</v>
+      </c>
+      <c r="BF196">
+        <v>6</v>
+      </c>
+      <c r="BG196">
+        <v>6</v>
+      </c>
+      <c r="BH196">
+        <v>4</v>
+      </c>
+      <c r="BI196">
+        <v>6</v>
+      </c>
+      <c r="BJ196">
+        <v>10</v>
+      </c>
+      <c r="BK196">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="197" spans="1:63">
+      <c r="A197" s="1">
+        <v>196</v>
+      </c>
+      <c r="B197">
+        <v>2568056</v>
+      </c>
+      <c r="C197" t="s">
+        <v>63</v>
+      </c>
+      <c r="D197" t="s">
+        <v>64</v>
+      </c>
+      <c r="E197" s="2">
+        <v>44866.69791666666</v>
+      </c>
+      <c r="F197">
+        <v>11</v>
+      </c>
+      <c r="G197" t="s">
+        <v>81</v>
+      </c>
+      <c r="H197" t="s">
+        <v>88</v>
+      </c>
+      <c r="I197">
+        <v>0</v>
+      </c>
+      <c r="J197">
+        <v>1</v>
+      </c>
+      <c r="K197">
+        <v>1</v>
+      </c>
+      <c r="L197">
+        <v>1</v>
+      </c>
+      <c r="M197">
+        <v>1</v>
+      </c>
+      <c r="N197">
+        <v>2</v>
+      </c>
+      <c r="O197" t="s">
+        <v>220</v>
+      </c>
+      <c r="P197" t="s">
+        <v>316</v>
+      </c>
+      <c r="Q197">
+        <v>7</v>
+      </c>
+      <c r="R197">
+        <v>3</v>
+      </c>
+      <c r="S197">
+        <v>10</v>
+      </c>
+      <c r="T197">
+        <v>2.5</v>
+      </c>
+      <c r="U197">
+        <v>2.2</v>
+      </c>
+      <c r="V197">
+        <v>4.5</v>
+      </c>
+      <c r="W197">
+        <v>1.4</v>
+      </c>
+      <c r="X197">
+        <v>2.75</v>
+      </c>
+      <c r="Y197">
+        <v>2.75</v>
+      </c>
+      <c r="Z197">
+        <v>1.4</v>
+      </c>
+      <c r="AA197">
+        <v>8</v>
+      </c>
+      <c r="AB197">
+        <v>1.08</v>
+      </c>
+      <c r="AC197">
+        <v>1.91</v>
+      </c>
+      <c r="AD197">
+        <v>3.2</v>
+      </c>
+      <c r="AE197">
+        <v>4.2</v>
+      </c>
+      <c r="AF197">
+        <v>1.02</v>
+      </c>
+      <c r="AG197">
+        <v>8.6</v>
+      </c>
+      <c r="AH197">
+        <v>1.31</v>
+      </c>
+      <c r="AI197">
+        <v>3.2</v>
+      </c>
+      <c r="AJ197">
+        <v>1.91</v>
+      </c>
+      <c r="AK197">
+        <v>1.69</v>
+      </c>
+      <c r="AL197">
+        <v>1.8</v>
+      </c>
+      <c r="AM197">
+        <v>1.95</v>
+      </c>
+      <c r="AN197">
+        <v>1.22</v>
+      </c>
+      <c r="AO197">
+        <v>1.25</v>
+      </c>
+      <c r="AP197">
+        <v>1.9</v>
+      </c>
+      <c r="AQ197">
+        <v>1</v>
+      </c>
+      <c r="AR197">
+        <v>1.29</v>
+      </c>
+      <c r="AS197">
+        <v>1</v>
+      </c>
+      <c r="AT197">
+        <v>1.25</v>
+      </c>
+      <c r="AU197">
+        <v>1.92</v>
+      </c>
+      <c r="AV197">
+        <v>1.37</v>
+      </c>
+      <c r="AW197">
+        <v>3.29</v>
+      </c>
+      <c r="AX197">
+        <v>1.33</v>
+      </c>
+      <c r="AY197">
+        <v>6.75</v>
+      </c>
+      <c r="AZ197">
+        <v>3.95</v>
+      </c>
+      <c r="BA197">
+        <v>1.18</v>
+      </c>
+      <c r="BB197">
+        <v>1.35</v>
+      </c>
+      <c r="BC197">
+        <v>1.63</v>
+      </c>
+      <c r="BD197">
+        <v>1.99</v>
+      </c>
+      <c r="BE197">
+        <v>2.46</v>
+      </c>
+      <c r="BF197">
+        <v>2</v>
+      </c>
+      <c r="BG197">
+        <v>6</v>
+      </c>
+      <c r="BH197">
+        <v>19</v>
+      </c>
+      <c r="BI197">
+        <v>4</v>
+      </c>
+      <c r="BJ197">
+        <v>21</v>
+      </c>
+      <c r="BK197">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="198" spans="1:63">
+      <c r="A198" s="1">
+        <v>197</v>
+      </c>
+      <c r="B198">
+        <v>2568025</v>
+      </c>
+      <c r="C198" t="s">
+        <v>63</v>
+      </c>
+      <c r="D198" t="s">
+        <v>64</v>
+      </c>
+      <c r="E198" s="2">
+        <v>44866.69791666666</v>
+      </c>
+      <c r="F198">
+        <v>8</v>
+      </c>
+      <c r="G198" t="s">
+        <v>66</v>
+      </c>
+      <c r="H198" t="s">
+        <v>68</v>
+      </c>
+      <c r="I198">
+        <v>1</v>
+      </c>
+      <c r="J198">
+        <v>1</v>
+      </c>
+      <c r="K198">
+        <v>2</v>
+      </c>
+      <c r="L198">
+        <v>2</v>
+      </c>
+      <c r="M198">
+        <v>2</v>
+      </c>
+      <c r="N198">
+        <v>4</v>
+      </c>
+      <c r="O198" t="s">
+        <v>221</v>
+      </c>
+      <c r="P198" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q198">
+        <v>6</v>
+      </c>
+      <c r="R198">
+        <v>4</v>
+      </c>
+      <c r="S198">
+        <v>10</v>
+      </c>
+      <c r="T198">
+        <v>2.75</v>
+      </c>
+      <c r="U198">
+        <v>2.05</v>
+      </c>
+      <c r="V198">
+        <v>3.8</v>
+      </c>
+      <c r="W198">
+        <v>1.43</v>
+      </c>
+      <c r="X198">
+        <v>2.6</v>
+      </c>
+      <c r="Y198">
+        <v>3</v>
+      </c>
+      <c r="Z198">
+        <v>1.33</v>
+      </c>
+      <c r="AA198">
+        <v>8.25</v>
+      </c>
+      <c r="AB198">
+        <v>1.06</v>
+      </c>
+      <c r="AC198">
+        <v>2.25</v>
+      </c>
+      <c r="AD198">
+        <v>3.1</v>
+      </c>
+      <c r="AE198">
+        <v>3.3</v>
+      </c>
+      <c r="AF198">
+        <v>1.06</v>
+      </c>
+      <c r="AG198">
+        <v>10</v>
+      </c>
+      <c r="AH198">
+        <v>1.36</v>
+      </c>
+      <c r="AI198">
+        <v>3.1</v>
+      </c>
+      <c r="AJ198">
+        <v>2.1</v>
+      </c>
+      <c r="AK198">
+        <v>1.65</v>
+      </c>
+      <c r="AL198">
+        <v>1.9</v>
+      </c>
+      <c r="AM198">
+        <v>1.82</v>
+      </c>
+      <c r="AN198">
+        <v>1.32</v>
+      </c>
+      <c r="AO198">
+        <v>1.31</v>
+      </c>
+      <c r="AP198">
+        <v>1.68</v>
+      </c>
+      <c r="AQ198">
+        <v>1.38</v>
+      </c>
+      <c r="AR198">
+        <v>1.43</v>
+      </c>
+      <c r="AS198">
+        <v>1.33</v>
+      </c>
+      <c r="AT198">
+        <v>1.38</v>
+      </c>
+      <c r="AU198">
+        <v>2.08</v>
+      </c>
+      <c r="AV198">
+        <v>1.22</v>
+      </c>
+      <c r="AW198">
+        <v>3.3</v>
+      </c>
+      <c r="AX198">
+        <v>1.82</v>
+      </c>
+      <c r="AY198">
+        <v>8</v>
+      </c>
+      <c r="AZ198">
+        <v>2.33</v>
+      </c>
+      <c r="BA198">
+        <v>1.23</v>
+      </c>
+      <c r="BB198">
+        <v>1.46</v>
+      </c>
+      <c r="BC198">
+        <v>1.85</v>
+      </c>
+      <c r="BD198">
+        <v>2.35</v>
+      </c>
+      <c r="BE198">
+        <v>3.14</v>
+      </c>
+      <c r="BF198">
+        <v>5</v>
+      </c>
+      <c r="BG198">
+        <v>5</v>
+      </c>
+      <c r="BH198">
+        <v>11</v>
+      </c>
+      <c r="BI198">
+        <v>8</v>
+      </c>
+      <c r="BJ198">
+        <v>16</v>
+      </c>
+      <c r="BK198">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="199" spans="1:63">
+      <c r="A199" s="1">
+        <v>198</v>
+      </c>
+      <c r="B199">
+        <v>2568021</v>
+      </c>
+      <c r="C199" t="s">
+        <v>63</v>
+      </c>
+      <c r="D199" t="s">
+        <v>64</v>
+      </c>
+      <c r="E199" s="2">
+        <v>44866.69791666666</v>
+      </c>
+      <c r="F199">
+        <v>8</v>
+      </c>
+      <c r="G199" t="s">
+        <v>69</v>
+      </c>
+      <c r="H199" t="s">
+        <v>72</v>
+      </c>
+      <c r="I199">
+        <v>1</v>
+      </c>
+      <c r="J199">
+        <v>0</v>
+      </c>
+      <c r="K199">
+        <v>1</v>
+      </c>
+      <c r="L199">
+        <v>1</v>
+      </c>
+      <c r="M199">
+        <v>1</v>
+      </c>
+      <c r="N199">
+        <v>2</v>
+      </c>
+      <c r="O199" t="s">
+        <v>222</v>
+      </c>
+      <c r="P199" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q199">
+        <v>3</v>
+      </c>
+      <c r="R199">
+        <v>11</v>
+      </c>
+      <c r="S199">
+        <v>14</v>
+      </c>
+      <c r="T199">
+        <v>5</v>
+      </c>
+      <c r="U199">
+        <v>2.25</v>
+      </c>
+      <c r="V199">
+        <v>2.3</v>
+      </c>
+      <c r="W199">
+        <v>1.37</v>
+      </c>
+      <c r="X199">
+        <v>2.85</v>
+      </c>
+      <c r="Y199">
+        <v>2.85</v>
+      </c>
+      <c r="Z199">
+        <v>1.38</v>
+      </c>
+      <c r="AA199">
+        <v>6.95</v>
+      </c>
+      <c r="AB199">
+        <v>1.07</v>
+      </c>
+      <c r="AC199">
+        <v>4</v>
+      </c>
+      <c r="AD199">
+        <v>3.3</v>
+      </c>
+      <c r="AE199">
+        <v>1.95</v>
+      </c>
+      <c r="AF199">
+        <v>1.05</v>
+      </c>
+      <c r="AG199">
+        <v>11</v>
+      </c>
+      <c r="AH199">
+        <v>1.3</v>
+      </c>
+      <c r="AI199">
+        <v>3.4</v>
+      </c>
+      <c r="AJ199">
+        <v>1.82</v>
+      </c>
+      <c r="AK199">
+        <v>1.78</v>
+      </c>
+      <c r="AL199">
+        <v>1.9</v>
+      </c>
+      <c r="AM199">
+        <v>1.85</v>
+      </c>
+      <c r="AN199">
+        <v>2.2</v>
+      </c>
+      <c r="AO199">
+        <v>1.22</v>
+      </c>
+      <c r="AP199">
+        <v>1.17</v>
+      </c>
+      <c r="AQ199">
+        <v>0.71</v>
+      </c>
+      <c r="AR199">
+        <v>1.14</v>
+      </c>
+      <c r="AS199">
+        <v>0.75</v>
+      </c>
+      <c r="AT199">
+        <v>1.13</v>
+      </c>
+      <c r="AU199">
+        <v>1.19</v>
+      </c>
+      <c r="AV199">
+        <v>1.56</v>
+      </c>
+      <c r="AW199">
+        <v>2.75</v>
+      </c>
+      <c r="AX199">
+        <v>3.86</v>
+      </c>
+      <c r="AY199">
+        <v>9.5</v>
+      </c>
+      <c r="AZ199">
+        <v>1.34</v>
+      </c>
+      <c r="BA199">
+        <v>1.18</v>
+      </c>
+      <c r="BB199">
+        <v>1.37</v>
+      </c>
+      <c r="BC199">
+        <v>1.68</v>
+      </c>
+      <c r="BD199">
+        <v>2.11</v>
+      </c>
+      <c r="BE199">
+        <v>2.75</v>
+      </c>
+      <c r="BF199">
+        <v>7</v>
+      </c>
+      <c r="BG199">
+        <v>10</v>
+      </c>
+      <c r="BH199">
+        <v>5</v>
+      </c>
+      <c r="BI199">
+        <v>16</v>
+      </c>
+      <c r="BJ199">
+        <v>12</v>
+      </c>
+      <c r="BK199">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="200" spans="1:63">
+      <c r="A200" s="1">
+        <v>199</v>
+      </c>
+      <c r="B200">
+        <v>2568019</v>
+      </c>
+      <c r="C200" t="s">
+        <v>63</v>
+      </c>
+      <c r="D200" t="s">
+        <v>64</v>
+      </c>
+      <c r="E200" s="2">
+        <v>44866.69791666666</v>
+      </c>
+      <c r="F200">
+        <v>8</v>
+      </c>
+      <c r="G200" t="s">
+        <v>70</v>
+      </c>
+      <c r="H200" t="s">
+        <v>65</v>
+      </c>
+      <c r="I200">
+        <v>0</v>
+      </c>
+      <c r="J200">
+        <v>0</v>
+      </c>
+      <c r="K200">
+        <v>0</v>
+      </c>
+      <c r="L200">
+        <v>1</v>
+      </c>
+      <c r="M200">
+        <v>1</v>
+      </c>
+      <c r="N200">
+        <v>2</v>
+      </c>
+      <c r="O200" t="s">
+        <v>223</v>
+      </c>
+      <c r="P200" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q200">
+        <v>7</v>
+      </c>
+      <c r="R200">
+        <v>8</v>
+      </c>
+      <c r="S200">
+        <v>15</v>
+      </c>
+      <c r="T200">
+        <v>2.85</v>
+      </c>
+      <c r="U200">
+        <v>2.1</v>
+      </c>
+      <c r="V200">
+        <v>3.5</v>
+      </c>
+      <c r="W200">
+        <v>1.39</v>
+      </c>
+      <c r="X200">
+        <v>2.75</v>
+      </c>
+      <c r="Y200">
+        <v>2.8</v>
+      </c>
+      <c r="Z200">
+        <v>1.37</v>
+      </c>
+      <c r="AA200">
+        <v>7.25</v>
+      </c>
+      <c r="AB200">
+        <v>1.08</v>
+      </c>
+      <c r="AC200">
+        <v>2.45</v>
+      </c>
+      <c r="AD200">
+        <v>3.1</v>
+      </c>
+      <c r="AE200">
+        <v>3</v>
+      </c>
+      <c r="AF200">
+        <v>1.05</v>
+      </c>
+      <c r="AG200">
+        <v>11</v>
+      </c>
+      <c r="AH200">
+        <v>1.3</v>
+      </c>
+      <c r="AI200">
+        <v>3.4</v>
+      </c>
+      <c r="AJ200">
+        <v>1.87</v>
+      </c>
+      <c r="AK200">
+        <v>1.73</v>
+      </c>
+      <c r="AL200">
+        <v>1.75</v>
+      </c>
+      <c r="AM200">
+        <v>1.95</v>
+      </c>
+      <c r="AN200">
+        <v>1.38</v>
+      </c>
+      <c r="AO200">
+        <v>1.3</v>
+      </c>
+      <c r="AP200">
+        <v>1.61</v>
+      </c>
+      <c r="AQ200">
+        <v>1.33</v>
+      </c>
+      <c r="AR200">
+        <v>0.88</v>
+      </c>
+      <c r="AS200">
+        <v>1.29</v>
+      </c>
+      <c r="AT200">
+        <v>0.89</v>
+      </c>
+      <c r="AU200">
+        <v>1.15</v>
+      </c>
+      <c r="AV200">
+        <v>1.38</v>
+      </c>
+      <c r="AW200">
+        <v>2.53</v>
+      </c>
+      <c r="AX200">
+        <v>1.82</v>
+      </c>
+      <c r="AY200">
+        <v>8.5</v>
+      </c>
+      <c r="AZ200">
+        <v>2.28</v>
+      </c>
+      <c r="BA200">
+        <v>1.18</v>
+      </c>
+      <c r="BB200">
+        <v>1.3</v>
+      </c>
+      <c r="BC200">
+        <v>1.58</v>
+      </c>
+      <c r="BD200">
+        <v>2</v>
+      </c>
+      <c r="BE200">
+        <v>2.56</v>
+      </c>
+      <c r="BF200">
+        <v>2</v>
+      </c>
+      <c r="BG200">
+        <v>4</v>
+      </c>
+      <c r="BH200">
+        <v>8</v>
+      </c>
+      <c r="BI200">
+        <v>7</v>
+      </c>
+      <c r="BJ200">
+        <v>10</v>
+      </c>
+      <c r="BK200">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/England EFL League One_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/England EFL League One_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1257" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1407" uniqueCount="339">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -688,6 +688,54 @@
     <t>['60']</t>
   </si>
   <si>
+    <t>['65']</t>
+  </si>
+  <si>
+    <t>['10', '27', '62', '66']</t>
+  </si>
+  <si>
+    <t>['36']</t>
+  </si>
+  <si>
+    <t>['8']</t>
+  </si>
+  <si>
+    <t>['45+1']</t>
+  </si>
+  <si>
+    <t>['27', '86', '90+1']</t>
+  </si>
+  <si>
+    <t>['38', '45', '58']</t>
+  </si>
+  <si>
+    <t>['57', '80']</t>
+  </si>
+  <si>
+    <t>['17', '67']</t>
+  </si>
+  <si>
+    <t>['57']</t>
+  </si>
+  <si>
+    <t>['19']</t>
+  </si>
+  <si>
+    <t>['53']</t>
+  </si>
+  <si>
+    <t>['26']</t>
+  </si>
+  <si>
+    <t>['41', '90+7']</t>
+  </si>
+  <si>
+    <t>['18', '50', '68']</t>
+  </si>
+  <si>
+    <t>['16']</t>
+  </si>
+  <si>
     <t>['36', '90+4']</t>
   </si>
   <si>
@@ -817,9 +865,6 @@
     <t>['63', '69']</t>
   </si>
   <si>
-    <t>['19']</t>
-  </si>
-  <si>
     <t>['24', '76', '90+1']</t>
   </si>
   <si>
@@ -847,13 +892,7 @@
     <t>['32', '87']</t>
   </si>
   <si>
-    <t>['57']</t>
-  </si>
-  <si>
     <t>['10']</t>
-  </si>
-  <si>
-    <t>['8']</t>
   </si>
   <si>
     <t>['3', '36', '54']</t>
@@ -931,9 +970,6 @@
     <t>['34', '38', '51']</t>
   </si>
   <si>
-    <t>['16']</t>
-  </si>
-  <si>
     <t>['6', '45+1', '77']</t>
   </si>
   <si>
@@ -952,9 +988,6 @@
     <t>['25', '53', '79']</t>
   </si>
   <si>
-    <t>['26']</t>
-  </si>
-  <si>
     <t>['76', '82']</t>
   </si>
   <si>
@@ -971,6 +1004,33 @@
   </si>
   <si>
     <t>['59']</t>
+  </si>
+  <si>
+    <t>['43', '53', '79']</t>
+  </si>
+  <si>
+    <t>['31']</t>
+  </si>
+  <si>
+    <t>['40', '81']</t>
+  </si>
+  <si>
+    <t>['26', '36', '75']</t>
+  </si>
+  <si>
+    <t>['14', '90+9']</t>
+  </si>
+  <si>
+    <t>['14', '27']</t>
+  </si>
+  <si>
+    <t>['11', '68']</t>
+  </si>
+  <si>
+    <t>['64', '73']</t>
+  </si>
+  <si>
+    <t>['85', '90+5']</t>
   </si>
 </sst>
 </file>
@@ -1332,7 +1392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK200"/>
+  <dimension ref="A1:BK225"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1576,7 +1636,7 @@
         <v>89</v>
       </c>
       <c r="P2" t="s">
-        <v>224</v>
+        <v>240</v>
       </c>
       <c r="Q2">
         <v>6</v>
@@ -1663,10 +1723,10 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AT2">
-        <v>0.88</v>
+        <v>0.8</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1958,7 +2018,7 @@
         <v>91</v>
       </c>
       <c r="P4" t="s">
-        <v>225</v>
+        <v>241</v>
       </c>
       <c r="Q4">
         <v>7</v>
@@ -2045,10 +2105,10 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AT4">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -2149,7 +2209,7 @@
         <v>92</v>
       </c>
       <c r="P5" t="s">
-        <v>226</v>
+        <v>242</v>
       </c>
       <c r="Q5">
         <v>10</v>
@@ -2236,10 +2296,10 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT5">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2427,10 +2487,10 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AT6">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2618,7 +2678,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>1.29</v>
+        <v>1.44</v>
       </c>
       <c r="AT7">
         <v>1</v>
@@ -2812,7 +2872,7 @@
         <v>3</v>
       </c>
       <c r="AT8">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -3003,7 +3063,7 @@
         <v>2</v>
       </c>
       <c r="AT9">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -3104,7 +3164,7 @@
         <v>97</v>
       </c>
       <c r="P10" t="s">
-        <v>227</v>
+        <v>243</v>
       </c>
       <c r="Q10">
         <v>2</v>
@@ -3191,10 +3251,10 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT10">
-        <v>1.13</v>
+        <v>0.9</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3382,10 +3442,10 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="AT11">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3486,7 +3546,7 @@
         <v>99</v>
       </c>
       <c r="P12" t="s">
-        <v>228</v>
+        <v>244</v>
       </c>
       <c r="Q12">
         <v>4</v>
@@ -3573,10 +3633,10 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.13</v>
+        <v>1.3</v>
       </c>
       <c r="AT12">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3677,7 +3737,7 @@
         <v>100</v>
       </c>
       <c r="P13" t="s">
-        <v>229</v>
+        <v>245</v>
       </c>
       <c r="Q13">
         <v>8</v>
@@ -3764,10 +3824,10 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AT13">
-        <v>1.14</v>
+        <v>1.33</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3868,7 +3928,7 @@
         <v>93</v>
       </c>
       <c r="P14" t="s">
-        <v>230</v>
+        <v>246</v>
       </c>
       <c r="Q14">
         <v>5</v>
@@ -3955,10 +4015,10 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AT14">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -4146,10 +4206,10 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>1.43</v>
+        <v>1.22</v>
       </c>
       <c r="AT15">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -4337,7 +4397,7 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT16">
         <v>1.44</v>
@@ -4531,7 +4591,7 @@
         <v>2.44</v>
       </c>
       <c r="AT17">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4719,7 +4779,7 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AT18">
         <v>0.78</v>
@@ -4823,7 +4883,7 @@
         <v>103</v>
       </c>
       <c r="P19" t="s">
-        <v>231</v>
+        <v>247</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -4910,10 +4970,10 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AT19">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AU19">
         <v>0</v>
@@ -5014,7 +5074,7 @@
         <v>93</v>
       </c>
       <c r="P20" t="s">
-        <v>232</v>
+        <v>248</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -5101,7 +5161,7 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>0.88</v>
+        <v>0.9</v>
       </c>
       <c r="AT20">
         <v>1.22</v>
@@ -5292,10 +5352,10 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>1.63</v>
+        <v>1.6</v>
       </c>
       <c r="AT21">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU21">
         <v>0</v>
@@ -5486,7 +5546,7 @@
         <v>1.78</v>
       </c>
       <c r="AT22">
-        <v>1.13</v>
+        <v>1.3</v>
       </c>
       <c r="AU22">
         <v>0</v>
@@ -5677,7 +5737,7 @@
         <v>2.11</v>
       </c>
       <c r="AT23">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="AU23">
         <v>0</v>
@@ -5865,10 +5925,10 @@
         <v>0</v>
       </c>
       <c r="AS24">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT24">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU24">
         <v>0</v>
@@ -5969,7 +6029,7 @@
         <v>108</v>
       </c>
       <c r="P25" t="s">
-        <v>233</v>
+        <v>249</v>
       </c>
       <c r="Q25">
         <v>2</v>
@@ -6056,10 +6116,10 @@
         <v>0</v>
       </c>
       <c r="AS25">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AT25">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AU25">
         <v>0</v>
@@ -6247,10 +6307,10 @@
         <v>0</v>
       </c>
       <c r="AS26">
-        <v>1.13</v>
+        <v>1.3</v>
       </c>
       <c r="AT26">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AU26">
         <v>1.28</v>
@@ -6351,7 +6411,7 @@
         <v>110</v>
       </c>
       <c r="P27" t="s">
-        <v>234</v>
+        <v>250</v>
       </c>
       <c r="Q27">
         <v>5</v>
@@ -6438,10 +6498,10 @@
         <v>0</v>
       </c>
       <c r="AS27">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AT27">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU27">
         <v>0.9</v>
@@ -6542,7 +6602,7 @@
         <v>111</v>
       </c>
       <c r="P28" t="s">
-        <v>235</v>
+        <v>251</v>
       </c>
       <c r="Q28">
         <v>12</v>
@@ -6632,7 +6692,7 @@
         <v>1.33</v>
       </c>
       <c r="AT28">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU28">
         <v>2.22</v>
@@ -6820,10 +6880,10 @@
         <v>1</v>
       </c>
       <c r="AS29">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AT29">
-        <v>0.88</v>
+        <v>0.8</v>
       </c>
       <c r="AU29">
         <v>1.98</v>
@@ -7011,10 +7071,10 @@
         <v>1</v>
       </c>
       <c r="AS30">
+        <v>1.5</v>
+      </c>
+      <c r="AT30">
         <v>1.33</v>
-      </c>
-      <c r="AT30">
-        <v>1.14</v>
       </c>
       <c r="AU30">
         <v>1.29</v>
@@ -7202,10 +7262,10 @@
         <v>3</v>
       </c>
       <c r="AS31">
-        <v>1.29</v>
+        <v>1.44</v>
       </c>
       <c r="AT31">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU31">
         <v>1.23</v>
@@ -7396,7 +7456,7 @@
         <v>3</v>
       </c>
       <c r="AT32">
-        <v>1.13</v>
+        <v>0.9</v>
       </c>
       <c r="AU32">
         <v>1.94</v>
@@ -7587,7 +7647,7 @@
         <v>2</v>
       </c>
       <c r="AT33">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU33">
         <v>1.5</v>
@@ -7775,10 +7835,10 @@
         <v>0</v>
       </c>
       <c r="AS34">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AT34">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU34">
         <v>2</v>
@@ -7879,7 +7939,7 @@
         <v>93</v>
       </c>
       <c r="P35" t="s">
-        <v>236</v>
+        <v>252</v>
       </c>
       <c r="Q35">
         <v>5</v>
@@ -7966,10 +8026,10 @@
         <v>1</v>
       </c>
       <c r="AS35">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT35">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AU35">
         <v>1.65</v>
@@ -8157,7 +8217,7 @@
         <v>1</v>
       </c>
       <c r="AS36">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="AT36">
         <v>1</v>
@@ -8261,7 +8321,7 @@
         <v>118</v>
       </c>
       <c r="P37" t="s">
-        <v>237</v>
+        <v>253</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8348,7 +8408,7 @@
         <v>0</v>
       </c>
       <c r="AS37">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AT37">
         <v>0.5600000000000001</v>
@@ -8539,7 +8599,7 @@
         <v>0</v>
       </c>
       <c r="AS38">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT38">
         <v>0.78</v>
@@ -8733,7 +8793,7 @@
         <v>2.44</v>
       </c>
       <c r="AT39">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AU39">
         <v>1.9</v>
@@ -8834,7 +8894,7 @@
         <v>121</v>
       </c>
       <c r="P40" t="s">
-        <v>238</v>
+        <v>254</v>
       </c>
       <c r="Q40">
         <v>10</v>
@@ -8921,7 +8981,7 @@
         <v>1</v>
       </c>
       <c r="AS40">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AT40">
         <v>1.44</v>
@@ -9112,10 +9172,10 @@
         <v>0</v>
       </c>
       <c r="AS41">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AT41">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU41">
         <v>1.36</v>
@@ -9303,10 +9363,10 @@
         <v>0</v>
       </c>
       <c r="AS42">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AT42">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU42">
         <v>0.57</v>
@@ -9494,10 +9554,10 @@
         <v>0</v>
       </c>
       <c r="AS43">
-        <v>1.43</v>
+        <v>1.22</v>
       </c>
       <c r="AT43">
-        <v>1.13</v>
+        <v>1.3</v>
       </c>
       <c r="AU43">
         <v>1.48</v>
@@ -9688,7 +9748,7 @@
         <v>1.78</v>
       </c>
       <c r="AT44">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AU44">
         <v>1.01</v>
@@ -9876,10 +9936,10 @@
         <v>3</v>
       </c>
       <c r="AS45">
-        <v>0.88</v>
+        <v>0.9</v>
       </c>
       <c r="AT45">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AU45">
         <v>0.53</v>
@@ -10070,7 +10130,7 @@
         <v>2.11</v>
       </c>
       <c r="AT46">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU46">
         <v>2.09</v>
@@ -10258,7 +10318,7 @@
         <v>3</v>
       </c>
       <c r="AS47">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT47">
         <v>1.22</v>
@@ -10449,10 +10509,10 @@
         <v>0</v>
       </c>
       <c r="AS48">
-        <v>1.63</v>
+        <v>1.6</v>
       </c>
       <c r="AT48">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="AU48">
         <v>1.2</v>
@@ -10640,10 +10700,10 @@
         <v>0.5</v>
       </c>
       <c r="AS49">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AT49">
-        <v>1.13</v>
+        <v>1.3</v>
       </c>
       <c r="AU49">
         <v>1.23</v>
@@ -10744,7 +10804,7 @@
         <v>127</v>
       </c>
       <c r="P50" t="s">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="Q50">
         <v>12</v>
@@ -10831,7 +10891,7 @@
         <v>1.5</v>
       </c>
       <c r="AS50">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT50">
         <v>1.22</v>
@@ -11126,7 +11186,7 @@
         <v>129</v>
       </c>
       <c r="P52" t="s">
-        <v>240</v>
+        <v>256</v>
       </c>
       <c r="Q52">
         <v>8</v>
@@ -11213,10 +11273,10 @@
         <v>0</v>
       </c>
       <c r="AS52">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AT52">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU52">
         <v>1.78</v>
@@ -11404,10 +11464,10 @@
         <v>3</v>
       </c>
       <c r="AS53">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AT53">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU53">
         <v>1.32</v>
@@ -11508,7 +11568,7 @@
         <v>93</v>
       </c>
       <c r="P54" t="s">
-        <v>241</v>
+        <v>257</v>
       </c>
       <c r="Q54">
         <v>6</v>
@@ -11595,10 +11655,10 @@
         <v>0</v>
       </c>
       <c r="AS54">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AT54">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AU54">
         <v>1.06</v>
@@ -11890,7 +11950,7 @@
         <v>93</v>
       </c>
       <c r="P56" t="s">
-        <v>242</v>
+        <v>258</v>
       </c>
       <c r="Q56">
         <v>2</v>
@@ -11977,10 +12037,10 @@
         <v>3</v>
       </c>
       <c r="AS56">
-        <v>1.43</v>
+        <v>1.22</v>
       </c>
       <c r="AT56">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AU56">
         <v>1.38</v>
@@ -12081,7 +12141,7 @@
         <v>93</v>
       </c>
       <c r="P57" t="s">
-        <v>243</v>
+        <v>259</v>
       </c>
       <c r="Q57">
         <v>7</v>
@@ -12168,10 +12228,10 @@
         <v>0</v>
       </c>
       <c r="AS57">
-        <v>0.88</v>
+        <v>0.9</v>
       </c>
       <c r="AT57">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU57">
         <v>1.11</v>
@@ -12272,7 +12332,7 @@
         <v>93</v>
       </c>
       <c r="P58" t="s">
-        <v>244</v>
+        <v>260</v>
       </c>
       <c r="Q58">
         <v>4</v>
@@ -12362,7 +12422,7 @@
         <v>2.11</v>
       </c>
       <c r="AT58">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AU58">
         <v>1.95</v>
@@ -12463,7 +12523,7 @@
         <v>93</v>
       </c>
       <c r="P59" t="s">
-        <v>245</v>
+        <v>261</v>
       </c>
       <c r="Q59">
         <v>7</v>
@@ -12550,10 +12610,10 @@
         <v>0</v>
       </c>
       <c r="AS59">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT59">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="AU59">
         <v>1.81</v>
@@ -12741,10 +12801,10 @@
         <v>0.5</v>
       </c>
       <c r="AS60">
-        <v>1.63</v>
+        <v>1.6</v>
       </c>
       <c r="AT60">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU60">
         <v>1.47</v>
@@ -12935,7 +12995,7 @@
         <v>3</v>
       </c>
       <c r="AT61">
-        <v>1.14</v>
+        <v>1.33</v>
       </c>
       <c r="AU61">
         <v>2.04</v>
@@ -13036,7 +13096,7 @@
         <v>93</v>
       </c>
       <c r="P62" t="s">
-        <v>229</v>
+        <v>245</v>
       </c>
       <c r="Q62">
         <v>3</v>
@@ -13123,10 +13183,10 @@
         <v>2</v>
       </c>
       <c r="AS62">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT62">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AU62">
         <v>1.61</v>
@@ -13227,7 +13287,7 @@
         <v>133</v>
       </c>
       <c r="P63" t="s">
-        <v>246</v>
+        <v>262</v>
       </c>
       <c r="Q63">
         <v>9</v>
@@ -13317,7 +13377,7 @@
         <v>1.33</v>
       </c>
       <c r="AT63">
-        <v>0.88</v>
+        <v>0.8</v>
       </c>
       <c r="AU63">
         <v>2.29</v>
@@ -13418,7 +13478,7 @@
         <v>93</v>
       </c>
       <c r="P64" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="Q64">
         <v>7</v>
@@ -13505,10 +13565,10 @@
         <v>0</v>
       </c>
       <c r="AS64">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AT64">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU64">
         <v>1.3</v>
@@ -13696,10 +13756,10 @@
         <v>2</v>
       </c>
       <c r="AS65">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AT65">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU65">
         <v>1.6</v>
@@ -13800,7 +13860,7 @@
         <v>135</v>
       </c>
       <c r="P66" t="s">
-        <v>248</v>
+        <v>264</v>
       </c>
       <c r="Q66">
         <v>3</v>
@@ -13887,10 +13947,10 @@
         <v>0.5</v>
       </c>
       <c r="AS66">
-        <v>1.29</v>
+        <v>1.44</v>
       </c>
       <c r="AT66">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU66">
         <v>1.42</v>
@@ -13991,7 +14051,7 @@
         <v>136</v>
       </c>
       <c r="P67" t="s">
-        <v>249</v>
+        <v>265</v>
       </c>
       <c r="Q67">
         <v>4</v>
@@ -14078,10 +14138,10 @@
         <v>0</v>
       </c>
       <c r="AS67">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AT67">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU67">
         <v>2.04</v>
@@ -14272,7 +14332,7 @@
         <v>2</v>
       </c>
       <c r="AT68">
-        <v>1.13</v>
+        <v>0.9</v>
       </c>
       <c r="AU68">
         <v>1.28</v>
@@ -14373,7 +14433,7 @@
         <v>113</v>
       </c>
       <c r="P69" t="s">
-        <v>250</v>
+        <v>266</v>
       </c>
       <c r="Q69">
         <v>3</v>
@@ -14460,10 +14520,10 @@
         <v>0</v>
       </c>
       <c r="AS69">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT69">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AU69">
         <v>1.48</v>
@@ -14564,7 +14624,7 @@
         <v>138</v>
       </c>
       <c r="P70" t="s">
-        <v>251</v>
+        <v>267</v>
       </c>
       <c r="Q70">
         <v>6</v>
@@ -14651,7 +14711,7 @@
         <v>0.5</v>
       </c>
       <c r="AS70">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="AT70">
         <v>0.5600000000000001</v>
@@ -14755,7 +14815,7 @@
         <v>139</v>
       </c>
       <c r="P71" t="s">
-        <v>252</v>
+        <v>268</v>
       </c>
       <c r="Q71">
         <v>4</v>
@@ -14842,10 +14902,10 @@
         <v>2</v>
       </c>
       <c r="AS71">
-        <v>1.13</v>
+        <v>1.3</v>
       </c>
       <c r="AT71">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU71">
         <v>1.15</v>
@@ -15033,7 +15093,7 @@
         <v>0.5</v>
       </c>
       <c r="AS72">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AT72">
         <v>1</v>
@@ -15137,7 +15197,7 @@
         <v>93</v>
       </c>
       <c r="P73" t="s">
-        <v>253</v>
+        <v>269</v>
       </c>
       <c r="Q73">
         <v>9</v>
@@ -15224,10 +15284,10 @@
         <v>0.33</v>
       </c>
       <c r="AS73">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AT73">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU73">
         <v>1.66</v>
@@ -15415,10 +15475,10 @@
         <v>1</v>
       </c>
       <c r="AS74">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT74">
-        <v>1.13</v>
+        <v>0.9</v>
       </c>
       <c r="AU74">
         <v>1.5</v>
@@ -15519,7 +15579,7 @@
         <v>141</v>
       </c>
       <c r="P75" t="s">
-        <v>254</v>
+        <v>270</v>
       </c>
       <c r="Q75">
         <v>2</v>
@@ -15606,10 +15666,10 @@
         <v>1.33</v>
       </c>
       <c r="AS75">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT75">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU75">
         <v>1.45</v>
@@ -15710,7 +15770,7 @@
         <v>93</v>
       </c>
       <c r="P76" t="s">
-        <v>255</v>
+        <v>271</v>
       </c>
       <c r="Q76">
         <v>6</v>
@@ -15797,10 +15857,10 @@
         <v>1.67</v>
       </c>
       <c r="AS76">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AT76">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU76">
         <v>1.23</v>
@@ -15988,10 +16048,10 @@
         <v>1</v>
       </c>
       <c r="AS77">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AT77">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="AU77">
         <v>1.09</v>
@@ -16179,10 +16239,10 @@
         <v>1</v>
       </c>
       <c r="AS78">
-        <v>1.63</v>
+        <v>1.6</v>
       </c>
       <c r="AT78">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU78">
         <v>1.58</v>
@@ -16370,7 +16430,7 @@
         <v>0.33</v>
       </c>
       <c r="AS79">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AT79">
         <v>0.5600000000000001</v>
@@ -16561,7 +16621,7 @@
         <v>1.33</v>
       </c>
       <c r="AS80">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="AT80">
         <v>1.44</v>
@@ -16665,7 +16725,7 @@
         <v>145</v>
       </c>
       <c r="P81" t="s">
-        <v>256</v>
+        <v>272</v>
       </c>
       <c r="Q81">
         <v>11</v>
@@ -16752,10 +16812,10 @@
         <v>0.33</v>
       </c>
       <c r="AS81">
-        <v>1.13</v>
+        <v>1.3</v>
       </c>
       <c r="AT81">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU81">
         <v>1.15</v>
@@ -16856,7 +16916,7 @@
         <v>146</v>
       </c>
       <c r="P82" t="s">
-        <v>257</v>
+        <v>273</v>
       </c>
       <c r="Q82">
         <v>5</v>
@@ -16946,7 +17006,7 @@
         <v>2.11</v>
       </c>
       <c r="AT82">
-        <v>0.88</v>
+        <v>0.8</v>
       </c>
       <c r="AU82">
         <v>1.78</v>
@@ -17047,7 +17107,7 @@
         <v>93</v>
       </c>
       <c r="P83" t="s">
-        <v>258</v>
+        <v>274</v>
       </c>
       <c r="Q83">
         <v>6</v>
@@ -17134,10 +17194,10 @@
         <v>3</v>
       </c>
       <c r="AS83">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AT83">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AU83">
         <v>2.04</v>
@@ -17238,7 +17298,7 @@
         <v>147</v>
       </c>
       <c r="P84" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="Q84">
         <v>4</v>
@@ -17328,7 +17388,7 @@
         <v>2</v>
       </c>
       <c r="AT84">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AU84">
         <v>1.58</v>
@@ -17429,7 +17489,7 @@
         <v>148</v>
       </c>
       <c r="P85" t="s">
-        <v>260</v>
+        <v>276</v>
       </c>
       <c r="Q85">
         <v>1</v>
@@ -17516,10 +17576,10 @@
         <v>2</v>
       </c>
       <c r="AS85">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AT85">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU85">
         <v>1.43</v>
@@ -17620,7 +17680,7 @@
         <v>149</v>
       </c>
       <c r="P86" t="s">
-        <v>261</v>
+        <v>277</v>
       </c>
       <c r="Q86">
         <v>6</v>
@@ -17707,7 +17767,7 @@
         <v>0.33</v>
       </c>
       <c r="AS86">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT86">
         <v>0.78</v>
@@ -17898,7 +17958,7 @@
         <v>1</v>
       </c>
       <c r="AS87">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AT87">
         <v>1.22</v>
@@ -18089,10 +18149,10 @@
         <v>0.67</v>
       </c>
       <c r="AS88">
-        <v>1.29</v>
+        <v>1.44</v>
       </c>
       <c r="AT88">
-        <v>1.13</v>
+        <v>1.3</v>
       </c>
       <c r="AU88">
         <v>1.31</v>
@@ -18193,7 +18253,7 @@
         <v>93</v>
       </c>
       <c r="P89" t="s">
-        <v>262</v>
+        <v>278</v>
       </c>
       <c r="Q89">
         <v>3</v>
@@ -18280,10 +18340,10 @@
         <v>0.67</v>
       </c>
       <c r="AS89">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AT89">
-        <v>1.14</v>
+        <v>1.33</v>
       </c>
       <c r="AU89">
         <v>1.3</v>
@@ -18384,7 +18444,7 @@
         <v>152</v>
       </c>
       <c r="P90" t="s">
-        <v>263</v>
+        <v>279</v>
       </c>
       <c r="Q90">
         <v>5</v>
@@ -18471,7 +18531,7 @@
         <v>0.67</v>
       </c>
       <c r="AS90">
-        <v>1.43</v>
+        <v>1.22</v>
       </c>
       <c r="AT90">
         <v>1</v>
@@ -18575,7 +18635,7 @@
         <v>93</v>
       </c>
       <c r="P91" t="s">
-        <v>233</v>
+        <v>249</v>
       </c>
       <c r="Q91">
         <v>11</v>
@@ -18665,7 +18725,7 @@
         <v>2.44</v>
       </c>
       <c r="AT91">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU91">
         <v>2.02</v>
@@ -18856,7 +18916,7 @@
         <v>3</v>
       </c>
       <c r="AT92">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AU92">
         <v>1.73</v>
@@ -19047,7 +19107,7 @@
         <v>1.33</v>
       </c>
       <c r="AT93">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU93">
         <v>2.16</v>
@@ -19148,7 +19208,7 @@
         <v>93</v>
       </c>
       <c r="P94" t="s">
-        <v>264</v>
+        <v>280</v>
       </c>
       <c r="Q94">
         <v>4</v>
@@ -19235,10 +19295,10 @@
         <v>2.33</v>
       </c>
       <c r="AS94">
-        <v>0.88</v>
+        <v>0.9</v>
       </c>
       <c r="AT94">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AU94">
         <v>1.19</v>
@@ -19339,7 +19399,7 @@
         <v>93</v>
       </c>
       <c r="P95" t="s">
-        <v>265</v>
+        <v>281</v>
       </c>
       <c r="Q95">
         <v>3</v>
@@ -19426,10 +19486,10 @@
         <v>2</v>
       </c>
       <c r="AS95">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AT95">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AU95">
         <v>1.56</v>
@@ -19530,7 +19590,7 @@
         <v>155</v>
       </c>
       <c r="P96" t="s">
-        <v>234</v>
+        <v>250</v>
       </c>
       <c r="Q96">
         <v>9</v>
@@ -19617,10 +19677,10 @@
         <v>1</v>
       </c>
       <c r="AS96">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT96">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU96">
         <v>1.68</v>
@@ -19811,7 +19871,7 @@
         <v>1.78</v>
       </c>
       <c r="AT97">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU97">
         <v>1.57</v>
@@ -19912,7 +19972,7 @@
         <v>93</v>
       </c>
       <c r="P98" t="s">
-        <v>266</v>
+        <v>282</v>
       </c>
       <c r="Q98">
         <v>5</v>
@@ -19999,7 +20059,7 @@
         <v>0.25</v>
       </c>
       <c r="AS98">
-        <v>1.63</v>
+        <v>1.6</v>
       </c>
       <c r="AT98">
         <v>0.5600000000000001</v>
@@ -20190,10 +20250,10 @@
         <v>0.5</v>
       </c>
       <c r="AS99">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AT99">
-        <v>0.88</v>
+        <v>0.8</v>
       </c>
       <c r="AU99">
         <v>1.4</v>
@@ -20294,7 +20354,7 @@
         <v>157</v>
       </c>
       <c r="P100" t="s">
-        <v>267</v>
+        <v>234</v>
       </c>
       <c r="Q100">
         <v>6</v>
@@ -20381,10 +20441,10 @@
         <v>2</v>
       </c>
       <c r="AS100">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT100">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU100">
         <v>1.44</v>
@@ -20485,7 +20545,7 @@
         <v>158</v>
       </c>
       <c r="P101" t="s">
-        <v>246</v>
+        <v>262</v>
       </c>
       <c r="Q101">
         <v>8</v>
@@ -20575,7 +20635,7 @@
         <v>2</v>
       </c>
       <c r="AT101">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="AU101">
         <v>1.52</v>
@@ -20676,7 +20736,7 @@
         <v>93</v>
       </c>
       <c r="P102" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="Q102">
         <v>3</v>
@@ -20763,10 +20823,10 @@
         <v>1</v>
       </c>
       <c r="AS102">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="AT102">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU102">
         <v>1.65</v>
@@ -20867,7 +20927,7 @@
         <v>159</v>
       </c>
       <c r="P103" t="s">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="Q103">
         <v>9</v>
@@ -20954,7 +21014,7 @@
         <v>1</v>
       </c>
       <c r="AS103">
-        <v>1.13</v>
+        <v>1.3</v>
       </c>
       <c r="AT103">
         <v>1.44</v>
@@ -21148,7 +21208,7 @@
         <v>2.11</v>
       </c>
       <c r="AT104">
-        <v>1.13</v>
+        <v>0.9</v>
       </c>
       <c r="AU104">
         <v>1.81</v>
@@ -21336,10 +21396,10 @@
         <v>1.25</v>
       </c>
       <c r="AS105">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AT105">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU105">
         <v>1.83</v>
@@ -21440,7 +21500,7 @@
         <v>162</v>
       </c>
       <c r="P106" t="s">
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="Q106">
         <v>2</v>
@@ -21527,10 +21587,10 @@
         <v>1.5</v>
       </c>
       <c r="AS106">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT106">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AU106">
         <v>1.46</v>
@@ -21631,7 +21691,7 @@
         <v>163</v>
       </c>
       <c r="P107" t="s">
-        <v>271</v>
+        <v>286</v>
       </c>
       <c r="Q107">
         <v>3</v>
@@ -21718,10 +21778,10 @@
         <v>3</v>
       </c>
       <c r="AS107">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AT107">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AU107">
         <v>1.56</v>
@@ -21822,7 +21882,7 @@
         <v>130</v>
       </c>
       <c r="P108" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="Q108">
         <v>9</v>
@@ -21909,10 +21969,10 @@
         <v>0.5</v>
       </c>
       <c r="AS108">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AT108">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU108">
         <v>1.38</v>
@@ -22013,7 +22073,7 @@
         <v>164</v>
       </c>
       <c r="P109" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="Q109">
         <v>5</v>
@@ -22100,10 +22160,10 @@
         <v>0.75</v>
       </c>
       <c r="AS109">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AT109">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU109">
         <v>1.9</v>
@@ -22204,7 +22264,7 @@
         <v>93</v>
       </c>
       <c r="P110" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="Q110">
         <v>3</v>
@@ -22291,7 +22351,7 @@
         <v>0.5</v>
       </c>
       <c r="AS110">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AT110">
         <v>1</v>
@@ -22395,7 +22455,7 @@
         <v>165</v>
       </c>
       <c r="P111" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="Q111">
         <v>4</v>
@@ -22482,10 +22542,10 @@
         <v>0.6</v>
       </c>
       <c r="AS111">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT111">
-        <v>0.88</v>
+        <v>0.8</v>
       </c>
       <c r="AU111">
         <v>1.75</v>
@@ -22673,10 +22733,10 @@
         <v>1</v>
       </c>
       <c r="AS112">
-        <v>1.13</v>
+        <v>1.3</v>
       </c>
       <c r="AT112">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU112">
         <v>1.62</v>
@@ -22777,7 +22837,7 @@
         <v>166</v>
       </c>
       <c r="P113" t="s">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="Q113">
         <v>0</v>
@@ -22864,7 +22924,7 @@
         <v>0.25</v>
       </c>
       <c r="AS113">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AT113">
         <v>0.78</v>
@@ -22968,7 +23028,7 @@
         <v>167</v>
       </c>
       <c r="P114" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="Q114">
         <v>3</v>
@@ -23055,7 +23115,7 @@
         <v>0.8</v>
       </c>
       <c r="AS114">
-        <v>1.43</v>
+        <v>1.22</v>
       </c>
       <c r="AT114">
         <v>0.5600000000000001</v>
@@ -23249,7 +23309,7 @@
         <v>2.44</v>
       </c>
       <c r="AT115">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU115">
         <v>2.02</v>
@@ -23350,7 +23410,7 @@
         <v>169</v>
       </c>
       <c r="P116" t="s">
-        <v>278</v>
+        <v>292</v>
       </c>
       <c r="Q116">
         <v>12</v>
@@ -23437,10 +23497,10 @@
         <v>0.8</v>
       </c>
       <c r="AS116">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AT116">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="AU116">
         <v>1.52</v>
@@ -23631,7 +23691,7 @@
         <v>3</v>
       </c>
       <c r="AT117">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AU117">
         <v>1.83</v>
@@ -23732,7 +23792,7 @@
         <v>93</v>
       </c>
       <c r="P118" t="s">
-        <v>279</v>
+        <v>227</v>
       </c>
       <c r="Q118">
         <v>11</v>
@@ -23822,7 +23882,7 @@
         <v>1.33</v>
       </c>
       <c r="AT118">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AU118">
         <v>2.07</v>
@@ -24010,10 +24070,10 @@
         <v>2.25</v>
       </c>
       <c r="AS119">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT119">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AU119">
         <v>1.48</v>
@@ -24114,7 +24174,7 @@
         <v>171</v>
       </c>
       <c r="P120" t="s">
-        <v>280</v>
+        <v>293</v>
       </c>
       <c r="Q120">
         <v>5</v>
@@ -24201,10 +24261,10 @@
         <v>0.6</v>
       </c>
       <c r="AS120">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AT120">
-        <v>1.13</v>
+        <v>0.9</v>
       </c>
       <c r="AU120">
         <v>1.1</v>
@@ -24305,7 +24365,7 @@
         <v>172</v>
       </c>
       <c r="P121" t="s">
-        <v>281</v>
+        <v>294</v>
       </c>
       <c r="Q121">
         <v>8</v>
@@ -24392,10 +24452,10 @@
         <v>2.5</v>
       </c>
       <c r="AS121">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AT121">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AU121">
         <v>2.04</v>
@@ -24496,7 +24556,7 @@
         <v>93</v>
       </c>
       <c r="P122" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="Q122">
         <v>5</v>
@@ -24583,10 +24643,10 @@
         <v>1.4</v>
       </c>
       <c r="AS122">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AT122">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU122">
         <v>1.45</v>
@@ -24687,7 +24747,7 @@
         <v>173</v>
       </c>
       <c r="P123" t="s">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="Q123">
         <v>6</v>
@@ -24774,7 +24834,7 @@
         <v>0.75</v>
       </c>
       <c r="AS123">
-        <v>1.63</v>
+        <v>1.6</v>
       </c>
       <c r="AT123">
         <v>1.22</v>
@@ -24965,10 +25025,10 @@
         <v>1.6</v>
       </c>
       <c r="AS124">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT124">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU124">
         <v>1.42</v>
@@ -25069,7 +25129,7 @@
         <v>175</v>
       </c>
       <c r="P125" t="s">
-        <v>284</v>
+        <v>297</v>
       </c>
       <c r="Q125">
         <v>1</v>
@@ -25159,7 +25219,7 @@
         <v>1.78</v>
       </c>
       <c r="AT125">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AU125">
         <v>1.74</v>
@@ -25260,7 +25320,7 @@
         <v>93</v>
       </c>
       <c r="P126" t="s">
-        <v>285</v>
+        <v>298</v>
       </c>
       <c r="Q126">
         <v>2</v>
@@ -25347,10 +25407,10 @@
         <v>0.5</v>
       </c>
       <c r="AS126">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="AT126">
-        <v>1.13</v>
+        <v>1.3</v>
       </c>
       <c r="AU126">
         <v>1.58</v>
@@ -25538,10 +25598,10 @@
         <v>1</v>
       </c>
       <c r="AS127">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AT127">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU127">
         <v>1.76</v>
@@ -25833,7 +25893,7 @@
         <v>178</v>
       </c>
       <c r="P129" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="Q129">
         <v>9</v>
@@ -25920,10 +25980,10 @@
         <v>1.25</v>
       </c>
       <c r="AS129">
-        <v>0.88</v>
+        <v>0.9</v>
       </c>
       <c r="AT129">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU129">
         <v>1.16</v>
@@ -26111,10 +26171,10 @@
         <v>1.25</v>
       </c>
       <c r="AS130">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT130">
-        <v>1.14</v>
+        <v>1.33</v>
       </c>
       <c r="AU130">
         <v>1.38</v>
@@ -26305,7 +26365,7 @@
         <v>3</v>
       </c>
       <c r="AT131">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AU131">
         <v>1.75</v>
@@ -26493,10 +26553,10 @@
         <v>1.25</v>
       </c>
       <c r="AS132">
-        <v>0.88</v>
+        <v>0.9</v>
       </c>
       <c r="AT132">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU132">
         <v>1.28</v>
@@ -26684,7 +26744,7 @@
         <v>0.8</v>
       </c>
       <c r="AS133">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AT133">
         <v>0.78</v>
@@ -26875,10 +26935,10 @@
         <v>0.5</v>
       </c>
       <c r="AS134">
-        <v>1.29</v>
+        <v>1.44</v>
       </c>
       <c r="AT134">
-        <v>0.88</v>
+        <v>0.8</v>
       </c>
       <c r="AU134">
         <v>1.3</v>
@@ -27066,10 +27126,10 @@
         <v>1</v>
       </c>
       <c r="AS135">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AT135">
-        <v>1.14</v>
+        <v>1.33</v>
       </c>
       <c r="AU135">
         <v>1.35</v>
@@ -27170,7 +27230,7 @@
         <v>182</v>
       </c>
       <c r="P136" t="s">
-        <v>287</v>
+        <v>300</v>
       </c>
       <c r="Q136">
         <v>7</v>
@@ -27260,7 +27320,7 @@
         <v>2</v>
       </c>
       <c r="AT136">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU136">
         <v>1.79</v>
@@ -27448,7 +27508,7 @@
         <v>0.67</v>
       </c>
       <c r="AS137">
-        <v>1.13</v>
+        <v>1.3</v>
       </c>
       <c r="AT137">
         <v>0.78</v>
@@ -27552,7 +27612,7 @@
         <v>184</v>
       </c>
       <c r="P138" t="s">
-        <v>288</v>
+        <v>301</v>
       </c>
       <c r="Q138">
         <v>8</v>
@@ -27743,7 +27803,7 @@
         <v>93</v>
       </c>
       <c r="P139" t="s">
-        <v>289</v>
+        <v>302</v>
       </c>
       <c r="Q139">
         <v>7</v>
@@ -27830,7 +27890,7 @@
         <v>1</v>
       </c>
       <c r="AS139">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT139">
         <v>1</v>
@@ -28024,7 +28084,7 @@
         <v>3</v>
       </c>
       <c r="AT140">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU140">
         <v>1.91</v>
@@ -28125,7 +28185,7 @@
         <v>186</v>
       </c>
       <c r="P141" t="s">
-        <v>246</v>
+        <v>262</v>
       </c>
       <c r="Q141">
         <v>6</v>
@@ -28212,10 +28272,10 @@
         <v>1.6</v>
       </c>
       <c r="AS141">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT141">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU141">
         <v>1.5</v>
@@ -28403,10 +28463,10 @@
         <v>1</v>
       </c>
       <c r="AS142">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AT142">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU142">
         <v>1.59</v>
@@ -28594,10 +28654,10 @@
         <v>1.2</v>
       </c>
       <c r="AS143">
-        <v>1.43</v>
+        <v>1.22</v>
       </c>
       <c r="AT143">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU143">
         <v>1.24</v>
@@ -28698,7 +28758,7 @@
         <v>109</v>
       </c>
       <c r="P144" t="s">
-        <v>290</v>
+        <v>303</v>
       </c>
       <c r="Q144">
         <v>2</v>
@@ -28785,10 +28845,10 @@
         <v>2.17</v>
       </c>
       <c r="AS144">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AT144">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AU144">
         <v>1.27</v>
@@ -28889,7 +28949,7 @@
         <v>93</v>
       </c>
       <c r="P145" t="s">
-        <v>291</v>
+        <v>304</v>
       </c>
       <c r="Q145">
         <v>11</v>
@@ -28976,10 +29036,10 @@
         <v>0.67</v>
       </c>
       <c r="AS145">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AT145">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="AU145">
         <v>1.87</v>
@@ -29080,7 +29140,7 @@
         <v>189</v>
       </c>
       <c r="P146" t="s">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="Q146">
         <v>4</v>
@@ -29271,7 +29331,7 @@
         <v>93</v>
       </c>
       <c r="P147" t="s">
-        <v>260</v>
+        <v>276</v>
       </c>
       <c r="Q147">
         <v>0</v>
@@ -29358,7 +29418,7 @@
         <v>0.8</v>
       </c>
       <c r="AS147">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AT147">
         <v>1.22</v>
@@ -29552,7 +29612,7 @@
         <v>2.44</v>
       </c>
       <c r="AT148">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU148">
         <v>2.04</v>
@@ -29653,7 +29713,7 @@
         <v>94</v>
       </c>
       <c r="P149" t="s">
-        <v>293</v>
+        <v>306</v>
       </c>
       <c r="Q149">
         <v>1</v>
@@ -29740,10 +29800,10 @@
         <v>1.67</v>
       </c>
       <c r="AS149">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AT149">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AU149">
         <v>1.02</v>
@@ -29931,10 +29991,10 @@
         <v>1.33</v>
       </c>
       <c r="AS150">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AT150">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU150">
         <v>1.31</v>
@@ -30035,7 +30095,7 @@
         <v>93</v>
       </c>
       <c r="P151" t="s">
-        <v>294</v>
+        <v>307</v>
       </c>
       <c r="Q151">
         <v>14</v>
@@ -30122,7 +30182,7 @@
         <v>1.17</v>
       </c>
       <c r="AS151">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AT151">
         <v>1.44</v>
@@ -30226,7 +30286,7 @@
         <v>191</v>
       </c>
       <c r="P152" t="s">
-        <v>295</v>
+        <v>308</v>
       </c>
       <c r="Q152">
         <v>13</v>
@@ -30313,10 +30373,10 @@
         <v>0.83</v>
       </c>
       <c r="AS152">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT152">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU152">
         <v>1.44</v>
@@ -30417,7 +30477,7 @@
         <v>192</v>
       </c>
       <c r="P153" t="s">
-        <v>230</v>
+        <v>246</v>
       </c>
       <c r="Q153">
         <v>4</v>
@@ -30507,7 +30567,7 @@
         <v>1.33</v>
       </c>
       <c r="AT153">
-        <v>1.13</v>
+        <v>0.9</v>
       </c>
       <c r="AU153">
         <v>2.07</v>
@@ -30608,7 +30668,7 @@
         <v>193</v>
       </c>
       <c r="P154" t="s">
-        <v>296</v>
+        <v>309</v>
       </c>
       <c r="Q154">
         <v>5</v>
@@ -30695,10 +30755,10 @@
         <v>0.8</v>
       </c>
       <c r="AS154">
-        <v>1.63</v>
+        <v>1.6</v>
       </c>
       <c r="AT154">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AU154">
         <v>1.59</v>
@@ -30799,7 +30859,7 @@
         <v>93</v>
       </c>
       <c r="P155" t="s">
-        <v>297</v>
+        <v>310</v>
       </c>
       <c r="Q155">
         <v>6</v>
@@ -30886,10 +30946,10 @@
         <v>2</v>
       </c>
       <c r="AS155">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="AT155">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AU155">
         <v>1.45</v>
@@ -30990,7 +31050,7 @@
         <v>194</v>
       </c>
       <c r="P156" t="s">
-        <v>298</v>
+        <v>311</v>
       </c>
       <c r="Q156">
         <v>7</v>
@@ -31077,7 +31137,7 @@
         <v>1.17</v>
       </c>
       <c r="AS156">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT156">
         <v>1.22</v>
@@ -31271,7 +31331,7 @@
         <v>2.11</v>
       </c>
       <c r="AT157">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU157">
         <v>1.64</v>
@@ -31459,10 +31519,10 @@
         <v>0.83</v>
       </c>
       <c r="AS158">
-        <v>0.88</v>
+        <v>0.9</v>
       </c>
       <c r="AT158">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU158">
         <v>1.37</v>
@@ -31563,7 +31623,7 @@
         <v>93</v>
       </c>
       <c r="P159" t="s">
-        <v>299</v>
+        <v>312</v>
       </c>
       <c r="Q159">
         <v>5</v>
@@ -31650,10 +31710,10 @@
         <v>1</v>
       </c>
       <c r="AS159">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AT159">
-        <v>1.13</v>
+        <v>1.3</v>
       </c>
       <c r="AU159">
         <v>1.73</v>
@@ -31844,7 +31904,7 @@
         <v>1.78</v>
       </c>
       <c r="AT160">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AU160">
         <v>1.65</v>
@@ -32032,10 +32092,10 @@
         <v>1.33</v>
       </c>
       <c r="AS161">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AT161">
-        <v>1.13</v>
+        <v>1.3</v>
       </c>
       <c r="AU161">
         <v>2.19</v>
@@ -32223,10 +32283,10 @@
         <v>2.14</v>
       </c>
       <c r="AS162">
-        <v>1.29</v>
+        <v>1.44</v>
       </c>
       <c r="AT162">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AU162">
         <v>1.21</v>
@@ -32327,7 +32387,7 @@
         <v>197</v>
       </c>
       <c r="P163" t="s">
-        <v>300</v>
+        <v>313</v>
       </c>
       <c r="Q163">
         <v>6</v>
@@ -32414,10 +32474,10 @@
         <v>0.86</v>
       </c>
       <c r="AS163">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AT163">
-        <v>1.13</v>
+        <v>0.9</v>
       </c>
       <c r="AU163">
         <v>1.99</v>
@@ -32605,10 +32665,10 @@
         <v>0.57</v>
       </c>
       <c r="AS164">
-        <v>1.43</v>
+        <v>1.22</v>
       </c>
       <c r="AT164">
-        <v>0.88</v>
+        <v>0.8</v>
       </c>
       <c r="AU164">
         <v>1.29</v>
@@ -32796,10 +32856,10 @@
         <v>1.57</v>
       </c>
       <c r="AS165">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AT165">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU165">
         <v>1.27</v>
@@ -32900,7 +32960,7 @@
         <v>93</v>
       </c>
       <c r="P166" t="s">
-        <v>301</v>
+        <v>314</v>
       </c>
       <c r="Q166">
         <v>6</v>
@@ -32987,10 +33047,10 @@
         <v>1</v>
       </c>
       <c r="AS166">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AT166">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="AU166">
         <v>1.03</v>
@@ -33091,7 +33151,7 @@
         <v>198</v>
       </c>
       <c r="P167" t="s">
-        <v>261</v>
+        <v>277</v>
       </c>
       <c r="Q167">
         <v>3</v>
@@ -33178,10 +33238,10 @@
         <v>1.5</v>
       </c>
       <c r="AS167">
-        <v>1.63</v>
+        <v>1.6</v>
       </c>
       <c r="AT167">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU167">
         <v>1.54</v>
@@ -33282,7 +33342,7 @@
         <v>93</v>
       </c>
       <c r="P168" t="s">
-        <v>252</v>
+        <v>268</v>
       </c>
       <c r="Q168">
         <v>4</v>
@@ -33369,10 +33429,10 @@
         <v>1.17</v>
       </c>
       <c r="AS168">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="AT168">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU168">
         <v>1.43</v>
@@ -33560,10 +33620,10 @@
         <v>1.67</v>
       </c>
       <c r="AS169">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AT169">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AU169">
         <v>1.28</v>
@@ -33664,7 +33724,7 @@
         <v>199</v>
       </c>
       <c r="P170" t="s">
-        <v>302</v>
+        <v>315</v>
       </c>
       <c r="Q170">
         <v>8</v>
@@ -33751,10 +33811,10 @@
         <v>1.86</v>
       </c>
       <c r="AS170">
-        <v>1.13</v>
+        <v>1.3</v>
       </c>
       <c r="AT170">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AU170">
         <v>1.55</v>
@@ -33855,7 +33915,7 @@
         <v>200</v>
       </c>
       <c r="P171" t="s">
-        <v>303</v>
+        <v>316</v>
       </c>
       <c r="Q171">
         <v>4</v>
@@ -33942,10 +34002,10 @@
         <v>0.83</v>
       </c>
       <c r="AS171">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AT171">
-        <v>1.14</v>
+        <v>1.33</v>
       </c>
       <c r="AU171">
         <v>1.62</v>
@@ -34133,10 +34193,10 @@
         <v>0.83</v>
       </c>
       <c r="AS172">
-        <v>0.88</v>
+        <v>0.9</v>
       </c>
       <c r="AT172">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU172">
         <v>1.42</v>
@@ -34518,7 +34578,7 @@
         <v>3</v>
       </c>
       <c r="AT174">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU174">
         <v>1.84</v>
@@ -34619,7 +34679,7 @@
         <v>203</v>
       </c>
       <c r="P175" t="s">
-        <v>229</v>
+        <v>245</v>
       </c>
       <c r="Q175">
         <v>7</v>
@@ -34709,7 +34769,7 @@
         <v>2.44</v>
       </c>
       <c r="AT175">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU175">
         <v>2.07</v>
@@ -34810,7 +34870,7 @@
         <v>204</v>
       </c>
       <c r="P176" t="s">
-        <v>304</v>
+        <v>317</v>
       </c>
       <c r="Q176">
         <v>4</v>
@@ -34897,10 +34957,10 @@
         <v>2.29</v>
       </c>
       <c r="AS176">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT176">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AU176">
         <v>1.53</v>
@@ -35001,7 +35061,7 @@
         <v>153</v>
       </c>
       <c r="P177" t="s">
-        <v>233</v>
+        <v>249</v>
       </c>
       <c r="Q177">
         <v>8</v>
@@ -35088,10 +35148,10 @@
         <v>0.86</v>
       </c>
       <c r="AS177">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AT177">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU177">
         <v>1.43</v>
@@ -35192,7 +35252,7 @@
         <v>205</v>
       </c>
       <c r="P178" t="s">
-        <v>305</v>
+        <v>239</v>
       </c>
       <c r="Q178">
         <v>6</v>
@@ -35279,10 +35339,10 @@
         <v>1.17</v>
       </c>
       <c r="AS178">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT178">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AU178">
         <v>1.53</v>
@@ -35470,10 +35530,10 @@
         <v>0.86</v>
       </c>
       <c r="AS179">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT179">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU179">
         <v>1.42</v>
@@ -35574,7 +35634,7 @@
         <v>207</v>
       </c>
       <c r="P180" t="s">
-        <v>306</v>
+        <v>318</v>
       </c>
       <c r="Q180">
         <v>11</v>
@@ -35956,7 +36016,7 @@
         <v>93</v>
       </c>
       <c r="P182" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="Q182">
         <v>6</v>
@@ -36043,7 +36103,7 @@
         <v>1.43</v>
       </c>
       <c r="AS182">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT182">
         <v>1.44</v>
@@ -36147,7 +36207,7 @@
         <v>93</v>
       </c>
       <c r="P183" t="s">
-        <v>308</v>
+        <v>320</v>
       </c>
       <c r="Q183">
         <v>1</v>
@@ -36237,7 +36297,7 @@
         <v>1.78</v>
       </c>
       <c r="AT183">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU183">
         <v>1.63</v>
@@ -36425,7 +36485,7 @@
         <v>1.43</v>
       </c>
       <c r="AS184">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AT184">
         <v>1.22</v>
@@ -36616,10 +36676,10 @@
         <v>1.29</v>
       </c>
       <c r="AS185">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT185">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU185">
         <v>1.47</v>
@@ -36720,7 +36780,7 @@
         <v>210</v>
       </c>
       <c r="P186" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="Q186">
         <v>1</v>
@@ -36810,7 +36870,7 @@
         <v>1.78</v>
       </c>
       <c r="AT186">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AU186">
         <v>1.55</v>
@@ -36998,10 +37058,10 @@
         <v>1</v>
       </c>
       <c r="AS187">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AT187">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU187">
         <v>1.42</v>
@@ -37102,7 +37162,7 @@
         <v>212</v>
       </c>
       <c r="P188" t="s">
-        <v>310</v>
+        <v>322</v>
       </c>
       <c r="Q188">
         <v>7</v>
@@ -37293,7 +37353,7 @@
         <v>213</v>
       </c>
       <c r="P189" t="s">
-        <v>311</v>
+        <v>323</v>
       </c>
       <c r="Q189">
         <v>4</v>
@@ -37383,7 +37443,7 @@
         <v>2.11</v>
       </c>
       <c r="AT189">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AU189">
         <v>1.59</v>
@@ -37571,7 +37631,7 @@
         <v>1.63</v>
       </c>
       <c r="AS190">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT190">
         <v>1.44</v>
@@ -37866,7 +37926,7 @@
         <v>215</v>
       </c>
       <c r="P192" t="s">
-        <v>312</v>
+        <v>236</v>
       </c>
       <c r="Q192">
         <v>7</v>
@@ -37953,10 +38013,10 @@
         <v>1.38</v>
       </c>
       <c r="AS192">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT192">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU192">
         <v>1.42</v>
@@ -38057,7 +38117,7 @@
         <v>216</v>
       </c>
       <c r="P193" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="Q193">
         <v>7</v>
@@ -38144,7 +38204,7 @@
         <v>0.63</v>
       </c>
       <c r="AS193">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AT193">
         <v>0.5600000000000001</v>
@@ -38248,7 +38308,7 @@
         <v>217</v>
       </c>
       <c r="P194" t="s">
-        <v>314</v>
+        <v>325</v>
       </c>
       <c r="Q194">
         <v>13</v>
@@ -38338,7 +38398,7 @@
         <v>1.33</v>
       </c>
       <c r="AT194">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU194">
         <v>2.08</v>
@@ -38526,10 +38586,10 @@
         <v>0.88</v>
       </c>
       <c r="AS195">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT195">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU195">
         <v>1.52</v>
@@ -38630,7 +38690,7 @@
         <v>219</v>
       </c>
       <c r="P196" t="s">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="Q196">
         <v>6</v>
@@ -38821,7 +38881,7 @@
         <v>220</v>
       </c>
       <c r="P197" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="Q197">
         <v>7</v>
@@ -38908,10 +38968,10 @@
         <v>1.29</v>
       </c>
       <c r="AS197">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AT197">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU197">
         <v>1.92</v>
@@ -39012,7 +39072,7 @@
         <v>221</v>
       </c>
       <c r="P198" t="s">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="Q198">
         <v>6</v>
@@ -39102,7 +39162,7 @@
         <v>1.33</v>
       </c>
       <c r="AT198">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU198">
         <v>2.08</v>
@@ -39203,7 +39263,7 @@
         <v>222</v>
       </c>
       <c r="P199" t="s">
-        <v>318</v>
+        <v>329</v>
       </c>
       <c r="Q199">
         <v>3</v>
@@ -39290,10 +39350,10 @@
         <v>1.14</v>
       </c>
       <c r="AS199">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AT199">
-        <v>1.13</v>
+        <v>1.3</v>
       </c>
       <c r="AU199">
         <v>1.19</v>
@@ -39394,7 +39454,7 @@
         <v>223</v>
       </c>
       <c r="P200" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="Q200">
         <v>7</v>
@@ -39481,10 +39541,10 @@
         <v>0.88</v>
       </c>
       <c r="AS200">
-        <v>1.29</v>
+        <v>1.44</v>
       </c>
       <c r="AT200">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU200">
         <v>1.15</v>
@@ -39536,6 +39596,4781 @@
       </c>
       <c r="BK200">
         <v>11</v>
+      </c>
+    </row>
+    <row r="201" spans="1:63">
+      <c r="A201" s="1">
+        <v>200</v>
+      </c>
+      <c r="B201">
+        <v>2568024</v>
+      </c>
+      <c r="C201" t="s">
+        <v>63</v>
+      </c>
+      <c r="D201" t="s">
+        <v>64</v>
+      </c>
+      <c r="E201" s="2">
+        <v>44874.69791666666</v>
+      </c>
+      <c r="F201">
+        <v>8</v>
+      </c>
+      <c r="G201" t="s">
+        <v>78</v>
+      </c>
+      <c r="H201" t="s">
+        <v>81</v>
+      </c>
+      <c r="I201">
+        <v>0</v>
+      </c>
+      <c r="J201">
+        <v>1</v>
+      </c>
+      <c r="K201">
+        <v>1</v>
+      </c>
+      <c r="L201">
+        <v>1</v>
+      </c>
+      <c r="M201">
+        <v>1</v>
+      </c>
+      <c r="N201">
+        <v>2</v>
+      </c>
+      <c r="O201" t="s">
+        <v>224</v>
+      </c>
+      <c r="P201" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q201">
+        <v>12</v>
+      </c>
+      <c r="R201">
+        <v>0</v>
+      </c>
+      <c r="S201">
+        <v>12</v>
+      </c>
+      <c r="T201">
+        <v>3.2</v>
+      </c>
+      <c r="U201">
+        <v>2.05</v>
+      </c>
+      <c r="V201">
+        <v>3.2</v>
+      </c>
+      <c r="W201">
+        <v>1.43</v>
+      </c>
+      <c r="X201">
+        <v>2.6</v>
+      </c>
+      <c r="Y201">
+        <v>3.1</v>
+      </c>
+      <c r="Z201">
+        <v>1.32</v>
+      </c>
+      <c r="AA201">
+        <v>8.25</v>
+      </c>
+      <c r="AB201">
+        <v>1.06</v>
+      </c>
+      <c r="AC201">
+        <v>2.7</v>
+      </c>
+      <c r="AD201">
+        <v>3.2</v>
+      </c>
+      <c r="AE201">
+        <v>2.38</v>
+      </c>
+      <c r="AF201">
+        <v>1.06</v>
+      </c>
+      <c r="AG201">
+        <v>9.5</v>
+      </c>
+      <c r="AH201">
+        <v>1.36</v>
+      </c>
+      <c r="AI201">
+        <v>3.1</v>
+      </c>
+      <c r="AJ201">
+        <v>2.07</v>
+      </c>
+      <c r="AK201">
+        <v>1.75</v>
+      </c>
+      <c r="AL201">
+        <v>1.87</v>
+      </c>
+      <c r="AM201">
+        <v>1.83</v>
+      </c>
+      <c r="AN201">
+        <v>1.47</v>
+      </c>
+      <c r="AO201">
+        <v>1.31</v>
+      </c>
+      <c r="AP201">
+        <v>1.49</v>
+      </c>
+      <c r="AQ201">
+        <v>1.43</v>
+      </c>
+      <c r="AR201">
+        <v>1.38</v>
+      </c>
+      <c r="AS201">
+        <v>1.22</v>
+      </c>
+      <c r="AT201">
+        <v>1.33</v>
+      </c>
+      <c r="AU201">
+        <v>1.26</v>
+      </c>
+      <c r="AV201">
+        <v>1.12</v>
+      </c>
+      <c r="AW201">
+        <v>2.38</v>
+      </c>
+      <c r="AX201">
+        <v>2</v>
+      </c>
+      <c r="AY201">
+        <v>8</v>
+      </c>
+      <c r="AZ201">
+        <v>2.05</v>
+      </c>
+      <c r="BA201">
+        <v>1.22</v>
+      </c>
+      <c r="BB201">
+        <v>1.43</v>
+      </c>
+      <c r="BC201">
+        <v>1.8</v>
+      </c>
+      <c r="BD201">
+        <v>2.26</v>
+      </c>
+      <c r="BE201">
+        <v>3.04</v>
+      </c>
+      <c r="BF201">
+        <v>6</v>
+      </c>
+      <c r="BG201">
+        <v>2</v>
+      </c>
+      <c r="BH201">
+        <v>8</v>
+      </c>
+      <c r="BI201">
+        <v>11</v>
+      </c>
+      <c r="BJ201">
+        <v>14</v>
+      </c>
+      <c r="BK201">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="202" spans="1:63">
+      <c r="A202" s="1">
+        <v>201</v>
+      </c>
+      <c r="B202">
+        <v>2568145</v>
+      </c>
+      <c r="C202" t="s">
+        <v>63</v>
+      </c>
+      <c r="D202" t="s">
+        <v>64</v>
+      </c>
+      <c r="E202" s="2">
+        <v>44877.5</v>
+      </c>
+      <c r="F202">
+        <v>18</v>
+      </c>
+      <c r="G202" t="s">
+        <v>78</v>
+      </c>
+      <c r="H202" t="s">
+        <v>87</v>
+      </c>
+      <c r="I202">
+        <v>0</v>
+      </c>
+      <c r="J202">
+        <v>1</v>
+      </c>
+      <c r="K202">
+        <v>1</v>
+      </c>
+      <c r="L202">
+        <v>0</v>
+      </c>
+      <c r="M202">
+        <v>1</v>
+      </c>
+      <c r="N202">
+        <v>1</v>
+      </c>
+      <c r="O202" t="s">
+        <v>93</v>
+      </c>
+      <c r="P202" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q202">
+        <v>6</v>
+      </c>
+      <c r="R202">
+        <v>3</v>
+      </c>
+      <c r="S202">
+        <v>9</v>
+      </c>
+      <c r="T202">
+        <v>3.16</v>
+      </c>
+      <c r="U202">
+        <v>1.93</v>
+      </c>
+      <c r="V202">
+        <v>3.21</v>
+      </c>
+      <c r="W202">
+        <v>1.42</v>
+      </c>
+      <c r="X202">
+        <v>2.65</v>
+      </c>
+      <c r="Y202">
+        <v>2.9</v>
+      </c>
+      <c r="Z202">
+        <v>1.35</v>
+      </c>
+      <c r="AA202">
+        <v>8.25</v>
+      </c>
+      <c r="AB202">
+        <v>1.07</v>
+      </c>
+      <c r="AC202">
+        <v>2.18</v>
+      </c>
+      <c r="AD202">
+        <v>3.36</v>
+      </c>
+      <c r="AE202">
+        <v>3.34</v>
+      </c>
+      <c r="AF202">
+        <v>1.05</v>
+      </c>
+      <c r="AG202">
+        <v>10.5</v>
+      </c>
+      <c r="AH202">
+        <v>1.32</v>
+      </c>
+      <c r="AI202">
+        <v>3.15</v>
+      </c>
+      <c r="AJ202">
+        <v>2.1</v>
+      </c>
+      <c r="AK202">
+        <v>1.74</v>
+      </c>
+      <c r="AL202">
+        <v>1.8</v>
+      </c>
+      <c r="AM202">
+        <v>1.95</v>
+      </c>
+      <c r="AN202">
+        <v>1.47</v>
+      </c>
+      <c r="AO202">
+        <v>1.28</v>
+      </c>
+      <c r="AP202">
+        <v>1.5</v>
+      </c>
+      <c r="AQ202">
+        <v>1.38</v>
+      </c>
+      <c r="AR202">
+        <v>1.38</v>
+      </c>
+      <c r="AS202">
+        <v>1.22</v>
+      </c>
+      <c r="AT202">
+        <v>1.56</v>
+      </c>
+      <c r="AU202">
+        <v>1.31</v>
+      </c>
+      <c r="AV202">
+        <v>1.32</v>
+      </c>
+      <c r="AW202">
+        <v>2.63</v>
+      </c>
+      <c r="AX202">
+        <v>2.06</v>
+      </c>
+      <c r="AY202">
+        <v>7.7</v>
+      </c>
+      <c r="AZ202">
+        <v>2.12</v>
+      </c>
+      <c r="BA202">
+        <v>1.18</v>
+      </c>
+      <c r="BB202">
+        <v>1.38</v>
+      </c>
+      <c r="BC202">
+        <v>1.7</v>
+      </c>
+      <c r="BD202">
+        <v>2.13</v>
+      </c>
+      <c r="BE202">
+        <v>2.79</v>
+      </c>
+      <c r="BF202">
+        <v>2</v>
+      </c>
+      <c r="BG202">
+        <v>2</v>
+      </c>
+      <c r="BH202">
+        <v>9</v>
+      </c>
+      <c r="BI202">
+        <v>13</v>
+      </c>
+      <c r="BJ202">
+        <v>11</v>
+      </c>
+      <c r="BK202">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="203" spans="1:63">
+      <c r="A203" s="1">
+        <v>202</v>
+      </c>
+      <c r="B203">
+        <v>2568144</v>
+      </c>
+      <c r="C203" t="s">
+        <v>63</v>
+      </c>
+      <c r="D203" t="s">
+        <v>64</v>
+      </c>
+      <c r="E203" s="2">
+        <v>44877.5</v>
+      </c>
+      <c r="F203">
+        <v>18</v>
+      </c>
+      <c r="G203" t="s">
+        <v>81</v>
+      </c>
+      <c r="H203" t="s">
+        <v>68</v>
+      </c>
+      <c r="I203">
+        <v>2</v>
+      </c>
+      <c r="J203">
+        <v>0</v>
+      </c>
+      <c r="K203">
+        <v>2</v>
+      </c>
+      <c r="L203">
+        <v>4</v>
+      </c>
+      <c r="M203">
+        <v>0</v>
+      </c>
+      <c r="N203">
+        <v>4</v>
+      </c>
+      <c r="O203" t="s">
+        <v>225</v>
+      </c>
+      <c r="P203" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q203">
+        <v>3</v>
+      </c>
+      <c r="R203">
+        <v>9</v>
+      </c>
+      <c r="S203">
+        <v>12</v>
+      </c>
+      <c r="T203">
+        <v>2.88</v>
+      </c>
+      <c r="U203">
+        <v>2.08</v>
+      </c>
+      <c r="V203">
+        <v>3.8</v>
+      </c>
+      <c r="W203">
+        <v>1.37</v>
+      </c>
+      <c r="X203">
+        <v>2.85</v>
+      </c>
+      <c r="Y203">
+        <v>2.95</v>
+      </c>
+      <c r="Z203">
+        <v>1.34</v>
+      </c>
+      <c r="AA203">
+        <v>8</v>
+      </c>
+      <c r="AB203">
+        <v>1.06</v>
+      </c>
+      <c r="AC203">
+        <v>2.31</v>
+      </c>
+      <c r="AD203">
+        <v>3.4</v>
+      </c>
+      <c r="AE203">
+        <v>3.06</v>
+      </c>
+      <c r="AF203">
+        <v>1.05</v>
+      </c>
+      <c r="AG203">
+        <v>10</v>
+      </c>
+      <c r="AH203">
+        <v>1.33</v>
+      </c>
+      <c r="AI203">
+        <v>3.25</v>
+      </c>
+      <c r="AJ203">
+        <v>2.02</v>
+      </c>
+      <c r="AK203">
+        <v>1.79</v>
+      </c>
+      <c r="AL203">
+        <v>1.75</v>
+      </c>
+      <c r="AM203">
+        <v>2.02</v>
+      </c>
+      <c r="AN203">
+        <v>1.34</v>
+      </c>
+      <c r="AO203">
+        <v>1.34</v>
+      </c>
+      <c r="AP203">
+        <v>1.65</v>
+      </c>
+      <c r="AQ203">
+        <v>1</v>
+      </c>
+      <c r="AR203">
+        <v>1.38</v>
+      </c>
+      <c r="AS203">
+        <v>1.2</v>
+      </c>
+      <c r="AT203">
+        <v>1.22</v>
+      </c>
+      <c r="AU203">
+        <v>1.91</v>
+      </c>
+      <c r="AV203">
+        <v>1.25</v>
+      </c>
+      <c r="AW203">
+        <v>3.16</v>
+      </c>
+      <c r="AX203">
+        <v>1.66</v>
+      </c>
+      <c r="AY203">
+        <v>8</v>
+      </c>
+      <c r="AZ203">
+        <v>2.78</v>
+      </c>
+      <c r="BA203">
+        <v>1.2</v>
+      </c>
+      <c r="BB203">
+        <v>1.4</v>
+      </c>
+      <c r="BC203">
+        <v>1.74</v>
+      </c>
+      <c r="BD203">
+        <v>2.19</v>
+      </c>
+      <c r="BE203">
+        <v>2.88</v>
+      </c>
+      <c r="BF203">
+        <v>5</v>
+      </c>
+      <c r="BG203">
+        <v>0</v>
+      </c>
+      <c r="BH203">
+        <v>15</v>
+      </c>
+      <c r="BI203">
+        <v>16</v>
+      </c>
+      <c r="BJ203">
+        <v>20</v>
+      </c>
+      <c r="BK203">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="204" spans="1:63">
+      <c r="A204" s="1">
+        <v>203</v>
+      </c>
+      <c r="B204">
+        <v>2568143</v>
+      </c>
+      <c r="C204" t="s">
+        <v>63</v>
+      </c>
+      <c r="D204" t="s">
+        <v>64</v>
+      </c>
+      <c r="E204" s="2">
+        <v>44877.5</v>
+      </c>
+      <c r="F204">
+        <v>18</v>
+      </c>
+      <c r="G204" t="s">
+        <v>69</v>
+      </c>
+      <c r="H204" t="s">
+        <v>79</v>
+      </c>
+      <c r="I204">
+        <v>1</v>
+      </c>
+      <c r="J204">
+        <v>0</v>
+      </c>
+      <c r="K204">
+        <v>1</v>
+      </c>
+      <c r="L204">
+        <v>1</v>
+      </c>
+      <c r="M204">
+        <v>1</v>
+      </c>
+      <c r="N204">
+        <v>2</v>
+      </c>
+      <c r="O204" t="s">
+        <v>226</v>
+      </c>
+      <c r="P204" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q204">
+        <v>4</v>
+      </c>
+      <c r="R204">
+        <v>8</v>
+      </c>
+      <c r="S204">
+        <v>12</v>
+      </c>
+      <c r="T204">
+        <v>4.9</v>
+      </c>
+      <c r="U204">
+        <v>2.15</v>
+      </c>
+      <c r="V204">
+        <v>2.25</v>
+      </c>
+      <c r="W204">
+        <v>1.35</v>
+      </c>
+      <c r="X204">
+        <v>2.9</v>
+      </c>
+      <c r="Y204">
+        <v>2.75</v>
+      </c>
+      <c r="Z204">
+        <v>1.4</v>
+      </c>
+      <c r="AA204">
+        <v>6.5</v>
+      </c>
+      <c r="AB204">
+        <v>1.08</v>
+      </c>
+      <c r="AC204">
+        <v>3.98</v>
+      </c>
+      <c r="AD204">
+        <v>3.54</v>
+      </c>
+      <c r="AE204">
+        <v>1.92</v>
+      </c>
+      <c r="AF204">
+        <v>1.05</v>
+      </c>
+      <c r="AG204">
+        <v>11.5</v>
+      </c>
+      <c r="AH204">
+        <v>1.28</v>
+      </c>
+      <c r="AI204">
+        <v>3.3</v>
+      </c>
+      <c r="AJ204">
+        <v>2.05</v>
+      </c>
+      <c r="AK204">
+        <v>1.77</v>
+      </c>
+      <c r="AL204">
+        <v>1.8</v>
+      </c>
+      <c r="AM204">
+        <v>1.95</v>
+      </c>
+      <c r="AN204">
+        <v>2.1</v>
+      </c>
+      <c r="AO204">
+        <v>1.22</v>
+      </c>
+      <c r="AP204">
+        <v>1.2</v>
+      </c>
+      <c r="AQ204">
+        <v>0.75</v>
+      </c>
+      <c r="AR204">
+        <v>1.86</v>
+      </c>
+      <c r="AS204">
+        <v>0.78</v>
+      </c>
+      <c r="AT204">
+        <v>1.75</v>
+      </c>
+      <c r="AU204">
+        <v>1.23</v>
+      </c>
+      <c r="AV204">
+        <v>1.38</v>
+      </c>
+      <c r="AW204">
+        <v>2.61</v>
+      </c>
+      <c r="AX204">
+        <v>3.34</v>
+      </c>
+      <c r="AY204">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AZ204">
+        <v>1.5</v>
+      </c>
+      <c r="BA204">
+        <v>1.2</v>
+      </c>
+      <c r="BB204">
+        <v>1.37</v>
+      </c>
+      <c r="BC204">
+        <v>1.67</v>
+      </c>
+      <c r="BD204">
+        <v>2.12</v>
+      </c>
+      <c r="BE204">
+        <v>2.77</v>
+      </c>
+      <c r="BF204">
+        <v>5</v>
+      </c>
+      <c r="BG204">
+        <v>5</v>
+      </c>
+      <c r="BH204">
+        <v>11</v>
+      </c>
+      <c r="BI204">
+        <v>9</v>
+      </c>
+      <c r="BJ204">
+        <v>16</v>
+      </c>
+      <c r="BK204">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="205" spans="1:63">
+      <c r="A205" s="1">
+        <v>204</v>
+      </c>
+      <c r="B205">
+        <v>2568142</v>
+      </c>
+      <c r="C205" t="s">
+        <v>63</v>
+      </c>
+      <c r="D205" t="s">
+        <v>64</v>
+      </c>
+      <c r="E205" s="2">
+        <v>44877.5</v>
+      </c>
+      <c r="F205">
+        <v>18</v>
+      </c>
+      <c r="G205" t="s">
+        <v>77</v>
+      </c>
+      <c r="H205" t="s">
+        <v>72</v>
+      </c>
+      <c r="I205">
+        <v>1</v>
+      </c>
+      <c r="J205">
+        <v>1</v>
+      </c>
+      <c r="K205">
+        <v>2</v>
+      </c>
+      <c r="L205">
+        <v>1</v>
+      </c>
+      <c r="M205">
+        <v>3</v>
+      </c>
+      <c r="N205">
+        <v>4</v>
+      </c>
+      <c r="O205" t="s">
+        <v>131</v>
+      </c>
+      <c r="P205" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q205">
+        <v>6</v>
+      </c>
+      <c r="R205">
+        <v>9</v>
+      </c>
+      <c r="S205">
+        <v>15</v>
+      </c>
+      <c r="T205">
+        <v>4</v>
+      </c>
+      <c r="U205">
+        <v>2.2</v>
+      </c>
+      <c r="V205">
+        <v>2.63</v>
+      </c>
+      <c r="W205">
+        <v>1.4</v>
+      </c>
+      <c r="X205">
+        <v>2.75</v>
+      </c>
+      <c r="Y205">
+        <v>2.75</v>
+      </c>
+      <c r="Z205">
+        <v>1.4</v>
+      </c>
+      <c r="AA205">
+        <v>8</v>
+      </c>
+      <c r="AB205">
+        <v>1.08</v>
+      </c>
+      <c r="AC205">
+        <v>3.3</v>
+      </c>
+      <c r="AD205">
+        <v>3.4</v>
+      </c>
+      <c r="AE205">
+        <v>2.18</v>
+      </c>
+      <c r="AF205">
+        <v>1.05</v>
+      </c>
+      <c r="AG205">
+        <v>11</v>
+      </c>
+      <c r="AH205">
+        <v>1.3</v>
+      </c>
+      <c r="AI205">
+        <v>3.4</v>
+      </c>
+      <c r="AJ205">
+        <v>2.05</v>
+      </c>
+      <c r="AK205">
+        <v>1.77</v>
+      </c>
+      <c r="AL205">
+        <v>1.7</v>
+      </c>
+      <c r="AM205">
+        <v>2</v>
+      </c>
+      <c r="AN205">
+        <v>1.8</v>
+      </c>
+      <c r="AO205">
+        <v>1.25</v>
+      </c>
+      <c r="AP205">
+        <v>1.3</v>
+      </c>
+      <c r="AQ205">
+        <v>0.5</v>
+      </c>
+      <c r="AR205">
+        <v>1.13</v>
+      </c>
+      <c r="AS205">
+        <v>0.44</v>
+      </c>
+      <c r="AT205">
+        <v>1.3</v>
+      </c>
+      <c r="AU205">
+        <v>1.13</v>
+      </c>
+      <c r="AV205">
+        <v>1.71</v>
+      </c>
+      <c r="AW205">
+        <v>2.84</v>
+      </c>
+      <c r="AX205">
+        <v>2.79</v>
+      </c>
+      <c r="AY205">
+        <v>8.1</v>
+      </c>
+      <c r="AZ205">
+        <v>1.67</v>
+      </c>
+      <c r="BA205">
+        <v>1.24</v>
+      </c>
+      <c r="BB205">
+        <v>1.48</v>
+      </c>
+      <c r="BC205">
+        <v>1.83</v>
+      </c>
+      <c r="BD205">
+        <v>2.35</v>
+      </c>
+      <c r="BE205">
+        <v>3.08</v>
+      </c>
+      <c r="BF205">
+        <v>5</v>
+      </c>
+      <c r="BG205">
+        <v>4</v>
+      </c>
+      <c r="BH205">
+        <v>9</v>
+      </c>
+      <c r="BI205">
+        <v>5</v>
+      </c>
+      <c r="BJ205">
+        <v>14</v>
+      </c>
+      <c r="BK205">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="206" spans="1:63">
+      <c r="A206" s="1">
+        <v>205</v>
+      </c>
+      <c r="B206">
+        <v>2568140</v>
+      </c>
+      <c r="C206" t="s">
+        <v>63</v>
+      </c>
+      <c r="D206" t="s">
+        <v>64</v>
+      </c>
+      <c r="E206" s="2">
+        <v>44877.5</v>
+      </c>
+      <c r="F206">
+        <v>18</v>
+      </c>
+      <c r="G206" t="s">
+        <v>76</v>
+      </c>
+      <c r="H206" t="s">
+        <v>73</v>
+      </c>
+      <c r="I206">
+        <v>1</v>
+      </c>
+      <c r="J206">
+        <v>1</v>
+      </c>
+      <c r="K206">
+        <v>2</v>
+      </c>
+      <c r="L206">
+        <v>1</v>
+      </c>
+      <c r="M206">
+        <v>1</v>
+      </c>
+      <c r="N206">
+        <v>2</v>
+      </c>
+      <c r="O206" t="s">
+        <v>227</v>
+      </c>
+      <c r="P206" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q206">
+        <v>15</v>
+      </c>
+      <c r="R206">
+        <v>0</v>
+      </c>
+      <c r="S206">
+        <v>15</v>
+      </c>
+      <c r="T206">
+        <v>1.78</v>
+      </c>
+      <c r="U206">
+        <v>2.5</v>
+      </c>
+      <c r="V206">
+        <v>8.5</v>
+      </c>
+      <c r="W206">
+        <v>1.32</v>
+      </c>
+      <c r="X206">
+        <v>3.15</v>
+      </c>
+      <c r="Y206">
+        <v>2.6</v>
+      </c>
+      <c r="Z206">
+        <v>1.44</v>
+      </c>
+      <c r="AA206">
+        <v>6.4</v>
+      </c>
+      <c r="AB206">
+        <v>1.09</v>
+      </c>
+      <c r="AC206">
+        <v>1.34</v>
+      </c>
+      <c r="AD206">
+        <v>5</v>
+      </c>
+      <c r="AE206">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AF206">
+        <v>1</v>
+      </c>
+      <c r="AG206">
+        <v>10.25</v>
+      </c>
+      <c r="AH206">
+        <v>1.24</v>
+      </c>
+      <c r="AI206">
+        <v>3.72</v>
+      </c>
+      <c r="AJ206">
+        <v>1.83</v>
+      </c>
+      <c r="AK206">
+        <v>1.97</v>
+      </c>
+      <c r="AL206">
+        <v>2.3</v>
+      </c>
+      <c r="AM206">
+        <v>1.6</v>
+      </c>
+      <c r="AN206">
+        <v>1.03</v>
+      </c>
+      <c r="AO206">
+        <v>1.12</v>
+      </c>
+      <c r="AP206">
+        <v>3.6</v>
+      </c>
+      <c r="AQ206">
+        <v>2.13</v>
+      </c>
+      <c r="AR206">
+        <v>0.71</v>
+      </c>
+      <c r="AS206">
+        <v>2</v>
+      </c>
+      <c r="AT206">
+        <v>0.75</v>
+      </c>
+      <c r="AU206">
+        <v>2.16</v>
+      </c>
+      <c r="AV206">
+        <v>1.04</v>
+      </c>
+      <c r="AW206">
+        <v>3.2</v>
+      </c>
+      <c r="AX206">
+        <v>1.11</v>
+      </c>
+      <c r="AY206">
+        <v>13</v>
+      </c>
+      <c r="AZ206">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="BA206">
+        <v>1.27</v>
+      </c>
+      <c r="BB206">
+        <v>1.53</v>
+      </c>
+      <c r="BC206">
+        <v>1.9</v>
+      </c>
+      <c r="BD206">
+        <v>2.45</v>
+      </c>
+      <c r="BE206">
+        <v>3.2</v>
+      </c>
+      <c r="BF206">
+        <v>6</v>
+      </c>
+      <c r="BG206">
+        <v>2</v>
+      </c>
+      <c r="BH206">
+        <v>25</v>
+      </c>
+      <c r="BI206">
+        <v>1</v>
+      </c>
+      <c r="BJ206">
+        <v>31</v>
+      </c>
+      <c r="BK206">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="207" spans="1:63">
+      <c r="A207" s="1">
+        <v>206</v>
+      </c>
+      <c r="B207">
+        <v>2568141</v>
+      </c>
+      <c r="C207" t="s">
+        <v>63</v>
+      </c>
+      <c r="D207" t="s">
+        <v>64</v>
+      </c>
+      <c r="E207" s="2">
+        <v>44877.5</v>
+      </c>
+      <c r="F207">
+        <v>18</v>
+      </c>
+      <c r="G207" t="s">
+        <v>70</v>
+      </c>
+      <c r="H207" t="s">
+        <v>71</v>
+      </c>
+      <c r="I207">
+        <v>1</v>
+      </c>
+      <c r="J207">
+        <v>1</v>
+      </c>
+      <c r="K207">
+        <v>2</v>
+      </c>
+      <c r="L207">
+        <v>1</v>
+      </c>
+      <c r="M207">
+        <v>1</v>
+      </c>
+      <c r="N207">
+        <v>2</v>
+      </c>
+      <c r="O207" t="s">
+        <v>228</v>
+      </c>
+      <c r="P207" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q207">
+        <v>3</v>
+      </c>
+      <c r="R207">
+        <v>5</v>
+      </c>
+      <c r="S207">
+        <v>8</v>
+      </c>
+      <c r="T207">
+        <v>3.5</v>
+      </c>
+      <c r="U207">
+        <v>2.15</v>
+      </c>
+      <c r="V207">
+        <v>2.8</v>
+      </c>
+      <c r="W207">
+        <v>1.33</v>
+      </c>
+      <c r="X207">
+        <v>3</v>
+      </c>
+      <c r="Y207">
+        <v>2.65</v>
+      </c>
+      <c r="Z207">
+        <v>1.42</v>
+      </c>
+      <c r="AA207">
+        <v>5.8</v>
+      </c>
+      <c r="AB207">
+        <v>1.1</v>
+      </c>
+      <c r="AC207">
+        <v>3.3</v>
+      </c>
+      <c r="AD207">
+        <v>3.4</v>
+      </c>
+      <c r="AE207">
+        <v>2.18</v>
+      </c>
+      <c r="AF207">
+        <v>1.02</v>
+      </c>
+      <c r="AG207">
+        <v>9.5</v>
+      </c>
+      <c r="AH207">
+        <v>1.22</v>
+      </c>
+      <c r="AI207">
+        <v>3.7</v>
+      </c>
+      <c r="AJ207">
+        <v>2.05</v>
+      </c>
+      <c r="AK207">
+        <v>1.77</v>
+      </c>
+      <c r="AL207">
+        <v>1.67</v>
+      </c>
+      <c r="AM207">
+        <v>2.1</v>
+      </c>
+      <c r="AN207">
+        <v>1.62</v>
+      </c>
+      <c r="AO207">
+        <v>1.3</v>
+      </c>
+      <c r="AP207">
+        <v>1.4</v>
+      </c>
+      <c r="AQ207">
+        <v>1.29</v>
+      </c>
+      <c r="AR207">
+        <v>1.75</v>
+      </c>
+      <c r="AS207">
+        <v>1.44</v>
+      </c>
+      <c r="AT207">
+        <v>1.6</v>
+      </c>
+      <c r="AU207">
+        <v>1.14</v>
+      </c>
+      <c r="AV207">
+        <v>1.36</v>
+      </c>
+      <c r="AW207">
+        <v>2.5</v>
+      </c>
+      <c r="AX207">
+        <v>2.19</v>
+      </c>
+      <c r="AY207">
+        <v>7.2</v>
+      </c>
+      <c r="AZ207">
+        <v>2.03</v>
+      </c>
+      <c r="BA207">
+        <v>1.18</v>
+      </c>
+      <c r="BB207">
+        <v>1.31</v>
+      </c>
+      <c r="BC207">
+        <v>1.58</v>
+      </c>
+      <c r="BD207">
+        <v>1.98</v>
+      </c>
+      <c r="BE207">
+        <v>2.56</v>
+      </c>
+      <c r="BF207">
+        <v>8</v>
+      </c>
+      <c r="BG207">
+        <v>8</v>
+      </c>
+      <c r="BH207">
+        <v>9</v>
+      </c>
+      <c r="BI207">
+        <v>7</v>
+      </c>
+      <c r="BJ207">
+        <v>17</v>
+      </c>
+      <c r="BK207">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="208" spans="1:63">
+      <c r="A208" s="1">
+        <v>207</v>
+      </c>
+      <c r="B208">
+        <v>2568138</v>
+      </c>
+      <c r="C208" t="s">
+        <v>63</v>
+      </c>
+      <c r="D208" t="s">
+        <v>64</v>
+      </c>
+      <c r="E208" s="2">
+        <v>44877.5</v>
+      </c>
+      <c r="F208">
+        <v>18</v>
+      </c>
+      <c r="G208" t="s">
+        <v>84</v>
+      </c>
+      <c r="H208" t="s">
+        <v>80</v>
+      </c>
+      <c r="I208">
+        <v>1</v>
+      </c>
+      <c r="J208">
+        <v>1</v>
+      </c>
+      <c r="K208">
+        <v>2</v>
+      </c>
+      <c r="L208">
+        <v>3</v>
+      </c>
+      <c r="M208">
+        <v>2</v>
+      </c>
+      <c r="N208">
+        <v>5</v>
+      </c>
+      <c r="O208" t="s">
+        <v>229</v>
+      </c>
+      <c r="P208" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q208">
+        <v>4</v>
+      </c>
+      <c r="R208">
+        <v>4</v>
+      </c>
+      <c r="S208">
+        <v>8</v>
+      </c>
+      <c r="T208">
+        <v>3.4</v>
+      </c>
+      <c r="U208">
+        <v>2.1</v>
+      </c>
+      <c r="V208">
+        <v>3</v>
+      </c>
+      <c r="W208">
+        <v>1.36</v>
+      </c>
+      <c r="X208">
+        <v>2.9</v>
+      </c>
+      <c r="Y208">
+        <v>2.75</v>
+      </c>
+      <c r="Z208">
+        <v>1.4</v>
+      </c>
+      <c r="AA208">
+        <v>6.9</v>
+      </c>
+      <c r="AB208">
+        <v>1.07</v>
+      </c>
+      <c r="AC208">
+        <v>2.84</v>
+      </c>
+      <c r="AD208">
+        <v>3.48</v>
+      </c>
+      <c r="AE208">
+        <v>2.42</v>
+      </c>
+      <c r="AF208">
+        <v>1.04</v>
+      </c>
+      <c r="AG208">
+        <v>11</v>
+      </c>
+      <c r="AH208">
+        <v>1.28</v>
+      </c>
+      <c r="AI208">
+        <v>3.6</v>
+      </c>
+      <c r="AJ208">
+        <v>1.88</v>
+      </c>
+      <c r="AK208">
+        <v>1.92</v>
+      </c>
+      <c r="AL208">
+        <v>1.6</v>
+      </c>
+      <c r="AM208">
+        <v>2.2</v>
+      </c>
+      <c r="AN208">
+        <v>1.57</v>
+      </c>
+      <c r="AO208">
+        <v>1.33</v>
+      </c>
+      <c r="AP208">
+        <v>1.4</v>
+      </c>
+      <c r="AQ208">
+        <v>1.63</v>
+      </c>
+      <c r="AR208">
+        <v>1.13</v>
+      </c>
+      <c r="AS208">
+        <v>1.6</v>
+      </c>
+      <c r="AT208">
+        <v>0.9</v>
+      </c>
+      <c r="AU208">
+        <v>1.51</v>
+      </c>
+      <c r="AV208">
+        <v>1.43</v>
+      </c>
+      <c r="AW208">
+        <v>2.94</v>
+      </c>
+      <c r="AX208">
+        <v>2.01</v>
+      </c>
+      <c r="AY208">
+        <v>7.3</v>
+      </c>
+      <c r="AZ208">
+        <v>2.21</v>
+      </c>
+      <c r="BA208">
+        <v>1.17</v>
+      </c>
+      <c r="BB208">
+        <v>1.31</v>
+      </c>
+      <c r="BC208">
+        <v>1.58</v>
+      </c>
+      <c r="BD208">
+        <v>1.98</v>
+      </c>
+      <c r="BE208">
+        <v>2.56</v>
+      </c>
+      <c r="BF208">
+        <v>5</v>
+      </c>
+      <c r="BG208">
+        <v>8</v>
+      </c>
+      <c r="BH208">
+        <v>1</v>
+      </c>
+      <c r="BI208">
+        <v>9</v>
+      </c>
+      <c r="BJ208">
+        <v>6</v>
+      </c>
+      <c r="BK208">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="209" spans="1:63">
+      <c r="A209" s="1">
+        <v>208</v>
+      </c>
+      <c r="B209">
+        <v>2568137</v>
+      </c>
+      <c r="C209" t="s">
+        <v>63</v>
+      </c>
+      <c r="D209" t="s">
+        <v>64</v>
+      </c>
+      <c r="E209" s="2">
+        <v>44877.5</v>
+      </c>
+      <c r="F209">
+        <v>18</v>
+      </c>
+      <c r="G209" t="s">
+        <v>74</v>
+      </c>
+      <c r="H209" t="s">
+        <v>86</v>
+      </c>
+      <c r="I209">
+        <v>0</v>
+      </c>
+      <c r="J209">
+        <v>0</v>
+      </c>
+      <c r="K209">
+        <v>0</v>
+      </c>
+      <c r="L209">
+        <v>0</v>
+      </c>
+      <c r="M209">
+        <v>0</v>
+      </c>
+      <c r="N209">
+        <v>0</v>
+      </c>
+      <c r="O209" t="s">
+        <v>93</v>
+      </c>
+      <c r="P209" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q209">
+        <v>8</v>
+      </c>
+      <c r="R209">
+        <v>5</v>
+      </c>
+      <c r="S209">
+        <v>13</v>
+      </c>
+      <c r="T209">
+        <v>3.64</v>
+      </c>
+      <c r="U209">
+        <v>2.08</v>
+      </c>
+      <c r="V209">
+        <v>2.55</v>
+      </c>
+      <c r="W209">
+        <v>1.39</v>
+      </c>
+      <c r="X209">
+        <v>2.8</v>
+      </c>
+      <c r="Y209">
+        <v>2.9</v>
+      </c>
+      <c r="Z209">
+        <v>1.37</v>
+      </c>
+      <c r="AA209">
+        <v>7.35</v>
+      </c>
+      <c r="AB209">
+        <v>1.06</v>
+      </c>
+      <c r="AC209">
+        <v>3.3</v>
+      </c>
+      <c r="AD209">
+        <v>3.4</v>
+      </c>
+      <c r="AE209">
+        <v>2.18</v>
+      </c>
+      <c r="AF209">
+        <v>1.05</v>
+      </c>
+      <c r="AG209">
+        <v>11</v>
+      </c>
+      <c r="AH209">
+        <v>1.33</v>
+      </c>
+      <c r="AI209">
+        <v>3.3</v>
+      </c>
+      <c r="AJ209">
+        <v>2.05</v>
+      </c>
+      <c r="AK209">
+        <v>1.77</v>
+      </c>
+      <c r="AL209">
+        <v>1.83</v>
+      </c>
+      <c r="AM209">
+        <v>1.95</v>
+      </c>
+      <c r="AN209">
+        <v>1.69</v>
+      </c>
+      <c r="AO209">
+        <v>1.25</v>
+      </c>
+      <c r="AP209">
+        <v>1.27</v>
+      </c>
+      <c r="AQ209">
+        <v>1.5</v>
+      </c>
+      <c r="AR209">
+        <v>1.14</v>
+      </c>
+      <c r="AS209">
+        <v>1.3</v>
+      </c>
+      <c r="AT209">
+        <v>1.33</v>
+      </c>
+      <c r="AU209">
+        <v>1.37</v>
+      </c>
+      <c r="AV209">
+        <v>1.27</v>
+      </c>
+      <c r="AW209">
+        <v>2.64</v>
+      </c>
+      <c r="AX209">
+        <v>2.83</v>
+      </c>
+      <c r="AY209">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AZ209">
+        <v>1.65</v>
+      </c>
+      <c r="BA209">
+        <v>1.2</v>
+      </c>
+      <c r="BB209">
+        <v>1.41</v>
+      </c>
+      <c r="BC209">
+        <v>1.72</v>
+      </c>
+      <c r="BD209">
+        <v>2.15</v>
+      </c>
+      <c r="BE209">
+        <v>2.79</v>
+      </c>
+      <c r="BF209">
+        <v>5</v>
+      </c>
+      <c r="BG209">
+        <v>4</v>
+      </c>
+      <c r="BH209">
+        <v>5</v>
+      </c>
+      <c r="BI209">
+        <v>12</v>
+      </c>
+      <c r="BJ209">
+        <v>10</v>
+      </c>
+      <c r="BK209">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="210" spans="1:63">
+      <c r="A210" s="1">
+        <v>209</v>
+      </c>
+      <c r="B210">
+        <v>2568136</v>
+      </c>
+      <c r="C210" t="s">
+        <v>63</v>
+      </c>
+      <c r="D210" t="s">
+        <v>64</v>
+      </c>
+      <c r="E210" s="2">
+        <v>44877.5</v>
+      </c>
+      <c r="F210">
+        <v>18</v>
+      </c>
+      <c r="G210" t="s">
+        <v>83</v>
+      </c>
+      <c r="H210" t="s">
+        <v>85</v>
+      </c>
+      <c r="I210">
+        <v>2</v>
+      </c>
+      <c r="J210">
+        <v>2</v>
+      </c>
+      <c r="K210">
+        <v>4</v>
+      </c>
+      <c r="L210">
+        <v>3</v>
+      </c>
+      <c r="M210">
+        <v>3</v>
+      </c>
+      <c r="N210">
+        <v>6</v>
+      </c>
+      <c r="O210" t="s">
+        <v>230</v>
+      </c>
+      <c r="P210" t="s">
+        <v>333</v>
+      </c>
+      <c r="Q210">
+        <v>12</v>
+      </c>
+      <c r="R210">
+        <v>4</v>
+      </c>
+      <c r="S210">
+        <v>16</v>
+      </c>
+      <c r="T210">
+        <v>3.05</v>
+      </c>
+      <c r="U210">
+        <v>2.13</v>
+      </c>
+      <c r="V210">
+        <v>3.05</v>
+      </c>
+      <c r="W210">
+        <v>1.38</v>
+      </c>
+      <c r="X210">
+        <v>2.8</v>
+      </c>
+      <c r="Y210">
+        <v>2.8</v>
+      </c>
+      <c r="Z210">
+        <v>1.38</v>
+      </c>
+      <c r="AA210">
+        <v>6</v>
+      </c>
+      <c r="AB210">
+        <v>1.09</v>
+      </c>
+      <c r="AC210">
+        <v>3.02</v>
+      </c>
+      <c r="AD210">
+        <v>3.5</v>
+      </c>
+      <c r="AE210">
+        <v>2.3</v>
+      </c>
+      <c r="AF210">
+        <v>1.06</v>
+      </c>
+      <c r="AG210">
+        <v>7</v>
+      </c>
+      <c r="AH210">
+        <v>1.29</v>
+      </c>
+      <c r="AI210">
+        <v>3.3</v>
+      </c>
+      <c r="AJ210">
+        <v>1.88</v>
+      </c>
+      <c r="AK210">
+        <v>1.92</v>
+      </c>
+      <c r="AL210">
+        <v>1.69</v>
+      </c>
+      <c r="AM210">
+        <v>2.17</v>
+      </c>
+      <c r="AN210">
+        <v>1.5</v>
+      </c>
+      <c r="AO210">
+        <v>1.3</v>
+      </c>
+      <c r="AP210">
+        <v>1.5</v>
+      </c>
+      <c r="AQ210">
+        <v>0.88</v>
+      </c>
+      <c r="AR210">
+        <v>0.88</v>
+      </c>
+      <c r="AS210">
+        <v>0.9</v>
+      </c>
+      <c r="AT210">
+        <v>0.8</v>
+      </c>
+      <c r="AU210">
+        <v>1.46</v>
+      </c>
+      <c r="AV210">
+        <v>1.14</v>
+      </c>
+      <c r="AW210">
+        <v>2.6</v>
+      </c>
+      <c r="AX210">
+        <v>1.95</v>
+      </c>
+      <c r="AY210">
+        <v>7.4</v>
+      </c>
+      <c r="AZ210">
+        <v>2.28</v>
+      </c>
+      <c r="BA210">
+        <v>1.17</v>
+      </c>
+      <c r="BB210">
+        <v>1.29</v>
+      </c>
+      <c r="BC210">
+        <v>1.55</v>
+      </c>
+      <c r="BD210">
+        <v>1.93</v>
+      </c>
+      <c r="BE210">
+        <v>2.47</v>
+      </c>
+      <c r="BF210">
+        <v>11</v>
+      </c>
+      <c r="BG210">
+        <v>5</v>
+      </c>
+      <c r="BH210">
+        <v>14</v>
+      </c>
+      <c r="BI210">
+        <v>8</v>
+      </c>
+      <c r="BJ210">
+        <v>25</v>
+      </c>
+      <c r="BK210">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="211" spans="1:63">
+      <c r="A211" s="1">
+        <v>210</v>
+      </c>
+      <c r="B211">
+        <v>2568135</v>
+      </c>
+      <c r="C211" t="s">
+        <v>63</v>
+      </c>
+      <c r="D211" t="s">
+        <v>64</v>
+      </c>
+      <c r="E211" s="2">
+        <v>44877.5</v>
+      </c>
+      <c r="F211">
+        <v>18</v>
+      </c>
+      <c r="G211" t="s">
+        <v>75</v>
+      </c>
+      <c r="H211" t="s">
+        <v>88</v>
+      </c>
+      <c r="I211">
+        <v>0</v>
+      </c>
+      <c r="J211">
+        <v>1</v>
+      </c>
+      <c r="K211">
+        <v>1</v>
+      </c>
+      <c r="L211">
+        <v>2</v>
+      </c>
+      <c r="M211">
+        <v>2</v>
+      </c>
+      <c r="N211">
+        <v>4</v>
+      </c>
+      <c r="O211" t="s">
+        <v>231</v>
+      </c>
+      <c r="P211" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q211">
+        <v>8</v>
+      </c>
+      <c r="R211">
+        <v>2</v>
+      </c>
+      <c r="S211">
+        <v>10</v>
+      </c>
+      <c r="T211">
+        <v>2.62</v>
+      </c>
+      <c r="U211">
+        <v>2.13</v>
+      </c>
+      <c r="V211">
+        <v>3.7</v>
+      </c>
+      <c r="W211">
+        <v>1.38</v>
+      </c>
+      <c r="X211">
+        <v>2.94</v>
+      </c>
+      <c r="Y211">
+        <v>2.74</v>
+      </c>
+      <c r="Z211">
+        <v>1.43</v>
+      </c>
+      <c r="AA211">
+        <v>6.9</v>
+      </c>
+      <c r="AB211">
+        <v>1.09</v>
+      </c>
+      <c r="AC211">
+        <v>2.23</v>
+      </c>
+      <c r="AD211">
+        <v>3.4</v>
+      </c>
+      <c r="AE211">
+        <v>3.22</v>
+      </c>
+      <c r="AF211">
+        <v>1.01</v>
+      </c>
+      <c r="AG211">
+        <v>9.5</v>
+      </c>
+      <c r="AH211">
+        <v>1.29</v>
+      </c>
+      <c r="AI211">
+        <v>3.3</v>
+      </c>
+      <c r="AJ211">
+        <v>2.05</v>
+      </c>
+      <c r="AK211">
+        <v>1.77</v>
+      </c>
+      <c r="AL211">
+        <v>1.78</v>
+      </c>
+      <c r="AM211">
+        <v>2</v>
+      </c>
+      <c r="AN211">
+        <v>1.27</v>
+      </c>
+      <c r="AO211">
+        <v>1.27</v>
+      </c>
+      <c r="AP211">
+        <v>1.66</v>
+      </c>
+      <c r="AQ211">
+        <v>1.13</v>
+      </c>
+      <c r="AR211">
+        <v>1.25</v>
+      </c>
+      <c r="AS211">
+        <v>1.3</v>
+      </c>
+      <c r="AT211">
+        <v>1.22</v>
+      </c>
+      <c r="AU211">
+        <v>1.6</v>
+      </c>
+      <c r="AV211">
+        <v>1.36</v>
+      </c>
+      <c r="AW211">
+        <v>2.96</v>
+      </c>
+      <c r="AX211">
+        <v>1.66</v>
+      </c>
+      <c r="AY211">
+        <v>8.5</v>
+      </c>
+      <c r="AZ211">
+        <v>2.78</v>
+      </c>
+      <c r="BA211">
+        <v>1.16</v>
+      </c>
+      <c r="BB211">
+        <v>1.32</v>
+      </c>
+      <c r="BC211">
+        <v>1.58</v>
+      </c>
+      <c r="BD211">
+        <v>1.98</v>
+      </c>
+      <c r="BE211">
+        <v>2.53</v>
+      </c>
+      <c r="BF211">
+        <v>4</v>
+      </c>
+      <c r="BG211">
+        <v>6</v>
+      </c>
+      <c r="BH211">
+        <v>9</v>
+      </c>
+      <c r="BI211">
+        <v>8</v>
+      </c>
+      <c r="BJ211">
+        <v>13</v>
+      </c>
+      <c r="BK211">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="212" spans="1:63">
+      <c r="A212" s="1">
+        <v>211</v>
+      </c>
+      <c r="B212">
+        <v>2568134</v>
+      </c>
+      <c r="C212" t="s">
+        <v>63</v>
+      </c>
+      <c r="D212" t="s">
+        <v>64</v>
+      </c>
+      <c r="E212" s="2">
+        <v>44877.5</v>
+      </c>
+      <c r="F212">
+        <v>18</v>
+      </c>
+      <c r="G212" t="s">
+        <v>65</v>
+      </c>
+      <c r="H212" t="s">
+        <v>67</v>
+      </c>
+      <c r="I212">
+        <v>0</v>
+      </c>
+      <c r="J212">
+        <v>1</v>
+      </c>
+      <c r="K212">
+        <v>1</v>
+      </c>
+      <c r="L212">
+        <v>0</v>
+      </c>
+      <c r="M212">
+        <v>1</v>
+      </c>
+      <c r="N212">
+        <v>1</v>
+      </c>
+      <c r="O212" t="s">
+        <v>93</v>
+      </c>
+      <c r="P212" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q212">
+        <v>3</v>
+      </c>
+      <c r="R212">
+        <v>8</v>
+      </c>
+      <c r="S212">
+        <v>11</v>
+      </c>
+      <c r="T212">
+        <v>4.35</v>
+      </c>
+      <c r="U212">
+        <v>2.21</v>
+      </c>
+      <c r="V212">
+        <v>2.28</v>
+      </c>
+      <c r="W212">
+        <v>1.33</v>
+      </c>
+      <c r="X212">
+        <v>3.1</v>
+      </c>
+      <c r="Y212">
+        <v>2.6</v>
+      </c>
+      <c r="Z212">
+        <v>1.44</v>
+      </c>
+      <c r="AA212">
+        <v>6.35</v>
+      </c>
+      <c r="AB212">
+        <v>1.09</v>
+      </c>
+      <c r="AC212">
+        <v>4.08</v>
+      </c>
+      <c r="AD212">
+        <v>3.56</v>
+      </c>
+      <c r="AE212">
+        <v>1.9</v>
+      </c>
+      <c r="AF212">
+        <v>1.03</v>
+      </c>
+      <c r="AG212">
+        <v>13</v>
+      </c>
+      <c r="AH212">
+        <v>1.25</v>
+      </c>
+      <c r="AI212">
+        <v>4</v>
+      </c>
+      <c r="AJ212">
+        <v>2.05</v>
+      </c>
+      <c r="AK212">
+        <v>1.77</v>
+      </c>
+      <c r="AL212">
+        <v>1.7</v>
+      </c>
+      <c r="AM212">
+        <v>2.1</v>
+      </c>
+      <c r="AN212">
+        <v>2</v>
+      </c>
+      <c r="AO212">
+        <v>1.22</v>
+      </c>
+      <c r="AP212">
+        <v>1.22</v>
+      </c>
+      <c r="AQ212">
+        <v>1.13</v>
+      </c>
+      <c r="AR212">
+        <v>2</v>
+      </c>
+      <c r="AS212">
+        <v>1</v>
+      </c>
+      <c r="AT212">
+        <v>2.11</v>
+      </c>
+      <c r="AU212">
+        <v>1.64</v>
+      </c>
+      <c r="AV212">
+        <v>1.75</v>
+      </c>
+      <c r="AW212">
+        <v>3.39</v>
+      </c>
+      <c r="AX212">
+        <v>3.18</v>
+      </c>
+      <c r="AY212">
+        <v>8.9</v>
+      </c>
+      <c r="AZ212">
+        <v>1.53</v>
+      </c>
+      <c r="BA212">
+        <v>1.18</v>
+      </c>
+      <c r="BB212">
+        <v>1.31</v>
+      </c>
+      <c r="BC212">
+        <v>1.57</v>
+      </c>
+      <c r="BD212">
+        <v>1.95</v>
+      </c>
+      <c r="BE212">
+        <v>2.47</v>
+      </c>
+      <c r="BF212">
+        <v>5</v>
+      </c>
+      <c r="BG212">
+        <v>5</v>
+      </c>
+      <c r="BH212">
+        <v>6</v>
+      </c>
+      <c r="BI212">
+        <v>13</v>
+      </c>
+      <c r="BJ212">
+        <v>11</v>
+      </c>
+      <c r="BK212">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="213" spans="1:63">
+      <c r="A213" s="1">
+        <v>212</v>
+      </c>
+      <c r="B213">
+        <v>2568139</v>
+      </c>
+      <c r="C213" t="s">
+        <v>63</v>
+      </c>
+      <c r="D213" t="s">
+        <v>64</v>
+      </c>
+      <c r="E213" s="2">
+        <v>44877.5</v>
+      </c>
+      <c r="F213">
+        <v>18</v>
+      </c>
+      <c r="G213" t="s">
+        <v>82</v>
+      </c>
+      <c r="H213" t="s">
+        <v>66</v>
+      </c>
+      <c r="I213">
+        <v>0</v>
+      </c>
+      <c r="J213">
+        <v>2</v>
+      </c>
+      <c r="K213">
+        <v>2</v>
+      </c>
+      <c r="L213">
+        <v>0</v>
+      </c>
+      <c r="M213">
+        <v>2</v>
+      </c>
+      <c r="N213">
+        <v>2</v>
+      </c>
+      <c r="O213" t="s">
+        <v>93</v>
+      </c>
+      <c r="P213" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q213">
+        <v>6</v>
+      </c>
+      <c r="R213">
+        <v>6</v>
+      </c>
+      <c r="S213">
+        <v>12</v>
+      </c>
+      <c r="T213">
+        <v>3.75</v>
+      </c>
+      <c r="U213">
+        <v>2.2</v>
+      </c>
+      <c r="V213">
+        <v>2.8</v>
+      </c>
+      <c r="W213">
+        <v>1.34</v>
+      </c>
+      <c r="X213">
+        <v>3</v>
+      </c>
+      <c r="Y213">
+        <v>2.7</v>
+      </c>
+      <c r="Z213">
+        <v>1.41</v>
+      </c>
+      <c r="AA213">
+        <v>6.45</v>
+      </c>
+      <c r="AB213">
+        <v>1.09</v>
+      </c>
+      <c r="AC213">
+        <v>3.18</v>
+      </c>
+      <c r="AD213">
+        <v>3.52</v>
+      </c>
+      <c r="AE213">
+        <v>2.21</v>
+      </c>
+      <c r="AF213">
+        <v>1.04</v>
+      </c>
+      <c r="AG213">
+        <v>12</v>
+      </c>
+      <c r="AH213">
+        <v>1.28</v>
+      </c>
+      <c r="AI213">
+        <v>3.6</v>
+      </c>
+      <c r="AJ213">
+        <v>1.88</v>
+      </c>
+      <c r="AK213">
+        <v>1.92</v>
+      </c>
+      <c r="AL213">
+        <v>1.7</v>
+      </c>
+      <c r="AM213">
+        <v>2.1</v>
+      </c>
+      <c r="AN213">
+        <v>1.7</v>
+      </c>
+      <c r="AO213">
+        <v>1.29</v>
+      </c>
+      <c r="AP213">
+        <v>1.36</v>
+      </c>
+      <c r="AQ213">
+        <v>0.75</v>
+      </c>
+      <c r="AR213">
+        <v>1.25</v>
+      </c>
+      <c r="AS213">
+        <v>0.67</v>
+      </c>
+      <c r="AT213">
+        <v>1.3</v>
+      </c>
+      <c r="AU213">
+        <v>1.27</v>
+      </c>
+      <c r="AV213">
+        <v>1.37</v>
+      </c>
+      <c r="AW213">
+        <v>2.64</v>
+      </c>
+      <c r="AX213">
+        <v>2.02</v>
+      </c>
+      <c r="AY213">
+        <v>7.4</v>
+      </c>
+      <c r="AZ213">
+        <v>2.19</v>
+      </c>
+      <c r="BA213">
+        <v>1.18</v>
+      </c>
+      <c r="BB213">
+        <v>1.28</v>
+      </c>
+      <c r="BC213">
+        <v>1.53</v>
+      </c>
+      <c r="BD213">
+        <v>1.9</v>
+      </c>
+      <c r="BE213">
+        <v>2.45</v>
+      </c>
+      <c r="BF213">
+        <v>3</v>
+      </c>
+      <c r="BG213">
+        <v>5</v>
+      </c>
+      <c r="BH213">
+        <v>10</v>
+      </c>
+      <c r="BI213">
+        <v>13</v>
+      </c>
+      <c r="BJ213">
+        <v>13</v>
+      </c>
+      <c r="BK213">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="214" spans="1:63">
+      <c r="A214" s="1">
+        <v>213</v>
+      </c>
+      <c r="B214">
+        <v>2568156</v>
+      </c>
+      <c r="C214" t="s">
+        <v>63</v>
+      </c>
+      <c r="D214" t="s">
+        <v>64</v>
+      </c>
+      <c r="E214" s="2">
+        <v>44883.70833333334</v>
+      </c>
+      <c r="F214">
+        <v>19</v>
+      </c>
+      <c r="G214" t="s">
+        <v>79</v>
+      </c>
+      <c r="H214" t="s">
+        <v>72</v>
+      </c>
+      <c r="I214">
+        <v>0</v>
+      </c>
+      <c r="J214">
+        <v>0</v>
+      </c>
+      <c r="K214">
+        <v>0</v>
+      </c>
+      <c r="L214">
+        <v>0</v>
+      </c>
+      <c r="M214">
+        <v>0</v>
+      </c>
+      <c r="N214">
+        <v>0</v>
+      </c>
+      <c r="O214" t="s">
+        <v>93</v>
+      </c>
+      <c r="P214" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q214">
+        <v>2</v>
+      </c>
+      <c r="R214">
+        <v>5</v>
+      </c>
+      <c r="S214">
+        <v>7</v>
+      </c>
+      <c r="T214">
+        <v>2.97</v>
+      </c>
+      <c r="U214">
+        <v>2.12</v>
+      </c>
+      <c r="V214">
+        <v>3.68</v>
+      </c>
+      <c r="W214">
+        <v>1.4</v>
+      </c>
+      <c r="X214">
+        <v>2.75</v>
+      </c>
+      <c r="Y214">
+        <v>2.75</v>
+      </c>
+      <c r="Z214">
+        <v>1.4</v>
+      </c>
+      <c r="AA214">
+        <v>7</v>
+      </c>
+      <c r="AB214">
+        <v>1.08</v>
+      </c>
+      <c r="AC214">
+        <v>2.06</v>
+      </c>
+      <c r="AD214">
+        <v>3.25</v>
+      </c>
+      <c r="AE214">
+        <v>3.3</v>
+      </c>
+      <c r="AF214">
+        <v>1.06</v>
+      </c>
+      <c r="AG214">
+        <v>8</v>
+      </c>
+      <c r="AH214">
+        <v>1.29</v>
+      </c>
+      <c r="AI214">
+        <v>3.5</v>
+      </c>
+      <c r="AJ214">
+        <v>1.93</v>
+      </c>
+      <c r="AK214">
+        <v>1.72</v>
+      </c>
+      <c r="AL214">
+        <v>1.8</v>
+      </c>
+      <c r="AM214">
+        <v>1.91</v>
+      </c>
+      <c r="AN214">
+        <v>1.42</v>
+      </c>
+      <c r="AO214">
+        <v>1.34</v>
+      </c>
+      <c r="AP214">
+        <v>1.63</v>
+      </c>
+      <c r="AQ214">
+        <v>1.75</v>
+      </c>
+      <c r="AR214">
+        <v>1.33</v>
+      </c>
+      <c r="AS214">
+        <v>1.67</v>
+      </c>
+      <c r="AT214">
+        <v>1.3</v>
+      </c>
+      <c r="AU214">
+        <v>1.47</v>
+      </c>
+      <c r="AV214">
+        <v>1.65</v>
+      </c>
+      <c r="AW214">
+        <v>3.12</v>
+      </c>
+      <c r="AX214">
+        <v>2.06</v>
+      </c>
+      <c r="AY214">
+        <v>7.8</v>
+      </c>
+      <c r="AZ214">
+        <v>2.11</v>
+      </c>
+      <c r="BA214">
+        <v>1.18</v>
+      </c>
+      <c r="BB214">
+        <v>1.35</v>
+      </c>
+      <c r="BC214">
+        <v>1.65</v>
+      </c>
+      <c r="BD214">
+        <v>2.1</v>
+      </c>
+      <c r="BE214">
+        <v>2.77</v>
+      </c>
+      <c r="BF214">
+        <v>2</v>
+      </c>
+      <c r="BG214">
+        <v>3</v>
+      </c>
+      <c r="BH214">
+        <v>9</v>
+      </c>
+      <c r="BI214">
+        <v>9</v>
+      </c>
+      <c r="BJ214">
+        <v>11</v>
+      </c>
+      <c r="BK214">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="215" spans="1:63">
+      <c r="A215" s="1">
+        <v>214</v>
+      </c>
+      <c r="B215">
+        <v>2568151</v>
+      </c>
+      <c r="C215" t="s">
+        <v>63</v>
+      </c>
+      <c r="D215" t="s">
+        <v>64</v>
+      </c>
+      <c r="E215" s="2">
+        <v>44884.375</v>
+      </c>
+      <c r="F215">
+        <v>19</v>
+      </c>
+      <c r="G215" t="s">
+        <v>84</v>
+      </c>
+      <c r="H215" t="s">
+        <v>76</v>
+      </c>
+      <c r="I215">
+        <v>0</v>
+      </c>
+      <c r="J215">
+        <v>1</v>
+      </c>
+      <c r="K215">
+        <v>1</v>
+      </c>
+      <c r="L215">
+        <v>0</v>
+      </c>
+      <c r="M215">
+        <v>2</v>
+      </c>
+      <c r="N215">
+        <v>2</v>
+      </c>
+      <c r="O215" t="s">
+        <v>93</v>
+      </c>
+      <c r="P215" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q215">
+        <v>6</v>
+      </c>
+      <c r="R215">
+        <v>7</v>
+      </c>
+      <c r="S215">
+        <v>13</v>
+      </c>
+      <c r="T215">
+        <v>5</v>
+      </c>
+      <c r="U215">
+        <v>2.2</v>
+      </c>
+      <c r="V215">
+        <v>2.38</v>
+      </c>
+      <c r="W215">
+        <v>1.4</v>
+      </c>
+      <c r="X215">
+        <v>2.75</v>
+      </c>
+      <c r="Y215">
+        <v>2.75</v>
+      </c>
+      <c r="Z215">
+        <v>1.4</v>
+      </c>
+      <c r="AA215">
+        <v>8</v>
+      </c>
+      <c r="AB215">
+        <v>1.08</v>
+      </c>
+      <c r="AC215">
+        <v>3.75</v>
+      </c>
+      <c r="AD215">
+        <v>3.6</v>
+      </c>
+      <c r="AE215">
+        <v>1.95</v>
+      </c>
+      <c r="AF215">
+        <v>1.05</v>
+      </c>
+      <c r="AG215">
+        <v>11</v>
+      </c>
+      <c r="AH215">
+        <v>1.3</v>
+      </c>
+      <c r="AI215">
+        <v>3.4</v>
+      </c>
+      <c r="AJ215">
+        <v>1.95</v>
+      </c>
+      <c r="AK215">
+        <v>1.83</v>
+      </c>
+      <c r="AL215">
+        <v>1.8</v>
+      </c>
+      <c r="AM215">
+        <v>1.95</v>
+      </c>
+      <c r="AN215">
+        <v>2.1</v>
+      </c>
+      <c r="AO215">
+        <v>1.22</v>
+      </c>
+      <c r="AP215">
+        <v>1.18</v>
+      </c>
+      <c r="AQ215">
+        <v>1.78</v>
+      </c>
+      <c r="AR215">
+        <v>2.22</v>
+      </c>
+      <c r="AS215">
+        <v>1.6</v>
+      </c>
+      <c r="AT215">
+        <v>2.3</v>
+      </c>
+      <c r="AU215">
+        <v>1.46</v>
+      </c>
+      <c r="AV215">
+        <v>1.84</v>
+      </c>
+      <c r="AW215">
+        <v>3.3</v>
+      </c>
+      <c r="AX215">
+        <v>3.5</v>
+      </c>
+      <c r="AY215">
+        <v>8.6</v>
+      </c>
+      <c r="AZ215">
+        <v>1.46</v>
+      </c>
+      <c r="BA215">
+        <v>1.18</v>
+      </c>
+      <c r="BB215">
+        <v>1.33</v>
+      </c>
+      <c r="BC215">
+        <v>1.62</v>
+      </c>
+      <c r="BD215">
+        <v>2.04</v>
+      </c>
+      <c r="BE215">
+        <v>2.69</v>
+      </c>
+      <c r="BF215">
+        <v>2</v>
+      </c>
+      <c r="BG215">
+        <v>7</v>
+      </c>
+      <c r="BH215">
+        <v>6</v>
+      </c>
+      <c r="BI215">
+        <v>6</v>
+      </c>
+      <c r="BJ215">
+        <v>8</v>
+      </c>
+      <c r="BK215">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="216" spans="1:63">
+      <c r="A216" s="1">
+        <v>215</v>
+      </c>
+      <c r="B216">
+        <v>2568153</v>
+      </c>
+      <c r="C216" t="s">
+        <v>63</v>
+      </c>
+      <c r="D216" t="s">
+        <v>64</v>
+      </c>
+      <c r="E216" s="2">
+        <v>44884.5</v>
+      </c>
+      <c r="F216">
+        <v>19</v>
+      </c>
+      <c r="G216" t="s">
+        <v>70</v>
+      </c>
+      <c r="H216" t="s">
+        <v>69</v>
+      </c>
+      <c r="I216">
+        <v>1</v>
+      </c>
+      <c r="J216">
+        <v>0</v>
+      </c>
+      <c r="K216">
+        <v>1</v>
+      </c>
+      <c r="L216">
+        <v>2</v>
+      </c>
+      <c r="M216">
+        <v>1</v>
+      </c>
+      <c r="N216">
+        <v>3</v>
+      </c>
+      <c r="O216" t="s">
+        <v>232</v>
+      </c>
+      <c r="P216" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q216">
+        <v>5</v>
+      </c>
+      <c r="R216">
+        <v>4</v>
+      </c>
+      <c r="S216">
+        <v>9</v>
+      </c>
+      <c r="T216">
+        <v>2.6</v>
+      </c>
+      <c r="U216">
+        <v>2.2</v>
+      </c>
+      <c r="V216">
+        <v>4.5</v>
+      </c>
+      <c r="W216">
+        <v>1.4</v>
+      </c>
+      <c r="X216">
+        <v>2.75</v>
+      </c>
+      <c r="Y216">
+        <v>3</v>
+      </c>
+      <c r="Z216">
+        <v>1.36</v>
+      </c>
+      <c r="AA216">
+        <v>8</v>
+      </c>
+      <c r="AB216">
+        <v>1.08</v>
+      </c>
+      <c r="AC216">
+        <v>2</v>
+      </c>
+      <c r="AD216">
+        <v>3.5</v>
+      </c>
+      <c r="AE216">
+        <v>3.6</v>
+      </c>
+      <c r="AF216">
+        <v>1.05</v>
+      </c>
+      <c r="AG216">
+        <v>8</v>
+      </c>
+      <c r="AH216">
+        <v>1.33</v>
+      </c>
+      <c r="AI216">
+        <v>3</v>
+      </c>
+      <c r="AJ216">
+        <v>2.05</v>
+      </c>
+      <c r="AK216">
+        <v>1.75</v>
+      </c>
+      <c r="AL216">
+        <v>1.8</v>
+      </c>
+      <c r="AM216">
+        <v>1.95</v>
+      </c>
+      <c r="AN216">
+        <v>1.17</v>
+      </c>
+      <c r="AO216">
+        <v>1.27</v>
+      </c>
+      <c r="AP216">
+        <v>1.9</v>
+      </c>
+      <c r="AQ216">
+        <v>1.25</v>
+      </c>
+      <c r="AR216">
+        <v>0.78</v>
+      </c>
+      <c r="AS216">
+        <v>1.44</v>
+      </c>
+      <c r="AT216">
+        <v>0.7</v>
+      </c>
+      <c r="AU216">
+        <v>1.24</v>
+      </c>
+      <c r="AV216">
+        <v>1.14</v>
+      </c>
+      <c r="AW216">
+        <v>2.38</v>
+      </c>
+      <c r="AX216">
+        <v>1.25</v>
+      </c>
+      <c r="AY216">
+        <v>10.25</v>
+      </c>
+      <c r="AZ216">
+        <v>5.3</v>
+      </c>
+      <c r="BA216">
+        <v>1.18</v>
+      </c>
+      <c r="BB216">
+        <v>1.3</v>
+      </c>
+      <c r="BC216">
+        <v>1.58</v>
+      </c>
+      <c r="BD216">
+        <v>1.98</v>
+      </c>
+      <c r="BE216">
+        <v>2.56</v>
+      </c>
+      <c r="BF216">
+        <v>3</v>
+      </c>
+      <c r="BG216">
+        <v>3</v>
+      </c>
+      <c r="BH216">
+        <v>10</v>
+      </c>
+      <c r="BI216">
+        <v>8</v>
+      </c>
+      <c r="BJ216">
+        <v>13</v>
+      </c>
+      <c r="BK216">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="217" spans="1:63">
+      <c r="A217" s="1">
+        <v>216</v>
+      </c>
+      <c r="B217">
+        <v>2568157</v>
+      </c>
+      <c r="C217" t="s">
+        <v>63</v>
+      </c>
+      <c r="D217" t="s">
+        <v>64</v>
+      </c>
+      <c r="E217" s="2">
+        <v>44884.5</v>
+      </c>
+      <c r="F217">
+        <v>19</v>
+      </c>
+      <c r="G217" t="s">
+        <v>67</v>
+      </c>
+      <c r="H217" t="s">
+        <v>78</v>
+      </c>
+      <c r="I217">
+        <v>1</v>
+      </c>
+      <c r="J217">
+        <v>0</v>
+      </c>
+      <c r="K217">
+        <v>1</v>
+      </c>
+      <c r="L217">
+        <v>1</v>
+      </c>
+      <c r="M217">
+        <v>0</v>
+      </c>
+      <c r="N217">
+        <v>1</v>
+      </c>
+      <c r="O217" t="s">
+        <v>124</v>
+      </c>
+      <c r="P217" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q217">
+        <v>7</v>
+      </c>
+      <c r="R217">
+        <v>1</v>
+      </c>
+      <c r="S217">
+        <v>8</v>
+      </c>
+      <c r="T217">
+        <v>2.05</v>
+      </c>
+      <c r="U217">
+        <v>2.3</v>
+      </c>
+      <c r="V217">
+        <v>6.5</v>
+      </c>
+      <c r="W217">
+        <v>1.36</v>
+      </c>
+      <c r="X217">
+        <v>3</v>
+      </c>
+      <c r="Y217">
+        <v>2.75</v>
+      </c>
+      <c r="Z217">
+        <v>1.4</v>
+      </c>
+      <c r="AA217">
+        <v>7</v>
+      </c>
+      <c r="AB217">
+        <v>1.1</v>
+      </c>
+      <c r="AC217">
+        <v>1.55</v>
+      </c>
+      <c r="AD217">
+        <v>4.33</v>
+      </c>
+      <c r="AE217">
+        <v>5.5</v>
+      </c>
+      <c r="AF217">
+        <v>1.04</v>
+      </c>
+      <c r="AG217">
+        <v>13</v>
+      </c>
+      <c r="AH217">
+        <v>1.29</v>
+      </c>
+      <c r="AI217">
+        <v>3.4</v>
+      </c>
+      <c r="AJ217">
+        <v>1.7</v>
+      </c>
+      <c r="AK217">
+        <v>2.1</v>
+      </c>
+      <c r="AL217">
+        <v>2</v>
+      </c>
+      <c r="AM217">
+        <v>1.75</v>
+      </c>
+      <c r="AN217">
+        <v>1.13</v>
+      </c>
+      <c r="AO217">
+        <v>1.2</v>
+      </c>
+      <c r="AP217">
+        <v>2.6</v>
+      </c>
+      <c r="AQ217">
+        <v>2</v>
+      </c>
+      <c r="AR217">
+        <v>1.33</v>
+      </c>
+      <c r="AS217">
+        <v>2.1</v>
+      </c>
+      <c r="AT217">
+        <v>1.2</v>
+      </c>
+      <c r="AU217">
+        <v>1.81</v>
+      </c>
+      <c r="AV217">
+        <v>1.07</v>
+      </c>
+      <c r="AW217">
+        <v>2.88</v>
+      </c>
+      <c r="AX217">
+        <v>1.09</v>
+      </c>
+      <c r="AY217">
+        <v>14</v>
+      </c>
+      <c r="AZ217">
+        <v>10.5</v>
+      </c>
+      <c r="BA217">
+        <v>1.22</v>
+      </c>
+      <c r="BB217">
+        <v>1.44</v>
+      </c>
+      <c r="BC217">
+        <v>1.79</v>
+      </c>
+      <c r="BD217">
+        <v>2.28</v>
+      </c>
+      <c r="BE217">
+        <v>3.04</v>
+      </c>
+      <c r="BF217">
+        <v>5</v>
+      </c>
+      <c r="BG217">
+        <v>2</v>
+      </c>
+      <c r="BH217">
+        <v>10</v>
+      </c>
+      <c r="BI217">
+        <v>8</v>
+      </c>
+      <c r="BJ217">
+        <v>15</v>
+      </c>
+      <c r="BK217">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="218" spans="1:63">
+      <c r="A218" s="1">
+        <v>217</v>
+      </c>
+      <c r="B218">
+        <v>2568155</v>
+      </c>
+      <c r="C218" t="s">
+        <v>63</v>
+      </c>
+      <c r="D218" t="s">
+        <v>64</v>
+      </c>
+      <c r="E218" s="2">
+        <v>44884.5</v>
+      </c>
+      <c r="F218">
+        <v>19</v>
+      </c>
+      <c r="G218" t="s">
+        <v>68</v>
+      </c>
+      <c r="H218" t="s">
+        <v>85</v>
+      </c>
+      <c r="I218">
+        <v>0</v>
+      </c>
+      <c r="J218">
+        <v>0</v>
+      </c>
+      <c r="K218">
+        <v>0</v>
+      </c>
+      <c r="L218">
+        <v>1</v>
+      </c>
+      <c r="M218">
+        <v>0</v>
+      </c>
+      <c r="N218">
+        <v>1</v>
+      </c>
+      <c r="O218" t="s">
+        <v>233</v>
+      </c>
+      <c r="P218" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q218">
+        <v>2</v>
+      </c>
+      <c r="R218">
+        <v>7</v>
+      </c>
+      <c r="S218">
+        <v>9</v>
+      </c>
+      <c r="T218">
+        <v>3</v>
+      </c>
+      <c r="U218">
+        <v>2.1</v>
+      </c>
+      <c r="V218">
+        <v>3.75</v>
+      </c>
+      <c r="W218">
+        <v>1.44</v>
+      </c>
+      <c r="X218">
+        <v>2.63</v>
+      </c>
+      <c r="Y218">
+        <v>3.25</v>
+      </c>
+      <c r="Z218">
+        <v>1.33</v>
+      </c>
+      <c r="AA218">
+        <v>9</v>
+      </c>
+      <c r="AB218">
+        <v>1.07</v>
+      </c>
+      <c r="AC218">
+        <v>2.4</v>
+      </c>
+      <c r="AD218">
+        <v>3.3</v>
+      </c>
+      <c r="AE218">
+        <v>2.95</v>
+      </c>
+      <c r="AF218">
+        <v>1.05</v>
+      </c>
+      <c r="AG218">
+        <v>8</v>
+      </c>
+      <c r="AH218">
+        <v>1.33</v>
+      </c>
+      <c r="AI218">
+        <v>3</v>
+      </c>
+      <c r="AJ218">
+        <v>2</v>
+      </c>
+      <c r="AK218">
+        <v>1.78</v>
+      </c>
+      <c r="AL218">
+        <v>1.8</v>
+      </c>
+      <c r="AM218">
+        <v>1.95</v>
+      </c>
+      <c r="AN218">
+        <v>1.38</v>
+      </c>
+      <c r="AO218">
+        <v>1.33</v>
+      </c>
+      <c r="AP218">
+        <v>1.62</v>
+      </c>
+      <c r="AQ218">
+        <v>1.33</v>
+      </c>
+      <c r="AR218">
+        <v>0.89</v>
+      </c>
+      <c r="AS218">
+        <v>1.5</v>
+      </c>
+      <c r="AT218">
+        <v>0.8</v>
+      </c>
+      <c r="AU218">
+        <v>1.43</v>
+      </c>
+      <c r="AV218">
+        <v>1.18</v>
+      </c>
+      <c r="AW218">
+        <v>2.61</v>
+      </c>
+      <c r="AX218">
+        <v>1.62</v>
+      </c>
+      <c r="AY218">
+        <v>8</v>
+      </c>
+      <c r="AZ218">
+        <v>2.96</v>
+      </c>
+      <c r="BA218">
+        <v>1.21</v>
+      </c>
+      <c r="BB218">
+        <v>1.42</v>
+      </c>
+      <c r="BC218">
+        <v>1.76</v>
+      </c>
+      <c r="BD218">
+        <v>2.22</v>
+      </c>
+      <c r="BE218">
+        <v>2.93</v>
+      </c>
+      <c r="BF218">
+        <v>2</v>
+      </c>
+      <c r="BG218">
+        <v>0</v>
+      </c>
+      <c r="BH218">
+        <v>12</v>
+      </c>
+      <c r="BI218">
+        <v>7</v>
+      </c>
+      <c r="BJ218">
+        <v>14</v>
+      </c>
+      <c r="BK218">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="219" spans="1:63">
+      <c r="A219" s="1">
+        <v>218</v>
+      </c>
+      <c r="B219">
+        <v>2568154</v>
+      </c>
+      <c r="C219" t="s">
+        <v>63</v>
+      </c>
+      <c r="D219" t="s">
+        <v>64</v>
+      </c>
+      <c r="E219" s="2">
+        <v>44884.5</v>
+      </c>
+      <c r="F219">
+        <v>19</v>
+      </c>
+      <c r="G219" t="s">
+        <v>81</v>
+      </c>
+      <c r="H219" t="s">
+        <v>82</v>
+      </c>
+      <c r="I219">
+        <v>1</v>
+      </c>
+      <c r="J219">
+        <v>0</v>
+      </c>
+      <c r="K219">
+        <v>1</v>
+      </c>
+      <c r="L219">
+        <v>1</v>
+      </c>
+      <c r="M219">
+        <v>1</v>
+      </c>
+      <c r="N219">
+        <v>2</v>
+      </c>
+      <c r="O219" t="s">
+        <v>234</v>
+      </c>
+      <c r="P219" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q219">
+        <v>5</v>
+      </c>
+      <c r="R219">
+        <v>8</v>
+      </c>
+      <c r="S219">
+        <v>13</v>
+      </c>
+      <c r="T219">
+        <v>2.1</v>
+      </c>
+      <c r="U219">
+        <v>2.38</v>
+      </c>
+      <c r="V219">
+        <v>5.5</v>
+      </c>
+      <c r="W219">
+        <v>1.33</v>
+      </c>
+      <c r="X219">
+        <v>3.25</v>
+      </c>
+      <c r="Y219">
+        <v>2.63</v>
+      </c>
+      <c r="Z219">
+        <v>1.44</v>
+      </c>
+      <c r="AA219">
+        <v>6.5</v>
+      </c>
+      <c r="AB219">
+        <v>1.11</v>
+      </c>
+      <c r="AC219">
+        <v>1.72</v>
+      </c>
+      <c r="AD219">
+        <v>3.75</v>
+      </c>
+      <c r="AE219">
+        <v>4.75</v>
+      </c>
+      <c r="AF219">
+        <v>1.03</v>
+      </c>
+      <c r="AG219">
+        <v>14</v>
+      </c>
+      <c r="AH219">
+        <v>1.25</v>
+      </c>
+      <c r="AI219">
+        <v>3.6</v>
+      </c>
+      <c r="AJ219">
+        <v>1.87</v>
+      </c>
+      <c r="AK219">
+        <v>1.9</v>
+      </c>
+      <c r="AL219">
+        <v>1.8</v>
+      </c>
+      <c r="AM219">
+        <v>1.95</v>
+      </c>
+      <c r="AN219">
+        <v>1.17</v>
+      </c>
+      <c r="AO219">
+        <v>1.22</v>
+      </c>
+      <c r="AP219">
+        <v>2.38</v>
+      </c>
+      <c r="AQ219">
+        <v>1.22</v>
+      </c>
+      <c r="AR219">
+        <v>0.78</v>
+      </c>
+      <c r="AS219">
+        <v>1.2</v>
+      </c>
+      <c r="AT219">
+        <v>0.8</v>
+      </c>
+      <c r="AU219">
+        <v>1.9</v>
+      </c>
+      <c r="AV219">
+        <v>1.07</v>
+      </c>
+      <c r="AW219">
+        <v>2.97</v>
+      </c>
+      <c r="AX219">
+        <v>1.24</v>
+      </c>
+      <c r="AY219">
+        <v>10.5</v>
+      </c>
+      <c r="AZ219">
+        <v>5.4</v>
+      </c>
+      <c r="BA219">
+        <v>1.18</v>
+      </c>
+      <c r="BB219">
+        <v>1.33</v>
+      </c>
+      <c r="BC219">
+        <v>1.64</v>
+      </c>
+      <c r="BD219">
+        <v>2.07</v>
+      </c>
+      <c r="BE219">
+        <v>2.73</v>
+      </c>
+      <c r="BF219">
+        <v>2</v>
+      </c>
+      <c r="BG219">
+        <v>6</v>
+      </c>
+      <c r="BH219">
+        <v>18</v>
+      </c>
+      <c r="BI219">
+        <v>6</v>
+      </c>
+      <c r="BJ219">
+        <v>20</v>
+      </c>
+      <c r="BK219">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="220" spans="1:63">
+      <c r="A220" s="1">
+        <v>219</v>
+      </c>
+      <c r="B220">
+        <v>2568147</v>
+      </c>
+      <c r="C220" t="s">
+        <v>63</v>
+      </c>
+      <c r="D220" t="s">
+        <v>64</v>
+      </c>
+      <c r="E220" s="2">
+        <v>44884.5</v>
+      </c>
+      <c r="F220">
+        <v>19</v>
+      </c>
+      <c r="G220" t="s">
+        <v>75</v>
+      </c>
+      <c r="H220" t="s">
+        <v>80</v>
+      </c>
+      <c r="I220">
+        <v>0</v>
+      </c>
+      <c r="J220">
+        <v>0</v>
+      </c>
+      <c r="K220">
+        <v>0</v>
+      </c>
+      <c r="L220">
+        <v>1</v>
+      </c>
+      <c r="M220">
+        <v>0</v>
+      </c>
+      <c r="N220">
+        <v>1</v>
+      </c>
+      <c r="O220" t="s">
+        <v>235</v>
+      </c>
+      <c r="P220" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q220">
+        <v>8</v>
+      </c>
+      <c r="R220">
+        <v>2</v>
+      </c>
+      <c r="S220">
+        <v>10</v>
+      </c>
+      <c r="T220">
+        <v>3.5</v>
+      </c>
+      <c r="U220">
+        <v>2.25</v>
+      </c>
+      <c r="V220">
+        <v>2.88</v>
+      </c>
+      <c r="W220">
+        <v>1.33</v>
+      </c>
+      <c r="X220">
+        <v>3.25</v>
+      </c>
+      <c r="Y220">
+        <v>2.63</v>
+      </c>
+      <c r="Z220">
+        <v>1.44</v>
+      </c>
+      <c r="AA220">
+        <v>7</v>
+      </c>
+      <c r="AB220">
+        <v>1.1</v>
+      </c>
+      <c r="AC220">
+        <v>3.2</v>
+      </c>
+      <c r="AD220">
+        <v>3.4</v>
+      </c>
+      <c r="AE220">
+        <v>2.2</v>
+      </c>
+      <c r="AF220">
+        <v>1.05</v>
+      </c>
+      <c r="AG220">
+        <v>9</v>
+      </c>
+      <c r="AH220">
+        <v>1.25</v>
+      </c>
+      <c r="AI220">
+        <v>3.75</v>
+      </c>
+      <c r="AJ220">
+        <v>1.9</v>
+      </c>
+      <c r="AK220">
+        <v>1.87</v>
+      </c>
+      <c r="AL220">
+        <v>1.62</v>
+      </c>
+      <c r="AM220">
+        <v>2.2</v>
+      </c>
+      <c r="AN220">
+        <v>1.65</v>
+      </c>
+      <c r="AO220">
+        <v>1.29</v>
+      </c>
+      <c r="AP220">
+        <v>1.4</v>
+      </c>
+      <c r="AQ220">
+        <v>1.11</v>
+      </c>
+      <c r="AR220">
+        <v>1</v>
+      </c>
+      <c r="AS220">
+        <v>1.3</v>
+      </c>
+      <c r="AT220">
+        <v>0.9</v>
+      </c>
+      <c r="AU220">
+        <v>1.59</v>
+      </c>
+      <c r="AV220">
+        <v>1.49</v>
+      </c>
+      <c r="AW220">
+        <v>3.08</v>
+      </c>
+      <c r="AX220">
+        <v>2.26</v>
+      </c>
+      <c r="AY220">
+        <v>7.9</v>
+      </c>
+      <c r="AZ220">
+        <v>1.93</v>
+      </c>
+      <c r="BA220">
+        <v>0</v>
+      </c>
+      <c r="BB220">
+        <v>1.26</v>
+      </c>
+      <c r="BC220">
+        <v>1.5</v>
+      </c>
+      <c r="BD220">
+        <v>1.86</v>
+      </c>
+      <c r="BE220">
+        <v>2.38</v>
+      </c>
+      <c r="BF220">
+        <v>6</v>
+      </c>
+      <c r="BG220">
+        <v>2</v>
+      </c>
+      <c r="BH220">
+        <v>15</v>
+      </c>
+      <c r="BI220">
+        <v>9</v>
+      </c>
+      <c r="BJ220">
+        <v>21</v>
+      </c>
+      <c r="BK220">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="221" spans="1:63">
+      <c r="A221" s="1">
+        <v>220</v>
+      </c>
+      <c r="B221">
+        <v>2568150</v>
+      </c>
+      <c r="C221" t="s">
+        <v>63</v>
+      </c>
+      <c r="D221" t="s">
+        <v>64</v>
+      </c>
+      <c r="E221" s="2">
+        <v>44884.5</v>
+      </c>
+      <c r="F221">
+        <v>19</v>
+      </c>
+      <c r="G221" t="s">
+        <v>73</v>
+      </c>
+      <c r="H221" t="s">
+        <v>66</v>
+      </c>
+      <c r="I221">
+        <v>1</v>
+      </c>
+      <c r="J221">
+        <v>0</v>
+      </c>
+      <c r="K221">
+        <v>1</v>
+      </c>
+      <c r="L221">
+        <v>1</v>
+      </c>
+      <c r="M221">
+        <v>0</v>
+      </c>
+      <c r="N221">
+        <v>1</v>
+      </c>
+      <c r="O221" t="s">
+        <v>236</v>
+      </c>
+      <c r="P221" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q221">
+        <v>2</v>
+      </c>
+      <c r="R221">
+        <v>4</v>
+      </c>
+      <c r="S221">
+        <v>6</v>
+      </c>
+      <c r="T221">
+        <v>4</v>
+      </c>
+      <c r="U221">
+        <v>2.1</v>
+      </c>
+      <c r="V221">
+        <v>2.75</v>
+      </c>
+      <c r="W221">
+        <v>1.4</v>
+      </c>
+      <c r="X221">
+        <v>2.75</v>
+      </c>
+      <c r="Y221">
+        <v>3</v>
+      </c>
+      <c r="Z221">
+        <v>1.36</v>
+      </c>
+      <c r="AA221">
+        <v>8</v>
+      </c>
+      <c r="AB221">
+        <v>1.08</v>
+      </c>
+      <c r="AC221">
+        <v>3.3</v>
+      </c>
+      <c r="AD221">
+        <v>3.3</v>
+      </c>
+      <c r="AE221">
+        <v>2.2</v>
+      </c>
+      <c r="AF221">
+        <v>1.05</v>
+      </c>
+      <c r="AG221">
+        <v>8</v>
+      </c>
+      <c r="AH221">
+        <v>1.3</v>
+      </c>
+      <c r="AI221">
+        <v>3.2</v>
+      </c>
+      <c r="AJ221">
+        <v>2.05</v>
+      </c>
+      <c r="AK221">
+        <v>1.75</v>
+      </c>
+      <c r="AL221">
+        <v>1.8</v>
+      </c>
+      <c r="AM221">
+        <v>1.95</v>
+      </c>
+      <c r="AN221">
+        <v>1.7</v>
+      </c>
+      <c r="AO221">
+        <v>1.3</v>
+      </c>
+      <c r="AP221">
+        <v>1.35</v>
+      </c>
+      <c r="AQ221">
+        <v>1.44</v>
+      </c>
+      <c r="AR221">
+        <v>1.44</v>
+      </c>
+      <c r="AS221">
+        <v>1.6</v>
+      </c>
+      <c r="AT221">
+        <v>1.3</v>
+      </c>
+      <c r="AU221">
+        <v>1.47</v>
+      </c>
+      <c r="AV221">
+        <v>1.43</v>
+      </c>
+      <c r="AW221">
+        <v>2.9</v>
+      </c>
+      <c r="AX221">
+        <v>2.24</v>
+      </c>
+      <c r="AY221">
+        <v>7.8</v>
+      </c>
+      <c r="AZ221">
+        <v>1.95</v>
+      </c>
+      <c r="BA221">
+        <v>1.18</v>
+      </c>
+      <c r="BB221">
+        <v>1.33</v>
+      </c>
+      <c r="BC221">
+        <v>1.62</v>
+      </c>
+      <c r="BD221">
+        <v>2.04</v>
+      </c>
+      <c r="BE221">
+        <v>2.69</v>
+      </c>
+      <c r="BF221">
+        <v>5</v>
+      </c>
+      <c r="BG221">
+        <v>5</v>
+      </c>
+      <c r="BH221">
+        <v>7</v>
+      </c>
+      <c r="BI221">
+        <v>10</v>
+      </c>
+      <c r="BJ221">
+        <v>12</v>
+      </c>
+      <c r="BK221">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="222" spans="1:63">
+      <c r="A222" s="1">
+        <v>221</v>
+      </c>
+      <c r="B222">
+        <v>2568149</v>
+      </c>
+      <c r="C222" t="s">
+        <v>63</v>
+      </c>
+      <c r="D222" t="s">
+        <v>64</v>
+      </c>
+      <c r="E222" s="2">
+        <v>44884.5</v>
+      </c>
+      <c r="F222">
+        <v>19</v>
+      </c>
+      <c r="G222" t="s">
+        <v>74</v>
+      </c>
+      <c r="H222" t="s">
+        <v>65</v>
+      </c>
+      <c r="I222">
+        <v>0</v>
+      </c>
+      <c r="J222">
+        <v>1</v>
+      </c>
+      <c r="K222">
+        <v>1</v>
+      </c>
+      <c r="L222">
+        <v>0</v>
+      </c>
+      <c r="M222">
+        <v>1</v>
+      </c>
+      <c r="N222">
+        <v>1</v>
+      </c>
+      <c r="O222" t="s">
+        <v>93</v>
+      </c>
+      <c r="P222" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q222">
+        <v>1</v>
+      </c>
+      <c r="R222">
+        <v>7</v>
+      </c>
+      <c r="S222">
+        <v>8</v>
+      </c>
+      <c r="T222">
+        <v>3</v>
+      </c>
+      <c r="U222">
+        <v>2.2</v>
+      </c>
+      <c r="V222">
+        <v>3.4</v>
+      </c>
+      <c r="W222">
+        <v>1.36</v>
+      </c>
+      <c r="X222">
+        <v>3</v>
+      </c>
+      <c r="Y222">
+        <v>2.75</v>
+      </c>
+      <c r="Z222">
+        <v>1.4</v>
+      </c>
+      <c r="AA222">
+        <v>8</v>
+      </c>
+      <c r="AB222">
+        <v>1.08</v>
+      </c>
+      <c r="AC222">
+        <v>2.2</v>
+      </c>
+      <c r="AD222">
+        <v>3.4</v>
+      </c>
+      <c r="AE222">
+        <v>3.2</v>
+      </c>
+      <c r="AF222">
+        <v>1.05</v>
+      </c>
+      <c r="AG222">
+        <v>8</v>
+      </c>
+      <c r="AH222">
+        <v>1.29</v>
+      </c>
+      <c r="AI222">
+        <v>3.3</v>
+      </c>
+      <c r="AJ222">
+        <v>2.05</v>
+      </c>
+      <c r="AK222">
+        <v>1.75</v>
+      </c>
+      <c r="AL222">
+        <v>1.7</v>
+      </c>
+      <c r="AM222">
+        <v>2.05</v>
+      </c>
+      <c r="AN222">
+        <v>1.44</v>
+      </c>
+      <c r="AO222">
+        <v>1.3</v>
+      </c>
+      <c r="AP222">
+        <v>1.57</v>
+      </c>
+      <c r="AQ222">
+        <v>1.44</v>
+      </c>
+      <c r="AR222">
+        <v>0.89</v>
+      </c>
+      <c r="AS222">
+        <v>1.3</v>
+      </c>
+      <c r="AT222">
+        <v>1.1</v>
+      </c>
+      <c r="AU222">
+        <v>1.37</v>
+      </c>
+      <c r="AV222">
+        <v>1.36</v>
+      </c>
+      <c r="AW222">
+        <v>2.73</v>
+      </c>
+      <c r="AX222">
+        <v>2.14</v>
+      </c>
+      <c r="AY222">
+        <v>7.8</v>
+      </c>
+      <c r="AZ222">
+        <v>2.03</v>
+      </c>
+      <c r="BA222">
+        <v>1.18</v>
+      </c>
+      <c r="BB222">
+        <v>1.29</v>
+      </c>
+      <c r="BC222">
+        <v>1.56</v>
+      </c>
+      <c r="BD222">
+        <v>1.95</v>
+      </c>
+      <c r="BE222">
+        <v>2.53</v>
+      </c>
+      <c r="BF222">
+        <v>2</v>
+      </c>
+      <c r="BG222">
+        <v>4</v>
+      </c>
+      <c r="BH222">
+        <v>4</v>
+      </c>
+      <c r="BI222">
+        <v>10</v>
+      </c>
+      <c r="BJ222">
+        <v>6</v>
+      </c>
+      <c r="BK222">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="223" spans="1:63">
+      <c r="A223" s="1">
+        <v>222</v>
+      </c>
+      <c r="B223">
+        <v>2568148</v>
+      </c>
+      <c r="C223" t="s">
+        <v>63</v>
+      </c>
+      <c r="D223" t="s">
+        <v>64</v>
+      </c>
+      <c r="E223" s="2">
+        <v>44884.5</v>
+      </c>
+      <c r="F223">
+        <v>19</v>
+      </c>
+      <c r="G223" t="s">
+        <v>83</v>
+      </c>
+      <c r="H223" t="s">
+        <v>71</v>
+      </c>
+      <c r="I223">
+        <v>1</v>
+      </c>
+      <c r="J223">
+        <v>0</v>
+      </c>
+      <c r="K223">
+        <v>1</v>
+      </c>
+      <c r="L223">
+        <v>2</v>
+      </c>
+      <c r="M223">
+        <v>2</v>
+      </c>
+      <c r="N223">
+        <v>4</v>
+      </c>
+      <c r="O223" t="s">
+        <v>237</v>
+      </c>
+      <c r="P223" t="s">
+        <v>337</v>
+      </c>
+      <c r="Q223">
+        <v>9</v>
+      </c>
+      <c r="R223">
+        <v>4</v>
+      </c>
+      <c r="S223">
+        <v>13</v>
+      </c>
+      <c r="T223">
+        <v>3.4</v>
+      </c>
+      <c r="U223">
+        <v>2.25</v>
+      </c>
+      <c r="V223">
+        <v>3</v>
+      </c>
+      <c r="W223">
+        <v>1.36</v>
+      </c>
+      <c r="X223">
+        <v>3</v>
+      </c>
+      <c r="Y223">
+        <v>2.63</v>
+      </c>
+      <c r="Z223">
+        <v>1.44</v>
+      </c>
+      <c r="AA223">
+        <v>7</v>
+      </c>
+      <c r="AB223">
+        <v>1.1</v>
+      </c>
+      <c r="AC223">
+        <v>3</v>
+      </c>
+      <c r="AD223">
+        <v>3.4</v>
+      </c>
+      <c r="AE223">
+        <v>2.3</v>
+      </c>
+      <c r="AF223">
+        <v>1.02</v>
+      </c>
+      <c r="AG223">
+        <v>9.5</v>
+      </c>
+      <c r="AH223">
+        <v>1.2</v>
+      </c>
+      <c r="AI223">
+        <v>3.9</v>
+      </c>
+      <c r="AJ223">
+        <v>1.75</v>
+      </c>
+      <c r="AK223">
+        <v>2.05</v>
+      </c>
+      <c r="AL223">
+        <v>1.62</v>
+      </c>
+      <c r="AM223">
+        <v>2.2</v>
+      </c>
+      <c r="AN223">
+        <v>1.6</v>
+      </c>
+      <c r="AO223">
+        <v>1.3</v>
+      </c>
+      <c r="AP223">
+        <v>1.3</v>
+      </c>
+      <c r="AQ223">
+        <v>0.89</v>
+      </c>
+      <c r="AR223">
+        <v>1.67</v>
+      </c>
+      <c r="AS223">
+        <v>0.9</v>
+      </c>
+      <c r="AT223">
+        <v>1.6</v>
+      </c>
+      <c r="AU223">
+        <v>1.62</v>
+      </c>
+      <c r="AV223">
+        <v>1.4</v>
+      </c>
+      <c r="AW223">
+        <v>3.02</v>
+      </c>
+      <c r="AX223">
+        <v>1.8</v>
+      </c>
+      <c r="AY223">
+        <v>8.1</v>
+      </c>
+      <c r="AZ223">
+        <v>2.45</v>
+      </c>
+      <c r="BA223">
+        <v>0</v>
+      </c>
+      <c r="BB223">
+        <v>1.26</v>
+      </c>
+      <c r="BC223">
+        <v>1.5</v>
+      </c>
+      <c r="BD223">
+        <v>1.86</v>
+      </c>
+      <c r="BE223">
+        <v>2.38</v>
+      </c>
+      <c r="BF223">
+        <v>6</v>
+      </c>
+      <c r="BG223">
+        <v>5</v>
+      </c>
+      <c r="BH223">
+        <v>8</v>
+      </c>
+      <c r="BI223">
+        <v>6</v>
+      </c>
+      <c r="BJ223">
+        <v>14</v>
+      </c>
+      <c r="BK223">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="224" spans="1:63">
+      <c r="A224" s="1">
+        <v>223</v>
+      </c>
+      <c r="B224">
+        <v>2568146</v>
+      </c>
+      <c r="C224" t="s">
+        <v>63</v>
+      </c>
+      <c r="D224" t="s">
+        <v>64</v>
+      </c>
+      <c r="E224" s="2">
+        <v>44884.5</v>
+      </c>
+      <c r="F224">
+        <v>19</v>
+      </c>
+      <c r="G224" t="s">
+        <v>87</v>
+      </c>
+      <c r="H224" t="s">
+        <v>77</v>
+      </c>
+      <c r="I224">
+        <v>1</v>
+      </c>
+      <c r="J224">
+        <v>1</v>
+      </c>
+      <c r="K224">
+        <v>2</v>
+      </c>
+      <c r="L224">
+        <v>3</v>
+      </c>
+      <c r="M224">
+        <v>1</v>
+      </c>
+      <c r="N224">
+        <v>4</v>
+      </c>
+      <c r="O224" t="s">
+        <v>238</v>
+      </c>
+      <c r="P224" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q224">
+        <v>7</v>
+      </c>
+      <c r="R224">
+        <v>2</v>
+      </c>
+      <c r="S224">
+        <v>9</v>
+      </c>
+      <c r="T224">
+        <v>2.5</v>
+      </c>
+      <c r="U224">
+        <v>2.1</v>
+      </c>
+      <c r="V224">
+        <v>5</v>
+      </c>
+      <c r="W224">
+        <v>1.44</v>
+      </c>
+      <c r="X224">
+        <v>2.63</v>
+      </c>
+      <c r="Y224">
+        <v>3.25</v>
+      </c>
+      <c r="Z224">
+        <v>1.33</v>
+      </c>
+      <c r="AA224">
+        <v>10</v>
+      </c>
+      <c r="AB224">
+        <v>1.06</v>
+      </c>
+      <c r="AC224">
+        <v>1.78</v>
+      </c>
+      <c r="AD224">
+        <v>3.75</v>
+      </c>
+      <c r="AE224">
+        <v>4.33</v>
+      </c>
+      <c r="AF224">
+        <v>1.07</v>
+      </c>
+      <c r="AG224">
+        <v>7</v>
+      </c>
+      <c r="AH224">
+        <v>1.36</v>
+      </c>
+      <c r="AI224">
+        <v>2.88</v>
+      </c>
+      <c r="AJ224">
+        <v>1.78</v>
+      </c>
+      <c r="AK224">
+        <v>2</v>
+      </c>
+      <c r="AL224">
+        <v>1.95</v>
+      </c>
+      <c r="AM224">
+        <v>1.8</v>
+      </c>
+      <c r="AN224">
+        <v>1.22</v>
+      </c>
+      <c r="AO224">
+        <v>1.29</v>
+      </c>
+      <c r="AP224">
+        <v>2</v>
+      </c>
+      <c r="AQ224">
+        <v>1.63</v>
+      </c>
+      <c r="AR224">
+        <v>1.25</v>
+      </c>
+      <c r="AS224">
+        <v>1.78</v>
+      </c>
+      <c r="AT224">
+        <v>1.11</v>
+      </c>
+      <c r="AU224">
+        <v>1.6</v>
+      </c>
+      <c r="AV224">
+        <v>1.27</v>
+      </c>
+      <c r="AW224">
+        <v>2.87</v>
+      </c>
+      <c r="AX224">
+        <v>1.4</v>
+      </c>
+      <c r="AY224">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ224">
+        <v>3.85</v>
+      </c>
+      <c r="BA224">
+        <v>1.25</v>
+      </c>
+      <c r="BB224">
+        <v>1.49</v>
+      </c>
+      <c r="BC224">
+        <v>1.88</v>
+      </c>
+      <c r="BD224">
+        <v>2.42</v>
+      </c>
+      <c r="BE224">
+        <v>3.28</v>
+      </c>
+      <c r="BF224">
+        <v>7</v>
+      </c>
+      <c r="BG224">
+        <v>3</v>
+      </c>
+      <c r="BH224">
+        <v>14</v>
+      </c>
+      <c r="BI224">
+        <v>0</v>
+      </c>
+      <c r="BJ224">
+        <v>21</v>
+      </c>
+      <c r="BK224">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="225" spans="1:63">
+      <c r="A225" s="1">
+        <v>224</v>
+      </c>
+      <c r="B225">
+        <v>2568152</v>
+      </c>
+      <c r="C225" t="s">
+        <v>63</v>
+      </c>
+      <c r="D225" t="s">
+        <v>64</v>
+      </c>
+      <c r="E225" s="2">
+        <v>44884.5</v>
+      </c>
+      <c r="F225">
+        <v>19</v>
+      </c>
+      <c r="G225" t="s">
+        <v>88</v>
+      </c>
+      <c r="H225" t="s">
+        <v>86</v>
+      </c>
+      <c r="I225">
+        <v>1</v>
+      </c>
+      <c r="J225">
+        <v>0</v>
+      </c>
+      <c r="K225">
+        <v>1</v>
+      </c>
+      <c r="L225">
+        <v>1</v>
+      </c>
+      <c r="M225">
+        <v>2</v>
+      </c>
+      <c r="N225">
+        <v>3</v>
+      </c>
+      <c r="O225" t="s">
+        <v>239</v>
+      </c>
+      <c r="P225" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q225">
+        <v>2</v>
+      </c>
+      <c r="R225">
+        <v>6</v>
+      </c>
+      <c r="S225">
+        <v>8</v>
+      </c>
+      <c r="T225">
+        <v>3.75</v>
+      </c>
+      <c r="U225">
+        <v>2.1</v>
+      </c>
+      <c r="V225">
+        <v>2.88</v>
+      </c>
+      <c r="W225">
+        <v>1.4</v>
+      </c>
+      <c r="X225">
+        <v>2.75</v>
+      </c>
+      <c r="Y225">
+        <v>3</v>
+      </c>
+      <c r="Z225">
+        <v>1.36</v>
+      </c>
+      <c r="AA225">
+        <v>8</v>
+      </c>
+      <c r="AB225">
+        <v>1.08</v>
+      </c>
+      <c r="AC225">
+        <v>3.2</v>
+      </c>
+      <c r="AD225">
+        <v>3.4</v>
+      </c>
+      <c r="AE225">
+        <v>2.2</v>
+      </c>
+      <c r="AF225">
+        <v>1.05</v>
+      </c>
+      <c r="AG225">
+        <v>8</v>
+      </c>
+      <c r="AH225">
+        <v>1.3</v>
+      </c>
+      <c r="AI225">
+        <v>3.2</v>
+      </c>
+      <c r="AJ225">
+        <v>2</v>
+      </c>
+      <c r="AK225">
+        <v>1.78</v>
+      </c>
+      <c r="AL225">
+        <v>1.75</v>
+      </c>
+      <c r="AM225">
+        <v>2</v>
+      </c>
+      <c r="AN225">
+        <v>1.62</v>
+      </c>
+      <c r="AO225">
+        <v>1.33</v>
+      </c>
+      <c r="AP225">
+        <v>1.38</v>
+      </c>
+      <c r="AQ225">
+        <v>1.22</v>
+      </c>
+      <c r="AR225">
+        <v>1.13</v>
+      </c>
+      <c r="AS225">
+        <v>1.1</v>
+      </c>
+      <c r="AT225">
+        <v>1.33</v>
+      </c>
+      <c r="AU225">
+        <v>1.43</v>
+      </c>
+      <c r="AV225">
+        <v>1.31</v>
+      </c>
+      <c r="AW225">
+        <v>2.74</v>
+      </c>
+      <c r="AX225">
+        <v>2.39</v>
+      </c>
+      <c r="AY225">
+        <v>7.8</v>
+      </c>
+      <c r="AZ225">
+        <v>1.85</v>
+      </c>
+      <c r="BA225">
+        <v>1.18</v>
+      </c>
+      <c r="BB225">
+        <v>1.37</v>
+      </c>
+      <c r="BC225">
+        <v>1.69</v>
+      </c>
+      <c r="BD225">
+        <v>2.11</v>
+      </c>
+      <c r="BE225">
+        <v>2.75</v>
+      </c>
+      <c r="BF225">
+        <v>4</v>
+      </c>
+      <c r="BG225">
+        <v>5</v>
+      </c>
+      <c r="BH225">
+        <v>8</v>
+      </c>
+      <c r="BI225">
+        <v>14</v>
+      </c>
+      <c r="BJ225">
+        <v>12</v>
+      </c>
+      <c r="BK225">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/England EFL League One_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/England EFL League One_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK225"/>
+  <dimension ref="A1:BK237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>2.1</v>
       </c>
       <c r="AT4" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1512,7 +1512,7 @@
         <v>1.5</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AT6" t="n">
         <v>1.2</v>
@@ -2118,10 +2118,10 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="AT8" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2321,10 +2321,10 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AT13" t="n">
         <v>1.33</v>
@@ -3336,10 +3336,10 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AT14" t="n">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT15" t="n">
         <v>1.1</v>
@@ -3745,7 +3745,7 @@
         <v>1.67</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>2.44</v>
+        <v>2.2</v>
       </c>
       <c r="AT17" t="n">
         <v>0.7</v>
@@ -4151,7 +4151,7 @@
         <v>1.2</v>
       </c>
       <c r="AT18" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AT19" t="n">
         <v>2.3</v>
@@ -4557,7 +4557,7 @@
         <v>0.9</v>
       </c>
       <c r="AT20" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU20" t="n">
         <v>0</v>
@@ -4760,7 +4760,7 @@
         <v>1.6</v>
       </c>
       <c r="AT21" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU21" t="n">
         <v>0</v>
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT22" t="n">
         <v>1.3</v>
@@ -5163,7 +5163,7 @@
         <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AT23" t="n">
         <v>1.3</v>
@@ -5369,7 +5369,7 @@
         <v>1.78</v>
       </c>
       <c r="AT24" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AU24" t="n">
         <v>0</v>
@@ -5775,7 +5775,7 @@
         <v>1.3</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AU26" t="n">
         <v>1.28</v>
@@ -5975,10 +5975,10 @@
         <v>0</v>
       </c>
       <c r="AS27" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AT27" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU27" t="n">
         <v>0.9</v>
@@ -6178,7 +6178,7 @@
         <v>1</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT28" t="n">
         <v>1.2</v>
@@ -6990,7 +6990,7 @@
         <v>3</v>
       </c>
       <c r="AS32" t="n">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="AT32" t="n">
         <v>0.9</v>
@@ -7193,10 +7193,10 @@
         <v>0</v>
       </c>
       <c r="AS33" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AT33" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU33" t="n">
         <v>1.5</v>
@@ -7396,7 +7396,7 @@
         <v>0</v>
       </c>
       <c r="AS34" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AT34" t="n">
         <v>1.11</v>
@@ -7602,7 +7602,7 @@
         <v>1.6</v>
       </c>
       <c r="AT35" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AU35" t="n">
         <v>1.65</v>
@@ -8008,7 +8008,7 @@
         <v>1</v>
       </c>
       <c r="AT37" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AU37" t="n">
         <v>2.1</v>
@@ -8211,7 +8211,7 @@
         <v>1.67</v>
       </c>
       <c r="AT38" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU38" t="n">
         <v>0.66</v>
@@ -8411,10 +8411,10 @@
         <v>3</v>
       </c>
       <c r="AS39" t="n">
-        <v>2.44</v>
+        <v>2.2</v>
       </c>
       <c r="AT39" t="n">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AU39" t="n">
         <v>1.9</v>
@@ -8617,7 +8617,7 @@
         <v>1.2</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU40" t="n">
         <v>1.6</v>
@@ -8817,10 +8817,10 @@
         <v>0</v>
       </c>
       <c r="AS41" t="n">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AT41" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU41" t="n">
         <v>1.36</v>
@@ -9023,7 +9023,7 @@
         <v>1.1</v>
       </c>
       <c r="AT42" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AU42" t="n">
         <v>0.57</v>
@@ -9223,7 +9223,7 @@
         <v>0</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT43" t="n">
         <v>1.3</v>
@@ -9426,7 +9426,7 @@
         <v>0</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT44" t="n">
         <v>1.6</v>
@@ -9832,7 +9832,7 @@
         <v>0</v>
       </c>
       <c r="AS46" t="n">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AT46" t="n">
         <v>0.7</v>
@@ -10038,7 +10038,7 @@
         <v>1.78</v>
       </c>
       <c r="AT47" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU47" t="n">
         <v>1.66</v>
@@ -10647,7 +10647,7 @@
         <v>1.67</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU50" t="n">
         <v>1.03</v>
@@ -10847,10 +10847,10 @@
         <v>2</v>
       </c>
       <c r="AS51" t="n">
-        <v>2.44</v>
+        <v>2.2</v>
       </c>
       <c r="AT51" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU51" t="n">
         <v>2.06</v>
@@ -11253,7 +11253,7 @@
         <v>3</v>
       </c>
       <c r="AS53" t="n">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AT53" t="n">
         <v>1.1</v>
@@ -11456,7 +11456,7 @@
         <v>0</v>
       </c>
       <c r="AS54" t="n">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AT54" t="n">
         <v>1.6</v>
@@ -11659,10 +11659,10 @@
         <v>0</v>
       </c>
       <c r="AS55" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT55" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU55" t="n">
         <v>1.57</v>
@@ -11862,7 +11862,7 @@
         <v>3</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT56" t="n">
         <v>2.3</v>
@@ -12068,7 +12068,7 @@
         <v>0.9</v>
       </c>
       <c r="AT57" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU57" t="n">
         <v>1.11</v>
@@ -12268,10 +12268,10 @@
         <v>1.5</v>
       </c>
       <c r="AS58" t="n">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AT58" t="n">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AU58" t="n">
         <v>1.95</v>
@@ -12677,7 +12677,7 @@
         <v>1.6</v>
       </c>
       <c r="AT60" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AU60" t="n">
         <v>1.47</v>
@@ -12877,7 +12877,7 @@
         <v>1</v>
       </c>
       <c r="AS61" t="n">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="AT61" t="n">
         <v>1.33</v>
@@ -13083,7 +13083,7 @@
         <v>1.5</v>
       </c>
       <c r="AT62" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AU62" t="n">
         <v>1.61</v>
@@ -13283,7 +13283,7 @@
         <v>0.5</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT63" t="n">
         <v>0.8</v>
@@ -13486,7 +13486,7 @@
         <v>0</v>
       </c>
       <c r="AS64" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AT64" t="n">
         <v>1.11</v>
@@ -13895,7 +13895,7 @@
         <v>1.44</v>
       </c>
       <c r="AT66" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU66" t="n">
         <v>1.42</v>
@@ -14095,7 +14095,7 @@
         <v>1.5</v>
       </c>
       <c r="AS67" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AT67" t="n">
         <v>0.9</v>
@@ -14301,7 +14301,7 @@
         <v>1.6</v>
       </c>
       <c r="AT68" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AU68" t="n">
         <v>1.48</v>
@@ -14504,7 +14504,7 @@
         <v>1.3</v>
       </c>
       <c r="AT69" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AU69" t="n">
         <v>1.74</v>
@@ -15110,10 +15110,10 @@
         <v>0</v>
       </c>
       <c r="AS72" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AT72" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU72" t="n">
         <v>2.04</v>
@@ -15313,7 +15313,7 @@
         <v>1.67</v>
       </c>
       <c r="AS73" t="n">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AT73" t="n">
         <v>1.2</v>
@@ -15519,7 +15519,7 @@
         <v>1.5</v>
       </c>
       <c r="AT74" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AU74" t="n">
         <v>1.45</v>
@@ -15722,7 +15722,7 @@
         <v>1.2</v>
       </c>
       <c r="AT75" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AU75" t="n">
         <v>2.16</v>
@@ -16534,7 +16534,7 @@
         <v>1.3</v>
       </c>
       <c r="AT79" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU79" t="n">
         <v>1.88</v>
@@ -16937,7 +16937,7 @@
         <v>0.67</v>
       </c>
       <c r="AS81" t="n">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AT81" t="n">
         <v>0.8</v>
@@ -17343,7 +17343,7 @@
         <v>1</v>
       </c>
       <c r="AS83" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AT83" t="n">
         <v>1.6</v>
@@ -17549,7 +17549,7 @@
         <v>2.1</v>
       </c>
       <c r="AT84" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU84" t="n">
         <v>1.66</v>
@@ -17749,7 +17749,7 @@
         <v>2</v>
       </c>
       <c r="AS85" t="n">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AT85" t="n">
         <v>1.1</v>
@@ -17952,10 +17952,10 @@
         <v>1</v>
       </c>
       <c r="AS86" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AT86" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU86" t="n">
         <v>1.97</v>
@@ -18158,7 +18158,7 @@
         <v>1.6</v>
       </c>
       <c r="AT87" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU87" t="n">
         <v>1.29</v>
@@ -18358,7 +18358,7 @@
         <v>1.33</v>
       </c>
       <c r="AS88" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT88" t="n">
         <v>0.8</v>
@@ -18561,10 +18561,10 @@
         <v>1</v>
       </c>
       <c r="AS89" t="n">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="AT89" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AU89" t="n">
         <v>1.73</v>
@@ -18767,7 +18767,7 @@
         <v>1.78</v>
       </c>
       <c r="AT90" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU90" t="n">
         <v>1.68</v>
@@ -18967,10 +18967,10 @@
         <v>0.67</v>
       </c>
       <c r="AS91" t="n">
-        <v>2.44</v>
+        <v>2.2</v>
       </c>
       <c r="AT91" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU91" t="n">
         <v>2.02</v>
@@ -19373,7 +19373,7 @@
         <v>0.67</v>
       </c>
       <c r="AS93" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT93" t="n">
         <v>1</v>
@@ -19579,7 +19579,7 @@
         <v>0.9</v>
       </c>
       <c r="AT94" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AU94" t="n">
         <v>1.19</v>
@@ -19779,7 +19779,7 @@
         <v>0.67</v>
       </c>
       <c r="AS95" t="n">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AT95" t="n">
         <v>1.33</v>
@@ -19982,7 +19982,7 @@
         <v>1.33</v>
       </c>
       <c r="AS96" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT96" t="n">
         <v>1.1</v>
@@ -20185,10 +20185,10 @@
         <v>2</v>
       </c>
       <c r="AS97" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AT97" t="n">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AU97" t="n">
         <v>1.56</v>
@@ -20391,7 +20391,7 @@
         <v>1</v>
       </c>
       <c r="AT98" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AU98" t="n">
         <v>1.83</v>
@@ -20591,7 +20591,7 @@
         <v>0.75</v>
       </c>
       <c r="AS99" t="n">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AT99" t="n">
         <v>0.9</v>
@@ -20797,7 +20797,7 @@
         <v>1.3</v>
       </c>
       <c r="AT100" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU100" t="n">
         <v>1.5</v>
@@ -21000,7 +21000,7 @@
         <v>1.3</v>
       </c>
       <c r="AT101" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU101" t="n">
         <v>1.65</v>
@@ -21200,7 +21200,7 @@
         <v>1</v>
       </c>
       <c r="AS102" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AT102" t="n">
         <v>1.3</v>
@@ -21406,7 +21406,7 @@
         <v>1.6</v>
       </c>
       <c r="AT103" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AU103" t="n">
         <v>1.62</v>
@@ -22418,7 +22418,7 @@
         <v>0.5</v>
       </c>
       <c r="AS108" t="n">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AT108" t="n">
         <v>0.7</v>
@@ -22824,7 +22824,7 @@
         <v>0.5</v>
       </c>
       <c r="AS110" t="n">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AT110" t="n">
         <v>1</v>
@@ -23230,10 +23230,10 @@
         <v>0.8</v>
       </c>
       <c r="AS112" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT112" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AU112" t="n">
         <v>1.37</v>
@@ -23433,10 +23433,10 @@
         <v>0.25</v>
       </c>
       <c r="AS113" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AT113" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU113" t="n">
         <v>1.33</v>
@@ -23839,10 +23839,10 @@
         <v>1</v>
       </c>
       <c r="AS115" t="n">
-        <v>2.44</v>
+        <v>2.2</v>
       </c>
       <c r="AT115" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU115" t="n">
         <v>2.02</v>
@@ -24245,7 +24245,7 @@
         <v>2.6</v>
       </c>
       <c r="AS117" t="n">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="AT117" t="n">
         <v>2.3</v>
@@ -24448,10 +24448,10 @@
         <v>1.4</v>
       </c>
       <c r="AS118" t="n">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AT118" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU118" t="n">
         <v>1.69</v>
@@ -24854,10 +24854,10 @@
         <v>0.75</v>
       </c>
       <c r="AS120" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT120" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AU120" t="n">
         <v>1.74</v>
@@ -25263,7 +25263,7 @@
         <v>1.6</v>
       </c>
       <c r="AT122" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU122" t="n">
         <v>1.62</v>
@@ -25466,7 +25466,7 @@
         <v>1.1</v>
       </c>
       <c r="AT123" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU123" t="n">
         <v>1.45</v>
@@ -25666,10 +25666,10 @@
         <v>2.5</v>
       </c>
       <c r="AS124" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AT124" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AU124" t="n">
         <v>2.04</v>
@@ -25869,7 +25869,7 @@
         <v>0.6</v>
       </c>
       <c r="AS125" t="n">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AT125" t="n">
         <v>0.9</v>
@@ -26075,7 +26075,7 @@
         <v>1.5</v>
       </c>
       <c r="AT126" t="n">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AU126" t="n">
         <v>1.48</v>
@@ -26275,7 +26275,7 @@
         <v>1.4</v>
       </c>
       <c r="AS127" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT127" t="n">
         <v>1.6</v>
@@ -26884,10 +26884,10 @@
         <v>0.8</v>
       </c>
       <c r="AS130" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AT130" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU130" t="n">
         <v>2.02</v>
@@ -27087,10 +27087,10 @@
         <v>2.4</v>
       </c>
       <c r="AS131" t="n">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="AT131" t="n">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AU131" t="n">
         <v>1.75</v>
@@ -27293,7 +27293,7 @@
         <v>0.9</v>
       </c>
       <c r="AT132" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU132" t="n">
         <v>1.28</v>
@@ -27696,7 +27696,7 @@
         <v>1</v>
       </c>
       <c r="AS134" t="n">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AT134" t="n">
         <v>1.33</v>
@@ -27899,10 +27899,10 @@
         <v>0.8</v>
       </c>
       <c r="AS135" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AT135" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU135" t="n">
         <v>1.79</v>
@@ -28105,7 +28105,7 @@
         <v>1.3</v>
       </c>
       <c r="AT136" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU136" t="n">
         <v>1.5</v>
@@ -28914,7 +28914,7 @@
         <v>1.4</v>
       </c>
       <c r="AS140" t="n">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="AT140" t="n">
         <v>1.1</v>
@@ -29120,7 +29120,7 @@
         <v>1.67</v>
       </c>
       <c r="AT141" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU141" t="n">
         <v>1.5</v>
@@ -29323,7 +29323,7 @@
         <v>2.1</v>
       </c>
       <c r="AT142" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AU142" t="n">
         <v>1.59</v>
@@ -29523,7 +29523,7 @@
         <v>1.2</v>
       </c>
       <c r="AS143" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT143" t="n">
         <v>1.11</v>
@@ -29726,10 +29726,10 @@
         <v>0.67</v>
       </c>
       <c r="AS144" t="n">
-        <v>2.44</v>
+        <v>2.2</v>
       </c>
       <c r="AT144" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AU144" t="n">
         <v>1.97</v>
@@ -29929,7 +29929,7 @@
         <v>2.17</v>
       </c>
       <c r="AS145" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AT145" t="n">
         <v>2.3</v>
@@ -30132,10 +30132,10 @@
         <v>0.8</v>
       </c>
       <c r="AS146" t="n">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AT146" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU146" t="n">
         <v>1.09</v>
@@ -30335,7 +30335,7 @@
         <v>1.33</v>
       </c>
       <c r="AS147" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT147" t="n">
         <v>1</v>
@@ -30538,7 +30538,7 @@
         <v>1</v>
       </c>
       <c r="AS148" t="n">
-        <v>2.44</v>
+        <v>2.2</v>
       </c>
       <c r="AT148" t="n">
         <v>0.8</v>
@@ -30947,7 +30947,7 @@
         <v>1.6</v>
       </c>
       <c r="AT150" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AU150" t="n">
         <v>1.59</v>
@@ -31147,10 +31147,10 @@
         <v>1.17</v>
       </c>
       <c r="AS151" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AT151" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU151" t="n">
         <v>2.02</v>
@@ -31350,7 +31350,7 @@
         <v>1.67</v>
       </c>
       <c r="AS152" t="n">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AT152" t="n">
         <v>1.6</v>
@@ -31756,7 +31756,7 @@
         <v>1</v>
       </c>
       <c r="AS154" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT154" t="n">
         <v>0.9</v>
@@ -31962,7 +31962,7 @@
         <v>1.6</v>
       </c>
       <c r="AT155" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU155" t="n">
         <v>1.45</v>
@@ -32368,7 +32368,7 @@
         <v>1.3</v>
       </c>
       <c r="AT157" t="n">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AU157" t="n">
         <v>1.45</v>
@@ -32771,10 +32771,10 @@
         <v>1.67</v>
       </c>
       <c r="AS159" t="n">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AT159" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU159" t="n">
         <v>1.64</v>
@@ -32974,10 +32974,10 @@
         <v>2</v>
       </c>
       <c r="AS160" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT160" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AU160" t="n">
         <v>1.65</v>
@@ -33177,7 +33177,7 @@
         <v>1.33</v>
       </c>
       <c r="AS161" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AT161" t="n">
         <v>1.3</v>
@@ -33383,7 +33383,7 @@
         <v>1.44</v>
       </c>
       <c r="AT162" t="n">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AU162" t="n">
         <v>1.21</v>
@@ -33583,10 +33583,10 @@
         <v>1.67</v>
       </c>
       <c r="AS163" t="n">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AT163" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AU163" t="n">
         <v>1.28</v>
@@ -33786,10 +33786,10 @@
         <v>1.57</v>
       </c>
       <c r="AS164" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AT164" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU164" t="n">
         <v>1.27</v>
@@ -33989,7 +33989,7 @@
         <v>1</v>
       </c>
       <c r="AS165" t="n">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AT165" t="n">
         <v>1.3</v>
@@ -34195,7 +34195,7 @@
         <v>1.6</v>
       </c>
       <c r="AT166" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU166" t="n">
         <v>1.54</v>
@@ -34398,7 +34398,7 @@
         <v>1.3</v>
       </c>
       <c r="AT167" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU167" t="n">
         <v>1.43</v>
@@ -34601,7 +34601,7 @@
         <v>0.9</v>
       </c>
       <c r="AT168" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AU168" t="n">
         <v>1.42</v>
@@ -35410,7 +35410,7 @@
         <v>0.57</v>
       </c>
       <c r="AS172" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT172" t="n">
         <v>0.8</v>
@@ -35613,10 +35613,10 @@
         <v>0.71</v>
       </c>
       <c r="AS173" t="n">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AT173" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AU173" t="n">
         <v>1.56</v>
@@ -35816,7 +35816,7 @@
         <v>1</v>
       </c>
       <c r="AS174" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT174" t="n">
         <v>1.11</v>
@@ -36222,7 +36222,7 @@
         <v>1.14</v>
       </c>
       <c r="AS176" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AT176" t="n">
         <v>1</v>
@@ -36628,7 +36628,7 @@
         <v>1.17</v>
       </c>
       <c r="AS178" t="n">
-        <v>2.44</v>
+        <v>2.2</v>
       </c>
       <c r="AT178" t="n">
         <v>1.1</v>
@@ -36831,7 +36831,7 @@
         <v>1.57</v>
       </c>
       <c r="AS179" t="n">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="AT179" t="n">
         <v>1.2</v>
@@ -37034,10 +37034,10 @@
         <v>0.57</v>
       </c>
       <c r="AS180" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT180" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU180" t="n">
         <v>2</v>
@@ -37240,7 +37240,7 @@
         <v>1.67</v>
       </c>
       <c r="AT181" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AU181" t="n">
         <v>1.53</v>
@@ -37443,7 +37443,7 @@
         <v>1.78</v>
       </c>
       <c r="AT182" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU182" t="n">
         <v>1.65</v>
@@ -37849,7 +37849,7 @@
         <v>2.1</v>
       </c>
       <c r="AT184" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU184" t="n">
         <v>1.74</v>
@@ -38049,7 +38049,7 @@
         <v>2.38</v>
       </c>
       <c r="AS185" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT185" t="n">
         <v>2.3</v>
@@ -38252,10 +38252,10 @@
         <v>1.14</v>
       </c>
       <c r="AS186" t="n">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AT186" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AU186" t="n">
         <v>1.59</v>
@@ -38861,10 +38861,10 @@
         <v>0.88</v>
       </c>
       <c r="AS189" t="n">
-        <v>2.44</v>
+        <v>2.2</v>
       </c>
       <c r="AT189" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU189" t="n">
         <v>1.98</v>
@@ -39067,7 +39067,7 @@
         <v>1.5</v>
       </c>
       <c r="AT190" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU190" t="n">
         <v>1.42</v>
@@ -39473,7 +39473,7 @@
         <v>2.1</v>
       </c>
       <c r="AT192" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AU192" t="n">
         <v>1.84</v>
@@ -39673,7 +39673,7 @@
         <v>0.75</v>
       </c>
       <c r="AS193" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT193" t="n">
         <v>0.7</v>
@@ -40079,10 +40079,10 @@
         <v>1.38</v>
       </c>
       <c r="AS195" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AT195" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU195" t="n">
         <v>1.68</v>
@@ -40282,7 +40282,7 @@
         <v>1.13</v>
       </c>
       <c r="AS196" t="n">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="AT196" t="n">
         <v>1</v>
@@ -40691,7 +40691,7 @@
         <v>1.2</v>
       </c>
       <c r="AT198" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU198" t="n">
         <v>1.92</v>
@@ -40891,7 +40891,7 @@
         <v>1.14</v>
       </c>
       <c r="AS199" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AT199" t="n">
         <v>1.3</v>
@@ -41094,10 +41094,10 @@
         <v>1.43</v>
       </c>
       <c r="AS200" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT200" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU200" t="n">
         <v>2.08</v>
@@ -41297,10 +41297,10 @@
         <v>1.38</v>
       </c>
       <c r="AS201" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT201" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AU201" t="n">
         <v>1.26</v>
@@ -41503,7 +41503,7 @@
         <v>1.2</v>
       </c>
       <c r="AT202" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU202" t="n">
         <v>1.91</v>
@@ -41703,10 +41703,10 @@
         <v>1.86</v>
       </c>
       <c r="AS203" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AT203" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AU203" t="n">
         <v>1.23</v>
@@ -41906,7 +41906,7 @@
         <v>1.13</v>
       </c>
       <c r="AS204" t="n">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AT204" t="n">
         <v>1.3</v>
@@ -42312,10 +42312,10 @@
         <v>0.71</v>
       </c>
       <c r="AS206" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AT206" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AU206" t="n">
         <v>2.16</v>
@@ -42515,7 +42515,7 @@
         <v>1.25</v>
       </c>
       <c r="AS207" t="n">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AT207" t="n">
         <v>1.3</v>
@@ -42718,10 +42718,10 @@
         <v>1.38</v>
       </c>
       <c r="AS208" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT208" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU208" t="n">
         <v>1.31</v>
@@ -43330,7 +43330,7 @@
         <v>1.3</v>
       </c>
       <c r="AT211" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU211" t="n">
         <v>1.6</v>
@@ -43533,7 +43533,7 @@
         <v>1</v>
       </c>
       <c r="AT212" t="n">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AU212" t="n">
         <v>1.64</v>
@@ -46224,6 +46224,2442 @@
       </c>
       <c r="BK225" t="n">
         <v>19</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B226" t="n">
+        <v>2568165</v>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E226" s="2" t="n">
+        <v>44897.69791666666</v>
+      </c>
+      <c r="F226" t="n">
+        <v>20</v>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>Morecambe</t>
+        </is>
+      </c>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>Exeter City</t>
+        </is>
+      </c>
+      <c r="I226" t="n">
+        <v>1</v>
+      </c>
+      <c r="J226" t="n">
+        <v>1</v>
+      </c>
+      <c r="K226" t="n">
+        <v>2</v>
+      </c>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="n">
+        <v>1</v>
+      </c>
+      <c r="N226" t="n">
+        <v>2</v>
+      </c>
+      <c r="O226" t="inlineStr">
+        <is>
+          <t>['34']</t>
+        </is>
+      </c>
+      <c r="P226" t="inlineStr">
+        <is>
+          <t>['36']</t>
+        </is>
+      </c>
+      <c r="Q226" t="n">
+        <v>6</v>
+      </c>
+      <c r="R226" t="n">
+        <v>15</v>
+      </c>
+      <c r="S226" t="n">
+        <v>21</v>
+      </c>
+      <c r="T226" t="n">
+        <v>4</v>
+      </c>
+      <c r="U226" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V226" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="W226" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X226" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Y226" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z226" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA226" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AB226" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC226" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AD226" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE226" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AF226" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG226" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH226" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI226" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ226" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AK226" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AL226" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AM226" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN226" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AO226" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP226" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AQ226" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AR226" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS226" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AT226" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU226" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AV226" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AW226" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AX226" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="AY226" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ226" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BA226" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BB226" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BC226" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BD226" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BE226" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BF226" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG226" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH226" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI226" t="n">
+        <v>12</v>
+      </c>
+      <c r="BJ226" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK226" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B227" t="n">
+        <v>2568167</v>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E227" s="2" t="n">
+        <v>44897.69791666666</v>
+      </c>
+      <c r="F227" t="n">
+        <v>20</v>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>Plymouth Argyle</t>
+        </is>
+      </c>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>Port Vale</t>
+        </is>
+      </c>
+      <c r="I227" t="n">
+        <v>0</v>
+      </c>
+      <c r="J227" t="n">
+        <v>0</v>
+      </c>
+      <c r="K227" t="n">
+        <v>0</v>
+      </c>
+      <c r="L227" t="n">
+        <v>0</v>
+      </c>
+      <c r="M227" t="n">
+        <v>2</v>
+      </c>
+      <c r="N227" t="n">
+        <v>2</v>
+      </c>
+      <c r="O227" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P227" t="inlineStr">
+        <is>
+          <t>['65', '71']</t>
+        </is>
+      </c>
+      <c r="Q227" t="n">
+        <v>4</v>
+      </c>
+      <c r="R227" t="n">
+        <v>3</v>
+      </c>
+      <c r="S227" t="n">
+        <v>7</v>
+      </c>
+      <c r="T227" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U227" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V227" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W227" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X227" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Y227" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z227" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA227" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AB227" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC227" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AD227" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AE227" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="AF227" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG227" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH227" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI227" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ227" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK227" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AL227" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AM227" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN227" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO227" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP227" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ227" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR227" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AS227" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AT227" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AU227" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AV227" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AW227" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AX227" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AY227" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ227" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BA227" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB227" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BC227" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BD227" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BE227" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF227" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG227" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH227" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI227" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ227" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK227" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B228" t="n">
+        <v>2568159</v>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E228" s="2" t="n">
+        <v>44897.69791666666</v>
+      </c>
+      <c r="F228" t="n">
+        <v>20</v>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>Bolton Wanderers</t>
+        </is>
+      </c>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>Bristol Rovers</t>
+        </is>
+      </c>
+      <c r="I228" t="n">
+        <v>0</v>
+      </c>
+      <c r="J228" t="n">
+        <v>1</v>
+      </c>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="n">
+        <v>1</v>
+      </c>
+      <c r="N228" t="n">
+        <v>2</v>
+      </c>
+      <c r="O228" t="inlineStr">
+        <is>
+          <t>['90+4']</t>
+        </is>
+      </c>
+      <c r="P228" t="inlineStr">
+        <is>
+          <t>['2']</t>
+        </is>
+      </c>
+      <c r="Q228" t="n">
+        <v>11</v>
+      </c>
+      <c r="R228" t="n">
+        <v>1</v>
+      </c>
+      <c r="S228" t="n">
+        <v>12</v>
+      </c>
+      <c r="T228" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U228" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V228" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="W228" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X228" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Y228" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Z228" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA228" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AB228" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC228" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AD228" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AE228" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF228" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG228" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH228" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI228" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ228" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK228" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AL228" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM228" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AN228" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO228" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP228" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AQ228" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AR228" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AS228" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT228" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AU228" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AV228" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AW228" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AX228" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AY228" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ228" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="BA228" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB228" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BC228" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BD228" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BE228" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF228" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG228" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH228" t="n">
+        <v>15</v>
+      </c>
+      <c r="BI228" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ228" t="n">
+        <v>20</v>
+      </c>
+      <c r="BK228" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B229" t="n">
+        <v>2568160</v>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E229" s="2" t="n">
+        <v>44897.69791666666</v>
+      </c>
+      <c r="F229" t="n">
+        <v>20</v>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>Charlton Athletic</t>
+        </is>
+      </c>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>Cheltenham Town</t>
+        </is>
+      </c>
+      <c r="I229" t="n">
+        <v>0</v>
+      </c>
+      <c r="J229" t="n">
+        <v>0</v>
+      </c>
+      <c r="K229" t="n">
+        <v>0</v>
+      </c>
+      <c r="L229" t="n">
+        <v>0</v>
+      </c>
+      <c r="M229" t="n">
+        <v>1</v>
+      </c>
+      <c r="N229" t="n">
+        <v>1</v>
+      </c>
+      <c r="O229" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P229" t="inlineStr">
+        <is>
+          <t>['84']</t>
+        </is>
+      </c>
+      <c r="Q229" t="n">
+        <v>11</v>
+      </c>
+      <c r="R229" t="n">
+        <v>4</v>
+      </c>
+      <c r="S229" t="n">
+        <v>15</v>
+      </c>
+      <c r="T229" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="U229" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V229" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W229" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X229" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Y229" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Z229" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA229" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB229" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC229" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AD229" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AE229" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AF229" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG229" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH229" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI229" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ229" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AK229" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AL229" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM229" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AN229" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO229" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP229" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AQ229" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AR229" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AS229" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AT229" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU229" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AV229" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="AW229" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AX229" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AY229" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ229" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="BA229" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB229" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BC229" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BD229" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE229" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BF229" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG229" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH229" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI229" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ229" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK229" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B230" t="n">
+        <v>2568166</v>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E230" s="2" t="n">
+        <v>44897.69791666666</v>
+      </c>
+      <c r="F230" t="n">
+        <v>20</v>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>Peterborough United</t>
+        </is>
+      </c>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>Barnsley</t>
+        </is>
+      </c>
+      <c r="I230" t="n">
+        <v>1</v>
+      </c>
+      <c r="J230" t="n">
+        <v>1</v>
+      </c>
+      <c r="K230" t="n">
+        <v>2</v>
+      </c>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="n">
+        <v>2</v>
+      </c>
+      <c r="N230" t="n">
+        <v>3</v>
+      </c>
+      <c r="O230" t="inlineStr">
+        <is>
+          <t>['21']</t>
+        </is>
+      </c>
+      <c r="P230" t="inlineStr">
+        <is>
+          <t>['11', '61']</t>
+        </is>
+      </c>
+      <c r="Q230" t="n">
+        <v>3</v>
+      </c>
+      <c r="R230" t="n">
+        <v>2</v>
+      </c>
+      <c r="S230" t="n">
+        <v>5</v>
+      </c>
+      <c r="T230" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="U230" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V230" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="W230" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X230" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Y230" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Z230" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AA230" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AB230" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC230" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AD230" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE230" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AF230" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG230" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH230" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI230" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ230" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK230" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AL230" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AM230" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AN230" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AO230" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP230" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AQ230" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AR230" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AS230" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AT230" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AU230" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AV230" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AW230" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="AX230" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AY230" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ230" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="BA230" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB230" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BC230" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BD230" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BE230" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BF230" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG230" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH230" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI230" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ230" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK230" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B231" t="n">
+        <v>2568163</v>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E231" s="2" t="n">
+        <v>44897.69791666666</v>
+      </c>
+      <c r="F231" t="n">
+        <v>20</v>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>Ipswich Town</t>
+        </is>
+      </c>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>Fleetwood Town</t>
+        </is>
+      </c>
+      <c r="I231" t="n">
+        <v>1</v>
+      </c>
+      <c r="J231" t="n">
+        <v>0</v>
+      </c>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="n">
+        <v>1</v>
+      </c>
+      <c r="N231" t="n">
+        <v>2</v>
+      </c>
+      <c r="O231" t="inlineStr">
+        <is>
+          <t>['2']</t>
+        </is>
+      </c>
+      <c r="P231" t="inlineStr">
+        <is>
+          <t>['90+6']</t>
+        </is>
+      </c>
+      <c r="Q231" t="n">
+        <v>5</v>
+      </c>
+      <c r="R231" t="n">
+        <v>2</v>
+      </c>
+      <c r="S231" t="n">
+        <v>7</v>
+      </c>
+      <c r="T231" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="U231" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="V231" t="n">
+        <v>7</v>
+      </c>
+      <c r="W231" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="X231" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Y231" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Z231" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA231" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AB231" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC231" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AD231" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AE231" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AF231" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG231" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH231" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI231" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ231" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AK231" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AL231" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM231" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AN231" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AO231" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AP231" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AQ231" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR231" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AS231" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AT231" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AU231" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AV231" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AW231" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="AX231" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AY231" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ231" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="BA231" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB231" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BC231" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BD231" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE231" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BF231" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG231" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH231" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI231" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ231" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK231" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B232" t="n">
+        <v>2568168</v>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E232" s="2" t="n">
+        <v>44898.39583333334</v>
+      </c>
+      <c r="F232" t="n">
+        <v>20</v>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>Shrewsbury Town</t>
+        </is>
+      </c>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>Lincoln City</t>
+        </is>
+      </c>
+      <c r="I232" t="n">
+        <v>1</v>
+      </c>
+      <c r="J232" t="n">
+        <v>0</v>
+      </c>
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="n">
+        <v>2</v>
+      </c>
+      <c r="M232" t="n">
+        <v>0</v>
+      </c>
+      <c r="N232" t="n">
+        <v>2</v>
+      </c>
+      <c r="O232" t="inlineStr">
+        <is>
+          <t>['45', '60']</t>
+        </is>
+      </c>
+      <c r="P232" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q232" t="n">
+        <v>5</v>
+      </c>
+      <c r="R232" t="n">
+        <v>5</v>
+      </c>
+      <c r="S232" t="n">
+        <v>10</v>
+      </c>
+      <c r="T232" t="n">
+        <v>3</v>
+      </c>
+      <c r="U232" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V232" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W232" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X232" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y232" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z232" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA232" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB232" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC232" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AD232" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE232" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AF232" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG232" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AH232" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AI232" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AJ232" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK232" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL232" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM232" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN232" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AO232" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP232" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AQ232" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AR232" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AS232" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AT232" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AU232" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AV232" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AW232" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AX232" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AY232" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ232" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BA232" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB232" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BC232" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BD232" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BE232" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BF232" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG232" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH232" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI232" t="n">
+        <v>14</v>
+      </c>
+      <c r="BJ232" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK232" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B233" t="n">
+        <v>2568161</v>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E233" s="2" t="n">
+        <v>44898.39583333334</v>
+      </c>
+      <c r="F233" t="n">
+        <v>20</v>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>Derby County</t>
+        </is>
+      </c>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>Sheffield Wednesday</t>
+        </is>
+      </c>
+      <c r="I233" t="n">
+        <v>0</v>
+      </c>
+      <c r="J233" t="n">
+        <v>0</v>
+      </c>
+      <c r="K233" t="n">
+        <v>0</v>
+      </c>
+      <c r="L233" t="n">
+        <v>0</v>
+      </c>
+      <c r="M233" t="n">
+        <v>0</v>
+      </c>
+      <c r="N233" t="n">
+        <v>0</v>
+      </c>
+      <c r="O233" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P233" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q233" t="n">
+        <v>4</v>
+      </c>
+      <c r="R233" t="n">
+        <v>2</v>
+      </c>
+      <c r="S233" t="n">
+        <v>6</v>
+      </c>
+      <c r="T233" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U233" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V233" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W233" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X233" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y233" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z233" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA233" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB233" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC233" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AD233" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE233" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AF233" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG233" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH233" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AI233" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ233" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK233" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AL233" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM233" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN233" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AO233" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP233" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ233" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR233" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AS233" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AT233" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU233" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AV233" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AW233" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="AX233" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AY233" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ233" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BA233" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BB233" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BC233" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BD233" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BE233" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BF233" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG233" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH233" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI233" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ233" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK233" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B234" t="n">
+        <v>2568164</v>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E234" s="2" t="n">
+        <v>44898.39583333334</v>
+      </c>
+      <c r="F234" t="n">
+        <v>20</v>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>Milton Keynes Dons</t>
+        </is>
+      </c>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>Burton Albion</t>
+        </is>
+      </c>
+      <c r="I234" t="n">
+        <v>0</v>
+      </c>
+      <c r="J234" t="n">
+        <v>1</v>
+      </c>
+      <c r="K234" t="n">
+        <v>1</v>
+      </c>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="n">
+        <v>1</v>
+      </c>
+      <c r="N234" t="n">
+        <v>2</v>
+      </c>
+      <c r="O234" t="inlineStr">
+        <is>
+          <t>['84']</t>
+        </is>
+      </c>
+      <c r="P234" t="inlineStr">
+        <is>
+          <t>['29']</t>
+        </is>
+      </c>
+      <c r="Q234" t="n">
+        <v>11</v>
+      </c>
+      <c r="R234" t="n">
+        <v>2</v>
+      </c>
+      <c r="S234" t="n">
+        <v>13</v>
+      </c>
+      <c r="T234" t="n">
+        <v>3</v>
+      </c>
+      <c r="U234" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V234" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W234" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X234" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y234" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z234" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA234" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB234" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC234" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AD234" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AE234" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AF234" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG234" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH234" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI234" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ234" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AK234" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AL234" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM234" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN234" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO234" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP234" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AQ234" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AR234" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AS234" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AT234" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AU234" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AV234" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AW234" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="AX234" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AY234" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ234" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA234" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB234" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BC234" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BD234" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BE234" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BF234" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG234" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH234" t="n">
+        <v>15</v>
+      </c>
+      <c r="BI234" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ234" t="n">
+        <v>19</v>
+      </c>
+      <c r="BK234" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B235" t="n">
+        <v>2568162</v>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E235" s="2" t="n">
+        <v>44898.41666666666</v>
+      </c>
+      <c r="F235" t="n">
+        <v>20</v>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>Forest Green Rovers</t>
+        </is>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>Cambridge United</t>
+        </is>
+      </c>
+      <c r="I235" t="n">
+        <v>1</v>
+      </c>
+      <c r="J235" t="n">
+        <v>0</v>
+      </c>
+      <c r="K235" t="n">
+        <v>1</v>
+      </c>
+      <c r="L235" t="n">
+        <v>2</v>
+      </c>
+      <c r="M235" t="n">
+        <v>1</v>
+      </c>
+      <c r="N235" t="n">
+        <v>3</v>
+      </c>
+      <c r="O235" t="inlineStr">
+        <is>
+          <t>['37', '90+3']</t>
+        </is>
+      </c>
+      <c r="P235" t="inlineStr">
+        <is>
+          <t>['89']</t>
+        </is>
+      </c>
+      <c r="Q235" t="n">
+        <v>5</v>
+      </c>
+      <c r="R235" t="n">
+        <v>6</v>
+      </c>
+      <c r="S235" t="n">
+        <v>11</v>
+      </c>
+      <c r="T235" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U235" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V235" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W235" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X235" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y235" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z235" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA235" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB235" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC235" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AD235" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE235" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AF235" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG235" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH235" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI235" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ235" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK235" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AL235" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM235" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN235" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AO235" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP235" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AQ235" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AR235" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AS235" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AT235" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AU235" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AV235" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AW235" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="AX235" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AY235" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ235" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BA235" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB235" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BC235" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BD235" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE235" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BF235" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG235" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH235" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI235" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ235" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK235" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B236" t="n">
+        <v>2568158</v>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E236" s="2" t="n">
+        <v>44898.5</v>
+      </c>
+      <c r="F236" t="n">
+        <v>20</v>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>Accrington Stanley</t>
+        </is>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>Oxford United</t>
+        </is>
+      </c>
+      <c r="I236" t="n">
+        <v>0</v>
+      </c>
+      <c r="J236" t="n">
+        <v>0</v>
+      </c>
+      <c r="K236" t="n">
+        <v>0</v>
+      </c>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="n">
+        <v>1</v>
+      </c>
+      <c r="N236" t="n">
+        <v>2</v>
+      </c>
+      <c r="O236" t="inlineStr">
+        <is>
+          <t>['84']</t>
+        </is>
+      </c>
+      <c r="P236" t="inlineStr">
+        <is>
+          <t>['58']</t>
+        </is>
+      </c>
+      <c r="Q236" t="n">
+        <v>5</v>
+      </c>
+      <c r="R236" t="n">
+        <v>2</v>
+      </c>
+      <c r="S236" t="n">
+        <v>7</v>
+      </c>
+      <c r="T236" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U236" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V236" t="n">
+        <v>3</v>
+      </c>
+      <c r="W236" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X236" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y236" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z236" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA236" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB236" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC236" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AD236" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE236" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AF236" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG236" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH236" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI236" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AJ236" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AK236" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AL236" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM236" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN236" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AO236" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP236" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ236" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR236" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS236" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT236" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AU236" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AV236" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AW236" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AX236" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AY236" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ236" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BA236" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB236" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BC236" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BD236" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BE236" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BF236" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG236" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH236" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI236" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ236" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK236" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B237" t="n">
+        <v>2568169</v>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E237" s="2" t="n">
+        <v>44899.39583333334</v>
+      </c>
+      <c r="F237" t="n">
+        <v>20</v>
+      </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>Wycombe Wanderers</t>
+        </is>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>Portsmouth</t>
+        </is>
+      </c>
+      <c r="I237" t="n">
+        <v>1</v>
+      </c>
+      <c r="J237" t="n">
+        <v>0</v>
+      </c>
+      <c r="K237" t="n">
+        <v>1</v>
+      </c>
+      <c r="L237" t="n">
+        <v>2</v>
+      </c>
+      <c r="M237" t="n">
+        <v>0</v>
+      </c>
+      <c r="N237" t="n">
+        <v>2</v>
+      </c>
+      <c r="O237" t="inlineStr">
+        <is>
+          <t>['14', '88']</t>
+        </is>
+      </c>
+      <c r="P237" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q237" t="n">
+        <v>7</v>
+      </c>
+      <c r="R237" t="n">
+        <v>10</v>
+      </c>
+      <c r="S237" t="n">
+        <v>17</v>
+      </c>
+      <c r="T237" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U237" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V237" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W237" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X237" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y237" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z237" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA237" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB237" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC237" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AD237" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE237" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AF237" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG237" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH237" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI237" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ237" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK237" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AL237" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM237" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN237" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AO237" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP237" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AQ237" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR237" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AS237" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT237" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AU237" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AV237" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AW237" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="AX237" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AY237" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ237" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BA237" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB237" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BC237" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BD237" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BE237" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BF237" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG237" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH237" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI237" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ237" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK237" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/England EFL League One_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/England EFL League One_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK237"/>
+  <dimension ref="A1:BK246"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1512,7 +1512,7 @@
         <v>1.5</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT7" t="n">
         <v>1</v>
@@ -2527,7 +2527,7 @@
         <v>1.6</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT11" t="n">
         <v>1.11</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT12" t="n">
         <v>0.8</v>
@@ -3133,10 +3133,10 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT13" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3336,10 +3336,10 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AT14" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT15" t="n">
         <v>1.1</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AT19" t="n">
         <v>2.3</v>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AT20" t="n">
         <v>1.2</v>
@@ -4757,10 +4757,10 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT21" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU21" t="n">
         <v>0</v>
@@ -4963,7 +4963,7 @@
         <v>1.6</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU22" t="n">
         <v>0</v>
@@ -5166,7 +5166,7 @@
         <v>2</v>
       </c>
       <c r="AT23" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU23" t="n">
         <v>0</v>
@@ -5369,7 +5369,7 @@
         <v>1.78</v>
       </c>
       <c r="AT24" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU24" t="n">
         <v>0</v>
@@ -5572,7 +5572,7 @@
         <v>1.1</v>
       </c>
       <c r="AT25" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU25" t="n">
         <v>0</v>
@@ -5772,7 +5772,7 @@
         <v>0</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT26" t="n">
         <v>1.3</v>
@@ -5978,7 +5978,7 @@
         <v>0.8</v>
       </c>
       <c r="AT27" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AU27" t="n">
         <v>0.9</v>
@@ -6587,7 +6587,7 @@
         <v>1.5</v>
       </c>
       <c r="AT30" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU30" t="n">
         <v>1.29</v>
@@ -6787,7 +6787,7 @@
         <v>3</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT31" t="n">
         <v>0.8</v>
@@ -6993,7 +6993,7 @@
         <v>2.7</v>
       </c>
       <c r="AT32" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU32" t="n">
         <v>1.94</v>
@@ -7396,7 +7396,7 @@
         <v>0</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT34" t="n">
         <v>1.11</v>
@@ -7802,7 +7802,7 @@
         <v>1</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT36" t="n">
         <v>1</v>
@@ -8414,7 +8414,7 @@
         <v>2.2</v>
       </c>
       <c r="AT39" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AU39" t="n">
         <v>1.9</v>
@@ -8817,10 +8817,10 @@
         <v>0</v>
       </c>
       <c r="AS41" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AT41" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU41" t="n">
         <v>1.36</v>
@@ -9023,7 +9023,7 @@
         <v>1.1</v>
       </c>
       <c r="AT42" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU42" t="n">
         <v>0.57</v>
@@ -9223,10 +9223,10 @@
         <v>0</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT43" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU43" t="n">
         <v>1.48</v>
@@ -9429,7 +9429,7 @@
         <v>1.6</v>
       </c>
       <c r="AT44" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU44" t="n">
         <v>1.01</v>
@@ -9629,7 +9629,7 @@
         <v>3</v>
       </c>
       <c r="AS45" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AT45" t="n">
         <v>2.3</v>
@@ -10238,10 +10238,10 @@
         <v>0</v>
       </c>
       <c r="AS48" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT48" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU48" t="n">
         <v>1.2</v>
@@ -10444,7 +10444,7 @@
         <v>1.1</v>
       </c>
       <c r="AT49" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU49" t="n">
         <v>1.23</v>
@@ -11253,7 +11253,7 @@
         <v>3</v>
       </c>
       <c r="AS53" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AT53" t="n">
         <v>1.1</v>
@@ -11456,10 +11456,10 @@
         <v>0</v>
       </c>
       <c r="AS54" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AT54" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU54" t="n">
         <v>1.06</v>
@@ -11862,7 +11862,7 @@
         <v>3</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT56" t="n">
         <v>2.3</v>
@@ -12065,10 +12065,10 @@
         <v>0</v>
       </c>
       <c r="AS57" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AT57" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU57" t="n">
         <v>1.11</v>
@@ -12271,7 +12271,7 @@
         <v>2</v>
       </c>
       <c r="AT58" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AU58" t="n">
         <v>1.95</v>
@@ -12474,7 +12474,7 @@
         <v>1.78</v>
       </c>
       <c r="AT59" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU59" t="n">
         <v>1.81</v>
@@ -12674,10 +12674,10 @@
         <v>0.5</v>
       </c>
       <c r="AS60" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT60" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU60" t="n">
         <v>1.47</v>
@@ -12880,7 +12880,7 @@
         <v>2.7</v>
       </c>
       <c r="AT61" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU61" t="n">
         <v>2.04</v>
@@ -13892,10 +13892,10 @@
         <v>0.5</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT66" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AU66" t="n">
         <v>1.42</v>
@@ -14301,7 +14301,7 @@
         <v>1.89</v>
       </c>
       <c r="AT68" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU68" t="n">
         <v>1.28</v>
@@ -14704,7 +14704,7 @@
         <v>2</v>
       </c>
       <c r="AS70" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT70" t="n">
         <v>1.2</v>
@@ -14907,7 +14907,7 @@
         <v>0</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT71" t="n">
         <v>1.7</v>
@@ -15110,7 +15110,7 @@
         <v>0.5</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT72" t="n">
         <v>0.6</v>
@@ -15316,7 +15316,7 @@
         <v>1.67</v>
       </c>
       <c r="AT73" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU73" t="n">
         <v>1.5</v>
@@ -15722,7 +15722,7 @@
         <v>1.5</v>
       </c>
       <c r="AT75" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU75" t="n">
         <v>1.45</v>
@@ -15922,7 +15922,7 @@
         <v>1.67</v>
       </c>
       <c r="AS76" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AT76" t="n">
         <v>1.2</v>
@@ -16128,7 +16128,7 @@
         <v>1.1</v>
       </c>
       <c r="AT77" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU77" t="n">
         <v>1.09</v>
@@ -16328,7 +16328,7 @@
         <v>1</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT78" t="n">
         <v>1.11</v>
@@ -16734,7 +16734,7 @@
         <v>1.33</v>
       </c>
       <c r="AS80" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT80" t="n">
         <v>1.3</v>
@@ -16937,7 +16937,7 @@
         <v>0.33</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT81" t="n">
         <v>0.7</v>
@@ -17549,7 +17549,7 @@
         <v>1.89</v>
       </c>
       <c r="AT84" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU84" t="n">
         <v>1.58</v>
@@ -17749,7 +17749,7 @@
         <v>2</v>
       </c>
       <c r="AS85" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AT85" t="n">
         <v>1.1</v>
@@ -18358,7 +18358,7 @@
         <v>1</v>
       </c>
       <c r="AS88" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT88" t="n">
         <v>1.2</v>
@@ -18561,10 +18561,10 @@
         <v>0.67</v>
       </c>
       <c r="AS89" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT89" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU89" t="n">
         <v>1.31</v>
@@ -18767,7 +18767,7 @@
         <v>2.2</v>
       </c>
       <c r="AT90" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AU90" t="n">
         <v>2.02</v>
@@ -18970,7 +18970,7 @@
         <v>0.8</v>
       </c>
       <c r="AT91" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AU91" t="n">
         <v>1.56</v>
@@ -19373,7 +19373,7 @@
         <v>0.67</v>
       </c>
       <c r="AS93" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT93" t="n">
         <v>1</v>
@@ -19576,7 +19576,7 @@
         <v>2.33</v>
       </c>
       <c r="AS94" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AT94" t="n">
         <v>1.56</v>
@@ -19779,10 +19779,10 @@
         <v>0.67</v>
       </c>
       <c r="AS95" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AT95" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU95" t="n">
         <v>1.3</v>
@@ -20188,7 +20188,7 @@
         <v>1.78</v>
       </c>
       <c r="AT97" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU97" t="n">
         <v>1.68</v>
@@ -20388,7 +20388,7 @@
         <v>1</v>
       </c>
       <c r="AS98" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT98" t="n">
         <v>1.7</v>
@@ -20797,7 +20797,7 @@
         <v>1.67</v>
       </c>
       <c r="AT100" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU100" t="n">
         <v>1.46</v>
@@ -21403,7 +21403,7 @@
         <v>0.5</v>
       </c>
       <c r="AS103" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AT103" t="n">
         <v>0.7</v>
@@ -21809,7 +21809,7 @@
         <v>0.25</v>
       </c>
       <c r="AS105" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT105" t="n">
         <v>0.6</v>
@@ -22015,7 +22015,7 @@
         <v>1</v>
       </c>
       <c r="AT106" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU106" t="n">
         <v>1.83</v>
@@ -22218,7 +22218,7 @@
         <v>2</v>
       </c>
       <c r="AT107" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU107" t="n">
         <v>1.81</v>
@@ -22418,7 +22418,7 @@
         <v>1</v>
       </c>
       <c r="AS108" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT108" t="n">
         <v>1.3</v>
@@ -22624,7 +22624,7 @@
         <v>1.89</v>
       </c>
       <c r="AT109" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU109" t="n">
         <v>1.52</v>
@@ -22824,7 +22824,7 @@
         <v>0.5</v>
       </c>
       <c r="AS110" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AT110" t="n">
         <v>1</v>
@@ -23030,7 +23030,7 @@
         <v>2.1</v>
       </c>
       <c r="AT111" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU111" t="n">
         <v>1.52</v>
@@ -23230,7 +23230,7 @@
         <v>1</v>
       </c>
       <c r="AS112" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT112" t="n">
         <v>1.1</v>
@@ -23639,7 +23639,7 @@
         <v>2.2</v>
       </c>
       <c r="AT114" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU114" t="n">
         <v>2.02</v>
@@ -24042,7 +24042,7 @@
         <v>0.8</v>
       </c>
       <c r="AS116" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT116" t="n">
         <v>0.6</v>
@@ -24451,7 +24451,7 @@
         <v>1.5</v>
       </c>
       <c r="AT118" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU118" t="n">
         <v>2.07</v>
@@ -24654,7 +24654,7 @@
         <v>1.5</v>
       </c>
       <c r="AT119" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AU119" t="n">
         <v>1.48</v>
@@ -24854,10 +24854,10 @@
         <v>0.6</v>
       </c>
       <c r="AS120" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AT120" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU120" t="n">
         <v>1.1</v>
@@ -25057,7 +25057,7 @@
         <v>2.5</v>
       </c>
       <c r="AS121" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT121" t="n">
         <v>1.56</v>
@@ -25463,7 +25463,7 @@
         <v>0.75</v>
       </c>
       <c r="AS123" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT123" t="n">
         <v>1.2</v>
@@ -26072,10 +26072,10 @@
         <v>0.5</v>
       </c>
       <c r="AS126" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT126" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU126" t="n">
         <v>1.58</v>
@@ -26275,7 +26275,7 @@
         <v>1.25</v>
       </c>
       <c r="AS127" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AT127" t="n">
         <v>0.8</v>
@@ -26887,7 +26887,7 @@
         <v>2.7</v>
       </c>
       <c r="AT130" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AU130" t="n">
         <v>1.75</v>
@@ -27087,7 +27087,7 @@
         <v>0.8</v>
       </c>
       <c r="AS131" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT131" t="n">
         <v>0.7</v>
@@ -27293,7 +27293,7 @@
         <v>1.6</v>
       </c>
       <c r="AT132" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU132" t="n">
         <v>1.38</v>
@@ -27493,10 +27493,10 @@
         <v>1.25</v>
       </c>
       <c r="AS133" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AT133" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AU133" t="n">
         <v>1.28</v>
@@ -27699,7 +27699,7 @@
         <v>1.67</v>
       </c>
       <c r="AT134" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AU134" t="n">
         <v>1.5</v>
@@ -28308,7 +28308,7 @@
         <v>1.2</v>
       </c>
       <c r="AT137" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU137" t="n">
         <v>1.87</v>
@@ -28711,7 +28711,7 @@
         <v>0.5</v>
       </c>
       <c r="AS139" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT139" t="n">
         <v>0.8</v>
@@ -28914,10 +28914,10 @@
         <v>1</v>
       </c>
       <c r="AS140" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AT140" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU140" t="n">
         <v>1.35</v>
@@ -29120,7 +29120,7 @@
         <v>1.89</v>
       </c>
       <c r="AT141" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU141" t="n">
         <v>1.79</v>
@@ -29320,7 +29320,7 @@
         <v>0.67</v>
       </c>
       <c r="AS142" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT142" t="n">
         <v>0.7</v>
@@ -29726,7 +29726,7 @@
         <v>1.2</v>
       </c>
       <c r="AS144" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT144" t="n">
         <v>1.11</v>
@@ -29932,7 +29932,7 @@
         <v>2.1</v>
       </c>
       <c r="AT145" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU145" t="n">
         <v>1.59</v>
@@ -30132,7 +30132,7 @@
         <v>0.8</v>
       </c>
       <c r="AS146" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AT146" t="n">
         <v>1.2</v>
@@ -30741,7 +30741,7 @@
         <v>0.83</v>
       </c>
       <c r="AS149" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AT149" t="n">
         <v>0.7</v>
@@ -31147,7 +31147,7 @@
         <v>0.8</v>
       </c>
       <c r="AS151" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT151" t="n">
         <v>1.3</v>
@@ -31553,7 +31553,7 @@
         <v>1.17</v>
       </c>
       <c r="AS153" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT153" t="n">
         <v>1.3</v>
@@ -31756,10 +31756,10 @@
         <v>1.67</v>
       </c>
       <c r="AS154" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AT154" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU154" t="n">
         <v>1.02</v>
@@ -32165,7 +32165,7 @@
         <v>1.5</v>
       </c>
       <c r="AT156" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU156" t="n">
         <v>2.07</v>
@@ -32568,10 +32568,10 @@
         <v>2</v>
       </c>
       <c r="AS158" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT158" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AU158" t="n">
         <v>1.45</v>
@@ -32774,7 +32774,7 @@
         <v>1</v>
       </c>
       <c r="AT159" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU159" t="n">
         <v>1.73</v>
@@ -33177,10 +33177,10 @@
         <v>1.33</v>
       </c>
       <c r="AS161" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT161" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU161" t="n">
         <v>2.19</v>
@@ -33380,10 +33380,10 @@
         <v>2.14</v>
       </c>
       <c r="AS162" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT162" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AU162" t="n">
         <v>1.21</v>
@@ -33586,7 +33586,7 @@
         <v>1.2</v>
       </c>
       <c r="AT163" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU163" t="n">
         <v>1.99</v>
@@ -33989,10 +33989,10 @@
         <v>1</v>
       </c>
       <c r="AS165" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AT165" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU165" t="n">
         <v>1.03</v>
@@ -34192,7 +34192,7 @@
         <v>1.67</v>
       </c>
       <c r="AS166" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AT166" t="n">
         <v>1.56</v>
@@ -34395,10 +34395,10 @@
         <v>1.5</v>
       </c>
       <c r="AS167" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT167" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AU167" t="n">
         <v>1.54</v>
@@ -34598,10 +34598,10 @@
         <v>1.17</v>
       </c>
       <c r="AS168" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT168" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU168" t="n">
         <v>1.43</v>
@@ -34801,10 +34801,10 @@
         <v>0.83</v>
       </c>
       <c r="AS169" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AT169" t="n">
         <v>0.9</v>
-      </c>
-      <c r="AT169" t="n">
-        <v>1</v>
       </c>
       <c r="AU169" t="n">
         <v>1.42</v>
@@ -35004,10 +35004,10 @@
         <v>1.86</v>
       </c>
       <c r="AS170" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT170" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU170" t="n">
         <v>1.55</v>
@@ -35210,7 +35210,7 @@
         <v>1</v>
       </c>
       <c r="AT171" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU171" t="n">
         <v>1.62</v>
@@ -35410,7 +35410,7 @@
         <v>0.57</v>
       </c>
       <c r="AS172" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT172" t="n">
         <v>0.8</v>
@@ -40485,7 +40485,7 @@
         <v>0.88</v>
       </c>
       <c r="AS197" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT197" t="n">
         <v>1.1</v>
@@ -40691,7 +40691,7 @@
         <v>0.8</v>
       </c>
       <c r="AT198" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU198" t="n">
         <v>1.19</v>
@@ -40894,7 +40894,7 @@
         <v>1.2</v>
       </c>
       <c r="AT199" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AU199" t="n">
         <v>1.92</v>
@@ -41097,7 +41097,7 @@
         <v>1.5</v>
       </c>
       <c r="AT200" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU200" t="n">
         <v>2.08</v>
@@ -41297,7 +41297,7 @@
         <v>1.38</v>
       </c>
       <c r="AS201" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT201" t="n">
         <v>1.3</v>
@@ -41500,10 +41500,10 @@
         <v>1.25</v>
       </c>
       <c r="AS202" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT202" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AU202" t="n">
         <v>1.6</v>
@@ -41703,10 +41703,10 @@
         <v>1.25</v>
       </c>
       <c r="AS203" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AT203" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU203" t="n">
         <v>1.27</v>
@@ -41906,10 +41906,10 @@
         <v>1.13</v>
       </c>
       <c r="AS204" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT204" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU204" t="n">
         <v>1.51</v>
@@ -42109,10 +42109,10 @@
         <v>1.14</v>
       </c>
       <c r="AS205" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT205" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU205" t="n">
         <v>1.37</v>
@@ -42312,7 +42312,7 @@
         <v>0.88</v>
       </c>
       <c r="AS206" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AT206" t="n">
         <v>0.8</v>
@@ -42518,7 +42518,7 @@
         <v>1.2</v>
       </c>
       <c r="AT207" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU207" t="n">
         <v>1.91</v>
@@ -42721,7 +42721,7 @@
         <v>1</v>
       </c>
       <c r="AT208" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AU208" t="n">
         <v>1.64</v>
@@ -43124,10 +43124,10 @@
         <v>0.71</v>
       </c>
       <c r="AS210" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT210" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU210" t="n">
         <v>2.16</v>
@@ -43327,7 +43327,7 @@
         <v>1.38</v>
       </c>
       <c r="AS211" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT211" t="n">
         <v>1.7</v>
@@ -43530,10 +43530,10 @@
         <v>1.13</v>
       </c>
       <c r="AS212" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AT212" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU212" t="n">
         <v>1.13</v>
@@ -43733,10 +43733,10 @@
         <v>1.75</v>
       </c>
       <c r="AS213" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT213" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU213" t="n">
         <v>1.14</v>
@@ -43939,7 +43939,7 @@
         <v>1.67</v>
       </c>
       <c r="AT214" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU214" t="n">
         <v>1.47</v>
@@ -44139,7 +44139,7 @@
         <v>2.22</v>
       </c>
       <c r="AS215" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT215" t="n">
         <v>2.3</v>
@@ -44951,7 +44951,7 @@
         <v>0.78</v>
       </c>
       <c r="AS219" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT219" t="n">
         <v>0.7</v>
@@ -45157,7 +45157,7 @@
         <v>1.6</v>
       </c>
       <c r="AT220" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU220" t="n">
         <v>1.47</v>
@@ -45360,7 +45360,7 @@
         <v>1.1</v>
       </c>
       <c r="AT221" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU221" t="n">
         <v>1.43</v>
@@ -45560,10 +45560,10 @@
         <v>1.67</v>
       </c>
       <c r="AS222" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AT222" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU222" t="n">
         <v>1.62</v>
@@ -45763,10 +45763,10 @@
         <v>1</v>
       </c>
       <c r="AS223" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT223" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU223" t="n">
         <v>1.59</v>
@@ -46169,7 +46169,7 @@
         <v>0.89</v>
       </c>
       <c r="AS225" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT225" t="n">
         <v>1.1</v>
@@ -46375,7 +46375,7 @@
         <v>2.7</v>
       </c>
       <c r="AT226" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU226" t="n">
         <v>1.72</v>
@@ -46778,10 +46778,10 @@
         <v>1.22</v>
       </c>
       <c r="AS228" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT228" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AU228" t="n">
         <v>2.27</v>
@@ -46984,7 +46984,7 @@
         <v>1.6</v>
       </c>
       <c r="AT229" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU229" t="n">
         <v>1.5</v>
@@ -47590,7 +47590,7 @@
         <v>1.44</v>
       </c>
       <c r="AS232" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT232" t="n">
         <v>1.3</v>
@@ -47796,7 +47796,7 @@
         <v>1.89</v>
       </c>
       <c r="AT233" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AU233" t="n">
         <v>1.69</v>
@@ -47996,7 +47996,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS234" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AT234" t="n">
         <v>0.6</v>
@@ -48199,7 +48199,7 @@
         <v>0.78</v>
       </c>
       <c r="AS235" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AT235" t="n">
         <v>0.7</v>
@@ -48660,6 +48660,1833 @@
       </c>
       <c r="BK237" t="n">
         <v>11</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B238" t="n">
+        <v>2568181</v>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E238" s="2" t="n">
+        <v>44905.39583333334</v>
+      </c>
+      <c r="F238" t="n">
+        <v>21</v>
+      </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>Shrewsbury Town</t>
+        </is>
+      </c>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>Bolton Wanderers</t>
+        </is>
+      </c>
+      <c r="I238" t="n">
+        <v>1</v>
+      </c>
+      <c r="J238" t="n">
+        <v>1</v>
+      </c>
+      <c r="K238" t="n">
+        <v>2</v>
+      </c>
+      <c r="L238" t="n">
+        <v>3</v>
+      </c>
+      <c r="M238" t="n">
+        <v>2</v>
+      </c>
+      <c r="N238" t="n">
+        <v>5</v>
+      </c>
+      <c r="O238" t="inlineStr">
+        <is>
+          <t>['2', '79', '90+2']</t>
+        </is>
+      </c>
+      <c r="P238" t="inlineStr">
+        <is>
+          <t>['13', '71']</t>
+        </is>
+      </c>
+      <c r="Q238" t="n">
+        <v>6</v>
+      </c>
+      <c r="R238" t="n">
+        <v>2</v>
+      </c>
+      <c r="S238" t="n">
+        <v>8</v>
+      </c>
+      <c r="T238" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U238" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V238" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="W238" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="X238" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="Y238" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="Z238" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AA238" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AB238" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC238" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="AD238" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="AE238" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="AF238" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG238" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH238" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI238" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ238" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AK238" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AL238" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AM238" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AN238" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AO238" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP238" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AQ238" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AR238" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS238" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AT238" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AU238" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AV238" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AW238" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AX238" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AY238" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ238" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="BA238" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB238" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BC238" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BD238" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BE238" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BF238" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG238" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH238" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI238" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ238" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK238" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B239" t="n">
+        <v>2568176</v>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E239" s="2" t="n">
+        <v>44905.39583333334</v>
+      </c>
+      <c r="F239" t="n">
+        <v>21</v>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>Ipswich Town</t>
+        </is>
+      </c>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>Peterborough United</t>
+        </is>
+      </c>
+      <c r="I239" t="n">
+        <v>1</v>
+      </c>
+      <c r="J239" t="n">
+        <v>1</v>
+      </c>
+      <c r="K239" t="n">
+        <v>2</v>
+      </c>
+      <c r="L239" t="n">
+        <v>2</v>
+      </c>
+      <c r="M239" t="n">
+        <v>1</v>
+      </c>
+      <c r="N239" t="n">
+        <v>3</v>
+      </c>
+      <c r="O239" t="inlineStr">
+        <is>
+          <t>['21', '58']</t>
+        </is>
+      </c>
+      <c r="P239" t="inlineStr">
+        <is>
+          <t>['31']</t>
+        </is>
+      </c>
+      <c r="Q239" t="n">
+        <v>4</v>
+      </c>
+      <c r="R239" t="n">
+        <v>6</v>
+      </c>
+      <c r="S239" t="n">
+        <v>10</v>
+      </c>
+      <c r="T239" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="U239" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V239" t="n">
+        <v>5</v>
+      </c>
+      <c r="W239" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X239" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Y239" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Z239" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA239" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB239" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC239" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AD239" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="AE239" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="AF239" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG239" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH239" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI239" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ239" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK239" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AL239" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AM239" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AN239" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AO239" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AP239" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AQ239" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AR239" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AS239" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT239" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AU239" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AV239" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AW239" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AX239" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AY239" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ239" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BA239" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB239" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BC239" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BD239" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BE239" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF239" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG239" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH239" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI239" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ239" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK239" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B240" t="n">
+        <v>2568175</v>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E240" s="2" t="n">
+        <v>44905.45833333334</v>
+      </c>
+      <c r="F240" t="n">
+        <v>21</v>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>Forest Green Rovers</t>
+        </is>
+      </c>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>Cheltenham Town</t>
+        </is>
+      </c>
+      <c r="I240" t="n">
+        <v>0</v>
+      </c>
+      <c r="J240" t="n">
+        <v>0</v>
+      </c>
+      <c r="K240" t="n">
+        <v>0</v>
+      </c>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="n">
+        <v>0</v>
+      </c>
+      <c r="N240" t="n">
+        <v>1</v>
+      </c>
+      <c r="O240" t="inlineStr">
+        <is>
+          <t>['75']</t>
+        </is>
+      </c>
+      <c r="P240" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q240" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R240" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S240" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T240" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="U240" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="V240" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="W240" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X240" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="Y240" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Z240" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AA240" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AB240" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC240" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AD240" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AE240" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AF240" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG240" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AH240" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI240" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ240" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AK240" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AL240" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AM240" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN240" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AO240" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AP240" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AQ240" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AR240" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS240" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AT240" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AU240" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AV240" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="AW240" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AX240" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AY240" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ240" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BA240" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB240" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC240" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BD240" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE240" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF240" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG240" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH240" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI240" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ240" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK240" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B241" t="n">
+        <v>2568172</v>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E241" s="2" t="n">
+        <v>44905.45833333334</v>
+      </c>
+      <c r="F241" t="n">
+        <v>21</v>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>Burton Albion</t>
+        </is>
+      </c>
+      <c r="H241" t="inlineStr">
+        <is>
+          <t>Derby County</t>
+        </is>
+      </c>
+      <c r="I241" t="n">
+        <v>0</v>
+      </c>
+      <c r="J241" t="n">
+        <v>1</v>
+      </c>
+      <c r="K241" t="n">
+        <v>1</v>
+      </c>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="n">
+        <v>1</v>
+      </c>
+      <c r="N241" t="n">
+        <v>2</v>
+      </c>
+      <c r="O241" t="inlineStr">
+        <is>
+          <t>['79']</t>
+        </is>
+      </c>
+      <c r="P241" t="inlineStr">
+        <is>
+          <t>['23']</t>
+        </is>
+      </c>
+      <c r="Q241" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R241" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S241" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T241" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U241" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V241" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="W241" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X241" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Y241" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Z241" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AA241" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="AB241" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC241" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="AD241" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="AE241" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AF241" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG241" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH241" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI241" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ241" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK241" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AL241" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM241" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN241" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AO241" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP241" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AQ241" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AR241" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AS241" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AT241" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AU241" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AV241" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AW241" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="AX241" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AY241" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ241" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BA241" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BB241" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BC241" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BD241" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BE241" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BF241" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG241" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH241" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI241" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ241" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK241" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B242" t="n">
+        <v>2568174</v>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E242" s="2" t="n">
+        <v>44905.5</v>
+      </c>
+      <c r="F242" t="n">
+        <v>21</v>
+      </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>Exeter City</t>
+        </is>
+      </c>
+      <c r="H242" t="inlineStr">
+        <is>
+          <t>Sheffield Wednesday</t>
+        </is>
+      </c>
+      <c r="I242" t="n">
+        <v>0</v>
+      </c>
+      <c r="J242" t="n">
+        <v>0</v>
+      </c>
+      <c r="K242" t="n">
+        <v>0</v>
+      </c>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="n">
+        <v>1</v>
+      </c>
+      <c r="N242" t="n">
+        <v>2</v>
+      </c>
+      <c r="O242" t="inlineStr">
+        <is>
+          <t>['56']</t>
+        </is>
+      </c>
+      <c r="P242" t="inlineStr">
+        <is>
+          <t>['90+4']</t>
+        </is>
+      </c>
+      <c r="Q242" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R242" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S242" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T242" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="U242" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V242" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="W242" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="X242" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Y242" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Z242" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AA242" t="n">
+        <v>7.35</v>
+      </c>
+      <c r="AB242" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC242" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="AD242" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="AE242" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AF242" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG242" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH242" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI242" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ242" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AK242" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AL242" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM242" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN242" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AO242" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP242" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AQ242" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AR242" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS242" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AT242" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AU242" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AV242" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AW242" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AX242" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AY242" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ242" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BA242" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BB242" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BC242" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BD242" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BE242" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BF242" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG242" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH242" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI242" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ242" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK242" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B243" t="n">
+        <v>2568173</v>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E243" s="2" t="n">
+        <v>44905.5</v>
+      </c>
+      <c r="F243" t="n">
+        <v>21</v>
+      </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>Cambridge United</t>
+        </is>
+      </c>
+      <c r="H243" t="inlineStr">
+        <is>
+          <t>Plymouth Argyle</t>
+        </is>
+      </c>
+      <c r="I243" t="n">
+        <v>0</v>
+      </c>
+      <c r="J243" t="n">
+        <v>0</v>
+      </c>
+      <c r="K243" t="n">
+        <v>0</v>
+      </c>
+      <c r="L243" t="n">
+        <v>0</v>
+      </c>
+      <c r="M243" t="n">
+        <v>0</v>
+      </c>
+      <c r="N243" t="n">
+        <v>0</v>
+      </c>
+      <c r="O243" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P243" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q243" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R243" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S243" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T243" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U243" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V243" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="W243" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="X243" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y243" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Z243" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AA243" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="AB243" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC243" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="AD243" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="AE243" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AF243" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG243" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH243" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI243" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ243" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK243" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AL243" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AM243" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AN243" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AO243" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP243" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AQ243" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AR243" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AS243" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AT243" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AU243" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AV243" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AW243" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AX243" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AY243" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ243" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BA243" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB243" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BC243" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BD243" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BE243" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF243" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG243" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH243" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI243" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ243" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK243" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B244" t="n">
+        <v>2568171</v>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E244" s="2" t="n">
+        <v>44905.5</v>
+      </c>
+      <c r="F244" t="n">
+        <v>21</v>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>Bristol Rovers</t>
+        </is>
+      </c>
+      <c r="H244" t="inlineStr">
+        <is>
+          <t>Port Vale</t>
+        </is>
+      </c>
+      <c r="I244" t="n">
+        <v>0</v>
+      </c>
+      <c r="J244" t="n">
+        <v>0</v>
+      </c>
+      <c r="K244" t="n">
+        <v>0</v>
+      </c>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="n">
+        <v>0</v>
+      </c>
+      <c r="N244" t="n">
+        <v>1</v>
+      </c>
+      <c r="O244" t="inlineStr">
+        <is>
+          <t>['87']</t>
+        </is>
+      </c>
+      <c r="P244" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q244" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R244" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S244" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T244" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U244" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V244" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W244" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="X244" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Y244" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Z244" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AA244" t="n">
+        <v>7.35</v>
+      </c>
+      <c r="AB244" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC244" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AD244" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="AE244" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AF244" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG244" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH244" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI244" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ244" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AK244" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AL244" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM244" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN244" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AO244" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP244" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AQ244" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AR244" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AS244" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AT244" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AU244" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AV244" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AW244" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AX244" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AY244" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ244" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BA244" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BB244" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BC244" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BD244" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BE244" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BF244" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG244" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH244" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI244" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ244" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK244" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B245" t="n">
+        <v>2568178</v>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E245" s="2" t="n">
+        <v>44905.5</v>
+      </c>
+      <c r="F245" t="n">
+        <v>21</v>
+      </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>Milton Keynes Dons</t>
+        </is>
+      </c>
+      <c r="H245" t="inlineStr">
+        <is>
+          <t>Fleetwood Town</t>
+        </is>
+      </c>
+      <c r="I245" t="n">
+        <v>0</v>
+      </c>
+      <c r="J245" t="n">
+        <v>0</v>
+      </c>
+      <c r="K245" t="n">
+        <v>0</v>
+      </c>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="n">
+        <v>2</v>
+      </c>
+      <c r="N245" t="n">
+        <v>3</v>
+      </c>
+      <c r="O245" t="inlineStr">
+        <is>
+          <t>['52']</t>
+        </is>
+      </c>
+      <c r="P245" t="inlineStr">
+        <is>
+          <t>['72', '90']</t>
+        </is>
+      </c>
+      <c r="Q245" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R245" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S245" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T245" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="U245" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V245" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="W245" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X245" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y245" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Z245" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AA245" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AB245" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC245" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AD245" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="AE245" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="AF245" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG245" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH245" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI245" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ245" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AK245" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AL245" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AM245" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN245" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO245" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP245" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AQ245" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR245" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AS245" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="AT245" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AU245" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AV245" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AW245" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="AX245" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AY245" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AZ245" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BA245" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BB245" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BC245" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BD245" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BE245" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BF245" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG245" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH245" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI245" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ245" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK245" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B246" t="n">
+        <v>2568177</v>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E246" s="2" t="n">
+        <v>44905.5</v>
+      </c>
+      <c r="F246" t="n">
+        <v>21</v>
+      </c>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>Lincoln City</t>
+        </is>
+      </c>
+      <c r="H246" t="inlineStr">
+        <is>
+          <t>Wycombe Wanderers</t>
+        </is>
+      </c>
+      <c r="I246" t="n">
+        <v>0</v>
+      </c>
+      <c r="J246" t="n">
+        <v>0</v>
+      </c>
+      <c r="K246" t="n">
+        <v>0</v>
+      </c>
+      <c r="L246" t="n">
+        <v>0</v>
+      </c>
+      <c r="M246" t="n">
+        <v>0</v>
+      </c>
+      <c r="N246" t="n">
+        <v>0</v>
+      </c>
+      <c r="O246" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P246" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q246" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R246" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S246" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T246" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U246" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V246" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W246" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X246" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Y246" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Z246" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA246" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AB246" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC246" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AD246" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE246" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AF246" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG246" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH246" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AI246" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ246" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AK246" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AL246" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM246" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN246" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AO246" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP246" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AQ246" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AR246" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AS246" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AT246" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AU246" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AV246" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AW246" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AX246" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AY246" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ246" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BA246" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BB246" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BC246" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BD246" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BE246" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BF246" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG246" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH246" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI246" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ246" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK246" t="n">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/England EFL League One_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/England EFL League One_20222023.xlsx
@@ -49130,13 +49130,13 @@
         </is>
       </c>
       <c r="Q240" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="R240" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="S240" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="T240" t="n">
         <v>3.17</v>
@@ -49253,22 +49253,22 @@
         <v>3.4</v>
       </c>
       <c r="BF240" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BG240" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="BH240" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BI240" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BJ240" t="n">
-        <v>-1</v>
+        <v>16</v>
       </c>
       <c r="BK240" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="241">
@@ -49333,13 +49333,13 @@
         </is>
       </c>
       <c r="Q241" t="n">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="R241" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="S241" t="n">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="T241" t="n">
         <v>3.75</v>
@@ -49456,22 +49456,22 @@
         <v>2.43</v>
       </c>
       <c r="BF241" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BG241" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BH241" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BI241" t="n">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BJ241" t="n">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="BK241" t="n">
-        <v>-1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="242">
@@ -49536,13 +49536,13 @@
         </is>
       </c>
       <c r="Q242" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="R242" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="S242" t="n">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="T242" t="n">
         <v>4.2</v>
@@ -49659,22 +49659,22 @@
         <v>2.1</v>
       </c>
       <c r="BF242" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BG242" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BH242" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BI242" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BJ242" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BK242" t="n">
-        <v>-1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="243">
@@ -49739,13 +49739,13 @@
         </is>
       </c>
       <c r="Q243" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="R243" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="S243" t="n">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="T243" t="n">
         <v>3.75</v>
@@ -49862,22 +49862,22 @@
         <v>2.7</v>
       </c>
       <c r="BF243" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BG243" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BH243" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BI243" t="n">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="BJ243" t="n">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="BK243" t="n">
-        <v>-1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="244">
@@ -49942,13 +49942,13 @@
         </is>
       </c>
       <c r="Q244" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="R244" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="S244" t="n">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="T244" t="n">
         <v>3.25</v>
@@ -50065,22 +50065,22 @@
         <v>3.05</v>
       </c>
       <c r="BF244" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BG244" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="BH244" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BI244" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BJ244" t="n">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BK244" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="245">
@@ -50145,13 +50145,13 @@
         </is>
       </c>
       <c r="Q245" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="R245" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="S245" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="T245" t="n">
         <v>2.8</v>
@@ -50268,22 +50268,22 @@
         <v>4.5</v>
       </c>
       <c r="BF245" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BG245" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BH245" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BI245" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BJ245" t="n">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="BK245" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="246">
@@ -50348,13 +50348,13 @@
         </is>
       </c>
       <c r="Q246" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="R246" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="S246" t="n">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="T246" t="n">
         <v>3.6</v>
@@ -50471,22 +50471,22 @@
         <v>3.05</v>
       </c>
       <c r="BF246" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="BG246" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BH246" t="n">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="BI246" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BJ246" t="n">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="BK246" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/England EFL League One_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/England EFL League One_20222023.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK246"/>
+  <dimension ref="A1:BK254"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AT4" t="n">
         <v>1.56</v>
@@ -1918,7 +1918,7 @@
         <v>1.4</v>
       </c>
       <c r="AT7" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>2.7</v>
+        <v>2.73</v>
       </c>
       <c r="AT8" t="n">
         <v>1.7</v>
@@ -2321,10 +2321,10 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>1.27</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -2933,7 +2933,7 @@
         <v>1.45</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT16" t="n">
         <v>1.3</v>
@@ -3948,7 +3948,7 @@
         <v>2.2</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4354,7 +4354,7 @@
         <v>1.09</v>
       </c>
       <c r="AT19" t="n">
-        <v>2.3</v>
+        <v>2.09</v>
       </c>
       <c r="AU19" t="n">
         <v>0</v>
@@ -4557,7 +4557,7 @@
         <v>0.91</v>
       </c>
       <c r="AT20" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AU20" t="n">
         <v>0</v>
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT22" t="n">
         <v>1.27</v>
@@ -5163,7 +5163,7 @@
         <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT23" t="n">
         <v>1.27</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT24" t="n">
         <v>0.9</v>
@@ -5775,7 +5775,7 @@
         <v>1.45</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU26" t="n">
         <v>1.28</v>
@@ -6178,7 +6178,7 @@
         <v>1</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT28" t="n">
         <v>1.2</v>
@@ -6381,7 +6381,7 @@
         <v>1</v>
       </c>
       <c r="AS29" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AT29" t="n">
         <v>0.8</v>
@@ -6790,7 +6790,7 @@
         <v>1.4</v>
       </c>
       <c r="AT31" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU31" t="n">
         <v>1.23</v>
@@ -6990,7 +6990,7 @@
         <v>3</v>
       </c>
       <c r="AS32" t="n">
-        <v>2.7</v>
+        <v>2.73</v>
       </c>
       <c r="AT32" t="n">
         <v>0.82</v>
@@ -7193,7 +7193,7 @@
         <v>0</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT33" t="n">
         <v>1.7</v>
@@ -7399,7 +7399,7 @@
         <v>2</v>
       </c>
       <c r="AT34" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU34" t="n">
         <v>2</v>
@@ -7805,7 +7805,7 @@
         <v>1.27</v>
       </c>
       <c r="AT36" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU36" t="n">
         <v>1.6</v>
@@ -8008,7 +8008,7 @@
         <v>1</v>
       </c>
       <c r="AT37" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU37" t="n">
         <v>2.1</v>
@@ -8208,7 +8208,7 @@
         <v>0</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT38" t="n">
         <v>0.7</v>
@@ -9426,7 +9426,7 @@
         <v>0</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT44" t="n">
         <v>1.55</v>
@@ -9632,7 +9632,7 @@
         <v>0.91</v>
       </c>
       <c r="AT45" t="n">
-        <v>2.3</v>
+        <v>2.09</v>
       </c>
       <c r="AU45" t="n">
         <v>0.53</v>
@@ -9832,10 +9832,10 @@
         <v>0</v>
       </c>
       <c r="AS46" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT46" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU46" t="n">
         <v>2.09</v>
@@ -10035,10 +10035,10 @@
         <v>3</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT47" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AU47" t="n">
         <v>1.66</v>
@@ -10644,10 +10644,10 @@
         <v>1.5</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AU50" t="n">
         <v>1.03</v>
@@ -11053,7 +11053,7 @@
         <v>1.2</v>
       </c>
       <c r="AT52" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU52" t="n">
         <v>1.78</v>
@@ -11659,7 +11659,7 @@
         <v>0</v>
       </c>
       <c r="AS55" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT55" t="n">
         <v>0.7</v>
@@ -11865,7 +11865,7 @@
         <v>1.55</v>
       </c>
       <c r="AT56" t="n">
-        <v>2.3</v>
+        <v>2.09</v>
       </c>
       <c r="AU56" t="n">
         <v>1.38</v>
@@ -12268,7 +12268,7 @@
         <v>1.5</v>
       </c>
       <c r="AS58" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT58" t="n">
         <v>1.91</v>
@@ -12471,7 +12471,7 @@
         <v>0</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT59" t="n">
         <v>1.27</v>
@@ -12877,7 +12877,7 @@
         <v>1</v>
       </c>
       <c r="AS61" t="n">
-        <v>2.7</v>
+        <v>2.73</v>
       </c>
       <c r="AT61" t="n">
         <v>1.2</v>
@@ -13283,7 +13283,7 @@
         <v>0.5</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT63" t="n">
         <v>0.8</v>
@@ -13489,7 +13489,7 @@
         <v>0.8</v>
       </c>
       <c r="AT64" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU64" t="n">
         <v>1.3</v>
@@ -13689,10 +13689,10 @@
         <v>2</v>
       </c>
       <c r="AS65" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AT65" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU65" t="n">
         <v>1.6</v>
@@ -14098,7 +14098,7 @@
         <v>1.6</v>
       </c>
       <c r="AT67" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU67" t="n">
         <v>1.48</v>
@@ -14298,7 +14298,7 @@
         <v>1.5</v>
       </c>
       <c r="AS68" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT68" t="n">
         <v>0.82</v>
@@ -14504,7 +14504,7 @@
         <v>1</v>
       </c>
       <c r="AT69" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU69" t="n">
         <v>2.24</v>
@@ -15113,7 +15113,7 @@
         <v>1.27</v>
       </c>
       <c r="AT72" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU72" t="n">
         <v>1.74</v>
@@ -15313,7 +15313,7 @@
         <v>1</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT73" t="n">
         <v>0.82</v>
@@ -15516,7 +15516,7 @@
         <v>0.33</v>
       </c>
       <c r="AS74" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AT74" t="n">
         <v>1.7</v>
@@ -16331,7 +16331,7 @@
         <v>1.55</v>
       </c>
       <c r="AT78" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU78" t="n">
         <v>1.58</v>
@@ -16534,7 +16534,7 @@
         <v>1.2</v>
       </c>
       <c r="AT79" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU79" t="n">
         <v>2.16</v>
@@ -16940,7 +16940,7 @@
         <v>1.45</v>
       </c>
       <c r="AT81" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU81" t="n">
         <v>1.15</v>
@@ -17140,7 +17140,7 @@
         <v>0.67</v>
       </c>
       <c r="AS82" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT82" t="n">
         <v>0.8</v>
@@ -17346,7 +17346,7 @@
         <v>1</v>
       </c>
       <c r="AT83" t="n">
-        <v>2.3</v>
+        <v>2.09</v>
       </c>
       <c r="AU83" t="n">
         <v>2.04</v>
@@ -17546,7 +17546,7 @@
         <v>1</v>
       </c>
       <c r="AS84" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT84" t="n">
         <v>1.55</v>
@@ -17952,10 +17952,10 @@
         <v>1.33</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT86" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU86" t="n">
         <v>1.57</v>
@@ -18361,7 +18361,7 @@
         <v>2</v>
       </c>
       <c r="AT88" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AU88" t="n">
         <v>1.97</v>
@@ -19170,10 +19170,10 @@
         <v>1</v>
       </c>
       <c r="AS92" t="n">
-        <v>2.7</v>
+        <v>2.73</v>
       </c>
       <c r="AT92" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU92" t="n">
         <v>1.73</v>
@@ -19376,7 +19376,7 @@
         <v>1.55</v>
       </c>
       <c r="AT93" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU93" t="n">
         <v>1.17</v>
@@ -19982,7 +19982,7 @@
         <v>1.33</v>
       </c>
       <c r="AS96" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT96" t="n">
         <v>1.1</v>
@@ -20185,7 +20185,7 @@
         <v>1</v>
       </c>
       <c r="AS97" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT97" t="n">
         <v>1.27</v>
@@ -20591,10 +20591,10 @@
         <v>3</v>
       </c>
       <c r="AS99" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AT99" t="n">
-        <v>2.3</v>
+        <v>2.09</v>
       </c>
       <c r="AU99" t="n">
         <v>1.56</v>
@@ -20794,7 +20794,7 @@
         <v>1.5</v>
       </c>
       <c r="AS100" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT100" t="n">
         <v>1.55</v>
@@ -21203,7 +21203,7 @@
         <v>1.2</v>
       </c>
       <c r="AT102" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU102" t="n">
         <v>1.9</v>
@@ -21406,7 +21406,7 @@
         <v>1.09</v>
       </c>
       <c r="AT103" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU103" t="n">
         <v>1.38</v>
@@ -21812,7 +21812,7 @@
         <v>1.55</v>
       </c>
       <c r="AT105" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU105" t="n">
         <v>1.62</v>
@@ -22215,7 +22215,7 @@
         <v>0.75</v>
       </c>
       <c r="AS107" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT107" t="n">
         <v>0.82</v>
@@ -22621,7 +22621,7 @@
         <v>1</v>
       </c>
       <c r="AS109" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT109" t="n">
         <v>1.27</v>
@@ -22827,7 +22827,7 @@
         <v>1.09</v>
       </c>
       <c r="AT110" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU110" t="n">
         <v>1.37</v>
@@ -23027,7 +23027,7 @@
         <v>0.8</v>
       </c>
       <c r="AS111" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AT111" t="n">
         <v>1.27</v>
@@ -23433,7 +23433,7 @@
         <v>0.6</v>
       </c>
       <c r="AS113" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT113" t="n">
         <v>0.8</v>
@@ -24045,7 +24045,7 @@
         <v>1.55</v>
       </c>
       <c r="AT116" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU116" t="n">
         <v>1.37</v>
@@ -24245,10 +24245,10 @@
         <v>2.6</v>
       </c>
       <c r="AS117" t="n">
-        <v>2.7</v>
+        <v>2.73</v>
       </c>
       <c r="AT117" t="n">
-        <v>2.3</v>
+        <v>2.09</v>
       </c>
       <c r="AU117" t="n">
         <v>1.83</v>
@@ -24448,7 +24448,7 @@
         <v>1.4</v>
       </c>
       <c r="AS118" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT118" t="n">
         <v>1.55</v>
@@ -25466,7 +25466,7 @@
         <v>1.55</v>
       </c>
       <c r="AT123" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AU123" t="n">
         <v>1.62</v>
@@ -25869,10 +25869,10 @@
         <v>0.75</v>
       </c>
       <c r="AS125" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT125" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU125" t="n">
         <v>1.74</v>
@@ -26278,7 +26278,7 @@
         <v>0.91</v>
       </c>
       <c r="AT127" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU127" t="n">
         <v>1.16</v>
@@ -26481,7 +26481,7 @@
         <v>1</v>
       </c>
       <c r="AT128" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU128" t="n">
         <v>1.76</v>
@@ -26681,7 +26681,7 @@
         <v>1.4</v>
       </c>
       <c r="AS129" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT129" t="n">
         <v>1.3</v>
@@ -26884,7 +26884,7 @@
         <v>2.4</v>
       </c>
       <c r="AS130" t="n">
-        <v>2.7</v>
+        <v>2.73</v>
       </c>
       <c r="AT130" t="n">
         <v>1.91</v>
@@ -27696,7 +27696,7 @@
         <v>1.6</v>
       </c>
       <c r="AS134" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT134" t="n">
         <v>1.36</v>
@@ -27899,7 +27899,7 @@
         <v>1.4</v>
       </c>
       <c r="AS135" t="n">
-        <v>2.7</v>
+        <v>2.73</v>
       </c>
       <c r="AT135" t="n">
         <v>1.1</v>
@@ -28105,7 +28105,7 @@
         <v>2.2</v>
       </c>
       <c r="AT136" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU136" t="n">
         <v>1.97</v>
@@ -28511,7 +28511,7 @@
         <v>0.8</v>
       </c>
       <c r="AT138" t="n">
-        <v>2.3</v>
+        <v>2.09</v>
       </c>
       <c r="AU138" t="n">
         <v>1.27</v>
@@ -29117,7 +29117,7 @@
         <v>0.8</v>
       </c>
       <c r="AS141" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT141" t="n">
         <v>1.27</v>
@@ -29523,10 +29523,10 @@
         <v>1</v>
       </c>
       <c r="AS143" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT143" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU143" t="n">
         <v>1.63</v>
@@ -29729,7 +29729,7 @@
         <v>1.55</v>
       </c>
       <c r="AT144" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU144" t="n">
         <v>1.24</v>
@@ -29929,7 +29929,7 @@
         <v>1</v>
       </c>
       <c r="AS145" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AT145" t="n">
         <v>0.9</v>
@@ -30135,7 +30135,7 @@
         <v>0.45</v>
       </c>
       <c r="AT146" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AU146" t="n">
         <v>1.09</v>
@@ -30338,7 +30338,7 @@
         <v>2.2</v>
       </c>
       <c r="AT147" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU147" t="n">
         <v>2.04</v>
@@ -30538,10 +30538,10 @@
         <v>1.33</v>
       </c>
       <c r="AS148" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT148" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU148" t="n">
         <v>1.64</v>
@@ -30744,7 +30744,7 @@
         <v>0.91</v>
       </c>
       <c r="AT149" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU149" t="n">
         <v>1.37</v>
@@ -30947,7 +30947,7 @@
         <v>1.6</v>
       </c>
       <c r="AT150" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AU150" t="n">
         <v>1.45</v>
@@ -31150,7 +31150,7 @@
         <v>1.55</v>
       </c>
       <c r="AT151" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU151" t="n">
         <v>1.59</v>
@@ -31962,7 +31962,7 @@
         <v>1.5</v>
       </c>
       <c r="AT155" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU155" t="n">
         <v>1.44</v>
@@ -32162,7 +32162,7 @@
         <v>1</v>
       </c>
       <c r="AS156" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT156" t="n">
         <v>0.82</v>
@@ -32365,7 +32365,7 @@
         <v>1.67</v>
       </c>
       <c r="AS157" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT157" t="n">
         <v>1.7</v>
@@ -32974,7 +32974,7 @@
         <v>2</v>
       </c>
       <c r="AS160" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT160" t="n">
         <v>1.56</v>
@@ -35616,7 +35616,7 @@
         <v>1.5</v>
       </c>
       <c r="AT173" t="n">
-        <v>2.3</v>
+        <v>2.09</v>
       </c>
       <c r="AU173" t="n">
         <v>1.53</v>
@@ -35816,7 +35816,7 @@
         <v>1.57</v>
       </c>
       <c r="AS174" t="n">
-        <v>2.7</v>
+        <v>2.73</v>
       </c>
       <c r="AT174" t="n">
         <v>1.2</v>
@@ -36225,7 +36225,7 @@
         <v>1.1</v>
       </c>
       <c r="AT176" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU176" t="n">
         <v>1.43</v>
@@ -36425,10 +36425,10 @@
         <v>1.14</v>
       </c>
       <c r="AS177" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT177" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU177" t="n">
         <v>1.73</v>
@@ -36631,7 +36631,7 @@
         <v>1.6</v>
       </c>
       <c r="AT178" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU178" t="n">
         <v>1.42</v>
@@ -36831,10 +36831,10 @@
         <v>0.71</v>
       </c>
       <c r="AS179" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT179" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU179" t="n">
         <v>1.56</v>
@@ -37034,10 +37034,10 @@
         <v>1</v>
       </c>
       <c r="AS180" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT180" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU180" t="n">
         <v>1.63</v>
@@ -37237,10 +37237,10 @@
         <v>1.17</v>
       </c>
       <c r="AS181" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT181" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU181" t="n">
         <v>1.53</v>
@@ -37440,7 +37440,7 @@
         <v>0.57</v>
       </c>
       <c r="AS182" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT182" t="n">
         <v>0.7</v>
@@ -37643,7 +37643,7 @@
         <v>1.43</v>
       </c>
       <c r="AS183" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT183" t="n">
         <v>1.3</v>
@@ -37846,10 +37846,10 @@
         <v>1.43</v>
       </c>
       <c r="AS184" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AT184" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AU184" t="n">
         <v>1.74</v>
@@ -38049,10 +38049,10 @@
         <v>1.14</v>
       </c>
       <c r="AS185" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT185" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU185" t="n">
         <v>1.59</v>
@@ -38255,7 +38255,7 @@
         <v>1.6</v>
       </c>
       <c r="AT186" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU186" t="n">
         <v>1.47</v>
@@ -38455,10 +38455,10 @@
         <v>1.38</v>
       </c>
       <c r="AS187" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT187" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AU187" t="n">
         <v>1.68</v>
@@ -39064,7 +39064,7 @@
         <v>1.38</v>
       </c>
       <c r="AS190" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT190" t="n">
         <v>1.2</v>
@@ -39267,10 +39267,10 @@
         <v>0.63</v>
       </c>
       <c r="AS191" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AT191" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU191" t="n">
         <v>1.84</v>
@@ -39470,10 +39470,10 @@
         <v>0.75</v>
       </c>
       <c r="AS192" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT192" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU192" t="n">
         <v>2.08</v>
@@ -39876,10 +39876,10 @@
         <v>2.38</v>
       </c>
       <c r="AS194" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT194" t="n">
-        <v>2.3</v>
+        <v>2.09</v>
       </c>
       <c r="AU194" t="n">
         <v>1.55</v>
@@ -40079,10 +40079,10 @@
         <v>0.88</v>
       </c>
       <c r="AS195" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT195" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU195" t="n">
         <v>1.52</v>
@@ -40282,10 +40282,10 @@
         <v>1.13</v>
       </c>
       <c r="AS196" t="n">
-        <v>2.7</v>
+        <v>2.73</v>
       </c>
       <c r="AT196" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU196" t="n">
         <v>1.78</v>
@@ -41094,7 +41094,7 @@
         <v>1.43</v>
       </c>
       <c r="AS200" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT200" t="n">
         <v>1.27</v>
@@ -41300,7 +41300,7 @@
         <v>1.55</v>
       </c>
       <c r="AT201" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU201" t="n">
         <v>1.26</v>
@@ -43936,7 +43936,7 @@
         <v>1.33</v>
       </c>
       <c r="AS214" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT214" t="n">
         <v>1.27</v>
@@ -44142,7 +44142,7 @@
         <v>1.55</v>
       </c>
       <c r="AT215" t="n">
-        <v>2.3</v>
+        <v>2.09</v>
       </c>
       <c r="AU215" t="n">
         <v>1.46</v>
@@ -44345,7 +44345,7 @@
         <v>1.2</v>
       </c>
       <c r="AT216" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU216" t="n">
         <v>1.9</v>
@@ -44748,7 +44748,7 @@
         <v>1.33</v>
       </c>
       <c r="AS218" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AT218" t="n">
         <v>1.2</v>
@@ -44954,7 +44954,7 @@
         <v>1.4</v>
       </c>
       <c r="AT219" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU219" t="n">
         <v>1.24</v>
@@ -45966,10 +45966,10 @@
         <v>1.25</v>
       </c>
       <c r="AS224" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT224" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU224" t="n">
         <v>1.6</v>
@@ -46372,7 +46372,7 @@
         <v>1.22</v>
       </c>
       <c r="AS226" t="n">
-        <v>2.7</v>
+        <v>2.73</v>
       </c>
       <c r="AT226" t="n">
         <v>1.27</v>
@@ -46578,7 +46578,7 @@
         <v>0.8</v>
       </c>
       <c r="AT227" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU227" t="n">
         <v>1.28</v>
@@ -46981,7 +46981,7 @@
         <v>0.75</v>
       </c>
       <c r="AS229" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT229" t="n">
         <v>0.9</v>
@@ -47184,10 +47184,10 @@
         <v>1.22</v>
       </c>
       <c r="AS230" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT230" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AU230" t="n">
         <v>1.57</v>
@@ -47793,7 +47793,7 @@
         <v>2.11</v>
       </c>
       <c r="AS233" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT233" t="n">
         <v>1.91</v>
@@ -47999,7 +47999,7 @@
         <v>0.45</v>
       </c>
       <c r="AT234" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU234" t="n">
         <v>1.18</v>
@@ -48405,7 +48405,7 @@
         <v>1</v>
       </c>
       <c r="AT236" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU236" t="n">
         <v>1.6</v>
@@ -48605,7 +48605,7 @@
         <v>1.75</v>
       </c>
       <c r="AS237" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT237" t="n">
         <v>1.56</v>
@@ -50487,6 +50487,1630 @@
       </c>
       <c r="BK246" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B247" t="n">
+        <v>2568186</v>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E247" s="2" t="n">
+        <v>44912.5</v>
+      </c>
+      <c r="F247" t="n">
+        <v>22</v>
+      </c>
+      <c r="G247" t="inlineStr">
+        <is>
+          <t>Derby County</t>
+        </is>
+      </c>
+      <c r="H247" t="inlineStr">
+        <is>
+          <t>Forest Green Rovers</t>
+        </is>
+      </c>
+      <c r="I247" t="n">
+        <v>2</v>
+      </c>
+      <c r="J247" t="n">
+        <v>0</v>
+      </c>
+      <c r="K247" t="n">
+        <v>2</v>
+      </c>
+      <c r="L247" t="n">
+        <v>4</v>
+      </c>
+      <c r="M247" t="n">
+        <v>0</v>
+      </c>
+      <c r="N247" t="n">
+        <v>4</v>
+      </c>
+      <c r="O247" t="inlineStr">
+        <is>
+          <t>['5', '21', '69', '87']</t>
+        </is>
+      </c>
+      <c r="P247" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q247" t="n">
+        <v>4</v>
+      </c>
+      <c r="R247" t="n">
+        <v>2</v>
+      </c>
+      <c r="S247" t="n">
+        <v>6</v>
+      </c>
+      <c r="T247" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="U247" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="V247" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="W247" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X247" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Y247" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="Z247" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AA247" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AB247" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC247" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AD247" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AE247" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AF247" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG247" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH247" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI247" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AJ247" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK247" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL247" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AM247" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AN247" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AO247" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP247" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AQ247" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AR247" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AS247" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT247" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AU247" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AV247" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AW247" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AX247" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AY247" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ247" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA247" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB247" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BC247" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BD247" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BE247" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BF247" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG247" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH247" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI247" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ247" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK247" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B248" t="n">
+        <v>2568184</v>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E248" s="2" t="n">
+        <v>44912.5</v>
+      </c>
+      <c r="F248" t="n">
+        <v>22</v>
+      </c>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t>Charlton Athletic</t>
+        </is>
+      </c>
+      <c r="H248" t="inlineStr">
+        <is>
+          <t>Bristol Rovers</t>
+        </is>
+      </c>
+      <c r="I248" t="n">
+        <v>1</v>
+      </c>
+      <c r="J248" t="n">
+        <v>0</v>
+      </c>
+      <c r="K248" t="n">
+        <v>1</v>
+      </c>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="n">
+        <v>2</v>
+      </c>
+      <c r="N248" t="n">
+        <v>3</v>
+      </c>
+      <c r="O248" t="inlineStr">
+        <is>
+          <t>['20']</t>
+        </is>
+      </c>
+      <c r="P248" t="inlineStr">
+        <is>
+          <t>['61', '72']</t>
+        </is>
+      </c>
+      <c r="Q248" t="n">
+        <v>9</v>
+      </c>
+      <c r="R248" t="n">
+        <v>3</v>
+      </c>
+      <c r="S248" t="n">
+        <v>12</v>
+      </c>
+      <c r="T248" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="U248" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="V248" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="W248" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X248" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="Y248" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Z248" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA248" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AB248" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC248" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD248" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE248" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AF248" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG248" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AH248" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AI248" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="AJ248" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AK248" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AL248" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AM248" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AN248" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AO248" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP248" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AQ248" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AR248" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AS248" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AT248" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AU248" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AV248" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AW248" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AX248" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AY248" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AZ248" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BA248" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB248" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BC248" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BD248" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BE248" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="BF248" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG248" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH248" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI248" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ248" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK248" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B249" t="n">
+        <v>2568191</v>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E249" s="2" t="n">
+        <v>44912.5</v>
+      </c>
+      <c r="F249" t="n">
+        <v>22</v>
+      </c>
+      <c r="G249" t="inlineStr">
+        <is>
+          <t>Portsmouth</t>
+        </is>
+      </c>
+      <c r="H249" t="inlineStr">
+        <is>
+          <t>Milton Keynes Dons</t>
+        </is>
+      </c>
+      <c r="I249" t="n">
+        <v>0</v>
+      </c>
+      <c r="J249" t="n">
+        <v>1</v>
+      </c>
+      <c r="K249" t="n">
+        <v>1</v>
+      </c>
+      <c r="L249" t="n">
+        <v>0</v>
+      </c>
+      <c r="M249" t="n">
+        <v>2</v>
+      </c>
+      <c r="N249" t="n">
+        <v>2</v>
+      </c>
+      <c r="O249" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P249" t="inlineStr">
+        <is>
+          <t>['34', '64']</t>
+        </is>
+      </c>
+      <c r="Q249" t="n">
+        <v>6</v>
+      </c>
+      <c r="R249" t="n">
+        <v>2</v>
+      </c>
+      <c r="S249" t="n">
+        <v>8</v>
+      </c>
+      <c r="T249" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="U249" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="V249" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W249" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X249" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Y249" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Z249" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA249" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB249" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC249" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AD249" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE249" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AF249" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG249" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH249" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI249" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AJ249" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AK249" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL249" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AM249" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AN249" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO249" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP249" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AQ249" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR249" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AS249" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT249" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AU249" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AV249" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AW249" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AX249" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AY249" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ249" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BA249" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB249" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BC249" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BD249" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BE249" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BF249" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG249" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH249" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI249" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ249" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK249" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B250" t="n">
+        <v>2568182</v>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E250" s="2" t="n">
+        <v>44912.5</v>
+      </c>
+      <c r="F250" t="n">
+        <v>22</v>
+      </c>
+      <c r="G250" t="inlineStr">
+        <is>
+          <t>Barnsley</t>
+        </is>
+      </c>
+      <c r="H250" t="inlineStr">
+        <is>
+          <t>Burton Albion</t>
+        </is>
+      </c>
+      <c r="I250" t="n">
+        <v>1</v>
+      </c>
+      <c r="J250" t="n">
+        <v>0</v>
+      </c>
+      <c r="K250" t="n">
+        <v>1</v>
+      </c>
+      <c r="L250" t="n">
+        <v>2</v>
+      </c>
+      <c r="M250" t="n">
+        <v>0</v>
+      </c>
+      <c r="N250" t="n">
+        <v>2</v>
+      </c>
+      <c r="O250" t="inlineStr">
+        <is>
+          <t>['36', '73']</t>
+        </is>
+      </c>
+      <c r="P250" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q250" t="n">
+        <v>3</v>
+      </c>
+      <c r="R250" t="n">
+        <v>6</v>
+      </c>
+      <c r="S250" t="n">
+        <v>9</v>
+      </c>
+      <c r="T250" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="U250" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="V250" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="W250" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="X250" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Y250" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="Z250" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AA250" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AB250" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC250" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AD250" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AE250" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AF250" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG250" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AH250" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI250" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ250" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AK250" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AL250" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AM250" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN250" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO250" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP250" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AQ250" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AR250" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AS250" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AT250" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="AU250" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AV250" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AW250" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="AX250" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AY250" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AZ250" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BA250" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB250" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BC250" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BD250" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BE250" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="BF250" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG250" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH250" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI250" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ250" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK250" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B251" t="n">
+        <v>2568193</v>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E251" s="2" t="n">
+        <v>44912.5</v>
+      </c>
+      <c r="F251" t="n">
+        <v>22</v>
+      </c>
+      <c r="G251" t="inlineStr">
+        <is>
+          <t>Wycombe Wanderers</t>
+        </is>
+      </c>
+      <c r="H251" t="inlineStr">
+        <is>
+          <t>Ipswich Town</t>
+        </is>
+      </c>
+      <c r="I251" t="n">
+        <v>1</v>
+      </c>
+      <c r="J251" t="n">
+        <v>0</v>
+      </c>
+      <c r="K251" t="n">
+        <v>1</v>
+      </c>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="n">
+        <v>0</v>
+      </c>
+      <c r="N251" t="n">
+        <v>1</v>
+      </c>
+      <c r="O251" t="inlineStr">
+        <is>
+          <t>['40']</t>
+        </is>
+      </c>
+      <c r="P251" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q251" t="n">
+        <v>2</v>
+      </c>
+      <c r="R251" t="n">
+        <v>7</v>
+      </c>
+      <c r="S251" t="n">
+        <v>9</v>
+      </c>
+      <c r="T251" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="U251" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="V251" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="W251" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X251" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="Y251" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="Z251" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AA251" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB251" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC251" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AD251" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AE251" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AF251" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG251" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AH251" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AI251" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="AJ251" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AK251" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AL251" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AM251" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AN251" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AO251" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP251" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AQ251" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR251" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AS251" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AT251" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AU251" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AV251" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AW251" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="AX251" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="AY251" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AZ251" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BA251" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BB251" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BC251" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BD251" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BE251" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BF251" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG251" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH251" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI251" t="n">
+        <v>15</v>
+      </c>
+      <c r="BJ251" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK251" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B252" t="n">
+        <v>2568192</v>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E252" s="2" t="n">
+        <v>44912.5</v>
+      </c>
+      <c r="F252" t="n">
+        <v>22</v>
+      </c>
+      <c r="G252" t="inlineStr">
+        <is>
+          <t>Sheffield Wednesday</t>
+        </is>
+      </c>
+      <c r="H252" t="inlineStr">
+        <is>
+          <t>Oxford United</t>
+        </is>
+      </c>
+      <c r="I252" t="n">
+        <v>0</v>
+      </c>
+      <c r="J252" t="n">
+        <v>0</v>
+      </c>
+      <c r="K252" t="n">
+        <v>0</v>
+      </c>
+      <c r="L252" t="n">
+        <v>0</v>
+      </c>
+      <c r="M252" t="n">
+        <v>0</v>
+      </c>
+      <c r="N252" t="n">
+        <v>0</v>
+      </c>
+      <c r="O252" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P252" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q252" t="n">
+        <v>4</v>
+      </c>
+      <c r="R252" t="n">
+        <v>2</v>
+      </c>
+      <c r="S252" t="n">
+        <v>6</v>
+      </c>
+      <c r="T252" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="U252" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="V252" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="W252" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X252" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Y252" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="Z252" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AA252" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AB252" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC252" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AD252" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AE252" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AF252" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG252" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AH252" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AI252" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="AJ252" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK252" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AL252" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AM252" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AN252" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AO252" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP252" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AQ252" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AR252" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AS252" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT252" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AU252" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AV252" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AW252" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AX252" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AY252" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AZ252" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="BA252" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB252" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BC252" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BD252" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BE252" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BF252" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG252" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH252" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI252" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ252" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK252" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B253" t="n">
+        <v>2568189</v>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E253" s="2" t="n">
+        <v>44912.5</v>
+      </c>
+      <c r="F253" t="n">
+        <v>22</v>
+      </c>
+      <c r="G253" t="inlineStr">
+        <is>
+          <t>Plymouth Argyle</t>
+        </is>
+      </c>
+      <c r="H253" t="inlineStr">
+        <is>
+          <t>Morecambe</t>
+        </is>
+      </c>
+      <c r="I253" t="n">
+        <v>0</v>
+      </c>
+      <c r="J253" t="n">
+        <v>0</v>
+      </c>
+      <c r="K253" t="n">
+        <v>0</v>
+      </c>
+      <c r="L253" t="n">
+        <v>2</v>
+      </c>
+      <c r="M253" t="n">
+        <v>1</v>
+      </c>
+      <c r="N253" t="n">
+        <v>3</v>
+      </c>
+      <c r="O253" t="inlineStr">
+        <is>
+          <t>['69', '84']</t>
+        </is>
+      </c>
+      <c r="P253" t="inlineStr">
+        <is>
+          <t>['90+1']</t>
+        </is>
+      </c>
+      <c r="Q253" t="n">
+        <v>7</v>
+      </c>
+      <c r="R253" t="n">
+        <v>2</v>
+      </c>
+      <c r="S253" t="n">
+        <v>9</v>
+      </c>
+      <c r="T253" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="U253" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="V253" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="W253" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X253" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="Y253" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="Z253" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AA253" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AB253" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC253" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AD253" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AE253" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AF253" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG253" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH253" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AI253" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="AJ253" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AK253" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AL253" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AM253" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AN253" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AO253" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AP253" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AQ253" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AR253" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AS253" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AT253" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AU253" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AV253" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AW253" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AX253" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AY253" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AZ253" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="BA253" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB253" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BC253" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BD253" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BE253" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BF253" t="n">
+        <v>13</v>
+      </c>
+      <c r="BG253" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH253" t="n">
+        <v>19</v>
+      </c>
+      <c r="BI253" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ253" t="n">
+        <v>32</v>
+      </c>
+      <c r="BK253" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B254" t="n">
+        <v>2568183</v>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E254" s="2" t="n">
+        <v>44912.5</v>
+      </c>
+      <c r="F254" t="n">
+        <v>22</v>
+      </c>
+      <c r="G254" t="inlineStr">
+        <is>
+          <t>Bolton Wanderers</t>
+        </is>
+      </c>
+      <c r="H254" t="inlineStr">
+        <is>
+          <t>Exeter City</t>
+        </is>
+      </c>
+      <c r="I254" t="n">
+        <v>2</v>
+      </c>
+      <c r="J254" t="n">
+        <v>0</v>
+      </c>
+      <c r="K254" t="n">
+        <v>2</v>
+      </c>
+      <c r="L254" t="n">
+        <v>2</v>
+      </c>
+      <c r="M254" t="n">
+        <v>0</v>
+      </c>
+      <c r="N254" t="n">
+        <v>2</v>
+      </c>
+      <c r="O254" t="inlineStr">
+        <is>
+          <t>['8', '26']</t>
+        </is>
+      </c>
+      <c r="P254" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q254" t="n">
+        <v>4</v>
+      </c>
+      <c r="R254" t="n">
+        <v>5</v>
+      </c>
+      <c r="S254" t="n">
+        <v>9</v>
+      </c>
+      <c r="T254" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="U254" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="V254" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W254" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="X254" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Y254" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="Z254" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AA254" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AB254" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC254" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD254" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE254" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AF254" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG254" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AH254" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI254" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ254" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AK254" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AL254" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM254" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AN254" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AO254" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP254" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AQ254" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR254" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS254" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AT254" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AU254" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AV254" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AW254" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="AX254" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AY254" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AZ254" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="BA254" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB254" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BC254" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BD254" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BE254" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BF254" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG254" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH254" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI254" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ254" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK254" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/England EFL League One_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/England EFL League One_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK265"/>
+  <dimension ref="A1:BK266"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4963,7 +4963,7 @@
         <v>1.42</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU22" t="n">
         <v>0</v>
@@ -5163,7 +5163,7 @@
         <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AT23" t="n">
         <v>1.27</v>
@@ -9226,7 +9226,7 @@
         <v>1.55</v>
       </c>
       <c r="AT43" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU43" t="n">
         <v>1.48</v>
@@ -9832,7 +9832,7 @@
         <v>0</v>
       </c>
       <c r="AS46" t="n">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AT46" t="n">
         <v>0.58</v>
@@ -10444,7 +10444,7 @@
         <v>1</v>
       </c>
       <c r="AT49" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU49" t="n">
         <v>1.23</v>
@@ -12268,7 +12268,7 @@
         <v>1.5</v>
       </c>
       <c r="AS58" t="n">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AT58" t="n">
         <v>2</v>
@@ -17140,7 +17140,7 @@
         <v>0.67</v>
       </c>
       <c r="AS82" t="n">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AT82" t="n">
         <v>0.8</v>
@@ -18564,7 +18564,7 @@
         <v>1.4</v>
       </c>
       <c r="AT89" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU89" t="n">
         <v>1.31</v>
@@ -22215,7 +22215,7 @@
         <v>0.75</v>
       </c>
       <c r="AS107" t="n">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AT107" t="n">
         <v>0.83</v>
@@ -26075,7 +26075,7 @@
         <v>1.42</v>
       </c>
       <c r="AT126" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU126" t="n">
         <v>1.58</v>
@@ -26681,7 +26681,7 @@
         <v>1.4</v>
       </c>
       <c r="AS129" t="n">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AT129" t="n">
         <v>1.18</v>
@@ -32365,7 +32365,7 @@
         <v>1.67</v>
       </c>
       <c r="AS157" t="n">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AT157" t="n">
         <v>1.64</v>
@@ -32774,7 +32774,7 @@
         <v>1</v>
       </c>
       <c r="AT159" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU159" t="n">
         <v>1.73</v>
@@ -33180,7 +33180,7 @@
         <v>2.08</v>
       </c>
       <c r="AT161" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU161" t="n">
         <v>2.19</v>
@@ -36831,7 +36831,7 @@
         <v>0.71</v>
       </c>
       <c r="AS179" t="n">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AT179" t="n">
         <v>0.55</v>
@@ -38049,7 +38049,7 @@
         <v>1.14</v>
       </c>
       <c r="AS185" t="n">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AT185" t="n">
         <v>1.17</v>
@@ -40691,7 +40691,7 @@
         <v>0.8</v>
       </c>
       <c r="AT198" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU198" t="n">
         <v>1.19</v>
@@ -43533,7 +43533,7 @@
         <v>0.67</v>
       </c>
       <c r="AT212" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU212" t="n">
         <v>1.13</v>
@@ -43939,7 +43939,7 @@
         <v>1.5</v>
       </c>
       <c r="AT214" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU214" t="n">
         <v>1.47</v>
@@ -47184,7 +47184,7 @@
         <v>1.22</v>
       </c>
       <c r="AS230" t="n">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AT230" t="n">
         <v>1.25</v>
@@ -49420,7 +49420,7 @@
         <v>1.08</v>
       </c>
       <c r="AT241" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU241" t="n">
         <v>1.63</v>
@@ -52056,7 +52056,7 @@
         <v>1</v>
       </c>
       <c r="AS254" t="n">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AT254" t="n">
         <v>0.91</v>
@@ -54343,6 +54343,209 @@
         <v>10</v>
       </c>
       <c r="BK265" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B266" t="n">
+        <v>2568271</v>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E266" s="2" t="n">
+        <v>44922.5</v>
+      </c>
+      <c r="F266" t="n">
+        <v>23</v>
+      </c>
+      <c r="G266" t="inlineStr">
+        <is>
+          <t>Bolton Wanderers</t>
+        </is>
+      </c>
+      <c r="H266" t="inlineStr">
+        <is>
+          <t>Derby County</t>
+        </is>
+      </c>
+      <c r="I266" t="n">
+        <v>0</v>
+      </c>
+      <c r="J266" t="n">
+        <v>0</v>
+      </c>
+      <c r="K266" t="n">
+        <v>0</v>
+      </c>
+      <c r="L266" t="n">
+        <v>0</v>
+      </c>
+      <c r="M266" t="n">
+        <v>0</v>
+      </c>
+      <c r="N266" t="n">
+        <v>0</v>
+      </c>
+      <c r="O266" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P266" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q266" t="n">
+        <v>2</v>
+      </c>
+      <c r="R266" t="n">
+        <v>4</v>
+      </c>
+      <c r="S266" t="n">
+        <v>6</v>
+      </c>
+      <c r="T266" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U266" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V266" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W266" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X266" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y266" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z266" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA266" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB266" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC266" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AD266" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE266" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AF266" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG266" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH266" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI266" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AJ266" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AK266" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AL266" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM266" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN266" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AO266" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP266" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AQ266" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AR266" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AS266" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT266" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AU266" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AV266" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AW266" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="AX266" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AY266" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ266" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BA266" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB266" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BC266" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BD266" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BE266" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF266" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG266" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH266" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI266" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ266" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK266" t="n">
         <v>14</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2023)/England EFL League One_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/England EFL League One_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK276"/>
+  <dimension ref="A1:BK278"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT7" t="n">
         <v>1.08</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT9" t="n">
         <v>1.17</v>
@@ -3136,7 +3136,7 @@
         <v>2.08</v>
       </c>
       <c r="AT13" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -4151,7 +4151,7 @@
         <v>1.36</v>
       </c>
       <c r="AT18" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -6587,7 +6587,7 @@
         <v>1.64</v>
       </c>
       <c r="AT30" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU30" t="n">
         <v>1.29</v>
@@ -6787,7 +6787,7 @@
         <v>3</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT31" t="n">
         <v>0.67</v>
@@ -7193,7 +7193,7 @@
         <v>0</v>
       </c>
       <c r="AS33" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT33" t="n">
         <v>1.64</v>
@@ -8211,7 +8211,7 @@
         <v>1.45</v>
       </c>
       <c r="AT38" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU38" t="n">
         <v>0.66</v>
@@ -11662,7 +11662,7 @@
         <v>1.42</v>
       </c>
       <c r="AT55" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU55" t="n">
         <v>1.57</v>
@@ -12880,7 +12880,7 @@
         <v>2.75</v>
       </c>
       <c r="AT61" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU61" t="n">
         <v>2.04</v>
@@ -13892,7 +13892,7 @@
         <v>0.5</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT66" t="n">
         <v>1.25</v>
@@ -14298,7 +14298,7 @@
         <v>1.5</v>
       </c>
       <c r="AS68" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT68" t="n">
         <v>0.83</v>
@@ -17546,7 +17546,7 @@
         <v>1</v>
       </c>
       <c r="AS84" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT84" t="n">
         <v>1.67</v>
@@ -18158,7 +18158,7 @@
         <v>1.45</v>
       </c>
       <c r="AT87" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU87" t="n">
         <v>1.29</v>
@@ -18561,7 +18561,7 @@
         <v>0.67</v>
       </c>
       <c r="AS89" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT89" t="n">
         <v>1.25</v>
@@ -19782,7 +19782,7 @@
         <v>0.67</v>
       </c>
       <c r="AT95" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU95" t="n">
         <v>1.3</v>
@@ -22621,7 +22621,7 @@
         <v>1</v>
       </c>
       <c r="AS109" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT109" t="n">
         <v>1.17</v>
@@ -23842,7 +23842,7 @@
         <v>1</v>
       </c>
       <c r="AT115" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU115" t="n">
         <v>1.33</v>
@@ -27090,7 +27090,7 @@
         <v>2.08</v>
       </c>
       <c r="AT131" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU131" t="n">
         <v>2.02</v>
@@ -27293,7 +27293,7 @@
         <v>1.45</v>
       </c>
       <c r="AT132" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU132" t="n">
         <v>1.38</v>
@@ -28711,7 +28711,7 @@
         <v>0.5</v>
       </c>
       <c r="AS139" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT139" t="n">
         <v>0.73</v>
@@ -28917,7 +28917,7 @@
         <v>1</v>
       </c>
       <c r="AT140" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU140" t="n">
         <v>1.35</v>
@@ -29117,7 +29117,7 @@
         <v>0.8</v>
       </c>
       <c r="AS141" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT141" t="n">
         <v>1.17</v>
@@ -29323,7 +29323,7 @@
         <v>1.33</v>
       </c>
       <c r="AT142" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU142" t="n">
         <v>1.5</v>
@@ -33380,7 +33380,7 @@
         <v>2.14</v>
       </c>
       <c r="AS162" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT162" t="n">
         <v>2</v>
@@ -35210,7 +35210,7 @@
         <v>1</v>
       </c>
       <c r="AT171" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU171" t="n">
         <v>1.62</v>
@@ -36425,7 +36425,7 @@
         <v>1.14</v>
       </c>
       <c r="AS177" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT177" t="n">
         <v>1.08</v>
@@ -37443,7 +37443,7 @@
         <v>1.75</v>
       </c>
       <c r="AT182" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU182" t="n">
         <v>2</v>
@@ -38455,7 +38455,7 @@
         <v>1.38</v>
       </c>
       <c r="AS187" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT187" t="n">
         <v>1.25</v>
@@ -38661,7 +38661,7 @@
         <v>2.27</v>
       </c>
       <c r="AT188" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU188" t="n">
         <v>1.98</v>
@@ -40485,7 +40485,7 @@
         <v>0.88</v>
       </c>
       <c r="AS197" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT197" t="n">
         <v>1</v>
@@ -42112,7 +42112,7 @@
         <v>1.42</v>
       </c>
       <c r="AT205" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU205" t="n">
         <v>1.37</v>
@@ -43733,7 +43733,7 @@
         <v>1.75</v>
       </c>
       <c r="AS213" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT213" t="n">
         <v>1.67</v>
@@ -44951,7 +44951,7 @@
         <v>0.78</v>
       </c>
       <c r="AS219" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT219" t="n">
         <v>0.58</v>
@@ -45360,7 +45360,7 @@
         <v>1</v>
       </c>
       <c r="AT221" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU221" t="n">
         <v>1.43</v>
@@ -47590,7 +47590,7 @@
         <v>2.11</v>
       </c>
       <c r="AS232" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT232" t="n">
         <v>2</v>
@@ -48202,7 +48202,7 @@
         <v>1</v>
       </c>
       <c r="AT235" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU235" t="n">
         <v>1.28</v>
@@ -48811,7 +48811,7 @@
         <v>1.42</v>
       </c>
       <c r="AT238" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU238" t="n">
         <v>1.31</v>
@@ -49823,7 +49823,7 @@
         <v>1.3</v>
       </c>
       <c r="AS243" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT243" t="n">
         <v>1.17</v>
@@ -51041,7 +51041,7 @@
         <v>0.8</v>
       </c>
       <c r="AS249" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT249" t="n">
         <v>0.67</v>
@@ -56577,6 +56577,412 @@
       </c>
       <c r="BK276" t="n">
         <v>4</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>276</v>
+      </c>
+      <c r="B277" t="n">
+        <v>2569010</v>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E277" s="2" t="n">
+        <v>44925.69791666666</v>
+      </c>
+      <c r="F277" t="n">
+        <v>24</v>
+      </c>
+      <c r="G277" t="inlineStr">
+        <is>
+          <t>Lincoln City</t>
+        </is>
+      </c>
+      <c r="H277" t="inlineStr">
+        <is>
+          <t>Bolton Wanderers</t>
+        </is>
+      </c>
+      <c r="I277" t="n">
+        <v>1</v>
+      </c>
+      <c r="J277" t="n">
+        <v>0</v>
+      </c>
+      <c r="K277" t="n">
+        <v>1</v>
+      </c>
+      <c r="L277" t="n">
+        <v>1</v>
+      </c>
+      <c r="M277" t="n">
+        <v>1</v>
+      </c>
+      <c r="N277" t="n">
+        <v>2</v>
+      </c>
+      <c r="O277" t="inlineStr">
+        <is>
+          <t>['10']</t>
+        </is>
+      </c>
+      <c r="P277" t="inlineStr">
+        <is>
+          <t>['58']</t>
+        </is>
+      </c>
+      <c r="Q277" t="n">
+        <v>2</v>
+      </c>
+      <c r="R277" t="n">
+        <v>4</v>
+      </c>
+      <c r="S277" t="n">
+        <v>6</v>
+      </c>
+      <c r="T277" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U277" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V277" t="n">
+        <v>3</v>
+      </c>
+      <c r="W277" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X277" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y277" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z277" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA277" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB277" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC277" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AD277" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AE277" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AF277" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG277" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AH277" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI277" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AJ277" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AK277" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AL277" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM277" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN277" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AO277" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP277" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ277" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AR277" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AS277" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AT277" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AU277" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AV277" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AW277" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AX277" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AY277" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ277" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BA277" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB277" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BC277" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BD277" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BE277" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BF277" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG277" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH277" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI277" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ277" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK277" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>277</v>
+      </c>
+      <c r="B278" t="n">
+        <v>2569006</v>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E278" s="2" t="n">
+        <v>44925.69791666666</v>
+      </c>
+      <c r="F278" t="n">
+        <v>24</v>
+      </c>
+      <c r="G278" t="inlineStr">
+        <is>
+          <t>Derby County</t>
+        </is>
+      </c>
+      <c r="H278" t="inlineStr">
+        <is>
+          <t>Cambridge United</t>
+        </is>
+      </c>
+      <c r="I278" t="n">
+        <v>0</v>
+      </c>
+      <c r="J278" t="n">
+        <v>0</v>
+      </c>
+      <c r="K278" t="n">
+        <v>0</v>
+      </c>
+      <c r="L278" t="n">
+        <v>1</v>
+      </c>
+      <c r="M278" t="n">
+        <v>0</v>
+      </c>
+      <c r="N278" t="n">
+        <v>1</v>
+      </c>
+      <c r="O278" t="inlineStr">
+        <is>
+          <t>['57']</t>
+        </is>
+      </c>
+      <c r="P278" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q278" t="n">
+        <v>2</v>
+      </c>
+      <c r="R278" t="n">
+        <v>4</v>
+      </c>
+      <c r="S278" t="n">
+        <v>6</v>
+      </c>
+      <c r="T278" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U278" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V278" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="W278" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X278" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y278" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z278" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA278" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB278" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC278" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AD278" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="AE278" t="n">
+        <v>5.71</v>
+      </c>
+      <c r="AF278" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG278" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH278" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI278" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ278" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AK278" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AL278" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM278" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN278" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AO278" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP278" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AQ278" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR278" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AS278" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AT278" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AU278" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AV278" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AW278" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AX278" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AY278" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ278" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BA278" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB278" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BC278" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BD278" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BE278" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BF278" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG278" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH278" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI278" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ278" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK278" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/England EFL League One_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/England EFL League One_20222023.xlsx
@@ -57250,13 +57250,13 @@
         </is>
       </c>
       <c r="Q280" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="R280" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="S280" t="n">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="T280" t="n">
         <v>4</v>
@@ -57373,22 +57373,22 @@
         <v>2.7</v>
       </c>
       <c r="BF280" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BG280" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BH280" t="n">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BI280" t="n">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="BJ280" t="n">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="BK280" t="n">
-        <v>-1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="281">

--- a/Bases_de_Dados_(2022-2023)/England EFL League One_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/England EFL League One_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK286"/>
+  <dimension ref="A1:BK290"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AT4" t="n">
         <v>1.5</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT7" t="n">
         <v>1.23</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT9" t="n">
         <v>1.17</v>
@@ -3136,7 +3136,7 @@
         <v>2.08</v>
       </c>
       <c r="AT13" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3542,7 +3542,7 @@
         <v>1.31</v>
       </c>
       <c r="AT15" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -4151,7 +4151,7 @@
         <v>1.25</v>
       </c>
       <c r="AT18" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -4354,7 +4354,7 @@
         <v>0.92</v>
       </c>
       <c r="AT19" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AU19" t="n">
         <v>0</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="AS24" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT24" t="n">
         <v>1</v>
@@ -6381,7 +6381,7 @@
         <v>1</v>
       </c>
       <c r="AS29" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AT29" t="n">
         <v>0.92</v>
@@ -6587,7 +6587,7 @@
         <v>1.64</v>
       </c>
       <c r="AT30" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU30" t="n">
         <v>1.29</v>
@@ -6787,7 +6787,7 @@
         <v>3</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT31" t="n">
         <v>0.67</v>
@@ -7193,7 +7193,7 @@
         <v>0</v>
       </c>
       <c r="AS33" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT33" t="n">
         <v>1.64</v>
@@ -8211,7 +8211,7 @@
         <v>1.33</v>
       </c>
       <c r="AT38" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU38" t="n">
         <v>0.66</v>
@@ -9632,7 +9632,7 @@
         <v>1.08</v>
       </c>
       <c r="AT45" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AU45" t="n">
         <v>0.53</v>
@@ -10035,7 +10035,7 @@
         <v>3</v>
       </c>
       <c r="AS47" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT47" t="n">
         <v>1.25</v>
@@ -11256,7 +11256,7 @@
         <v>0.67</v>
       </c>
       <c r="AT53" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU53" t="n">
         <v>1.32</v>
@@ -11662,7 +11662,7 @@
         <v>1.42</v>
       </c>
       <c r="AT55" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU55" t="n">
         <v>1.57</v>
@@ -11865,7 +11865,7 @@
         <v>1.31</v>
       </c>
       <c r="AT56" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AU56" t="n">
         <v>1.38</v>
@@ -12471,7 +12471,7 @@
         <v>0</v>
       </c>
       <c r="AS59" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT59" t="n">
         <v>1.31</v>
@@ -12880,7 +12880,7 @@
         <v>2.77</v>
       </c>
       <c r="AT61" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU61" t="n">
         <v>2.04</v>
@@ -13689,7 +13689,7 @@
         <v>2</v>
       </c>
       <c r="AS65" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AT65" t="n">
         <v>0.67</v>
@@ -13892,7 +13892,7 @@
         <v>0.5</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT66" t="n">
         <v>1.38</v>
@@ -14298,7 +14298,7 @@
         <v>1.5</v>
       </c>
       <c r="AS68" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT68" t="n">
         <v>0.83</v>
@@ -15516,7 +15516,7 @@
         <v>0.33</v>
       </c>
       <c r="AS74" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AT74" t="n">
         <v>1.64</v>
@@ -17346,7 +17346,7 @@
         <v>1</v>
       </c>
       <c r="AT83" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AU83" t="n">
         <v>2.04</v>
@@ -17546,7 +17546,7 @@
         <v>1</v>
       </c>
       <c r="AS84" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT84" t="n">
         <v>1.67</v>
@@ -17752,7 +17752,7 @@
         <v>0.92</v>
       </c>
       <c r="AT85" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU85" t="n">
         <v>1.43</v>
@@ -18158,7 +18158,7 @@
         <v>1.45</v>
       </c>
       <c r="AT87" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU87" t="n">
         <v>1.29</v>
@@ -18561,7 +18561,7 @@
         <v>0.67</v>
       </c>
       <c r="AS89" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT89" t="n">
         <v>1.25</v>
@@ -19782,7 +19782,7 @@
         <v>0.67</v>
       </c>
       <c r="AT95" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU95" t="n">
         <v>1.3</v>
@@ -19985,7 +19985,7 @@
         <v>1.75</v>
       </c>
       <c r="AT96" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU96" t="n">
         <v>2.16</v>
@@ -20185,7 +20185,7 @@
         <v>1</v>
       </c>
       <c r="AS97" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT97" t="n">
         <v>1.31</v>
@@ -20591,10 +20591,10 @@
         <v>3</v>
       </c>
       <c r="AS99" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AT99" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AU99" t="n">
         <v>1.56</v>
@@ -22621,7 +22621,7 @@
         <v>1</v>
       </c>
       <c r="AS109" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT109" t="n">
         <v>1.31</v>
@@ -23027,7 +23027,7 @@
         <v>0.8</v>
       </c>
       <c r="AS111" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AT111" t="n">
         <v>1.31</v>
@@ -23233,7 +23233,7 @@
         <v>1.46</v>
       </c>
       <c r="AT112" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU112" t="n">
         <v>1.62</v>
@@ -23433,7 +23433,7 @@
         <v>0.6</v>
       </c>
       <c r="AS113" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT113" t="n">
         <v>0.92</v>
@@ -23842,7 +23842,7 @@
         <v>1.17</v>
       </c>
       <c r="AT115" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU115" t="n">
         <v>1.33</v>
@@ -24248,7 +24248,7 @@
         <v>2.77</v>
       </c>
       <c r="AT117" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AU117" t="n">
         <v>1.83</v>
@@ -27090,7 +27090,7 @@
         <v>2.08</v>
       </c>
       <c r="AT131" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU131" t="n">
         <v>2.02</v>
@@ -27293,7 +27293,7 @@
         <v>1.45</v>
       </c>
       <c r="AT132" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU132" t="n">
         <v>1.38</v>
@@ -27902,7 +27902,7 @@
         <v>2.77</v>
       </c>
       <c r="AT135" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU135" t="n">
         <v>1.91</v>
@@ -28511,7 +28511,7 @@
         <v>1.17</v>
       </c>
       <c r="AT138" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AU138" t="n">
         <v>1.27</v>
@@ -28711,7 +28711,7 @@
         <v>0.5</v>
       </c>
       <c r="AS139" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT139" t="n">
         <v>0.92</v>
@@ -28917,7 +28917,7 @@
         <v>0.92</v>
       </c>
       <c r="AT140" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU140" t="n">
         <v>1.35</v>
@@ -29117,7 +29117,7 @@
         <v>0.8</v>
       </c>
       <c r="AS141" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT141" t="n">
         <v>1.31</v>
@@ -29323,7 +29323,7 @@
         <v>1.46</v>
       </c>
       <c r="AT142" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU142" t="n">
         <v>1.5</v>
@@ -29523,7 +29523,7 @@
         <v>1</v>
       </c>
       <c r="AS143" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT143" t="n">
         <v>1.23</v>
@@ -29929,7 +29929,7 @@
         <v>1</v>
       </c>
       <c r="AS145" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AT145" t="n">
         <v>1</v>
@@ -33380,7 +33380,7 @@
         <v>2.14</v>
       </c>
       <c r="AS162" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT162" t="n">
         <v>2</v>
@@ -35210,7 +35210,7 @@
         <v>1</v>
       </c>
       <c r="AT171" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU171" t="n">
         <v>1.62</v>
@@ -35616,7 +35616,7 @@
         <v>1.64</v>
       </c>
       <c r="AT173" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AU173" t="n">
         <v>1.53</v>
@@ -36022,7 +36022,7 @@
         <v>2.08</v>
       </c>
       <c r="AT175" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU175" t="n">
         <v>2.07</v>
@@ -36425,7 +36425,7 @@
         <v>1.14</v>
       </c>
       <c r="AS177" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT177" t="n">
         <v>1.23</v>
@@ -37443,7 +37443,7 @@
         <v>1.75</v>
       </c>
       <c r="AT182" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU182" t="n">
         <v>2</v>
@@ -37643,7 +37643,7 @@
         <v>1.43</v>
       </c>
       <c r="AS183" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT183" t="n">
         <v>1.18</v>
@@ -37846,7 +37846,7 @@
         <v>1.43</v>
       </c>
       <c r="AS184" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AT184" t="n">
         <v>1.25</v>
@@ -38052,7 +38052,7 @@
         <v>1.42</v>
       </c>
       <c r="AT185" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AU185" t="n">
         <v>1.55</v>
@@ -38455,7 +38455,7 @@
         <v>1.38</v>
       </c>
       <c r="AS187" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT187" t="n">
         <v>1.25</v>
@@ -38661,7 +38661,7 @@
         <v>2.08</v>
       </c>
       <c r="AT188" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU188" t="n">
         <v>1.98</v>
@@ -39267,7 +39267,7 @@
         <v>0.63</v>
       </c>
       <c r="AS191" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AT191" t="n">
         <v>0.6899999999999999</v>
@@ -39676,7 +39676,7 @@
         <v>1</v>
       </c>
       <c r="AT193" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU193" t="n">
         <v>1.42</v>
@@ -40079,7 +40079,7 @@
         <v>0.88</v>
       </c>
       <c r="AS195" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT195" t="n">
         <v>0.67</v>
@@ -40485,10 +40485,10 @@
         <v>0.88</v>
       </c>
       <c r="AS197" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT197" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU197" t="n">
         <v>1.15</v>
@@ -42112,7 +42112,7 @@
         <v>1.42</v>
       </c>
       <c r="AT205" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU205" t="n">
         <v>1.37</v>
@@ -43733,7 +43733,7 @@
         <v>1.75</v>
       </c>
       <c r="AS213" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT213" t="n">
         <v>1.67</v>
@@ -44142,7 +44142,7 @@
         <v>1.5</v>
       </c>
       <c r="AT215" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AU215" t="n">
         <v>1.46</v>
@@ -44748,7 +44748,7 @@
         <v>1.33</v>
       </c>
       <c r="AS218" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AT218" t="n">
         <v>1.09</v>
@@ -44951,7 +44951,7 @@
         <v>0.78</v>
       </c>
       <c r="AS219" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT219" t="n">
         <v>0.58</v>
@@ -45360,7 +45360,7 @@
         <v>1</v>
       </c>
       <c r="AT221" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU221" t="n">
         <v>1.43</v>
@@ -45966,7 +45966,7 @@
         <v>1.25</v>
       </c>
       <c r="AS224" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT224" t="n">
         <v>1.08</v>
@@ -46172,7 +46172,7 @@
         <v>1.42</v>
       </c>
       <c r="AT225" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU225" t="n">
         <v>1.37</v>
@@ -47590,7 +47590,7 @@
         <v>2.11</v>
       </c>
       <c r="AS232" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT232" t="n">
         <v>2</v>
@@ -48202,7 +48202,7 @@
         <v>0.92</v>
       </c>
       <c r="AT235" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU235" t="n">
         <v>1.28</v>
@@ -48811,7 +48811,7 @@
         <v>1.31</v>
       </c>
       <c r="AT238" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU238" t="n">
         <v>1.31</v>
@@ -49823,7 +49823,7 @@
         <v>1.3</v>
       </c>
       <c r="AS243" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT243" t="n">
         <v>1.31</v>
@@ -51041,7 +51041,7 @@
         <v>0.8</v>
       </c>
       <c r="AS249" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT249" t="n">
         <v>0.67</v>
@@ -51247,7 +51247,7 @@
         <v>1.75</v>
       </c>
       <c r="AT250" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AU250" t="n">
         <v>2.01</v>
@@ -51447,7 +51447,7 @@
         <v>1.3</v>
       </c>
       <c r="AS251" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AT251" t="n">
         <v>1.17</v>
@@ -51853,7 +51853,7 @@
         <v>0.6</v>
       </c>
       <c r="AS253" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT253" t="n">
         <v>0.6899999999999999</v>
@@ -54898,7 +54898,7 @@
         <v>1.27</v>
       </c>
       <c r="AS268" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AT268" t="n">
         <v>1.31</v>
@@ -55104,7 +55104,7 @@
         <v>1.33</v>
       </c>
       <c r="AT269" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AU269" t="n">
         <v>1.49</v>
@@ -56119,7 +56119,7 @@
         <v>1.17</v>
       </c>
       <c r="AT274" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU274" t="n">
         <v>1.26</v>
@@ -56522,7 +56522,7 @@
         <v>1.36</v>
       </c>
       <c r="AS276" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT276" t="n">
         <v>1.38</v>
@@ -56725,10 +56725,10 @@
         <v>1.2</v>
       </c>
       <c r="AS277" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT277" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU277" t="n">
         <v>1.22</v>
@@ -56928,10 +56928,10 @@
         <v>0.7</v>
       </c>
       <c r="AS278" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT278" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU278" t="n">
         <v>1.64</v>
@@ -58607,6 +58607,818 @@
       </c>
       <c r="BK286" t="n">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="n">
+        <v>286</v>
+      </c>
+      <c r="B287" t="n">
+        <v>2569339</v>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E287" s="2" t="n">
+        <v>44928.5</v>
+      </c>
+      <c r="F287" t="n">
+        <v>25</v>
+      </c>
+      <c r="G287" t="inlineStr">
+        <is>
+          <t>Sheffield Wednesday</t>
+        </is>
+      </c>
+      <c r="H287" t="inlineStr">
+        <is>
+          <t>Cambridge United</t>
+        </is>
+      </c>
+      <c r="I287" t="n">
+        <v>2</v>
+      </c>
+      <c r="J287" t="n">
+        <v>0</v>
+      </c>
+      <c r="K287" t="n">
+        <v>2</v>
+      </c>
+      <c r="L287" t="n">
+        <v>5</v>
+      </c>
+      <c r="M287" t="n">
+        <v>0</v>
+      </c>
+      <c r="N287" t="n">
+        <v>5</v>
+      </c>
+      <c r="O287" t="inlineStr">
+        <is>
+          <t>['7', '21', '51', '70', '80']</t>
+        </is>
+      </c>
+      <c r="P287" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q287" t="n">
+        <v>6</v>
+      </c>
+      <c r="R287" t="n">
+        <v>3</v>
+      </c>
+      <c r="S287" t="n">
+        <v>9</v>
+      </c>
+      <c r="T287" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U287" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V287" t="n">
+        <v>7</v>
+      </c>
+      <c r="W287" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X287" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y287" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z287" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA287" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB287" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC287" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AD287" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="AE287" t="n">
+        <v>9.85</v>
+      </c>
+      <c r="AF287" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG287" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH287" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AI287" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AJ287" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AK287" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AL287" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM287" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN287" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AO287" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AP287" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AQ287" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AR287" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AS287" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AT287" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="AU287" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AV287" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AW287" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AX287" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AY287" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ287" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="BA287" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BB287" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BC287" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BD287" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BE287" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BF287" t="n">
+        <v>11</v>
+      </c>
+      <c r="BG287" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH287" t="n">
+        <v>16</v>
+      </c>
+      <c r="BI287" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ287" t="n">
+        <v>27</v>
+      </c>
+      <c r="BK287" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="n">
+        <v>287</v>
+      </c>
+      <c r="B288" t="n">
+        <v>2569018</v>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E288" s="2" t="n">
+        <v>44928.5</v>
+      </c>
+      <c r="F288" t="n">
+        <v>25</v>
+      </c>
+      <c r="G288" t="inlineStr">
+        <is>
+          <t>Barnsley</t>
+        </is>
+      </c>
+      <c r="H288" t="inlineStr">
+        <is>
+          <t>Bolton Wanderers</t>
+        </is>
+      </c>
+      <c r="I288" t="n">
+        <v>0</v>
+      </c>
+      <c r="J288" t="n">
+        <v>2</v>
+      </c>
+      <c r="K288" t="n">
+        <v>2</v>
+      </c>
+      <c r="L288" t="n">
+        <v>0</v>
+      </c>
+      <c r="M288" t="n">
+        <v>3</v>
+      </c>
+      <c r="N288" t="n">
+        <v>3</v>
+      </c>
+      <c r="O288" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P288" t="inlineStr">
+        <is>
+          <t>['12', '41', '76']</t>
+        </is>
+      </c>
+      <c r="Q288" t="n">
+        <v>3</v>
+      </c>
+      <c r="R288" t="n">
+        <v>8</v>
+      </c>
+      <c r="S288" t="n">
+        <v>11</v>
+      </c>
+      <c r="T288" t="n">
+        <v>3</v>
+      </c>
+      <c r="U288" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V288" t="n">
+        <v>4</v>
+      </c>
+      <c r="W288" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X288" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y288" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z288" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA288" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB288" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC288" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AD288" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="AE288" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="AF288" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG288" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH288" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI288" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ288" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK288" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AL288" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM288" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN288" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AO288" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP288" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AQ288" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR288" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AS288" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AT288" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU288" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AV288" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AW288" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AX288" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AY288" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ288" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BA288" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB288" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BC288" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BD288" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BE288" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BF288" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG288" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH288" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI288" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ288" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK288" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="n">
+        <v>288</v>
+      </c>
+      <c r="B289" t="n">
+        <v>2569020</v>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E289" s="2" t="n">
+        <v>44928.5</v>
+      </c>
+      <c r="F289" t="n">
+        <v>25</v>
+      </c>
+      <c r="G289" t="inlineStr">
+        <is>
+          <t>Derby County</t>
+        </is>
+      </c>
+      <c r="H289" t="inlineStr">
+        <is>
+          <t>Accrington Stanley</t>
+        </is>
+      </c>
+      <c r="I289" t="n">
+        <v>3</v>
+      </c>
+      <c r="J289" t="n">
+        <v>0</v>
+      </c>
+      <c r="K289" t="n">
+        <v>3</v>
+      </c>
+      <c r="L289" t="n">
+        <v>4</v>
+      </c>
+      <c r="M289" t="n">
+        <v>0</v>
+      </c>
+      <c r="N289" t="n">
+        <v>4</v>
+      </c>
+      <c r="O289" t="inlineStr">
+        <is>
+          <t>['7', '16', '45+2', '46']</t>
+        </is>
+      </c>
+      <c r="P289" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q289" t="n">
+        <v>6</v>
+      </c>
+      <c r="R289" t="n">
+        <v>5</v>
+      </c>
+      <c r="S289" t="n">
+        <v>11</v>
+      </c>
+      <c r="T289" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U289" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V289" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W289" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X289" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y289" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z289" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA289" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB289" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC289" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AD289" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="AE289" t="n">
+        <v>5.27</v>
+      </c>
+      <c r="AF289" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG289" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH289" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AI289" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AJ289" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AK289" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AL289" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM289" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN289" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AO289" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP289" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AQ289" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AR289" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS289" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AT289" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AU289" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AV289" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AW289" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AX289" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AY289" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ289" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BA289" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB289" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BC289" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BD289" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BE289" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BF289" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG289" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH289" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI289" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ289" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK289" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="1" t="n">
+        <v>289</v>
+      </c>
+      <c r="B290" t="n">
+        <v>2569046</v>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E290" s="2" t="n">
+        <v>44928.5</v>
+      </c>
+      <c r="F290" t="n">
+        <v>25</v>
+      </c>
+      <c r="G290" t="inlineStr">
+        <is>
+          <t>Lincoln City</t>
+        </is>
+      </c>
+      <c r="H290" t="inlineStr">
+        <is>
+          <t>Ipswich Town</t>
+        </is>
+      </c>
+      <c r="I290" t="n">
+        <v>0</v>
+      </c>
+      <c r="J290" t="n">
+        <v>0</v>
+      </c>
+      <c r="K290" t="n">
+        <v>0</v>
+      </c>
+      <c r="L290" t="n">
+        <v>1</v>
+      </c>
+      <c r="M290" t="n">
+        <v>1</v>
+      </c>
+      <c r="N290" t="n">
+        <v>2</v>
+      </c>
+      <c r="O290" t="inlineStr">
+        <is>
+          <t>['64']</t>
+        </is>
+      </c>
+      <c r="P290" t="inlineStr">
+        <is>
+          <t>['81']</t>
+        </is>
+      </c>
+      <c r="Q290" t="n">
+        <v>3</v>
+      </c>
+      <c r="R290" t="n">
+        <v>9</v>
+      </c>
+      <c r="S290" t="n">
+        <v>12</v>
+      </c>
+      <c r="T290" t="n">
+        <v>5</v>
+      </c>
+      <c r="U290" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V290" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W290" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X290" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y290" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z290" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA290" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB290" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC290" t="n">
+        <v>5.19</v>
+      </c>
+      <c r="AD290" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AE290" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AF290" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG290" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH290" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI290" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AJ290" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK290" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AL290" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM290" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN290" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AO290" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP290" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AQ290" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AR290" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS290" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT290" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AU290" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AV290" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AW290" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="AX290" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AY290" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ290" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BA290" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB290" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BC290" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BD290" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BE290" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BF290" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG290" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH290" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI290" t="n">
+        <v>15</v>
+      </c>
+      <c r="BJ290" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK290" t="n">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/England EFL League One_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/England EFL League One_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK290"/>
+  <dimension ref="A1:BK294"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT6" t="n">
         <v>1.09</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT11" t="n">
         <v>1.08</v>
@@ -3745,7 +3745,7 @@
         <v>1.33</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -4557,7 +4557,7 @@
         <v>1.08</v>
       </c>
       <c r="AT20" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AU20" t="n">
         <v>0</v>
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT22" t="n">
         <v>1.25</v>
@@ -5163,7 +5163,7 @@
         <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT23" t="n">
         <v>1.31</v>
@@ -5369,7 +5369,7 @@
         <v>1.83</v>
       </c>
       <c r="AT24" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU24" t="n">
         <v>0</v>
@@ -5572,7 +5572,7 @@
         <v>1</v>
       </c>
       <c r="AT25" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AU25" t="n">
         <v>0</v>
@@ -5975,7 +5975,7 @@
         <v>0</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT27" t="n">
         <v>1.38</v>
@@ -7802,7 +7802,7 @@
         <v>1</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT36" t="n">
         <v>1.23</v>
@@ -8617,7 +8617,7 @@
         <v>1.25</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU40" t="n">
         <v>1.6</v>
@@ -9023,7 +9023,7 @@
         <v>1</v>
       </c>
       <c r="AT42" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU42" t="n">
         <v>0.57</v>
@@ -9426,10 +9426,10 @@
         <v>0</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT44" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AU44" t="n">
         <v>1.01</v>
@@ -9832,7 +9832,7 @@
         <v>0</v>
       </c>
       <c r="AS46" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT46" t="n">
         <v>0.58</v>
@@ -10038,7 +10038,7 @@
         <v>1.83</v>
       </c>
       <c r="AT47" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AU47" t="n">
         <v>1.66</v>
@@ -10647,7 +10647,7 @@
         <v>1.33</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AU50" t="n">
         <v>1.03</v>
@@ -10850,7 +10850,7 @@
         <v>2.08</v>
       </c>
       <c r="AT51" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU51" t="n">
         <v>2.06</v>
@@ -11459,7 +11459,7 @@
         <v>0.92</v>
       </c>
       <c r="AT54" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AU54" t="n">
         <v>1.06</v>
@@ -11659,7 +11659,7 @@
         <v>0</v>
       </c>
       <c r="AS55" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT55" t="n">
         <v>0.58</v>
@@ -12268,7 +12268,7 @@
         <v>1.5</v>
       </c>
       <c r="AS58" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT58" t="n">
         <v>2</v>
@@ -12677,7 +12677,7 @@
         <v>1.5</v>
       </c>
       <c r="AT60" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU60" t="n">
         <v>1.47</v>
@@ -13486,7 +13486,7 @@
         <v>0</v>
       </c>
       <c r="AS64" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT64" t="n">
         <v>1.08</v>
@@ -15110,7 +15110,7 @@
         <v>0.5</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT72" t="n">
         <v>0.6899999999999999</v>
@@ -15722,7 +15722,7 @@
         <v>1.64</v>
       </c>
       <c r="AT75" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU75" t="n">
         <v>1.45</v>
@@ -16734,10 +16734,10 @@
         <v>1.33</v>
       </c>
       <c r="AS80" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT80" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU80" t="n">
         <v>1.88</v>
@@ -17140,7 +17140,7 @@
         <v>0.67</v>
       </c>
       <c r="AS82" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT82" t="n">
         <v>0.92</v>
@@ -17549,7 +17549,7 @@
         <v>2.17</v>
       </c>
       <c r="AT84" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AU84" t="n">
         <v>1.58</v>
@@ -17952,7 +17952,7 @@
         <v>1.33</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT86" t="n">
         <v>0.67</v>
@@ -18361,7 +18361,7 @@
         <v>2.08</v>
       </c>
       <c r="AT88" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AU88" t="n">
         <v>1.97</v>
@@ -18967,7 +18967,7 @@
         <v>2</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT91" t="n">
         <v>2</v>
@@ -20388,7 +20388,7 @@
         <v>1</v>
       </c>
       <c r="AS98" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT98" t="n">
         <v>1.64</v>
@@ -20797,7 +20797,7 @@
         <v>1.33</v>
       </c>
       <c r="AT100" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AU100" t="n">
         <v>1.46</v>
@@ -22015,7 +22015,7 @@
         <v>1</v>
       </c>
       <c r="AT106" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU106" t="n">
         <v>1.83</v>
@@ -22215,7 +22215,7 @@
         <v>0.75</v>
       </c>
       <c r="AS107" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT107" t="n">
         <v>0.83</v>
@@ -22421,7 +22421,7 @@
         <v>1.46</v>
       </c>
       <c r="AT108" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU108" t="n">
         <v>1.5</v>
@@ -23839,7 +23839,7 @@
         <v>0.25</v>
       </c>
       <c r="AS115" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT115" t="n">
         <v>0.58</v>
@@ -24451,7 +24451,7 @@
         <v>1.75</v>
       </c>
       <c r="AT118" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AU118" t="n">
         <v>2.07</v>
@@ -25466,7 +25466,7 @@
         <v>1.5</v>
       </c>
       <c r="AT123" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AU123" t="n">
         <v>1.62</v>
@@ -25869,7 +25869,7 @@
         <v>0.75</v>
       </c>
       <c r="AS125" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT125" t="n">
         <v>1.17</v>
@@ -26072,7 +26072,7 @@
         <v>0.5</v>
       </c>
       <c r="AS126" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT126" t="n">
         <v>1.25</v>
@@ -26478,10 +26478,10 @@
         <v>1.4</v>
       </c>
       <c r="AS128" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT128" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU128" t="n">
         <v>1.69</v>
@@ -28508,7 +28508,7 @@
         <v>2.17</v>
       </c>
       <c r="AS138" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT138" t="n">
         <v>1.92</v>
@@ -29932,7 +29932,7 @@
         <v>2.15</v>
       </c>
       <c r="AT145" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU145" t="n">
         <v>1.59</v>
@@ -30135,7 +30135,7 @@
         <v>0.67</v>
       </c>
       <c r="AT146" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AU146" t="n">
         <v>1.09</v>
@@ -30538,7 +30538,7 @@
         <v>1.33</v>
       </c>
       <c r="AS148" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT148" t="n">
         <v>1.23</v>
@@ -30947,7 +30947,7 @@
         <v>1.45</v>
       </c>
       <c r="AT150" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AU150" t="n">
         <v>1.45</v>
@@ -31556,7 +31556,7 @@
         <v>2.08</v>
       </c>
       <c r="AT153" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU153" t="n">
         <v>2.02</v>
@@ -31759,7 +31759,7 @@
         <v>0.67</v>
       </c>
       <c r="AT154" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AU154" t="n">
         <v>1.02</v>
@@ -32365,7 +32365,7 @@
         <v>1.67</v>
       </c>
       <c r="AS157" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT157" t="n">
         <v>1.64</v>
@@ -32568,7 +32568,7 @@
         <v>2</v>
       </c>
       <c r="AS158" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT158" t="n">
         <v>2</v>
@@ -32974,7 +32974,7 @@
         <v>2</v>
       </c>
       <c r="AS160" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT160" t="n">
         <v>1.5</v>
@@ -33786,7 +33786,7 @@
         <v>1.57</v>
       </c>
       <c r="AS164" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT164" t="n">
         <v>1.64</v>
@@ -34598,7 +34598,7 @@
         <v>1.17</v>
       </c>
       <c r="AS168" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT168" t="n">
         <v>1.31</v>
@@ -34804,7 +34804,7 @@
         <v>1.08</v>
       </c>
       <c r="AT169" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU169" t="n">
         <v>1.42</v>
@@ -35007,7 +35007,7 @@
         <v>1.46</v>
       </c>
       <c r="AT170" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AU170" t="n">
         <v>1.55</v>
@@ -36831,7 +36831,7 @@
         <v>0.71</v>
       </c>
       <c r="AS179" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT179" t="n">
         <v>0.6899999999999999</v>
@@ -37034,7 +37034,7 @@
         <v>1</v>
       </c>
       <c r="AS180" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT180" t="n">
         <v>1.08</v>
@@ -37646,7 +37646,7 @@
         <v>1.83</v>
       </c>
       <c r="AT183" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU183" t="n">
         <v>1.65</v>
@@ -37849,7 +37849,7 @@
         <v>2.15</v>
       </c>
       <c r="AT184" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AU184" t="n">
         <v>1.74</v>
@@ -38049,7 +38049,7 @@
         <v>2.38</v>
       </c>
       <c r="AS185" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT185" t="n">
         <v>1.92</v>
@@ -38864,7 +38864,7 @@
         <v>1.64</v>
       </c>
       <c r="AT189" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU189" t="n">
         <v>1.42</v>
@@ -39676,7 +39676,7 @@
         <v>2.17</v>
       </c>
       <c r="AT193" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AU193" t="n">
         <v>1.68</v>
@@ -39876,7 +39876,7 @@
         <v>1.14</v>
       </c>
       <c r="AS194" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT194" t="n">
         <v>1.17</v>
@@ -40891,7 +40891,7 @@
         <v>1.14</v>
       </c>
       <c r="AS199" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT199" t="n">
         <v>1.25</v>
@@ -41909,7 +41909,7 @@
         <v>1.33</v>
       </c>
       <c r="AT204" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AU204" t="n">
         <v>1.14</v>
@@ -42112,7 +42112,7 @@
         <v>2.08</v>
       </c>
       <c r="AT205" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU205" t="n">
         <v>2.16</v>
@@ -42718,7 +42718,7 @@
         <v>1.14</v>
       </c>
       <c r="AS208" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT208" t="n">
         <v>1.33</v>
@@ -43327,7 +43327,7 @@
         <v>1.86</v>
       </c>
       <c r="AS211" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT211" t="n">
         <v>1.5</v>
@@ -45563,7 +45563,7 @@
         <v>1.08</v>
       </c>
       <c r="AT222" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AU222" t="n">
         <v>1.62</v>
@@ -46169,7 +46169,7 @@
         <v>0.89</v>
       </c>
       <c r="AS225" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT225" t="n">
         <v>0.92</v>
@@ -46981,10 +46981,10 @@
         <v>0.75</v>
       </c>
       <c r="AS229" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT229" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU229" t="n">
         <v>1.5</v>
@@ -47184,10 +47184,10 @@
         <v>1.22</v>
       </c>
       <c r="AS230" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT230" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AU230" t="n">
         <v>1.57</v>
@@ -47387,7 +47387,7 @@
         <v>1</v>
       </c>
       <c r="AS231" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT231" t="n">
         <v>1.23</v>
@@ -47999,7 +47999,7 @@
         <v>1.31</v>
       </c>
       <c r="AT234" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU234" t="n">
         <v>1.29</v>
@@ -49217,7 +49217,7 @@
         <v>0.92</v>
       </c>
       <c r="AT240" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU240" t="n">
         <v>1.3</v>
@@ -50432,10 +50432,10 @@
         <v>1.6</v>
       </c>
       <c r="AS246" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT246" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AU246" t="n">
         <v>1.32</v>
@@ -50838,7 +50838,7 @@
         <v>1</v>
       </c>
       <c r="AS248" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT248" t="n">
         <v>1.23</v>
@@ -51041,10 +51041,10 @@
         <v>1.2</v>
       </c>
       <c r="AS249" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT249" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AU249" t="n">
         <v>1.54</v>
@@ -52262,7 +52262,7 @@
         <v>1.45</v>
       </c>
       <c r="AT255" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AU255" t="n">
         <v>1.46</v>
@@ -52868,7 +52868,7 @@
         <v>0.82</v>
       </c>
       <c r="AS258" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT258" t="n">
         <v>0.83</v>
@@ -53680,7 +53680,7 @@
         <v>1.2</v>
       </c>
       <c r="AS262" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT262" t="n">
         <v>1.09</v>
@@ -53886,7 +53886,7 @@
         <v>1.75</v>
       </c>
       <c r="AT263" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AU263" t="n">
         <v>1.93</v>
@@ -54292,7 +54292,7 @@
         <v>1.08</v>
       </c>
       <c r="AT265" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU265" t="n">
         <v>1.63</v>
@@ -54492,7 +54492,7 @@
         <v>1.27</v>
       </c>
       <c r="AS266" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT266" t="n">
         <v>1.25</v>
@@ -54698,7 +54698,7 @@
         <v>1.31</v>
       </c>
       <c r="AT267" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU267" t="n">
         <v>1.31</v>
@@ -56319,7 +56319,7 @@
         <v>1.1</v>
       </c>
       <c r="AS275" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT275" t="n">
         <v>0.92</v>
@@ -57946,7 +57946,7 @@
         <v>1.46</v>
       </c>
       <c r="AT283" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU283" t="n">
         <v>1.63</v>
@@ -58349,7 +58349,7 @@
         <v>0.75</v>
       </c>
       <c r="AS285" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT285" t="n">
         <v>0.6899999999999999</v>
@@ -59419,6 +59419,818 @@
       </c>
       <c r="BK290" t="n">
         <v>22</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="n">
+        <v>290</v>
+      </c>
+      <c r="B291" t="n">
+        <v>2569632</v>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E291" s="2" t="n">
+        <v>44933.5</v>
+      </c>
+      <c r="F291" t="n">
+        <v>26</v>
+      </c>
+      <c r="G291" t="inlineStr">
+        <is>
+          <t>Charlton Athletic</t>
+        </is>
+      </c>
+      <c r="H291" t="inlineStr">
+        <is>
+          <t>Lincoln City</t>
+        </is>
+      </c>
+      <c r="I291" t="n">
+        <v>2</v>
+      </c>
+      <c r="J291" t="n">
+        <v>0</v>
+      </c>
+      <c r="K291" t="n">
+        <v>2</v>
+      </c>
+      <c r="L291" t="n">
+        <v>2</v>
+      </c>
+      <c r="M291" t="n">
+        <v>1</v>
+      </c>
+      <c r="N291" t="n">
+        <v>3</v>
+      </c>
+      <c r="O291" t="inlineStr">
+        <is>
+          <t>['35', '42']</t>
+        </is>
+      </c>
+      <c r="P291" t="inlineStr">
+        <is>
+          <t>['76']</t>
+        </is>
+      </c>
+      <c r="Q291" t="n">
+        <v>0</v>
+      </c>
+      <c r="R291" t="n">
+        <v>1</v>
+      </c>
+      <c r="S291" t="n">
+        <v>1</v>
+      </c>
+      <c r="T291" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="U291" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V291" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W291" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X291" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y291" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Z291" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA291" t="n">
+        <v>7.85</v>
+      </c>
+      <c r="AB291" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC291" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AD291" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE291" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AF291" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG291" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH291" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI291" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ291" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK291" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL291" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AM291" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AN291" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO291" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP291" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AQ291" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AR291" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AS291" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AT291" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AU291" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AV291" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AW291" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AX291" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AY291" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ291" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="BA291" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB291" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BC291" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BD291" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE291" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BF291" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG291" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH291" t="n">
+        <v>13</v>
+      </c>
+      <c r="BI291" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ291" t="n">
+        <v>20</v>
+      </c>
+      <c r="BK291" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="1" t="n">
+        <v>291</v>
+      </c>
+      <c r="B292" t="n">
+        <v>2569590</v>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E292" s="2" t="n">
+        <v>44933.5</v>
+      </c>
+      <c r="F292" t="n">
+        <v>26</v>
+      </c>
+      <c r="G292" t="inlineStr">
+        <is>
+          <t>Cambridge United</t>
+        </is>
+      </c>
+      <c r="H292" t="inlineStr">
+        <is>
+          <t>Bristol Rovers</t>
+        </is>
+      </c>
+      <c r="I292" t="n">
+        <v>1</v>
+      </c>
+      <c r="J292" t="n">
+        <v>2</v>
+      </c>
+      <c r="K292" t="n">
+        <v>3</v>
+      </c>
+      <c r="L292" t="n">
+        <v>1</v>
+      </c>
+      <c r="M292" t="n">
+        <v>2</v>
+      </c>
+      <c r="N292" t="n">
+        <v>3</v>
+      </c>
+      <c r="O292" t="inlineStr">
+        <is>
+          <t>['5']</t>
+        </is>
+      </c>
+      <c r="P292" t="inlineStr">
+        <is>
+          <t>['22', '29']</t>
+        </is>
+      </c>
+      <c r="Q292" t="n">
+        <v>9</v>
+      </c>
+      <c r="R292" t="n">
+        <v>3</v>
+      </c>
+      <c r="S292" t="n">
+        <v>12</v>
+      </c>
+      <c r="T292" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U292" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V292" t="n">
+        <v>3</v>
+      </c>
+      <c r="W292" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="X292" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y292" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Z292" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA292" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AB292" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC292" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AD292" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE292" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AF292" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG292" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH292" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AI292" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ292" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK292" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL292" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM292" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN292" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AO292" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP292" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AQ292" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AR292" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AS292" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AT292" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AU292" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AV292" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AW292" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="AX292" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AY292" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ292" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BA292" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB292" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BC292" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BD292" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BE292" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BF292" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG292" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH292" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI292" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ292" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK292" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="n">
+        <v>292</v>
+      </c>
+      <c r="B293" t="n">
+        <v>2570043</v>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E293" s="2" t="n">
+        <v>44933.5</v>
+      </c>
+      <c r="F293" t="n">
+        <v>43</v>
+      </c>
+      <c r="G293" t="inlineStr">
+        <is>
+          <t>Morecambe</t>
+        </is>
+      </c>
+      <c r="H293" t="inlineStr">
+        <is>
+          <t>Cheltenham Town</t>
+        </is>
+      </c>
+      <c r="I293" t="n">
+        <v>1</v>
+      </c>
+      <c r="J293" t="n">
+        <v>1</v>
+      </c>
+      <c r="K293" t="n">
+        <v>2</v>
+      </c>
+      <c r="L293" t="n">
+        <v>2</v>
+      </c>
+      <c r="M293" t="n">
+        <v>1</v>
+      </c>
+      <c r="N293" t="n">
+        <v>3</v>
+      </c>
+      <c r="O293" t="inlineStr">
+        <is>
+          <t>['20', '47']</t>
+        </is>
+      </c>
+      <c r="P293" t="inlineStr">
+        <is>
+          <t>['39']</t>
+        </is>
+      </c>
+      <c r="Q293" t="n">
+        <v>5</v>
+      </c>
+      <c r="R293" t="n">
+        <v>6</v>
+      </c>
+      <c r="S293" t="n">
+        <v>11</v>
+      </c>
+      <c r="T293" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U293" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V293" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W293" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X293" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Y293" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Z293" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AA293" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AB293" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC293" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AD293" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE293" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AF293" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG293" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH293" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI293" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ293" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK293" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AL293" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AM293" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN293" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AO293" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP293" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AQ293" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AR293" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS293" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AT293" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AU293" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AV293" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AW293" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AX293" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AY293" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ293" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BA293" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB293" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BC293" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BD293" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BE293" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BF293" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG293" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH293" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI293" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ293" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK293" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="1" t="n">
+        <v>293</v>
+      </c>
+      <c r="B294" t="n">
+        <v>2569975</v>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E294" s="2" t="n">
+        <v>44933.5</v>
+      </c>
+      <c r="F294" t="n">
+        <v>38</v>
+      </c>
+      <c r="G294" t="inlineStr">
+        <is>
+          <t>Bolton Wanderers</t>
+        </is>
+      </c>
+      <c r="H294" t="inlineStr">
+        <is>
+          <t>Plymouth Argyle</t>
+        </is>
+      </c>
+      <c r="I294" t="n">
+        <v>0</v>
+      </c>
+      <c r="J294" t="n">
+        <v>0</v>
+      </c>
+      <c r="K294" t="n">
+        <v>0</v>
+      </c>
+      <c r="L294" t="n">
+        <v>0</v>
+      </c>
+      <c r="M294" t="n">
+        <v>0</v>
+      </c>
+      <c r="N294" t="n">
+        <v>0</v>
+      </c>
+      <c r="O294" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P294" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q294" t="n">
+        <v>7</v>
+      </c>
+      <c r="R294" t="n">
+        <v>4</v>
+      </c>
+      <c r="S294" t="n">
+        <v>11</v>
+      </c>
+      <c r="T294" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="U294" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V294" t="n">
+        <v>4</v>
+      </c>
+      <c r="W294" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X294" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Y294" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z294" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA294" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AB294" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC294" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AD294" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE294" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AF294" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG294" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH294" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI294" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ294" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK294" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AL294" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM294" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN294" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO294" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP294" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AQ294" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR294" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AS294" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AT294" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AU294" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AV294" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AW294" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AX294" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AY294" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ294" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="BA294" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB294" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BC294" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BD294" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE294" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BF294" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG294" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH294" t="n">
+        <v>13</v>
+      </c>
+      <c r="BI294" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ294" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK294" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/England EFL League One_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/England EFL League One_20222023.xlsx
@@ -60295,13 +60295,13 @@
         </is>
       </c>
       <c r="Q295" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="R295" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="S295" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="T295" t="n">
         <v>4</v>
@@ -60418,22 +60418,22 @@
         <v>2.65</v>
       </c>
       <c r="BF295" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BG295" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BH295" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BI295" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BJ295" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BK295" t="n">
-        <v>-1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="296">
@@ -60498,13 +60498,13 @@
         </is>
       </c>
       <c r="Q296" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="R296" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="S296" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="T296" t="n">
         <v>2.63</v>
@@ -60621,22 +60621,22 @@
         <v>2.85</v>
       </c>
       <c r="BF296" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BG296" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BH296" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BI296" t="n">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BJ296" t="n">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="BK296" t="n">
-        <v>-1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="297">
@@ -60701,13 +60701,13 @@
         </is>
       </c>
       <c r="Q297" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="R297" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="S297" t="n">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="T297" t="n">
         <v>2.75</v>
@@ -60824,22 +60824,22 @@
         <v>3.4</v>
       </c>
       <c r="BF297" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BG297" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="BH297" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BI297" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BJ297" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BK297" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="298">
@@ -60904,13 +60904,13 @@
         </is>
       </c>
       <c r="Q298" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="R298" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="S298" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="T298" t="n">
         <v>2.1</v>
@@ -61027,22 +61027,22 @@
         <v>2.65</v>
       </c>
       <c r="BF298" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BG298" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BH298" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BI298" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BJ298" t="n">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="BK298" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="299">
@@ -61107,13 +61107,13 @@
         </is>
       </c>
       <c r="Q299" t="n">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="R299" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="S299" t="n">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="T299" t="n">
         <v>3.4</v>
@@ -61230,22 +61230,22 @@
         <v>3.25</v>
       </c>
       <c r="BF299" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BG299" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BH299" t="n">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BI299" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BJ299" t="n">
-        <v>-1</v>
+        <v>18</v>
       </c>
       <c r="BK299" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="300">
@@ -61310,13 +61310,13 @@
         </is>
       </c>
       <c r="Q300" t="n">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="R300" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="S300" t="n">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="T300" t="n">
         <v>2.3</v>
@@ -61433,22 +61433,22 @@
         <v>2.43</v>
       </c>
       <c r="BF300" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BG300" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BH300" t="n">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="BI300" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BJ300" t="n">
-        <v>-1</v>
+        <v>17</v>
       </c>
       <c r="BK300" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="301">
@@ -61513,13 +61513,13 @@
         </is>
       </c>
       <c r="Q301" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="R301" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="S301" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="T301" t="n">
         <v>4.75</v>
@@ -61636,22 +61636,22 @@
         <v>2.85</v>
       </c>
       <c r="BF301" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BG301" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BH301" t="n">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BI301" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BJ301" t="n">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="BK301" t="n">
-        <v>-1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="302">
@@ -61716,13 +61716,13 @@
         </is>
       </c>
       <c r="Q302" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R302" t="n">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="S302" t="n">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="T302" t="n">
         <v>3.4</v>
@@ -61839,22 +61839,22 @@
         <v>3.4</v>
       </c>
       <c r="BF302" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BG302" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BH302" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BI302" t="n">
-        <v>-1</v>
+        <v>21</v>
       </c>
       <c r="BJ302" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BK302" t="n">
-        <v>-1</v>
+        <v>24</v>
       </c>
     </row>
     <row r="303">
@@ -61919,13 +61919,13 @@
         </is>
       </c>
       <c r="Q303" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="R303" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="S303" t="n">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="T303" t="n">
         <v>3</v>
@@ -62042,22 +62042,22 @@
         <v>2.43</v>
       </c>
       <c r="BF303" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="BG303" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BH303" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BI303" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BJ303" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BK303" t="n">
-        <v>-1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="304">
@@ -62122,13 +62122,13 @@
         </is>
       </c>
       <c r="Q304" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="R304" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="S304" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="T304" t="n">
         <v>3.4</v>
@@ -62245,22 +62245,22 @@
         <v>2.65</v>
       </c>
       <c r="BF304" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BG304" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BH304" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BI304" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BJ304" t="n">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BK304" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/England EFL League One_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/England EFL League One_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK304"/>
+  <dimension ref="A1:BK305"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT5" t="n">
         <v>1.38</v>
@@ -2527,7 +2527,7 @@
         <v>1.33</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -6584,7 +6584,7 @@
         <v>1</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT30" t="n">
         <v>1.33</v>
@@ -6993,7 +6993,7 @@
         <v>2.77</v>
       </c>
       <c r="AT32" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU32" t="n">
         <v>1.94</v>
@@ -13080,7 +13080,7 @@
         <v>2</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT62" t="n">
         <v>1.36</v>
@@ -14301,7 +14301,7 @@
         <v>2.17</v>
       </c>
       <c r="AT68" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU68" t="n">
         <v>1.28</v>
@@ -15316,7 +15316,7 @@
         <v>1.33</v>
       </c>
       <c r="AT73" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU73" t="n">
         <v>1.5</v>
@@ -15719,7 +15719,7 @@
         <v>1.33</v>
       </c>
       <c r="AS75" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT75" t="n">
         <v>0.92</v>
@@ -20997,7 +20997,7 @@
         <v>2</v>
       </c>
       <c r="AS101" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT101" t="n">
         <v>1.25</v>
@@ -22218,7 +22218,7 @@
         <v>2</v>
       </c>
       <c r="AT107" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU107" t="n">
         <v>1.81</v>
@@ -24651,7 +24651,7 @@
         <v>2.25</v>
       </c>
       <c r="AS119" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT119" t="n">
         <v>2.08</v>
@@ -24857,7 +24857,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AT120" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU120" t="n">
         <v>1.1</v>
@@ -31959,7 +31959,7 @@
         <v>0.83</v>
       </c>
       <c r="AS155" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT155" t="n">
         <v>0.6899999999999999</v>
@@ -32165,7 +32165,7 @@
         <v>1.62</v>
       </c>
       <c r="AT156" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU156" t="n">
         <v>2.07</v>
@@ -33992,7 +33992,7 @@
         <v>1.25</v>
       </c>
       <c r="AT165" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU165" t="n">
         <v>1.99</v>
@@ -36222,7 +36222,7 @@
         <v>2.29</v>
       </c>
       <c r="AS176" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT176" t="n">
         <v>1.92</v>
@@ -38861,7 +38861,7 @@
         <v>1.63</v>
       </c>
       <c r="AS189" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT189" t="n">
         <v>1.08</v>
@@ -42112,7 +42112,7 @@
         <v>1.46</v>
       </c>
       <c r="AT205" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU205" t="n">
         <v>1.51</v>
@@ -45357,7 +45357,7 @@
         <v>0.89</v>
       </c>
       <c r="AS221" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT221" t="n">
         <v>0.92</v>
@@ -45766,7 +45766,7 @@
         <v>1.46</v>
       </c>
       <c r="AT223" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU223" t="n">
         <v>1.59</v>
@@ -48811,7 +48811,7 @@
         <v>2</v>
       </c>
       <c r="AT238" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU238" t="n">
         <v>2.21</v>
@@ -52262,7 +52262,7 @@
         <v>1.64</v>
       </c>
       <c r="AT255" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU255" t="n">
         <v>1.56</v>
@@ -53071,7 +53071,7 @@
         <v>0.64</v>
       </c>
       <c r="AS259" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT259" t="n">
         <v>0.58</v>
@@ -62261,6 +62261,209 @@
       </c>
       <c r="BK304" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="1" t="n">
+        <v>304</v>
+      </c>
+      <c r="B305" t="n">
+        <v>2569852</v>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E305" s="2" t="n">
+        <v>44942.70833333334</v>
+      </c>
+      <c r="F305" t="n">
+        <v>27</v>
+      </c>
+      <c r="G305" t="inlineStr">
+        <is>
+          <t>Port Vale</t>
+        </is>
+      </c>
+      <c r="H305" t="inlineStr">
+        <is>
+          <t>Peterborough United</t>
+        </is>
+      </c>
+      <c r="I305" t="n">
+        <v>0</v>
+      </c>
+      <c r="J305" t="n">
+        <v>0</v>
+      </c>
+      <c r="K305" t="n">
+        <v>0</v>
+      </c>
+      <c r="L305" t="n">
+        <v>0</v>
+      </c>
+      <c r="M305" t="n">
+        <v>2</v>
+      </c>
+      <c r="N305" t="n">
+        <v>2</v>
+      </c>
+      <c r="O305" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P305" t="inlineStr">
+        <is>
+          <t>['56', '64']</t>
+        </is>
+      </c>
+      <c r="Q305" t="n">
+        <v>1</v>
+      </c>
+      <c r="R305" t="n">
+        <v>5</v>
+      </c>
+      <c r="S305" t="n">
+        <v>6</v>
+      </c>
+      <c r="T305" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U305" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V305" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W305" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X305" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y305" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z305" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA305" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB305" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC305" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AD305" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE305" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AF305" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG305" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH305" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI305" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AJ305" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AK305" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AL305" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM305" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN305" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AO305" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP305" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AQ305" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AR305" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AS305" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT305" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU305" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AV305" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AW305" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AX305" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AY305" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ305" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BA305" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BB305" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BC305" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BD305" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="BE305" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BF305" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG305" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH305" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI305" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ305" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK305" t="n">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/England EFL League One_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/England EFL League One_20222023.xlsx
@@ -60238,7 +60238,7 @@
         <v>294</v>
       </c>
       <c r="B295" t="n">
-        <v>2569853</v>
+        <v>2569851</v>
       </c>
       <c r="C295" t="inlineStr">
         <is>
@@ -60258,31 +60258,31 @@
       </c>
       <c r="G295" t="inlineStr">
         <is>
-          <t>Wycombe Wanderers</t>
+          <t>Milton Keynes Dons</t>
         </is>
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>Sheffield Wednesday</t>
+          <t>Lincoln City</t>
         </is>
       </c>
       <c r="I295" t="n">
         <v>0</v>
       </c>
       <c r="J295" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K295" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L295" t="n">
         <v>0</v>
       </c>
       <c r="M295" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N295" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O295" t="inlineStr">
         <is>
@@ -60291,149 +60291,149 @@
       </c>
       <c r="P295" t="inlineStr">
         <is>
-          <t>['13']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q295" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R295" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S295" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="T295" t="n">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="U295" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="V295" t="n">
-        <v>2.75</v>
+        <v>4.33</v>
       </c>
       <c r="W295" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="X295" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Y295" t="n">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="Z295" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AA295" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AB295" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AC295" t="n">
-        <v>2.85</v>
+        <v>2.13</v>
       </c>
       <c r="AD295" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="AE295" t="n">
-        <v>2.28</v>
+        <v>3.15</v>
       </c>
       <c r="AF295" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="AG295" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AH295" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="AI295" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="AJ295" t="n">
-        <v>1.93</v>
+        <v>2.15</v>
       </c>
       <c r="AK295" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AL295" t="n">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="AM295" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AN295" t="n">
-        <v>1.8</v>
+        <v>1.28</v>
       </c>
       <c r="AO295" t="n">
         <v>1.25</v>
       </c>
       <c r="AP295" t="n">
-        <v>1.3</v>
+        <v>1.78</v>
       </c>
       <c r="AQ295" t="n">
-        <v>1.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR295" t="n">
-        <v>2</v>
+        <v>1.08</v>
       </c>
       <c r="AS295" t="n">
-        <v>1.62</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AT295" t="n">
-        <v>2.08</v>
+        <v>1.08</v>
       </c>
       <c r="AU295" t="n">
-        <v>1.88</v>
+        <v>1.33</v>
       </c>
       <c r="AV295" t="n">
-        <v>1.68</v>
+        <v>0.88</v>
       </c>
       <c r="AW295" t="n">
-        <v>3.56</v>
+        <v>2.21</v>
       </c>
       <c r="AX295" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AY295" t="n">
         <v>7.5</v>
       </c>
       <c r="AZ295" t="n">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="BA295" t="n">
-        <v>1.18</v>
+        <v>1.27</v>
       </c>
       <c r="BB295" t="n">
-        <v>1.34</v>
+        <v>1.5</v>
       </c>
       <c r="BC295" t="n">
-        <v>1.6</v>
+        <v>1.85</v>
       </c>
       <c r="BD295" t="n">
-        <v>2</v>
+        <v>2.45</v>
       </c>
       <c r="BE295" t="n">
-        <v>2.65</v>
+        <v>3.4</v>
       </c>
       <c r="BF295" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BG295" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BH295" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BI295" t="n">
         <v>8</v>
       </c>
       <c r="BJ295" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK295" t="n">
         <v>8</v>
-      </c>
-      <c r="BK295" t="n">
-        <v>13</v>
       </c>
     </row>
     <row r="296">
@@ -60644,7 +60644,7 @@
         <v>296</v>
       </c>
       <c r="B297" t="n">
-        <v>2569851</v>
+        <v>2569850</v>
       </c>
       <c r="C297" t="inlineStr">
         <is>
@@ -60664,12 +60664,12 @@
       </c>
       <c r="G297" t="inlineStr">
         <is>
-          <t>Milton Keynes Dons</t>
+          <t>Ipswich Town</t>
         </is>
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>Lincoln City</t>
+          <t>Plymouth Argyle</t>
         </is>
       </c>
       <c r="I297" t="n">
@@ -60682,86 +60682,86 @@
         <v>0</v>
       </c>
       <c r="L297" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M297" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O297" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['63']</t>
         </is>
       </c>
       <c r="P297" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['90+3']</t>
         </is>
       </c>
       <c r="Q297" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R297" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S297" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="T297" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U297" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V297" t="n">
+        <v>6</v>
+      </c>
+      <c r="W297" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X297" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y297" t="n">
         <v>2.75</v>
       </c>
-      <c r="U297" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="V297" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="W297" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="X297" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Y297" t="n">
-        <v>3.25</v>
-      </c>
       <c r="Z297" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="AA297" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AB297" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="AC297" t="n">
-        <v>2.13</v>
+        <v>1.61</v>
       </c>
       <c r="AD297" t="n">
-        <v>3.15</v>
+        <v>3.65</v>
       </c>
       <c r="AE297" t="n">
-        <v>3.15</v>
+        <v>4.8</v>
       </c>
       <c r="AF297" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="AG297" t="n">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="AH297" t="n">
-        <v>1.36</v>
+        <v>1.28</v>
       </c>
       <c r="AI297" t="n">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="AJ297" t="n">
-        <v>2.15</v>
+        <v>1.75</v>
       </c>
       <c r="AK297" t="n">
-        <v>1.65</v>
+        <v>1.93</v>
       </c>
       <c r="AL297" t="n">
         <v>1.95</v>
@@ -60770,76 +60770,76 @@
         <v>1.8</v>
       </c>
       <c r="AN297" t="n">
-        <v>1.28</v>
+        <v>1.12</v>
       </c>
       <c r="AO297" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AP297" t="n">
-        <v>1.78</v>
+        <v>2.5</v>
       </c>
       <c r="AQ297" t="n">
-        <v>0.67</v>
+        <v>2.08</v>
       </c>
       <c r="AR297" t="n">
-        <v>1.08</v>
+        <v>1.62</v>
       </c>
       <c r="AS297" t="n">
-        <v>0.6899999999999999</v>
+        <v>2</v>
       </c>
       <c r="AT297" t="n">
-        <v>1.08</v>
+        <v>1.57</v>
       </c>
       <c r="AU297" t="n">
-        <v>1.33</v>
+        <v>2.17</v>
       </c>
       <c r="AV297" t="n">
-        <v>0.88</v>
+        <v>1.37</v>
       </c>
       <c r="AW297" t="n">
-        <v>2.21</v>
+        <v>3.54</v>
       </c>
       <c r="AX297" t="n">
-        <v>1.67</v>
+        <v>1.3</v>
       </c>
       <c r="AY297" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="AZ297" t="n">
-        <v>2.75</v>
+        <v>4.4</v>
       </c>
       <c r="BA297" t="n">
-        <v>1.27</v>
+        <v>1.18</v>
       </c>
       <c r="BB297" t="n">
-        <v>1.5</v>
+        <v>1.34</v>
       </c>
       <c r="BC297" t="n">
-        <v>1.85</v>
+        <v>1.61</v>
       </c>
       <c r="BD297" t="n">
-        <v>2.45</v>
+        <v>2.02</v>
       </c>
       <c r="BE297" t="n">
-        <v>3.4</v>
+        <v>2.65</v>
       </c>
       <c r="BF297" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="BG297" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BH297" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BI297" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="BJ297" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="BK297" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="298">
@@ -60847,7 +60847,7 @@
         <v>297</v>
       </c>
       <c r="B298" t="n">
-        <v>2569850</v>
+        <v>2569849</v>
       </c>
       <c r="C298" t="inlineStr">
         <is>
@@ -60867,65 +60867,65 @@
       </c>
       <c r="G298" t="inlineStr">
         <is>
-          <t>Ipswich Town</t>
+          <t>Fleetwood Town</t>
         </is>
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>Plymouth Argyle</t>
+          <t>Oxford United</t>
         </is>
       </c>
       <c r="I298" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J298" t="n">
         <v>0</v>
       </c>
       <c r="K298" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
       <c r="M298" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N298" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O298" t="inlineStr">
         <is>
-          <t>['63']</t>
+          <t>['44']</t>
         </is>
       </c>
       <c r="P298" t="inlineStr">
         <is>
-          <t>['90+3']</t>
+          <t>['62', '90']</t>
         </is>
       </c>
       <c r="Q298" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="R298" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S298" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="T298" t="n">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="U298" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="V298" t="n">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="W298" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="X298" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Y298" t="n">
         <v>2.75</v>
@@ -60934,115 +60934,115 @@
         <v>1.4</v>
       </c>
       <c r="AA298" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB298" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC298" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AD298" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE298" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AF298" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG298" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH298" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI298" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ298" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AK298" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL298" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM298" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN298" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AO298" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP298" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ298" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR298" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AS298" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AT298" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AU298" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AV298" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AW298" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AX298" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AY298" t="n">
         <v>7</v>
       </c>
-      <c r="AB298" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AC298" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="AD298" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="AE298" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="AF298" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AG298" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH298" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AI298" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AJ298" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AK298" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="AL298" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AM298" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AN298" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="AO298" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AP298" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AQ298" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="AR298" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="AS298" t="n">
-        <v>2</v>
-      </c>
-      <c r="AT298" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AU298" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="AV298" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="AW298" t="n">
-        <v>3.54</v>
-      </c>
-      <c r="AX298" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AY298" t="n">
-        <v>9</v>
-      </c>
       <c r="AZ298" t="n">
-        <v>4.4</v>
+        <v>2.43</v>
       </c>
       <c r="BA298" t="n">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="BB298" t="n">
-        <v>1.34</v>
+        <v>1.47</v>
       </c>
       <c r="BC298" t="n">
-        <v>1.61</v>
+        <v>1.82</v>
       </c>
       <c r="BD298" t="n">
-        <v>2.02</v>
+        <v>2.38</v>
       </c>
       <c r="BE298" t="n">
-        <v>2.65</v>
+        <v>3.25</v>
       </c>
       <c r="BF298" t="n">
         <v>7</v>
       </c>
       <c r="BG298" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BH298" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="BI298" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BJ298" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="BK298" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="299">
@@ -61050,7 +61050,7 @@
         <v>298</v>
       </c>
       <c r="B299" t="n">
-        <v>2569849</v>
+        <v>2569848</v>
       </c>
       <c r="C299" t="inlineStr">
         <is>
@@ -61070,40 +61070,40 @@
       </c>
       <c r="G299" t="inlineStr">
         <is>
-          <t>Fleetwood Town</t>
+          <t>Exeter City</t>
         </is>
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>Oxford United</t>
+          <t>Forest Green Rovers</t>
         </is>
       </c>
       <c r="I299" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J299" t="n">
         <v>0</v>
       </c>
       <c r="K299" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
       <c r="M299" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N299" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O299" t="inlineStr">
         <is>
-          <t>['44']</t>
+          <t>['75']</t>
         </is>
       </c>
       <c r="P299" t="inlineStr">
         <is>
-          <t>['62', '90']</t>
+          <t>['54']</t>
         </is>
       </c>
       <c r="Q299" t="n">
@@ -61116,19 +61116,19 @@
         <v>13</v>
       </c>
       <c r="T299" t="n">
-        <v>3.4</v>
+        <v>2.3</v>
       </c>
       <c r="U299" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="V299" t="n">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="W299" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="X299" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Y299" t="n">
         <v>2.75</v>
@@ -61137,31 +61137,31 @@
         <v>1.4</v>
       </c>
       <c r="AA299" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AB299" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="AC299" t="n">
-        <v>2.85</v>
+        <v>1.5</v>
       </c>
       <c r="AD299" t="n">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="AE299" t="n">
-        <v>2.28</v>
+        <v>5.4</v>
       </c>
       <c r="AF299" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="AG299" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AH299" t="n">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="AI299" t="n">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="AJ299" t="n">
         <v>1.93</v>
@@ -61170,82 +61170,82 @@
         <v>1.75</v>
       </c>
       <c r="AL299" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="AM299" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="AN299" t="n">
-        <v>1.6</v>
+        <v>1.18</v>
       </c>
       <c r="AO299" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AP299" t="n">
-        <v>1.4</v>
+        <v>2.15</v>
       </c>
       <c r="AQ299" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AR299" t="n">
-        <v>1.17</v>
+        <v>0.67</v>
       </c>
       <c r="AS299" t="n">
-        <v>0.92</v>
+        <v>1.46</v>
       </c>
       <c r="AT299" t="n">
-        <v>1.31</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU299" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="AV299" t="n">
-        <v>1.14</v>
+        <v>1.12</v>
       </c>
       <c r="AW299" t="n">
-        <v>2.55</v>
+        <v>2.54</v>
       </c>
       <c r="AX299" t="n">
-        <v>1.81</v>
+        <v>1.47</v>
       </c>
       <c r="AY299" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ299" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BA299" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BB299" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BC299" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BD299" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BE299" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BF299" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG299" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH299" t="n">
+        <v>15</v>
+      </c>
+      <c r="BI299" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ299" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK299" t="n">
         <v>7</v>
-      </c>
-      <c r="AZ299" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="BA299" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="BB299" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="BC299" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="BD299" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="BE299" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="BF299" t="n">
-        <v>7</v>
-      </c>
-      <c r="BG299" t="n">
-        <v>4</v>
-      </c>
-      <c r="BH299" t="n">
-        <v>11</v>
-      </c>
-      <c r="BI299" t="n">
-        <v>4</v>
-      </c>
-      <c r="BJ299" t="n">
-        <v>18</v>
-      </c>
-      <c r="BK299" t="n">
-        <v>8</v>
       </c>
     </row>
     <row r="300">
@@ -61253,7 +61253,7 @@
         <v>299</v>
       </c>
       <c r="B300" t="n">
-        <v>2569848</v>
+        <v>2569847</v>
       </c>
       <c r="C300" t="inlineStr">
         <is>
@@ -61273,182 +61273,182 @@
       </c>
       <c r="G300" t="inlineStr">
         <is>
-          <t>Exeter City</t>
+          <t>Cheltenham Town</t>
         </is>
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>Forest Green Rovers</t>
+          <t>Derby County</t>
         </is>
       </c>
       <c r="I300" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K300" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L300" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M300" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N300" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O300" t="inlineStr">
         <is>
-          <t>['75']</t>
+          <t>['2', '77']</t>
         </is>
       </c>
       <c r="P300" t="inlineStr">
         <is>
-          <t>['54']</t>
+          <t>['8', '11', '55']</t>
         </is>
       </c>
       <c r="Q300" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="R300" t="n">
         <v>3</v>
       </c>
       <c r="S300" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="T300" t="n">
-        <v>2.3</v>
+        <v>4.75</v>
       </c>
       <c r="U300" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="V300" t="n">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="W300" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X300" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y300" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z300" t="n">
         <v>1.36</v>
       </c>
-      <c r="X300" t="n">
-        <v>3</v>
-      </c>
-      <c r="Y300" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Z300" t="n">
-        <v>1.4</v>
-      </c>
       <c r="AA300" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AB300" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="AC300" t="n">
-        <v>1.5</v>
+        <v>3.8</v>
       </c>
       <c r="AD300" t="n">
-        <v>4</v>
+        <v>3.35</v>
       </c>
       <c r="AE300" t="n">
-        <v>5.4</v>
+        <v>1.85</v>
       </c>
       <c r="AF300" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="AG300" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AH300" t="n">
-        <v>1.28</v>
+        <v>1.36</v>
       </c>
       <c r="AI300" t="n">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="AJ300" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AK300" t="n">
         <v>1.75</v>
       </c>
       <c r="AL300" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AM300" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="AN300" t="n">
-        <v>1.18</v>
+        <v>2</v>
       </c>
       <c r="AO300" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP300" t="n">
         <v>1.2</v>
       </c>
-      <c r="AP300" t="n">
-        <v>2.15</v>
-      </c>
       <c r="AQ300" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AR300" t="n">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AS300" t="n">
-        <v>1.46</v>
+        <v>1.33</v>
       </c>
       <c r="AT300" t="n">
-        <v>0.6899999999999999</v>
+        <v>1.38</v>
       </c>
       <c r="AU300" t="n">
-        <v>1.42</v>
+        <v>1.48</v>
       </c>
       <c r="AV300" t="n">
-        <v>1.12</v>
+        <v>1.6</v>
       </c>
       <c r="AW300" t="n">
-        <v>2.54</v>
+        <v>3.08</v>
       </c>
       <c r="AX300" t="n">
-        <v>1.47</v>
+        <v>2.9</v>
       </c>
       <c r="AY300" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AZ300" t="n">
-        <v>3.35</v>
+        <v>1.58</v>
       </c>
       <c r="BA300" t="n">
-        <v>1.13</v>
+        <v>1.2</v>
       </c>
       <c r="BB300" t="n">
-        <v>1.29</v>
+        <v>1.38</v>
       </c>
       <c r="BC300" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="BD300" t="n">
-        <v>1.95</v>
+        <v>2.12</v>
       </c>
       <c r="BE300" t="n">
-        <v>2.43</v>
+        <v>2.85</v>
       </c>
       <c r="BF300" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BG300" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BH300" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI300" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ300" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK300" t="n">
         <v>15</v>
-      </c>
-      <c r="BI300" t="n">
-        <v>5</v>
-      </c>
-      <c r="BJ300" t="n">
-        <v>17</v>
-      </c>
-      <c r="BK300" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="301">
@@ -61456,7 +61456,7 @@
         <v>300</v>
       </c>
       <c r="B301" t="n">
-        <v>2569847</v>
+        <v>2569846</v>
       </c>
       <c r="C301" t="inlineStr">
         <is>
@@ -61476,59 +61476,59 @@
       </c>
       <c r="G301" t="inlineStr">
         <is>
-          <t>Cheltenham Town</t>
+          <t>Charlton Athletic</t>
         </is>
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>Derby County</t>
+          <t>Barnsley</t>
         </is>
       </c>
       <c r="I301" t="n">
         <v>1</v>
       </c>
       <c r="J301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K301" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L301" t="n">
         <v>2</v>
       </c>
       <c r="M301" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N301" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O301" t="inlineStr">
         <is>
-          <t>['2', '77']</t>
+          <t>['19', '61']</t>
         </is>
       </c>
       <c r="P301" t="inlineStr">
         <is>
-          <t>['8', '11', '55']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q301" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R301" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="S301" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="T301" t="n">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="U301" t="n">
         <v>2.1</v>
       </c>
       <c r="V301" t="n">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="W301" t="n">
         <v>1.4</v>
@@ -61549,109 +61549,109 @@
         <v>1.08</v>
       </c>
       <c r="AC301" t="n">
-        <v>3.8</v>
+        <v>2.7</v>
       </c>
       <c r="AD301" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="AE301" t="n">
-        <v>1.85</v>
+        <v>2.38</v>
       </c>
       <c r="AF301" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AG301" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH301" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="AI301" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="AJ301" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AK301" t="n">
         <v>1.75</v>
       </c>
       <c r="AL301" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AM301" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AN301" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AO301" t="n">
         <v>1.25</v>
       </c>
       <c r="AP301" t="n">
-        <v>1.2</v>
+        <v>1.47</v>
       </c>
       <c r="AQ301" t="n">
-        <v>1.45</v>
+        <v>1.54</v>
       </c>
       <c r="AR301" t="n">
-        <v>1.25</v>
+        <v>1.64</v>
       </c>
       <c r="AS301" t="n">
-        <v>1.33</v>
+        <v>1.64</v>
       </c>
       <c r="AT301" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU301" t="n">
-        <v>1.48</v>
+        <v>1.55</v>
       </c>
       <c r="AV301" t="n">
-        <v>1.6</v>
+        <v>1.35</v>
       </c>
       <c r="AW301" t="n">
-        <v>3.08</v>
+        <v>2.9</v>
       </c>
       <c r="AX301" t="n">
-        <v>2.9</v>
+        <v>2.08</v>
       </c>
       <c r="AY301" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AZ301" t="n">
-        <v>1.58</v>
+        <v>2.08</v>
       </c>
       <c r="BA301" t="n">
-        <v>1.2</v>
+        <v>1.27</v>
       </c>
       <c r="BB301" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="BC301" t="n">
-        <v>1.67</v>
+        <v>1.87</v>
       </c>
       <c r="BD301" t="n">
-        <v>2.12</v>
+        <v>2.45</v>
       </c>
       <c r="BE301" t="n">
-        <v>2.85</v>
+        <v>3.4</v>
       </c>
       <c r="BF301" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG301" t="n">
         <v>3</v>
       </c>
-      <c r="BG301" t="n">
-        <v>6</v>
-      </c>
       <c r="BH301" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="BI301" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="BJ301" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="BK301" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="302">
@@ -61659,7 +61659,7 @@
         <v>301</v>
       </c>
       <c r="B302" t="n">
-        <v>2569846</v>
+        <v>2569844</v>
       </c>
       <c r="C302" t="inlineStr">
         <is>
@@ -61679,98 +61679,98 @@
       </c>
       <c r="G302" t="inlineStr">
         <is>
-          <t>Charlton Athletic</t>
+          <t>Burton Albion</t>
         </is>
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>Barnsley</t>
+          <t>Shrewsbury Town</t>
         </is>
       </c>
       <c r="I302" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K302" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L302" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M302" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N302" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O302" t="inlineStr">
         <is>
-          <t>['19', '61']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P302" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['1', '43', '58', '90+4']</t>
         </is>
       </c>
       <c r="Q302" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="R302" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="S302" t="n">
         <v>11</v>
       </c>
       <c r="T302" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="U302" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="V302" t="n">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="W302" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="X302" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Y302" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Z302" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA302" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB302" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC302" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AD302" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE302" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AF302" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG302" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH302" t="n">
         <v>1.36</v>
       </c>
-      <c r="AA302" t="n">
-        <v>8</v>
-      </c>
-      <c r="AB302" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="AC302" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="AD302" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AE302" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AF302" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AG302" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH302" t="n">
-        <v>1.3</v>
-      </c>
       <c r="AI302" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="AJ302" t="n">
         <v>1.93</v>
@@ -61779,82 +61779,82 @@
         <v>1.75</v>
       </c>
       <c r="AL302" t="n">
-        <v>1.75</v>
+        <v>1.91</v>
       </c>
       <c r="AM302" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AN302" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AO302" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP302" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AQ302" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AR302" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AS302" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT302" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AU302" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AV302" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AW302" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AX302" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AY302" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ302" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BA302" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BB302" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BC302" t="n">
         <v>1.5</v>
       </c>
-      <c r="AO302" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AP302" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="AQ302" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="AR302" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="AS302" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="AT302" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AU302" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="AV302" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="AW302" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="AX302" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="AY302" t="n">
-        <v>7</v>
-      </c>
-      <c r="AZ302" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="BA302" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="BB302" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="BC302" t="n">
-        <v>1.87</v>
-      </c>
       <c r="BD302" t="n">
-        <v>2.45</v>
+        <v>1.95</v>
       </c>
       <c r="BE302" t="n">
-        <v>3.4</v>
+        <v>2.43</v>
       </c>
       <c r="BF302" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG302" t="n">
         <v>5</v>
       </c>
-      <c r="BG302" t="n">
-        <v>3</v>
-      </c>
       <c r="BH302" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="BI302" t="n">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="BJ302" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BK302" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="303">
@@ -61862,7 +61862,7 @@
         <v>302</v>
       </c>
       <c r="B303" t="n">
-        <v>2569844</v>
+        <v>2569853</v>
       </c>
       <c r="C303" t="inlineStr">
         <is>
@@ -61882,98 +61882,98 @@
       </c>
       <c r="G303" t="inlineStr">
         <is>
-          <t>Burton Albion</t>
+          <t>Wycombe Wanderers</t>
         </is>
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>Shrewsbury Town</t>
+          <t>Sheffield Wednesday</t>
         </is>
       </c>
       <c r="I303" t="n">
         <v>0</v>
       </c>
       <c r="J303" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K303" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L303" t="n">
         <v>0</v>
       </c>
       <c r="M303" t="n">
+        <v>1</v>
+      </c>
+      <c r="N303" t="n">
+        <v>1</v>
+      </c>
+      <c r="O303" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P303" t="inlineStr">
+        <is>
+          <t>['13']</t>
+        </is>
+      </c>
+      <c r="Q303" t="n">
         <v>4</v>
       </c>
-      <c r="N303" t="n">
+      <c r="R303" t="n">
+        <v>3</v>
+      </c>
+      <c r="S303" t="n">
+        <v>7</v>
+      </c>
+      <c r="T303" t="n">
         <v>4</v>
       </c>
-      <c r="O303" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P303" t="inlineStr">
-        <is>
-          <t>['1', '43', '58', '90+4']</t>
-        </is>
-      </c>
-      <c r="Q303" t="n">
-        <v>9</v>
-      </c>
-      <c r="R303" t="n">
-        <v>2</v>
-      </c>
-      <c r="S303" t="n">
+      <c r="U303" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V303" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W303" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X303" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y303" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z303" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA303" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB303" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC303" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AD303" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE303" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AF303" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG303" t="n">
         <v>11</v>
       </c>
-      <c r="T303" t="n">
-        <v>3</v>
-      </c>
-      <c r="U303" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="V303" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="W303" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="X303" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Y303" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Z303" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AA303" t="n">
-        <v>10</v>
-      </c>
-      <c r="AB303" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AC303" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="AD303" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AE303" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="AF303" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AG303" t="n">
-        <v>10</v>
-      </c>
       <c r="AH303" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="AI303" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="AJ303" t="n">
         <v>1.93</v>
@@ -61982,82 +61982,82 @@
         <v>1.75</v>
       </c>
       <c r="AL303" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AM303" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AN303" t="n">
-        <v>1.36</v>
+        <v>1.8</v>
       </c>
       <c r="AO303" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="AP303" t="n">
-        <v>1.65</v>
+        <v>1.3</v>
       </c>
       <c r="AQ303" t="n">
-        <v>1.08</v>
+        <v>1.75</v>
       </c>
       <c r="AR303" t="n">
-        <v>1.09</v>
+        <v>2</v>
       </c>
       <c r="AS303" t="n">
-        <v>1</v>
+        <v>1.62</v>
       </c>
       <c r="AT303" t="n">
-        <v>1.25</v>
+        <v>2.08</v>
       </c>
       <c r="AU303" t="n">
-        <v>1.63</v>
+        <v>1.88</v>
       </c>
       <c r="AV303" t="n">
-        <v>1.13</v>
+        <v>1.68</v>
       </c>
       <c r="AW303" t="n">
-        <v>2.76</v>
+        <v>3.56</v>
       </c>
       <c r="AX303" t="n">
-        <v>1.47</v>
+        <v>1.88</v>
       </c>
       <c r="AY303" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AZ303" t="n">
-        <v>3.35</v>
+        <v>2.3</v>
       </c>
       <c r="BA303" t="n">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="BB303" t="n">
-        <v>1.29</v>
+        <v>1.34</v>
       </c>
       <c r="BC303" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="BD303" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="BE303" t="n">
-        <v>2.43</v>
+        <v>2.65</v>
       </c>
       <c r="BF303" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BG303" t="n">
         <v>5</v>
       </c>
       <c r="BH303" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="BI303" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BJ303" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BK303" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="304">

--- a/Bases_de_Dados_(2022-2023)/England EFL League One_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/England EFL League One_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK305"/>
+  <dimension ref="A1:BK313"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AT4" t="n">
         <v>1.36</v>
@@ -1512,7 +1512,7 @@
         <v>1.5</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1918,7 +1918,7 @@
         <v>1.33</v>
       </c>
       <c r="AT7" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>2.77</v>
+        <v>2.79</v>
       </c>
       <c r="AT8" t="n">
         <v>1.5</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT9" t="n">
         <v>1.31</v>
@@ -2730,7 +2730,7 @@
         <v>1.31</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -3136,7 +3136,7 @@
         <v>2</v>
       </c>
       <c r="AT13" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3539,10 +3539,10 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT16" t="n">
         <v>1.08</v>
@@ -4148,10 +4148,10 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AT18" t="n">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -4351,10 +4351,10 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AT19" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AU19" t="n">
         <v>0</v>
@@ -5366,10 +5366,10 @@
         <v>0</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AT24" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU24" t="n">
         <v>0</v>
@@ -5975,7 +5975,7 @@
         <v>3</v>
       </c>
       <c r="AS27" t="n">
-        <v>2.77</v>
+        <v>2.79</v>
       </c>
       <c r="AT27" t="n">
         <v>1</v>
@@ -6381,7 +6381,7 @@
         <v>1</v>
       </c>
       <c r="AS29" t="n">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AT29" t="n">
         <v>0.92</v>
@@ -6587,7 +6587,7 @@
         <v>1.5</v>
       </c>
       <c r="AT30" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU30" t="n">
         <v>1.29</v>
@@ -6790,7 +6790,7 @@
         <v>1.31</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU31" t="n">
         <v>0.9</v>
@@ -6993,7 +6993,7 @@
         <v>1.31</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU32" t="n">
         <v>1.6</v>
@@ -7196,7 +7196,7 @@
         <v>2</v>
       </c>
       <c r="AT33" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU33" t="n">
         <v>2</v>
@@ -7396,7 +7396,7 @@
         <v>0</v>
       </c>
       <c r="AS34" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT34" t="n">
         <v>1.5</v>
@@ -8208,7 +8208,7 @@
         <v>0</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT38" t="n">
         <v>1.38</v>
@@ -8411,10 +8411,10 @@
         <v>0</v>
       </c>
       <c r="AS39" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT39" t="n">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU39" t="n">
         <v>0.66</v>
@@ -8817,7 +8817,7 @@
         <v>1</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AT41" t="n">
         <v>1.08</v>
@@ -9226,7 +9226,7 @@
         <v>0.92</v>
       </c>
       <c r="AT43" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU43" t="n">
         <v>0.57</v>
@@ -9632,7 +9632,7 @@
         <v>1</v>
       </c>
       <c r="AT45" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AU45" t="n">
         <v>0.53</v>
@@ -10035,7 +10035,7 @@
         <v>3</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AT47" t="n">
         <v>1.29</v>
@@ -10441,10 +10441,10 @@
         <v>3</v>
       </c>
       <c r="AS49" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT49" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AU49" t="n">
         <v>1.38</v>
@@ -10644,7 +10644,7 @@
         <v>0</v>
       </c>
       <c r="AS50" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AT50" t="n">
         <v>1.57</v>
@@ -10847,7 +10847,7 @@
         <v>1.5</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT51" t="n">
         <v>1.29</v>
@@ -11256,7 +11256,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AT53" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU53" t="n">
         <v>1.32</v>
@@ -11659,7 +11659,7 @@
         <v>0</v>
       </c>
       <c r="AS55" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AT55" t="n">
         <v>0.58</v>
@@ -11865,7 +11865,7 @@
         <v>1.64</v>
       </c>
       <c r="AT56" t="n">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU56" t="n">
         <v>1.57</v>
@@ -12271,7 +12271,7 @@
         <v>1.46</v>
       </c>
       <c r="AT58" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU58" t="n">
         <v>1.47</v>
@@ -12674,7 +12674,7 @@
         <v>0</v>
       </c>
       <c r="AS60" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AT60" t="n">
         <v>1.31</v>
@@ -13080,7 +13080,7 @@
         <v>2</v>
       </c>
       <c r="AS62" t="n">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AT62" t="n">
         <v>0.6899999999999999</v>
@@ -13486,10 +13486,10 @@
         <v>1</v>
       </c>
       <c r="AS64" t="n">
-        <v>2.77</v>
+        <v>2.79</v>
       </c>
       <c r="AT64" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU64" t="n">
         <v>2.04</v>
@@ -13692,7 +13692,7 @@
         <v>1.31</v>
       </c>
       <c r="AT65" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU65" t="n">
         <v>1.3</v>
@@ -13895,7 +13895,7 @@
         <v>1.33</v>
       </c>
       <c r="AT66" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU66" t="n">
         <v>1.42</v>
@@ -14298,7 +14298,7 @@
         <v>1.5</v>
       </c>
       <c r="AS68" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT68" t="n">
         <v>1</v>
@@ -15113,7 +15113,7 @@
         <v>1.17</v>
       </c>
       <c r="AT72" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU72" t="n">
         <v>2.24</v>
@@ -15313,7 +15313,7 @@
         <v>1</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT73" t="n">
         <v>1</v>
@@ -15519,7 +15519,7 @@
         <v>1.5</v>
       </c>
       <c r="AT74" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU74" t="n">
         <v>1.45</v>
@@ -15719,7 +15719,7 @@
         <v>0.33</v>
       </c>
       <c r="AS75" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AT75" t="n">
         <v>0.6899999999999999</v>
@@ -15922,7 +15922,7 @@
         <v>1.67</v>
       </c>
       <c r="AS76" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AT76" t="n">
         <v>1.25</v>
@@ -16331,7 +16331,7 @@
         <v>1.46</v>
       </c>
       <c r="AT78" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU78" t="n">
         <v>1.58</v>
@@ -16531,7 +16531,7 @@
         <v>0.33</v>
       </c>
       <c r="AS79" t="n">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AT79" t="n">
         <v>1.5</v>
@@ -17346,7 +17346,7 @@
         <v>1.17</v>
       </c>
       <c r="AT83" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AU83" t="n">
         <v>2.04</v>
@@ -17546,7 +17546,7 @@
         <v>1</v>
       </c>
       <c r="AS84" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT84" t="n">
         <v>1.57</v>
@@ -17749,10 +17749,10 @@
         <v>2</v>
       </c>
       <c r="AS85" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AT85" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU85" t="n">
         <v>1.43</v>
@@ -18155,7 +18155,7 @@
         <v>1</v>
       </c>
       <c r="AS87" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AT87" t="n">
         <v>1.31</v>
@@ -18767,7 +18767,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AT90" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU90" t="n">
         <v>1.3</v>
@@ -19170,10 +19170,10 @@
         <v>0.67</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT92" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU92" t="n">
         <v>1.17</v>
@@ -19373,7 +19373,7 @@
         <v>1</v>
       </c>
       <c r="AS93" t="n">
-        <v>2.77</v>
+        <v>2.79</v>
       </c>
       <c r="AT93" t="n">
         <v>1.31</v>
@@ -19782,7 +19782,7 @@
         <v>1.62</v>
       </c>
       <c r="AT95" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU95" t="n">
         <v>2.16</v>
@@ -19985,7 +19985,7 @@
         <v>2.08</v>
       </c>
       <c r="AT96" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU96" t="n">
         <v>2.02</v>
@@ -20188,7 +20188,7 @@
         <v>1.33</v>
       </c>
       <c r="AT97" t="n">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU97" t="n">
         <v>1.29</v>
@@ -20391,7 +20391,7 @@
         <v>1.17</v>
       </c>
       <c r="AT98" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU98" t="n">
         <v>1.83</v>
@@ -21403,10 +21403,10 @@
         <v>0.75</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AT103" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU103" t="n">
         <v>1.9</v>
@@ -21809,7 +21809,7 @@
         <v>1.5</v>
       </c>
       <c r="AS105" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT105" t="n">
         <v>1.57</v>
@@ -22012,10 +22012,10 @@
         <v>3</v>
       </c>
       <c r="AS106" t="n">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AT106" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AU106" t="n">
         <v>1.56</v>
@@ -22215,7 +22215,7 @@
         <v>1</v>
       </c>
       <c r="AS107" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT107" t="n">
         <v>1.31</v>
@@ -22418,7 +22418,7 @@
         <v>0.5</v>
       </c>
       <c r="AS108" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AT108" t="n">
         <v>0.58</v>
@@ -22824,10 +22824,10 @@
         <v>0.5</v>
       </c>
       <c r="AS110" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AT110" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU110" t="n">
         <v>1.37</v>
@@ -23027,7 +23027,7 @@
         <v>0.6</v>
       </c>
       <c r="AS111" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AT111" t="n">
         <v>0.92</v>
@@ -23233,7 +23233,7 @@
         <v>1.46</v>
       </c>
       <c r="AT112" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU112" t="n">
         <v>1.62</v>
@@ -23436,7 +23436,7 @@
         <v>1.31</v>
       </c>
       <c r="AT113" t="n">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU113" t="n">
         <v>1.33</v>
@@ -23839,7 +23839,7 @@
         <v>0.8</v>
       </c>
       <c r="AS115" t="n">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AT115" t="n">
         <v>1.31</v>
@@ -24042,7 +24042,7 @@
         <v>0.8</v>
       </c>
       <c r="AS116" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT116" t="n">
         <v>0.6899999999999999</v>
@@ -24245,10 +24245,10 @@
         <v>2.6</v>
       </c>
       <c r="AS117" t="n">
-        <v>2.77</v>
+        <v>2.79</v>
       </c>
       <c r="AT117" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AU117" t="n">
         <v>1.83</v>
@@ -26887,7 +26887,7 @@
         <v>1</v>
       </c>
       <c r="AT130" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU130" t="n">
         <v>1.28</v>
@@ -27090,7 +27090,7 @@
         <v>1.33</v>
       </c>
       <c r="AT131" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU131" t="n">
         <v>1.38</v>
@@ -27293,7 +27293,7 @@
         <v>2</v>
       </c>
       <c r="AT132" t="n">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU132" t="n">
         <v>2.02</v>
@@ -27493,7 +27493,7 @@
         <v>2.4</v>
       </c>
       <c r="AS133" t="n">
-        <v>2.77</v>
+        <v>2.79</v>
       </c>
       <c r="AT133" t="n">
         <v>2.08</v>
@@ -27902,7 +27902,7 @@
         <v>1.46</v>
       </c>
       <c r="AT135" t="n">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU135" t="n">
         <v>1.5</v>
@@ -28102,10 +28102,10 @@
         <v>1</v>
       </c>
       <c r="AS136" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AT136" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU136" t="n">
         <v>1.63</v>
@@ -28308,7 +28308,7 @@
         <v>1.31</v>
       </c>
       <c r="AT137" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AU137" t="n">
         <v>1.27</v>
@@ -28508,7 +28508,7 @@
         <v>0.67</v>
       </c>
       <c r="AS138" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AT138" t="n">
         <v>1.31</v>
@@ -28914,10 +28914,10 @@
         <v>1.4</v>
       </c>
       <c r="AS140" t="n">
-        <v>2.77</v>
+        <v>2.79</v>
       </c>
       <c r="AT140" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU140" t="n">
         <v>1.91</v>
@@ -29117,10 +29117,10 @@
         <v>1.6</v>
       </c>
       <c r="AS141" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT141" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU141" t="n">
         <v>1.5</v>
@@ -29320,10 +29320,10 @@
         <v>1</v>
       </c>
       <c r="AS142" t="n">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AT142" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU142" t="n">
         <v>1.59</v>
@@ -29523,7 +29523,7 @@
         <v>0.8</v>
       </c>
       <c r="AS143" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT143" t="n">
         <v>1.31</v>
@@ -29726,10 +29726,10 @@
         <v>1</v>
       </c>
       <c r="AS144" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AT144" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU144" t="n">
         <v>1.35</v>
@@ -29929,10 +29929,10 @@
         <v>1.2</v>
       </c>
       <c r="AS145" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT145" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU145" t="n">
         <v>1.24</v>
@@ -30135,7 +30135,7 @@
         <v>1.64</v>
       </c>
       <c r="AT146" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU146" t="n">
         <v>1.64</v>
@@ -33583,7 +33583,7 @@
         <v>0.86</v>
       </c>
       <c r="AS163" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AT163" t="n">
         <v>1</v>
@@ -34192,7 +34192,7 @@
         <v>1.67</v>
       </c>
       <c r="AS166" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AT166" t="n">
         <v>1.36</v>
@@ -34398,7 +34398,7 @@
         <v>1.46</v>
       </c>
       <c r="AT167" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU167" t="n">
         <v>1.54</v>
@@ -34804,7 +34804,7 @@
         <v>1</v>
       </c>
       <c r="AT169" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU169" t="n">
         <v>1.42</v>
@@ -35210,7 +35210,7 @@
         <v>1.17</v>
       </c>
       <c r="AT171" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU171" t="n">
         <v>1.62</v>
@@ -35410,7 +35410,7 @@
         <v>0.57</v>
       </c>
       <c r="AS172" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT172" t="n">
         <v>0.92</v>
@@ -35616,7 +35616,7 @@
         <v>1.62</v>
       </c>
       <c r="AT173" t="n">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU173" t="n">
         <v>2</v>
@@ -35816,7 +35816,7 @@
         <v>1.17</v>
       </c>
       <c r="AS174" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT174" t="n">
         <v>1.31</v>
@@ -36019,7 +36019,7 @@
         <v>1.57</v>
       </c>
       <c r="AS175" t="n">
-        <v>2.77</v>
+        <v>2.79</v>
       </c>
       <c r="AT175" t="n">
         <v>1.25</v>
@@ -36225,7 +36225,7 @@
         <v>2.08</v>
       </c>
       <c r="AT176" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU176" t="n">
         <v>2.07</v>
@@ -36628,10 +36628,10 @@
         <v>1.14</v>
       </c>
       <c r="AS178" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT178" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU178" t="n">
         <v>1.73</v>
@@ -37037,7 +37037,7 @@
         <v>1.64</v>
       </c>
       <c r="AT180" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU180" t="n">
         <v>1.63</v>
@@ -37443,7 +37443,7 @@
         <v>1.5</v>
       </c>
       <c r="AT182" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AU182" t="n">
         <v>1.53</v>
@@ -37643,7 +37643,7 @@
         <v>1.43</v>
       </c>
       <c r="AS183" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AT183" t="n">
         <v>1.08</v>
@@ -37846,7 +37846,7 @@
         <v>1.43</v>
       </c>
       <c r="AS184" t="n">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AT184" t="n">
         <v>1.29</v>
@@ -38052,7 +38052,7 @@
         <v>0.92</v>
       </c>
       <c r="AT185" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU185" t="n">
         <v>1.42</v>
@@ -38252,7 +38252,7 @@
         <v>1.38</v>
       </c>
       <c r="AS186" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT186" t="n">
         <v>1.29</v>
@@ -38458,7 +38458,7 @@
         <v>1.33</v>
       </c>
       <c r="AT187" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU187" t="n">
         <v>1.47</v>
@@ -38661,7 +38661,7 @@
         <v>1.64</v>
       </c>
       <c r="AT188" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AU188" t="n">
         <v>1.55</v>
@@ -39064,7 +39064,7 @@
         <v>0.88</v>
       </c>
       <c r="AS190" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AT190" t="n">
         <v>0.6899999999999999</v>
@@ -39270,7 +39270,7 @@
         <v>2.08</v>
       </c>
       <c r="AT191" t="n">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU191" t="n">
         <v>1.98</v>
@@ -39673,7 +39673,7 @@
         <v>0.63</v>
       </c>
       <c r="AS193" t="n">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AT193" t="n">
         <v>0.6899999999999999</v>
@@ -39876,7 +39876,7 @@
         <v>1.38</v>
       </c>
       <c r="AS194" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT194" t="n">
         <v>1.25</v>
@@ -40282,10 +40282,10 @@
         <v>1.13</v>
       </c>
       <c r="AS196" t="n">
-        <v>2.77</v>
+        <v>2.79</v>
       </c>
       <c r="AT196" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU196" t="n">
         <v>1.78</v>
@@ -40688,10 +40688,10 @@
         <v>1.29</v>
       </c>
       <c r="AS198" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AT198" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU198" t="n">
         <v>1.92</v>
@@ -41097,7 +41097,7 @@
         <v>1.33</v>
       </c>
       <c r="AT200" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU200" t="n">
         <v>1.15</v>
@@ -41297,7 +41297,7 @@
         <v>1.38</v>
       </c>
       <c r="AS201" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT201" t="n">
         <v>1.31</v>
@@ -41500,7 +41500,7 @@
         <v>1.38</v>
       </c>
       <c r="AS202" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT202" t="n">
         <v>1.5</v>
@@ -41703,7 +41703,7 @@
         <v>1.38</v>
       </c>
       <c r="AS203" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AT203" t="n">
         <v>1.31</v>
@@ -42518,7 +42518,7 @@
         <v>2</v>
       </c>
       <c r="AT207" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU207" t="n">
         <v>2.16</v>
@@ -42921,7 +42921,7 @@
         <v>1.25</v>
       </c>
       <c r="AS209" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AT209" t="n">
         <v>1.31</v>
@@ -43330,7 +43330,7 @@
         <v>1.46</v>
       </c>
       <c r="AT211" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU211" t="n">
         <v>1.6</v>
@@ -43736,7 +43736,7 @@
         <v>1.31</v>
       </c>
       <c r="AT213" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU213" t="n">
         <v>1.37</v>
@@ -43936,7 +43936,7 @@
         <v>1.33</v>
       </c>
       <c r="AS214" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT214" t="n">
         <v>1.38</v>
@@ -44142,7 +44142,7 @@
         <v>1.46</v>
       </c>
       <c r="AT215" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AU215" t="n">
         <v>1.46</v>
@@ -44342,7 +44342,7 @@
         <v>0.78</v>
       </c>
       <c r="AS216" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AT216" t="n">
         <v>0.6899999999999999</v>
@@ -44545,7 +44545,7 @@
         <v>1.33</v>
       </c>
       <c r="AS217" t="n">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AT217" t="n">
         <v>1.25</v>
@@ -44954,7 +44954,7 @@
         <v>0.92</v>
       </c>
       <c r="AT219" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU219" t="n">
         <v>1.43</v>
@@ -45966,10 +45966,10 @@
         <v>1.25</v>
       </c>
       <c r="AS224" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AT224" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU224" t="n">
         <v>1.6</v>
@@ -46172,7 +46172,7 @@
         <v>1.31</v>
       </c>
       <c r="AT225" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU225" t="n">
         <v>1.37</v>
@@ -46375,7 +46375,7 @@
         <v>1.64</v>
       </c>
       <c r="AT226" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU226" t="n">
         <v>1.5</v>
@@ -46781,7 +46781,7 @@
         <v>1.31</v>
       </c>
       <c r="AT228" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU228" t="n">
         <v>1.28</v>
@@ -46981,7 +46981,7 @@
         <v>1.22</v>
       </c>
       <c r="AS229" t="n">
-        <v>2.77</v>
+        <v>2.79</v>
       </c>
       <c r="AT229" t="n">
         <v>1.31</v>
@@ -47390,7 +47390,7 @@
         <v>2</v>
       </c>
       <c r="AT231" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU231" t="n">
         <v>2.27</v>
@@ -47590,7 +47590,7 @@
         <v>1.44</v>
       </c>
       <c r="AS232" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT232" t="n">
         <v>1.08</v>
@@ -47996,7 +47996,7 @@
         <v>2.11</v>
       </c>
       <c r="AS234" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT234" t="n">
         <v>2.08</v>
@@ -48199,10 +48199,10 @@
         <v>0.78</v>
       </c>
       <c r="AS235" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AT235" t="n">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU235" t="n">
         <v>1.28</v>
@@ -48808,10 +48808,10 @@
         <v>1.33</v>
       </c>
       <c r="AS238" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT238" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU238" t="n">
         <v>1.31</v>
@@ -49214,10 +49214,10 @@
         <v>1</v>
       </c>
       <c r="AS240" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AT240" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU240" t="n">
         <v>1.3</v>
@@ -49623,7 +49623,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AT242" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU242" t="n">
         <v>1.25</v>
@@ -50638,7 +50638,7 @@
         <v>2</v>
       </c>
       <c r="AT247" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU247" t="n">
         <v>1.61</v>
@@ -50841,7 +50841,7 @@
         <v>1.62</v>
       </c>
       <c r="AT248" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AU248" t="n">
         <v>2.01</v>
@@ -51041,7 +51041,7 @@
         <v>0.7</v>
       </c>
       <c r="AS249" t="n">
-        <v>2.77</v>
+        <v>2.79</v>
       </c>
       <c r="AT249" t="n">
         <v>0.58</v>
@@ -51244,7 +51244,7 @@
         <v>0.8</v>
       </c>
       <c r="AS250" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT250" t="n">
         <v>0.6899999999999999</v>
@@ -51447,7 +51447,7 @@
         <v>0.6</v>
       </c>
       <c r="AS251" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AT251" t="n">
         <v>0.6899999999999999</v>
@@ -51853,7 +51853,7 @@
         <v>1.3</v>
       </c>
       <c r="AS253" t="n">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AT253" t="n">
         <v>1.31</v>
@@ -52056,10 +52056,10 @@
         <v>1.11</v>
       </c>
       <c r="AS254" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT254" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU254" t="n">
         <v>1.44</v>
@@ -54695,10 +54695,10 @@
         <v>0.9</v>
       </c>
       <c r="AS267" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT267" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU267" t="n">
         <v>1.31</v>
@@ -54898,10 +54898,10 @@
         <v>2.09</v>
       </c>
       <c r="AS268" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT268" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AU268" t="n">
         <v>1.49</v>
@@ -55101,7 +55101,7 @@
         <v>1.27</v>
       </c>
       <c r="AS269" t="n">
-        <v>2.77</v>
+        <v>2.79</v>
       </c>
       <c r="AT269" t="n">
         <v>1.31</v>
@@ -55307,7 +55307,7 @@
         <v>2.08</v>
       </c>
       <c r="AT270" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU270" t="n">
         <v>1.87</v>
@@ -55507,7 +55507,7 @@
         <v>0.8</v>
       </c>
       <c r="AS271" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AT271" t="n">
         <v>0.92</v>
@@ -55713,7 +55713,7 @@
         <v>1.31</v>
       </c>
       <c r="AT272" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU272" t="n">
         <v>1.26</v>
@@ -55913,7 +55913,7 @@
         <v>0.55</v>
       </c>
       <c r="AS273" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AT273" t="n">
         <v>0.6899999999999999</v>
@@ -56119,7 +56119,7 @@
         <v>1.46</v>
       </c>
       <c r="AT274" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU274" t="n">
         <v>1.62</v>
@@ -56319,7 +56319,7 @@
         <v>1.27</v>
       </c>
       <c r="AS275" t="n">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AT275" t="n">
         <v>1.31</v>
@@ -56522,10 +56522,10 @@
         <v>1.36</v>
       </c>
       <c r="AS276" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AT276" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU276" t="n">
         <v>1.65</v>
@@ -56728,7 +56728,7 @@
         <v>1.33</v>
       </c>
       <c r="AT277" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU277" t="n">
         <v>1.22</v>
@@ -56928,10 +56928,10 @@
         <v>0.7</v>
       </c>
       <c r="AS278" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT278" t="n">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU278" t="n">
         <v>1.64</v>
@@ -57134,7 +57134,7 @@
         <v>1.46</v>
       </c>
       <c r="AT279" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU279" t="n">
         <v>1.63</v>
@@ -57334,7 +57334,7 @@
         <v>1.17</v>
       </c>
       <c r="AS280" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AT280" t="n">
         <v>1.31</v>
@@ -57740,10 +57740,10 @@
         <v>1.08</v>
       </c>
       <c r="AS282" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AT282" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU282" t="n">
         <v>1.86</v>
@@ -58146,10 +58146,10 @@
         <v>1.18</v>
       </c>
       <c r="AS284" t="n">
-        <v>2.77</v>
+        <v>2.79</v>
       </c>
       <c r="AT284" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU284" t="n">
         <v>1.83</v>
@@ -58349,7 +58349,7 @@
         <v>0.73</v>
       </c>
       <c r="AS285" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT285" t="n">
         <v>0.92</v>
@@ -58552,10 +58552,10 @@
         <v>1.25</v>
       </c>
       <c r="AS286" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT286" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU286" t="n">
         <v>1.33</v>
@@ -58758,7 +58758,7 @@
         <v>1.33</v>
       </c>
       <c r="AT287" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AU287" t="n">
         <v>1.17</v>
@@ -58958,10 +58958,10 @@
         <v>1</v>
       </c>
       <c r="AS288" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT288" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU288" t="n">
         <v>1.66</v>
@@ -59161,10 +59161,10 @@
         <v>1.18</v>
       </c>
       <c r="AS289" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AT289" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU289" t="n">
         <v>1.64</v>
@@ -59364,10 +59364,10 @@
         <v>0.64</v>
       </c>
       <c r="AS290" t="n">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AT290" t="n">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU290" t="n">
         <v>1.71</v>
@@ -59976,7 +59976,7 @@
         <v>1.31</v>
       </c>
       <c r="AT293" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU293" t="n">
         <v>1.33</v>
@@ -62464,6 +62464,1630 @@
       </c>
       <c r="BK305" t="n">
         <v>15</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="1" t="n">
+        <v>305</v>
+      </c>
+      <c r="B306" t="n">
+        <v>2569860</v>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E306" s="2" t="n">
+        <v>44947.5</v>
+      </c>
+      <c r="F306" t="n">
+        <v>28</v>
+      </c>
+      <c r="G306" t="inlineStr">
+        <is>
+          <t>Oxford United</t>
+        </is>
+      </c>
+      <c r="H306" t="inlineStr">
+        <is>
+          <t>Ipswich Town</t>
+        </is>
+      </c>
+      <c r="I306" t="n">
+        <v>1</v>
+      </c>
+      <c r="J306" t="n">
+        <v>1</v>
+      </c>
+      <c r="K306" t="n">
+        <v>2</v>
+      </c>
+      <c r="L306" t="n">
+        <v>2</v>
+      </c>
+      <c r="M306" t="n">
+        <v>1</v>
+      </c>
+      <c r="N306" t="n">
+        <v>3</v>
+      </c>
+      <c r="O306" t="inlineStr">
+        <is>
+          <t>['34', '83']</t>
+        </is>
+      </c>
+      <c r="P306" t="inlineStr">
+        <is>
+          <t>['38']</t>
+        </is>
+      </c>
+      <c r="Q306" t="n">
+        <v>3</v>
+      </c>
+      <c r="R306" t="n">
+        <v>5</v>
+      </c>
+      <c r="S306" t="n">
+        <v>8</v>
+      </c>
+      <c r="T306" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="U306" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V306" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="W306" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X306" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Y306" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Z306" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AA306" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AB306" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC306" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AD306" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AE306" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AF306" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG306" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH306" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI306" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ306" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AK306" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AL306" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM306" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN306" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AO306" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP306" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AQ306" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR306" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AS306" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AT306" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AU306" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AV306" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AW306" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="AX306" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AY306" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ306" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BA306" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB306" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BC306" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BD306" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BE306" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF306" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG306" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH306" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI306" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ306" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK306" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="1" t="n">
+        <v>306</v>
+      </c>
+      <c r="B307" t="n">
+        <v>2569863</v>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E307" s="2" t="n">
+        <v>44947.5</v>
+      </c>
+      <c r="F307" t="n">
+        <v>28</v>
+      </c>
+      <c r="G307" t="inlineStr">
+        <is>
+          <t>Portsmouth</t>
+        </is>
+      </c>
+      <c r="H307" t="inlineStr">
+        <is>
+          <t>Exeter City</t>
+        </is>
+      </c>
+      <c r="I307" t="n">
+        <v>0</v>
+      </c>
+      <c r="J307" t="n">
+        <v>0</v>
+      </c>
+      <c r="K307" t="n">
+        <v>0</v>
+      </c>
+      <c r="L307" t="n">
+        <v>2</v>
+      </c>
+      <c r="M307" t="n">
+        <v>0</v>
+      </c>
+      <c r="N307" t="n">
+        <v>2</v>
+      </c>
+      <c r="O307" t="inlineStr">
+        <is>
+          <t>['57', '74']</t>
+        </is>
+      </c>
+      <c r="P307" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q307" t="n">
+        <v>7</v>
+      </c>
+      <c r="R307" t="n">
+        <v>10</v>
+      </c>
+      <c r="S307" t="n">
+        <v>17</v>
+      </c>
+      <c r="T307" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="U307" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V307" t="n">
+        <v>4</v>
+      </c>
+      <c r="W307" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="X307" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Y307" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Z307" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AA307" t="n">
+        <v>7.35</v>
+      </c>
+      <c r="AB307" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC307" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD307" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AE307" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AF307" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG307" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH307" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI307" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ307" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AK307" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AL307" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AM307" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN307" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO307" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP307" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AQ307" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR307" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AS307" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AT307" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AU307" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AV307" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AW307" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AX307" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AY307" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ307" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BA307" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BB307" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BC307" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BD307" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BE307" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BF307" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG307" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH307" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI307" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ307" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK307" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="1" t="n">
+        <v>307</v>
+      </c>
+      <c r="B308" t="n">
+        <v>2569857</v>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E308" s="2" t="n">
+        <v>44947.5</v>
+      </c>
+      <c r="F308" t="n">
+        <v>28</v>
+      </c>
+      <c r="G308" t="inlineStr">
+        <is>
+          <t>Forest Green Rovers</t>
+        </is>
+      </c>
+      <c r="H308" t="inlineStr">
+        <is>
+          <t>Milton Keynes Dons</t>
+        </is>
+      </c>
+      <c r="I308" t="n">
+        <v>1</v>
+      </c>
+      <c r="J308" t="n">
+        <v>1</v>
+      </c>
+      <c r="K308" t="n">
+        <v>2</v>
+      </c>
+      <c r="L308" t="n">
+        <v>1</v>
+      </c>
+      <c r="M308" t="n">
+        <v>2</v>
+      </c>
+      <c r="N308" t="n">
+        <v>3</v>
+      </c>
+      <c r="O308" t="inlineStr">
+        <is>
+          <t>['29']</t>
+        </is>
+      </c>
+      <c r="P308" t="inlineStr">
+        <is>
+          <t>['43', '51']</t>
+        </is>
+      </c>
+      <c r="Q308" t="n">
+        <v>3</v>
+      </c>
+      <c r="R308" t="n">
+        <v>3</v>
+      </c>
+      <c r="S308" t="n">
+        <v>6</v>
+      </c>
+      <c r="T308" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U308" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V308" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W308" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="X308" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Y308" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Z308" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AA308" t="n">
+        <v>7.35</v>
+      </c>
+      <c r="AB308" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC308" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AD308" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="AE308" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AF308" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG308" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH308" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI308" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ308" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK308" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AL308" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AM308" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN308" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AO308" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP308" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AQ308" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AR308" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AS308" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AT308" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AU308" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AV308" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AW308" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AX308" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AY308" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ308" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BA308" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB308" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BC308" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BD308" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE308" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BF308" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG308" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH308" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI308" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ308" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK308" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="1" t="n">
+        <v>308</v>
+      </c>
+      <c r="B309" t="n">
+        <v>2569856</v>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E309" s="2" t="n">
+        <v>44947.5</v>
+      </c>
+      <c r="F309" t="n">
+        <v>28</v>
+      </c>
+      <c r="G309" t="inlineStr">
+        <is>
+          <t>Derby County</t>
+        </is>
+      </c>
+      <c r="H309" t="inlineStr">
+        <is>
+          <t>Bolton Wanderers</t>
+        </is>
+      </c>
+      <c r="I309" t="n">
+        <v>1</v>
+      </c>
+      <c r="J309" t="n">
+        <v>0</v>
+      </c>
+      <c r="K309" t="n">
+        <v>1</v>
+      </c>
+      <c r="L309" t="n">
+        <v>2</v>
+      </c>
+      <c r="M309" t="n">
+        <v>1</v>
+      </c>
+      <c r="N309" t="n">
+        <v>3</v>
+      </c>
+      <c r="O309" t="inlineStr">
+        <is>
+          <t>['16', '72']</t>
+        </is>
+      </c>
+      <c r="P309" t="inlineStr">
+        <is>
+          <t>['90+3']</t>
+        </is>
+      </c>
+      <c r="Q309" t="n">
+        <v>5</v>
+      </c>
+      <c r="R309" t="n">
+        <v>4</v>
+      </c>
+      <c r="S309" t="n">
+        <v>9</v>
+      </c>
+      <c r="T309" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U309" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V309" t="n">
+        <v>4</v>
+      </c>
+      <c r="W309" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X309" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Y309" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z309" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA309" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB309" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC309" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AD309" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE309" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AF309" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG309" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH309" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI309" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AJ309" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK309" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AL309" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM309" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN309" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO309" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP309" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AQ309" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AR309" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS309" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AT309" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AU309" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AV309" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AW309" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="AX309" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AY309" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ309" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BA309" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB309" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BC309" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BD309" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BE309" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BF309" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG309" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH309" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI309" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ309" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK309" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="1" t="n">
+        <v>309</v>
+      </c>
+      <c r="B310" t="n">
+        <v>2569854</v>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E310" s="2" t="n">
+        <v>44947.5</v>
+      </c>
+      <c r="F310" t="n">
+        <v>28</v>
+      </c>
+      <c r="G310" t="inlineStr">
+        <is>
+          <t>Barnsley</t>
+        </is>
+      </c>
+      <c r="H310" t="inlineStr">
+        <is>
+          <t>Accrington Stanley</t>
+        </is>
+      </c>
+      <c r="I310" t="n">
+        <v>3</v>
+      </c>
+      <c r="J310" t="n">
+        <v>0</v>
+      </c>
+      <c r="K310" t="n">
+        <v>3</v>
+      </c>
+      <c r="L310" t="n">
+        <v>3</v>
+      </c>
+      <c r="M310" t="n">
+        <v>1</v>
+      </c>
+      <c r="N310" t="n">
+        <v>4</v>
+      </c>
+      <c r="O310" t="inlineStr">
+        <is>
+          <t>['5', '8', '19']</t>
+        </is>
+      </c>
+      <c r="P310" t="inlineStr">
+        <is>
+          <t>['90+4']</t>
+        </is>
+      </c>
+      <c r="Q310" t="n">
+        <v>8</v>
+      </c>
+      <c r="R310" t="n">
+        <v>2</v>
+      </c>
+      <c r="S310" t="n">
+        <v>10</v>
+      </c>
+      <c r="T310" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U310" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V310" t="n">
+        <v>5</v>
+      </c>
+      <c r="W310" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="X310" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="Y310" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="Z310" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AA310" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="AB310" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC310" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AD310" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="AE310" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AF310" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG310" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH310" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI310" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ310" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AK310" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AL310" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AM310" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN310" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AO310" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP310" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AQ310" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AR310" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AS310" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AT310" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="AU310" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AV310" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AW310" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="AX310" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AY310" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ310" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BA310" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB310" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BC310" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BD310" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BE310" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF310" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG310" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH310" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI310" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ310" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK310" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="1" t="n">
+        <v>310</v>
+      </c>
+      <c r="B311" t="n">
+        <v>2569865</v>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E311" s="2" t="n">
+        <v>44947.5</v>
+      </c>
+      <c r="F311" t="n">
+        <v>28</v>
+      </c>
+      <c r="G311" t="inlineStr">
+        <is>
+          <t>Shrewsbury Town</t>
+        </is>
+      </c>
+      <c r="H311" t="inlineStr">
+        <is>
+          <t>Cambridge United</t>
+        </is>
+      </c>
+      <c r="I311" t="n">
+        <v>2</v>
+      </c>
+      <c r="J311" t="n">
+        <v>0</v>
+      </c>
+      <c r="K311" t="n">
+        <v>2</v>
+      </c>
+      <c r="L311" t="n">
+        <v>5</v>
+      </c>
+      <c r="M311" t="n">
+        <v>1</v>
+      </c>
+      <c r="N311" t="n">
+        <v>6</v>
+      </c>
+      <c r="O311" t="inlineStr">
+        <is>
+          <t>['33', '45+5', '57', '71', '90+1']</t>
+        </is>
+      </c>
+      <c r="P311" t="inlineStr">
+        <is>
+          <t>['69']</t>
+        </is>
+      </c>
+      <c r="Q311" t="n">
+        <v>7</v>
+      </c>
+      <c r="R311" t="n">
+        <v>5</v>
+      </c>
+      <c r="S311" t="n">
+        <v>12</v>
+      </c>
+      <c r="T311" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U311" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V311" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="W311" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X311" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Y311" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Z311" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA311" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AB311" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC311" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AD311" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE311" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="AF311" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG311" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH311" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI311" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ311" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AK311" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AL311" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AM311" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN311" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AO311" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP311" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ311" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AR311" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="AS311" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AT311" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="AU311" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AV311" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AW311" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AX311" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AY311" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ311" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BA311" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB311" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BC311" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BD311" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE311" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BF311" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG311" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH311" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI311" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ311" t="n">
+        <v>20</v>
+      </c>
+      <c r="BK311" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="1" t="n">
+        <v>311</v>
+      </c>
+      <c r="B312" t="n">
+        <v>2569864</v>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E312" s="2" t="n">
+        <v>44947.5</v>
+      </c>
+      <c r="F312" t="n">
+        <v>28</v>
+      </c>
+      <c r="G312" t="inlineStr">
+        <is>
+          <t>Sheffield Wednesday</t>
+        </is>
+      </c>
+      <c r="H312" t="inlineStr">
+        <is>
+          <t>Fleetwood Town</t>
+        </is>
+      </c>
+      <c r="I312" t="n">
+        <v>1</v>
+      </c>
+      <c r="J312" t="n">
+        <v>0</v>
+      </c>
+      <c r="K312" t="n">
+        <v>1</v>
+      </c>
+      <c r="L312" t="n">
+        <v>1</v>
+      </c>
+      <c r="M312" t="n">
+        <v>0</v>
+      </c>
+      <c r="N312" t="n">
+        <v>1</v>
+      </c>
+      <c r="O312" t="inlineStr">
+        <is>
+          <t>['17']</t>
+        </is>
+      </c>
+      <c r="P312" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q312" t="n">
+        <v>4</v>
+      </c>
+      <c r="R312" t="n">
+        <v>2</v>
+      </c>
+      <c r="S312" t="n">
+        <v>6</v>
+      </c>
+      <c r="T312" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="U312" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="V312" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="W312" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X312" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Y312" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Z312" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AA312" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AB312" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC312" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AD312" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AE312" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AF312" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG312" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH312" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI312" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AJ312" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AK312" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AL312" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AM312" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN312" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AO312" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP312" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AQ312" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AR312" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AS312" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AT312" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AU312" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AV312" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AW312" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="AX312" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AY312" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AZ312" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="BA312" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BB312" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BC312" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BD312" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE312" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF312" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG312" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH312" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI312" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ312" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK312" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="1" t="n">
+        <v>312</v>
+      </c>
+      <c r="B313" t="n">
+        <v>2569862</v>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E313" s="2" t="n">
+        <v>44947.5</v>
+      </c>
+      <c r="F313" t="n">
+        <v>28</v>
+      </c>
+      <c r="G313" t="inlineStr">
+        <is>
+          <t>Plymouth Argyle</t>
+        </is>
+      </c>
+      <c r="H313" t="inlineStr">
+        <is>
+          <t>Cheltenham Town</t>
+        </is>
+      </c>
+      <c r="I313" t="n">
+        <v>2</v>
+      </c>
+      <c r="J313" t="n">
+        <v>1</v>
+      </c>
+      <c r="K313" t="n">
+        <v>3</v>
+      </c>
+      <c r="L313" t="n">
+        <v>4</v>
+      </c>
+      <c r="M313" t="n">
+        <v>2</v>
+      </c>
+      <c r="N313" t="n">
+        <v>6</v>
+      </c>
+      <c r="O313" t="inlineStr">
+        <is>
+          <t>['26', '28', '64', '83']</t>
+        </is>
+      </c>
+      <c r="P313" t="inlineStr">
+        <is>
+          <t>['40', '70']</t>
+        </is>
+      </c>
+      <c r="Q313" t="n">
+        <v>6</v>
+      </c>
+      <c r="R313" t="n">
+        <v>5</v>
+      </c>
+      <c r="S313" t="n">
+        <v>11</v>
+      </c>
+      <c r="T313" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U313" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V313" t="n">
+        <v>6</v>
+      </c>
+      <c r="W313" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X313" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Y313" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Z313" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AA313" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AB313" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC313" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AD313" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE313" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AF313" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG313" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH313" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI313" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ313" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK313" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AL313" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AM313" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN313" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AO313" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AP313" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AQ313" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AR313" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AS313" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AT313" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AU313" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AV313" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AW313" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AX313" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AY313" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ313" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="BA313" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB313" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BC313" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BD313" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BE313" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF313" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG313" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH313" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI313" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ313" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK313" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/England EFL League One_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/England EFL League One_20222023.xlsx
@@ -54554,7 +54554,7 @@
         <v>266</v>
       </c>
       <c r="B267" t="n">
-        <v>2569017</v>
+        <v>2569013</v>
       </c>
       <c r="C267" t="inlineStr">
         <is>
@@ -54574,59 +54574,59 @@
       </c>
       <c r="G267" t="inlineStr">
         <is>
-          <t>Shrewsbury Town</t>
+          <t>Peterborough United</t>
         </is>
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>Cheltenham Town</t>
+          <t>Milton Keynes Dons</t>
         </is>
       </c>
       <c r="I267" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J267" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K267" t="n">
         <v>1</v>
       </c>
       <c r="L267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M267" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N267" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O267" t="inlineStr">
         <is>
+          <t>['38', '48']</t>
+        </is>
+      </c>
+      <c r="P267" t="inlineStr">
+        <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="P267" t="inlineStr">
-        <is>
-          <t>['38']</t>
-        </is>
-      </c>
       <c r="Q267" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="R267" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S267" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="T267" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U267" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="V267" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="W267" t="n">
         <v>1.44</v>
@@ -54635,43 +54635,43 @@
         <v>2.63</v>
       </c>
       <c r="Y267" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Z267" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="AA267" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AB267" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="AC267" t="n">
-        <v>2.02</v>
+        <v>1.78</v>
       </c>
       <c r="AD267" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AE267" t="n">
-        <v>3.35</v>
+        <v>4.1</v>
       </c>
       <c r="AF267" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="AG267" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="AH267" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="AI267" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="AJ267" t="n">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="AK267" t="n">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="AL267" t="n">
         <v>1.95</v>
@@ -54680,76 +54680,76 @@
         <v>1.8</v>
       </c>
       <c r="AN267" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO267" t="n">
         <v>1.29</v>
       </c>
-      <c r="AO267" t="n">
-        <v>1.33</v>
-      </c>
       <c r="AP267" t="n">
-        <v>1.78</v>
+        <v>1.91</v>
       </c>
       <c r="AQ267" t="n">
-        <v>1.55</v>
+        <v>2.2</v>
       </c>
       <c r="AR267" t="n">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="AS267" t="n">
-        <v>1.43</v>
+        <v>2.08</v>
       </c>
       <c r="AT267" t="n">
-        <v>0.86</v>
+        <v>1.23</v>
       </c>
       <c r="AU267" t="n">
-        <v>1.31</v>
+        <v>1.87</v>
       </c>
       <c r="AV267" t="n">
-        <v>0.95</v>
+        <v>1.22</v>
       </c>
       <c r="AW267" t="n">
-        <v>2.26</v>
+        <v>3.09</v>
       </c>
       <c r="AX267" t="n">
-        <v>1.59</v>
+        <v>1.45</v>
       </c>
       <c r="AY267" t="n">
         <v>8.5</v>
       </c>
       <c r="AZ267" t="n">
-        <v>2.78</v>
+        <v>3.32</v>
       </c>
       <c r="BA267" t="n">
-        <v>1.19</v>
+        <v>1.23</v>
       </c>
       <c r="BB267" t="n">
-        <v>1.48</v>
+        <v>1.55</v>
       </c>
       <c r="BC267" t="n">
-        <v>1.73</v>
+        <v>1.88</v>
       </c>
       <c r="BD267" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="BE267" t="n">
-        <v>2.7</v>
+        <v>3.25</v>
       </c>
       <c r="BF267" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BG267" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BH267" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BI267" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BJ267" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BK267" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="268">
@@ -55569,7 +55569,7 @@
         <v>271</v>
       </c>
       <c r="B272" t="n">
-        <v>2569014</v>
+        <v>2569015</v>
       </c>
       <c r="C272" t="inlineStr">
         <is>
@@ -55589,182 +55589,182 @@
       </c>
       <c r="G272" t="inlineStr">
         <is>
-          <t>Plymouth Argyle</t>
+          <t>Portsmouth</t>
         </is>
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>Wycombe Wanderers</t>
+          <t>Ipswich Town</t>
         </is>
       </c>
       <c r="I272" t="n">
         <v>1</v>
       </c>
       <c r="J272" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K272" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L272" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N272" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O272" t="inlineStr">
         <is>
-          <t>['33']</t>
+          <t>['4', '60']</t>
         </is>
       </c>
       <c r="P272" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['11', '87']</t>
         </is>
       </c>
       <c r="Q272" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="R272" t="n">
         <v>3</v>
       </c>
       <c r="S272" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="T272" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U272" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V272" t="n">
         <v>2.88</v>
       </c>
-      <c r="U272" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V272" t="n">
-        <v>3.75</v>
-      </c>
       <c r="W272" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="X272" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Y272" t="n">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="Z272" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AA272" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AB272" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AC272" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AD272" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE272" t="n">
         <v>2.12</v>
       </c>
-      <c r="AD272" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AE272" t="n">
-        <v>3.15</v>
-      </c>
       <c r="AF272" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="AG272" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH272" t="n">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
       <c r="AI272" t="n">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="AJ272" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK272" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL272" t="n">
         <v>1.8</v>
       </c>
-      <c r="AK272" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="AL272" t="n">
-        <v>1.7</v>
-      </c>
       <c r="AM272" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="AN272" t="n">
-        <v>1.36</v>
+        <v>1.68</v>
       </c>
       <c r="AO272" t="n">
         <v>1.25</v>
       </c>
       <c r="AP272" t="n">
-        <v>1.68</v>
+        <v>1.36</v>
       </c>
       <c r="AQ272" t="n">
-        <v>2.73</v>
+        <v>1.5</v>
       </c>
       <c r="AR272" t="n">
-        <v>1.27</v>
+        <v>2.09</v>
       </c>
       <c r="AS272" t="n">
-        <v>2.79</v>
+        <v>1.46</v>
       </c>
       <c r="AT272" t="n">
-        <v>1.31</v>
+        <v>1.79</v>
       </c>
       <c r="AU272" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AV272" t="n">
         <v>1.86</v>
       </c>
-      <c r="AV272" t="n">
-        <v>1.42</v>
-      </c>
       <c r="AW272" t="n">
-        <v>3.28</v>
+        <v>3.35</v>
       </c>
       <c r="AX272" t="n">
-        <v>1.75</v>
+        <v>2.64</v>
       </c>
       <c r="AY272" t="n">
         <v>8.5</v>
       </c>
       <c r="AZ272" t="n">
-        <v>2.41</v>
+        <v>1.64</v>
       </c>
       <c r="BA272" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="BB272" t="n">
-        <v>1.25</v>
+        <v>1.43</v>
       </c>
       <c r="BC272" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="BD272" t="n">
-        <v>1.88</v>
+        <v>2.05</v>
       </c>
       <c r="BE272" t="n">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="BF272" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BG272" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BH272" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="BI272" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ272" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK272" t="n">
         <v>15</v>
-      </c>
-      <c r="BJ272" t="n">
-        <v>17</v>
-      </c>
-      <c r="BK272" t="n">
-        <v>17</v>
       </c>
     </row>
     <row r="273">
@@ -55772,7 +55772,7 @@
         <v>272</v>
       </c>
       <c r="B273" t="n">
-        <v>2569015</v>
+        <v>2569016</v>
       </c>
       <c r="C273" t="inlineStr">
         <is>
@@ -55792,40 +55792,40 @@
       </c>
       <c r="G273" t="inlineStr">
         <is>
-          <t>Portsmouth</t>
+          <t>Sheffield Wednesday</t>
         </is>
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>Ipswich Town</t>
+          <t>Port Vale</t>
         </is>
       </c>
       <c r="I273" t="n">
         <v>1</v>
       </c>
       <c r="J273" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K273" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L273" t="n">
         <v>2</v>
       </c>
       <c r="M273" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N273" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O273" t="inlineStr">
         <is>
-          <t>['4', '60']</t>
+          <t>['30', '70']</t>
         </is>
       </c>
       <c r="P273" t="inlineStr">
         <is>
-          <t>['11', '87']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q273" t="n">
@@ -55838,13 +55838,13 @@
         <v>6</v>
       </c>
       <c r="T273" t="n">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="U273" t="n">
         <v>2.1</v>
       </c>
       <c r="V273" t="n">
-        <v>2.88</v>
+        <v>5</v>
       </c>
       <c r="W273" t="n">
         <v>1.44</v>
@@ -55859,115 +55859,115 @@
         <v>1.33</v>
       </c>
       <c r="AA273" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AB273" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AC273" t="n">
-        <v>3.2</v>
+        <v>1.78</v>
       </c>
       <c r="AD273" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="AE273" t="n">
-        <v>2.12</v>
+        <v>4.1</v>
       </c>
       <c r="AF273" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AG273" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AH273" t="n">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
       <c r="AI273" t="n">
         <v>3.2</v>
       </c>
       <c r="AJ273" t="n">
-        <v>1.95</v>
+        <v>2.06</v>
       </c>
       <c r="AK273" t="n">
-        <v>1.7</v>
+        <v>1.63</v>
       </c>
       <c r="AL273" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AM273" t="n">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="AN273" t="n">
-        <v>1.68</v>
+        <v>1.18</v>
       </c>
       <c r="AO273" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="AP273" t="n">
-        <v>1.36</v>
+        <v>2.1</v>
       </c>
       <c r="AQ273" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AR273" t="n">
-        <v>2.09</v>
+        <v>1.27</v>
       </c>
       <c r="AS273" t="n">
-        <v>1.46</v>
+        <v>2.21</v>
       </c>
       <c r="AT273" t="n">
-        <v>1.79</v>
+        <v>1.31</v>
       </c>
       <c r="AU273" t="n">
-        <v>1.49</v>
+        <v>1.76</v>
       </c>
       <c r="AV273" t="n">
-        <v>1.86</v>
+        <v>1.23</v>
       </c>
       <c r="AW273" t="n">
-        <v>3.35</v>
+        <v>2.99</v>
       </c>
       <c r="AX273" t="n">
-        <v>2.64</v>
+        <v>1.41</v>
       </c>
       <c r="AY273" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AZ273" t="n">
-        <v>1.64</v>
+        <v>3.48</v>
       </c>
       <c r="BA273" t="n">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
       <c r="BB273" t="n">
-        <v>1.43</v>
+        <v>1.55</v>
       </c>
       <c r="BC273" t="n">
-        <v>1.67</v>
+        <v>1.9</v>
       </c>
       <c r="BD273" t="n">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="BE273" t="n">
-        <v>2.6</v>
+        <v>3.25</v>
       </c>
       <c r="BF273" t="n">
         <v>3</v>
       </c>
       <c r="BG273" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BH273" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BI273" t="n">
         <v>10</v>
       </c>
       <c r="BJ273" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BK273" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="274">
@@ -56178,7 +56178,7 @@
         <v>274</v>
       </c>
       <c r="B275" t="n">
-        <v>2569016</v>
+        <v>2569017</v>
       </c>
       <c r="C275" t="inlineStr">
         <is>
@@ -56198,59 +56198,59 @@
       </c>
       <c r="G275" t="inlineStr">
         <is>
-          <t>Sheffield Wednesday</t>
+          <t>Shrewsbury Town</t>
         </is>
       </c>
       <c r="H275" t="inlineStr">
         <is>
-          <t>Port Vale</t>
+          <t>Cheltenham Town</t>
         </is>
       </c>
       <c r="I275" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J275" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K275" t="n">
         <v>1</v>
       </c>
       <c r="L275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M275" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N275" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O275" t="inlineStr">
         <is>
-          <t>['30', '70']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P275" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['38']</t>
         </is>
       </c>
       <c r="Q275" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R275" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S275" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T275" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U275" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="V275" t="n">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="W275" t="n">
         <v>1.44</v>
@@ -56271,25 +56271,25 @@
         <v>1.06</v>
       </c>
       <c r="AC275" t="n">
-        <v>1.78</v>
+        <v>2.02</v>
       </c>
       <c r="AD275" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AE275" t="n">
-        <v>4.1</v>
+        <v>3.35</v>
       </c>
       <c r="AF275" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="AG275" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AH275" t="n">
-        <v>1.3</v>
+        <v>1.37</v>
       </c>
       <c r="AI275" t="n">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="AJ275" t="n">
         <v>2.06</v>
@@ -56298,82 +56298,82 @@
         <v>1.63</v>
       </c>
       <c r="AL275" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AM275" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="AN275" t="n">
-        <v>1.18</v>
+        <v>1.29</v>
       </c>
       <c r="AO275" t="n">
-        <v>1.26</v>
+        <v>1.33</v>
       </c>
       <c r="AP275" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AQ275" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AR275" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AS275" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AT275" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AU275" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AV275" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="AW275" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="AX275" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AY275" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ275" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="BA275" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BB275" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BC275" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BD275" t="n">
         <v>2.1</v>
       </c>
-      <c r="AQ275" t="n">
-        <v>2</v>
-      </c>
-      <c r="AR275" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="AS275" t="n">
-        <v>2.21</v>
-      </c>
-      <c r="AT275" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="AU275" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="AV275" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="AW275" t="n">
-        <v>2.99</v>
-      </c>
-      <c r="AX275" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="AY275" t="n">
-        <v>9</v>
-      </c>
-      <c r="AZ275" t="n">
-        <v>3.48</v>
-      </c>
-      <c r="BA275" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="BB275" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="BC275" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="BD275" t="n">
-        <v>2.3</v>
-      </c>
       <c r="BE275" t="n">
-        <v>3.25</v>
+        <v>2.7</v>
       </c>
       <c r="BF275" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BG275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BH275" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="BI275" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="BJ275" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="BK275" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="276">
@@ -56381,7 +56381,7 @@
         <v>275</v>
       </c>
       <c r="B276" t="n">
-        <v>2569013</v>
+        <v>2569014</v>
       </c>
       <c r="C276" t="inlineStr">
         <is>
@@ -56401,12 +56401,12 @@
       </c>
       <c r="G276" t="inlineStr">
         <is>
-          <t>Peterborough United</t>
+          <t>Plymouth Argyle</t>
         </is>
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>Milton Keynes Dons</t>
+          <t>Wycombe Wanderers</t>
         </is>
       </c>
       <c r="I276" t="n">
@@ -56419,17 +56419,17 @@
         <v>1</v>
       </c>
       <c r="L276" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M276" t="n">
         <v>0</v>
       </c>
       <c r="N276" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O276" t="inlineStr">
         <is>
-          <t>['38', '48']</t>
+          <t>['33']</t>
         </is>
       </c>
       <c r="P276" t="inlineStr">
@@ -56438,145 +56438,145 @@
         </is>
       </c>
       <c r="Q276" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="R276" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S276" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="T276" t="n">
-        <v>2.5</v>
+        <v>2.88</v>
       </c>
       <c r="U276" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V276" t="n">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="W276" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="X276" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Y276" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Z276" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA276" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB276" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC276" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AD276" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE276" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AF276" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG276" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH276" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI276" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ276" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK276" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AL276" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM276" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN276" t="n">
         <v>1.36</v>
       </c>
-      <c r="AA276" t="n">
-        <v>9</v>
-      </c>
-      <c r="AB276" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AC276" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="AD276" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AE276" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="AF276" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AG276" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AH276" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AI276" t="n">
-        <v>3</v>
-      </c>
-      <c r="AJ276" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AK276" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AL276" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AM276" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AN276" t="n">
-        <v>1.2</v>
-      </c>
       <c r="AO276" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AP276" t="n">
-        <v>1.91</v>
+        <v>1.68</v>
       </c>
       <c r="AQ276" t="n">
-        <v>2.2</v>
+        <v>2.73</v>
       </c>
       <c r="AR276" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AS276" t="n">
-        <v>2.08</v>
+        <v>2.79</v>
       </c>
       <c r="AT276" t="n">
-        <v>1.23</v>
+        <v>1.31</v>
       </c>
       <c r="AU276" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="AV276" t="n">
-        <v>1.22</v>
+        <v>1.42</v>
       </c>
       <c r="AW276" t="n">
-        <v>3.09</v>
+        <v>3.28</v>
       </c>
       <c r="AX276" t="n">
-        <v>1.45</v>
+        <v>1.75</v>
       </c>
       <c r="AY276" t="n">
         <v>8.5</v>
       </c>
       <c r="AZ276" t="n">
-        <v>3.32</v>
+        <v>2.41</v>
       </c>
       <c r="BA276" t="n">
-        <v>1.23</v>
+        <v>1.18</v>
       </c>
       <c r="BB276" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BC276" t="n">
         <v>1.55</v>
       </c>
-      <c r="BC276" t="n">
+      <c r="BD276" t="n">
         <v>1.88</v>
       </c>
-      <c r="BD276" t="n">
-        <v>2.3</v>
-      </c>
       <c r="BE276" t="n">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="BF276" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BG276" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BH276" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BI276" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="BJ276" t="n">
         <v>17</v>
       </c>
       <c r="BK276" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="277">
@@ -58817,7 +58817,7 @@
         <v>287</v>
       </c>
       <c r="B288" t="n">
-        <v>2569020</v>
+        <v>2569339</v>
       </c>
       <c r="C288" t="inlineStr">
         <is>
@@ -58837,35 +58837,35 @@
       </c>
       <c r="G288" t="inlineStr">
         <is>
-          <t>Derby County</t>
+          <t>Sheffield Wednesday</t>
         </is>
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>Accrington Stanley</t>
+          <t>Cambridge United</t>
         </is>
       </c>
       <c r="I288" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J288" t="n">
         <v>0</v>
       </c>
       <c r="K288" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L288" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M288" t="n">
         <v>0</v>
       </c>
       <c r="N288" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O288" t="inlineStr">
         <is>
-          <t>['7', '16', '45+2', '46']</t>
+          <t>['7', '21', '51', '70', '80']</t>
         </is>
       </c>
       <c r="P288" t="inlineStr">
@@ -58877,64 +58877,64 @@
         <v>6</v>
       </c>
       <c r="R288" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S288" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="T288" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U288" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V288" t="n">
+        <v>7</v>
+      </c>
+      <c r="W288" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X288" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y288" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z288" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA288" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB288" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC288" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AD288" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="AE288" t="n">
+        <v>9.85</v>
+      </c>
+      <c r="AF288" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG288" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH288" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AI288" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AJ288" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AK288" t="n">
         <v>2.25</v>
-      </c>
-      <c r="U288" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="V288" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="W288" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="X288" t="n">
-        <v>3</v>
-      </c>
-      <c r="Y288" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Z288" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AA288" t="n">
-        <v>8</v>
-      </c>
-      <c r="AB288" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="AC288" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="AD288" t="n">
-        <v>4.02</v>
-      </c>
-      <c r="AE288" t="n">
-        <v>5.27</v>
-      </c>
-      <c r="AF288" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AG288" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH288" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="AI288" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="AJ288" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="AK288" t="n">
-        <v>1.97</v>
       </c>
       <c r="AL288" t="n">
         <v>1.95</v>
@@ -58943,76 +58943,76 @@
         <v>1.8</v>
       </c>
       <c r="AN288" t="n">
-        <v>1.13</v>
+        <v>1.05</v>
       </c>
       <c r="AO288" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="AP288" t="n">
-        <v>2.25</v>
+        <v>3.3</v>
       </c>
       <c r="AQ288" t="n">
-        <v>2.09</v>
+        <v>2.08</v>
       </c>
       <c r="AR288" t="n">
-        <v>1</v>
+        <v>0.64</v>
       </c>
       <c r="AS288" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AT288" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="AU288" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AV288" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AW288" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AX288" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AY288" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ288" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="BA288" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BB288" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BC288" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BD288" t="n">
         <v>2.23</v>
       </c>
-      <c r="AT288" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="AU288" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="AV288" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="AW288" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="AX288" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="AY288" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AZ288" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="BA288" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="BB288" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="BC288" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="BD288" t="n">
-        <v>2.02</v>
-      </c>
       <c r="BE288" t="n">
-        <v>2.65</v>
+        <v>3.05</v>
       </c>
       <c r="BF288" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="BG288" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BH288" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="BI288" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="BJ288" t="n">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="BK288" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="289">
@@ -59020,7 +59020,7 @@
         <v>288</v>
       </c>
       <c r="B289" t="n">
-        <v>2569046</v>
+        <v>2569020</v>
       </c>
       <c r="C289" t="inlineStr">
         <is>
@@ -59040,149 +59040,149 @@
       </c>
       <c r="G289" t="inlineStr">
         <is>
-          <t>Lincoln City</t>
+          <t>Derby County</t>
         </is>
       </c>
       <c r="H289" t="inlineStr">
         <is>
-          <t>Ipswich Town</t>
+          <t>Accrington Stanley</t>
         </is>
       </c>
       <c r="I289" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J289" t="n">
         <v>0</v>
       </c>
       <c r="K289" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L289" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M289" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N289" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O289" t="inlineStr">
         <is>
-          <t>['64']</t>
+          <t>['7', '16', '45+2', '46']</t>
         </is>
       </c>
       <c r="P289" t="inlineStr">
         <is>
-          <t>['81']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q289" t="n">
+        <v>6</v>
+      </c>
+      <c r="R289" t="n">
+        <v>5</v>
+      </c>
+      <c r="S289" t="n">
+        <v>11</v>
+      </c>
+      <c r="T289" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U289" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V289" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W289" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X289" t="n">
         <v>3</v>
       </c>
-      <c r="R289" t="n">
-        <v>9</v>
-      </c>
-      <c r="S289" t="n">
+      <c r="Y289" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z289" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA289" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB289" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC289" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AD289" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="AE289" t="n">
+        <v>5.27</v>
+      </c>
+      <c r="AF289" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG289" t="n">
         <v>12</v>
       </c>
-      <c r="T289" t="n">
-        <v>5</v>
-      </c>
-      <c r="U289" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="V289" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="W289" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="X289" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Y289" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Z289" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AA289" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AB289" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="AC289" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="AD289" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="AE289" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="AF289" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="AG289" t="n">
-        <v>15</v>
-      </c>
       <c r="AH289" t="n">
-        <v>1.18</v>
+        <v>1.26</v>
       </c>
       <c r="AI289" t="n">
-        <v>4.2</v>
+        <v>3.45</v>
       </c>
       <c r="AJ289" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AK289" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AL289" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM289" t="n">
         <v>1.8</v>
       </c>
-      <c r="AK289" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="AL289" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AM289" t="n">
-        <v>2</v>
-      </c>
       <c r="AN289" t="n">
-        <v>2.2</v>
+        <v>1.13</v>
       </c>
       <c r="AO289" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AP289" t="n">
-        <v>1.12</v>
+        <v>2.25</v>
       </c>
       <c r="AQ289" t="n">
-        <v>1.36</v>
+        <v>2.09</v>
       </c>
       <c r="AR289" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AS289" t="n">
-        <v>1.33</v>
+        <v>2.23</v>
       </c>
       <c r="AT289" t="n">
-        <v>1.79</v>
+        <v>0.85</v>
       </c>
       <c r="AU289" t="n">
-        <v>1.17</v>
+        <v>1.66</v>
       </c>
       <c r="AV289" t="n">
-        <v>1.86</v>
+        <v>1.49</v>
       </c>
       <c r="AW289" t="n">
-        <v>3.03</v>
+        <v>3.15</v>
       </c>
       <c r="AX289" t="n">
-        <v>3.1</v>
+        <v>1.72</v>
       </c>
       <c r="AY289" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AZ289" t="n">
-        <v>1.53</v>
+        <v>2.6</v>
       </c>
       <c r="BA289" t="n">
         <v>1.18</v>
@@ -59191,7 +59191,7 @@
         <v>1.34</v>
       </c>
       <c r="BC289" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="BD289" t="n">
         <v>2.02</v>
@@ -59200,22 +59200,22 @@
         <v>2.65</v>
       </c>
       <c r="BF289" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="BG289" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="BH289" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="BI289" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ289" t="n">
         <v>15</v>
       </c>
-      <c r="BJ289" t="n">
-        <v>4</v>
-      </c>
       <c r="BK289" t="n">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="290">
@@ -59223,7 +59223,7 @@
         <v>289</v>
       </c>
       <c r="B290" t="n">
-        <v>2569339</v>
+        <v>2569046</v>
       </c>
       <c r="C290" t="inlineStr">
         <is>
@@ -59243,65 +59243,65 @@
       </c>
       <c r="G290" t="inlineStr">
         <is>
-          <t>Sheffield Wednesday</t>
+          <t>Lincoln City</t>
         </is>
       </c>
       <c r="H290" t="inlineStr">
         <is>
-          <t>Cambridge United</t>
+          <t>Ipswich Town</t>
         </is>
       </c>
       <c r="I290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J290" t="n">
         <v>0</v>
       </c>
       <c r="K290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L290" t="n">
+        <v>1</v>
+      </c>
+      <c r="M290" t="n">
+        <v>1</v>
+      </c>
+      <c r="N290" t="n">
+        <v>2</v>
+      </c>
+      <c r="O290" t="inlineStr">
+        <is>
+          <t>['64']</t>
+        </is>
+      </c>
+      <c r="P290" t="inlineStr">
+        <is>
+          <t>['81']</t>
+        </is>
+      </c>
+      <c r="Q290" t="n">
+        <v>3</v>
+      </c>
+      <c r="R290" t="n">
+        <v>9</v>
+      </c>
+      <c r="S290" t="n">
+        <v>12</v>
+      </c>
+      <c r="T290" t="n">
         <v>5</v>
       </c>
-      <c r="M290" t="n">
-        <v>0</v>
-      </c>
-      <c r="N290" t="n">
-        <v>5</v>
-      </c>
-      <c r="O290" t="inlineStr">
-        <is>
-          <t>['7', '21', '51', '70', '80']</t>
-        </is>
-      </c>
-      <c r="P290" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="Q290" t="n">
-        <v>6</v>
-      </c>
-      <c r="R290" t="n">
-        <v>3</v>
-      </c>
-      <c r="S290" t="n">
-        <v>9</v>
-      </c>
-      <c r="T290" t="n">
-        <v>1.83</v>
-      </c>
       <c r="U290" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="V290" t="n">
-        <v>7</v>
+        <v>2.2</v>
       </c>
       <c r="W290" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="X290" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Y290" t="n">
         <v>2.5</v>
@@ -59310,115 +59310,115 @@
         <v>1.5</v>
       </c>
       <c r="AA290" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB290" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AC290" t="n">
-        <v>1.32</v>
+        <v>5.19</v>
       </c>
       <c r="AD290" t="n">
-        <v>5.58</v>
+        <v>3.8</v>
       </c>
       <c r="AE290" t="n">
-        <v>9.85</v>
+        <v>1.64</v>
       </c>
       <c r="AF290" t="n">
         <v>1.02</v>
       </c>
       <c r="AG290" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AH290" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI290" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AJ290" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK290" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AL290" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM290" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN290" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AO290" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP290" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AQ290" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AR290" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS290" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT290" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AU290" t="n">
         <v>1.17</v>
       </c>
-      <c r="AI290" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="AJ290" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="AK290" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AL290" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AM290" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AN290" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AO290" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AP290" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="AQ290" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="AR290" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="AS290" t="n">
-        <v>2.21</v>
-      </c>
-      <c r="AT290" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="AU290" t="n">
-        <v>1.71</v>
-      </c>
       <c r="AV290" t="n">
-        <v>1.22</v>
+        <v>1.86</v>
       </c>
       <c r="AW290" t="n">
-        <v>2.93</v>
+        <v>3.03</v>
       </c>
       <c r="AX290" t="n">
-        <v>1.28</v>
+        <v>3.1</v>
       </c>
       <c r="AY290" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AZ290" t="n">
-        <v>4.7</v>
+        <v>1.53</v>
       </c>
       <c r="BA290" t="n">
-        <v>1.23</v>
+        <v>1.18</v>
       </c>
       <c r="BB290" t="n">
-        <v>1.42</v>
+        <v>1.34</v>
       </c>
       <c r="BC290" t="n">
-        <v>1.95</v>
+        <v>1.61</v>
       </c>
       <c r="BD290" t="n">
-        <v>2.23</v>
+        <v>2.02</v>
       </c>
       <c r="BE290" t="n">
-        <v>3.05</v>
+        <v>2.65</v>
       </c>
       <c r="BF290" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="BG290" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="BH290" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="BI290" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="BJ290" t="n">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="BK290" t="n">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="291">
@@ -59426,7 +59426,7 @@
         <v>290</v>
       </c>
       <c r="B291" t="n">
-        <v>2569632</v>
+        <v>2569590</v>
       </c>
       <c r="C291" t="inlineStr">
         <is>
@@ -59446,62 +59446,62 @@
       </c>
       <c r="G291" t="inlineStr">
         <is>
-          <t>Charlton Athletic</t>
+          <t>Cambridge United</t>
         </is>
       </c>
       <c r="H291" t="inlineStr">
         <is>
-          <t>Lincoln City</t>
+          <t>Bristol Rovers</t>
         </is>
       </c>
       <c r="I291" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K291" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L291" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M291" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N291" t="n">
         <v>3</v>
       </c>
       <c r="O291" t="inlineStr">
         <is>
-          <t>['35', '42']</t>
+          <t>['5']</t>
         </is>
       </c>
       <c r="P291" t="inlineStr">
         <is>
-          <t>['76']</t>
+          <t>['22', '29']</t>
         </is>
       </c>
       <c r="Q291" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="R291" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S291" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="T291" t="n">
-        <v>2.65</v>
+        <v>3.75</v>
       </c>
       <c r="U291" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="V291" t="n">
-        <v>4.33</v>
+        <v>3</v>
       </c>
       <c r="W291" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="X291" t="n">
         <v>2.75</v>
@@ -59513,28 +59513,28 @@
         <v>1.35</v>
       </c>
       <c r="AA291" t="n">
-        <v>7.85</v>
+        <v>7.4</v>
       </c>
       <c r="AB291" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC291" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AD291" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE291" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AF291" t="n">
         <v>1.05</v>
-      </c>
-      <c r="AC291" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AD291" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AE291" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="AF291" t="n">
-        <v>1.06</v>
       </c>
       <c r="AG291" t="n">
         <v>10</v>
       </c>
       <c r="AH291" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="AI291" t="n">
         <v>3.2</v>
@@ -59546,49 +59546,49 @@
         <v>1.7</v>
       </c>
       <c r="AL291" t="n">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="AM291" t="n">
-        <v>1.87</v>
+        <v>1.95</v>
       </c>
       <c r="AN291" t="n">
-        <v>1.25</v>
+        <v>1.62</v>
       </c>
       <c r="AO291" t="n">
         <v>1.25</v>
       </c>
       <c r="AP291" t="n">
-        <v>1.85</v>
+        <v>1.38</v>
       </c>
       <c r="AQ291" t="n">
         <v>1.42</v>
       </c>
       <c r="AR291" t="n">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="AS291" t="n">
-        <v>1.64</v>
+        <v>1.31</v>
       </c>
       <c r="AT291" t="n">
-        <v>1.08</v>
+        <v>1.29</v>
       </c>
       <c r="AU291" t="n">
-        <v>1.52</v>
+        <v>1.3</v>
       </c>
       <c r="AV291" t="n">
-        <v>0.86</v>
+        <v>1.21</v>
       </c>
       <c r="AW291" t="n">
-        <v>2.38</v>
+        <v>2.51</v>
       </c>
       <c r="AX291" t="n">
-        <v>1.59</v>
+        <v>2.2</v>
       </c>
       <c r="AY291" t="n">
         <v>8.5</v>
       </c>
       <c r="AZ291" t="n">
-        <v>2.78</v>
+        <v>1.83</v>
       </c>
       <c r="BA291" t="n">
         <v>1.18</v>
@@ -59597,31 +59597,31 @@
         <v>1.34</v>
       </c>
       <c r="BC291" t="n">
-        <v>1.65</v>
+        <v>1.55</v>
       </c>
       <c r="BD291" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="BE291" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="BF291" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="BG291" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BH291" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI291" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ291" t="n">
         <v>13</v>
       </c>
-      <c r="BI291" t="n">
-        <v>6</v>
-      </c>
-      <c r="BJ291" t="n">
-        <v>20</v>
-      </c>
       <c r="BK291" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="292">
@@ -59629,7 +59629,7 @@
         <v>291</v>
       </c>
       <c r="B292" t="n">
-        <v>2569975</v>
+        <v>2569632</v>
       </c>
       <c r="C292" t="inlineStr">
         <is>
@@ -59645,171 +59645,171 @@
         <v>44933.5</v>
       </c>
       <c r="F292" t="n">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="G292" t="inlineStr">
         <is>
-          <t>Bolton Wanderers</t>
+          <t>Charlton Athletic</t>
         </is>
       </c>
       <c r="H292" t="inlineStr">
         <is>
-          <t>Plymouth Argyle</t>
+          <t>Lincoln City</t>
         </is>
       </c>
       <c r="I292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J292" t="n">
         <v>0</v>
       </c>
       <c r="K292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M292" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N292" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O292" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['35', '42']</t>
         </is>
       </c>
       <c r="P292" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['76']</t>
         </is>
       </c>
       <c r="Q292" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="R292" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S292" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="T292" t="n">
         <v>2.65</v>
       </c>
       <c r="U292" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="V292" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="W292" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X292" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y292" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Z292" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA292" t="n">
+        <v>7.85</v>
+      </c>
+      <c r="AB292" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC292" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AD292" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE292" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AF292" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG292" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH292" t="n">
         <v>1.36</v>
       </c>
-      <c r="X292" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="Y292" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Z292" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AA292" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="AB292" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AC292" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="AD292" t="n">
+      <c r="AI292" t="n">
         <v>3.2</v>
       </c>
-      <c r="AE292" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="AF292" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AG292" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH292" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AI292" t="n">
-        <v>3.6</v>
-      </c>
       <c r="AJ292" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK292" t="n">
         <v>1.7</v>
       </c>
-      <c r="AK292" t="n">
-        <v>1.95</v>
-      </c>
       <c r="AL292" t="n">
-        <v>1.75</v>
+        <v>1.87</v>
       </c>
       <c r="AM292" t="n">
-        <v>2.05</v>
+        <v>1.87</v>
       </c>
       <c r="AN292" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="AO292" t="n">
         <v>1.25</v>
       </c>
       <c r="AP292" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="AQ292" t="n">
-        <v>2</v>
+        <v>1.42</v>
       </c>
       <c r="AR292" t="n">
-        <v>1.67</v>
+        <v>1.18</v>
       </c>
       <c r="AS292" t="n">
-        <v>2.07</v>
+        <v>1.64</v>
       </c>
       <c r="AT292" t="n">
-        <v>1.57</v>
+        <v>1.08</v>
       </c>
       <c r="AU292" t="n">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="AV292" t="n">
-        <v>1.4</v>
+        <v>0.86</v>
       </c>
       <c r="AW292" t="n">
-        <v>2.94</v>
+        <v>2.38</v>
       </c>
       <c r="AX292" t="n">
-        <v>1.55</v>
+        <v>1.59</v>
       </c>
       <c r="AY292" t="n">
         <v>8.5</v>
       </c>
       <c r="AZ292" t="n">
-        <v>3.01</v>
+        <v>2.78</v>
       </c>
       <c r="BA292" t="n">
         <v>1.18</v>
       </c>
       <c r="BB292" t="n">
-        <v>1.43</v>
+        <v>1.34</v>
       </c>
       <c r="BC292" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="BD292" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="BE292" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="BF292" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="BG292" t="n">
         <v>3</v>
@@ -59818,13 +59818,13 @@
         <v>13</v>
       </c>
       <c r="BI292" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BJ292" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="BK292" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="293">
@@ -59832,7 +59832,7 @@
         <v>292</v>
       </c>
       <c r="B293" t="n">
-        <v>2569590</v>
+        <v>2569975</v>
       </c>
       <c r="C293" t="inlineStr">
         <is>
@@ -59848,186 +59848,186 @@
         <v>44933.5</v>
       </c>
       <c r="F293" t="n">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="G293" t="inlineStr">
         <is>
-          <t>Cambridge United</t>
+          <t>Bolton Wanderers</t>
         </is>
       </c>
       <c r="H293" t="inlineStr">
         <is>
-          <t>Bristol Rovers</t>
+          <t>Plymouth Argyle</t>
         </is>
       </c>
       <c r="I293" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K293" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L293" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N293" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O293" t="inlineStr">
         <is>
-          <t>['5']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P293" t="inlineStr">
         <is>
-          <t>['22', '29']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q293" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="R293" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S293" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="T293" t="n">
-        <v>3.75</v>
+        <v>2.65</v>
       </c>
       <c r="U293" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V293" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W293" t="n">
-        <v>1.39</v>
+        <v>1.36</v>
       </c>
       <c r="X293" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Y293" t="n">
         <v>2.75</v>
       </c>
-      <c r="Y293" t="n">
-        <v>2.95</v>
-      </c>
       <c r="Z293" t="n">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="AA293" t="n">
-        <v>7.4</v>
+        <v>6.9</v>
       </c>
       <c r="AB293" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="AC293" t="n">
-        <v>2.75</v>
+        <v>2.27</v>
       </c>
       <c r="AD293" t="n">
         <v>3.2</v>
       </c>
       <c r="AE293" t="n">
-        <v>2.37</v>
+        <v>2.9</v>
       </c>
       <c r="AF293" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="AG293" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AH293" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AI293" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="AJ293" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK293" t="n">
         <v>1.95</v>
       </c>
-      <c r="AK293" t="n">
-        <v>1.7</v>
-      </c>
       <c r="AL293" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="AM293" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="AN293" t="n">
-        <v>1.62</v>
+        <v>1.3</v>
       </c>
       <c r="AO293" t="n">
         <v>1.25</v>
       </c>
       <c r="AP293" t="n">
-        <v>1.38</v>
+        <v>1.83</v>
       </c>
       <c r="AQ293" t="n">
-        <v>1.42</v>
+        <v>2</v>
       </c>
       <c r="AR293" t="n">
-        <v>1.25</v>
+        <v>1.67</v>
       </c>
       <c r="AS293" t="n">
-        <v>1.31</v>
+        <v>2.07</v>
       </c>
       <c r="AT293" t="n">
-        <v>1.29</v>
+        <v>1.57</v>
       </c>
       <c r="AU293" t="n">
-        <v>1.3</v>
+        <v>1.54</v>
       </c>
       <c r="AV293" t="n">
-        <v>1.21</v>
+        <v>1.4</v>
       </c>
       <c r="AW293" t="n">
-        <v>2.51</v>
+        <v>2.94</v>
       </c>
       <c r="AX293" t="n">
-        <v>2.2</v>
+        <v>1.55</v>
       </c>
       <c r="AY293" t="n">
         <v>8.5</v>
       </c>
       <c r="AZ293" t="n">
-        <v>1.83</v>
+        <v>3.01</v>
       </c>
       <c r="BA293" t="n">
         <v>1.18</v>
       </c>
       <c r="BB293" t="n">
-        <v>1.34</v>
+        <v>1.43</v>
       </c>
       <c r="BC293" t="n">
-        <v>1.55</v>
+        <v>1.7</v>
       </c>
       <c r="BD293" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="BE293" t="n">
-        <v>2.25</v>
+        <v>2.63</v>
       </c>
       <c r="BF293" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG293" t="n">
         <v>3</v>
       </c>
-      <c r="BG293" t="n">
+      <c r="BH293" t="n">
+        <v>13</v>
+      </c>
+      <c r="BI293" t="n">
         <v>4</v>
       </c>
-      <c r="BH293" t="n">
-        <v>10</v>
-      </c>
-      <c r="BI293" t="n">
-        <v>0</v>
-      </c>
       <c r="BJ293" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BK293" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="294">
@@ -60238,7 +60238,7 @@
         <v>294</v>
       </c>
       <c r="B295" t="n">
-        <v>2569853</v>
+        <v>2569842</v>
       </c>
       <c r="C295" t="inlineStr">
         <is>
@@ -60258,59 +60258,59 @@
       </c>
       <c r="G295" t="inlineStr">
         <is>
-          <t>Wycombe Wanderers</t>
+          <t>Accrington Stanley</t>
         </is>
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>Sheffield Wednesday</t>
+          <t>Bristol Rovers</t>
         </is>
       </c>
       <c r="I295" t="n">
         <v>0</v>
       </c>
       <c r="J295" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K295" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M295" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N295" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O295" t="inlineStr">
         <is>
+          <t>['51', '79']</t>
+        </is>
+      </c>
+      <c r="P295" t="inlineStr">
+        <is>
           <t>[]</t>
-        </is>
-      </c>
-      <c r="P295" t="inlineStr">
-        <is>
-          <t>['13']</t>
         </is>
       </c>
       <c r="Q295" t="n">
         <v>4</v>
       </c>
       <c r="R295" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S295" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="T295" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="U295" t="n">
         <v>2.2</v>
       </c>
       <c r="V295" t="n">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="W295" t="n">
         <v>1.4</v>
@@ -60337,61 +60337,61 @@
         <v>3.25</v>
       </c>
       <c r="AE295" t="n">
-        <v>2.28</v>
+        <v>2.27</v>
       </c>
       <c r="AF295" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="AG295" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH295" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="AI295" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="AJ295" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK295" t="n">
         <v>1.93</v>
       </c>
-      <c r="AK295" t="n">
-        <v>1.75</v>
-      </c>
       <c r="AL295" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="AM295" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AN295" t="n">
-        <v>1.8</v>
+        <v>1.57</v>
       </c>
       <c r="AO295" t="n">
         <v>1.25</v>
       </c>
       <c r="AP295" t="n">
-        <v>1.3</v>
+        <v>1.44</v>
       </c>
       <c r="AQ295" t="n">
-        <v>1.75</v>
+        <v>1</v>
       </c>
       <c r="AR295" t="n">
-        <v>2</v>
+        <v>1.38</v>
       </c>
       <c r="AS295" t="n">
-        <v>1.71</v>
+        <v>1.17</v>
       </c>
       <c r="AT295" t="n">
-        <v>2.08</v>
+        <v>1.29</v>
       </c>
       <c r="AU295" t="n">
-        <v>1.88</v>
+        <v>1.51</v>
       </c>
       <c r="AV295" t="n">
-        <v>1.68</v>
+        <v>1.18</v>
       </c>
       <c r="AW295" t="n">
-        <v>3.56</v>
+        <v>2.69</v>
       </c>
       <c r="AX295" t="n">
         <v>1.88</v>
@@ -60412,7 +60412,7 @@
         <v>1.6</v>
       </c>
       <c r="BD295" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="BE295" t="n">
         <v>2.65</v>
@@ -60421,19 +60421,19 @@
         <v>3</v>
       </c>
       <c r="BG295" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH295" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI295" t="n">
         <v>5</v>
       </c>
-      <c r="BH295" t="n">
-        <v>5</v>
-      </c>
-      <c r="BI295" t="n">
-        <v>8</v>
-      </c>
       <c r="BJ295" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BK295" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="296">
@@ -60441,7 +60441,7 @@
         <v>295</v>
       </c>
       <c r="B296" t="n">
-        <v>2569844</v>
+        <v>2569853</v>
       </c>
       <c r="C296" t="inlineStr">
         <is>
@@ -60461,98 +60461,98 @@
       </c>
       <c r="G296" t="inlineStr">
         <is>
-          <t>Burton Albion</t>
+          <t>Wycombe Wanderers</t>
         </is>
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>Shrewsbury Town</t>
+          <t>Sheffield Wednesday</t>
         </is>
       </c>
       <c r="I296" t="n">
         <v>0</v>
       </c>
       <c r="J296" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K296" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L296" t="n">
         <v>0</v>
       </c>
       <c r="M296" t="n">
+        <v>1</v>
+      </c>
+      <c r="N296" t="n">
+        <v>1</v>
+      </c>
+      <c r="O296" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P296" t="inlineStr">
+        <is>
+          <t>['13']</t>
+        </is>
+      </c>
+      <c r="Q296" t="n">
         <v>4</v>
       </c>
-      <c r="N296" t="n">
+      <c r="R296" t="n">
+        <v>3</v>
+      </c>
+      <c r="S296" t="n">
+        <v>7</v>
+      </c>
+      <c r="T296" t="n">
         <v>4</v>
       </c>
-      <c r="O296" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P296" t="inlineStr">
-        <is>
-          <t>['1', '43', '58', '90+4']</t>
-        </is>
-      </c>
-      <c r="Q296" t="n">
-        <v>9</v>
-      </c>
-      <c r="R296" t="n">
-        <v>2</v>
-      </c>
-      <c r="S296" t="n">
+      <c r="U296" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V296" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W296" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X296" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y296" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z296" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA296" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB296" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC296" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AD296" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE296" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AF296" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG296" t="n">
         <v>11</v>
       </c>
-      <c r="T296" t="n">
-        <v>3</v>
-      </c>
-      <c r="U296" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="V296" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="W296" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="X296" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Y296" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Z296" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AA296" t="n">
-        <v>10</v>
-      </c>
-      <c r="AB296" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AC296" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="AD296" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AE296" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="AF296" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AG296" t="n">
-        <v>10</v>
-      </c>
       <c r="AH296" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="AI296" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="AJ296" t="n">
         <v>1.93</v>
@@ -60561,82 +60561,82 @@
         <v>1.75</v>
       </c>
       <c r="AL296" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AM296" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AN296" t="n">
-        <v>1.36</v>
+        <v>1.8</v>
       </c>
       <c r="AO296" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="AP296" t="n">
-        <v>1.65</v>
+        <v>1.3</v>
       </c>
       <c r="AQ296" t="n">
-        <v>1.08</v>
+        <v>1.75</v>
       </c>
       <c r="AR296" t="n">
-        <v>1.09</v>
+        <v>2</v>
       </c>
       <c r="AS296" t="n">
-        <v>1</v>
+        <v>1.71</v>
       </c>
       <c r="AT296" t="n">
-        <v>1.38</v>
+        <v>2.08</v>
       </c>
       <c r="AU296" t="n">
-        <v>1.63</v>
+        <v>1.88</v>
       </c>
       <c r="AV296" t="n">
-        <v>1.13</v>
+        <v>1.68</v>
       </c>
       <c r="AW296" t="n">
-        <v>2.76</v>
+        <v>3.56</v>
       </c>
       <c r="AX296" t="n">
-        <v>1.47</v>
+        <v>1.88</v>
       </c>
       <c r="AY296" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AZ296" t="n">
-        <v>3.35</v>
+        <v>2.3</v>
       </c>
       <c r="BA296" t="n">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="BB296" t="n">
-        <v>1.29</v>
+        <v>1.34</v>
       </c>
       <c r="BC296" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="BD296" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="BE296" t="n">
-        <v>2.43</v>
+        <v>2.65</v>
       </c>
       <c r="BF296" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BG296" t="n">
         <v>5</v>
       </c>
       <c r="BH296" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="BI296" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BJ296" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BK296" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="297">
@@ -60644,7 +60644,7 @@
         <v>296</v>
       </c>
       <c r="B297" t="n">
-        <v>2569846</v>
+        <v>2569843</v>
       </c>
       <c r="C297" t="inlineStr">
         <is>
@@ -60664,12 +60664,12 @@
       </c>
       <c r="G297" t="inlineStr">
         <is>
-          <t>Charlton Athletic</t>
+          <t>Bolton Wanderers</t>
         </is>
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>Barnsley</t>
+          <t>Portsmouth</t>
         </is>
       </c>
       <c r="I297" t="n">
@@ -60682,17 +60682,17 @@
         <v>1</v>
       </c>
       <c r="L297" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M297" t="n">
         <v>0</v>
       </c>
       <c r="N297" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O297" t="inlineStr">
         <is>
-          <t>['19', '61']</t>
+          <t>['15', '48', '71']</t>
         </is>
       </c>
       <c r="P297" t="inlineStr">
@@ -60701,22 +60701,22 @@
         </is>
       </c>
       <c r="Q297" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R297" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="S297" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="T297" t="n">
-        <v>3.4</v>
+        <v>2.63</v>
       </c>
       <c r="U297" t="n">
         <v>2.1</v>
       </c>
       <c r="V297" t="n">
-        <v>3.2</v>
+        <v>4.33</v>
       </c>
       <c r="W297" t="n">
         <v>1.4</v>
@@ -60737,25 +60737,25 @@
         <v>1.08</v>
       </c>
       <c r="AC297" t="n">
-        <v>2.7</v>
+        <v>1.94</v>
       </c>
       <c r="AD297" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="AE297" t="n">
-        <v>2.38</v>
+        <v>3.55</v>
       </c>
       <c r="AF297" t="n">
         <v>1.05</v>
       </c>
       <c r="AG297" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH297" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="AI297" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AJ297" t="n">
         <v>1.93</v>
@@ -60764,28 +60764,28 @@
         <v>1.75</v>
       </c>
       <c r="AL297" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="AM297" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AN297" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="AO297" t="n">
         <v>1.25</v>
       </c>
       <c r="AP297" t="n">
-        <v>1.47</v>
+        <v>1.78</v>
       </c>
       <c r="AQ297" t="n">
-        <v>1.54</v>
+        <v>1.92</v>
       </c>
       <c r="AR297" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AS297" t="n">
-        <v>1.64</v>
+        <v>2.07</v>
       </c>
       <c r="AT297" t="n">
         <v>1.5</v>
@@ -60794,52 +60794,52 @@
         <v>1.55</v>
       </c>
       <c r="AV297" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AW297" t="n">
-        <v>2.9</v>
+        <v>2.99</v>
       </c>
       <c r="AX297" t="n">
-        <v>2.08</v>
+        <v>1.66</v>
       </c>
       <c r="AY297" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ297" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BA297" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB297" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BC297" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BD297" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BE297" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BF297" t="n">
         <v>7</v>
-      </c>
-      <c r="AZ297" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="BA297" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="BB297" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="BC297" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="BD297" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="BE297" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="BF297" t="n">
-        <v>5</v>
       </c>
       <c r="BG297" t="n">
         <v>3</v>
       </c>
       <c r="BH297" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BI297" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="BJ297" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="BK297" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="298">
@@ -60847,7 +60847,7 @@
         <v>297</v>
       </c>
       <c r="B298" t="n">
-        <v>2569847</v>
+        <v>2569844</v>
       </c>
       <c r="C298" t="inlineStr">
         <is>
@@ -60867,86 +60867,86 @@
       </c>
       <c r="G298" t="inlineStr">
         <is>
-          <t>Cheltenham Town</t>
+          <t>Burton Albion</t>
         </is>
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>Derby County</t>
+          <t>Shrewsbury Town</t>
         </is>
       </c>
       <c r="I298" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J298" t="n">
         <v>2</v>
       </c>
       <c r="K298" t="n">
+        <v>2</v>
+      </c>
+      <c r="L298" t="n">
+        <v>0</v>
+      </c>
+      <c r="M298" t="n">
+        <v>4</v>
+      </c>
+      <c r="N298" t="n">
+        <v>4</v>
+      </c>
+      <c r="O298" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P298" t="inlineStr">
+        <is>
+          <t>['1', '43', '58', '90+4']</t>
+        </is>
+      </c>
+      <c r="Q298" t="n">
+        <v>9</v>
+      </c>
+      <c r="R298" t="n">
+        <v>2</v>
+      </c>
+      <c r="S298" t="n">
+        <v>11</v>
+      </c>
+      <c r="T298" t="n">
         <v>3</v>
       </c>
-      <c r="L298" t="n">
-        <v>2</v>
-      </c>
-      <c r="M298" t="n">
-        <v>3</v>
-      </c>
-      <c r="N298" t="n">
-        <v>5</v>
-      </c>
-      <c r="O298" t="inlineStr">
-        <is>
-          <t>['2', '77']</t>
-        </is>
-      </c>
-      <c r="P298" t="inlineStr">
-        <is>
-          <t>['8', '11', '55']</t>
-        </is>
-      </c>
-      <c r="Q298" t="n">
-        <v>3</v>
-      </c>
-      <c r="R298" t="n">
-        <v>3</v>
-      </c>
-      <c r="S298" t="n">
-        <v>6</v>
-      </c>
-      <c r="T298" t="n">
-        <v>4.75</v>
-      </c>
       <c r="U298" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="V298" t="n">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="W298" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="X298" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Y298" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Z298" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AA298" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AB298" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="AC298" t="n">
-        <v>3.8</v>
+        <v>2.32</v>
       </c>
       <c r="AD298" t="n">
-        <v>3.35</v>
+        <v>3.1</v>
       </c>
       <c r="AE298" t="n">
-        <v>1.85</v>
+        <v>2.9</v>
       </c>
       <c r="AF298" t="n">
         <v>1.06</v>
@@ -60958,10 +60958,10 @@
         <v>1.36</v>
       </c>
       <c r="AI298" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="AJ298" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AK298" t="n">
         <v>1.75</v>
@@ -60973,76 +60973,76 @@
         <v>1.91</v>
       </c>
       <c r="AN298" t="n">
-        <v>2</v>
+        <v>1.36</v>
       </c>
       <c r="AO298" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="AP298" t="n">
-        <v>1.2</v>
+        <v>1.65</v>
       </c>
       <c r="AQ298" t="n">
-        <v>1.45</v>
+        <v>1.08</v>
       </c>
       <c r="AR298" t="n">
-        <v>1.25</v>
+        <v>1.09</v>
       </c>
       <c r="AS298" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AT298" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AU298" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AV298" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AW298" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AX298" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AY298" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ298" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BA298" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BB298" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BC298" t="n">
         <v>1.5</v>
       </c>
-      <c r="AU298" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="AV298" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="AW298" t="n">
-        <v>3.08</v>
-      </c>
-      <c r="AX298" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="AY298" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AZ298" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="BA298" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="BB298" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="BC298" t="n">
-        <v>1.67</v>
-      </c>
       <c r="BD298" t="n">
-        <v>2.12</v>
+        <v>1.95</v>
       </c>
       <c r="BE298" t="n">
-        <v>2.85</v>
+        <v>2.43</v>
       </c>
       <c r="BF298" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BG298" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BH298" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BI298" t="n">
         <v>9</v>
       </c>
       <c r="BJ298" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="BK298" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="299">
@@ -61253,7 +61253,7 @@
         <v>299</v>
       </c>
       <c r="B300" t="n">
-        <v>2569849</v>
+        <v>2569847</v>
       </c>
       <c r="C300" t="inlineStr">
         <is>
@@ -61273,59 +61273,59 @@
       </c>
       <c r="G300" t="inlineStr">
         <is>
-          <t>Fleetwood Town</t>
+          <t>Cheltenham Town</t>
         </is>
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>Oxford United</t>
+          <t>Derby County</t>
         </is>
       </c>
       <c r="I300" t="n">
         <v>1</v>
       </c>
       <c r="J300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K300" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L300" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M300" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N300" t="n">
+        <v>5</v>
+      </c>
+      <c r="O300" t="inlineStr">
+        <is>
+          <t>['2', '77']</t>
+        </is>
+      </c>
+      <c r="P300" t="inlineStr">
+        <is>
+          <t>['8', '11', '55']</t>
+        </is>
+      </c>
+      <c r="Q300" t="n">
         <v>3</v>
-      </c>
-      <c r="O300" t="inlineStr">
-        <is>
-          <t>['44']</t>
-        </is>
-      </c>
-      <c r="P300" t="inlineStr">
-        <is>
-          <t>['62', '90']</t>
-        </is>
-      </c>
-      <c r="Q300" t="n">
-        <v>10</v>
       </c>
       <c r="R300" t="n">
         <v>3</v>
       </c>
       <c r="S300" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="T300" t="n">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="U300" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V300" t="n">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="W300" t="n">
         <v>1.4</v>
@@ -61334,10 +61334,10 @@
         <v>2.75</v>
       </c>
       <c r="Y300" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Z300" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AA300" t="n">
         <v>8</v>
@@ -61346,109 +61346,109 @@
         <v>1.08</v>
       </c>
       <c r="AC300" t="n">
-        <v>2.85</v>
+        <v>3.8</v>
       </c>
       <c r="AD300" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AE300" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AF300" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG300" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH300" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI300" t="n">
         <v>3.2</v>
       </c>
-      <c r="AE300" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="AF300" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AG300" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH300" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AI300" t="n">
-        <v>3.3</v>
-      </c>
       <c r="AJ300" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AK300" t="n">
         <v>1.75</v>
       </c>
       <c r="AL300" t="n">
-        <v>1.7</v>
+        <v>1.91</v>
       </c>
       <c r="AM300" t="n">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="AN300" t="n">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="AO300" t="n">
         <v>1.25</v>
       </c>
       <c r="AP300" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="AQ300" t="n">
-        <v>1</v>
+        <v>1.45</v>
       </c>
       <c r="AR300" t="n">
-        <v>1.17</v>
+        <v>1.25</v>
       </c>
       <c r="AS300" t="n">
-        <v>0.85</v>
+        <v>1.33</v>
       </c>
       <c r="AT300" t="n">
-        <v>1.21</v>
+        <v>1.5</v>
       </c>
       <c r="AU300" t="n">
-        <v>1.41</v>
+        <v>1.48</v>
       </c>
       <c r="AV300" t="n">
-        <v>1.14</v>
+        <v>1.6</v>
       </c>
       <c r="AW300" t="n">
-        <v>2.55</v>
+        <v>3.08</v>
       </c>
       <c r="AX300" t="n">
-        <v>1.81</v>
+        <v>2.9</v>
       </c>
       <c r="AY300" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AZ300" t="n">
-        <v>2.43</v>
+        <v>1.58</v>
       </c>
       <c r="BA300" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="BB300" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="BC300" t="n">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="BD300" t="n">
-        <v>2.38</v>
+        <v>2.12</v>
       </c>
       <c r="BE300" t="n">
-        <v>3.25</v>
+        <v>2.85</v>
       </c>
       <c r="BF300" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="BG300" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BH300" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BI300" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="BJ300" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="BK300" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="301">
@@ -61456,7 +61456,7 @@
         <v>300</v>
       </c>
       <c r="B301" t="n">
-        <v>2569851</v>
+        <v>2569846</v>
       </c>
       <c r="C301" t="inlineStr">
         <is>
@@ -61476,149 +61476,149 @@
       </c>
       <c r="G301" t="inlineStr">
         <is>
-          <t>Milton Keynes Dons</t>
+          <t>Charlton Athletic</t>
         </is>
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>Lincoln City</t>
+          <t>Barnsley</t>
         </is>
       </c>
       <c r="I301" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J301" t="n">
         <v>0</v>
       </c>
       <c r="K301" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M301" t="n">
         <v>0</v>
       </c>
       <c r="N301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O301" t="inlineStr">
         <is>
+          <t>['19', '61']</t>
+        </is>
+      </c>
+      <c r="P301" t="inlineStr">
+        <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="P301" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="Q301" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R301" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="S301" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="T301" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U301" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V301" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W301" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X301" t="n">
         <v>2.75</v>
       </c>
-      <c r="U301" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="V301" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="W301" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="X301" t="n">
-        <v>2.63</v>
-      </c>
       <c r="Y301" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z301" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA301" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB301" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC301" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AD301" t="n">
         <v>3.25</v>
       </c>
-      <c r="Z301" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AA301" t="n">
-        <v>9</v>
-      </c>
-      <c r="AB301" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AC301" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="AD301" t="n">
-        <v>3.15</v>
-      </c>
       <c r="AE301" t="n">
-        <v>3.15</v>
+        <v>2.38</v>
       </c>
       <c r="AF301" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AG301" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AH301" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="AI301" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="AJ301" t="n">
-        <v>2.15</v>
+        <v>1.93</v>
       </c>
       <c r="AK301" t="n">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="AL301" t="n">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="AM301" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AN301" t="n">
-        <v>1.28</v>
+        <v>1.5</v>
       </c>
       <c r="AO301" t="n">
         <v>1.25</v>
       </c>
       <c r="AP301" t="n">
-        <v>1.78</v>
+        <v>1.47</v>
       </c>
       <c r="AQ301" t="n">
-        <v>0.67</v>
+        <v>1.54</v>
       </c>
       <c r="AR301" t="n">
-        <v>1.08</v>
+        <v>1.64</v>
       </c>
       <c r="AS301" t="n">
-        <v>0.64</v>
+        <v>1.64</v>
       </c>
       <c r="AT301" t="n">
-        <v>1.08</v>
+        <v>1.5</v>
       </c>
       <c r="AU301" t="n">
-        <v>1.33</v>
+        <v>1.55</v>
       </c>
       <c r="AV301" t="n">
-        <v>0.88</v>
+        <v>1.35</v>
       </c>
       <c r="AW301" t="n">
-        <v>2.21</v>
+        <v>2.9</v>
       </c>
       <c r="AX301" t="n">
-        <v>1.67</v>
+        <v>2.08</v>
       </c>
       <c r="AY301" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AZ301" t="n">
-        <v>2.75</v>
+        <v>2.08</v>
       </c>
       <c r="BA301" t="n">
         <v>1.27</v>
@@ -61627,7 +61627,7 @@
         <v>1.5</v>
       </c>
       <c r="BC301" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="BD301" t="n">
         <v>2.45</v>
@@ -61636,22 +61636,22 @@
         <v>3.4</v>
       </c>
       <c r="BF301" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BG301" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BH301" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BI301" t="n">
+        <v>21</v>
+      </c>
+      <c r="BJ301" t="n">
         <v>8</v>
       </c>
-      <c r="BJ301" t="n">
-        <v>6</v>
-      </c>
       <c r="BK301" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="302">
@@ -61659,7 +61659,7 @@
         <v>301</v>
       </c>
       <c r="B302" t="n">
-        <v>2569843</v>
+        <v>2569850</v>
       </c>
       <c r="C302" t="inlineStr">
         <is>
@@ -61679,182 +61679,182 @@
       </c>
       <c r="G302" t="inlineStr">
         <is>
-          <t>Bolton Wanderers</t>
+          <t>Ipswich Town</t>
         </is>
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>Portsmouth</t>
+          <t>Plymouth Argyle</t>
         </is>
       </c>
       <c r="I302" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J302" t="n">
         <v>0</v>
       </c>
       <c r="K302" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L302" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M302" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N302" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O302" t="inlineStr">
         <is>
-          <t>['15', '48', '71']</t>
+          <t>['63']</t>
         </is>
       </c>
       <c r="P302" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['90+3']</t>
         </is>
       </c>
       <c r="Q302" t="n">
         <v>4</v>
       </c>
       <c r="R302" t="n">
+        <v>2</v>
+      </c>
+      <c r="S302" t="n">
+        <v>6</v>
+      </c>
+      <c r="T302" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U302" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V302" t="n">
+        <v>6</v>
+      </c>
+      <c r="W302" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X302" t="n">
         <v>3</v>
       </c>
-      <c r="S302" t="n">
+      <c r="Y302" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z302" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA302" t="n">
         <v>7</v>
       </c>
-      <c r="T302" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U302" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V302" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="W302" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="X302" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Y302" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z302" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AA302" t="n">
-        <v>8</v>
-      </c>
       <c r="AB302" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="AC302" t="n">
-        <v>1.94</v>
+        <v>1.61</v>
       </c>
       <c r="AD302" t="n">
-        <v>3.35</v>
+        <v>3.65</v>
       </c>
       <c r="AE302" t="n">
-        <v>3.55</v>
+        <v>4.8</v>
       </c>
       <c r="AF302" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="AG302" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AH302" t="n">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="AI302" t="n">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="AJ302" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK302" t="n">
         <v>1.93</v>
       </c>
-      <c r="AK302" t="n">
-        <v>1.75</v>
-      </c>
       <c r="AL302" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM302" t="n">
         <v>1.8</v>
       </c>
-      <c r="AM302" t="n">
-        <v>1.95</v>
-      </c>
       <c r="AN302" t="n">
-        <v>1.3</v>
+        <v>1.12</v>
       </c>
       <c r="AO302" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AP302" t="n">
-        <v>1.78</v>
+        <v>2.5</v>
       </c>
       <c r="AQ302" t="n">
-        <v>1.92</v>
+        <v>2.08</v>
       </c>
       <c r="AR302" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AS302" t="n">
         <v>2.07</v>
       </c>
       <c r="AT302" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="AU302" t="n">
-        <v>1.55</v>
+        <v>2.17</v>
       </c>
       <c r="AV302" t="n">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AW302" t="n">
-        <v>2.99</v>
+        <v>3.54</v>
       </c>
       <c r="AX302" t="n">
-        <v>1.66</v>
+        <v>1.3</v>
       </c>
       <c r="AY302" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="AZ302" t="n">
-        <v>2.75</v>
+        <v>4.4</v>
       </c>
       <c r="BA302" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="BB302" t="n">
-        <v>1.38</v>
+        <v>1.34</v>
       </c>
       <c r="BC302" t="n">
-        <v>1.67</v>
+        <v>1.61</v>
       </c>
       <c r="BD302" t="n">
-        <v>2.12</v>
+        <v>2.02</v>
       </c>
       <c r="BE302" t="n">
-        <v>2.85</v>
+        <v>2.65</v>
       </c>
       <c r="BF302" t="n">
         <v>7</v>
       </c>
       <c r="BG302" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH302" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI302" t="n">
         <v>3</v>
       </c>
-      <c r="BH302" t="n">
-        <v>5</v>
-      </c>
-      <c r="BI302" t="n">
-        <v>11</v>
-      </c>
       <c r="BJ302" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BK302" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="303">
@@ -61862,7 +61862,7 @@
         <v>302</v>
       </c>
       <c r="B303" t="n">
-        <v>2569850</v>
+        <v>2569849</v>
       </c>
       <c r="C303" t="inlineStr">
         <is>
@@ -61882,65 +61882,65 @@
       </c>
       <c r="G303" t="inlineStr">
         <is>
-          <t>Ipswich Town</t>
+          <t>Fleetwood Town</t>
         </is>
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>Plymouth Argyle</t>
+          <t>Oxford United</t>
         </is>
       </c>
       <c r="I303" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J303" t="n">
         <v>0</v>
       </c>
       <c r="K303" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
       <c r="M303" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N303" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O303" t="inlineStr">
         <is>
-          <t>['63']</t>
+          <t>['44']</t>
         </is>
       </c>
       <c r="P303" t="inlineStr">
         <is>
-          <t>['90+3']</t>
+          <t>['62', '90']</t>
         </is>
       </c>
       <c r="Q303" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="R303" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S303" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="T303" t="n">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="U303" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="V303" t="n">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="W303" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="X303" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Y303" t="n">
         <v>2.75</v>
@@ -61949,115 +61949,115 @@
         <v>1.4</v>
       </c>
       <c r="AA303" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB303" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC303" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AD303" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE303" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AF303" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG303" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH303" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI303" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ303" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AK303" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL303" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM303" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN303" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AO303" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP303" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ303" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR303" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AS303" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="AT303" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AU303" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AV303" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AW303" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AX303" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AY303" t="n">
         <v>7</v>
       </c>
-      <c r="AB303" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AC303" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="AD303" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="AE303" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="AF303" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AG303" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH303" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AI303" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AJ303" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AK303" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="AL303" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AM303" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AN303" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="AO303" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AP303" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AQ303" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="AR303" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="AS303" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="AT303" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AU303" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="AV303" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="AW303" t="n">
-        <v>3.54</v>
-      </c>
-      <c r="AX303" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AY303" t="n">
-        <v>9</v>
-      </c>
       <c r="AZ303" t="n">
-        <v>4.4</v>
+        <v>2.43</v>
       </c>
       <c r="BA303" t="n">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="BB303" t="n">
-        <v>1.34</v>
+        <v>1.47</v>
       </c>
       <c r="BC303" t="n">
-        <v>1.61</v>
+        <v>1.82</v>
       </c>
       <c r="BD303" t="n">
-        <v>2.02</v>
+        <v>2.38</v>
       </c>
       <c r="BE303" t="n">
-        <v>2.65</v>
+        <v>3.25</v>
       </c>
       <c r="BF303" t="n">
         <v>7</v>
       </c>
       <c r="BG303" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BH303" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="BI303" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BJ303" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="BK303" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="304">
@@ -62065,7 +62065,7 @@
         <v>303</v>
       </c>
       <c r="B304" t="n">
-        <v>2569842</v>
+        <v>2569851</v>
       </c>
       <c r="C304" t="inlineStr">
         <is>
@@ -62085,12 +62085,12 @@
       </c>
       <c r="G304" t="inlineStr">
         <is>
-          <t>Accrington Stanley</t>
+          <t>Milton Keynes Dons</t>
         </is>
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>Bristol Rovers</t>
+          <t>Lincoln City</t>
         </is>
       </c>
       <c r="I304" t="n">
@@ -62103,17 +62103,17 @@
         <v>0</v>
       </c>
       <c r="L304" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M304" t="n">
         <v>0</v>
       </c>
       <c r="N304" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O304" t="inlineStr">
         <is>
-          <t>['51', '79']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P304" t="inlineStr">
@@ -62122,145 +62122,145 @@
         </is>
       </c>
       <c r="Q304" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R304" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S304" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="T304" t="n">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="U304" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="V304" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W304" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X304" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y304" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z304" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA304" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB304" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC304" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AD304" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AE304" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AF304" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG304" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH304" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI304" t="n">
         <v>3.1</v>
       </c>
-      <c r="W304" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="X304" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Y304" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Z304" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AA304" t="n">
-        <v>8</v>
-      </c>
-      <c r="AB304" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="AC304" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="AD304" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AE304" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="AF304" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AG304" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH304" t="n">
+      <c r="AJ304" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK304" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AL304" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM304" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN304" t="n">
         <v>1.28</v>
-      </c>
-      <c r="AI304" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AJ304" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AK304" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="AL304" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AM304" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AN304" t="n">
-        <v>1.57</v>
       </c>
       <c r="AO304" t="n">
         <v>1.25</v>
       </c>
       <c r="AP304" t="n">
-        <v>1.44</v>
+        <v>1.78</v>
       </c>
       <c r="AQ304" t="n">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AR304" t="n">
-        <v>1.38</v>
+        <v>1.08</v>
       </c>
       <c r="AS304" t="n">
-        <v>1.17</v>
+        <v>0.64</v>
       </c>
       <c r="AT304" t="n">
-        <v>1.29</v>
+        <v>1.08</v>
       </c>
       <c r="AU304" t="n">
-        <v>1.51</v>
+        <v>1.33</v>
       </c>
       <c r="AV304" t="n">
-        <v>1.18</v>
+        <v>0.88</v>
       </c>
       <c r="AW304" t="n">
-        <v>2.69</v>
+        <v>2.21</v>
       </c>
       <c r="AX304" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AY304" t="n">
         <v>7.5</v>
       </c>
       <c r="AZ304" t="n">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="BA304" t="n">
-        <v>1.18</v>
+        <v>1.27</v>
       </c>
       <c r="BB304" t="n">
-        <v>1.34</v>
+        <v>1.5</v>
       </c>
       <c r="BC304" t="n">
-        <v>1.6</v>
+        <v>1.85</v>
       </c>
       <c r="BD304" t="n">
-        <v>1.9</v>
+        <v>2.45</v>
       </c>
       <c r="BE304" t="n">
-        <v>2.65</v>
+        <v>3.4</v>
       </c>
       <c r="BF304" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BG304" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH304" t="n">
         <v>4</v>
       </c>
-      <c r="BH304" t="n">
+      <c r="BI304" t="n">
         <v>8</v>
       </c>
-      <c r="BI304" t="n">
-        <v>5</v>
-      </c>
       <c r="BJ304" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="BK304" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="305">
@@ -62471,7 +62471,7 @@
         <v>305</v>
       </c>
       <c r="B306" t="n">
-        <v>2569862</v>
+        <v>2569860</v>
       </c>
       <c r="C306" t="inlineStr">
         <is>
@@ -62491,59 +62491,59 @@
       </c>
       <c r="G306" t="inlineStr">
         <is>
-          <t>Plymouth Argyle</t>
+          <t>Oxford United</t>
         </is>
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>Cheltenham Town</t>
+          <t>Ipswich Town</t>
         </is>
       </c>
       <c r="I306" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J306" t="n">
         <v>1</v>
       </c>
       <c r="K306" t="n">
+        <v>2</v>
+      </c>
+      <c r="L306" t="n">
+        <v>2</v>
+      </c>
+      <c r="M306" t="n">
+        <v>1</v>
+      </c>
+      <c r="N306" t="n">
         <v>3</v>
       </c>
-      <c r="L306" t="n">
-        <v>4</v>
-      </c>
-      <c r="M306" t="n">
-        <v>2</v>
-      </c>
-      <c r="N306" t="n">
-        <v>6</v>
-      </c>
       <c r="O306" t="inlineStr">
         <is>
-          <t>['26', '28', '64', '83']</t>
+          <t>['34', '83']</t>
         </is>
       </c>
       <c r="P306" t="inlineStr">
         <is>
-          <t>['40', '70']</t>
+          <t>['38']</t>
         </is>
       </c>
       <c r="Q306" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="R306" t="n">
         <v>5</v>
       </c>
       <c r="S306" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="T306" t="n">
-        <v>2.1</v>
+        <v>3.8</v>
       </c>
       <c r="U306" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="V306" t="n">
-        <v>6</v>
+        <v>2.45</v>
       </c>
       <c r="W306" t="n">
         <v>1.35</v>
@@ -62564,109 +62564,109 @@
         <v>1.1</v>
       </c>
       <c r="AC306" t="n">
-        <v>1.45</v>
+        <v>3.65</v>
       </c>
       <c r="AD306" t="n">
-        <v>4</v>
+        <v>3.55</v>
       </c>
       <c r="AE306" t="n">
-        <v>5.4</v>
+        <v>1.77</v>
       </c>
       <c r="AF306" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="AG306" t="n">
-        <v>13</v>
+        <v>9.5</v>
       </c>
       <c r="AH306" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="AI306" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AJ306" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="AK306" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="AL306" t="n">
-        <v>1.85</v>
+        <v>1.67</v>
       </c>
       <c r="AM306" t="n">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="AN306" t="n">
-        <v>1.11</v>
+        <v>1.9</v>
       </c>
       <c r="AO306" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP306" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AQ306" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR306" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AS306" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AT306" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AU306" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AV306" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AW306" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="AX306" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AY306" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ306" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BA306" t="n">
         <v>1.18</v>
       </c>
-      <c r="AP306" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="AQ306" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="AR306" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="AS306" t="n">
-        <v>2.79</v>
-      </c>
-      <c r="AT306" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="AU306" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AV306" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="AW306" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="AX306" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="AY306" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AZ306" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="BA306" t="n">
-        <v>1.2</v>
-      </c>
       <c r="BB306" t="n">
-        <v>1.39</v>
+        <v>1.33</v>
       </c>
       <c r="BC306" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="BD306" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="BE306" t="n">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="BF306" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG306" t="n">
         <v>8</v>
       </c>
-      <c r="BG306" t="n">
-        <v>5</v>
-      </c>
       <c r="BH306" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI306" t="n">
         <v>9</v>
       </c>
-      <c r="BI306" t="n">
-        <v>6</v>
-      </c>
       <c r="BJ306" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK306" t="n">
         <v>17</v>
-      </c>
-      <c r="BK306" t="n">
-        <v>11</v>
       </c>
     </row>
     <row r="307">
@@ -63080,7 +63080,7 @@
         <v>308</v>
       </c>
       <c r="B309" t="n">
-        <v>2569863</v>
+        <v>2569862</v>
       </c>
       <c r="C309" t="inlineStr">
         <is>
@@ -63100,182 +63100,182 @@
       </c>
       <c r="G309" t="inlineStr">
         <is>
-          <t>Portsmouth</t>
+          <t>Plymouth Argyle</t>
         </is>
       </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t>Exeter City</t>
+          <t>Cheltenham Town</t>
         </is>
       </c>
       <c r="I309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J309" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K309" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L309" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N309" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O309" t="inlineStr">
         <is>
-          <t>['57', '74']</t>
+          <t>['26', '28', '64', '83']</t>
         </is>
       </c>
       <c r="P309" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['40', '70']</t>
         </is>
       </c>
       <c r="Q309" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R309" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="S309" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="T309" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U309" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V309" t="n">
+        <v>6</v>
+      </c>
+      <c r="W309" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X309" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Y309" t="n">
         <v>2.8</v>
-      </c>
-      <c r="U309" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="V309" t="n">
-        <v>4</v>
-      </c>
-      <c r="W309" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="X309" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="Y309" t="n">
-        <v>2.9</v>
       </c>
       <c r="Z309" t="n">
         <v>1.37</v>
       </c>
       <c r="AA309" t="n">
-        <v>7.35</v>
+        <v>5.8</v>
       </c>
       <c r="AB309" t="n">
-        <v>1.06</v>
+        <v>1.1</v>
       </c>
       <c r="AC309" t="n">
-        <v>2</v>
+        <v>1.45</v>
       </c>
       <c r="AD309" t="n">
-        <v>3.35</v>
+        <v>4</v>
       </c>
       <c r="AE309" t="n">
-        <v>3.05</v>
+        <v>5.4</v>
       </c>
       <c r="AF309" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="AG309" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AH309" t="n">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="AI309" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="AJ309" t="n">
-        <v>1.89</v>
+        <v>1.75</v>
       </c>
       <c r="AK309" t="n">
-        <v>1.71</v>
+        <v>1.85</v>
       </c>
       <c r="AL309" t="n">
-        <v>1.78</v>
+        <v>1.85</v>
       </c>
       <c r="AM309" t="n">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="AN309" t="n">
-        <v>1.22</v>
+        <v>1.11</v>
       </c>
       <c r="AO309" t="n">
-        <v>1.32</v>
+        <v>1.18</v>
       </c>
       <c r="AP309" t="n">
-        <v>1.7</v>
+        <v>2.55</v>
       </c>
       <c r="AQ309" t="n">
-        <v>1.33</v>
+        <v>2.77</v>
       </c>
       <c r="AR309" t="n">
-        <v>1.23</v>
+        <v>0.92</v>
       </c>
       <c r="AS309" t="n">
-        <v>1.46</v>
+        <v>2.79</v>
       </c>
       <c r="AT309" t="n">
-        <v>1.14</v>
+        <v>0.86</v>
       </c>
       <c r="AU309" t="n">
-        <v>1.43</v>
+        <v>1.83</v>
       </c>
       <c r="AV309" t="n">
-        <v>1.43</v>
+        <v>1.03</v>
       </c>
       <c r="AW309" t="n">
         <v>2.86</v>
       </c>
       <c r="AX309" t="n">
-        <v>2.07</v>
+        <v>1.32</v>
       </c>
       <c r="AY309" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AZ309" t="n">
-        <v>2.07</v>
+        <v>4.3</v>
       </c>
       <c r="BA309" t="n">
-        <v>1.14</v>
+        <v>1.2</v>
       </c>
       <c r="BB309" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="BC309" t="n">
-        <v>1.55</v>
+        <v>1.7</v>
       </c>
       <c r="BD309" t="n">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="BE309" t="n">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="BF309" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG309" t="n">
         <v>5</v>
       </c>
-      <c r="BG309" t="n">
-        <v>4</v>
-      </c>
       <c r="BH309" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI309" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ309" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK309" t="n">
         <v>11</v>
-      </c>
-      <c r="BI309" t="n">
-        <v>11</v>
-      </c>
-      <c r="BJ309" t="n">
-        <v>16</v>
-      </c>
-      <c r="BK309" t="n">
-        <v>15</v>
       </c>
     </row>
     <row r="310">
@@ -63486,7 +63486,7 @@
         <v>310</v>
       </c>
       <c r="B311" t="n">
-        <v>2569860</v>
+        <v>2569863</v>
       </c>
       <c r="C311" t="inlineStr">
         <is>
@@ -63506,182 +63506,182 @@
       </c>
       <c r="G311" t="inlineStr">
         <is>
-          <t>Oxford United</t>
+          <t>Portsmouth</t>
         </is>
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>Ipswich Town</t>
+          <t>Exeter City</t>
         </is>
       </c>
       <c r="I311" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J311" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K311" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L311" t="n">
         <v>2</v>
       </c>
       <c r="M311" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N311" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O311" t="inlineStr">
         <is>
-          <t>['34', '83']</t>
+          <t>['57', '74']</t>
         </is>
       </c>
       <c r="P311" t="inlineStr">
         <is>
-          <t>['38']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q311" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="R311" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="S311" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="T311" t="n">
-        <v>3.8</v>
+        <v>2.8</v>
       </c>
       <c r="U311" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="V311" t="n">
-        <v>2.45</v>
+        <v>4</v>
       </c>
       <c r="W311" t="n">
-        <v>1.35</v>
+        <v>1.39</v>
       </c>
       <c r="X311" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Y311" t="n">
         <v>2.9</v>
-      </c>
-      <c r="Y311" t="n">
-        <v>2.8</v>
       </c>
       <c r="Z311" t="n">
         <v>1.37</v>
       </c>
       <c r="AA311" t="n">
-        <v>5.8</v>
+        <v>7.35</v>
       </c>
       <c r="AB311" t="n">
-        <v>1.1</v>
+        <v>1.06</v>
       </c>
       <c r="AC311" t="n">
-        <v>3.65</v>
+        <v>2</v>
       </c>
       <c r="AD311" t="n">
-        <v>3.55</v>
+        <v>3.35</v>
       </c>
       <c r="AE311" t="n">
-        <v>1.77</v>
+        <v>3.05</v>
       </c>
       <c r="AF311" t="n">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="AG311" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AH311" t="n">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="AI311" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="AJ311" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AK311" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AL311" t="n">
         <v>1.78</v>
       </c>
-      <c r="AK311" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="AL311" t="n">
-        <v>1.67</v>
-      </c>
       <c r="AM311" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="AN311" t="n">
-        <v>1.9</v>
+        <v>1.22</v>
       </c>
       <c r="AO311" t="n">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AP311" t="n">
-        <v>1.22</v>
+        <v>1.7</v>
       </c>
       <c r="AQ311" t="n">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="AR311" t="n">
-        <v>1.92</v>
+        <v>1.23</v>
       </c>
       <c r="AS311" t="n">
-        <v>1.38</v>
+        <v>1.46</v>
       </c>
       <c r="AT311" t="n">
-        <v>1.79</v>
+        <v>1.14</v>
       </c>
       <c r="AU311" t="n">
-        <v>1.91</v>
+        <v>1.43</v>
       </c>
       <c r="AV311" t="n">
-        <v>1.9</v>
+        <v>1.43</v>
       </c>
       <c r="AW311" t="n">
-        <v>3.81</v>
+        <v>2.86</v>
       </c>
       <c r="AX311" t="n">
-        <v>2.6</v>
+        <v>2.07</v>
       </c>
       <c r="AY311" t="n">
         <v>7.5</v>
       </c>
       <c r="AZ311" t="n">
-        <v>1.72</v>
+        <v>2.07</v>
       </c>
       <c r="BA311" t="n">
-        <v>1.18</v>
+        <v>1.14</v>
       </c>
       <c r="BB311" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="BC311" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="BD311" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="BE311" t="n">
-        <v>2.7</v>
+        <v>2.25</v>
       </c>
       <c r="BF311" t="n">
         <v>5</v>
       </c>
       <c r="BG311" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BH311" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="BI311" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BJ311" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="BK311" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="312">
@@ -63689,7 +63689,7 @@
         <v>311</v>
       </c>
       <c r="B312" t="n">
-        <v>2569865</v>
+        <v>2569864</v>
       </c>
       <c r="C312" t="inlineStr">
         <is>
@@ -63709,182 +63709,182 @@
       </c>
       <c r="G312" t="inlineStr">
         <is>
-          <t>Shrewsbury Town</t>
+          <t>Sheffield Wednesday</t>
         </is>
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>Cambridge United</t>
+          <t>Fleetwood Town</t>
         </is>
       </c>
       <c r="I312" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J312" t="n">
         <v>0</v>
       </c>
       <c r="K312" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L312" t="n">
+        <v>1</v>
+      </c>
+      <c r="M312" t="n">
+        <v>0</v>
+      </c>
+      <c r="N312" t="n">
+        <v>1</v>
+      </c>
+      <c r="O312" t="inlineStr">
+        <is>
+          <t>['17']</t>
+        </is>
+      </c>
+      <c r="P312" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q312" t="n">
+        <v>4</v>
+      </c>
+      <c r="R312" t="n">
+        <v>2</v>
+      </c>
+      <c r="S312" t="n">
+        <v>6</v>
+      </c>
+      <c r="T312" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="U312" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="V312" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="W312" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X312" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Y312" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Z312" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AA312" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AB312" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC312" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AD312" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AE312" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AF312" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG312" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH312" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI312" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AJ312" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AK312" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AL312" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AM312" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN312" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AO312" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP312" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AQ312" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AR312" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AS312" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AT312" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AU312" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AV312" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AW312" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="AX312" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AY312" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AZ312" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="BA312" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BB312" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BC312" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BD312" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE312" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF312" t="n">
         <v>5</v>
       </c>
-      <c r="M312" t="n">
-        <v>1</v>
-      </c>
-      <c r="N312" t="n">
-        <v>6</v>
-      </c>
-      <c r="O312" t="inlineStr">
-        <is>
-          <t>['33', '45+5', '57', '71', '90+1']</t>
-        </is>
-      </c>
-      <c r="P312" t="inlineStr">
-        <is>
-          <t>['69']</t>
-        </is>
-      </c>
-      <c r="Q312" t="n">
-        <v>7</v>
-      </c>
-      <c r="R312" t="n">
-        <v>5</v>
-      </c>
-      <c r="S312" t="n">
-        <v>12</v>
-      </c>
-      <c r="T312" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="U312" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V312" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="W312" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="X312" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="Y312" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="Z312" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="AA312" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AB312" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AC312" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="AD312" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="AE312" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="AF312" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AG312" t="n">
-        <v>8</v>
-      </c>
-      <c r="AH312" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AI312" t="n">
-        <v>3</v>
-      </c>
-      <c r="AJ312" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="AK312" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="AL312" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="AM312" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AN312" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="AO312" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AP312" t="n">
-        <v>2</v>
-      </c>
-      <c r="AQ312" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="AR312" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="AS312" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="AT312" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="AU312" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AV312" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AW312" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="AX312" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="AY312" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AZ312" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="BA312" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="BB312" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="BC312" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="BD312" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="BE312" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="BF312" t="n">
-        <v>9</v>
-      </c>
       <c r="BG312" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BH312" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BI312" t="n">
         <v>8</v>
       </c>
       <c r="BJ312" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="BK312" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="313">
@@ -63892,7 +63892,7 @@
         <v>312</v>
       </c>
       <c r="B313" t="n">
-        <v>2569864</v>
+        <v>2569865</v>
       </c>
       <c r="C313" t="inlineStr">
         <is>
@@ -63912,182 +63912,182 @@
       </c>
       <c r="G313" t="inlineStr">
         <is>
-          <t>Sheffield Wednesday</t>
+          <t>Shrewsbury Town</t>
         </is>
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t>Fleetwood Town</t>
+          <t>Cambridge United</t>
         </is>
       </c>
       <c r="I313" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J313" t="n">
         <v>0</v>
       </c>
       <c r="K313" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L313" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M313" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N313" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O313" t="inlineStr">
         <is>
-          <t>['17']</t>
+          <t>['33', '45+5', '57', '71', '90+1']</t>
         </is>
       </c>
       <c r="P313" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['69']</t>
         </is>
       </c>
       <c r="Q313" t="n">
+        <v>7</v>
+      </c>
+      <c r="R313" t="n">
+        <v>5</v>
+      </c>
+      <c r="S313" t="n">
+        <v>12</v>
+      </c>
+      <c r="T313" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U313" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V313" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="W313" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X313" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Y313" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Z313" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA313" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AB313" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC313" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AD313" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE313" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="AF313" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG313" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH313" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI313" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ313" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AK313" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AL313" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AM313" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN313" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AO313" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP313" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ313" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AR313" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="AS313" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AT313" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="AU313" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AV313" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AW313" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AX313" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AY313" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ313" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BA313" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB313" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BC313" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BD313" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE313" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BF313" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG313" t="n">
         <v>4</v>
       </c>
-      <c r="R313" t="n">
-        <v>2</v>
-      </c>
-      <c r="S313" t="n">
-        <v>6</v>
-      </c>
-      <c r="T313" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="U313" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="V313" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="W313" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="X313" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="Y313" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="Z313" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="AA313" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AB313" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AC313" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="AD313" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="AE313" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AF313" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="AG313" t="n">
+      <c r="BH313" t="n">
         <v>11</v>
-      </c>
-      <c r="AH313" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AI313" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="AJ313" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="AK313" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="AL313" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="AM313" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="AN313" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="AO313" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AP313" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AQ313" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="AR313" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="AS313" t="n">
-        <v>2.21</v>
-      </c>
-      <c r="AT313" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AU313" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AV313" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AW313" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="AX313" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="AY313" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AZ313" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="BA313" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="BB313" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="BC313" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="BD313" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="BE313" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="BF313" t="n">
-        <v>5</v>
-      </c>
-      <c r="BG313" t="n">
-        <v>2</v>
-      </c>
-      <c r="BH313" t="n">
-        <v>10</v>
       </c>
       <c r="BI313" t="n">
         <v>8</v>
       </c>
       <c r="BJ313" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="BK313" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="314">
@@ -64298,7 +64298,7 @@
         <v>314</v>
       </c>
       <c r="B315" t="n">
-        <v>2569833</v>
+        <v>2569841</v>
       </c>
       <c r="C315" t="inlineStr">
         <is>
@@ -64318,35 +64318,35 @@
       </c>
       <c r="G315" t="inlineStr">
         <is>
-          <t>Ipswich Town</t>
+          <t>Wycombe Wanderers</t>
         </is>
       </c>
       <c r="H315" t="inlineStr">
         <is>
-          <t>Morecambe</t>
+          <t>Oxford United</t>
         </is>
       </c>
       <c r="I315" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J315" t="n">
         <v>0</v>
       </c>
       <c r="K315" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L315" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M315" t="n">
         <v>0</v>
       </c>
       <c r="N315" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O315" t="inlineStr">
         <is>
-          <t>['1', '16', '38', '45+6']</t>
+          <t>['19', '35']</t>
         </is>
       </c>
       <c r="P315" t="inlineStr">
@@ -64355,112 +64355,112 @@
         </is>
       </c>
       <c r="Q315" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="R315" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S315" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="T315" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="U315" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V315" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W315" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X315" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="Y315" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Z315" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AA315" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB315" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC315" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="AD315" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE315" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AF315" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG315" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH315" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI315" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ315" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AK315" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AL315" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AM315" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN315" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AO315" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP315" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AQ315" t="n">
         <v>1.62</v>
       </c>
-      <c r="U315" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="V315" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="W315" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="X315" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="Y315" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="Z315" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="AA315" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AB315" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="AC315" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="AD315" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="AE315" t="n">
-        <v>12.05</v>
-      </c>
-      <c r="AF315" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="AG315" t="n">
-        <v>18</v>
-      </c>
-      <c r="AH315" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AI315" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="AJ315" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="AK315" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="AL315" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AM315" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="AN315" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AO315" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="AP315" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="AQ315" t="n">
-        <v>2</v>
-      </c>
       <c r="AR315" t="n">
-        <v>0.58</v>
+        <v>1.31</v>
       </c>
       <c r="AS315" t="n">
-        <v>2.07</v>
+        <v>1.71</v>
       </c>
       <c r="AT315" t="n">
-        <v>0.54</v>
+        <v>1.21</v>
       </c>
       <c r="AU315" t="n">
-        <v>2.13</v>
+        <v>1.83</v>
       </c>
       <c r="AV315" t="n">
         <v>1.14</v>
       </c>
       <c r="AW315" t="n">
-        <v>3.27</v>
+        <v>2.97</v>
       </c>
       <c r="AX315" t="n">
-        <v>1.15</v>
+        <v>1.48</v>
       </c>
       <c r="AY315" t="n">
-        <v>11.5</v>
+        <v>8</v>
       </c>
       <c r="AZ315" t="n">
-        <v>7</v>
+        <v>3.3</v>
       </c>
       <c r="BA315" t="n">
         <v>1.18</v>
@@ -64469,7 +64469,7 @@
         <v>1.34</v>
       </c>
       <c r="BC315" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="BD315" t="n">
         <v>2.02</v>
@@ -64478,22 +64478,22 @@
         <v>2.65</v>
       </c>
       <c r="BF315" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="BG315" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BH315" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="BI315" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="BJ315" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="BK315" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="316">
@@ -64501,7 +64501,7 @@
         <v>315</v>
       </c>
       <c r="B316" t="n">
-        <v>2569841</v>
+        <v>2569840</v>
       </c>
       <c r="C316" t="inlineStr">
         <is>
@@ -64521,149 +64521,149 @@
       </c>
       <c r="G316" t="inlineStr">
         <is>
-          <t>Wycombe Wanderers</t>
+          <t>Port Vale</t>
         </is>
       </c>
       <c r="H316" t="inlineStr">
         <is>
-          <t>Oxford United</t>
+          <t>Derby County</t>
         </is>
       </c>
       <c r="I316" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J316" t="n">
         <v>0</v>
       </c>
       <c r="K316" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L316" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N316" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O316" t="inlineStr">
         <is>
-          <t>['19', '35']</t>
+          <t>['56']</t>
         </is>
       </c>
       <c r="P316" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['87', '89']</t>
         </is>
       </c>
       <c r="Q316" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="R316" t="n">
+        <v>9</v>
+      </c>
+      <c r="S316" t="n">
+        <v>16</v>
+      </c>
+      <c r="T316" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U316" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V316" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="W316" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X316" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y316" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Z316" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA316" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB316" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC316" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="AD316" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AE316" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AF316" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG316" t="n">
         <v>10</v>
       </c>
-      <c r="S316" t="n">
-        <v>12</v>
-      </c>
-      <c r="T316" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="U316" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="V316" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="W316" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="X316" t="n">
-        <v>2.87</v>
-      </c>
-      <c r="Y316" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="Z316" t="n">
+      <c r="AH316" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AI316" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AJ316" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK316" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AL316" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM316" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN316" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AO316" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP316" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AQ316" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR316" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AS316" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AT316" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU316" t="n">
         <v>1.43</v>
       </c>
-      <c r="AA316" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AB316" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AC316" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="AD316" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AE316" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="AF316" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AG316" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH316" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AI316" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AJ316" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="AK316" t="n">
+      <c r="AV316" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AW316" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="AX316" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AY316" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ316" t="n">
         <v>1.88</v>
-      </c>
-      <c r="AL316" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="AM316" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AN316" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AO316" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AP316" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="AQ316" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="AR316" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="AS316" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="AT316" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="AU316" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AV316" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="AW316" t="n">
-        <v>2.97</v>
-      </c>
-      <c r="AX316" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="AY316" t="n">
-        <v>8</v>
-      </c>
-      <c r="AZ316" t="n">
-        <v>3.3</v>
       </c>
       <c r="BA316" t="n">
         <v>1.18</v>
@@ -64681,22 +64681,22 @@
         <v>2.65</v>
       </c>
       <c r="BF316" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BG316" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="BH316" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="BI316" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="BJ316" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BK316" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="317">
@@ -64907,7 +64907,7 @@
         <v>317</v>
       </c>
       <c r="B318" t="n">
-        <v>2569783</v>
+        <v>2569833</v>
       </c>
       <c r="C318" t="inlineStr">
         <is>
@@ -64927,149 +64927,149 @@
       </c>
       <c r="G318" t="inlineStr">
         <is>
-          <t>Fleetwood Town</t>
+          <t>Ipswich Town</t>
         </is>
       </c>
       <c r="H318" t="inlineStr">
         <is>
-          <t>Portsmouth</t>
+          <t>Morecambe</t>
         </is>
       </c>
       <c r="I318" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J318" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K318" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L318" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M318" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N318" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O318" t="inlineStr">
         <is>
+          <t>['1', '16', '38', '45+6']</t>
+        </is>
+      </c>
+      <c r="P318" t="inlineStr">
+        <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="P318" t="inlineStr">
-        <is>
-          <t>['43', '83']</t>
-        </is>
-      </c>
       <c r="Q318" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="R318" t="n">
+        <v>1</v>
+      </c>
+      <c r="S318" t="n">
         <v>7</v>
       </c>
-      <c r="S318" t="n">
-        <v>11</v>
-      </c>
       <c r="T318" t="n">
-        <v>3.4</v>
+        <v>1.62</v>
       </c>
       <c r="U318" t="n">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="V318" t="n">
-        <v>2.95</v>
+        <v>9.5</v>
       </c>
       <c r="W318" t="n">
-        <v>1.38</v>
+        <v>1.28</v>
       </c>
       <c r="X318" t="n">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="Y318" t="n">
-        <v>2.75</v>
+        <v>2.35</v>
       </c>
       <c r="Z318" t="n">
-        <v>1.4</v>
+        <v>1.52</v>
       </c>
       <c r="AA318" t="n">
-        <v>7.25</v>
+        <v>5.5</v>
       </c>
       <c r="AB318" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC318" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AD318" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="AE318" t="n">
+        <v>12.05</v>
+      </c>
+      <c r="AF318" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG318" t="n">
+        <v>18</v>
+      </c>
+      <c r="AH318" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI318" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AJ318" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AK318" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AL318" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AM318" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AN318" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AO318" t="n">
         <v>1.09</v>
       </c>
-      <c r="AC318" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="AD318" t="n">
-        <v>3.18</v>
-      </c>
-      <c r="AE318" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="AF318" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AG318" t="n">
+      <c r="AP318" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AQ318" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR318" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="AS318" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AT318" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="AU318" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AV318" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AW318" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="AX318" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AY318" t="n">
         <v>11.5</v>
       </c>
-      <c r="AH318" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="AI318" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AJ318" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="AK318" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AL318" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="AM318" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AN318" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="AO318" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AP318" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AQ318" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="AR318" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AS318" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="AT318" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AU318" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="AV318" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AW318" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="AX318" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AY318" t="n">
-        <v>7.5</v>
-      </c>
       <c r="AZ318" t="n">
-        <v>2.43</v>
+        <v>7</v>
       </c>
       <c r="BA318" t="n">
         <v>1.18</v>
@@ -65078,7 +65078,7 @@
         <v>1.34</v>
       </c>
       <c r="BC318" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="BD318" t="n">
         <v>2.02</v>
@@ -65087,22 +65087,22 @@
         <v>2.65</v>
       </c>
       <c r="BF318" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="BG318" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="BH318" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BI318" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="BJ318" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="BK318" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="319">
@@ -65110,7 +65110,7 @@
         <v>318</v>
       </c>
       <c r="B319" t="n">
-        <v>2569840</v>
+        <v>2569783</v>
       </c>
       <c r="C319" t="inlineStr">
         <is>
@@ -65130,149 +65130,149 @@
       </c>
       <c r="G319" t="inlineStr">
         <is>
-          <t>Port Vale</t>
+          <t>Fleetwood Town</t>
         </is>
       </c>
       <c r="H319" t="inlineStr">
         <is>
-          <t>Derby County</t>
+          <t>Portsmouth</t>
         </is>
       </c>
       <c r="I319" t="n">
         <v>0</v>
       </c>
       <c r="J319" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K319" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L319" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M319" t="n">
         <v>2</v>
       </c>
       <c r="N319" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O319" t="inlineStr">
         <is>
-          <t>['56']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P319" t="inlineStr">
         <is>
-          <t>['87', '89']</t>
+          <t>['43', '83']</t>
         </is>
       </c>
       <c r="Q319" t="n">
+        <v>4</v>
+      </c>
+      <c r="R319" t="n">
         <v>7</v>
       </c>
-      <c r="R319" t="n">
-        <v>9</v>
-      </c>
       <c r="S319" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="T319" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="U319" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="V319" t="n">
         <v>2.95</v>
       </c>
       <c r="W319" t="n">
-        <v>1.45</v>
+        <v>1.38</v>
       </c>
       <c r="X319" t="n">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="Y319" t="n">
-        <v>2.95</v>
+        <v>2.75</v>
       </c>
       <c r="Z319" t="n">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="AA319" t="n">
-        <v>8.5</v>
+        <v>7.25</v>
       </c>
       <c r="AB319" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="AC319" t="n">
-        <v>2.66</v>
+        <v>2.76</v>
       </c>
       <c r="AD319" t="n">
-        <v>3.14</v>
+        <v>3.18</v>
       </c>
       <c r="AE319" t="n">
-        <v>2.38</v>
+        <v>2.28</v>
       </c>
       <c r="AF319" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AG319" t="n">
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="AH319" t="n">
-        <v>1.32</v>
+        <v>1.27</v>
       </c>
       <c r="AI319" t="n">
-        <v>3.05</v>
+        <v>3.4</v>
       </c>
       <c r="AJ319" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AK319" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL319" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AM319" t="n">
         <v>2.05</v>
       </c>
-      <c r="AK319" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="AL319" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AM319" t="n">
-        <v>1.9</v>
-      </c>
       <c r="AN319" t="n">
-        <v>1.58</v>
+        <v>1.55</v>
       </c>
       <c r="AO319" t="n">
         <v>1.28</v>
       </c>
       <c r="AP319" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="AQ319" t="n">
-        <v>1.5</v>
+        <v>0.92</v>
       </c>
       <c r="AR319" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AS319" t="n">
-        <v>1.38</v>
+        <v>0.85</v>
       </c>
       <c r="AT319" t="n">
         <v>1.5</v>
       </c>
       <c r="AU319" t="n">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="AV319" t="n">
-        <v>1.6</v>
+        <v>1.44</v>
       </c>
       <c r="AW319" t="n">
-        <v>3.03</v>
+        <v>2.9</v>
       </c>
       <c r="AX319" t="n">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="AY319" t="n">
         <v>7.5</v>
       </c>
       <c r="AZ319" t="n">
-        <v>1.88</v>
+        <v>2.43</v>
       </c>
       <c r="BA319" t="n">
         <v>1.18</v>
@@ -65293,19 +65293,19 @@
         <v>4</v>
       </c>
       <c r="BG319" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BH319" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BI319" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BJ319" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BK319" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/England EFL League One_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/England EFL League One_20222023.xlsx
@@ -54554,7 +54554,7 @@
         <v>266</v>
       </c>
       <c r="B267" t="n">
-        <v>2569013</v>
+        <v>2569011</v>
       </c>
       <c r="C267" t="inlineStr">
         <is>
@@ -54574,22 +54574,22 @@
       </c>
       <c r="G267" t="inlineStr">
         <is>
-          <t>Peterborough United</t>
+          <t>Morecambe</t>
         </is>
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>Milton Keynes Dons</t>
+          <t>Accrington Stanley</t>
         </is>
       </c>
       <c r="I267" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J267" t="n">
         <v>0</v>
       </c>
       <c r="K267" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L267" t="n">
         <v>2</v>
@@ -54602,7 +54602,7 @@
       </c>
       <c r="O267" t="inlineStr">
         <is>
-          <t>['38', '48']</t>
+          <t>['34', '43']</t>
         </is>
       </c>
       <c r="P267" t="inlineStr">
@@ -54611,22 +54611,22 @@
         </is>
       </c>
       <c r="Q267" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="R267" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="S267" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="T267" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="U267" t="n">
         <v>2.1</v>
       </c>
       <c r="V267" t="n">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="W267" t="n">
         <v>1.44</v>
@@ -54635,10 +54635,10 @@
         <v>2.63</v>
       </c>
       <c r="Y267" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Z267" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AA267" t="n">
         <v>9</v>
@@ -54647,25 +54647,25 @@
         <v>1.07</v>
       </c>
       <c r="AC267" t="n">
-        <v>1.78</v>
+        <v>2.85</v>
       </c>
       <c r="AD267" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="AE267" t="n">
-        <v>4.1</v>
+        <v>2.35</v>
       </c>
       <c r="AF267" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AG267" t="n">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="AH267" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AI267" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AJ267" t="n">
         <v>1.95</v>
@@ -54674,82 +54674,82 @@
         <v>1.7</v>
       </c>
       <c r="AL267" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM267" t="n">
         <v>1.95</v>
       </c>
-      <c r="AM267" t="n">
-        <v>1.8</v>
-      </c>
       <c r="AN267" t="n">
-        <v>1.2</v>
+        <v>1.55</v>
       </c>
       <c r="AO267" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AP267" t="n">
-        <v>1.91</v>
+        <v>1.44</v>
       </c>
       <c r="AQ267" t="n">
-        <v>2.2</v>
+        <v>0.8</v>
       </c>
       <c r="AR267" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="AS267" t="n">
-        <v>2.08</v>
+        <v>1.31</v>
       </c>
       <c r="AT267" t="n">
-        <v>1.23</v>
+        <v>0.85</v>
       </c>
       <c r="AU267" t="n">
-        <v>1.87</v>
+        <v>1.26</v>
       </c>
       <c r="AV267" t="n">
-        <v>1.22</v>
+        <v>1.38</v>
       </c>
       <c r="AW267" t="n">
-        <v>3.09</v>
+        <v>2.64</v>
       </c>
       <c r="AX267" t="n">
-        <v>1.45</v>
+        <v>2.76</v>
       </c>
       <c r="AY267" t="n">
         <v>8.5</v>
       </c>
       <c r="AZ267" t="n">
-        <v>3.32</v>
+        <v>1.64</v>
       </c>
       <c r="BA267" t="n">
-        <v>1.23</v>
+        <v>1.18</v>
       </c>
       <c r="BB267" t="n">
-        <v>1.55</v>
+        <v>1.34</v>
       </c>
       <c r="BC267" t="n">
-        <v>1.88</v>
+        <v>1.57</v>
       </c>
       <c r="BD267" t="n">
-        <v>2.3</v>
+        <v>1.98</v>
       </c>
       <c r="BE267" t="n">
-        <v>3.25</v>
+        <v>2.4</v>
       </c>
       <c r="BF267" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BG267" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="BH267" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI267" t="n">
+        <v>14</v>
+      </c>
+      <c r="BJ267" t="n">
         <v>10</v>
       </c>
-      <c r="BI267" t="n">
-        <v>3</v>
-      </c>
-      <c r="BJ267" t="n">
-        <v>17</v>
-      </c>
       <c r="BK267" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="268">
@@ -54757,7 +54757,7 @@
         <v>267</v>
       </c>
       <c r="B268" t="n">
-        <v>2569011</v>
+        <v>2569014</v>
       </c>
       <c r="C268" t="inlineStr">
         <is>
@@ -54777,35 +54777,35 @@
       </c>
       <c r="G268" t="inlineStr">
         <is>
-          <t>Morecambe</t>
+          <t>Plymouth Argyle</t>
         </is>
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>Accrington Stanley</t>
+          <t>Wycombe Wanderers</t>
         </is>
       </c>
       <c r="I268" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J268" t="n">
         <v>0</v>
       </c>
       <c r="K268" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L268" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M268" t="n">
         <v>0</v>
       </c>
       <c r="N268" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O268" t="inlineStr">
         <is>
-          <t>['34', '43']</t>
+          <t>['33']</t>
         </is>
       </c>
       <c r="P268" t="inlineStr">
@@ -54814,145 +54814,145 @@
         </is>
       </c>
       <c r="Q268" t="n">
+        <v>11</v>
+      </c>
+      <c r="R268" t="n">
         <v>3</v>
       </c>
-      <c r="R268" t="n">
+      <c r="S268" t="n">
+        <v>14</v>
+      </c>
+      <c r="T268" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U268" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V268" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W268" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X268" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y268" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z268" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA268" t="n">
         <v>8</v>
       </c>
-      <c r="S268" t="n">
+      <c r="AB268" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC268" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AD268" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE268" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AF268" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG268" t="n">
         <v>11</v>
       </c>
-      <c r="T268" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U268" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V268" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="W268" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="X268" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Y268" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Z268" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AA268" t="n">
-        <v>9</v>
-      </c>
-      <c r="AB268" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AC268" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="AD268" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AE268" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="AF268" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AG268" t="n">
-        <v>10</v>
-      </c>
       <c r="AH268" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AI268" t="n">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="AJ268" t="n">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="AK268" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AL268" t="n">
         <v>1.7</v>
       </c>
-      <c r="AL268" t="n">
-        <v>1.8</v>
-      </c>
       <c r="AM268" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="AN268" t="n">
-        <v>1.55</v>
+        <v>1.36</v>
       </c>
       <c r="AO268" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="AP268" t="n">
-        <v>1.44</v>
+        <v>1.68</v>
       </c>
       <c r="AQ268" t="n">
-        <v>0.8</v>
+        <v>2.73</v>
       </c>
       <c r="AR268" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AS268" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AT268" t="n">
         <v>1.31</v>
       </c>
-      <c r="AT268" t="n">
-        <v>0.85</v>
-      </c>
       <c r="AU268" t="n">
-        <v>1.26</v>
+        <v>1.86</v>
       </c>
       <c r="AV268" t="n">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="AW268" t="n">
-        <v>2.64</v>
+        <v>3.28</v>
       </c>
       <c r="AX268" t="n">
-        <v>2.76</v>
+        <v>1.75</v>
       </c>
       <c r="AY268" t="n">
         <v>8.5</v>
       </c>
       <c r="AZ268" t="n">
-        <v>1.64</v>
+        <v>2.41</v>
       </c>
       <c r="BA268" t="n">
         <v>1.18</v>
       </c>
       <c r="BB268" t="n">
-        <v>1.34</v>
+        <v>1.25</v>
       </c>
       <c r="BC268" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="BD268" t="n">
-        <v>1.98</v>
+        <v>1.88</v>
       </c>
       <c r="BE268" t="n">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="BF268" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BG268" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="BH268" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="BI268" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BJ268" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="BK268" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="269">
@@ -56381,7 +56381,7 @@
         <v>275</v>
       </c>
       <c r="B276" t="n">
-        <v>2569014</v>
+        <v>2569013</v>
       </c>
       <c r="C276" t="inlineStr">
         <is>
@@ -56401,12 +56401,12 @@
       </c>
       <c r="G276" t="inlineStr">
         <is>
-          <t>Plymouth Argyle</t>
+          <t>Peterborough United</t>
         </is>
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>Wycombe Wanderers</t>
+          <t>Milton Keynes Dons</t>
         </is>
       </c>
       <c r="I276" t="n">
@@ -56419,17 +56419,17 @@
         <v>1</v>
       </c>
       <c r="L276" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M276" t="n">
         <v>0</v>
       </c>
       <c r="N276" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O276" t="inlineStr">
         <is>
-          <t>['33']</t>
+          <t>['38', '48']</t>
         </is>
       </c>
       <c r="P276" t="inlineStr">
@@ -56438,145 +56438,145 @@
         </is>
       </c>
       <c r="Q276" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="R276" t="n">
+        <v>2</v>
+      </c>
+      <c r="S276" t="n">
+        <v>9</v>
+      </c>
+      <c r="T276" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U276" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V276" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W276" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X276" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y276" t="n">
         <v>3</v>
       </c>
-      <c r="S276" t="n">
-        <v>14</v>
-      </c>
-      <c r="T276" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="U276" t="n">
+      <c r="Z276" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA276" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB276" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC276" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AD276" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE276" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AF276" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG276" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH276" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI276" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ276" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK276" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL276" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM276" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN276" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO276" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP276" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AQ276" t="n">
         <v>2.2</v>
       </c>
-      <c r="V276" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="W276" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="X276" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Y276" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Z276" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AA276" t="n">
-        <v>8</v>
-      </c>
-      <c r="AB276" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="AC276" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="AD276" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AE276" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="AF276" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AG276" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH276" t="n">
+      <c r="AR276" t="n">
         <v>1.3</v>
       </c>
-      <c r="AI276" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AJ276" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AK276" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="AL276" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AM276" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AN276" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AO276" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AP276" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="AQ276" t="n">
-        <v>2.73</v>
-      </c>
-      <c r="AR276" t="n">
-        <v>1.27</v>
-      </c>
       <c r="AS276" t="n">
-        <v>2.79</v>
+        <v>2.08</v>
       </c>
       <c r="AT276" t="n">
-        <v>1.31</v>
+        <v>1.23</v>
       </c>
       <c r="AU276" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="AV276" t="n">
-        <v>1.42</v>
+        <v>1.22</v>
       </c>
       <c r="AW276" t="n">
-        <v>3.28</v>
+        <v>3.09</v>
       </c>
       <c r="AX276" t="n">
-        <v>1.75</v>
+        <v>1.45</v>
       </c>
       <c r="AY276" t="n">
         <v>8.5</v>
       </c>
       <c r="AZ276" t="n">
-        <v>2.41</v>
+        <v>3.32</v>
       </c>
       <c r="BA276" t="n">
-        <v>1.18</v>
+        <v>1.23</v>
       </c>
       <c r="BB276" t="n">
-        <v>1.25</v>
+        <v>1.55</v>
       </c>
       <c r="BC276" t="n">
-        <v>1.55</v>
+        <v>1.88</v>
       </c>
       <c r="BD276" t="n">
-        <v>1.88</v>
+        <v>2.3</v>
       </c>
       <c r="BE276" t="n">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="BF276" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BG276" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BH276" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="BI276" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="BJ276" t="n">
         <v>17</v>
       </c>
       <c r="BK276" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="277">
@@ -58005,7 +58005,7 @@
         <v>283</v>
       </c>
       <c r="B284" t="n">
-        <v>2569391</v>
+        <v>2569289</v>
       </c>
       <c r="C284" t="inlineStr">
         <is>
@@ -58025,182 +58025,182 @@
       </c>
       <c r="G284" t="inlineStr">
         <is>
-          <t>Shrewsbury Town</t>
+          <t>Portsmouth</t>
         </is>
       </c>
       <c r="H284" t="inlineStr">
         <is>
-          <t>Fleetwood Town</t>
+          <t>Charlton Athletic</t>
         </is>
       </c>
       <c r="I284" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J284" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K284" t="n">
         <v>2</v>
       </c>
       <c r="L284" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M284" t="n">
         <v>3</v>
       </c>
       <c r="N284" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O284" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['45+3']</t>
         </is>
       </c>
       <c r="P284" t="inlineStr">
         <is>
-          <t>['25', '28', '89']</t>
+          <t>['23', '48', '90+4']</t>
         </is>
       </c>
       <c r="Q284" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R284" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="S284" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="T284" t="n">
         <v>2.75</v>
       </c>
       <c r="U284" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="V284" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="W284" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X284" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y284" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z284" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA284" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB284" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC284" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AD284" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE284" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AF284" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG284" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH284" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AI284" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AJ284" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK284" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL284" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM284" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN284" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AO284" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP284" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AQ284" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AR284" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AS284" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AT284" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AU284" t="n">
         <v>1.44</v>
       </c>
-      <c r="X284" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Y284" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Z284" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AA284" t="n">
-        <v>10</v>
-      </c>
-      <c r="AB284" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AC284" t="n">
+      <c r="AV284" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AW284" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AX284" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AY284" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AZ284" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BA284" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB284" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BC284" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BD284" t="n">
         <v>2.1</v>
       </c>
-      <c r="AD284" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="AE284" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AF284" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AG284" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AH284" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="AI284" t="n">
-        <v>3</v>
-      </c>
-      <c r="AJ284" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="AK284" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="AL284" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AM284" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AN284" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AO284" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AP284" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="AQ284" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="AR284" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AS284" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="AT284" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AU284" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AV284" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AW284" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="AX284" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AY284" t="n">
+      <c r="BE284" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF284" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG284" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH284" t="n">
         <v>6</v>
       </c>
-      <c r="AZ284" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="BA284" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="BB284" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="BC284" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="BD284" t="n">
-        <v>2</v>
-      </c>
-      <c r="BE284" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="BF284" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG284" t="n">
-        <v>6</v>
-      </c>
-      <c r="BH284" t="n">
-        <v>8</v>
-      </c>
       <c r="BI284" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BJ284" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BK284" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="285">
@@ -58411,7 +58411,7 @@
         <v>285</v>
       </c>
       <c r="B286" t="n">
-        <v>2569289</v>
+        <v>2569391</v>
       </c>
       <c r="C286" t="inlineStr">
         <is>
@@ -58431,182 +58431,182 @@
       </c>
       <c r="G286" t="inlineStr">
         <is>
-          <t>Portsmouth</t>
+          <t>Shrewsbury Town</t>
         </is>
       </c>
       <c r="H286" t="inlineStr">
         <is>
-          <t>Charlton Athletic</t>
+          <t>Fleetwood Town</t>
         </is>
       </c>
       <c r="I286" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J286" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K286" t="n">
         <v>2</v>
       </c>
       <c r="L286" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M286" t="n">
         <v>3</v>
       </c>
       <c r="N286" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O286" t="inlineStr">
         <is>
-          <t>['45+3']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P286" t="inlineStr">
         <is>
-          <t>['23', '48', '90+4']</t>
+          <t>['25', '28', '89']</t>
         </is>
       </c>
       <c r="Q286" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R286" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="S286" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="T286" t="n">
         <v>2.75</v>
       </c>
       <c r="U286" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V286" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W286" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X286" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y286" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z286" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA286" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB286" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC286" t="n">
         <v>2.1</v>
       </c>
-      <c r="V286" t="n">
-        <v>4</v>
-      </c>
-      <c r="W286" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="X286" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Y286" t="n">
+      <c r="AD286" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE286" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AF286" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG286" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH286" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI286" t="n">
         <v>3</v>
       </c>
-      <c r="Z286" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AA286" t="n">
+      <c r="AJ286" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AK286" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AL286" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM286" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN286" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO286" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP286" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AQ286" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AR286" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AS286" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AT286" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AU286" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AV286" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AW286" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AX286" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AY286" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ286" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BA286" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB286" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BC286" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BD286" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE286" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BF286" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG286" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH286" t="n">
         <v>8</v>
       </c>
-      <c r="AB286" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="AC286" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="AD286" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AE286" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AF286" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="AG286" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AH286" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="AI286" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="AJ286" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AK286" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AL286" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AM286" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AN286" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="AO286" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AP286" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="AQ286" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="AR286" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="AS286" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="AT286" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="AU286" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AV286" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="AW286" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="AX286" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="AY286" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AZ286" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="BA286" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="BB286" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="BC286" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="BD286" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="BE286" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="BF286" t="n">
-        <v>5</v>
-      </c>
-      <c r="BG286" t="n">
-        <v>4</v>
-      </c>
-      <c r="BH286" t="n">
-        <v>6</v>
-      </c>
       <c r="BI286" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BJ286" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="BK286" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="287">
@@ -58614,7 +58614,7 @@
         <v>286</v>
       </c>
       <c r="B287" t="n">
-        <v>2569018</v>
+        <v>2569020</v>
       </c>
       <c r="C287" t="inlineStr">
         <is>
@@ -58634,104 +58634,104 @@
       </c>
       <c r="G287" t="inlineStr">
         <is>
-          <t>Barnsley</t>
+          <t>Derby County</t>
         </is>
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>Bolton Wanderers</t>
+          <t>Accrington Stanley</t>
         </is>
       </c>
       <c r="I287" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K287" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L287" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M287" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N287" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O287" t="inlineStr">
         <is>
+          <t>['7', '16', '45+2', '46']</t>
+        </is>
+      </c>
+      <c r="P287" t="inlineStr">
+        <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="P287" t="inlineStr">
-        <is>
-          <t>['12', '41', '76']</t>
-        </is>
-      </c>
       <c r="Q287" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="R287" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="S287" t="n">
         <v>11</v>
       </c>
       <c r="T287" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U287" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V287" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W287" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X287" t="n">
         <v>3</v>
       </c>
-      <c r="U287" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="V287" t="n">
-        <v>4</v>
-      </c>
-      <c r="W287" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="X287" t="n">
-        <v>2.63</v>
-      </c>
       <c r="Y287" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="Z287" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="AA287" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AB287" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="AC287" t="n">
-        <v>2.25</v>
+        <v>1.59</v>
       </c>
       <c r="AD287" t="n">
-        <v>3.37</v>
+        <v>4.02</v>
       </c>
       <c r="AE287" t="n">
-        <v>3.43</v>
+        <v>5.27</v>
       </c>
       <c r="AF287" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="AG287" t="n">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="AH287" t="n">
-        <v>1.38</v>
+        <v>1.26</v>
       </c>
       <c r="AI287" t="n">
-        <v>3</v>
+        <v>3.45</v>
       </c>
       <c r="AJ287" t="n">
-        <v>2.15</v>
+        <v>1.82</v>
       </c>
       <c r="AK287" t="n">
-        <v>1.61</v>
+        <v>1.97</v>
       </c>
       <c r="AL287" t="n">
         <v>1.95</v>
@@ -58740,76 +58740,76 @@
         <v>1.8</v>
       </c>
       <c r="AN287" t="n">
-        <v>1.32</v>
+        <v>1.13</v>
       </c>
       <c r="AO287" t="n">
-        <v>1.27</v>
+        <v>1.2</v>
       </c>
       <c r="AP287" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AQ287" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AR287" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS287" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AT287" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="AU287" t="n">
         <v>1.66</v>
       </c>
-      <c r="AQ287" t="n">
-        <v>2</v>
-      </c>
-      <c r="AR287" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AS287" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="AT287" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="AU287" t="n">
-        <v>1.64</v>
-      </c>
       <c r="AV287" t="n">
-        <v>1.35</v>
+        <v>1.49</v>
       </c>
       <c r="AW287" t="n">
-        <v>2.99</v>
+        <v>3.15</v>
       </c>
       <c r="AX287" t="n">
-        <v>1.89</v>
+        <v>1.72</v>
       </c>
       <c r="AY287" t="n">
         <v>7.5</v>
       </c>
       <c r="AZ287" t="n">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="BA287" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="BB287" t="n">
-        <v>1.38</v>
+        <v>1.34</v>
       </c>
       <c r="BC287" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="BD287" t="n">
-        <v>2.12</v>
+        <v>2.02</v>
       </c>
       <c r="BE287" t="n">
-        <v>2.85</v>
+        <v>2.65</v>
       </c>
       <c r="BF287" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="BG287" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH287" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI287" t="n">
         <v>4</v>
       </c>
-      <c r="BH287" t="n">
-        <v>10</v>
-      </c>
-      <c r="BI287" t="n">
-        <v>10</v>
-      </c>
       <c r="BJ287" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="BK287" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="288">
@@ -58817,7 +58817,7 @@
         <v>287</v>
       </c>
       <c r="B288" t="n">
-        <v>2569339</v>
+        <v>2569046</v>
       </c>
       <c r="C288" t="inlineStr">
         <is>
@@ -58837,65 +58837,65 @@
       </c>
       <c r="G288" t="inlineStr">
         <is>
-          <t>Sheffield Wednesday</t>
+          <t>Lincoln City</t>
         </is>
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>Cambridge United</t>
+          <t>Ipswich Town</t>
         </is>
       </c>
       <c r="I288" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J288" t="n">
         <v>0</v>
       </c>
       <c r="K288" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L288" t="n">
+        <v>1</v>
+      </c>
+      <c r="M288" t="n">
+        <v>1</v>
+      </c>
+      <c r="N288" t="n">
+        <v>2</v>
+      </c>
+      <c r="O288" t="inlineStr">
+        <is>
+          <t>['64']</t>
+        </is>
+      </c>
+      <c r="P288" t="inlineStr">
+        <is>
+          <t>['81']</t>
+        </is>
+      </c>
+      <c r="Q288" t="n">
+        <v>3</v>
+      </c>
+      <c r="R288" t="n">
+        <v>9</v>
+      </c>
+      <c r="S288" t="n">
+        <v>12</v>
+      </c>
+      <c r="T288" t="n">
         <v>5</v>
       </c>
-      <c r="M288" t="n">
-        <v>0</v>
-      </c>
-      <c r="N288" t="n">
-        <v>5</v>
-      </c>
-      <c r="O288" t="inlineStr">
-        <is>
-          <t>['7', '21', '51', '70', '80']</t>
-        </is>
-      </c>
-      <c r="P288" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="Q288" t="n">
-        <v>6</v>
-      </c>
-      <c r="R288" t="n">
-        <v>3</v>
-      </c>
-      <c r="S288" t="n">
-        <v>9</v>
-      </c>
-      <c r="T288" t="n">
-        <v>1.83</v>
-      </c>
       <c r="U288" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="V288" t="n">
-        <v>7</v>
+        <v>2.2</v>
       </c>
       <c r="W288" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="X288" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Y288" t="n">
         <v>2.5</v>
@@ -58904,115 +58904,115 @@
         <v>1.5</v>
       </c>
       <c r="AA288" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB288" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AC288" t="n">
-        <v>1.32</v>
+        <v>5.19</v>
       </c>
       <c r="AD288" t="n">
-        <v>5.58</v>
+        <v>3.8</v>
       </c>
       <c r="AE288" t="n">
-        <v>9.85</v>
+        <v>1.64</v>
       </c>
       <c r="AF288" t="n">
         <v>1.02</v>
       </c>
       <c r="AG288" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AH288" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI288" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AJ288" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK288" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AL288" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM288" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN288" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AO288" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP288" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AQ288" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AR288" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS288" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT288" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AU288" t="n">
         <v>1.17</v>
       </c>
-      <c r="AI288" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="AJ288" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="AK288" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AL288" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AM288" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AN288" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AO288" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AP288" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="AQ288" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="AR288" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="AS288" t="n">
-        <v>2.21</v>
-      </c>
-      <c r="AT288" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="AU288" t="n">
-        <v>1.71</v>
-      </c>
       <c r="AV288" t="n">
-        <v>1.22</v>
+        <v>1.86</v>
       </c>
       <c r="AW288" t="n">
-        <v>2.93</v>
+        <v>3.03</v>
       </c>
       <c r="AX288" t="n">
-        <v>1.28</v>
+        <v>3.1</v>
       </c>
       <c r="AY288" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AZ288" t="n">
-        <v>4.7</v>
+        <v>1.53</v>
       </c>
       <c r="BA288" t="n">
-        <v>1.23</v>
+        <v>1.18</v>
       </c>
       <c r="BB288" t="n">
-        <v>1.42</v>
+        <v>1.34</v>
       </c>
       <c r="BC288" t="n">
-        <v>1.95</v>
+        <v>1.61</v>
       </c>
       <c r="BD288" t="n">
-        <v>2.23</v>
+        <v>2.02</v>
       </c>
       <c r="BE288" t="n">
-        <v>3.05</v>
+        <v>2.65</v>
       </c>
       <c r="BF288" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="BG288" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="BH288" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="BI288" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="BJ288" t="n">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="BK288" t="n">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="289">
@@ -59020,7 +59020,7 @@
         <v>288</v>
       </c>
       <c r="B289" t="n">
-        <v>2569020</v>
+        <v>2569339</v>
       </c>
       <c r="C289" t="inlineStr">
         <is>
@@ -59040,35 +59040,35 @@
       </c>
       <c r="G289" t="inlineStr">
         <is>
-          <t>Derby County</t>
+          <t>Sheffield Wednesday</t>
         </is>
       </c>
       <c r="H289" t="inlineStr">
         <is>
-          <t>Accrington Stanley</t>
+          <t>Cambridge United</t>
         </is>
       </c>
       <c r="I289" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J289" t="n">
         <v>0</v>
       </c>
       <c r="K289" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L289" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M289" t="n">
         <v>0</v>
       </c>
       <c r="N289" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O289" t="inlineStr">
         <is>
-          <t>['7', '16', '45+2', '46']</t>
+          <t>['7', '21', '51', '70', '80']</t>
         </is>
       </c>
       <c r="P289" t="inlineStr">
@@ -59080,64 +59080,64 @@
         <v>6</v>
       </c>
       <c r="R289" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S289" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="T289" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U289" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V289" t="n">
+        <v>7</v>
+      </c>
+      <c r="W289" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X289" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y289" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z289" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA289" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB289" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC289" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AD289" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="AE289" t="n">
+        <v>9.85</v>
+      </c>
+      <c r="AF289" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG289" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH289" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AI289" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AJ289" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AK289" t="n">
         <v>2.25</v>
-      </c>
-      <c r="U289" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="V289" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="W289" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="X289" t="n">
-        <v>3</v>
-      </c>
-      <c r="Y289" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Z289" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AA289" t="n">
-        <v>8</v>
-      </c>
-      <c r="AB289" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="AC289" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="AD289" t="n">
-        <v>4.02</v>
-      </c>
-      <c r="AE289" t="n">
-        <v>5.27</v>
-      </c>
-      <c r="AF289" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AG289" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH289" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="AI289" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="AJ289" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="AK289" t="n">
-        <v>1.97</v>
       </c>
       <c r="AL289" t="n">
         <v>1.95</v>
@@ -59146,76 +59146,76 @@
         <v>1.8</v>
       </c>
       <c r="AN289" t="n">
-        <v>1.13</v>
+        <v>1.05</v>
       </c>
       <c r="AO289" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="AP289" t="n">
-        <v>2.25</v>
+        <v>3.3</v>
       </c>
       <c r="AQ289" t="n">
-        <v>2.09</v>
+        <v>2.08</v>
       </c>
       <c r="AR289" t="n">
-        <v>1</v>
+        <v>0.64</v>
       </c>
       <c r="AS289" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AT289" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="AU289" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AV289" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AW289" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AX289" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AY289" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ289" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="BA289" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BB289" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BC289" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BD289" t="n">
         <v>2.23</v>
       </c>
-      <c r="AT289" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="AU289" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="AV289" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="AW289" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="AX289" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="AY289" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AZ289" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="BA289" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="BB289" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="BC289" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="BD289" t="n">
-        <v>2.02</v>
-      </c>
       <c r="BE289" t="n">
-        <v>2.65</v>
+        <v>3.05</v>
       </c>
       <c r="BF289" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="BG289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BH289" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="BI289" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="BJ289" t="n">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="BK289" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="290">
@@ -59223,7 +59223,7 @@
         <v>289</v>
       </c>
       <c r="B290" t="n">
-        <v>2569046</v>
+        <v>2569018</v>
       </c>
       <c r="C290" t="inlineStr">
         <is>
@@ -59243,182 +59243,182 @@
       </c>
       <c r="G290" t="inlineStr">
         <is>
-          <t>Lincoln City</t>
+          <t>Barnsley</t>
         </is>
       </c>
       <c r="H290" t="inlineStr">
         <is>
-          <t>Ipswich Town</t>
+          <t>Bolton Wanderers</t>
         </is>
       </c>
       <c r="I290" t="n">
         <v>0</v>
       </c>
       <c r="J290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L290" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M290" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N290" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O290" t="inlineStr">
         <is>
-          <t>['64']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P290" t="inlineStr">
         <is>
-          <t>['81']</t>
+          <t>['12', '41', '76']</t>
         </is>
       </c>
       <c r="Q290" t="n">
         <v>3</v>
       </c>
       <c r="R290" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="S290" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="T290" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="U290" t="n">
-        <v>2.38</v>
+        <v>2.05</v>
       </c>
       <c r="V290" t="n">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="W290" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X290" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y290" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z290" t="n">
         <v>1.33</v>
       </c>
-      <c r="X290" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Y290" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Z290" t="n">
-        <v>1.5</v>
-      </c>
       <c r="AA290" t="n">
-        <v>6.5</v>
+        <v>10</v>
       </c>
       <c r="AB290" t="n">
-        <v>1.11</v>
+        <v>1.06</v>
       </c>
       <c r="AC290" t="n">
-        <v>5.19</v>
+        <v>2.25</v>
       </c>
       <c r="AD290" t="n">
-        <v>3.8</v>
+        <v>3.37</v>
       </c>
       <c r="AE290" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="AF290" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG290" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH290" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI290" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ290" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK290" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AL290" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM290" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN290" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AO290" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP290" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AQ290" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR290" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AS290" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AT290" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AU290" t="n">
         <v>1.64</v>
       </c>
-      <c r="AF290" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="AG290" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH290" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AI290" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="AJ290" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AK290" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="AL290" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AM290" t="n">
-        <v>2</v>
-      </c>
-      <c r="AN290" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AO290" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AP290" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="AQ290" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AR290" t="n">
-        <v>2</v>
-      </c>
-      <c r="AS290" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AT290" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="AU290" t="n">
-        <v>1.17</v>
-      </c>
       <c r="AV290" t="n">
-        <v>1.86</v>
+        <v>1.35</v>
       </c>
       <c r="AW290" t="n">
-        <v>3.03</v>
+        <v>2.99</v>
       </c>
       <c r="AX290" t="n">
-        <v>3.1</v>
+        <v>1.89</v>
       </c>
       <c r="AY290" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AZ290" t="n">
-        <v>1.53</v>
+        <v>2.3</v>
       </c>
       <c r="BA290" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="BB290" t="n">
-        <v>1.34</v>
+        <v>1.38</v>
       </c>
       <c r="BC290" t="n">
-        <v>1.61</v>
+        <v>1.67</v>
       </c>
       <c r="BD290" t="n">
-        <v>2.02</v>
+        <v>2.12</v>
       </c>
       <c r="BE290" t="n">
-        <v>2.65</v>
+        <v>2.85</v>
       </c>
       <c r="BF290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BG290" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BH290" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="BI290" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="BJ290" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="BK290" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="291">
@@ -60238,7 +60238,7 @@
         <v>294</v>
       </c>
       <c r="B295" t="n">
-        <v>2569842</v>
+        <v>2569850</v>
       </c>
       <c r="C295" t="inlineStr">
         <is>
@@ -60258,12 +60258,12 @@
       </c>
       <c r="G295" t="inlineStr">
         <is>
-          <t>Accrington Stanley</t>
+          <t>Ipswich Town</t>
         </is>
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>Bristol Rovers</t>
+          <t>Plymouth Argyle</t>
         </is>
       </c>
       <c r="I295" t="n">
@@ -60276,22 +60276,22 @@
         <v>0</v>
       </c>
       <c r="L295" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M295" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N295" t="n">
         <v>2</v>
       </c>
       <c r="O295" t="inlineStr">
         <is>
-          <t>['51', '79']</t>
+          <t>['63']</t>
         </is>
       </c>
       <c r="P295" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['90+3']</t>
         </is>
       </c>
       <c r="Q295" t="n">
@@ -60304,19 +60304,19 @@
         <v>6</v>
       </c>
       <c r="T295" t="n">
-        <v>3.4</v>
+        <v>2.1</v>
       </c>
       <c r="U295" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="V295" t="n">
-        <v>3.1</v>
+        <v>6</v>
       </c>
       <c r="W295" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="X295" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Y295" t="n">
         <v>2.75</v>
@@ -60325,19 +60325,19 @@
         <v>1.4</v>
       </c>
       <c r="AA295" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AB295" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="AC295" t="n">
-        <v>2.85</v>
+        <v>1.61</v>
       </c>
       <c r="AD295" t="n">
-        <v>3.25</v>
+        <v>3.65</v>
       </c>
       <c r="AE295" t="n">
-        <v>2.27</v>
+        <v>4.8</v>
       </c>
       <c r="AF295" t="n">
         <v>1.04</v>
@@ -60349,7 +60349,7 @@
         <v>1.28</v>
       </c>
       <c r="AI295" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AJ295" t="n">
         <v>1.75</v>
@@ -60358,49 +60358,49 @@
         <v>1.93</v>
       </c>
       <c r="AL295" t="n">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="AM295" t="n">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="AN295" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AO295" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AP295" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AQ295" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AR295" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AS295" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AT295" t="n">
         <v>1.57</v>
       </c>
-      <c r="AO295" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AP295" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AQ295" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR295" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="AS295" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="AT295" t="n">
-        <v>1.29</v>
-      </c>
       <c r="AU295" t="n">
-        <v>1.51</v>
+        <v>2.17</v>
       </c>
       <c r="AV295" t="n">
-        <v>1.18</v>
+        <v>1.37</v>
       </c>
       <c r="AW295" t="n">
-        <v>2.69</v>
+        <v>3.54</v>
       </c>
       <c r="AX295" t="n">
-        <v>1.88</v>
+        <v>1.3</v>
       </c>
       <c r="AY295" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="AZ295" t="n">
-        <v>2.3</v>
+        <v>4.4</v>
       </c>
       <c r="BA295" t="n">
         <v>1.18</v>
@@ -60409,28 +60409,28 @@
         <v>1.34</v>
       </c>
       <c r="BC295" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="BD295" t="n">
-        <v>1.9</v>
+        <v>2.02</v>
       </c>
       <c r="BE295" t="n">
         <v>2.65</v>
       </c>
       <c r="BF295" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG295" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH295" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI295" t="n">
         <v>3</v>
       </c>
-      <c r="BG295" t="n">
-        <v>4</v>
-      </c>
-      <c r="BH295" t="n">
-        <v>8</v>
-      </c>
-      <c r="BI295" t="n">
-        <v>5</v>
-      </c>
       <c r="BJ295" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BK295" t="n">
         <v>9</v>
@@ -60441,7 +60441,7 @@
         <v>295</v>
       </c>
       <c r="B296" t="n">
-        <v>2569853</v>
+        <v>2569851</v>
       </c>
       <c r="C296" t="inlineStr">
         <is>
@@ -60461,31 +60461,31 @@
       </c>
       <c r="G296" t="inlineStr">
         <is>
-          <t>Wycombe Wanderers</t>
+          <t>Milton Keynes Dons</t>
         </is>
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>Sheffield Wednesday</t>
+          <t>Lincoln City</t>
         </is>
       </c>
       <c r="I296" t="n">
         <v>0</v>
       </c>
       <c r="J296" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K296" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L296" t="n">
         <v>0</v>
       </c>
       <c r="M296" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N296" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O296" t="inlineStr">
         <is>
@@ -60494,149 +60494,149 @@
       </c>
       <c r="P296" t="inlineStr">
         <is>
-          <t>['13']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q296" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R296" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S296" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="T296" t="n">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="U296" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="V296" t="n">
-        <v>2.75</v>
+        <v>4.33</v>
       </c>
       <c r="W296" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="X296" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Y296" t="n">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="Z296" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AA296" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AB296" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AC296" t="n">
-        <v>2.85</v>
+        <v>2.13</v>
       </c>
       <c r="AD296" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="AE296" t="n">
-        <v>2.28</v>
+        <v>3.15</v>
       </c>
       <c r="AF296" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="AG296" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AH296" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="AI296" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="AJ296" t="n">
-        <v>1.93</v>
+        <v>2.15</v>
       </c>
       <c r="AK296" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AL296" t="n">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="AM296" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AN296" t="n">
-        <v>1.8</v>
+        <v>1.28</v>
       </c>
       <c r="AO296" t="n">
         <v>1.25</v>
       </c>
       <c r="AP296" t="n">
-        <v>1.3</v>
+        <v>1.78</v>
       </c>
       <c r="AQ296" t="n">
-        <v>1.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR296" t="n">
-        <v>2</v>
+        <v>1.08</v>
       </c>
       <c r="AS296" t="n">
-        <v>1.71</v>
+        <v>0.64</v>
       </c>
       <c r="AT296" t="n">
-        <v>2.08</v>
+        <v>1.08</v>
       </c>
       <c r="AU296" t="n">
-        <v>1.88</v>
+        <v>1.33</v>
       </c>
       <c r="AV296" t="n">
-        <v>1.68</v>
+        <v>0.88</v>
       </c>
       <c r="AW296" t="n">
-        <v>3.56</v>
+        <v>2.21</v>
       </c>
       <c r="AX296" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AY296" t="n">
         <v>7.5</v>
       </c>
       <c r="AZ296" t="n">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="BA296" t="n">
-        <v>1.18</v>
+        <v>1.27</v>
       </c>
       <c r="BB296" t="n">
-        <v>1.34</v>
+        <v>1.5</v>
       </c>
       <c r="BC296" t="n">
-        <v>1.6</v>
+        <v>1.85</v>
       </c>
       <c r="BD296" t="n">
-        <v>2</v>
+        <v>2.45</v>
       </c>
       <c r="BE296" t="n">
-        <v>2.65</v>
+        <v>3.4</v>
       </c>
       <c r="BF296" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BG296" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BH296" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BI296" t="n">
         <v>8</v>
       </c>
       <c r="BJ296" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK296" t="n">
         <v>8</v>
-      </c>
-      <c r="BK296" t="n">
-        <v>13</v>
       </c>
     </row>
     <row r="297">
@@ -60644,7 +60644,7 @@
         <v>296</v>
       </c>
       <c r="B297" t="n">
-        <v>2569843</v>
+        <v>2569849</v>
       </c>
       <c r="C297" t="inlineStr">
         <is>
@@ -60664,12 +60664,12 @@
       </c>
       <c r="G297" t="inlineStr">
         <is>
-          <t>Bolton Wanderers</t>
+          <t>Fleetwood Town</t>
         </is>
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>Portsmouth</t>
+          <t>Oxford United</t>
         </is>
       </c>
       <c r="I297" t="n">
@@ -60682,41 +60682,41 @@
         <v>1</v>
       </c>
       <c r="L297" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N297" t="n">
         <v>3</v>
       </c>
       <c r="O297" t="inlineStr">
         <is>
-          <t>['15', '48', '71']</t>
+          <t>['44']</t>
         </is>
       </c>
       <c r="P297" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['62', '90']</t>
         </is>
       </c>
       <c r="Q297" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="R297" t="n">
         <v>3</v>
       </c>
       <c r="S297" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="T297" t="n">
-        <v>2.63</v>
+        <v>3.4</v>
       </c>
       <c r="U297" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V297" t="n">
-        <v>4.33</v>
+        <v>3.1</v>
       </c>
       <c r="W297" t="n">
         <v>1.4</v>
@@ -60725,10 +60725,10 @@
         <v>2.75</v>
       </c>
       <c r="Y297" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Z297" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="AA297" t="n">
         <v>8</v>
@@ -60737,25 +60737,25 @@
         <v>1.08</v>
       </c>
       <c r="AC297" t="n">
-        <v>1.94</v>
+        <v>2.85</v>
       </c>
       <c r="AD297" t="n">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="AE297" t="n">
-        <v>3.55</v>
+        <v>2.28</v>
       </c>
       <c r="AF297" t="n">
         <v>1.05</v>
       </c>
       <c r="AG297" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH297" t="n">
         <v>1.33</v>
       </c>
       <c r="AI297" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="AJ297" t="n">
         <v>1.93</v>
@@ -60764,82 +60764,82 @@
         <v>1.75</v>
       </c>
       <c r="AL297" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="AM297" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="AN297" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="AO297" t="n">
         <v>1.25</v>
       </c>
       <c r="AP297" t="n">
-        <v>1.78</v>
+        <v>1.4</v>
       </c>
       <c r="AQ297" t="n">
-        <v>1.92</v>
+        <v>1</v>
       </c>
       <c r="AR297" t="n">
-        <v>1.5</v>
+        <v>1.17</v>
       </c>
       <c r="AS297" t="n">
-        <v>2.07</v>
+        <v>0.85</v>
       </c>
       <c r="AT297" t="n">
-        <v>1.5</v>
+        <v>1.21</v>
       </c>
       <c r="AU297" t="n">
-        <v>1.55</v>
+        <v>1.41</v>
       </c>
       <c r="AV297" t="n">
-        <v>1.44</v>
+        <v>1.14</v>
       </c>
       <c r="AW297" t="n">
-        <v>2.99</v>
+        <v>2.55</v>
       </c>
       <c r="AX297" t="n">
-        <v>1.66</v>
+        <v>1.81</v>
       </c>
       <c r="AY297" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AZ297" t="n">
-        <v>2.75</v>
+        <v>2.43</v>
       </c>
       <c r="BA297" t="n">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="BB297" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="BC297" t="n">
-        <v>1.67</v>
+        <v>1.82</v>
       </c>
       <c r="BD297" t="n">
-        <v>2.12</v>
+        <v>2.38</v>
       </c>
       <c r="BE297" t="n">
-        <v>2.85</v>
+        <v>3.25</v>
       </c>
       <c r="BF297" t="n">
         <v>7</v>
       </c>
       <c r="BG297" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BH297" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="BI297" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="BJ297" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="BK297" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="298">
@@ -60847,7 +60847,7 @@
         <v>297</v>
       </c>
       <c r="B298" t="n">
-        <v>2569844</v>
+        <v>2569848</v>
       </c>
       <c r="C298" t="inlineStr">
         <is>
@@ -60867,98 +60867,98 @@
       </c>
       <c r="G298" t="inlineStr">
         <is>
-          <t>Burton Albion</t>
+          <t>Exeter City</t>
         </is>
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>Shrewsbury Town</t>
+          <t>Forest Green Rovers</t>
         </is>
       </c>
       <c r="I298" t="n">
         <v>0</v>
       </c>
       <c r="J298" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K298" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L298" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M298" t="n">
+        <v>1</v>
+      </c>
+      <c r="N298" t="n">
+        <v>2</v>
+      </c>
+      <c r="O298" t="inlineStr">
+        <is>
+          <t>['75']</t>
+        </is>
+      </c>
+      <c r="P298" t="inlineStr">
+        <is>
+          <t>['54']</t>
+        </is>
+      </c>
+      <c r="Q298" t="n">
+        <v>10</v>
+      </c>
+      <c r="R298" t="n">
+        <v>3</v>
+      </c>
+      <c r="S298" t="n">
+        <v>13</v>
+      </c>
+      <c r="T298" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U298" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V298" t="n">
+        <v>5</v>
+      </c>
+      <c r="W298" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X298" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y298" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z298" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA298" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB298" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC298" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AD298" t="n">
         <v>4</v>
       </c>
-      <c r="N298" t="n">
-        <v>4</v>
-      </c>
-      <c r="O298" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P298" t="inlineStr">
-        <is>
-          <t>['1', '43', '58', '90+4']</t>
-        </is>
-      </c>
-      <c r="Q298" t="n">
-        <v>9</v>
-      </c>
-      <c r="R298" t="n">
-        <v>2</v>
-      </c>
-      <c r="S298" t="n">
-        <v>11</v>
-      </c>
-      <c r="T298" t="n">
-        <v>3</v>
-      </c>
-      <c r="U298" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="V298" t="n">
+      <c r="AE298" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AF298" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG298" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH298" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI298" t="n">
         <v>3.75</v>
-      </c>
-      <c r="W298" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="X298" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Y298" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Z298" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AA298" t="n">
-        <v>10</v>
-      </c>
-      <c r="AB298" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AC298" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="AD298" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AE298" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="AF298" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AG298" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH298" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AI298" t="n">
-        <v>3.1</v>
       </c>
       <c r="AJ298" t="n">
         <v>1.93</v>
@@ -60967,40 +60967,40 @@
         <v>1.75</v>
       </c>
       <c r="AL298" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="AM298" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="AN298" t="n">
-        <v>1.36</v>
+        <v>1.18</v>
       </c>
       <c r="AO298" t="n">
-        <v>1.28</v>
+        <v>1.2</v>
       </c>
       <c r="AP298" t="n">
-        <v>1.65</v>
+        <v>2.15</v>
       </c>
       <c r="AQ298" t="n">
-        <v>1.08</v>
+        <v>1.5</v>
       </c>
       <c r="AR298" t="n">
-        <v>1.09</v>
+        <v>0.67</v>
       </c>
       <c r="AS298" t="n">
-        <v>1</v>
+        <v>1.46</v>
       </c>
       <c r="AT298" t="n">
-        <v>1.38</v>
+        <v>0.64</v>
       </c>
       <c r="AU298" t="n">
-        <v>1.63</v>
+        <v>1.42</v>
       </c>
       <c r="AV298" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AW298" t="n">
-        <v>2.76</v>
+        <v>2.54</v>
       </c>
       <c r="AX298" t="n">
         <v>1.47</v>
@@ -61012,7 +61012,7 @@
         <v>3.35</v>
       </c>
       <c r="BA298" t="n">
-        <v>1.15</v>
+        <v>1.13</v>
       </c>
       <c r="BB298" t="n">
         <v>1.29</v>
@@ -61027,22 +61027,22 @@
         <v>2.43</v>
       </c>
       <c r="BF298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BG298" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH298" t="n">
+        <v>15</v>
+      </c>
+      <c r="BI298" t="n">
         <v>5</v>
       </c>
-      <c r="BH298" t="n">
-        <v>9</v>
-      </c>
-      <c r="BI298" t="n">
-        <v>9</v>
-      </c>
       <c r="BJ298" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="BK298" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="299">
@@ -61050,7 +61050,7 @@
         <v>298</v>
       </c>
       <c r="B299" t="n">
-        <v>2569848</v>
+        <v>2569847</v>
       </c>
       <c r="C299" t="inlineStr">
         <is>
@@ -61070,182 +61070,182 @@
       </c>
       <c r="G299" t="inlineStr">
         <is>
-          <t>Exeter City</t>
+          <t>Cheltenham Town</t>
         </is>
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>Forest Green Rovers</t>
+          <t>Derby County</t>
         </is>
       </c>
       <c r="I299" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K299" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L299" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M299" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N299" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O299" t="inlineStr">
         <is>
-          <t>['75']</t>
+          <t>['2', '77']</t>
         </is>
       </c>
       <c r="P299" t="inlineStr">
         <is>
-          <t>['54']</t>
+          <t>['8', '11', '55']</t>
         </is>
       </c>
       <c r="Q299" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="R299" t="n">
         <v>3</v>
       </c>
       <c r="S299" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="T299" t="n">
-        <v>2.3</v>
+        <v>4.75</v>
       </c>
       <c r="U299" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="V299" t="n">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="W299" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X299" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y299" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z299" t="n">
         <v>1.36</v>
       </c>
-      <c r="X299" t="n">
-        <v>3</v>
-      </c>
-      <c r="Y299" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Z299" t="n">
-        <v>1.4</v>
-      </c>
       <c r="AA299" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AB299" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="AC299" t="n">
-        <v>1.5</v>
+        <v>3.8</v>
       </c>
       <c r="AD299" t="n">
-        <v>4</v>
+        <v>3.35</v>
       </c>
       <c r="AE299" t="n">
-        <v>5.4</v>
+        <v>1.85</v>
       </c>
       <c r="AF299" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="AG299" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AH299" t="n">
-        <v>1.28</v>
+        <v>1.36</v>
       </c>
       <c r="AI299" t="n">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="AJ299" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AK299" t="n">
         <v>1.75</v>
       </c>
       <c r="AL299" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AM299" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="AN299" t="n">
-        <v>1.18</v>
+        <v>2</v>
       </c>
       <c r="AO299" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP299" t="n">
         <v>1.2</v>
       </c>
-      <c r="AP299" t="n">
-        <v>2.15</v>
-      </c>
       <c r="AQ299" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AR299" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AS299" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT299" t="n">
         <v>1.5</v>
       </c>
-      <c r="AR299" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="AS299" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="AT299" t="n">
-        <v>0.64</v>
-      </c>
       <c r="AU299" t="n">
-        <v>1.42</v>
+        <v>1.48</v>
       </c>
       <c r="AV299" t="n">
-        <v>1.12</v>
+        <v>1.6</v>
       </c>
       <c r="AW299" t="n">
-        <v>2.54</v>
+        <v>3.08</v>
       </c>
       <c r="AX299" t="n">
-        <v>1.47</v>
+        <v>2.9</v>
       </c>
       <c r="AY299" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AZ299" t="n">
-        <v>3.35</v>
+        <v>1.58</v>
       </c>
       <c r="BA299" t="n">
-        <v>1.13</v>
+        <v>1.2</v>
       </c>
       <c r="BB299" t="n">
-        <v>1.29</v>
+        <v>1.38</v>
       </c>
       <c r="BC299" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="BD299" t="n">
-        <v>1.95</v>
+        <v>2.12</v>
       </c>
       <c r="BE299" t="n">
-        <v>2.43</v>
+        <v>2.85</v>
       </c>
       <c r="BF299" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BG299" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BH299" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI299" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ299" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK299" t="n">
         <v>15</v>
-      </c>
-      <c r="BI299" t="n">
-        <v>5</v>
-      </c>
-      <c r="BJ299" t="n">
-        <v>17</v>
-      </c>
-      <c r="BK299" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="300">
@@ -61253,7 +61253,7 @@
         <v>299</v>
       </c>
       <c r="B300" t="n">
-        <v>2569847</v>
+        <v>2569846</v>
       </c>
       <c r="C300" t="inlineStr">
         <is>
@@ -61273,59 +61273,59 @@
       </c>
       <c r="G300" t="inlineStr">
         <is>
-          <t>Cheltenham Town</t>
+          <t>Charlton Athletic</t>
         </is>
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>Derby County</t>
+          <t>Barnsley</t>
         </is>
       </c>
       <c r="I300" t="n">
         <v>1</v>
       </c>
       <c r="J300" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K300" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L300" t="n">
         <v>2</v>
       </c>
       <c r="M300" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N300" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O300" t="inlineStr">
         <is>
-          <t>['2', '77']</t>
+          <t>['19', '61']</t>
         </is>
       </c>
       <c r="P300" t="inlineStr">
         <is>
-          <t>['8', '11', '55']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q300" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R300" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="S300" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="T300" t="n">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="U300" t="n">
         <v>2.1</v>
       </c>
       <c r="V300" t="n">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="W300" t="n">
         <v>1.4</v>
@@ -61346,109 +61346,109 @@
         <v>1.08</v>
       </c>
       <c r="AC300" t="n">
-        <v>3.8</v>
+        <v>2.7</v>
       </c>
       <c r="AD300" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="AE300" t="n">
-        <v>1.85</v>
+        <v>2.38</v>
       </c>
       <c r="AF300" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AG300" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH300" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="AI300" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="AJ300" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AK300" t="n">
         <v>1.75</v>
       </c>
       <c r="AL300" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AM300" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AN300" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AO300" t="n">
         <v>1.25</v>
       </c>
       <c r="AP300" t="n">
-        <v>1.2</v>
+        <v>1.47</v>
       </c>
       <c r="AQ300" t="n">
-        <v>1.45</v>
+        <v>1.54</v>
       </c>
       <c r="AR300" t="n">
-        <v>1.25</v>
+        <v>1.64</v>
       </c>
       <c r="AS300" t="n">
-        <v>1.33</v>
+        <v>1.64</v>
       </c>
       <c r="AT300" t="n">
         <v>1.5</v>
       </c>
       <c r="AU300" t="n">
-        <v>1.48</v>
+        <v>1.55</v>
       </c>
       <c r="AV300" t="n">
-        <v>1.6</v>
+        <v>1.35</v>
       </c>
       <c r="AW300" t="n">
-        <v>3.08</v>
+        <v>2.9</v>
       </c>
       <c r="AX300" t="n">
-        <v>2.9</v>
+        <v>2.08</v>
       </c>
       <c r="AY300" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AZ300" t="n">
-        <v>1.58</v>
+        <v>2.08</v>
       </c>
       <c r="BA300" t="n">
-        <v>1.2</v>
+        <v>1.27</v>
       </c>
       <c r="BB300" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="BC300" t="n">
-        <v>1.67</v>
+        <v>1.87</v>
       </c>
       <c r="BD300" t="n">
-        <v>2.12</v>
+        <v>2.45</v>
       </c>
       <c r="BE300" t="n">
-        <v>2.85</v>
+        <v>3.4</v>
       </c>
       <c r="BF300" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG300" t="n">
         <v>3</v>
       </c>
-      <c r="BG300" t="n">
-        <v>6</v>
-      </c>
       <c r="BH300" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="BI300" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="BJ300" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="BK300" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="301">
@@ -61456,7 +61456,7 @@
         <v>300</v>
       </c>
       <c r="B301" t="n">
-        <v>2569846</v>
+        <v>2569844</v>
       </c>
       <c r="C301" t="inlineStr">
         <is>
@@ -61476,98 +61476,98 @@
       </c>
       <c r="G301" t="inlineStr">
         <is>
-          <t>Charlton Athletic</t>
+          <t>Burton Albion</t>
         </is>
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>Barnsley</t>
+          <t>Shrewsbury Town</t>
         </is>
       </c>
       <c r="I301" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K301" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M301" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N301" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O301" t="inlineStr">
         <is>
-          <t>['19', '61']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P301" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['1', '43', '58', '90+4']</t>
         </is>
       </c>
       <c r="Q301" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="R301" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="S301" t="n">
         <v>11</v>
       </c>
       <c r="T301" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="U301" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="V301" t="n">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="W301" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="X301" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Y301" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Z301" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA301" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB301" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC301" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AD301" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE301" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AF301" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG301" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH301" t="n">
         <v>1.36</v>
       </c>
-      <c r="AA301" t="n">
-        <v>8</v>
-      </c>
-      <c r="AB301" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="AC301" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="AD301" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AE301" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AF301" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AG301" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH301" t="n">
-        <v>1.3</v>
-      </c>
       <c r="AI301" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="AJ301" t="n">
         <v>1.93</v>
@@ -61576,82 +61576,82 @@
         <v>1.75</v>
       </c>
       <c r="AL301" t="n">
-        <v>1.75</v>
+        <v>1.91</v>
       </c>
       <c r="AM301" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AN301" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AO301" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP301" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AQ301" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AR301" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AS301" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT301" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AU301" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AV301" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AW301" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AX301" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AY301" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ301" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BA301" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BB301" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BC301" t="n">
         <v>1.5</v>
       </c>
-      <c r="AO301" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AP301" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="AQ301" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="AR301" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="AS301" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="AT301" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AU301" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="AV301" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="AW301" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="AX301" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="AY301" t="n">
-        <v>7</v>
-      </c>
-      <c r="AZ301" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="BA301" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="BB301" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="BC301" t="n">
-        <v>1.87</v>
-      </c>
       <c r="BD301" t="n">
-        <v>2.45</v>
+        <v>1.95</v>
       </c>
       <c r="BE301" t="n">
-        <v>3.4</v>
+        <v>2.43</v>
       </c>
       <c r="BF301" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG301" t="n">
         <v>5</v>
       </c>
-      <c r="BG301" t="n">
-        <v>3</v>
-      </c>
       <c r="BH301" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="BI301" t="n">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="BJ301" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BK301" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="302">
@@ -61659,7 +61659,7 @@
         <v>301</v>
       </c>
       <c r="B302" t="n">
-        <v>2569850</v>
+        <v>2569842</v>
       </c>
       <c r="C302" t="inlineStr">
         <is>
@@ -61679,12 +61679,12 @@
       </c>
       <c r="G302" t="inlineStr">
         <is>
-          <t>Ipswich Town</t>
+          <t>Accrington Stanley</t>
         </is>
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>Plymouth Argyle</t>
+          <t>Bristol Rovers</t>
         </is>
       </c>
       <c r="I302" t="n">
@@ -61697,22 +61697,22 @@
         <v>0</v>
       </c>
       <c r="L302" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M302" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N302" t="n">
         <v>2</v>
       </c>
       <c r="O302" t="inlineStr">
         <is>
-          <t>['63']</t>
+          <t>['51', '79']</t>
         </is>
       </c>
       <c r="P302" t="inlineStr">
         <is>
-          <t>['90+3']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q302" t="n">
@@ -61725,19 +61725,19 @@
         <v>6</v>
       </c>
       <c r="T302" t="n">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="U302" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="V302" t="n">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="W302" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="X302" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Y302" t="n">
         <v>2.75</v>
@@ -61746,19 +61746,19 @@
         <v>1.4</v>
       </c>
       <c r="AA302" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AB302" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="AC302" t="n">
-        <v>1.61</v>
+        <v>2.85</v>
       </c>
       <c r="AD302" t="n">
-        <v>3.65</v>
+        <v>3.25</v>
       </c>
       <c r="AE302" t="n">
-        <v>4.8</v>
+        <v>2.27</v>
       </c>
       <c r="AF302" t="n">
         <v>1.04</v>
@@ -61770,7 +61770,7 @@
         <v>1.28</v>
       </c>
       <c r="AI302" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AJ302" t="n">
         <v>1.75</v>
@@ -61779,49 +61779,49 @@
         <v>1.93</v>
       </c>
       <c r="AL302" t="n">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="AM302" t="n">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="AN302" t="n">
-        <v>1.12</v>
+        <v>1.57</v>
       </c>
       <c r="AO302" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP302" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AQ302" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR302" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AS302" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AT302" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AU302" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AV302" t="n">
         <v>1.18</v>
       </c>
-      <c r="AP302" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AQ302" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="AR302" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="AS302" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="AT302" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AU302" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="AV302" t="n">
-        <v>1.37</v>
-      </c>
       <c r="AW302" t="n">
-        <v>3.54</v>
+        <v>2.69</v>
       </c>
       <c r="AX302" t="n">
-        <v>1.3</v>
+        <v>1.88</v>
       </c>
       <c r="AY302" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="AZ302" t="n">
-        <v>4.4</v>
+        <v>2.3</v>
       </c>
       <c r="BA302" t="n">
         <v>1.18</v>
@@ -61830,28 +61830,28 @@
         <v>1.34</v>
       </c>
       <c r="BC302" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="BD302" t="n">
-        <v>2.02</v>
+        <v>1.9</v>
       </c>
       <c r="BE302" t="n">
         <v>2.65</v>
       </c>
       <c r="BF302" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="BG302" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BH302" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BI302" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BJ302" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BK302" t="n">
         <v>9</v>
@@ -61862,7 +61862,7 @@
         <v>302</v>
       </c>
       <c r="B303" t="n">
-        <v>2569849</v>
+        <v>2569843</v>
       </c>
       <c r="C303" t="inlineStr">
         <is>
@@ -61882,12 +61882,12 @@
       </c>
       <c r="G303" t="inlineStr">
         <is>
-          <t>Fleetwood Town</t>
+          <t>Bolton Wanderers</t>
         </is>
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>Oxford United</t>
+          <t>Portsmouth</t>
         </is>
       </c>
       <c r="I303" t="n">
@@ -61900,41 +61900,41 @@
         <v>1</v>
       </c>
       <c r="L303" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M303" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N303" t="n">
         <v>3</v>
       </c>
       <c r="O303" t="inlineStr">
         <is>
-          <t>['44']</t>
+          <t>['15', '48', '71']</t>
         </is>
       </c>
       <c r="P303" t="inlineStr">
         <is>
-          <t>['62', '90']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q303" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="R303" t="n">
         <v>3</v>
       </c>
       <c r="S303" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="T303" t="n">
-        <v>3.4</v>
+        <v>2.63</v>
       </c>
       <c r="U303" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V303" t="n">
-        <v>3.1</v>
+        <v>4.33</v>
       </c>
       <c r="W303" t="n">
         <v>1.4</v>
@@ -61943,10 +61943,10 @@
         <v>2.75</v>
       </c>
       <c r="Y303" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Z303" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AA303" t="n">
         <v>8</v>
@@ -61955,25 +61955,25 @@
         <v>1.08</v>
       </c>
       <c r="AC303" t="n">
-        <v>2.85</v>
+        <v>1.94</v>
       </c>
       <c r="AD303" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="AE303" t="n">
-        <v>2.28</v>
+        <v>3.55</v>
       </c>
       <c r="AF303" t="n">
         <v>1.05</v>
       </c>
       <c r="AG303" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH303" t="n">
         <v>1.33</v>
       </c>
       <c r="AI303" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="AJ303" t="n">
         <v>1.93</v>
@@ -61982,82 +61982,82 @@
         <v>1.75</v>
       </c>
       <c r="AL303" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="AM303" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="AN303" t="n">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="AO303" t="n">
         <v>1.25</v>
       </c>
       <c r="AP303" t="n">
-        <v>1.4</v>
+        <v>1.78</v>
       </c>
       <c r="AQ303" t="n">
-        <v>1</v>
+        <v>1.92</v>
       </c>
       <c r="AR303" t="n">
-        <v>1.17</v>
+        <v>1.5</v>
       </c>
       <c r="AS303" t="n">
-        <v>0.85</v>
+        <v>2.07</v>
       </c>
       <c r="AT303" t="n">
-        <v>1.21</v>
+        <v>1.5</v>
       </c>
       <c r="AU303" t="n">
-        <v>1.41</v>
+        <v>1.55</v>
       </c>
       <c r="AV303" t="n">
-        <v>1.14</v>
+        <v>1.44</v>
       </c>
       <c r="AW303" t="n">
-        <v>2.55</v>
+        <v>2.99</v>
       </c>
       <c r="AX303" t="n">
-        <v>1.81</v>
+        <v>1.66</v>
       </c>
       <c r="AY303" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AZ303" t="n">
-        <v>2.43</v>
+        <v>2.75</v>
       </c>
       <c r="BA303" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="BB303" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="BC303" t="n">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="BD303" t="n">
-        <v>2.38</v>
+        <v>2.12</v>
       </c>
       <c r="BE303" t="n">
-        <v>3.25</v>
+        <v>2.85</v>
       </c>
       <c r="BF303" t="n">
         <v>7</v>
       </c>
       <c r="BG303" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BH303" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI303" t="n">
         <v>11</v>
       </c>
-      <c r="BI303" t="n">
-        <v>4</v>
-      </c>
       <c r="BJ303" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="BK303" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="304">
@@ -62065,7 +62065,7 @@
         <v>303</v>
       </c>
       <c r="B304" t="n">
-        <v>2569851</v>
+        <v>2569853</v>
       </c>
       <c r="C304" t="inlineStr">
         <is>
@@ -62085,31 +62085,31 @@
       </c>
       <c r="G304" t="inlineStr">
         <is>
-          <t>Milton Keynes Dons</t>
+          <t>Wycombe Wanderers</t>
         </is>
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>Lincoln City</t>
+          <t>Sheffield Wednesday</t>
         </is>
       </c>
       <c r="I304" t="n">
         <v>0</v>
       </c>
       <c r="J304" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K304" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L304" t="n">
         <v>0</v>
       </c>
       <c r="M304" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N304" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O304" t="inlineStr">
         <is>
@@ -62118,149 +62118,149 @@
       </c>
       <c r="P304" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['13']</t>
         </is>
       </c>
       <c r="Q304" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R304" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S304" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="T304" t="n">
+        <v>4</v>
+      </c>
+      <c r="U304" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V304" t="n">
         <v>2.75</v>
       </c>
-      <c r="U304" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="V304" t="n">
-        <v>4.33</v>
-      </c>
       <c r="W304" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="X304" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Y304" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z304" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA304" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB304" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC304" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AD304" t="n">
         <v>3.25</v>
       </c>
-      <c r="Z304" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AA304" t="n">
-        <v>9</v>
-      </c>
-      <c r="AB304" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AC304" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="AD304" t="n">
-        <v>3.15</v>
-      </c>
       <c r="AE304" t="n">
-        <v>3.15</v>
+        <v>2.28</v>
       </c>
       <c r="AF304" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AG304" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AH304" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="AI304" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="AJ304" t="n">
-        <v>2.15</v>
+        <v>1.93</v>
       </c>
       <c r="AK304" t="n">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="AL304" t="n">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="AM304" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN304" t="n">
         <v>1.8</v>
-      </c>
-      <c r="AN304" t="n">
-        <v>1.28</v>
       </c>
       <c r="AO304" t="n">
         <v>1.25</v>
       </c>
       <c r="AP304" t="n">
-        <v>1.78</v>
+        <v>1.3</v>
       </c>
       <c r="AQ304" t="n">
-        <v>0.67</v>
+        <v>1.75</v>
       </c>
       <c r="AR304" t="n">
-        <v>1.08</v>
+        <v>2</v>
       </c>
       <c r="AS304" t="n">
-        <v>0.64</v>
+        <v>1.71</v>
       </c>
       <c r="AT304" t="n">
-        <v>1.08</v>
+        <v>2.08</v>
       </c>
       <c r="AU304" t="n">
-        <v>1.33</v>
+        <v>1.88</v>
       </c>
       <c r="AV304" t="n">
-        <v>0.88</v>
+        <v>1.68</v>
       </c>
       <c r="AW304" t="n">
-        <v>2.21</v>
+        <v>3.56</v>
       </c>
       <c r="AX304" t="n">
-        <v>1.67</v>
+        <v>1.88</v>
       </c>
       <c r="AY304" t="n">
         <v>7.5</v>
       </c>
       <c r="AZ304" t="n">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="BA304" t="n">
-        <v>1.27</v>
+        <v>1.18</v>
       </c>
       <c r="BB304" t="n">
-        <v>1.5</v>
+        <v>1.34</v>
       </c>
       <c r="BC304" t="n">
-        <v>1.85</v>
+        <v>1.6</v>
       </c>
       <c r="BD304" t="n">
-        <v>2.45</v>
+        <v>2</v>
       </c>
       <c r="BE304" t="n">
-        <v>3.4</v>
+        <v>2.65</v>
       </c>
       <c r="BF304" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BG304" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BH304" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BI304" t="n">
         <v>8</v>
       </c>
       <c r="BJ304" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BK304" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="305">
@@ -62471,7 +62471,7 @@
         <v>305</v>
       </c>
       <c r="B306" t="n">
-        <v>2569860</v>
+        <v>2569856</v>
       </c>
       <c r="C306" t="inlineStr">
         <is>
@@ -62491,22 +62491,22 @@
       </c>
       <c r="G306" t="inlineStr">
         <is>
-          <t>Oxford United</t>
+          <t>Derby County</t>
         </is>
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>Ipswich Town</t>
+          <t>Bolton Wanderers</t>
         </is>
       </c>
       <c r="I306" t="n">
         <v>1</v>
       </c>
       <c r="J306" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K306" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L306" t="n">
         <v>2</v>
@@ -62519,154 +62519,154 @@
       </c>
       <c r="O306" t="inlineStr">
         <is>
-          <t>['34', '83']</t>
+          <t>['16', '72']</t>
         </is>
       </c>
       <c r="P306" t="inlineStr">
         <is>
-          <t>['38']</t>
+          <t>['90+3']</t>
         </is>
       </c>
       <c r="Q306" t="n">
+        <v>5</v>
+      </c>
+      <c r="R306" t="n">
+        <v>4</v>
+      </c>
+      <c r="S306" t="n">
+        <v>9</v>
+      </c>
+      <c r="T306" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U306" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V306" t="n">
+        <v>4</v>
+      </c>
+      <c r="W306" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X306" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Y306" t="n">
         <v>3</v>
       </c>
-      <c r="R306" t="n">
-        <v>5</v>
-      </c>
-      <c r="S306" t="n">
-        <v>8</v>
-      </c>
-      <c r="T306" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="U306" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V306" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="W306" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="X306" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="Y306" t="n">
-        <v>2.8</v>
-      </c>
       <c r="Z306" t="n">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="AA306" t="n">
-        <v>5.8</v>
+        <v>6.5</v>
       </c>
       <c r="AB306" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="AC306" t="n">
-        <v>3.65</v>
+        <v>1.96</v>
       </c>
       <c r="AD306" t="n">
-        <v>3.55</v>
+        <v>3.3</v>
       </c>
       <c r="AE306" t="n">
-        <v>1.77</v>
+        <v>3.2</v>
       </c>
       <c r="AF306" t="n">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="AG306" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH306" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI306" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AJ306" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK306" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AL306" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM306" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN306" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO306" t="n">
         <v>1.25</v>
       </c>
-      <c r="AI306" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AJ306" t="n">
+      <c r="AP306" t="n">
         <v>1.78</v>
       </c>
-      <c r="AK306" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="AL306" t="n">
+      <c r="AQ306" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AR306" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS306" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AT306" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AU306" t="n">
         <v>1.67</v>
       </c>
-      <c r="AM306" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AN306" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="AO306" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AP306" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AQ306" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AR306" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="AS306" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="AT306" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="AU306" t="n">
-        <v>1.91</v>
-      </c>
       <c r="AV306" t="n">
-        <v>1.9</v>
+        <v>1.36</v>
       </c>
       <c r="AW306" t="n">
-        <v>3.81</v>
+        <v>3.03</v>
       </c>
       <c r="AX306" t="n">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="AY306" t="n">
         <v>7.5</v>
       </c>
       <c r="AZ306" t="n">
-        <v>1.72</v>
+        <v>2.43</v>
       </c>
       <c r="BA306" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="BB306" t="n">
-        <v>1.33</v>
+        <v>1.39</v>
       </c>
       <c r="BC306" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="BD306" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="BE306" t="n">
-        <v>2.7</v>
+        <v>2.95</v>
       </c>
       <c r="BF306" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BG306" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BH306" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI306" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ306" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK306" t="n">
         <v>7</v>
-      </c>
-      <c r="BI306" t="n">
-        <v>9</v>
-      </c>
-      <c r="BJ306" t="n">
-        <v>12</v>
-      </c>
-      <c r="BK306" t="n">
-        <v>17</v>
       </c>
     </row>
     <row r="307">
@@ -62877,7 +62877,7 @@
         <v>307</v>
       </c>
       <c r="B308" t="n">
-        <v>2569856</v>
+        <v>2569860</v>
       </c>
       <c r="C308" t="inlineStr">
         <is>
@@ -62897,22 +62897,22 @@
       </c>
       <c r="G308" t="inlineStr">
         <is>
-          <t>Derby County</t>
+          <t>Oxford United</t>
         </is>
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>Bolton Wanderers</t>
+          <t>Ipswich Town</t>
         </is>
       </c>
       <c r="I308" t="n">
         <v>1</v>
       </c>
       <c r="J308" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K308" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L308" t="n">
         <v>2</v>
@@ -62925,154 +62925,154 @@
       </c>
       <c r="O308" t="inlineStr">
         <is>
-          <t>['16', '72']</t>
+          <t>['34', '83']</t>
         </is>
       </c>
       <c r="P308" t="inlineStr">
         <is>
-          <t>['90+3']</t>
+          <t>['38']</t>
         </is>
       </c>
       <c r="Q308" t="n">
+        <v>3</v>
+      </c>
+      <c r="R308" t="n">
         <v>5</v>
       </c>
-      <c r="R308" t="n">
-        <v>4</v>
-      </c>
       <c r="S308" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="T308" t="n">
-        <v>2.75</v>
+        <v>3.8</v>
       </c>
       <c r="U308" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="V308" t="n">
-        <v>4</v>
+        <v>2.45</v>
       </c>
       <c r="W308" t="n">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="X308" t="n">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="Y308" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="Z308" t="n">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="AA308" t="n">
-        <v>6.5</v>
+        <v>5.8</v>
       </c>
       <c r="AB308" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="AC308" t="n">
-        <v>1.96</v>
+        <v>3.65</v>
       </c>
       <c r="AD308" t="n">
-        <v>3.3</v>
+        <v>3.55</v>
       </c>
       <c r="AE308" t="n">
-        <v>3.2</v>
+        <v>1.77</v>
       </c>
       <c r="AF308" t="n">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="AG308" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH308" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AI308" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="AJ308" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AK308" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AL308" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM308" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN308" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AO308" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP308" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AQ308" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR308" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AS308" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AT308" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AU308" t="n">
         <v>1.91</v>
       </c>
-      <c r="AK308" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="AL308" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AM308" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AN308" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AO308" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AP308" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="AQ308" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="AR308" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AS308" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="AT308" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="AU308" t="n">
-        <v>1.67</v>
-      </c>
       <c r="AV308" t="n">
-        <v>1.36</v>
+        <v>1.9</v>
       </c>
       <c r="AW308" t="n">
-        <v>3.03</v>
+        <v>3.81</v>
       </c>
       <c r="AX308" t="n">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="AY308" t="n">
         <v>7.5</v>
       </c>
       <c r="AZ308" t="n">
-        <v>2.43</v>
+        <v>1.72</v>
       </c>
       <c r="BA308" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="BB308" t="n">
-        <v>1.39</v>
+        <v>1.33</v>
       </c>
       <c r="BC308" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="BD308" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="BE308" t="n">
-        <v>2.95</v>
+        <v>2.7</v>
       </c>
       <c r="BF308" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BG308" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BH308" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BI308" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="BJ308" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BK308" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="309">
@@ -63283,7 +63283,7 @@
         <v>309</v>
       </c>
       <c r="B310" t="n">
-        <v>2569854</v>
+        <v>2569863</v>
       </c>
       <c r="C310" t="inlineStr">
         <is>
@@ -63303,182 +63303,182 @@
       </c>
       <c r="G310" t="inlineStr">
         <is>
-          <t>Barnsley</t>
+          <t>Portsmouth</t>
         </is>
       </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t>Accrington Stanley</t>
+          <t>Exeter City</t>
         </is>
       </c>
       <c r="I310" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J310" t="n">
         <v>0</v>
       </c>
       <c r="K310" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L310" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M310" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N310" t="n">
+        <v>2</v>
+      </c>
+      <c r="O310" t="inlineStr">
+        <is>
+          <t>['57', '74']</t>
+        </is>
+      </c>
+      <c r="P310" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q310" t="n">
+        <v>7</v>
+      </c>
+      <c r="R310" t="n">
+        <v>10</v>
+      </c>
+      <c r="S310" t="n">
+        <v>17</v>
+      </c>
+      <c r="T310" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="U310" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V310" t="n">
         <v>4</v>
-      </c>
-      <c r="O310" t="inlineStr">
-        <is>
-          <t>['5', '8', '19']</t>
-        </is>
-      </c>
-      <c r="P310" t="inlineStr">
-        <is>
-          <t>['90+4']</t>
-        </is>
-      </c>
-      <c r="Q310" t="n">
-        <v>8</v>
-      </c>
-      <c r="R310" t="n">
-        <v>2</v>
-      </c>
-      <c r="S310" t="n">
-        <v>10</v>
-      </c>
-      <c r="T310" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="U310" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="V310" t="n">
-        <v>5</v>
       </c>
       <c r="W310" t="n">
         <v>1.39</v>
       </c>
       <c r="X310" t="n">
-        <v>3.07</v>
+        <v>2.8</v>
       </c>
       <c r="Y310" t="n">
-        <v>2.91</v>
+        <v>2.9</v>
       </c>
       <c r="Z310" t="n">
-        <v>1.42</v>
+        <v>1.37</v>
       </c>
       <c r="AA310" t="n">
-        <v>6.45</v>
+        <v>7.35</v>
       </c>
       <c r="AB310" t="n">
-        <v>1.09</v>
+        <v>1.06</v>
       </c>
       <c r="AC310" t="n">
-        <v>1.53</v>
+        <v>2</v>
       </c>
       <c r="AD310" t="n">
-        <v>3.82</v>
+        <v>3.35</v>
       </c>
       <c r="AE310" t="n">
-        <v>4.75</v>
+        <v>3.05</v>
       </c>
       <c r="AF310" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="AG310" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH310" t="n">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="AI310" t="n">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="AJ310" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AK310" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AL310" t="n">
         <v>1.78</v>
       </c>
-      <c r="AK310" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="AL310" t="n">
-        <v>1.85</v>
-      </c>
       <c r="AM310" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="AN310" t="n">
-        <v>1.16</v>
+        <v>1.22</v>
       </c>
       <c r="AO310" t="n">
-        <v>1.2</v>
+        <v>1.32</v>
       </c>
       <c r="AP310" t="n">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="AQ310" t="n">
-        <v>1.83</v>
+        <v>1.33</v>
       </c>
       <c r="AR310" t="n">
-        <v>0.92</v>
+        <v>1.23</v>
       </c>
       <c r="AS310" t="n">
-        <v>1.92</v>
+        <v>1.46</v>
       </c>
       <c r="AT310" t="n">
-        <v>0.85</v>
+        <v>1.14</v>
       </c>
       <c r="AU310" t="n">
-        <v>1.58</v>
+        <v>1.43</v>
       </c>
       <c r="AV310" t="n">
         <v>1.43</v>
       </c>
       <c r="AW310" t="n">
-        <v>3.01</v>
+        <v>2.86</v>
       </c>
       <c r="AX310" t="n">
-        <v>1.58</v>
+        <v>2.07</v>
       </c>
       <c r="AY310" t="n">
         <v>7.5</v>
       </c>
       <c r="AZ310" t="n">
-        <v>2.9</v>
+        <v>2.07</v>
       </c>
       <c r="BA310" t="n">
-        <v>1.18</v>
+        <v>1.14</v>
       </c>
       <c r="BB310" t="n">
-        <v>1.34</v>
+        <v>1.29</v>
       </c>
       <c r="BC310" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="BD310" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="BE310" t="n">
-        <v>2.7</v>
+        <v>2.25</v>
       </c>
       <c r="BF310" t="n">
         <v>5</v>
       </c>
       <c r="BG310" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BH310" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BI310" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BJ310" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK310" t="n">
         <v>15</v>
-      </c>
-      <c r="BK310" t="n">
-        <v>11</v>
       </c>
     </row>
     <row r="311">
@@ -63486,7 +63486,7 @@
         <v>310</v>
       </c>
       <c r="B311" t="n">
-        <v>2569863</v>
+        <v>2569864</v>
       </c>
       <c r="C311" t="inlineStr">
         <is>
@@ -63506,35 +63506,35 @@
       </c>
       <c r="G311" t="inlineStr">
         <is>
-          <t>Portsmouth</t>
+          <t>Sheffield Wednesday</t>
         </is>
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>Exeter City</t>
+          <t>Fleetwood Town</t>
         </is>
       </c>
       <c r="I311" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J311" t="n">
         <v>0</v>
       </c>
       <c r="K311" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L311" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M311" t="n">
         <v>0</v>
       </c>
       <c r="N311" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O311" t="inlineStr">
         <is>
-          <t>['57', '74']</t>
+          <t>['17']</t>
         </is>
       </c>
       <c r="P311" t="inlineStr">
@@ -63543,145 +63543,145 @@
         </is>
       </c>
       <c r="Q311" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="R311" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="S311" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="T311" t="n">
-        <v>2.8</v>
+        <v>1.85</v>
       </c>
       <c r="U311" t="n">
-        <v>2.15</v>
+        <v>2.35</v>
       </c>
       <c r="V311" t="n">
-        <v>4</v>
+        <v>6.2</v>
       </c>
       <c r="W311" t="n">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="X311" t="n">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="Y311" t="n">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="Z311" t="n">
-        <v>1.37</v>
+        <v>1.42</v>
       </c>
       <c r="AA311" t="n">
-        <v>7.35</v>
+        <v>5.8</v>
       </c>
       <c r="AB311" t="n">
-        <v>1.06</v>
+        <v>1.1</v>
       </c>
       <c r="AC311" t="n">
-        <v>2</v>
+        <v>1.35</v>
       </c>
       <c r="AD311" t="n">
-        <v>3.35</v>
+        <v>4.3</v>
       </c>
       <c r="AE311" t="n">
-        <v>3.05</v>
+        <v>6.4</v>
       </c>
       <c r="AF311" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="AG311" t="n">
         <v>11</v>
       </c>
       <c r="AH311" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AI311" t="n">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="AJ311" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AK311" t="n">
         <v>1.89</v>
       </c>
-      <c r="AK311" t="n">
-        <v>1.71</v>
-      </c>
       <c r="AL311" t="n">
-        <v>1.78</v>
+        <v>1.85</v>
       </c>
       <c r="AM311" t="n">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="AN311" t="n">
-        <v>1.22</v>
+        <v>1.03</v>
       </c>
       <c r="AO311" t="n">
-        <v>1.32</v>
+        <v>1.2</v>
       </c>
       <c r="AP311" t="n">
-        <v>1.7</v>
+        <v>2.75</v>
       </c>
       <c r="AQ311" t="n">
-        <v>1.33</v>
+        <v>2.15</v>
       </c>
       <c r="AR311" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AS311" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AT311" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AU311" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AV311" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AW311" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="AX311" t="n">
         <v>1.23</v>
       </c>
-      <c r="AS311" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="AT311" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="AU311" t="n">
+      <c r="AY311" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AZ311" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="BA311" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BB311" t="n">
         <v>1.43</v>
       </c>
-      <c r="AV311" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="AW311" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="AX311" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="AY311" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AZ311" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="BA311" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="BB311" t="n">
-        <v>1.29</v>
-      </c>
       <c r="BC311" t="n">
-        <v>1.55</v>
+        <v>1.8</v>
       </c>
       <c r="BD311" t="n">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="BE311" t="n">
-        <v>2.25</v>
+        <v>3.2</v>
       </c>
       <c r="BF311" t="n">
         <v>5</v>
       </c>
       <c r="BG311" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BH311" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BI311" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="BJ311" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BK311" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="312">
@@ -63689,7 +63689,7 @@
         <v>311</v>
       </c>
       <c r="B312" t="n">
-        <v>2569864</v>
+        <v>2569865</v>
       </c>
       <c r="C312" t="inlineStr">
         <is>
@@ -63709,182 +63709,182 @@
       </c>
       <c r="G312" t="inlineStr">
         <is>
-          <t>Sheffield Wednesday</t>
+          <t>Shrewsbury Town</t>
         </is>
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>Fleetwood Town</t>
+          <t>Cambridge United</t>
         </is>
       </c>
       <c r="I312" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J312" t="n">
         <v>0</v>
       </c>
       <c r="K312" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L312" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M312" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N312" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O312" t="inlineStr">
         <is>
-          <t>['17']</t>
+          <t>['33', '45+5', '57', '71', '90+1']</t>
         </is>
       </c>
       <c r="P312" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['69']</t>
         </is>
       </c>
       <c r="Q312" t="n">
+        <v>7</v>
+      </c>
+      <c r="R312" t="n">
+        <v>5</v>
+      </c>
+      <c r="S312" t="n">
+        <v>12</v>
+      </c>
+      <c r="T312" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U312" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V312" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="W312" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X312" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Y312" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Z312" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA312" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AB312" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC312" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AD312" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE312" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="AF312" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG312" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH312" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI312" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ312" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AK312" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AL312" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AM312" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN312" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AO312" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP312" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ312" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AR312" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="AS312" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AT312" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="AU312" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AV312" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AW312" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AX312" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AY312" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ312" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BA312" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB312" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BC312" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BD312" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE312" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BF312" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG312" t="n">
         <v>4</v>
       </c>
-      <c r="R312" t="n">
-        <v>2</v>
-      </c>
-      <c r="S312" t="n">
-        <v>6</v>
-      </c>
-      <c r="T312" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="U312" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="V312" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="W312" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="X312" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="Y312" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="Z312" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="AA312" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AB312" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AC312" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="AD312" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="AE312" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AF312" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="AG312" t="n">
+      <c r="BH312" t="n">
         <v>11</v>
-      </c>
-      <c r="AH312" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AI312" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="AJ312" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="AK312" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="AL312" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="AM312" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="AN312" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="AO312" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AP312" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AQ312" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="AR312" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="AS312" t="n">
-        <v>2.21</v>
-      </c>
-      <c r="AT312" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AU312" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AV312" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AW312" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="AX312" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="AY312" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AZ312" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="BA312" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="BB312" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="BC312" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="BD312" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="BE312" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="BF312" t="n">
-        <v>5</v>
-      </c>
-      <c r="BG312" t="n">
-        <v>2</v>
-      </c>
-      <c r="BH312" t="n">
-        <v>10</v>
       </c>
       <c r="BI312" t="n">
         <v>8</v>
       </c>
       <c r="BJ312" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="BK312" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="313">
@@ -63892,7 +63892,7 @@
         <v>312</v>
       </c>
       <c r="B313" t="n">
-        <v>2569865</v>
+        <v>2569854</v>
       </c>
       <c r="C313" t="inlineStr">
         <is>
@@ -63912,140 +63912,140 @@
       </c>
       <c r="G313" t="inlineStr">
         <is>
-          <t>Shrewsbury Town</t>
+          <t>Barnsley</t>
         </is>
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t>Cambridge United</t>
+          <t>Accrington Stanley</t>
         </is>
       </c>
       <c r="I313" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J313" t="n">
         <v>0</v>
       </c>
       <c r="K313" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L313" t="n">
+        <v>3</v>
+      </c>
+      <c r="M313" t="n">
+        <v>1</v>
+      </c>
+      <c r="N313" t="n">
+        <v>4</v>
+      </c>
+      <c r="O313" t="inlineStr">
+        <is>
+          <t>['5', '8', '19']</t>
+        </is>
+      </c>
+      <c r="P313" t="inlineStr">
+        <is>
+          <t>['90+4']</t>
+        </is>
+      </c>
+      <c r="Q313" t="n">
+        <v>8</v>
+      </c>
+      <c r="R313" t="n">
+        <v>2</v>
+      </c>
+      <c r="S313" t="n">
+        <v>10</v>
+      </c>
+      <c r="T313" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U313" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V313" t="n">
         <v>5</v>
       </c>
-      <c r="M313" t="n">
-        <v>1</v>
-      </c>
-      <c r="N313" t="n">
-        <v>6</v>
-      </c>
-      <c r="O313" t="inlineStr">
-        <is>
-          <t>['33', '45+5', '57', '71', '90+1']</t>
-        </is>
-      </c>
-      <c r="P313" t="inlineStr">
-        <is>
-          <t>['69']</t>
-        </is>
-      </c>
-      <c r="Q313" t="n">
-        <v>7</v>
-      </c>
-      <c r="R313" t="n">
-        <v>5</v>
-      </c>
-      <c r="S313" t="n">
-        <v>12</v>
-      </c>
-      <c r="T313" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="U313" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V313" t="n">
-        <v>4.7</v>
-      </c>
       <c r="W313" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="X313" t="n">
-        <v>2.7</v>
+        <v>3.07</v>
       </c>
       <c r="Y313" t="n">
-        <v>2.95</v>
+        <v>2.91</v>
       </c>
       <c r="Z313" t="n">
-        <v>1.35</v>
+        <v>1.42</v>
       </c>
       <c r="AA313" t="n">
-        <v>6.8</v>
+        <v>6.45</v>
       </c>
       <c r="AB313" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="AC313" t="n">
-        <v>1.73</v>
+        <v>1.53</v>
       </c>
       <c r="AD313" t="n">
-        <v>3.3</v>
+        <v>3.82</v>
       </c>
       <c r="AE313" t="n">
-        <v>4.05</v>
+        <v>4.75</v>
       </c>
       <c r="AF313" t="n">
         <v>1.04</v>
       </c>
       <c r="AG313" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AH313" t="n">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="AI313" t="n">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="AJ313" t="n">
-        <v>2.12</v>
+        <v>1.78</v>
       </c>
       <c r="AK313" t="n">
-        <v>1.66</v>
+        <v>1.82</v>
       </c>
       <c r="AL313" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AM313" t="n">
         <v>1.9</v>
       </c>
-      <c r="AM313" t="n">
-        <v>1.8</v>
-      </c>
       <c r="AN313" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="AO313" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AP313" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="AQ313" t="n">
-        <v>1.31</v>
+        <v>1.83</v>
       </c>
       <c r="AR313" t="n">
-        <v>0.58</v>
+        <v>0.92</v>
       </c>
       <c r="AS313" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AT313" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="AU313" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AV313" t="n">
         <v>1.43</v>
       </c>
-      <c r="AT313" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="AU313" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AV313" t="n">
-        <v>1.18</v>
-      </c>
       <c r="AW313" t="n">
-        <v>2.48</v>
+        <v>3.01</v>
       </c>
       <c r="AX313" t="n">
         <v>1.58</v>
@@ -64060,34 +64060,34 @@
         <v>1.18</v>
       </c>
       <c r="BB313" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="BC313" t="n">
-        <v>1.63</v>
+        <v>1.6</v>
       </c>
       <c r="BD313" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="BE313" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="BF313" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG313" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH313" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI313" t="n">
         <v>9</v>
       </c>
-      <c r="BG313" t="n">
-        <v>4</v>
-      </c>
-      <c r="BH313" t="n">
+      <c r="BJ313" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK313" t="n">
         <v>11</v>
-      </c>
-      <c r="BI313" t="n">
-        <v>8</v>
-      </c>
-      <c r="BJ313" t="n">
-        <v>20</v>
-      </c>
-      <c r="BK313" t="n">
-        <v>12</v>
       </c>
     </row>
     <row r="314">
@@ -64095,7 +64095,7 @@
         <v>313</v>
       </c>
       <c r="B314" t="n">
-        <v>2569488</v>
+        <v>2569840</v>
       </c>
       <c r="C314" t="inlineStr">
         <is>
@@ -64115,182 +64115,182 @@
       </c>
       <c r="G314" t="inlineStr">
         <is>
-          <t>Bolton Wanderers</t>
+          <t>Port Vale</t>
         </is>
       </c>
       <c r="H314" t="inlineStr">
         <is>
-          <t>Forest Green Rovers</t>
+          <t>Derby County</t>
         </is>
       </c>
       <c r="I314" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J314" t="n">
         <v>0</v>
       </c>
       <c r="K314" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
       <c r="M314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N314" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O314" t="inlineStr">
         <is>
-          <t>['6']</t>
+          <t>['56']</t>
         </is>
       </c>
       <c r="P314" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['87', '89']</t>
         </is>
       </c>
       <c r="Q314" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="R314" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="S314" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="T314" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U314" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V314" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="W314" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X314" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y314" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Z314" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA314" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB314" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC314" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="AD314" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AE314" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AF314" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG314" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH314" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AI314" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AJ314" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK314" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AL314" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM314" t="n">
         <v>1.9</v>
       </c>
-      <c r="U314" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="V314" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="W314" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="X314" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="Y314" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="Z314" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="AA314" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AB314" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="AC314" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AD314" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="AE314" t="n">
-        <v>6.69</v>
-      </c>
-      <c r="AF314" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="AG314" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH314" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="AI314" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="AJ314" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AK314" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AL314" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AM314" t="n">
-        <v>1.78</v>
-      </c>
       <c r="AN314" t="n">
-        <v>1.1</v>
+        <v>1.58</v>
       </c>
       <c r="AO314" t="n">
-        <v>1.16</v>
+        <v>1.28</v>
       </c>
       <c r="AP314" t="n">
-        <v>2.75</v>
+        <v>1.38</v>
       </c>
       <c r="AQ314" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AR314" t="n">
-        <v>0.6899999999999999</v>
+        <v>1.38</v>
       </c>
       <c r="AS314" t="n">
-        <v>2.07</v>
+        <v>1.38</v>
       </c>
       <c r="AT314" t="n">
-        <v>0.64</v>
+        <v>1.5</v>
       </c>
       <c r="AU314" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AV314" t="n">
-        <v>1.09</v>
+        <v>1.6</v>
       </c>
       <c r="AW314" t="n">
-        <v>2.63</v>
+        <v>3.03</v>
       </c>
       <c r="AX314" t="n">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="AY314" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AZ314" t="n">
-        <v>3.75</v>
+        <v>1.88</v>
       </c>
       <c r="BA314" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="BB314" t="n">
-        <v>1.47</v>
+        <v>1.34</v>
       </c>
       <c r="BC314" t="n">
-        <v>1.82</v>
+        <v>1.6</v>
       </c>
       <c r="BD314" t="n">
-        <v>2.38</v>
+        <v>2.02</v>
       </c>
       <c r="BE314" t="n">
-        <v>3.25</v>
+        <v>2.65</v>
       </c>
       <c r="BF314" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BG314" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BH314" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="BI314" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BJ314" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="BK314" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="315">
@@ -64298,7 +64298,7 @@
         <v>314</v>
       </c>
       <c r="B315" t="n">
-        <v>2569841</v>
+        <v>2569839</v>
       </c>
       <c r="C315" t="inlineStr">
         <is>
@@ -64318,182 +64318,182 @@
       </c>
       <c r="G315" t="inlineStr">
         <is>
-          <t>Wycombe Wanderers</t>
+          <t>Milton Keynes Dons</t>
         </is>
       </c>
       <c r="H315" t="inlineStr">
         <is>
-          <t>Oxford United</t>
+          <t>Shrewsbury Town</t>
         </is>
       </c>
       <c r="I315" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J315" t="n">
         <v>0</v>
       </c>
       <c r="K315" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L315" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M315" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N315" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O315" t="inlineStr">
         <is>
-          <t>['19', '35']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P315" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['89']</t>
         </is>
       </c>
       <c r="Q315" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="R315" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="S315" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="T315" t="n">
         <v>2.9</v>
       </c>
       <c r="U315" t="n">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="V315" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="W315" t="n">
-        <v>1.36</v>
+        <v>1.45</v>
       </c>
       <c r="X315" t="n">
-        <v>2.87</v>
+        <v>2.55</v>
       </c>
       <c r="Y315" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Z315" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AA315" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB315" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC315" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AD315" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AE315" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AF315" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG315" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH315" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AI315" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AJ315" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK315" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL315" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AM315" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN315" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO315" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP315" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ315" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AR315" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AS315" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AT315" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AU315" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AV315" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AW315" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AX315" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AY315" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ315" t="n">
         <v>2.6</v>
       </c>
-      <c r="Z315" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="AA315" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AB315" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AC315" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="AD315" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AE315" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="AF315" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AG315" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH315" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AI315" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AJ315" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="AK315" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="AL315" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="AM315" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AN315" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AO315" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AP315" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="AQ315" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="AR315" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="AS315" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="AT315" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="AU315" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AV315" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="AW315" t="n">
-        <v>2.97</v>
-      </c>
-      <c r="AX315" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="AY315" t="n">
-        <v>8</v>
-      </c>
-      <c r="AZ315" t="n">
-        <v>3.3</v>
-      </c>
       <c r="BA315" t="n">
-        <v>1.18</v>
+        <v>1.27</v>
       </c>
       <c r="BB315" t="n">
-        <v>1.34</v>
+        <v>1.5</v>
       </c>
       <c r="BC315" t="n">
-        <v>1.6</v>
+        <v>1.87</v>
       </c>
       <c r="BD315" t="n">
-        <v>2.02</v>
+        <v>2.45</v>
       </c>
       <c r="BE315" t="n">
-        <v>2.65</v>
+        <v>3.4</v>
       </c>
       <c r="BF315" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="BG315" t="n">
         <v>3</v>
       </c>
       <c r="BH315" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="BI315" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="BJ315" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="BK315" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="316">
@@ -64501,7 +64501,7 @@
         <v>315</v>
       </c>
       <c r="B316" t="n">
-        <v>2569840</v>
+        <v>2569833</v>
       </c>
       <c r="C316" t="inlineStr">
         <is>
@@ -64521,149 +64521,149 @@
       </c>
       <c r="G316" t="inlineStr">
         <is>
-          <t>Port Vale</t>
+          <t>Ipswich Town</t>
         </is>
       </c>
       <c r="H316" t="inlineStr">
         <is>
-          <t>Derby County</t>
+          <t>Morecambe</t>
         </is>
       </c>
       <c r="I316" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J316" t="n">
         <v>0</v>
       </c>
       <c r="K316" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L316" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M316" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N316" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O316" t="inlineStr">
         <is>
-          <t>['56']</t>
+          <t>['1', '16', '38', '45+6']</t>
         </is>
       </c>
       <c r="P316" t="inlineStr">
         <is>
-          <t>['87', '89']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q316" t="n">
+        <v>6</v>
+      </c>
+      <c r="R316" t="n">
+        <v>1</v>
+      </c>
+      <c r="S316" t="n">
         <v>7</v>
       </c>
-      <c r="R316" t="n">
-        <v>9</v>
-      </c>
-      <c r="S316" t="n">
-        <v>16</v>
-      </c>
       <c r="T316" t="n">
-        <v>3.6</v>
+        <v>1.62</v>
       </c>
       <c r="U316" t="n">
-        <v>2.05</v>
+        <v>2.6</v>
       </c>
       <c r="V316" t="n">
-        <v>2.95</v>
+        <v>9.5</v>
       </c>
       <c r="W316" t="n">
-        <v>1.45</v>
+        <v>1.28</v>
       </c>
       <c r="X316" t="n">
-        <v>2.6</v>
+        <v>3.3</v>
       </c>
       <c r="Y316" t="n">
-        <v>2.95</v>
+        <v>2.35</v>
       </c>
       <c r="Z316" t="n">
-        <v>1.35</v>
+        <v>1.52</v>
       </c>
       <c r="AA316" t="n">
-        <v>8.5</v>
+        <v>5.5</v>
       </c>
       <c r="AB316" t="n">
-        <v>1.07</v>
+        <v>1.13</v>
       </c>
       <c r="AC316" t="n">
-        <v>2.66</v>
+        <v>1.16</v>
       </c>
       <c r="AD316" t="n">
-        <v>3.14</v>
+        <v>5.94</v>
       </c>
       <c r="AE316" t="n">
-        <v>2.38</v>
+        <v>12.05</v>
       </c>
       <c r="AF316" t="n">
-        <v>1.06</v>
+        <v>1.02</v>
       </c>
       <c r="AG316" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="AH316" t="n">
-        <v>1.32</v>
+        <v>1.18</v>
       </c>
       <c r="AI316" t="n">
-        <v>3.05</v>
+        <v>4.4</v>
       </c>
       <c r="AJ316" t="n">
-        <v>2.05</v>
+        <v>1.64</v>
       </c>
       <c r="AK316" t="n">
-        <v>1.72</v>
+        <v>2.18</v>
       </c>
       <c r="AL316" t="n">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="AM316" t="n">
-        <v>1.9</v>
+        <v>1.58</v>
       </c>
       <c r="AN316" t="n">
-        <v>1.58</v>
+        <v>1.04</v>
       </c>
       <c r="AO316" t="n">
-        <v>1.28</v>
+        <v>1.09</v>
       </c>
       <c r="AP316" t="n">
-        <v>1.38</v>
+        <v>4.1</v>
       </c>
       <c r="AQ316" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AR316" t="n">
-        <v>1.38</v>
+        <v>0.58</v>
       </c>
       <c r="AS316" t="n">
-        <v>1.38</v>
+        <v>2.07</v>
       </c>
       <c r="AT316" t="n">
-        <v>1.5</v>
+        <v>0.54</v>
       </c>
       <c r="AU316" t="n">
-        <v>1.43</v>
+        <v>2.13</v>
       </c>
       <c r="AV316" t="n">
-        <v>1.6</v>
+        <v>1.14</v>
       </c>
       <c r="AW316" t="n">
-        <v>3.03</v>
+        <v>3.27</v>
       </c>
       <c r="AX316" t="n">
-        <v>2.3</v>
+        <v>1.15</v>
       </c>
       <c r="AY316" t="n">
-        <v>7.5</v>
+        <v>11.5</v>
       </c>
       <c r="AZ316" t="n">
-        <v>1.88</v>
+        <v>7</v>
       </c>
       <c r="BA316" t="n">
         <v>1.18</v>
@@ -64672,7 +64672,7 @@
         <v>1.34</v>
       </c>
       <c r="BC316" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="BD316" t="n">
         <v>2.02</v>
@@ -64681,22 +64681,22 @@
         <v>2.65</v>
       </c>
       <c r="BF316" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="BG316" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="BH316" t="n">
         <v>11</v>
       </c>
       <c r="BI316" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="BJ316" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="BK316" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="317">
@@ -64704,7 +64704,7 @@
         <v>316</v>
       </c>
       <c r="B317" t="n">
-        <v>2569839</v>
+        <v>2569783</v>
       </c>
       <c r="C317" t="inlineStr">
         <is>
@@ -64724,31 +64724,31 @@
       </c>
       <c r="G317" t="inlineStr">
         <is>
-          <t>Milton Keynes Dons</t>
+          <t>Fleetwood Town</t>
         </is>
       </c>
       <c r="H317" t="inlineStr">
         <is>
-          <t>Shrewsbury Town</t>
+          <t>Portsmouth</t>
         </is>
       </c>
       <c r="I317" t="n">
         <v>0</v>
       </c>
       <c r="J317" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K317" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L317" t="n">
         <v>0</v>
       </c>
       <c r="M317" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N317" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O317" t="inlineStr">
         <is>
@@ -64757,149 +64757,149 @@
       </c>
       <c r="P317" t="inlineStr">
         <is>
-          <t>['89']</t>
+          <t>['43', '83']</t>
         </is>
       </c>
       <c r="Q317" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="R317" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="S317" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="T317" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U317" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V317" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="W317" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X317" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Y317" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z317" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA317" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="AB317" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC317" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AD317" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="AE317" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AF317" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG317" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH317" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AI317" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ317" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AK317" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL317" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AM317" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN317" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AO317" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP317" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ317" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AR317" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AS317" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="AT317" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU317" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AV317" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AW317" t="n">
         <v>2.9</v>
       </c>
-      <c r="U317" t="n">
-        <v>2</v>
-      </c>
-      <c r="V317" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="W317" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="X317" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="Y317" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="Z317" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="AA317" t="n">
-        <v>9</v>
-      </c>
-      <c r="AB317" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AC317" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="AD317" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="AE317" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="AF317" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AG317" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AH317" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="AI317" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="AJ317" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AK317" t="n">
+      <c r="AX317" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AY317" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ317" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BA317" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB317" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BC317" t="n">
         <v>1.6</v>
       </c>
-      <c r="AL317" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="AM317" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="AN317" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="AO317" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AP317" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="AQ317" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="AR317" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AS317" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="AT317" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="AU317" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AV317" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="AW317" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="AX317" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="AY317" t="n">
-        <v>7</v>
-      </c>
-      <c r="AZ317" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="BA317" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="BB317" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="BC317" t="n">
-        <v>1.87</v>
-      </c>
       <c r="BD317" t="n">
-        <v>2.45</v>
+        <v>2.02</v>
       </c>
       <c r="BE317" t="n">
-        <v>3.4</v>
+        <v>2.65</v>
       </c>
       <c r="BF317" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BG317" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="BH317" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BI317" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BJ317" t="n">
         <v>16</v>
       </c>
       <c r="BK317" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="318">
@@ -64907,7 +64907,7 @@
         <v>317</v>
       </c>
       <c r="B318" t="n">
-        <v>2569833</v>
+        <v>2569841</v>
       </c>
       <c r="C318" t="inlineStr">
         <is>
@@ -64927,35 +64927,35 @@
       </c>
       <c r="G318" t="inlineStr">
         <is>
-          <t>Ipswich Town</t>
+          <t>Wycombe Wanderers</t>
         </is>
       </c>
       <c r="H318" t="inlineStr">
         <is>
-          <t>Morecambe</t>
+          <t>Oxford United</t>
         </is>
       </c>
       <c r="I318" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J318" t="n">
         <v>0</v>
       </c>
       <c r="K318" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L318" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M318" t="n">
         <v>0</v>
       </c>
       <c r="N318" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O318" t="inlineStr">
         <is>
-          <t>['1', '16', '38', '45+6']</t>
+          <t>['19', '35']</t>
         </is>
       </c>
       <c r="P318" t="inlineStr">
@@ -64964,112 +64964,112 @@
         </is>
       </c>
       <c r="Q318" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="R318" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S318" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="T318" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="U318" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V318" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W318" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X318" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="Y318" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Z318" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AA318" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB318" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC318" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="AD318" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE318" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AF318" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG318" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH318" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI318" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ318" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AK318" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AL318" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AM318" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN318" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AO318" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP318" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AQ318" t="n">
         <v>1.62</v>
       </c>
-      <c r="U318" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="V318" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="W318" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="X318" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="Y318" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="Z318" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="AA318" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AB318" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="AC318" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="AD318" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="AE318" t="n">
-        <v>12.05</v>
-      </c>
-      <c r="AF318" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="AG318" t="n">
-        <v>18</v>
-      </c>
-      <c r="AH318" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AI318" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="AJ318" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="AK318" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="AL318" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AM318" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="AN318" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AO318" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="AP318" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="AQ318" t="n">
-        <v>2</v>
-      </c>
       <c r="AR318" t="n">
-        <v>0.58</v>
+        <v>1.31</v>
       </c>
       <c r="AS318" t="n">
-        <v>2.07</v>
+        <v>1.71</v>
       </c>
       <c r="AT318" t="n">
-        <v>0.54</v>
+        <v>1.21</v>
       </c>
       <c r="AU318" t="n">
-        <v>2.13</v>
+        <v>1.83</v>
       </c>
       <c r="AV318" t="n">
         <v>1.14</v>
       </c>
       <c r="AW318" t="n">
-        <v>3.27</v>
+        <v>2.97</v>
       </c>
       <c r="AX318" t="n">
-        <v>1.15</v>
+        <v>1.48</v>
       </c>
       <c r="AY318" t="n">
-        <v>11.5</v>
+        <v>8</v>
       </c>
       <c r="AZ318" t="n">
-        <v>7</v>
+        <v>3.3</v>
       </c>
       <c r="BA318" t="n">
         <v>1.18</v>
@@ -65078,7 +65078,7 @@
         <v>1.34</v>
       </c>
       <c r="BC318" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="BD318" t="n">
         <v>2.02</v>
@@ -65087,22 +65087,22 @@
         <v>2.65</v>
       </c>
       <c r="BF318" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="BG318" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BH318" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="BI318" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="BJ318" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="BK318" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="319">
@@ -65110,7 +65110,7 @@
         <v>318</v>
       </c>
       <c r="B319" t="n">
-        <v>2569783</v>
+        <v>2569488</v>
       </c>
       <c r="C319" t="inlineStr">
         <is>
@@ -65130,179 +65130,179 @@
       </c>
       <c r="G319" t="inlineStr">
         <is>
-          <t>Fleetwood Town</t>
+          <t>Bolton Wanderers</t>
         </is>
       </c>
       <c r="H319" t="inlineStr">
         <is>
-          <t>Portsmouth</t>
+          <t>Forest Green Rovers</t>
         </is>
       </c>
       <c r="I319" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J319" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K319" t="n">
         <v>1</v>
       </c>
       <c r="L319" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M319" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N319" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O319" t="inlineStr">
         <is>
+          <t>['6']</t>
+        </is>
+      </c>
+      <c r="P319" t="inlineStr">
+        <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="P319" t="inlineStr">
-        <is>
-          <t>['43', '83']</t>
-        </is>
-      </c>
       <c r="Q319" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R319" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="S319" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="T319" t="n">
-        <v>3.4</v>
+        <v>1.9</v>
       </c>
       <c r="U319" t="n">
-        <v>2.1</v>
+        <v>2.35</v>
       </c>
       <c r="V319" t="n">
-        <v>2.95</v>
+        <v>6.5</v>
       </c>
       <c r="W319" t="n">
-        <v>1.38</v>
+        <v>1.32</v>
       </c>
       <c r="X319" t="n">
-        <v>2.8</v>
+        <v>3.05</v>
       </c>
       <c r="Y319" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Z319" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AA319" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB319" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC319" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AD319" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="AE319" t="n">
+        <v>6.69</v>
+      </c>
+      <c r="AF319" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG319" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH319" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AI319" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AJ319" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK319" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AL319" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM319" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AN319" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AO319" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AP319" t="n">
         <v>2.75</v>
       </c>
-      <c r="Z319" t="n">
+      <c r="AQ319" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR319" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AS319" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AT319" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AU319" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AV319" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AW319" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AX319" t="n">
         <v>1.4</v>
       </c>
-      <c r="AA319" t="n">
-        <v>7.25</v>
-      </c>
-      <c r="AB319" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="AC319" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="AD319" t="n">
-        <v>3.18</v>
-      </c>
-      <c r="AE319" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="AF319" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AG319" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH319" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="AI319" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AJ319" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="AK319" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AL319" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="AM319" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AN319" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="AO319" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AP319" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AQ319" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="AR319" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AS319" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="AT319" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AU319" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="AV319" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AW319" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="AX319" t="n">
-        <v>1.8</v>
-      </c>
       <c r="AY319" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AZ319" t="n">
-        <v>2.43</v>
+        <v>3.75</v>
       </c>
       <c r="BA319" t="n">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="BB319" t="n">
-        <v>1.34</v>
+        <v>1.47</v>
       </c>
       <c r="BC319" t="n">
-        <v>1.6</v>
+        <v>1.82</v>
       </c>
       <c r="BD319" t="n">
-        <v>2.02</v>
+        <v>2.38</v>
       </c>
       <c r="BE319" t="n">
-        <v>2.65</v>
+        <v>3.25</v>
       </c>
       <c r="BF319" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BG319" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BH319" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="BI319" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BJ319" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="BK319" t="n">
         <v>16</v>

--- a/Bases_de_Dados_(2022-2023)/England EFL League One_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/England EFL League One_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK328"/>
+  <dimension ref="A1:BK340"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,10 +900,10 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>1.71</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AT4" t="n">
         <v>1.38</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT5" t="n">
         <v>1.29</v>
@@ -1715,7 +1715,7 @@
         <v>1.43</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -2121,7 +2121,7 @@
         <v>2.79</v>
       </c>
       <c r="AT8" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AT9" t="n">
         <v>1.13</v>
@@ -2527,7 +2527,7 @@
         <v>1.31</v>
       </c>
       <c r="AT10" t="n">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT12" t="n">
         <v>0.6</v>
@@ -3742,10 +3742,10 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>2.15</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4148,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AT18" t="n">
         <v>0.57</v>
@@ -4351,10 +4351,10 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AT19" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AU19" t="n">
         <v>0</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT21" t="n">
         <v>1.29</v>
@@ -5163,10 +5163,10 @@
         <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT23" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU23" t="n">
         <v>0</v>
@@ -5369,7 +5369,7 @@
         <v>1.92</v>
       </c>
       <c r="AT24" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AU24" t="n">
         <v>0</v>
@@ -5569,10 +5569,10 @@
         <v>0</v>
       </c>
       <c r="AS25" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AT25" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AU25" t="n">
         <v>0</v>
@@ -5772,7 +5772,7 @@
         <v>0</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT26" t="n">
         <v>1.13</v>
@@ -5978,7 +5978,7 @@
         <v>2.79</v>
       </c>
       <c r="AT27" t="n">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AU27" t="n">
         <v>1.94</v>
@@ -6181,7 +6181,7 @@
         <v>1.71</v>
       </c>
       <c r="AT28" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU28" t="n">
         <v>2.22</v>
@@ -6381,10 +6381,10 @@
         <v>1</v>
       </c>
       <c r="AS29" t="n">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AT29" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AU29" t="n">
         <v>1.98</v>
@@ -6584,7 +6584,7 @@
         <v>1</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT30" t="n">
         <v>1.36</v>
@@ -6990,7 +6990,7 @@
         <v>1</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT32" t="n">
         <v>1.27</v>
@@ -7196,7 +7196,7 @@
         <v>2.07</v>
       </c>
       <c r="AT33" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU33" t="n">
         <v>2</v>
@@ -7396,10 +7396,10 @@
         <v>0</v>
       </c>
       <c r="AS34" t="n">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AT34" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AU34" t="n">
         <v>1.5</v>
@@ -7802,10 +7802,10 @@
         <v>0</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT36" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AU36" t="n">
         <v>2.1</v>
@@ -8411,7 +8411,7 @@
         <v>0</v>
       </c>
       <c r="AS39" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT39" t="n">
         <v>0.57</v>
@@ -8817,10 +8817,10 @@
         <v>1</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AT41" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU41" t="n">
         <v>1.6</v>
@@ -9223,10 +9223,10 @@
         <v>0</v>
       </c>
       <c r="AS43" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AT43" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AU43" t="n">
         <v>0.57</v>
@@ -9429,7 +9429,7 @@
         <v>1.53</v>
       </c>
       <c r="AT44" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AU44" t="n">
         <v>1.01</v>
@@ -9632,7 +9632,7 @@
         <v>1.14</v>
       </c>
       <c r="AT45" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AU45" t="n">
         <v>0.53</v>
@@ -9832,10 +9832,10 @@
         <v>0</v>
       </c>
       <c r="AS46" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT46" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AU46" t="n">
         <v>2.09</v>
@@ -10238,10 +10238,10 @@
         <v>0</v>
       </c>
       <c r="AS48" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT48" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU48" t="n">
         <v>1.2</v>
@@ -10444,7 +10444,7 @@
         <v>1.53</v>
       </c>
       <c r="AT49" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AU49" t="n">
         <v>1.38</v>
@@ -10644,10 +10644,10 @@
         <v>0</v>
       </c>
       <c r="AS50" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AU50" t="n">
         <v>1.06</v>
@@ -10847,7 +10847,7 @@
         <v>1.5</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT51" t="n">
         <v>1.2</v>
@@ -11053,7 +11053,7 @@
         <v>2.15</v>
       </c>
       <c r="AT52" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU52" t="n">
         <v>2.06</v>
@@ -11456,7 +11456,7 @@
         <v>0.5</v>
       </c>
       <c r="AS54" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AT54" t="n">
         <v>1.5</v>
@@ -11659,10 +11659,10 @@
         <v>0</v>
       </c>
       <c r="AS55" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AT55" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AU55" t="n">
         <v>1.78</v>
@@ -12268,10 +12268,10 @@
         <v>0.5</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT58" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AU58" t="n">
         <v>1.47</v>
@@ -12471,7 +12471,7 @@
         <v>1.5</v>
       </c>
       <c r="AS59" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT59" t="n">
         <v>2.08</v>
@@ -12677,7 +12677,7 @@
         <v>1.92</v>
       </c>
       <c r="AT60" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU60" t="n">
         <v>1.81</v>
@@ -12880,7 +12880,7 @@
         <v>1.71</v>
       </c>
       <c r="AT61" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AU61" t="n">
         <v>2.29</v>
@@ -13080,7 +13080,7 @@
         <v>2</v>
       </c>
       <c r="AS62" t="n">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AT62" t="n">
         <v>0.6</v>
@@ -13283,7 +13283,7 @@
         <v>2</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT63" t="n">
         <v>1.38</v>
@@ -13692,7 +13692,7 @@
         <v>1.43</v>
       </c>
       <c r="AT65" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU65" t="n">
         <v>1.3</v>
@@ -14098,7 +14098,7 @@
         <v>2.07</v>
       </c>
       <c r="AT67" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AU67" t="n">
         <v>2.04</v>
@@ -14298,10 +14298,10 @@
         <v>1.5</v>
       </c>
       <c r="AS68" t="n">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AT68" t="n">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AU68" t="n">
         <v>1.28</v>
@@ -14704,10 +14704,10 @@
         <v>0.5</v>
       </c>
       <c r="AS70" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT70" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AU70" t="n">
         <v>1.74</v>
@@ -14907,10 +14907,10 @@
         <v>2</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT71" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU71" t="n">
         <v>1.15</v>
@@ -15110,7 +15110,7 @@
         <v>0.5</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT72" t="n">
         <v>1.27</v>
@@ -15313,10 +15313,10 @@
         <v>1</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT73" t="n">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AU73" t="n">
         <v>1.5</v>
@@ -15516,10 +15516,10 @@
         <v>1.33</v>
       </c>
       <c r="AS74" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT74" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AU74" t="n">
         <v>1.45</v>
@@ -15719,10 +15719,10 @@
         <v>0.33</v>
       </c>
       <c r="AS75" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AT75" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AU75" t="n">
         <v>2.16</v>
@@ -15922,10 +15922,10 @@
         <v>1.67</v>
       </c>
       <c r="AS76" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AT76" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU76" t="n">
         <v>1.23</v>
@@ -16125,10 +16125,10 @@
         <v>1</v>
       </c>
       <c r="AS77" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AT77" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU77" t="n">
         <v>1.09</v>
@@ -16328,10 +16328,10 @@
         <v>1</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT78" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU78" t="n">
         <v>1.58</v>
@@ -16531,10 +16531,10 @@
         <v>0.33</v>
       </c>
       <c r="AS79" t="n">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AT79" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AU79" t="n">
         <v>1.66</v>
@@ -16734,10 +16734,10 @@
         <v>1.33</v>
       </c>
       <c r="AS80" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT80" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU80" t="n">
         <v>1.88</v>
@@ -16937,10 +16937,10 @@
         <v>0.33</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT81" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AU81" t="n">
         <v>1.15</v>
@@ -17140,10 +17140,10 @@
         <v>0.67</v>
       </c>
       <c r="AS82" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT82" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AU82" t="n">
         <v>1.78</v>
@@ -17343,10 +17343,10 @@
         <v>3</v>
       </c>
       <c r="AS83" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT83" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AU83" t="n">
         <v>2.04</v>
@@ -17546,10 +17546,10 @@
         <v>1</v>
       </c>
       <c r="AS84" t="n">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AT84" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AU84" t="n">
         <v>1.58</v>
@@ -17749,7 +17749,7 @@
         <v>2</v>
       </c>
       <c r="AS85" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AT85" t="n">
         <v>0.85</v>
@@ -20388,10 +20388,10 @@
         <v>1.25</v>
       </c>
       <c r="AS98" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT98" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AU98" t="n">
         <v>1.83</v>
@@ -20591,10 +20591,10 @@
         <v>0.75</v>
       </c>
       <c r="AS99" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT99" t="n">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AU99" t="n">
         <v>1.81</v>
@@ -20794,10 +20794,10 @@
         <v>1</v>
       </c>
       <c r="AS100" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT100" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU100" t="n">
         <v>1.5</v>
@@ -20997,10 +20997,10 @@
         <v>1</v>
       </c>
       <c r="AS101" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT101" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AU101" t="n">
         <v>1.65</v>
@@ -21200,10 +21200,10 @@
         <v>0.5</v>
       </c>
       <c r="AS102" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AT102" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AU102" t="n">
         <v>1.4</v>
@@ -21403,10 +21403,10 @@
         <v>0.75</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AT103" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU103" t="n">
         <v>1.9</v>
@@ -21606,10 +21606,10 @@
         <v>2</v>
       </c>
       <c r="AS104" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT104" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU104" t="n">
         <v>1.44</v>
@@ -21809,10 +21809,10 @@
         <v>1.5</v>
       </c>
       <c r="AS105" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT105" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AU105" t="n">
         <v>1.46</v>
@@ -22012,10 +22012,10 @@
         <v>3</v>
       </c>
       <c r="AS106" t="n">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AT106" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AU106" t="n">
         <v>1.56</v>
@@ -22215,10 +22215,10 @@
         <v>1</v>
       </c>
       <c r="AS107" t="n">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AT107" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU107" t="n">
         <v>1.52</v>
@@ -22418,10 +22418,10 @@
         <v>0.5</v>
       </c>
       <c r="AS108" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AT108" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AU108" t="n">
         <v>1.38</v>
@@ -22621,10 +22621,10 @@
         <v>0.25</v>
       </c>
       <c r="AS109" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT109" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AU109" t="n">
         <v>1.62</v>
@@ -22824,7 +22824,7 @@
         <v>0.5</v>
       </c>
       <c r="AS110" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AT110" t="n">
         <v>1.27</v>
@@ -23030,7 +23030,7 @@
         <v>1.92</v>
       </c>
       <c r="AT111" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AU111" t="n">
         <v>1.75</v>
@@ -23230,7 +23230,7 @@
         <v>1</v>
       </c>
       <c r="AS112" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT112" t="n">
         <v>0.85</v>
@@ -23839,10 +23839,10 @@
         <v>0.8</v>
       </c>
       <c r="AS115" t="n">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AT115" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU115" t="n">
         <v>1.52</v>
@@ -24045,7 +24045,7 @@
         <v>1.53</v>
       </c>
       <c r="AT116" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AU116" t="n">
         <v>1.37</v>
@@ -24248,7 +24248,7 @@
         <v>2.79</v>
       </c>
       <c r="AT117" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AU117" t="n">
         <v>1.83</v>
@@ -24448,10 +24448,10 @@
         <v>1.4</v>
       </c>
       <c r="AS118" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AT118" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AU118" t="n">
         <v>1.45</v>
@@ -24651,7 +24651,7 @@
         <v>0.75</v>
       </c>
       <c r="AS119" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT119" t="n">
         <v>1.2</v>
@@ -24857,7 +24857,7 @@
         <v>1.31</v>
       </c>
       <c r="AT120" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU120" t="n">
         <v>1.42</v>
@@ -25260,7 +25260,7 @@
         <v>2.25</v>
       </c>
       <c r="AS122" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT122" t="n">
         <v>2.08</v>
@@ -25666,10 +25666,10 @@
         <v>1.4</v>
       </c>
       <c r="AS124" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT124" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU124" t="n">
         <v>1.69</v>
@@ -25869,10 +25869,10 @@
         <v>1</v>
       </c>
       <c r="AS125" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT125" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AU125" t="n">
         <v>1.76</v>
@@ -26075,7 +26075,7 @@
         <v>1.71</v>
       </c>
       <c r="AT126" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AU126" t="n">
         <v>2.07</v>
@@ -26478,7 +26478,7 @@
         <v>0.5</v>
       </c>
       <c r="AS128" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT128" t="n">
         <v>1.5</v>
@@ -26684,7 +26684,7 @@
         <v>0.6</v>
       </c>
       <c r="AT129" t="n">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AU129" t="n">
         <v>1.1</v>
@@ -27699,7 +27699,7 @@
         <v>1.31</v>
       </c>
       <c r="AT134" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AU134" t="n">
         <v>1.3</v>
@@ -27899,7 +27899,7 @@
         <v>0.67</v>
       </c>
       <c r="AS135" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT135" t="n">
         <v>0.57</v>
@@ -28308,7 +28308,7 @@
         <v>1.43</v>
       </c>
       <c r="AT137" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AU137" t="n">
         <v>1.27</v>
@@ -28508,10 +28508,10 @@
         <v>0.67</v>
       </c>
       <c r="AS138" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AT138" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU138" t="n">
         <v>1.87</v>
@@ -28714,7 +28714,7 @@
         <v>2.15</v>
       </c>
       <c r="AT139" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AU139" t="n">
         <v>1.97</v>
@@ -29117,7 +29117,7 @@
         <v>1.6</v>
       </c>
       <c r="AS141" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT141" t="n">
         <v>1.29</v>
@@ -29320,10 +29320,10 @@
         <v>1</v>
       </c>
       <c r="AS142" t="n">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AT142" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AU142" t="n">
         <v>1.59</v>
@@ -29523,7 +29523,7 @@
         <v>0.8</v>
       </c>
       <c r="AS143" t="n">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AT143" t="n">
         <v>1.29</v>
@@ -29726,7 +29726,7 @@
         <v>1</v>
       </c>
       <c r="AS144" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AT144" t="n">
         <v>1.36</v>
@@ -29932,7 +29932,7 @@
         <v>1.53</v>
       </c>
       <c r="AT145" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU145" t="n">
         <v>1.24</v>
@@ -30741,7 +30741,7 @@
         <v>2</v>
       </c>
       <c r="AS149" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT149" t="n">
         <v>2.08</v>
@@ -31147,7 +31147,7 @@
         <v>0.8</v>
       </c>
       <c r="AS151" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT151" t="n">
         <v>1.13</v>
@@ -31350,10 +31350,10 @@
         <v>1.33</v>
       </c>
       <c r="AS152" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AT152" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU152" t="n">
         <v>1.31</v>
@@ -31556,7 +31556,7 @@
         <v>1.14</v>
       </c>
       <c r="AT153" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AU153" t="n">
         <v>1.37</v>
@@ -31759,7 +31759,7 @@
         <v>2.07</v>
       </c>
       <c r="AT154" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU154" t="n">
         <v>2.02</v>
@@ -31962,7 +31962,7 @@
         <v>0.6</v>
       </c>
       <c r="AT155" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AU155" t="n">
         <v>1.02</v>
@@ -32162,7 +32162,7 @@
         <v>0.83</v>
       </c>
       <c r="AS156" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT156" t="n">
         <v>0.6</v>
@@ -32368,7 +32368,7 @@
         <v>1.71</v>
       </c>
       <c r="AT157" t="n">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AU157" t="n">
         <v>2.07</v>
@@ -32568,10 +32568,10 @@
         <v>1.67</v>
       </c>
       <c r="AS158" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT158" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AU158" t="n">
         <v>1.64</v>
@@ -32771,7 +32771,7 @@
         <v>1</v>
       </c>
       <c r="AS159" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT159" t="n">
         <v>1.5</v>
@@ -33583,10 +33583,10 @@
         <v>0.86</v>
       </c>
       <c r="AS163" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AT163" t="n">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AU163" t="n">
         <v>1.99</v>
@@ -33789,7 +33789,7 @@
         <v>1.43</v>
       </c>
       <c r="AT164" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AU164" t="n">
         <v>1.27</v>
@@ -33992,7 +33992,7 @@
         <v>0.6</v>
       </c>
       <c r="AT165" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU165" t="n">
         <v>1.03</v>
@@ -34192,7 +34192,7 @@
         <v>1.67</v>
       </c>
       <c r="AS166" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AT166" t="n">
         <v>1.38</v>
@@ -34395,7 +34395,7 @@
         <v>1.5</v>
       </c>
       <c r="AS167" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT167" t="n">
         <v>1.29</v>
@@ -34598,7 +34598,7 @@
         <v>1.17</v>
       </c>
       <c r="AS168" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT168" t="n">
         <v>1.29</v>
@@ -34804,7 +34804,7 @@
         <v>1.14</v>
       </c>
       <c r="AT169" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AU169" t="n">
         <v>1.42</v>
@@ -35004,10 +35004,10 @@
         <v>1.86</v>
       </c>
       <c r="AS170" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT170" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AU170" t="n">
         <v>1.55</v>
@@ -35207,7 +35207,7 @@
         <v>0.83</v>
       </c>
       <c r="AS171" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT171" t="n">
         <v>1.36</v>
@@ -35413,7 +35413,7 @@
         <v>1.53</v>
       </c>
       <c r="AT172" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AU172" t="n">
         <v>1.29</v>
@@ -35816,7 +35816,7 @@
         <v>1.17</v>
       </c>
       <c r="AS174" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT174" t="n">
         <v>1.13</v>
@@ -36022,7 +36022,7 @@
         <v>2.79</v>
       </c>
       <c r="AT175" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU175" t="n">
         <v>1.84</v>
@@ -36425,7 +36425,7 @@
         <v>0.86</v>
       </c>
       <c r="AS177" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AT177" t="n">
         <v>0.6</v>
@@ -36628,7 +36628,7 @@
         <v>1.14</v>
       </c>
       <c r="AS178" t="n">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AT178" t="n">
         <v>1.27</v>
@@ -36834,7 +36834,7 @@
         <v>1.31</v>
       </c>
       <c r="AT179" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AU179" t="n">
         <v>1.42</v>
@@ -37037,7 +37037,7 @@
         <v>1.53</v>
       </c>
       <c r="AT180" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU180" t="n">
         <v>1.63</v>
@@ -37237,10 +37237,10 @@
         <v>0.71</v>
       </c>
       <c r="AS181" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT181" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AU181" t="n">
         <v>1.56</v>
@@ -37440,10 +37440,10 @@
         <v>2.29</v>
       </c>
       <c r="AS182" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT182" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AU182" t="n">
         <v>1.53</v>
@@ -37646,7 +37646,7 @@
         <v>1.92</v>
       </c>
       <c r="AT183" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU183" t="n">
         <v>1.65</v>
@@ -37846,7 +37846,7 @@
         <v>1.43</v>
       </c>
       <c r="AS184" t="n">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AT184" t="n">
         <v>1.2</v>
@@ -38049,7 +38049,7 @@
         <v>1</v>
       </c>
       <c r="AS185" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AT185" t="n">
         <v>0.85</v>
@@ -38252,7 +38252,7 @@
         <v>1.38</v>
       </c>
       <c r="AS186" t="n">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AT186" t="n">
         <v>1.2</v>
@@ -38458,7 +38458,7 @@
         <v>1.31</v>
       </c>
       <c r="AT187" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU187" t="n">
         <v>1.47</v>
@@ -38661,7 +38661,7 @@
         <v>1.53</v>
       </c>
       <c r="AT188" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AU188" t="n">
         <v>1.55</v>
@@ -38861,7 +38861,7 @@
         <v>1.14</v>
       </c>
       <c r="AS189" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT189" t="n">
         <v>1.13</v>
@@ -39473,7 +39473,7 @@
         <v>1.71</v>
       </c>
       <c r="AT192" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AU192" t="n">
         <v>2.08</v>
@@ -39673,10 +39673,10 @@
         <v>0.63</v>
       </c>
       <c r="AS193" t="n">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AT193" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AU193" t="n">
         <v>1.84</v>
@@ -39876,10 +39876,10 @@
         <v>1.38</v>
       </c>
       <c r="AS194" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT194" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU194" t="n">
         <v>1.42</v>
@@ -40079,10 +40079,10 @@
         <v>1.63</v>
       </c>
       <c r="AS195" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT195" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU195" t="n">
         <v>1.42</v>
@@ -40688,7 +40688,7 @@
         <v>1.29</v>
       </c>
       <c r="AS198" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AT198" t="n">
         <v>1.29</v>
@@ -41503,7 +41503,7 @@
         <v>1.53</v>
       </c>
       <c r="AT202" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AU202" t="n">
         <v>1.31</v>
@@ -41703,7 +41703,7 @@
         <v>1.38</v>
       </c>
       <c r="AS203" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AT203" t="n">
         <v>1.29</v>
@@ -42315,7 +42315,7 @@
         <v>1.31</v>
       </c>
       <c r="AT206" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AU206" t="n">
         <v>1.14</v>
@@ -42518,7 +42518,7 @@
         <v>2.07</v>
       </c>
       <c r="AT207" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AU207" t="n">
         <v>2.16</v>
@@ -42718,10 +42718,10 @@
         <v>1.13</v>
       </c>
       <c r="AS208" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT208" t="n">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AU208" t="n">
         <v>1.51</v>
@@ -42921,10 +42921,10 @@
         <v>1.25</v>
       </c>
       <c r="AS209" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AT209" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU209" t="n">
         <v>1.27</v>
@@ -43127,7 +43127,7 @@
         <v>1.14</v>
       </c>
       <c r="AT210" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AU210" t="n">
         <v>1.46</v>
@@ -43327,7 +43327,7 @@
         <v>1.25</v>
       </c>
       <c r="AS211" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT211" t="n">
         <v>1.29</v>
@@ -43530,7 +43530,7 @@
         <v>2</v>
       </c>
       <c r="AS212" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT212" t="n">
         <v>2.08</v>
@@ -43733,7 +43733,7 @@
         <v>1.14</v>
       </c>
       <c r="AS213" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT213" t="n">
         <v>1.36</v>
@@ -43936,7 +43936,7 @@
         <v>1.33</v>
       </c>
       <c r="AS214" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT214" t="n">
         <v>1.5</v>
@@ -44139,10 +44139,10 @@
         <v>2.22</v>
       </c>
       <c r="AS215" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT215" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AU215" t="n">
         <v>1.46</v>
@@ -44342,7 +44342,7 @@
         <v>0.78</v>
       </c>
       <c r="AS216" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AT216" t="n">
         <v>0.6</v>
@@ -44545,10 +44545,10 @@
         <v>1.33</v>
       </c>
       <c r="AS217" t="n">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AT217" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU217" t="n">
         <v>1.81</v>
@@ -44751,7 +44751,7 @@
         <v>1.31</v>
       </c>
       <c r="AT218" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AU218" t="n">
         <v>1.24</v>
@@ -44951,7 +44951,7 @@
         <v>1.13</v>
       </c>
       <c r="AS219" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AT219" t="n">
         <v>1.36</v>
@@ -45157,7 +45157,7 @@
         <v>1.31</v>
       </c>
       <c r="AT220" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU220" t="n">
         <v>1.47</v>
@@ -45357,10 +45357,10 @@
         <v>0.89</v>
       </c>
       <c r="AS221" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT221" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AU221" t="n">
         <v>1.43</v>
@@ -45563,7 +45563,7 @@
         <v>1.14</v>
       </c>
       <c r="AT222" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AU222" t="n">
         <v>1.62</v>
@@ -45763,10 +45763,10 @@
         <v>1</v>
       </c>
       <c r="AS223" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT223" t="n">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AU223" t="n">
         <v>1.59</v>
@@ -45969,7 +45969,7 @@
         <v>1.92</v>
       </c>
       <c r="AT224" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU224" t="n">
         <v>1.6</v>
@@ -46169,7 +46169,7 @@
         <v>0.89</v>
       </c>
       <c r="AS225" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT225" t="n">
         <v>0.85</v>
@@ -46375,7 +46375,7 @@
         <v>1.53</v>
       </c>
       <c r="AT226" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AU226" t="n">
         <v>1.5</v>
@@ -46578,7 +46578,7 @@
         <v>2.15</v>
       </c>
       <c r="AT227" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AU227" t="n">
         <v>1.99</v>
@@ -47184,7 +47184,7 @@
         <v>1.22</v>
       </c>
       <c r="AS230" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT230" t="n">
         <v>1.2</v>
@@ -47593,7 +47593,7 @@
         <v>1.53</v>
       </c>
       <c r="AT232" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU232" t="n">
         <v>1.29</v>
@@ -47796,7 +47796,7 @@
         <v>0.6</v>
       </c>
       <c r="AT233" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AU233" t="n">
         <v>1.18</v>
@@ -47996,7 +47996,7 @@
         <v>2.11</v>
       </c>
       <c r="AS234" t="n">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AT234" t="n">
         <v>2.08</v>
@@ -48199,7 +48199,7 @@
         <v>0.78</v>
       </c>
       <c r="AS235" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AT235" t="n">
         <v>0.57</v>
@@ -48402,7 +48402,7 @@
         <v>1.33</v>
       </c>
       <c r="AS236" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT236" t="n">
         <v>1.13</v>
@@ -49014,7 +49014,7 @@
         <v>2.07</v>
       </c>
       <c r="AT239" t="n">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AU239" t="n">
         <v>2.21</v>
@@ -49214,10 +49214,10 @@
         <v>1</v>
       </c>
       <c r="AS240" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AT240" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AU240" t="n">
         <v>1.3</v>
@@ -49826,7 +49826,7 @@
         <v>1.31</v>
       </c>
       <c r="AT243" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU243" t="n">
         <v>1.25</v>
@@ -50026,7 +50026,7 @@
         <v>2</v>
       </c>
       <c r="AS244" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT244" t="n">
         <v>2.08</v>
@@ -50229,7 +50229,7 @@
         <v>1.4</v>
       </c>
       <c r="AS245" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT245" t="n">
         <v>1.29</v>
@@ -50432,10 +50432,10 @@
         <v>1.6</v>
       </c>
       <c r="AS246" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT246" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AU246" t="n">
         <v>1.32</v>
@@ -50635,7 +50635,7 @@
         <v>1</v>
       </c>
       <c r="AS247" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT247" t="n">
         <v>1.27</v>
@@ -50841,7 +50841,7 @@
         <v>1.71</v>
       </c>
       <c r="AT248" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AU248" t="n">
         <v>2.01</v>
@@ -51044,7 +51044,7 @@
         <v>2.79</v>
       </c>
       <c r="AT249" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AU249" t="n">
         <v>1.72</v>
@@ -51244,7 +51244,7 @@
         <v>0.8</v>
       </c>
       <c r="AS250" t="n">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AT250" t="n">
         <v>0.6</v>
@@ -51450,7 +51450,7 @@
         <v>1.92</v>
       </c>
       <c r="AT251" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AU251" t="n">
         <v>1.67</v>
@@ -51853,7 +51853,7 @@
         <v>1.3</v>
       </c>
       <c r="AS253" t="n">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AT253" t="n">
         <v>1.13</v>
@@ -52056,10 +52056,10 @@
         <v>1.11</v>
       </c>
       <c r="AS254" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT254" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU254" t="n">
         <v>1.44</v>
@@ -52262,7 +52262,7 @@
         <v>1.31</v>
       </c>
       <c r="AT255" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AU255" t="n">
         <v>1.46</v>
@@ -52462,7 +52462,7 @@
         <v>1.56</v>
       </c>
       <c r="AS256" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT256" t="n">
         <v>1.38</v>
@@ -52665,10 +52665,10 @@
         <v>1.2</v>
       </c>
       <c r="AS257" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT257" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU257" t="n">
         <v>1.33</v>
@@ -53074,7 +53074,7 @@
         <v>1.14</v>
       </c>
       <c r="AT259" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU259" t="n">
         <v>1.63</v>
@@ -53274,10 +53274,10 @@
         <v>1.7</v>
       </c>
       <c r="AS260" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT260" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AU260" t="n">
         <v>1.58</v>
@@ -53680,7 +53680,7 @@
         <v>1.91</v>
       </c>
       <c r="AS262" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AT262" t="n">
         <v>2.08</v>
@@ -53886,7 +53886,7 @@
         <v>1.53</v>
       </c>
       <c r="AT263" t="n">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AU263" t="n">
         <v>1.56</v>
@@ -54086,10 +54086,10 @@
         <v>0.64</v>
       </c>
       <c r="AS264" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT264" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AU264" t="n">
         <v>1.43</v>
@@ -54492,7 +54492,7 @@
         <v>1.27</v>
       </c>
       <c r="AS266" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT266" t="n">
         <v>1.5</v>
@@ -54698,7 +54698,7 @@
         <v>2.79</v>
       </c>
       <c r="AT267" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU267" t="n">
         <v>1.86</v>
@@ -55101,10 +55101,10 @@
         <v>0.55</v>
       </c>
       <c r="AS269" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AT269" t="n">
         <v>0.86</v>
-      </c>
-      <c r="AT269" t="n">
-        <v>0.6899999999999999</v>
       </c>
       <c r="AU269" t="n">
         <v>1.35</v>
@@ -55304,7 +55304,7 @@
         <v>0.91</v>
       </c>
       <c r="AS270" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT270" t="n">
         <v>1.27</v>
@@ -55710,10 +55710,10 @@
         <v>2.09</v>
       </c>
       <c r="AS272" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT272" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AU272" t="n">
         <v>1.49</v>
@@ -55913,7 +55913,7 @@
         <v>1.27</v>
       </c>
       <c r="AS273" t="n">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AT273" t="n">
         <v>1.29</v>
@@ -56116,10 +56116,10 @@
         <v>0.8</v>
       </c>
       <c r="AS274" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AT274" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AU274" t="n">
         <v>1.89</v>
@@ -56322,7 +56322,7 @@
         <v>1.53</v>
       </c>
       <c r="AT275" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AU275" t="n">
         <v>1.31</v>
@@ -56525,7 +56525,7 @@
         <v>2.15</v>
       </c>
       <c r="AT276" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU276" t="n">
         <v>1.87</v>
@@ -56725,7 +56725,7 @@
         <v>0.7</v>
       </c>
       <c r="AS277" t="n">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AT277" t="n">
         <v>0.57</v>
@@ -57131,7 +57131,7 @@
         <v>1.17</v>
       </c>
       <c r="AS279" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AT279" t="n">
         <v>1.29</v>
@@ -57337,7 +57337,7 @@
         <v>1.43</v>
       </c>
       <c r="AT280" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AU280" t="n">
         <v>1.26</v>
@@ -57540,7 +57540,7 @@
         <v>2.15</v>
       </c>
       <c r="AT281" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU281" t="n">
         <v>1.88</v>
@@ -57743,7 +57743,7 @@
         <v>2.79</v>
       </c>
       <c r="AT282" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU282" t="n">
         <v>1.83</v>
@@ -57943,10 +57943,10 @@
         <v>0.73</v>
       </c>
       <c r="AS283" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT283" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AU283" t="n">
         <v>1.44</v>
@@ -58349,10 +58349,10 @@
         <v>1.09</v>
       </c>
       <c r="AS285" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT285" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AU285" t="n">
         <v>1.63</v>
@@ -58552,7 +58552,7 @@
         <v>1.08</v>
       </c>
       <c r="AS286" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AT286" t="n">
         <v>1.27</v>
@@ -58958,7 +58958,7 @@
         <v>1</v>
       </c>
       <c r="AS288" t="n">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AT288" t="n">
         <v>0.85</v>
@@ -59164,7 +59164,7 @@
         <v>1.31</v>
       </c>
       <c r="AT289" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AU289" t="n">
         <v>1.17</v>
@@ -59364,7 +59364,7 @@
         <v>0.64</v>
       </c>
       <c r="AS290" t="n">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AT290" t="n">
         <v>0.57</v>
@@ -59570,7 +59570,7 @@
         <v>1.53</v>
       </c>
       <c r="AT291" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU291" t="n">
         <v>1.52</v>
@@ -59770,7 +59770,7 @@
         <v>1.25</v>
       </c>
       <c r="AS292" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT292" t="n">
         <v>1.2</v>
@@ -59973,10 +59973,10 @@
         <v>1.67</v>
       </c>
       <c r="AS293" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT293" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AU293" t="n">
         <v>1.54</v>
@@ -60179,7 +60179,7 @@
         <v>1.43</v>
       </c>
       <c r="AT294" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AU294" t="n">
         <v>1.33</v>
@@ -60379,7 +60379,7 @@
         <v>1.38</v>
       </c>
       <c r="AS295" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT295" t="n">
         <v>1.2</v>
@@ -60582,7 +60582,7 @@
         <v>1.5</v>
       </c>
       <c r="AS296" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT296" t="n">
         <v>1.38</v>
@@ -60788,7 +60788,7 @@
         <v>1.14</v>
       </c>
       <c r="AT297" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU297" t="n">
         <v>1.63</v>
@@ -61194,7 +61194,7 @@
         <v>1.53</v>
       </c>
       <c r="AT299" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AU299" t="n">
         <v>1.55</v>
@@ -61397,7 +61397,7 @@
         <v>0.6</v>
       </c>
       <c r="AT300" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU300" t="n">
         <v>1.33</v>
@@ -61600,7 +61600,7 @@
         <v>2.07</v>
       </c>
       <c r="AT301" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AU301" t="n">
         <v>2.17</v>
@@ -61800,7 +61800,7 @@
         <v>1.17</v>
       </c>
       <c r="AS302" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AT302" t="n">
         <v>1.13</v>
@@ -62003,7 +62003,7 @@
         <v>0.67</v>
       </c>
       <c r="AS303" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT303" t="n">
         <v>0.6</v>
@@ -62409,10 +62409,10 @@
         <v>0.83</v>
       </c>
       <c r="AS305" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT305" t="n">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AU305" t="n">
         <v>1.42</v>
@@ -62612,10 +62612,10 @@
         <v>1.08</v>
       </c>
       <c r="AS306" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AT306" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU306" t="n">
         <v>1.32</v>
@@ -63221,7 +63221,7 @@
         <v>1.38</v>
       </c>
       <c r="AS309" t="n">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AT309" t="n">
         <v>1.29</v>
@@ -63424,7 +63424,7 @@
         <v>1.23</v>
       </c>
       <c r="AS310" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT310" t="n">
         <v>1.27</v>
@@ -63630,7 +63630,7 @@
         <v>2.79</v>
       </c>
       <c r="AT311" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AU311" t="n">
         <v>1.83</v>
@@ -63830,10 +63830,10 @@
         <v>1.92</v>
       </c>
       <c r="AS312" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AT312" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AU312" t="n">
         <v>1.91</v>
@@ -64033,7 +64033,7 @@
         <v>1.33</v>
       </c>
       <c r="AS313" t="n">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AT313" t="n">
         <v>1.36</v>
@@ -64236,7 +64236,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AS314" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT314" t="n">
         <v>0.6</v>
@@ -64642,7 +64642,7 @@
         <v>1.38</v>
       </c>
       <c r="AS316" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT316" t="n">
         <v>1.5</v>
@@ -64848,7 +64848,7 @@
         <v>0.6</v>
       </c>
       <c r="AT317" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU317" t="n">
         <v>1.3</v>
@@ -65051,7 +65051,7 @@
         <v>2.07</v>
       </c>
       <c r="AT318" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AU318" t="n">
         <v>2.13</v>
@@ -65251,7 +65251,7 @@
         <v>1.36</v>
       </c>
       <c r="AS319" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AT319" t="n">
         <v>1.38</v>
@@ -67078,10 +67078,10 @@
         <v>1.5</v>
       </c>
       <c r="AS328" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AT328" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AU328" t="n">
         <v>1.87</v>
@@ -67133,6 +67133,2442 @@
       </c>
       <c r="BK328" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="1" t="n">
+        <v>328</v>
+      </c>
+      <c r="B329" t="n">
+        <v>2569879</v>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E329" s="2" t="n">
+        <v>44961.5</v>
+      </c>
+      <c r="F329" t="n">
+        <v>30</v>
+      </c>
+      <c r="G329" t="inlineStr">
+        <is>
+          <t>Bolton Wanderers</t>
+        </is>
+      </c>
+      <c r="H329" t="inlineStr">
+        <is>
+          <t>Cheltenham Town</t>
+        </is>
+      </c>
+      <c r="I329" t="n">
+        <v>0</v>
+      </c>
+      <c r="J329" t="n">
+        <v>0</v>
+      </c>
+      <c r="K329" t="n">
+        <v>0</v>
+      </c>
+      <c r="L329" t="n">
+        <v>1</v>
+      </c>
+      <c r="M329" t="n">
+        <v>0</v>
+      </c>
+      <c r="N329" t="n">
+        <v>1</v>
+      </c>
+      <c r="O329" t="inlineStr">
+        <is>
+          <t>['80']</t>
+        </is>
+      </c>
+      <c r="P329" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q329" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R329" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S329" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T329" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="U329" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="V329" t="n">
+        <v>6</v>
+      </c>
+      <c r="W329" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="X329" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y329" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Z329" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AA329" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AB329" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC329" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AD329" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AE329" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF329" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG329" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH329" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI329" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AJ329" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AK329" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AL329" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM329" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN329" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AO329" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AP329" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AQ329" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AR329" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AS329" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AT329" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AU329" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AV329" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AW329" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AX329" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AY329" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ329" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="BA329" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB329" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC329" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BD329" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BE329" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF329" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG329" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH329" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI329" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ329" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK329" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="1" t="n">
+        <v>329</v>
+      </c>
+      <c r="B330" t="n">
+        <v>2569880</v>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E330" s="2" t="n">
+        <v>44961.5</v>
+      </c>
+      <c r="F330" t="n">
+        <v>30</v>
+      </c>
+      <c r="G330" t="inlineStr">
+        <is>
+          <t>Bristol Rovers</t>
+        </is>
+      </c>
+      <c r="H330" t="inlineStr">
+        <is>
+          <t>Milton Keynes Dons</t>
+        </is>
+      </c>
+      <c r="I330" t="n">
+        <v>0</v>
+      </c>
+      <c r="J330" t="n">
+        <v>1</v>
+      </c>
+      <c r="K330" t="n">
+        <v>1</v>
+      </c>
+      <c r="L330" t="n">
+        <v>0</v>
+      </c>
+      <c r="M330" t="n">
+        <v>2</v>
+      </c>
+      <c r="N330" t="n">
+        <v>2</v>
+      </c>
+      <c r="O330" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P330" t="inlineStr">
+        <is>
+          <t>['3', '90+1']</t>
+        </is>
+      </c>
+      <c r="Q330" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R330" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S330" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T330" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="U330" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V330" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W330" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X330" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Y330" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z330" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA330" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="AB330" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC330" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AD330" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE330" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AF330" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG330" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH330" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI330" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ330" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK330" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AL330" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM330" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN330" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO330" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP330" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AQ330" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AR330" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AS330" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AT330" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AU330" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AV330" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AW330" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="AX330" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AY330" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AZ330" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="BA330" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB330" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BC330" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BD330" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BE330" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BF330" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG330" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH330" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI330" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ330" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK330" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="1" t="n">
+        <v>330</v>
+      </c>
+      <c r="B331" t="n">
+        <v>2569882</v>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E331" s="2" t="n">
+        <v>44961.5</v>
+      </c>
+      <c r="F331" t="n">
+        <v>30</v>
+      </c>
+      <c r="G331" t="inlineStr">
+        <is>
+          <t>Derby County</t>
+        </is>
+      </c>
+      <c r="H331" t="inlineStr">
+        <is>
+          <t>Morecambe</t>
+        </is>
+      </c>
+      <c r="I331" t="n">
+        <v>1</v>
+      </c>
+      <c r="J331" t="n">
+        <v>0</v>
+      </c>
+      <c r="K331" t="n">
+        <v>1</v>
+      </c>
+      <c r="L331" t="n">
+        <v>5</v>
+      </c>
+      <c r="M331" t="n">
+        <v>0</v>
+      </c>
+      <c r="N331" t="n">
+        <v>5</v>
+      </c>
+      <c r="O331" t="inlineStr">
+        <is>
+          <t>['45', '47', '50', '66', '69']</t>
+        </is>
+      </c>
+      <c r="P331" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q331" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R331" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S331" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T331" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="U331" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="V331" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="W331" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X331" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="Y331" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Z331" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AA331" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="AB331" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC331" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AD331" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE331" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AF331" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG331" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH331" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AI331" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AJ331" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK331" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL331" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM331" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AN331" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AO331" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AP331" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AQ331" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AR331" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="AS331" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AT331" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU331" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AV331" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AW331" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AX331" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AY331" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ331" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="BA331" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB331" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BC331" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BD331" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BE331" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="BF331" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG331" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH331" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI331" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ331" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK331" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="1" t="n">
+        <v>331</v>
+      </c>
+      <c r="B332" t="n">
+        <v>2569883</v>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E332" s="2" t="n">
+        <v>44961.5</v>
+      </c>
+      <c r="F332" t="n">
+        <v>30</v>
+      </c>
+      <c r="G332" t="inlineStr">
+        <is>
+          <t>Exeter City</t>
+        </is>
+      </c>
+      <c r="H332" t="inlineStr">
+        <is>
+          <t>Charlton Athletic</t>
+        </is>
+      </c>
+      <c r="I332" t="n">
+        <v>1</v>
+      </c>
+      <c r="J332" t="n">
+        <v>2</v>
+      </c>
+      <c r="K332" t="n">
+        <v>3</v>
+      </c>
+      <c r="L332" t="n">
+        <v>1</v>
+      </c>
+      <c r="M332" t="n">
+        <v>2</v>
+      </c>
+      <c r="N332" t="n">
+        <v>3</v>
+      </c>
+      <c r="O332" t="inlineStr">
+        <is>
+          <t>['31']</t>
+        </is>
+      </c>
+      <c r="P332" t="inlineStr">
+        <is>
+          <t>['8', '18']</t>
+        </is>
+      </c>
+      <c r="Q332" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R332" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S332" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T332" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U332" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V332" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W332" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="X332" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y332" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Z332" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA332" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AB332" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC332" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AD332" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE332" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AF332" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG332" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH332" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI332" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AJ332" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AK332" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AL332" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM332" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN332" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO332" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP332" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ332" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AR332" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AS332" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AT332" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AU332" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AV332" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AW332" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="AX332" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AY332" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AZ332" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BA332" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB332" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BC332" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BD332" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="BE332" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BF332" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG332" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH332" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI332" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ332" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK332" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="1" t="n">
+        <v>332</v>
+      </c>
+      <c r="B333" t="n">
+        <v>2569884</v>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E333" s="2" t="n">
+        <v>44961.5</v>
+      </c>
+      <c r="F333" t="n">
+        <v>30</v>
+      </c>
+      <c r="G333" t="inlineStr">
+        <is>
+          <t>Fleetwood Town</t>
+        </is>
+      </c>
+      <c r="H333" t="inlineStr">
+        <is>
+          <t>Burton Albion</t>
+        </is>
+      </c>
+      <c r="I333" t="n">
+        <v>0</v>
+      </c>
+      <c r="J333" t="n">
+        <v>0</v>
+      </c>
+      <c r="K333" t="n">
+        <v>0</v>
+      </c>
+      <c r="L333" t="n">
+        <v>2</v>
+      </c>
+      <c r="M333" t="n">
+        <v>3</v>
+      </c>
+      <c r="N333" t="n">
+        <v>5</v>
+      </c>
+      <c r="O333" t="inlineStr">
+        <is>
+          <t>['58', '90+4']</t>
+        </is>
+      </c>
+      <c r="P333" t="inlineStr">
+        <is>
+          <t>['60', '80', '90+6']</t>
+        </is>
+      </c>
+      <c r="Q333" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R333" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S333" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T333" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="U333" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V333" t="n">
+        <v>4</v>
+      </c>
+      <c r="W333" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X333" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Y333" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Z333" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA333" t="n">
+        <v>7.85</v>
+      </c>
+      <c r="AB333" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC333" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AD333" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AE333" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AF333" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG333" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH333" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI333" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ333" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AK333" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AL333" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AM333" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN333" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO333" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP333" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AQ333" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="AR333" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AS333" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="AT333" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AU333" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AV333" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AW333" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AX333" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AY333" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ333" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BA333" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BB333" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BC333" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BD333" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE333" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BF333" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG333" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH333" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI333" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ333" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK333" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="1" t="n">
+        <v>333</v>
+      </c>
+      <c r="B334" t="n">
+        <v>2569885</v>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E334" s="2" t="n">
+        <v>44961.5</v>
+      </c>
+      <c r="F334" t="n">
+        <v>30</v>
+      </c>
+      <c r="G334" t="inlineStr">
+        <is>
+          <t>Forest Green Rovers</t>
+        </is>
+      </c>
+      <c r="H334" t="inlineStr">
+        <is>
+          <t>Peterborough United</t>
+        </is>
+      </c>
+      <c r="I334" t="n">
+        <v>0</v>
+      </c>
+      <c r="J334" t="n">
+        <v>0</v>
+      </c>
+      <c r="K334" t="n">
+        <v>0</v>
+      </c>
+      <c r="L334" t="n">
+        <v>0</v>
+      </c>
+      <c r="M334" t="n">
+        <v>2</v>
+      </c>
+      <c r="N334" t="n">
+        <v>2</v>
+      </c>
+      <c r="O334" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P334" t="inlineStr">
+        <is>
+          <t>['72', '90+5']</t>
+        </is>
+      </c>
+      <c r="Q334" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R334" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S334" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T334" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="U334" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V334" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W334" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X334" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Y334" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Z334" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA334" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AB334" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC334" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AD334" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE334" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AF334" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG334" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH334" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI334" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ334" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK334" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL334" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM334" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN334" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AO334" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP334" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AQ334" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AR334" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS334" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AT334" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AU334" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AV334" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AW334" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AX334" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AY334" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ334" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BA334" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB334" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BC334" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BD334" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BE334" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF334" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG334" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH334" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI334" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ334" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK334" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="1" t="n">
+        <v>334</v>
+      </c>
+      <c r="B335" t="n">
+        <v>2569886</v>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E335" s="2" t="n">
+        <v>44961.5</v>
+      </c>
+      <c r="F335" t="n">
+        <v>30</v>
+      </c>
+      <c r="G335" t="inlineStr">
+        <is>
+          <t>Oxford United</t>
+        </is>
+      </c>
+      <c r="H335" t="inlineStr">
+        <is>
+          <t>Shrewsbury Town</t>
+        </is>
+      </c>
+      <c r="I335" t="n">
+        <v>0</v>
+      </c>
+      <c r="J335" t="n">
+        <v>0</v>
+      </c>
+      <c r="K335" t="n">
+        <v>0</v>
+      </c>
+      <c r="L335" t="n">
+        <v>0</v>
+      </c>
+      <c r="M335" t="n">
+        <v>1</v>
+      </c>
+      <c r="N335" t="n">
+        <v>1</v>
+      </c>
+      <c r="O335" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P335" t="inlineStr">
+        <is>
+          <t>['74']</t>
+        </is>
+      </c>
+      <c r="Q335" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R335" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S335" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T335" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U335" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V335" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W335" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X335" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y335" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z335" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA335" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB335" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC335" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AD335" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE335" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF335" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG335" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH335" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI335" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AJ335" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK335" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AL335" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM335" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN335" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AO335" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP335" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AQ335" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AR335" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AS335" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AT335" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU335" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AV335" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AW335" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="AX335" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AY335" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ335" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="BA335" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB335" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BC335" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BD335" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BE335" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF335" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG335" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH335" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI335" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ335" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK335" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="1" t="n">
+        <v>335</v>
+      </c>
+      <c r="B336" t="n">
+        <v>2569887</v>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E336" s="2" t="n">
+        <v>44961.5</v>
+      </c>
+      <c r="F336" t="n">
+        <v>30</v>
+      </c>
+      <c r="G336" t="inlineStr">
+        <is>
+          <t>Port Vale</t>
+        </is>
+      </c>
+      <c r="H336" t="inlineStr">
+        <is>
+          <t>Wycombe Wanderers</t>
+        </is>
+      </c>
+      <c r="I336" t="n">
+        <v>0</v>
+      </c>
+      <c r="J336" t="n">
+        <v>1</v>
+      </c>
+      <c r="K336" t="n">
+        <v>1</v>
+      </c>
+      <c r="L336" t="n">
+        <v>0</v>
+      </c>
+      <c r="M336" t="n">
+        <v>3</v>
+      </c>
+      <c r="N336" t="n">
+        <v>3</v>
+      </c>
+      <c r="O336" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P336" t="inlineStr">
+        <is>
+          <t>['13', '79', '82']</t>
+        </is>
+      </c>
+      <c r="Q336" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R336" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S336" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T336" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U336" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V336" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W336" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X336" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Y336" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Z336" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA336" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AB336" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC336" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AD336" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE336" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AF336" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG336" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH336" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI336" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ336" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK336" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL336" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM336" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN336" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AO336" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP336" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AQ336" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AR336" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AS336" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AT336" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AU336" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AV336" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AW336" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AX336" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AY336" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ336" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="BA336" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB336" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BC336" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BD336" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BE336" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BF336" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG336" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH336" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI336" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ336" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK336" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="1" t="n">
+        <v>336</v>
+      </c>
+      <c r="B337" t="n">
+        <v>2569888</v>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E337" s="2" t="n">
+        <v>44961.5</v>
+      </c>
+      <c r="F337" t="n">
+        <v>30</v>
+      </c>
+      <c r="G337" t="inlineStr">
+        <is>
+          <t>Portsmouth</t>
+        </is>
+      </c>
+      <c r="H337" t="inlineStr">
+        <is>
+          <t>Barnsley</t>
+        </is>
+      </c>
+      <c r="I337" t="n">
+        <v>0</v>
+      </c>
+      <c r="J337" t="n">
+        <v>0</v>
+      </c>
+      <c r="K337" t="n">
+        <v>0</v>
+      </c>
+      <c r="L337" t="n">
+        <v>1</v>
+      </c>
+      <c r="M337" t="n">
+        <v>1</v>
+      </c>
+      <c r="N337" t="n">
+        <v>2</v>
+      </c>
+      <c r="O337" t="inlineStr">
+        <is>
+          <t>['49']</t>
+        </is>
+      </c>
+      <c r="P337" t="inlineStr">
+        <is>
+          <t>['89']</t>
+        </is>
+      </c>
+      <c r="Q337" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R337" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S337" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T337" t="n">
+        <v>3</v>
+      </c>
+      <c r="U337" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V337" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W337" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X337" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y337" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z337" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA337" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB337" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC337" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AD337" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE337" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AF337" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG337" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH337" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI337" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ337" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AK337" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AL337" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM337" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN337" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AO337" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP337" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ337" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AR337" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AS337" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AT337" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AU337" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AV337" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AW337" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AX337" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AY337" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ337" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BA337" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB337" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BC337" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BD337" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE337" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF337" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG337" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH337" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI337" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ337" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK337" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="1" t="n">
+        <v>337</v>
+      </c>
+      <c r="B338" t="n">
+        <v>2569889</v>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E338" s="2" t="n">
+        <v>44961.5</v>
+      </c>
+      <c r="F338" t="n">
+        <v>30</v>
+      </c>
+      <c r="G338" t="inlineStr">
+        <is>
+          <t>Sheffield Wednesday</t>
+        </is>
+      </c>
+      <c r="H338" t="inlineStr">
+        <is>
+          <t>Plymouth Argyle</t>
+        </is>
+      </c>
+      <c r="I338" t="n">
+        <v>1</v>
+      </c>
+      <c r="J338" t="n">
+        <v>0</v>
+      </c>
+      <c r="K338" t="n">
+        <v>1</v>
+      </c>
+      <c r="L338" t="n">
+        <v>1</v>
+      </c>
+      <c r="M338" t="n">
+        <v>0</v>
+      </c>
+      <c r="N338" t="n">
+        <v>1</v>
+      </c>
+      <c r="O338" t="inlineStr">
+        <is>
+          <t>['7']</t>
+        </is>
+      </c>
+      <c r="P338" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q338" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R338" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S338" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T338" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U338" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V338" t="n">
+        <v>5</v>
+      </c>
+      <c r="W338" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="X338" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y338" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Z338" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA338" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AB338" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC338" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AD338" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AE338" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AF338" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG338" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH338" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI338" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ338" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AK338" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AL338" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM338" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN338" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO338" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP338" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AQ338" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AR338" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AS338" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AT338" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AU338" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AV338" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AW338" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AX338" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AY338" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ338" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="BA338" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BB338" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BC338" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BD338" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE338" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF338" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG338" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH338" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI338" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ338" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK338" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="1" t="n">
+        <v>338</v>
+      </c>
+      <c r="B339" t="n">
+        <v>2569878</v>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E339" s="2" t="n">
+        <v>44961.5</v>
+      </c>
+      <c r="F339" t="n">
+        <v>30</v>
+      </c>
+      <c r="G339" t="inlineStr">
+        <is>
+          <t>Accrington Stanley</t>
+        </is>
+      </c>
+      <c r="H339" t="inlineStr">
+        <is>
+          <t>Lincoln City</t>
+        </is>
+      </c>
+      <c r="I339" t="n">
+        <v>0</v>
+      </c>
+      <c r="J339" t="n">
+        <v>1</v>
+      </c>
+      <c r="K339" t="n">
+        <v>1</v>
+      </c>
+      <c r="L339" t="n">
+        <v>0</v>
+      </c>
+      <c r="M339" t="n">
+        <v>3</v>
+      </c>
+      <c r="N339" t="n">
+        <v>3</v>
+      </c>
+      <c r="O339" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P339" t="inlineStr">
+        <is>
+          <t>['24', '55', '58']</t>
+        </is>
+      </c>
+      <c r="Q339" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R339" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S339" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T339" t="n">
+        <v>3</v>
+      </c>
+      <c r="U339" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V339" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W339" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="X339" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y339" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Z339" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA339" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AB339" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC339" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AD339" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE339" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AF339" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG339" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH339" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI339" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AJ339" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AK339" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AL339" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM339" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN339" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AO339" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP339" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AQ339" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AR339" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AS339" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AT339" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AU339" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AV339" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AW339" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AX339" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AY339" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AZ339" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BA339" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB339" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BC339" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BD339" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="BE339" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="BF339" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG339" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH339" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI339" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ339" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK339" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="1" t="n">
+        <v>339</v>
+      </c>
+      <c r="B340" t="n">
+        <v>2569881</v>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E340" s="2" t="n">
+        <v>44961.5</v>
+      </c>
+      <c r="F340" t="n">
+        <v>30</v>
+      </c>
+      <c r="G340" t="inlineStr">
+        <is>
+          <t>Cambridge United</t>
+        </is>
+      </c>
+      <c r="H340" t="inlineStr">
+        <is>
+          <t>Ipswich Town</t>
+        </is>
+      </c>
+      <c r="I340" t="n">
+        <v>1</v>
+      </c>
+      <c r="J340" t="n">
+        <v>0</v>
+      </c>
+      <c r="K340" t="n">
+        <v>1</v>
+      </c>
+      <c r="L340" t="n">
+        <v>1</v>
+      </c>
+      <c r="M340" t="n">
+        <v>1</v>
+      </c>
+      <c r="N340" t="n">
+        <v>2</v>
+      </c>
+      <c r="O340" t="inlineStr">
+        <is>
+          <t>['24']</t>
+        </is>
+      </c>
+      <c r="P340" t="inlineStr">
+        <is>
+          <t>['54']</t>
+        </is>
+      </c>
+      <c r="Q340" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R340" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S340" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T340" t="n">
+        <v>6</v>
+      </c>
+      <c r="U340" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="V340" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="W340" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="X340" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y340" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Z340" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AA340" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="AB340" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC340" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD340" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AE340" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AF340" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG340" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH340" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI340" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ340" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK340" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AL340" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM340" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN340" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AO340" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AP340" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AQ340" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AR340" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AS340" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AT340" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AU340" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AV340" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AW340" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="AX340" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="AY340" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AZ340" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BA340" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB340" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BC340" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BD340" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE340" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="BF340" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG340" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH340" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI340" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ340" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK340" t="n">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/England EFL League One_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/England EFL League One_20222023.xlsx
@@ -67197,13 +67197,13 @@
         </is>
       </c>
       <c r="Q329" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="R329" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="S329" t="n">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="T329" t="n">
         <v>2.05</v>
@@ -67320,22 +67320,22 @@
         <v>3.2</v>
       </c>
       <c r="BF329" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BG329" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BH329" t="n">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="BI329" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BJ329" t="n">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="BK329" t="n">
-        <v>-1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="330">
@@ -67400,13 +67400,13 @@
         </is>
       </c>
       <c r="Q330" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="R330" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="S330" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="T330" t="n">
         <v>2.8</v>
@@ -67523,22 +67523,22 @@
         <v>2.93</v>
       </c>
       <c r="BF330" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BG330" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BH330" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BI330" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BJ330" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BK330" t="n">
-        <v>-1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="331">
@@ -67603,13 +67603,13 @@
         </is>
       </c>
       <c r="Q331" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="R331" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="S331" t="n">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="T331" t="n">
         <v>1.8</v>
@@ -67726,22 +67726,22 @@
         <v>2.69</v>
       </c>
       <c r="BF331" t="n">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BG331" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="BH331" t="n">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="BI331" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BJ331" t="n">
-        <v>-1</v>
+        <v>26</v>
       </c>
       <c r="BK331" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="332">
@@ -67806,13 +67806,13 @@
         </is>
       </c>
       <c r="Q332" t="n">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="R332" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="S332" t="n">
-        <v>-1</v>
+        <v>17</v>
       </c>
       <c r="T332" t="n">
         <v>3.1</v>
@@ -67929,22 +67929,22 @@
         <v>2.62</v>
       </c>
       <c r="BF332" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BG332" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BH332" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BI332" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BJ332" t="n">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="BK332" t="n">
-        <v>-1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="333">
@@ -68009,13 +68009,13 @@
         </is>
       </c>
       <c r="Q333" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="R333" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="S333" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="T333" t="n">
         <v>2.85</v>
@@ -68132,22 +68132,22 @@
         <v>2.45</v>
       </c>
       <c r="BF333" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BG333" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BH333" t="n">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="BI333" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BJ333" t="n">
-        <v>-1</v>
+        <v>20</v>
       </c>
       <c r="BK333" t="n">
-        <v>-1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="334">
@@ -68212,13 +68212,13 @@
         </is>
       </c>
       <c r="Q334" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="R334" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="S334" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="T334" t="n">
         <v>4.33</v>
@@ -68335,22 +68335,22 @@
         <v>2.7</v>
       </c>
       <c r="BF334" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BG334" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BH334" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BI334" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BJ334" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BK334" t="n">
-        <v>-1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="335">
@@ -68415,13 +68415,13 @@
         </is>
       </c>
       <c r="Q335" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="R335" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="S335" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="T335" t="n">
         <v>2.4</v>
@@ -68538,22 +68538,22 @@
         <v>2.7</v>
       </c>
       <c r="BF335" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BG335" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BH335" t="n">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BI335" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BJ335" t="n">
-        <v>-1</v>
+        <v>17</v>
       </c>
       <c r="BK335" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="336">
@@ -68618,13 +68618,13 @@
         </is>
       </c>
       <c r="Q336" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="R336" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="S336" t="n">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="T336" t="n">
         <v>3.25</v>
@@ -68741,22 +68741,22 @@
         <v>2.6</v>
       </c>
       <c r="BF336" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="BG336" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BH336" t="n">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="BI336" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BJ336" t="n">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="BK336" t="n">
-        <v>-1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="337">
@@ -68821,13 +68821,13 @@
         </is>
       </c>
       <c r="Q337" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="R337" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="S337" t="n">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="T337" t="n">
         <v>3</v>
@@ -68944,22 +68944,22 @@
         <v>2.7</v>
       </c>
       <c r="BF337" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BG337" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BH337" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BI337" t="n">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BJ337" t="n">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="BK337" t="n">
-        <v>-1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="338">
@@ -69024,13 +69024,13 @@
         </is>
       </c>
       <c r="Q338" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="R338" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="S338" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="T338" t="n">
         <v>2.4</v>
@@ -69147,22 +69147,22 @@
         <v>3.2</v>
       </c>
       <c r="BF338" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BG338" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BH338" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BI338" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BJ338" t="n">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="BK338" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="339">
@@ -69227,13 +69227,13 @@
         </is>
       </c>
       <c r="Q339" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R339" t="n">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="S339" t="n">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="T339" t="n">
         <v>3</v>
@@ -69350,22 +69350,22 @@
         <v>2.76</v>
       </c>
       <c r="BF339" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BG339" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BH339" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BI339" t="n">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="BJ339" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BK339" t="n">
-        <v>-1</v>
+        <v>23</v>
       </c>
     </row>
     <row r="340">
@@ -69430,13 +69430,13 @@
         </is>
       </c>
       <c r="Q340" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="R340" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="S340" t="n">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="T340" t="n">
         <v>6</v>
@@ -69553,22 +69553,22 @@
         <v>2.57</v>
       </c>
       <c r="BF340" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BG340" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BH340" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BI340" t="n">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BJ340" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BK340" t="n">
-        <v>-1</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/England EFL League One_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/England EFL League One_20222023.xlsx
@@ -68821,13 +68821,13 @@
         </is>
       </c>
       <c r="Q337" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R337" t="n">
         <v>5</v>
       </c>
       <c r="S337" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="T337" t="n">
         <v>3</v>

--- a/Bases_de_Dados_(2022-2023)/England EFL League One_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/England EFL League One_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2247" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2319" uniqueCount="449">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -943,6 +943,18 @@
     <t>['61']</t>
   </si>
   <si>
+    <t>['9', '69']</t>
+  </si>
+  <si>
+    <t>['45+8']</t>
+  </si>
+  <si>
+    <t>['9', '54', '64', '74', '89']</t>
+  </si>
+  <si>
+    <t>['3', '41', '60', '79']</t>
+  </si>
+  <si>
     <t>['36', '90+4']</t>
   </si>
   <si>
@@ -1338,6 +1350,18 @@
   <si>
     <t>['57', '79']</t>
   </si>
+  <si>
+    <t>['8', '15', '36', '74']</t>
+  </si>
+  <si>
+    <t>['2', '24']</t>
+  </si>
+  <si>
+    <t>['44', '55']</t>
+  </si>
+  <si>
+    <t>['12', '22', '29']</t>
+  </si>
 </sst>
 </file>
 
@@ -1698,7 +1722,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK365"/>
+  <dimension ref="A1:BK377"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1942,7 +1966,7 @@
         <v>89</v>
       </c>
       <c r="P2" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="Q2">
         <v>6</v>
@@ -2029,10 +2053,10 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AT2">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -2220,10 +2244,10 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AT3">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -2324,7 +2348,7 @@
         <v>91</v>
       </c>
       <c r="P4" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="Q4">
         <v>7</v>
@@ -2411,10 +2435,10 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AT4">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -2602,10 +2626,10 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AT5">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2793,10 +2817,10 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AT6">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2984,10 +3008,10 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AT7">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -3175,10 +3199,10 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>2.8</v>
+        <v>2.69</v>
       </c>
       <c r="AT8">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -3366,10 +3390,10 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AT9">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -3470,7 +3494,7 @@
         <v>97</v>
       </c>
       <c r="P10" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="Q10">
         <v>2</v>
@@ -3557,10 +3581,10 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AT10">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3748,10 +3772,10 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AT11">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3852,7 +3876,7 @@
         <v>99</v>
       </c>
       <c r="P12" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="Q12">
         <v>4</v>
@@ -3939,10 +3963,10 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT12">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -4130,10 +4154,10 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT13">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -4234,7 +4258,7 @@
         <v>93</v>
       </c>
       <c r="P14" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="Q14">
         <v>5</v>
@@ -5189,7 +5213,7 @@
         <v>103</v>
       </c>
       <c r="P19" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -5380,7 +5404,7 @@
         <v>93</v>
       </c>
       <c r="P20" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -6335,7 +6359,7 @@
         <v>108</v>
       </c>
       <c r="P25" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="Q25">
         <v>2</v>
@@ -6613,10 +6637,10 @@
         <v>0</v>
       </c>
       <c r="AS26">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT26">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU26">
         <v>1.28</v>
@@ -6804,10 +6828,10 @@
         <v>3</v>
       </c>
       <c r="AS27">
-        <v>2.8</v>
+        <v>2.69</v>
       </c>
       <c r="AT27">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AU27">
         <v>1.94</v>
@@ -6908,7 +6932,7 @@
         <v>111</v>
       </c>
       <c r="P28" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="Q28">
         <v>12</v>
@@ -6995,10 +7019,10 @@
         <v>1</v>
       </c>
       <c r="AS28">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AT28">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AU28">
         <v>2.22</v>
@@ -7186,10 +7210,10 @@
         <v>1</v>
       </c>
       <c r="AS29">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AT29">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU29">
         <v>1.98</v>
@@ -7377,10 +7401,10 @@
         <v>1</v>
       </c>
       <c r="AS30">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AT30">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AU30">
         <v>1.29</v>
@@ -7481,7 +7505,7 @@
         <v>113</v>
       </c>
       <c r="P31" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="Q31">
         <v>5</v>
@@ -7568,10 +7592,10 @@
         <v>0</v>
       </c>
       <c r="AS31">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AT31">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AU31">
         <v>0.9</v>
@@ -7759,10 +7783,10 @@
         <v>1</v>
       </c>
       <c r="AS32">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AT32">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AU32">
         <v>1.6</v>
@@ -7950,10 +7974,10 @@
         <v>0</v>
       </c>
       <c r="AS33">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT33">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AU33">
         <v>2</v>
@@ -8141,10 +8165,10 @@
         <v>0</v>
       </c>
       <c r="AS34">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AT34">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AU34">
         <v>1.5</v>
@@ -8245,7 +8269,7 @@
         <v>93</v>
       </c>
       <c r="P35" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="Q35">
         <v>5</v>
@@ -8332,10 +8356,10 @@
         <v>1</v>
       </c>
       <c r="AS35">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AT35">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AU35">
         <v>1.65</v>
@@ -8436,7 +8460,7 @@
         <v>117</v>
       </c>
       <c r="P36" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -8523,10 +8547,10 @@
         <v>0</v>
       </c>
       <c r="AS36">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AT36">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU36">
         <v>2.1</v>
@@ -8714,10 +8738,10 @@
         <v>3</v>
       </c>
       <c r="AS37">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AT37">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AU37">
         <v>1.23</v>
@@ -9391,7 +9415,7 @@
         <v>121</v>
       </c>
       <c r="P41" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="Q41">
         <v>10</v>
@@ -10919,7 +10943,7 @@
         <v>93</v>
       </c>
       <c r="P49" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="Q49">
         <v>2</v>
@@ -11110,7 +11134,7 @@
         <v>93</v>
       </c>
       <c r="P50" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="Q50">
         <v>6</v>
@@ -12065,7 +12089,7 @@
         <v>130</v>
       </c>
       <c r="P55" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="Q55">
         <v>8</v>
@@ -12447,7 +12471,7 @@
         <v>93</v>
       </c>
       <c r="P57" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="Q57">
         <v>7</v>
@@ -12829,7 +12853,7 @@
         <v>93</v>
       </c>
       <c r="P59" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="Q59">
         <v>4</v>
@@ -13020,7 +13044,7 @@
         <v>93</v>
       </c>
       <c r="P60" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="Q60">
         <v>7</v>
@@ -13211,7 +13235,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="Q61">
         <v>9</v>
@@ -13298,10 +13322,10 @@
         <v>0.5</v>
       </c>
       <c r="AS61">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AT61">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU61">
         <v>2.29</v>
@@ -13489,10 +13513,10 @@
         <v>2</v>
       </c>
       <c r="AS62">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AT62">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AU62">
         <v>1.6</v>
@@ -13680,10 +13704,10 @@
         <v>2</v>
       </c>
       <c r="AS63">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AT63">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AU63">
         <v>1.61</v>
@@ -13871,10 +13895,10 @@
         <v>1</v>
       </c>
       <c r="AS64">
-        <v>2.8</v>
+        <v>2.69</v>
       </c>
       <c r="AT64">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AU64">
         <v>2.04</v>
@@ -13975,7 +13999,7 @@
         <v>93</v>
       </c>
       <c r="P65" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="Q65">
         <v>7</v>
@@ -14062,10 +14086,10 @@
         <v>0</v>
       </c>
       <c r="AS65">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AT65">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AU65">
         <v>1.3</v>
@@ -14166,7 +14190,7 @@
         <v>135</v>
       </c>
       <c r="P66" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="Q66">
         <v>3</v>
@@ -14253,10 +14277,10 @@
         <v>0.5</v>
       </c>
       <c r="AS66">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AT66">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AU66">
         <v>1.42</v>
@@ -14357,7 +14381,7 @@
         <v>136</v>
       </c>
       <c r="P67" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="Q67">
         <v>4</v>
@@ -14444,10 +14468,10 @@
         <v>0</v>
       </c>
       <c r="AS67">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT67">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AU67">
         <v>2.04</v>
@@ -14635,10 +14659,10 @@
         <v>1.5</v>
       </c>
       <c r="AS68">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AT68">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AU68">
         <v>1.28</v>
@@ -14739,7 +14763,7 @@
         <v>118</v>
       </c>
       <c r="P69" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="Q69">
         <v>3</v>
@@ -14826,10 +14850,10 @@
         <v>0</v>
       </c>
       <c r="AS69">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AT69">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU69">
         <v>1.48</v>
@@ -14930,7 +14954,7 @@
         <v>138</v>
       </c>
       <c r="P70" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="Q70">
         <v>6</v>
@@ -15017,10 +15041,10 @@
         <v>0.5</v>
       </c>
       <c r="AS70">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AT70">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU70">
         <v>1.74</v>
@@ -15208,10 +15232,10 @@
         <v>2</v>
       </c>
       <c r="AS71">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT71">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AU71">
         <v>1.15</v>
@@ -15399,10 +15423,10 @@
         <v>0.5</v>
       </c>
       <c r="AS72">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AT72">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AU72">
         <v>2.24</v>
@@ -15593,7 +15617,7 @@
         <v>1.53</v>
       </c>
       <c r="AT73">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AU73">
         <v>1.5</v>
@@ -15694,7 +15718,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="Q74">
         <v>2</v>
@@ -15781,7 +15805,7 @@
         <v>1.33</v>
       </c>
       <c r="AS74">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AT74">
         <v>0.9399999999999999</v>
@@ -15975,7 +15999,7 @@
         <v>1.13</v>
       </c>
       <c r="AT75">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU75">
         <v>2.16</v>
@@ -16076,7 +16100,7 @@
         <v>93</v>
       </c>
       <c r="P76" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="Q76">
         <v>6</v>
@@ -16166,7 +16190,7 @@
         <v>0.75</v>
       </c>
       <c r="AT76">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AU76">
         <v>1.23</v>
@@ -16548,7 +16572,7 @@
         <v>1.33</v>
       </c>
       <c r="AT78">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AU78">
         <v>1.58</v>
@@ -16649,7 +16673,7 @@
         <v>93</v>
       </c>
       <c r="P79" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="Q79">
         <v>9</v>
@@ -16736,10 +16760,10 @@
         <v>0.33</v>
       </c>
       <c r="AS79">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AT79">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AU79">
         <v>1.66</v>
@@ -16927,7 +16951,7 @@
         <v>1.33</v>
       </c>
       <c r="AS80">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AT80">
         <v>1.2</v>
@@ -17031,7 +17055,7 @@
         <v>145</v>
       </c>
       <c r="P81" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="Q81">
         <v>11</v>
@@ -17118,7 +17142,7 @@
         <v>0.33</v>
       </c>
       <c r="AS81">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT81">
         <v>0.47</v>
@@ -17222,7 +17246,7 @@
         <v>146</v>
       </c>
       <c r="P82" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="Q82">
         <v>5</v>
@@ -17312,7 +17336,7 @@
         <v>2.18</v>
       </c>
       <c r="AT82">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU82">
         <v>1.78</v>
@@ -17413,7 +17437,7 @@
         <v>93</v>
       </c>
       <c r="P83" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="Q83">
         <v>6</v>
@@ -17500,7 +17524,7 @@
         <v>3</v>
       </c>
       <c r="AS83">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AT83">
         <v>1.69</v>
@@ -17604,7 +17628,7 @@
         <v>147</v>
       </c>
       <c r="P84" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="Q84">
         <v>4</v>
@@ -17691,7 +17715,7 @@
         <v>1</v>
       </c>
       <c r="AS84">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AT84">
         <v>1.56</v>
@@ -17795,7 +17819,7 @@
         <v>148</v>
       </c>
       <c r="P85" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="Q85">
         <v>1</v>
@@ -17986,7 +18010,7 @@
         <v>93</v>
       </c>
       <c r="P86" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -18076,7 +18100,7 @@
         <v>1.27</v>
       </c>
       <c r="AT86">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AU86">
         <v>1.19</v>
@@ -18177,7 +18201,7 @@
         <v>149</v>
       </c>
       <c r="P87" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="Q87">
         <v>9</v>
@@ -18455,7 +18479,7 @@
         <v>1</v>
       </c>
       <c r="AS88">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT88">
         <v>1.13</v>
@@ -18646,7 +18670,7 @@
         <v>0.67</v>
       </c>
       <c r="AS89">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AT89">
         <v>1.4</v>
@@ -18750,7 +18774,7 @@
         <v>93</v>
       </c>
       <c r="P90" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="Q90">
         <v>3</v>
@@ -18840,7 +18864,7 @@
         <v>0.63</v>
       </c>
       <c r="AT90">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AU90">
         <v>1.3</v>
@@ -18941,7 +18965,7 @@
         <v>93</v>
       </c>
       <c r="P91" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="Q91">
         <v>3</v>
@@ -19028,7 +19052,7 @@
         <v>2</v>
       </c>
       <c r="AS91">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AT91">
         <v>2</v>
@@ -19132,7 +19156,7 @@
         <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="Q92">
         <v>5</v>
@@ -19222,7 +19246,7 @@
         <v>1.63</v>
       </c>
       <c r="AT92">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AU92">
         <v>1.17</v>
@@ -19410,10 +19434,10 @@
         <v>1</v>
       </c>
       <c r="AS93">
-        <v>2.8</v>
+        <v>2.69</v>
       </c>
       <c r="AT93">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU93">
         <v>1.73</v>
@@ -19604,7 +19628,7 @@
         <v>1.44</v>
       </c>
       <c r="AT94">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AU94">
         <v>1.57</v>
@@ -19792,7 +19816,7 @@
         <v>1.33</v>
       </c>
       <c r="AS95">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AT95">
         <v>0.87</v>
@@ -19896,7 +19920,7 @@
         <v>93</v>
       </c>
       <c r="P96" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="Q96">
         <v>11</v>
@@ -19986,7 +20010,7 @@
         <v>2</v>
       </c>
       <c r="AT96">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AU96">
         <v>2.02</v>
@@ -20087,7 +20111,7 @@
         <v>156</v>
       </c>
       <c r="P97" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="Q97">
         <v>6</v>
@@ -20174,7 +20198,7 @@
         <v>0.33</v>
       </c>
       <c r="AS97">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AT97">
         <v>0.53</v>
@@ -20365,7 +20389,7 @@
         <v>1.25</v>
       </c>
       <c r="AS98">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AT98">
         <v>0.9399999999999999</v>
@@ -20559,7 +20583,7 @@
         <v>2.18</v>
       </c>
       <c r="AT99">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AU99">
         <v>1.81</v>
@@ -20660,7 +20684,7 @@
         <v>159</v>
       </c>
       <c r="P100" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="Q100">
         <v>9</v>
@@ -20747,7 +20771,7 @@
         <v>1</v>
       </c>
       <c r="AS100">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT100">
         <v>1.2</v>
@@ -20851,7 +20875,7 @@
         <v>93</v>
       </c>
       <c r="P101" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="Q101">
         <v>3</v>
@@ -20938,10 +20962,10 @@
         <v>1</v>
       </c>
       <c r="AS101">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AT101">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AU101">
         <v>1.65</v>
@@ -21132,7 +21156,7 @@
         <v>0.93</v>
       </c>
       <c r="AT102">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU102">
         <v>1.4</v>
@@ -21233,7 +21257,7 @@
         <v>160</v>
       </c>
       <c r="P103" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="Q103">
         <v>5</v>
@@ -21323,7 +21347,7 @@
         <v>1.13</v>
       </c>
       <c r="AT103">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AU103">
         <v>1.9</v>
@@ -21511,10 +21535,10 @@
         <v>2</v>
       </c>
       <c r="AS104">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AT104">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AU104">
         <v>1.44</v>
@@ -21615,7 +21639,7 @@
         <v>162</v>
       </c>
       <c r="P105" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="Q105">
         <v>2</v>
@@ -21806,7 +21830,7 @@
         <v>163</v>
       </c>
       <c r="P106" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="Q106">
         <v>3</v>
@@ -21893,7 +21917,7 @@
         <v>3</v>
       </c>
       <c r="AS106">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AT106">
         <v>1.69</v>
@@ -21997,7 +22021,7 @@
         <v>164</v>
       </c>
       <c r="P107" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="Q107">
         <v>8</v>
@@ -22084,7 +22108,7 @@
         <v>1</v>
       </c>
       <c r="AS107">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AT107">
         <v>1.53</v>
@@ -22188,7 +22212,7 @@
         <v>129</v>
       </c>
       <c r="P108" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="Q108">
         <v>9</v>
@@ -22379,7 +22403,7 @@
         <v>93</v>
       </c>
       <c r="P109" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="Q109">
         <v>5</v>
@@ -22469,7 +22493,7 @@
         <v>1.33</v>
       </c>
       <c r="AT109">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU109">
         <v>1.62</v>
@@ -22570,7 +22594,7 @@
         <v>93</v>
       </c>
       <c r="P110" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="Q110">
         <v>3</v>
@@ -22660,7 +22684,7 @@
         <v>0.75</v>
       </c>
       <c r="AT110">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AU110">
         <v>1.37</v>
@@ -22761,7 +22785,7 @@
         <v>165</v>
       </c>
       <c r="P111" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="Q111">
         <v>4</v>
@@ -22851,7 +22875,7 @@
         <v>2</v>
       </c>
       <c r="AT111">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU111">
         <v>1.75</v>
@@ -23039,7 +23063,7 @@
         <v>1</v>
       </c>
       <c r="AS112">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT112">
         <v>0.87</v>
@@ -23143,7 +23167,7 @@
         <v>166</v>
       </c>
       <c r="P113" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="Q113">
         <v>0</v>
@@ -23230,7 +23254,7 @@
         <v>0.25</v>
       </c>
       <c r="AS113">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AT113">
         <v>0.53</v>
@@ -23612,7 +23636,7 @@
         <v>0.8</v>
       </c>
       <c r="AS115">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AT115">
         <v>1.53</v>
@@ -23806,7 +23830,7 @@
         <v>1.63</v>
       </c>
       <c r="AT116">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU116">
         <v>1.37</v>
@@ -23994,7 +24018,7 @@
         <v>2.6</v>
       </c>
       <c r="AS117">
-        <v>2.8</v>
+        <v>2.69</v>
       </c>
       <c r="AT117">
         <v>1.69</v>
@@ -24098,7 +24122,7 @@
         <v>93</v>
       </c>
       <c r="P118" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="Q118">
         <v>5</v>
@@ -24188,7 +24212,7 @@
         <v>0.93</v>
       </c>
       <c r="AT118">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AU118">
         <v>1.45</v>
@@ -24289,7 +24313,7 @@
         <v>171</v>
       </c>
       <c r="P119" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="Q119">
         <v>6</v>
@@ -24567,10 +24591,10 @@
         <v>1.6</v>
       </c>
       <c r="AS120">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AT120">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AU120">
         <v>1.42</v>
@@ -24671,7 +24695,7 @@
         <v>173</v>
       </c>
       <c r="P121" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="Q121">
         <v>1</v>
@@ -24761,7 +24785,7 @@
         <v>1.44</v>
       </c>
       <c r="AT121">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU121">
         <v>1.74</v>
@@ -24949,7 +24973,7 @@
         <v>2.25</v>
       </c>
       <c r="AS122">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AT122">
         <v>2</v>
@@ -25053,7 +25077,7 @@
         <v>174</v>
       </c>
       <c r="P123" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="Q123">
         <v>9</v>
@@ -25143,7 +25167,7 @@
         <v>1.27</v>
       </c>
       <c r="AT123">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AU123">
         <v>1.16</v>
@@ -25522,7 +25546,7 @@
         <v>1</v>
       </c>
       <c r="AS125">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AT125">
         <v>0.47</v>
@@ -25713,7 +25737,7 @@
         <v>1.4</v>
       </c>
       <c r="AS126">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AT126">
         <v>1.56</v>
@@ -25817,7 +25841,7 @@
         <v>177</v>
       </c>
       <c r="P127" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="Q127">
         <v>8</v>
@@ -25904,10 +25928,10 @@
         <v>2.5</v>
       </c>
       <c r="AS127">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT127">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AU127">
         <v>2.04</v>
@@ -26008,7 +26032,7 @@
         <v>93</v>
       </c>
       <c r="P128" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="Q128">
         <v>2</v>
@@ -26095,7 +26119,7 @@
         <v>0.5</v>
       </c>
       <c r="AS128">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AT128">
         <v>1.4</v>
@@ -26199,7 +26223,7 @@
         <v>178</v>
       </c>
       <c r="P129" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="Q129">
         <v>5</v>
@@ -26289,7 +26313,7 @@
         <v>0.63</v>
       </c>
       <c r="AT129">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AU129">
         <v>1.1</v>
@@ -26480,7 +26504,7 @@
         <v>1.27</v>
       </c>
       <c r="AT130">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AU130">
         <v>1.28</v>
@@ -26668,10 +26692,10 @@
         <v>1.25</v>
       </c>
       <c r="AS131">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AT131">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AU131">
         <v>1.38</v>
@@ -26859,7 +26883,7 @@
         <v>0.8</v>
       </c>
       <c r="AS132">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT132">
         <v>0.53</v>
@@ -27050,7 +27074,7 @@
         <v>2.4</v>
       </c>
       <c r="AS133">
-        <v>2.8</v>
+        <v>2.69</v>
       </c>
       <c r="AT133">
         <v>2</v>
@@ -27241,10 +27265,10 @@
         <v>0.5</v>
       </c>
       <c r="AS134">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AT134">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU134">
         <v>1.3</v>
@@ -27432,7 +27456,7 @@
         <v>0.67</v>
       </c>
       <c r="AS135">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT135">
         <v>0.53</v>
@@ -27536,7 +27560,7 @@
         <v>93</v>
       </c>
       <c r="P136" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="Q136">
         <v>7</v>
@@ -27626,7 +27650,7 @@
         <v>2</v>
       </c>
       <c r="AT136">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AU136">
         <v>1.63</v>
@@ -27727,7 +27751,7 @@
         <v>109</v>
       </c>
       <c r="P137" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="Q137">
         <v>2</v>
@@ -27814,7 +27838,7 @@
         <v>2.17</v>
       </c>
       <c r="AS137">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AT137">
         <v>1.69</v>
@@ -28199,7 +28223,7 @@
         <v>2</v>
       </c>
       <c r="AT139">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU139">
         <v>1.97</v>
@@ -28387,7 +28411,7 @@
         <v>1.4</v>
       </c>
       <c r="AS140">
-        <v>2.8</v>
+        <v>2.69</v>
       </c>
       <c r="AT140">
         <v>0.87</v>
@@ -28491,7 +28515,7 @@
         <v>185</v>
       </c>
       <c r="P141" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="Q141">
         <v>6</v>
@@ -28581,7 +28605,7 @@
         <v>1.53</v>
       </c>
       <c r="AT141">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AU141">
         <v>1.5</v>
@@ -28769,7 +28793,7 @@
         <v>1</v>
       </c>
       <c r="AS142">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AT142">
         <v>0.9399999999999999</v>
@@ -28873,7 +28897,7 @@
         <v>187</v>
       </c>
       <c r="P143" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="Q143">
         <v>7</v>
@@ -28960,7 +28984,7 @@
         <v>0.8</v>
       </c>
       <c r="AS143">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AT143">
         <v>1.2</v>
@@ -29154,7 +29178,7 @@
         <v>0.75</v>
       </c>
       <c r="AT144">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AU144">
         <v>1.35</v>
@@ -29345,7 +29369,7 @@
         <v>1.63</v>
       </c>
       <c r="AT145">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AU145">
         <v>1.24</v>
@@ -29446,7 +29470,7 @@
         <v>189</v>
       </c>
       <c r="P146" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="Q146">
         <v>4</v>
@@ -29536,7 +29560,7 @@
         <v>1.44</v>
       </c>
       <c r="AT146">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AU146">
         <v>1.64</v>
@@ -29637,7 +29661,7 @@
         <v>93</v>
       </c>
       <c r="P147" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="Q147">
         <v>0</v>
@@ -29918,7 +29942,7 @@
         <v>2</v>
       </c>
       <c r="AT148">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AU148">
         <v>2.04</v>
@@ -30019,7 +30043,7 @@
         <v>93</v>
       </c>
       <c r="P149" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="Q149">
         <v>6</v>
@@ -30106,7 +30130,7 @@
         <v>2</v>
       </c>
       <c r="AS149">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AT149">
         <v>2</v>
@@ -30210,7 +30234,7 @@
         <v>191</v>
       </c>
       <c r="P150" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="Q150">
         <v>7</v>
@@ -30297,7 +30321,7 @@
         <v>1.17</v>
       </c>
       <c r="AS150">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AT150">
         <v>1.13</v>
@@ -30401,7 +30425,7 @@
         <v>192</v>
       </c>
       <c r="P151" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="Q151">
         <v>5</v>
@@ -30491,7 +30515,7 @@
         <v>1.33</v>
       </c>
       <c r="AT151">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU151">
         <v>1.59</v>
@@ -30682,7 +30706,7 @@
         <v>0.93</v>
       </c>
       <c r="AT152">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AU152">
         <v>1.31</v>
@@ -31061,7 +31085,7 @@
         <v>1.17</v>
       </c>
       <c r="AS154">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT154">
         <v>1.2</v>
@@ -31165,7 +31189,7 @@
         <v>94</v>
       </c>
       <c r="P155" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="Q155">
         <v>1</v>
@@ -31356,7 +31380,7 @@
         <v>193</v>
       </c>
       <c r="P156" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="Q156">
         <v>13</v>
@@ -31443,10 +31467,10 @@
         <v>0.83</v>
       </c>
       <c r="AS156">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AT156">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AU156">
         <v>1.44</v>
@@ -31547,7 +31571,7 @@
         <v>194</v>
       </c>
       <c r="P157" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="Q157">
         <v>4</v>
@@ -31634,10 +31658,10 @@
         <v>1</v>
       </c>
       <c r="AS157">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AT157">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AU157">
         <v>2.07</v>
@@ -31828,7 +31852,7 @@
         <v>2.18</v>
       </c>
       <c r="AT158">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AU158">
         <v>1.64</v>
@@ -31929,7 +31953,7 @@
         <v>93</v>
       </c>
       <c r="P159" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="Q159">
         <v>5</v>
@@ -32016,7 +32040,7 @@
         <v>1</v>
       </c>
       <c r="AS159">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AT159">
         <v>1.4</v>
@@ -32210,7 +32234,7 @@
         <v>1.44</v>
       </c>
       <c r="AT160">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AU160">
         <v>1.65</v>
@@ -32398,7 +32422,7 @@
         <v>1.33</v>
       </c>
       <c r="AS161">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT161">
         <v>1.4</v>
@@ -32589,7 +32613,7 @@
         <v>2.14</v>
       </c>
       <c r="AS162">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AT162">
         <v>2</v>
@@ -32693,7 +32717,7 @@
         <v>197</v>
       </c>
       <c r="P163" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="Q163">
         <v>6</v>
@@ -32783,7 +32807,7 @@
         <v>1.13</v>
       </c>
       <c r="AT163">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AU163">
         <v>1.99</v>
@@ -32971,10 +32995,10 @@
         <v>1.57</v>
       </c>
       <c r="AS164">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AT164">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AU164">
         <v>1.27</v>
@@ -33356,7 +33380,7 @@
         <v>0.75</v>
       </c>
       <c r="AT166">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AU166">
         <v>1.28</v>
@@ -33457,7 +33481,7 @@
         <v>198</v>
       </c>
       <c r="P167" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="Q167">
         <v>3</v>
@@ -33547,7 +33571,7 @@
         <v>1.33</v>
       </c>
       <c r="AT167">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AU167">
         <v>1.54</v>
@@ -33735,7 +33759,7 @@
         <v>1.17</v>
       </c>
       <c r="AS168">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AT168">
         <v>1.2</v>
@@ -34030,7 +34054,7 @@
         <v>200</v>
       </c>
       <c r="P170" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="Q170">
         <v>8</v>
@@ -34117,7 +34141,7 @@
         <v>1.86</v>
       </c>
       <c r="AS170">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT170">
         <v>1.56</v>
@@ -34221,7 +34245,7 @@
         <v>201</v>
       </c>
       <c r="P171" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="Q171">
         <v>4</v>
@@ -34308,10 +34332,10 @@
         <v>0.83</v>
       </c>
       <c r="AS171">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AT171">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AU171">
         <v>1.62</v>
@@ -34502,7 +34526,7 @@
         <v>1.63</v>
       </c>
       <c r="AT172">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU172">
         <v>1.29</v>
@@ -34603,7 +34627,7 @@
         <v>202</v>
       </c>
       <c r="P173" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="Q173">
         <v>11</v>
@@ -34690,7 +34714,7 @@
         <v>0.57</v>
       </c>
       <c r="AS173">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AT173">
         <v>0.53</v>
@@ -34884,7 +34908,7 @@
         <v>1.53</v>
       </c>
       <c r="AT174">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU174">
         <v>1.53</v>
@@ -35072,10 +35096,10 @@
         <v>1.57</v>
       </c>
       <c r="AS175">
-        <v>2.8</v>
+        <v>2.69</v>
       </c>
       <c r="AT175">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AU175">
         <v>1.84</v>
@@ -35367,7 +35391,7 @@
         <v>153</v>
       </c>
       <c r="P177" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="Q177">
         <v>8</v>
@@ -35457,7 +35481,7 @@
         <v>0.93</v>
       </c>
       <c r="AT177">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AU177">
         <v>1.43</v>
@@ -35645,10 +35669,10 @@
         <v>1.14</v>
       </c>
       <c r="AS178">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AT178">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AU178">
         <v>1.73</v>
@@ -35836,7 +35860,7 @@
         <v>0.86</v>
       </c>
       <c r="AS179">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AT179">
         <v>0.47</v>
@@ -35940,7 +35964,7 @@
         <v>93</v>
       </c>
       <c r="P180" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="Q180">
         <v>1</v>
@@ -36030,7 +36054,7 @@
         <v>1.44</v>
       </c>
       <c r="AT180">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AU180">
         <v>1.63</v>
@@ -36221,7 +36245,7 @@
         <v>2.18</v>
       </c>
       <c r="AT181">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU181">
         <v>1.56</v>
@@ -36322,7 +36346,7 @@
         <v>208</v>
       </c>
       <c r="P182" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="Q182">
         <v>4</v>
@@ -36409,7 +36433,7 @@
         <v>2.29</v>
       </c>
       <c r="AS182">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AT182">
         <v>1.69</v>
@@ -36513,7 +36537,7 @@
         <v>93</v>
       </c>
       <c r="P183" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="Q183">
         <v>6</v>
@@ -36791,7 +36815,7 @@
         <v>1.43</v>
       </c>
       <c r="AS184">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AT184">
         <v>1.13</v>
@@ -37086,7 +37110,7 @@
         <v>211</v>
       </c>
       <c r="P186" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="Q186">
         <v>7</v>
@@ -37173,7 +37197,7 @@
         <v>1.38</v>
       </c>
       <c r="AS186">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AT186">
         <v>1.13</v>
@@ -37364,10 +37388,10 @@
         <v>1.29</v>
       </c>
       <c r="AS187">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AT187">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AU187">
         <v>1.47</v>
@@ -37468,7 +37492,7 @@
         <v>212</v>
       </c>
       <c r="P188" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="Q188">
         <v>1</v>
@@ -37659,7 +37683,7 @@
         <v>213</v>
       </c>
       <c r="P189" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="Q189">
         <v>4</v>
@@ -37749,7 +37773,7 @@
         <v>2.18</v>
       </c>
       <c r="AT189">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU189">
         <v>1.59</v>
@@ -37940,7 +37964,7 @@
         <v>2</v>
       </c>
       <c r="AT190">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AU190">
         <v>1.52</v>
@@ -38232,7 +38256,7 @@
         <v>216</v>
       </c>
       <c r="P192" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="Q192">
         <v>13</v>
@@ -38319,7 +38343,7 @@
         <v>0.75</v>
       </c>
       <c r="AS192">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AT192">
         <v>0.47</v>
@@ -38423,7 +38447,7 @@
         <v>217</v>
       </c>
       <c r="P193" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="Q193">
         <v>7</v>
@@ -38510,10 +38534,10 @@
         <v>0.63</v>
       </c>
       <c r="AS193">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AT193">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU193">
         <v>1.84</v>
@@ -38704,7 +38728,7 @@
         <v>1.53</v>
       </c>
       <c r="AT194">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AU194">
         <v>1.42</v>
@@ -38892,7 +38916,7 @@
         <v>1.63</v>
       </c>
       <c r="AS195">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AT195">
         <v>1.2</v>
@@ -38996,7 +39020,7 @@
         <v>219</v>
       </c>
       <c r="P196" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="Q196">
         <v>6</v>
@@ -39083,10 +39107,10 @@
         <v>1.13</v>
       </c>
       <c r="AS196">
-        <v>2.8</v>
+        <v>2.69</v>
       </c>
       <c r="AT196">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AU196">
         <v>1.78</v>
@@ -39187,7 +39211,7 @@
         <v>220</v>
       </c>
       <c r="P197" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="Q197">
         <v>3</v>
@@ -39274,7 +39298,7 @@
         <v>1.14</v>
       </c>
       <c r="AS197">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AT197">
         <v>1.4</v>
@@ -39468,7 +39492,7 @@
         <v>1.13</v>
       </c>
       <c r="AT198">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AU198">
         <v>1.92</v>
@@ -39569,7 +39593,7 @@
         <v>222</v>
       </c>
       <c r="P199" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="Q199">
         <v>6</v>
@@ -39656,7 +39680,7 @@
         <v>1.43</v>
       </c>
       <c r="AS199">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AT199">
         <v>1.2</v>
@@ -39760,7 +39784,7 @@
         <v>223</v>
       </c>
       <c r="P200" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="Q200">
         <v>7</v>
@@ -39847,7 +39871,7 @@
         <v>0.88</v>
       </c>
       <c r="AS200">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AT200">
         <v>0.87</v>
@@ -39951,7 +39975,7 @@
         <v>224</v>
       </c>
       <c r="P201" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="Q201">
         <v>12</v>
@@ -40041,7 +40065,7 @@
         <v>1.63</v>
       </c>
       <c r="AT201">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU201">
         <v>1.26</v>
@@ -40232,7 +40256,7 @@
         <v>1.63</v>
       </c>
       <c r="AT202">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AU202">
         <v>1.31</v>
@@ -40611,10 +40635,10 @@
         <v>1.86</v>
       </c>
       <c r="AS204">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AT204">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AU204">
         <v>1.23</v>
@@ -40715,7 +40739,7 @@
         <v>131</v>
       </c>
       <c r="P205" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="Q205">
         <v>6</v>
@@ -40993,7 +41017,7 @@
         <v>1.75</v>
       </c>
       <c r="AS206">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AT206">
         <v>1.56</v>
@@ -41184,7 +41208,7 @@
         <v>0.71</v>
       </c>
       <c r="AS207">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT207">
         <v>0.9399999999999999</v>
@@ -41288,7 +41312,7 @@
         <v>229</v>
       </c>
       <c r="P208" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="Q208">
         <v>4</v>
@@ -41378,7 +41402,7 @@
         <v>1.33</v>
       </c>
       <c r="AT208">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AU208">
         <v>1.51</v>
@@ -41479,7 +41503,7 @@
         <v>93</v>
       </c>
       <c r="P209" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="Q209">
         <v>6</v>
@@ -41670,7 +41694,7 @@
         <v>230</v>
       </c>
       <c r="P210" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="Q210">
         <v>12</v>
@@ -41760,7 +41784,7 @@
         <v>1.27</v>
       </c>
       <c r="AT210">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU210">
         <v>1.46</v>
@@ -41861,7 +41885,7 @@
         <v>231</v>
       </c>
       <c r="P211" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="Q211">
         <v>8</v>
@@ -41948,10 +41972,10 @@
         <v>1.25</v>
       </c>
       <c r="AS211">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT211">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AU211">
         <v>1.6</v>
@@ -42139,7 +42163,7 @@
         <v>2</v>
       </c>
       <c r="AS212">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AT212">
         <v>2</v>
@@ -42330,10 +42354,10 @@
         <v>1.14</v>
       </c>
       <c r="AS213">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AT213">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AU213">
         <v>1.37</v>
@@ -42625,7 +42649,7 @@
         <v>93</v>
       </c>
       <c r="P215" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="Q215">
         <v>6</v>
@@ -42906,7 +42930,7 @@
         <v>1.13</v>
       </c>
       <c r="AT216">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AU216">
         <v>1.9</v>
@@ -43094,10 +43118,10 @@
         <v>1.33</v>
       </c>
       <c r="AS217">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AT217">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AU217">
         <v>1.81</v>
@@ -43285,7 +43309,7 @@
         <v>0.78</v>
       </c>
       <c r="AS218">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AT218">
         <v>0.47</v>
@@ -43389,7 +43413,7 @@
         <v>234</v>
       </c>
       <c r="P219" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="Q219">
         <v>2</v>
@@ -43479,7 +43503,7 @@
         <v>0.93</v>
       </c>
       <c r="AT219">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AU219">
         <v>1.43</v>
@@ -43667,7 +43691,7 @@
         <v>1.44</v>
       </c>
       <c r="AS220">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AT220">
         <v>1.53</v>
@@ -43858,10 +43882,10 @@
         <v>0.89</v>
       </c>
       <c r="AS221">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AT221">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU221">
         <v>1.43</v>
@@ -43962,7 +43986,7 @@
         <v>237</v>
       </c>
       <c r="P222" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="Q222">
         <v>9</v>
@@ -44240,10 +44264,10 @@
         <v>1</v>
       </c>
       <c r="AS223">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT223">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AU223">
         <v>1.59</v>
@@ -44434,7 +44458,7 @@
         <v>2</v>
       </c>
       <c r="AT224">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AU224">
         <v>1.6</v>
@@ -44622,7 +44646,7 @@
         <v>0.89</v>
       </c>
       <c r="AS225">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AT225">
         <v>0.87</v>
@@ -44917,7 +44941,7 @@
         <v>155</v>
       </c>
       <c r="P227" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="Q227">
         <v>3</v>
@@ -45007,7 +45031,7 @@
         <v>2</v>
       </c>
       <c r="AT227">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AU227">
         <v>1.99</v>
@@ -45195,10 +45219,10 @@
         <v>1</v>
       </c>
       <c r="AS228">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AT228">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AU228">
         <v>1.28</v>
@@ -45299,7 +45323,7 @@
         <v>93</v>
       </c>
       <c r="P229" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="Q229">
         <v>4</v>
@@ -45386,7 +45410,7 @@
         <v>1.22</v>
       </c>
       <c r="AS229">
-        <v>2.8</v>
+        <v>2.69</v>
       </c>
       <c r="AT229">
         <v>1.2</v>
@@ -45681,7 +45705,7 @@
         <v>241</v>
       </c>
       <c r="P231" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="Q231">
         <v>5</v>
@@ -45768,10 +45792,10 @@
         <v>1.22</v>
       </c>
       <c r="AS231">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT231">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AU231">
         <v>2.27</v>
@@ -46153,7 +46177,7 @@
         <v>0.63</v>
       </c>
       <c r="AT233">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU233">
         <v>1.18</v>
@@ -46341,7 +46365,7 @@
         <v>2.11</v>
       </c>
       <c r="AS234">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AT234">
         <v>2</v>
@@ -46723,10 +46747,10 @@
         <v>1.33</v>
       </c>
       <c r="AS236">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AT236">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU236">
         <v>1.6</v>
@@ -46914,10 +46938,10 @@
         <v>1.75</v>
       </c>
       <c r="AS237">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AT237">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AU237">
         <v>2.04</v>
@@ -47018,7 +47042,7 @@
         <v>246</v>
       </c>
       <c r="P238" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="Q238">
         <v>6</v>
@@ -47108,7 +47132,7 @@
         <v>1.63</v>
       </c>
       <c r="AT238">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AU238">
         <v>1.31</v>
@@ -47296,10 +47320,10 @@
         <v>0.9</v>
       </c>
       <c r="AS239">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT239">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AU239">
         <v>2.21</v>
@@ -47591,7 +47615,7 @@
         <v>249</v>
       </c>
       <c r="P241" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="Q241">
         <v>10</v>
@@ -47782,7 +47806,7 @@
         <v>197</v>
       </c>
       <c r="P242" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="Q242">
         <v>6</v>
@@ -47872,7 +47896,7 @@
         <v>0.63</v>
       </c>
       <c r="AT242">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AU242">
         <v>1.25</v>
@@ -48060,7 +48084,7 @@
         <v>1.3</v>
       </c>
       <c r="AS243">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AT243">
         <v>1.53</v>
@@ -48442,7 +48466,7 @@
         <v>1.4</v>
       </c>
       <c r="AS245">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT245">
         <v>1.2</v>
@@ -48633,7 +48657,7 @@
         <v>1.6</v>
       </c>
       <c r="AS246">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AT246">
         <v>1.56</v>
@@ -48827,7 +48851,7 @@
         <v>2.18</v>
       </c>
       <c r="AT247">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AU247">
         <v>1.61</v>
@@ -49015,7 +49039,7 @@
         <v>2.3</v>
       </c>
       <c r="AS248">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AT248">
         <v>1.69</v>
@@ -49119,7 +49143,7 @@
         <v>252</v>
       </c>
       <c r="P249" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="Q249">
         <v>7</v>
@@ -49206,7 +49230,7 @@
         <v>0.7</v>
       </c>
       <c r="AS249">
-        <v>2.8</v>
+        <v>2.69</v>
       </c>
       <c r="AT249">
         <v>0.47</v>
@@ -49397,10 +49421,10 @@
         <v>0.8</v>
       </c>
       <c r="AS250">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AT250">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AU250">
         <v>1.62</v>
@@ -49591,7 +49615,7 @@
         <v>2</v>
       </c>
       <c r="AT251">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU251">
         <v>1.67</v>
@@ -49692,7 +49716,7 @@
         <v>216</v>
       </c>
       <c r="P252" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="Q252">
         <v>9</v>
@@ -49970,10 +49994,10 @@
         <v>1.3</v>
       </c>
       <c r="AS253">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AT253">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU253">
         <v>1.79</v>
@@ -50074,7 +50098,7 @@
         <v>93</v>
       </c>
       <c r="P254" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="Q254">
         <v>6</v>
@@ -50164,7 +50188,7 @@
         <v>1.53</v>
       </c>
       <c r="AT254">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AU254">
         <v>1.44</v>
@@ -50352,7 +50376,7 @@
         <v>1.55</v>
       </c>
       <c r="AS255">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AT255">
         <v>1.56</v>
@@ -50546,7 +50570,7 @@
         <v>1.33</v>
       </c>
       <c r="AT256">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AU256">
         <v>1.41</v>
@@ -50734,10 +50758,10 @@
         <v>1.2</v>
       </c>
       <c r="AS257">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AT257">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AU257">
         <v>1.33</v>
@@ -50928,7 +50952,7 @@
         <v>0.63</v>
       </c>
       <c r="AT258">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AU258">
         <v>1.3</v>
@@ -51307,10 +51331,10 @@
         <v>1.7</v>
       </c>
       <c r="AS260">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AT260">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AU260">
         <v>1.58</v>
@@ -51498,10 +51522,10 @@
         <v>1.27</v>
       </c>
       <c r="AS261">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT261">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU261">
         <v>2.16</v>
@@ -51602,7 +51626,7 @@
         <v>228</v>
       </c>
       <c r="P262" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="Q262">
         <v>3</v>
@@ -51883,7 +51907,7 @@
         <v>1.44</v>
       </c>
       <c r="AT263">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AU263">
         <v>1.56</v>
@@ -52071,7 +52095,7 @@
         <v>0.64</v>
       </c>
       <c r="AS264">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AT264">
         <v>0.47</v>
@@ -52175,7 +52199,7 @@
         <v>259</v>
       </c>
       <c r="P265" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="Q265">
         <v>3</v>
@@ -52262,7 +52286,7 @@
         <v>1.36</v>
       </c>
       <c r="AS265">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AT265">
         <v>1.13</v>
@@ -52835,7 +52859,7 @@
         <v>1.27</v>
       </c>
       <c r="AS268">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AT268">
         <v>1.2</v>
@@ -52939,7 +52963,7 @@
         <v>261</v>
       </c>
       <c r="P269" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="Q269">
         <v>3</v>
@@ -53217,7 +53241,7 @@
         <v>1.27</v>
       </c>
       <c r="AS270">
-        <v>2.8</v>
+        <v>2.69</v>
       </c>
       <c r="AT270">
         <v>1.53</v>
@@ -53411,7 +53435,7 @@
         <v>2</v>
       </c>
       <c r="AT271">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AU271">
         <v>1.87</v>
@@ -53602,7 +53626,7 @@
         <v>1.13</v>
       </c>
       <c r="AT272">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU272">
         <v>1.89</v>
@@ -53703,7 +53727,7 @@
         <v>102</v>
       </c>
       <c r="P273" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="Q273">
         <v>6</v>
@@ -53793,7 +53817,7 @@
         <v>0.75</v>
       </c>
       <c r="AT273">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU273">
         <v>1.35</v>
@@ -53894,7 +53918,7 @@
         <v>265</v>
       </c>
       <c r="P274" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="Q274">
         <v>3</v>
@@ -53981,10 +54005,10 @@
         <v>0.91</v>
       </c>
       <c r="AS274">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT274">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AU274">
         <v>1.62</v>
@@ -54175,7 +54199,7 @@
         <v>2</v>
       </c>
       <c r="AT275">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AU275">
         <v>1.65</v>
@@ -54363,7 +54387,7 @@
         <v>1.1</v>
       </c>
       <c r="AS276">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AT276">
         <v>0.87</v>
@@ -54554,7 +54578,7 @@
         <v>0.7</v>
       </c>
       <c r="AS277">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AT277">
         <v>0.53</v>
@@ -54745,10 +54769,10 @@
         <v>1.2</v>
       </c>
       <c r="AS278">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AT278">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AU278">
         <v>1.22</v>
@@ -54849,7 +54873,7 @@
         <v>269</v>
       </c>
       <c r="P279" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="Q279">
         <v>5</v>
@@ -54936,7 +54960,7 @@
         <v>1.09</v>
       </c>
       <c r="AS279">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT279">
         <v>0.9399999999999999</v>
@@ -55127,10 +55151,10 @@
         <v>1.18</v>
       </c>
       <c r="AS280">
-        <v>2.8</v>
+        <v>2.69</v>
       </c>
       <c r="AT280">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AU280">
         <v>1.83</v>
@@ -55231,7 +55255,7 @@
         <v>209</v>
       </c>
       <c r="P281" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="Q281">
         <v>7</v>
@@ -55321,7 +55345,7 @@
         <v>1.53</v>
       </c>
       <c r="AT281">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU281">
         <v>1.44</v>
@@ -55422,7 +55446,7 @@
         <v>93</v>
       </c>
       <c r="P282" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="Q282">
         <v>8</v>
@@ -55613,7 +55637,7 @@
         <v>241</v>
       </c>
       <c r="P283" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="Q283">
         <v>2</v>
@@ -55894,7 +55918,7 @@
         <v>1.13</v>
       </c>
       <c r="AT284">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AU284">
         <v>1.86</v>
@@ -56082,10 +56106,10 @@
         <v>0.75</v>
       </c>
       <c r="AS285">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AT285">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU285">
         <v>1.26</v>
@@ -56186,7 +56210,7 @@
         <v>93</v>
       </c>
       <c r="P286" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="Q286">
         <v>8</v>
@@ -56276,7 +56300,7 @@
         <v>1.63</v>
       </c>
       <c r="AT286">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AU286">
         <v>1.33</v>
@@ -56464,7 +56488,7 @@
         <v>0.64</v>
       </c>
       <c r="AS287">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AT287">
         <v>0.53</v>
@@ -56655,7 +56679,7 @@
         <v>1</v>
       </c>
       <c r="AS288">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AT288">
         <v>0.87</v>
@@ -56759,7 +56783,7 @@
         <v>93</v>
       </c>
       <c r="P289" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="Q289">
         <v>3</v>
@@ -56849,7 +56873,7 @@
         <v>2</v>
       </c>
       <c r="AT289">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AU289">
         <v>1.64</v>
@@ -57037,7 +57061,7 @@
         <v>2</v>
       </c>
       <c r="AS290">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AT290">
         <v>1.69</v>
@@ -57141,7 +57165,7 @@
         <v>274</v>
       </c>
       <c r="P291" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="Q291">
         <v>0</v>
@@ -57332,7 +57356,7 @@
         <v>187</v>
       </c>
       <c r="P292" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="Q292">
         <v>9</v>
@@ -57419,7 +57443,7 @@
         <v>1.25</v>
       </c>
       <c r="AS292">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AT292">
         <v>1.13</v>
@@ -57610,7 +57634,7 @@
         <v>1</v>
       </c>
       <c r="AS293">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AT293">
         <v>0.9399999999999999</v>
@@ -58096,7 +58120,7 @@
         <v>276</v>
       </c>
       <c r="P296" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="Q296">
         <v>3</v>
@@ -58183,7 +58207,7 @@
         <v>1.25</v>
       </c>
       <c r="AS296">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AT296">
         <v>1.4</v>
@@ -58377,7 +58401,7 @@
         <v>1.33</v>
       </c>
       <c r="AT297">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AU297">
         <v>1.42</v>
@@ -58478,7 +58502,7 @@
         <v>277</v>
       </c>
       <c r="P298" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="Q298">
         <v>10</v>
@@ -58568,7 +58592,7 @@
         <v>0.93</v>
       </c>
       <c r="AT298">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU298">
         <v>1.41</v>
@@ -58756,7 +58780,7 @@
         <v>1.62</v>
       </c>
       <c r="AS299">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT299">
         <v>1.56</v>
@@ -58950,7 +58974,7 @@
         <v>1.44</v>
       </c>
       <c r="AT300">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AU300">
         <v>1.55</v>
@@ -59051,7 +59075,7 @@
         <v>93</v>
       </c>
       <c r="P301" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="Q301">
         <v>9</v>
@@ -59141,7 +59165,7 @@
         <v>1.27</v>
       </c>
       <c r="AT301">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AU301">
         <v>1.63</v>
@@ -59242,7 +59266,7 @@
         <v>93</v>
       </c>
       <c r="P302" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="Q302">
         <v>4</v>
@@ -59329,7 +59353,7 @@
         <v>2</v>
       </c>
       <c r="AS302">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AT302">
         <v>2</v>
@@ -59523,7 +59547,7 @@
         <v>2.18</v>
       </c>
       <c r="AT303">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AU303">
         <v>1.55</v>
@@ -59711,7 +59735,7 @@
         <v>1.38</v>
       </c>
       <c r="AS304">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AT304">
         <v>1.13</v>
@@ -59815,7 +59839,7 @@
         <v>93</v>
       </c>
       <c r="P305" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="Q305">
         <v>1</v>
@@ -59902,10 +59926,10 @@
         <v>0.83</v>
       </c>
       <c r="AS305">
+        <v>1.29</v>
+      </c>
+      <c r="AT305">
         <v>1.19</v>
-      </c>
-      <c r="AT305">
-        <v>1.07</v>
       </c>
       <c r="AU305">
         <v>1.42</v>
@@ -60284,10 +60308,10 @@
         <v>1.33</v>
       </c>
       <c r="AS307">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AT307">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AU307">
         <v>1.67</v>
@@ -60478,7 +60502,7 @@
         <v>0.75</v>
       </c>
       <c r="AT308">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AU308">
         <v>1.32</v>
@@ -60770,7 +60794,7 @@
         <v>284</v>
       </c>
       <c r="P310" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="Q310">
         <v>6</v>
@@ -60857,7 +60881,7 @@
         <v>0.92</v>
       </c>
       <c r="AS310">
-        <v>2.8</v>
+        <v>2.69</v>
       </c>
       <c r="AT310">
         <v>0.9399999999999999</v>
@@ -61051,7 +61075,7 @@
         <v>1.53</v>
       </c>
       <c r="AT311">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AU311">
         <v>1.43</v>
@@ -61430,10 +61454,10 @@
         <v>1.38</v>
       </c>
       <c r="AS313">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AT313">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AU313">
         <v>1.8</v>
@@ -61534,7 +61558,7 @@
         <v>130</v>
       </c>
       <c r="P314" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="Q314">
         <v>7</v>
@@ -61621,7 +61645,7 @@
         <v>1.38</v>
       </c>
       <c r="AS314">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AT314">
         <v>1.4</v>
@@ -61815,7 +61839,7 @@
         <v>0.63</v>
       </c>
       <c r="AT315">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AU315">
         <v>1.3</v>
@@ -62003,10 +62027,10 @@
         <v>1.31</v>
       </c>
       <c r="AS316">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AT316">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU316">
         <v>1.83</v>
@@ -62197,7 +62221,7 @@
         <v>2.18</v>
       </c>
       <c r="AT317">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AU317">
         <v>1.54</v>
@@ -62385,7 +62409,7 @@
         <v>0.58</v>
       </c>
       <c r="AS318">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT318">
         <v>0.47</v>
@@ -62489,7 +62513,7 @@
         <v>93</v>
       </c>
       <c r="P319" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="Q319">
         <v>4</v>
@@ -62579,7 +62603,7 @@
         <v>0.93</v>
       </c>
       <c r="AT319">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AU319">
         <v>1.46</v>
@@ -62680,7 +62704,7 @@
         <v>196</v>
       </c>
       <c r="P320" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="Q320">
         <v>6</v>
@@ -62770,7 +62794,7 @@
         <v>1.44</v>
       </c>
       <c r="AT320">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AU320">
         <v>1.51</v>
@@ -62958,7 +62982,7 @@
         <v>0.54</v>
       </c>
       <c r="AS321">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AT321">
         <v>0.53</v>
@@ -63152,7 +63176,7 @@
         <v>2</v>
       </c>
       <c r="AT322">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AU322">
         <v>1.93</v>
@@ -63340,7 +63364,7 @@
         <v>1.31</v>
       </c>
       <c r="AS323">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AT323">
         <v>1.2</v>
@@ -63534,7 +63558,7 @@
         <v>1.63</v>
       </c>
       <c r="AT324">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AU324">
         <v>1.37</v>
@@ -63725,7 +63749,7 @@
         <v>1.27</v>
       </c>
       <c r="AT325">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU325">
         <v>1.59</v>
@@ -63826,7 +63850,7 @@
         <v>93</v>
       </c>
       <c r="P326" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="Q326">
         <v>5</v>
@@ -63916,7 +63940,7 @@
         <v>0.63</v>
       </c>
       <c r="AT326">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AU326">
         <v>1.31</v>
@@ -64017,7 +64041,7 @@
         <v>293</v>
       </c>
       <c r="P327" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="Q327">
         <v>3</v>
@@ -64104,7 +64128,7 @@
         <v>1.29</v>
       </c>
       <c r="AS327">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AT327">
         <v>1.13</v>
@@ -64208,7 +64232,7 @@
         <v>99</v>
       </c>
       <c r="P328" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="Q328">
         <v>10</v>
@@ -64298,7 +64322,7 @@
         <v>1.13</v>
       </c>
       <c r="AT328">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AU328">
         <v>1.87</v>
@@ -64399,7 +64423,7 @@
         <v>93</v>
       </c>
       <c r="P329" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="Q329">
         <v>8</v>
@@ -64489,7 +64513,7 @@
         <v>1.13</v>
       </c>
       <c r="AT329">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AU329">
         <v>1.84</v>
@@ -64677,7 +64701,7 @@
         <v>1.57</v>
       </c>
       <c r="AS330">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AT330">
         <v>1.56</v>
@@ -64781,7 +64805,7 @@
         <v>93</v>
       </c>
       <c r="P331" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="Q331">
         <v>1</v>
@@ -64868,7 +64892,7 @@
         <v>1.08</v>
       </c>
       <c r="AS331">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AT331">
         <v>1.2</v>
@@ -64972,7 +64996,7 @@
         <v>93</v>
       </c>
       <c r="P332" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="Q332">
         <v>5</v>
@@ -65059,7 +65083,7 @@
         <v>1.31</v>
       </c>
       <c r="AS332">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AT332">
         <v>1.53</v>
@@ -65250,10 +65274,10 @@
         <v>1.23</v>
       </c>
       <c r="AS333">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT333">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AU333">
         <v>1.63</v>
@@ -65632,7 +65656,7 @@
         <v>0.54</v>
       </c>
       <c r="AS335">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AT335">
         <v>0.47</v>
@@ -65736,7 +65760,7 @@
         <v>295</v>
       </c>
       <c r="P336" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="Q336">
         <v>14</v>
@@ -65826,7 +65850,7 @@
         <v>1.33</v>
       </c>
       <c r="AT336">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU336">
         <v>1.44</v>
@@ -65927,7 +65951,7 @@
         <v>296</v>
       </c>
       <c r="P337" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="Q337">
         <v>5</v>
@@ -66017,7 +66041,7 @@
         <v>0.93</v>
       </c>
       <c r="AT337">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU337">
         <v>1.48</v>
@@ -66118,7 +66142,7 @@
         <v>93</v>
       </c>
       <c r="P338" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="Q338">
         <v>6</v>
@@ -66208,7 +66232,7 @@
         <v>0.75</v>
       </c>
       <c r="AT338">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AU338">
         <v>1.3</v>
@@ -66399,7 +66423,7 @@
         <v>1.53</v>
       </c>
       <c r="AT339">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AU339">
         <v>1.45</v>
@@ -66587,7 +66611,7 @@
         <v>1.79</v>
       </c>
       <c r="AS340">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AT340">
         <v>1.69</v>
@@ -66778,7 +66802,7 @@
         <v>0.85</v>
       </c>
       <c r="AS341">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AT341">
         <v>0.87</v>
@@ -66969,7 +66993,7 @@
         <v>1.2</v>
       </c>
       <c r="AS342">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AT342">
         <v>1.13</v>
@@ -67354,7 +67378,7 @@
         <v>1.27</v>
       </c>
       <c r="AT344">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AU344">
         <v>1.62</v>
@@ -67455,7 +67479,7 @@
         <v>299</v>
       </c>
       <c r="P345" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="Q345">
         <v>2</v>
@@ -67545,7 +67569,7 @@
         <v>1.44</v>
       </c>
       <c r="AT345">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AU345">
         <v>1.52</v>
@@ -67646,7 +67670,7 @@
         <v>300</v>
       </c>
       <c r="P346" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="Q346">
         <v>6</v>
@@ -67733,7 +67757,7 @@
         <v>2.08</v>
       </c>
       <c r="AS346">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT346">
         <v>2</v>
@@ -67927,7 +67951,7 @@
         <v>0.63</v>
       </c>
       <c r="AT347">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU347">
         <v>1.33</v>
@@ -68028,7 +68052,7 @@
         <v>302</v>
       </c>
       <c r="P348" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="Q348">
         <v>7</v>
@@ -68306,10 +68330,10 @@
         <v>1.38</v>
       </c>
       <c r="AS349">
-        <v>2.8</v>
+        <v>2.69</v>
       </c>
       <c r="AT349">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AU349">
         <v>1.83</v>
@@ -68410,7 +68434,7 @@
         <v>93</v>
       </c>
       <c r="P350" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="Q350">
         <v>8</v>
@@ -68500,7 +68524,7 @@
         <v>2</v>
       </c>
       <c r="AT350">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AU350">
         <v>1.9</v>
@@ -68601,7 +68625,7 @@
         <v>304</v>
       </c>
       <c r="P351" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="Q351">
         <v>5</v>
@@ -68688,7 +68712,7 @@
         <v>1.5</v>
       </c>
       <c r="AS351">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AT351">
         <v>1.4</v>
@@ -68879,10 +68903,10 @@
         <v>0.6</v>
       </c>
       <c r="AS352">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AT352">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AU352">
         <v>1.37</v>
@@ -69070,7 +69094,7 @@
         <v>0.86</v>
       </c>
       <c r="AS353">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AT353">
         <v>0.87</v>
@@ -69261,7 +69285,7 @@
         <v>0.5</v>
       </c>
       <c r="AS354">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AT354">
         <v>0.47</v>
@@ -69455,7 +69479,7 @@
         <v>1.53</v>
       </c>
       <c r="AT355">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU355">
         <v>1.45</v>
@@ -69643,7 +69667,7 @@
         <v>1.73</v>
       </c>
       <c r="AS356">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT356">
         <v>1.69</v>
@@ -69747,7 +69771,7 @@
         <v>132</v>
       </c>
       <c r="P357" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="Q357">
         <v>10</v>
@@ -69834,10 +69858,10 @@
         <v>1.57</v>
       </c>
       <c r="AS357">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AT357">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AU357">
         <v>1.37</v>
@@ -69938,7 +69962,7 @@
         <v>277</v>
       </c>
       <c r="P358" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="Q358">
         <v>6</v>
@@ -70129,7 +70153,7 @@
         <v>93</v>
       </c>
       <c r="P359" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="Q359">
         <v>7</v>
@@ -70216,7 +70240,7 @@
         <v>1.43</v>
       </c>
       <c r="AS359">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AT359">
         <v>1.53</v>
@@ -70410,7 +70434,7 @@
         <v>0.75</v>
       </c>
       <c r="AT360">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU360">
         <v>1.28</v>
@@ -70601,7 +70625,7 @@
         <v>0.93</v>
       </c>
       <c r="AT361">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AU361">
         <v>1.51</v>
@@ -70792,7 +70816,7 @@
         <v>1.33</v>
       </c>
       <c r="AT362">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AU362">
         <v>1.46</v>
@@ -70983,7 +71007,7 @@
         <v>2.18</v>
       </c>
       <c r="AT363">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AU363">
         <v>1.48</v>
@@ -71171,7 +71195,7 @@
         <v>1.21</v>
       </c>
       <c r="AS364">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AT364">
         <v>1.2</v>
@@ -71275,7 +71299,7 @@
         <v>308</v>
       </c>
       <c r="P365" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="Q365">
         <v>4</v>
@@ -71362,7 +71386,7 @@
         <v>0.8</v>
       </c>
       <c r="AS365">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AT365">
         <v>0.9399999999999999</v>
@@ -71417,6 +71441,2298 @@
       </c>
       <c r="BK365">
         <v>13</v>
+      </c>
+    </row>
+    <row r="366" spans="1:63">
+      <c r="A366" s="1">
+        <v>365</v>
+      </c>
+      <c r="B366">
+        <v>2569914</v>
+      </c>
+      <c r="C366" t="s">
+        <v>63</v>
+      </c>
+      <c r="D366" t="s">
+        <v>64</v>
+      </c>
+      <c r="E366" s="2">
+        <v>44975.5</v>
+      </c>
+      <c r="F366">
+        <v>33</v>
+      </c>
+      <c r="G366" t="s">
+        <v>65</v>
+      </c>
+      <c r="H366" t="s">
+        <v>78</v>
+      </c>
+      <c r="I366">
+        <v>1</v>
+      </c>
+      <c r="J366">
+        <v>0</v>
+      </c>
+      <c r="K366">
+        <v>1</v>
+      </c>
+      <c r="L366">
+        <v>1</v>
+      </c>
+      <c r="M366">
+        <v>0</v>
+      </c>
+      <c r="N366">
+        <v>1</v>
+      </c>
+      <c r="O366" t="s">
+        <v>166</v>
+      </c>
+      <c r="P366" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q366">
+        <v>1</v>
+      </c>
+      <c r="R366">
+        <v>7</v>
+      </c>
+      <c r="S366">
+        <v>8</v>
+      </c>
+      <c r="T366">
+        <v>3.5</v>
+      </c>
+      <c r="U366">
+        <v>2.1</v>
+      </c>
+      <c r="V366">
+        <v>3.2</v>
+      </c>
+      <c r="W366">
+        <v>1.44</v>
+      </c>
+      <c r="X366">
+        <v>2.63</v>
+      </c>
+      <c r="Y366">
+        <v>3</v>
+      </c>
+      <c r="Z366">
+        <v>1.36</v>
+      </c>
+      <c r="AA366">
+        <v>9</v>
+      </c>
+      <c r="AB366">
+        <v>1.07</v>
+      </c>
+      <c r="AC366">
+        <v>2.75</v>
+      </c>
+      <c r="AD366">
+        <v>3.2</v>
+      </c>
+      <c r="AE366">
+        <v>2.45</v>
+      </c>
+      <c r="AF366">
+        <v>1.05</v>
+      </c>
+      <c r="AG366">
+        <v>11</v>
+      </c>
+      <c r="AH366">
+        <v>1.33</v>
+      </c>
+      <c r="AI366">
+        <v>3.25</v>
+      </c>
+      <c r="AJ366">
+        <v>2.05</v>
+      </c>
+      <c r="AK366">
+        <v>1.72</v>
+      </c>
+      <c r="AL366">
+        <v>1.8</v>
+      </c>
+      <c r="AM366">
+        <v>1.95</v>
+      </c>
+      <c r="AN366">
+        <v>1.52</v>
+      </c>
+      <c r="AO366">
+        <v>1.28</v>
+      </c>
+      <c r="AP366">
+        <v>1.42</v>
+      </c>
+      <c r="AQ366">
+        <v>1</v>
+      </c>
+      <c r="AR366">
+        <v>1.47</v>
+      </c>
+      <c r="AS366">
+        <v>1.13</v>
+      </c>
+      <c r="AT366">
+        <v>1.38</v>
+      </c>
+      <c r="AU366">
+        <v>1.49</v>
+      </c>
+      <c r="AV366">
+        <v>1.12</v>
+      </c>
+      <c r="AW366">
+        <v>2.61</v>
+      </c>
+      <c r="AX366">
+        <v>1.95</v>
+      </c>
+      <c r="AY366">
+        <v>8</v>
+      </c>
+      <c r="AZ366">
+        <v>2.1</v>
+      </c>
+      <c r="BA366">
+        <v>1.23</v>
+      </c>
+      <c r="BB366">
+        <v>1.33</v>
+      </c>
+      <c r="BC366">
+        <v>1.6</v>
+      </c>
+      <c r="BD366">
+        <v>2.05</v>
+      </c>
+      <c r="BE366">
+        <v>2.7</v>
+      </c>
+      <c r="BF366">
+        <v>2</v>
+      </c>
+      <c r="BG366">
+        <v>3</v>
+      </c>
+      <c r="BH366">
+        <v>4</v>
+      </c>
+      <c r="BI366">
+        <v>7</v>
+      </c>
+      <c r="BJ366">
+        <v>6</v>
+      </c>
+      <c r="BK366">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="367" spans="1:63">
+      <c r="A367" s="1">
+        <v>366</v>
+      </c>
+      <c r="B367">
+        <v>2569922</v>
+      </c>
+      <c r="C367" t="s">
+        <v>63</v>
+      </c>
+      <c r="D367" t="s">
+        <v>64</v>
+      </c>
+      <c r="E367" s="2">
+        <v>44975.5</v>
+      </c>
+      <c r="F367">
+        <v>33</v>
+      </c>
+      <c r="G367" t="s">
+        <v>71</v>
+      </c>
+      <c r="H367" t="s">
+        <v>88</v>
+      </c>
+      <c r="I367">
+        <v>0</v>
+      </c>
+      <c r="J367">
+        <v>0</v>
+      </c>
+      <c r="K367">
+        <v>0</v>
+      </c>
+      <c r="L367">
+        <v>0</v>
+      </c>
+      <c r="M367">
+        <v>0</v>
+      </c>
+      <c r="N367">
+        <v>0</v>
+      </c>
+      <c r="O367" t="s">
+        <v>93</v>
+      </c>
+      <c r="P367" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q367">
+        <v>5</v>
+      </c>
+      <c r="R367">
+        <v>4</v>
+      </c>
+      <c r="S367">
+        <v>9</v>
+      </c>
+      <c r="T367">
+        <v>2.3</v>
+      </c>
+      <c r="U367">
+        <v>2.25</v>
+      </c>
+      <c r="V367">
+        <v>5</v>
+      </c>
+      <c r="W367">
+        <v>1.36</v>
+      </c>
+      <c r="X367">
+        <v>3</v>
+      </c>
+      <c r="Y367">
+        <v>2.75</v>
+      </c>
+      <c r="Z367">
+        <v>1.4</v>
+      </c>
+      <c r="AA367">
+        <v>7</v>
+      </c>
+      <c r="AB367">
+        <v>1.1</v>
+      </c>
+      <c r="AC367">
+        <v>1.71</v>
+      </c>
+      <c r="AD367">
+        <v>3.7</v>
+      </c>
+      <c r="AE367">
+        <v>4.3</v>
+      </c>
+      <c r="AF367">
+        <v>1.05</v>
+      </c>
+      <c r="AG367">
+        <v>9.25</v>
+      </c>
+      <c r="AH367">
+        <v>1.3</v>
+      </c>
+      <c r="AI367">
+        <v>3.4</v>
+      </c>
+      <c r="AJ367">
+        <v>1.82</v>
+      </c>
+      <c r="AK367">
+        <v>1.93</v>
+      </c>
+      <c r="AL367">
+        <v>1.8</v>
+      </c>
+      <c r="AM367">
+        <v>1.95</v>
+      </c>
+      <c r="AN367">
+        <v>1.18</v>
+      </c>
+      <c r="AO367">
+        <v>1.25</v>
+      </c>
+      <c r="AP367">
+        <v>2.1</v>
+      </c>
+      <c r="AQ367">
+        <v>2.8</v>
+      </c>
+      <c r="AR367">
+        <v>1.4</v>
+      </c>
+      <c r="AS367">
+        <v>2.69</v>
+      </c>
+      <c r="AT367">
+        <v>1.38</v>
+      </c>
+      <c r="AU367">
+        <v>1.85</v>
+      </c>
+      <c r="AV367">
+        <v>1.29</v>
+      </c>
+      <c r="AW367">
+        <v>3.14</v>
+      </c>
+      <c r="AX367">
+        <v>1.51</v>
+      </c>
+      <c r="AY367">
+        <v>8.5</v>
+      </c>
+      <c r="AZ367">
+        <v>3.07</v>
+      </c>
+      <c r="BA367">
+        <v>1.2</v>
+      </c>
+      <c r="BB367">
+        <v>1.39</v>
+      </c>
+      <c r="BC367">
+        <v>1.7</v>
+      </c>
+      <c r="BD367">
+        <v>2.2</v>
+      </c>
+      <c r="BE367">
+        <v>3</v>
+      </c>
+      <c r="BF367">
+        <v>3</v>
+      </c>
+      <c r="BG367">
+        <v>0</v>
+      </c>
+      <c r="BH367">
+        <v>11</v>
+      </c>
+      <c r="BI367">
+        <v>5</v>
+      </c>
+      <c r="BJ367">
+        <v>14</v>
+      </c>
+      <c r="BK367">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="368" spans="1:63">
+      <c r="A368" s="1">
+        <v>367</v>
+      </c>
+      <c r="B368">
+        <v>2569918</v>
+      </c>
+      <c r="C368" t="s">
+        <v>63</v>
+      </c>
+      <c r="D368" t="s">
+        <v>64</v>
+      </c>
+      <c r="E368" s="2">
+        <v>44975.5</v>
+      </c>
+      <c r="F368">
+        <v>33</v>
+      </c>
+      <c r="G368" t="s">
+        <v>72</v>
+      </c>
+      <c r="H368" t="s">
+        <v>85</v>
+      </c>
+      <c r="I368">
+        <v>1</v>
+      </c>
+      <c r="J368">
+        <v>0</v>
+      </c>
+      <c r="K368">
+        <v>1</v>
+      </c>
+      <c r="L368">
+        <v>2</v>
+      </c>
+      <c r="M368">
+        <v>0</v>
+      </c>
+      <c r="N368">
+        <v>2</v>
+      </c>
+      <c r="O368" t="s">
+        <v>309</v>
+      </c>
+      <c r="P368" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q368">
+        <v>9</v>
+      </c>
+      <c r="R368">
+        <v>2</v>
+      </c>
+      <c r="S368">
+        <v>11</v>
+      </c>
+      <c r="T368">
+        <v>2.3</v>
+      </c>
+      <c r="U368">
+        <v>2.3</v>
+      </c>
+      <c r="V368">
+        <v>5</v>
+      </c>
+      <c r="W368">
+        <v>1.33</v>
+      </c>
+      <c r="X368">
+        <v>3.25</v>
+      </c>
+      <c r="Y368">
+        <v>2.63</v>
+      </c>
+      <c r="Z368">
+        <v>1.44</v>
+      </c>
+      <c r="AA368">
+        <v>7</v>
+      </c>
+      <c r="AB368">
+        <v>1.1</v>
+      </c>
+      <c r="AC368">
+        <v>1.68</v>
+      </c>
+      <c r="AD368">
+        <v>3.7</v>
+      </c>
+      <c r="AE368">
+        <v>4.5</v>
+      </c>
+      <c r="AF368">
+        <v>1.03</v>
+      </c>
+      <c r="AG368">
+        <v>13</v>
+      </c>
+      <c r="AH368">
+        <v>1.22</v>
+      </c>
+      <c r="AI368">
+        <v>4</v>
+      </c>
+      <c r="AJ368">
+        <v>1.76</v>
+      </c>
+      <c r="AK368">
+        <v>2</v>
+      </c>
+      <c r="AL368">
+        <v>1.75</v>
+      </c>
+      <c r="AM368">
+        <v>2</v>
+      </c>
+      <c r="AN368">
+        <v>1.18</v>
+      </c>
+      <c r="AO368">
+        <v>1.25</v>
+      </c>
+      <c r="AP368">
+        <v>2.14</v>
+      </c>
+      <c r="AQ368">
+        <v>2.2</v>
+      </c>
+      <c r="AR368">
+        <v>1.21</v>
+      </c>
+      <c r="AS368">
+        <v>2.25</v>
+      </c>
+      <c r="AT368">
+        <v>1.13</v>
+      </c>
+      <c r="AU368">
+        <v>1.79</v>
+      </c>
+      <c r="AV368">
+        <v>1.17</v>
+      </c>
+      <c r="AW368">
+        <v>2.96</v>
+      </c>
+      <c r="AX368">
+        <v>1.34</v>
+      </c>
+      <c r="AY368">
+        <v>9.5</v>
+      </c>
+      <c r="AZ368">
+        <v>3.86</v>
+      </c>
+      <c r="BA368">
+        <v>1.2</v>
+      </c>
+      <c r="BB368">
+        <v>1.39</v>
+      </c>
+      <c r="BC368">
+        <v>1.7</v>
+      </c>
+      <c r="BD368">
+        <v>2.2</v>
+      </c>
+      <c r="BE368">
+        <v>3</v>
+      </c>
+      <c r="BF368">
+        <v>9</v>
+      </c>
+      <c r="BG368">
+        <v>3</v>
+      </c>
+      <c r="BH368">
+        <v>8</v>
+      </c>
+      <c r="BI368">
+        <v>4</v>
+      </c>
+      <c r="BJ368">
+        <v>17</v>
+      </c>
+      <c r="BK368">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="369" spans="1:63">
+      <c r="A369" s="1">
+        <v>368</v>
+      </c>
+      <c r="B369">
+        <v>2569917</v>
+      </c>
+      <c r="C369" t="s">
+        <v>63</v>
+      </c>
+      <c r="D369" t="s">
+        <v>64</v>
+      </c>
+      <c r="E369" s="2">
+        <v>44975.5</v>
+      </c>
+      <c r="F369">
+        <v>33</v>
+      </c>
+      <c r="G369" t="s">
+        <v>73</v>
+      </c>
+      <c r="H369" t="s">
+        <v>87</v>
+      </c>
+      <c r="I369">
+        <v>0</v>
+      </c>
+      <c r="J369">
+        <v>3</v>
+      </c>
+      <c r="K369">
+        <v>3</v>
+      </c>
+      <c r="L369">
+        <v>0</v>
+      </c>
+      <c r="M369">
+        <v>4</v>
+      </c>
+      <c r="N369">
+        <v>4</v>
+      </c>
+      <c r="O369" t="s">
+        <v>93</v>
+      </c>
+      <c r="P369" t="s">
+        <v>445</v>
+      </c>
+      <c r="Q369">
+        <v>5</v>
+      </c>
+      <c r="R369">
+        <v>5</v>
+      </c>
+      <c r="S369">
+        <v>10</v>
+      </c>
+      <c r="T369">
+        <v>4.33</v>
+      </c>
+      <c r="U369">
+        <v>2.05</v>
+      </c>
+      <c r="V369">
+        <v>2.75</v>
+      </c>
+      <c r="W369">
+        <v>1.44</v>
+      </c>
+      <c r="X369">
+        <v>2.63</v>
+      </c>
+      <c r="Y369">
+        <v>3.25</v>
+      </c>
+      <c r="Z369">
+        <v>1.33</v>
+      </c>
+      <c r="AA369">
+        <v>10</v>
+      </c>
+      <c r="AB369">
+        <v>1.06</v>
+      </c>
+      <c r="AC369">
+        <v>3.4</v>
+      </c>
+      <c r="AD369">
+        <v>3.25</v>
+      </c>
+      <c r="AE369">
+        <v>2.07</v>
+      </c>
+      <c r="AF369">
+        <v>1.06</v>
+      </c>
+      <c r="AG369">
+        <v>9.5</v>
+      </c>
+      <c r="AH369">
+        <v>1.38</v>
+      </c>
+      <c r="AI369">
+        <v>3</v>
+      </c>
+      <c r="AJ369">
+        <v>2.16</v>
+      </c>
+      <c r="AK369">
+        <v>1.66</v>
+      </c>
+      <c r="AL369">
+        <v>1.95</v>
+      </c>
+      <c r="AM369">
+        <v>1.8</v>
+      </c>
+      <c r="AN369">
+        <v>1.73</v>
+      </c>
+      <c r="AO369">
+        <v>1.32</v>
+      </c>
+      <c r="AP369">
+        <v>1.3</v>
+      </c>
+      <c r="AQ369">
+        <v>1.29</v>
+      </c>
+      <c r="AR369">
+        <v>1.67</v>
+      </c>
+      <c r="AS369">
+        <v>1.2</v>
+      </c>
+      <c r="AT369">
+        <v>1.75</v>
+      </c>
+      <c r="AU369">
+        <v>1.51</v>
+      </c>
+      <c r="AV369">
+        <v>1.38</v>
+      </c>
+      <c r="AW369">
+        <v>2.89</v>
+      </c>
+      <c r="AX369">
+        <v>2.44</v>
+      </c>
+      <c r="AY369">
+        <v>8</v>
+      </c>
+      <c r="AZ369">
+        <v>1.75</v>
+      </c>
+      <c r="BA369">
+        <v>1.2</v>
+      </c>
+      <c r="BB369">
+        <v>1.39</v>
+      </c>
+      <c r="BC369">
+        <v>1.7</v>
+      </c>
+      <c r="BD369">
+        <v>2.2</v>
+      </c>
+      <c r="BE369">
+        <v>2.95</v>
+      </c>
+      <c r="BF369">
+        <v>2</v>
+      </c>
+      <c r="BG369">
+        <v>5</v>
+      </c>
+      <c r="BH369">
+        <v>5</v>
+      </c>
+      <c r="BI369">
+        <v>3</v>
+      </c>
+      <c r="BJ369">
+        <v>7</v>
+      </c>
+      <c r="BK369">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="370" spans="1:63">
+      <c r="A370" s="1">
+        <v>369</v>
+      </c>
+      <c r="B370">
+        <v>2569925</v>
+      </c>
+      <c r="C370" t="s">
+        <v>63</v>
+      </c>
+      <c r="D370" t="s">
+        <v>64</v>
+      </c>
+      <c r="E370" s="2">
+        <v>44975.5</v>
+      </c>
+      <c r="F370">
+        <v>33</v>
+      </c>
+      <c r="G370" t="s">
+        <v>66</v>
+      </c>
+      <c r="H370" t="s">
+        <v>86</v>
+      </c>
+      <c r="I370">
+        <v>1</v>
+      </c>
+      <c r="J370">
+        <v>0</v>
+      </c>
+      <c r="K370">
+        <v>1</v>
+      </c>
+      <c r="L370">
+        <v>1</v>
+      </c>
+      <c r="M370">
+        <v>0</v>
+      </c>
+      <c r="N370">
+        <v>1</v>
+      </c>
+      <c r="O370" t="s">
+        <v>310</v>
+      </c>
+      <c r="P370" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q370">
+        <v>7</v>
+      </c>
+      <c r="R370">
+        <v>7</v>
+      </c>
+      <c r="S370">
+        <v>14</v>
+      </c>
+      <c r="T370">
+        <v>3.25</v>
+      </c>
+      <c r="U370">
+        <v>2.1</v>
+      </c>
+      <c r="V370">
+        <v>3.25</v>
+      </c>
+      <c r="W370">
+        <v>1.44</v>
+      </c>
+      <c r="X370">
+        <v>2.63</v>
+      </c>
+      <c r="Y370">
+        <v>3.25</v>
+      </c>
+      <c r="Z370">
+        <v>1.33</v>
+      </c>
+      <c r="AA370">
+        <v>9</v>
+      </c>
+      <c r="AB370">
+        <v>1.07</v>
+      </c>
+      <c r="AC370">
+        <v>2.55</v>
+      </c>
+      <c r="AD370">
+        <v>3.3</v>
+      </c>
+      <c r="AE370">
+        <v>2.55</v>
+      </c>
+      <c r="AF370">
+        <v>1.06</v>
+      </c>
+      <c r="AG370">
+        <v>7.5</v>
+      </c>
+      <c r="AH370">
+        <v>1.33</v>
+      </c>
+      <c r="AI370">
+        <v>3.25</v>
+      </c>
+      <c r="AJ370">
+        <v>2.07</v>
+      </c>
+      <c r="AK370">
+        <v>1.71</v>
+      </c>
+      <c r="AL370">
+        <v>1.8</v>
+      </c>
+      <c r="AM370">
+        <v>1.95</v>
+      </c>
+      <c r="AN370">
+        <v>1.52</v>
+      </c>
+      <c r="AO370">
+        <v>1.33</v>
+      </c>
+      <c r="AP370">
+        <v>1.32</v>
+      </c>
+      <c r="AQ370">
+        <v>1.8</v>
+      </c>
+      <c r="AR370">
+        <v>1.47</v>
+      </c>
+      <c r="AS370">
+        <v>1.88</v>
+      </c>
+      <c r="AT370">
+        <v>1.38</v>
+      </c>
+      <c r="AU370">
+        <v>1.81</v>
+      </c>
+      <c r="AV370">
+        <v>1.41</v>
+      </c>
+      <c r="AW370">
+        <v>3.22</v>
+      </c>
+      <c r="AX370">
+        <v>2.1</v>
+      </c>
+      <c r="AY370">
+        <v>8</v>
+      </c>
+      <c r="AZ370">
+        <v>1.91</v>
+      </c>
+      <c r="BA370">
+        <v>1.19</v>
+      </c>
+      <c r="BB370">
+        <v>1.31</v>
+      </c>
+      <c r="BC370">
+        <v>1.57</v>
+      </c>
+      <c r="BD370">
+        <v>1.98</v>
+      </c>
+      <c r="BE370">
+        <v>2.6</v>
+      </c>
+      <c r="BF370">
+        <v>7</v>
+      </c>
+      <c r="BG370">
+        <v>4</v>
+      </c>
+      <c r="BH370">
+        <v>7</v>
+      </c>
+      <c r="BI370">
+        <v>4</v>
+      </c>
+      <c r="BJ370">
+        <v>14</v>
+      </c>
+      <c r="BK370">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="371" spans="1:63">
+      <c r="A371" s="1">
+        <v>370</v>
+      </c>
+      <c r="B371">
+        <v>2569924</v>
+      </c>
+      <c r="C371" t="s">
+        <v>63</v>
+      </c>
+      <c r="D371" t="s">
+        <v>64</v>
+      </c>
+      <c r="E371" s="2">
+        <v>44975.5</v>
+      </c>
+      <c r="F371">
+        <v>33</v>
+      </c>
+      <c r="G371" t="s">
+        <v>67</v>
+      </c>
+      <c r="H371" t="s">
+        <v>77</v>
+      </c>
+      <c r="I371">
+        <v>1</v>
+      </c>
+      <c r="J371">
+        <v>2</v>
+      </c>
+      <c r="K371">
+        <v>3</v>
+      </c>
+      <c r="L371">
+        <v>5</v>
+      </c>
+      <c r="M371">
+        <v>2</v>
+      </c>
+      <c r="N371">
+        <v>7</v>
+      </c>
+      <c r="O371" t="s">
+        <v>311</v>
+      </c>
+      <c r="P371" t="s">
+        <v>446</v>
+      </c>
+      <c r="Q371">
+        <v>10</v>
+      </c>
+      <c r="R371">
+        <v>2</v>
+      </c>
+      <c r="S371">
+        <v>12</v>
+      </c>
+      <c r="T371">
+        <v>2.05</v>
+      </c>
+      <c r="U371">
+        <v>2.4</v>
+      </c>
+      <c r="V371">
+        <v>6</v>
+      </c>
+      <c r="W371">
+        <v>1.33</v>
+      </c>
+      <c r="X371">
+        <v>3.25</v>
+      </c>
+      <c r="Y371">
+        <v>2.5</v>
+      </c>
+      <c r="Z371">
+        <v>1.5</v>
+      </c>
+      <c r="AA371">
+        <v>6.5</v>
+      </c>
+      <c r="AB371">
+        <v>1.11</v>
+      </c>
+      <c r="AC371">
+        <v>1.49</v>
+      </c>
+      <c r="AD371">
+        <v>4.2</v>
+      </c>
+      <c r="AE371">
+        <v>5.6</v>
+      </c>
+      <c r="AF371">
+        <v>1.03</v>
+      </c>
+      <c r="AG371">
+        <v>14</v>
+      </c>
+      <c r="AH371">
+        <v>1.25</v>
+      </c>
+      <c r="AI371">
+        <v>3.7</v>
+      </c>
+      <c r="AJ371">
+        <v>1.68</v>
+      </c>
+      <c r="AK371">
+        <v>2.12</v>
+      </c>
+      <c r="AL371">
+        <v>1.8</v>
+      </c>
+      <c r="AM371">
+        <v>1.95</v>
+      </c>
+      <c r="AN371">
+        <v>1.1</v>
+      </c>
+      <c r="AO371">
+        <v>1.17</v>
+      </c>
+      <c r="AP371">
+        <v>2.7</v>
+      </c>
+      <c r="AQ371">
+        <v>2.31</v>
+      </c>
+      <c r="AR371">
+        <v>1.27</v>
+      </c>
+      <c r="AS371">
+        <v>2.35</v>
+      </c>
+      <c r="AT371">
+        <v>1.19</v>
+      </c>
+      <c r="AU371">
+        <v>1.78</v>
+      </c>
+      <c r="AV371">
+        <v>1.22</v>
+      </c>
+      <c r="AW371">
+        <v>3</v>
+      </c>
+      <c r="AX371">
+        <v>1.26</v>
+      </c>
+      <c r="AY371">
+        <v>10</v>
+      </c>
+      <c r="AZ371">
+        <v>4.84</v>
+      </c>
+      <c r="BA371">
+        <v>1.4</v>
+      </c>
+      <c r="BB371">
+        <v>1.67</v>
+      </c>
+      <c r="BC371">
+        <v>2.05</v>
+      </c>
+      <c r="BD371">
+        <v>2.63</v>
+      </c>
+      <c r="BE371">
+        <v>3.56</v>
+      </c>
+      <c r="BF371">
+        <v>9</v>
+      </c>
+      <c r="BG371">
+        <v>3</v>
+      </c>
+      <c r="BH371">
+        <v>7</v>
+      </c>
+      <c r="BI371">
+        <v>3</v>
+      </c>
+      <c r="BJ371">
+        <v>16</v>
+      </c>
+      <c r="BK371">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="372" spans="1:63">
+      <c r="A372" s="1">
+        <v>371</v>
+      </c>
+      <c r="B372">
+        <v>2569923</v>
+      </c>
+      <c r="C372" t="s">
+        <v>63</v>
+      </c>
+      <c r="D372" t="s">
+        <v>64</v>
+      </c>
+      <c r="E372" s="2">
+        <v>44975.5</v>
+      </c>
+      <c r="F372">
+        <v>33</v>
+      </c>
+      <c r="G372" t="s">
+        <v>68</v>
+      </c>
+      <c r="H372" t="s">
+        <v>84</v>
+      </c>
+      <c r="I372">
+        <v>0</v>
+      </c>
+      <c r="J372">
+        <v>0</v>
+      </c>
+      <c r="K372">
+        <v>0</v>
+      </c>
+      <c r="L372">
+        <v>1</v>
+      </c>
+      <c r="M372">
+        <v>0</v>
+      </c>
+      <c r="N372">
+        <v>1</v>
+      </c>
+      <c r="O372" t="s">
+        <v>223</v>
+      </c>
+      <c r="P372" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q372">
+        <v>5</v>
+      </c>
+      <c r="R372">
+        <v>3</v>
+      </c>
+      <c r="S372">
+        <v>8</v>
+      </c>
+      <c r="T372">
+        <v>3.1</v>
+      </c>
+      <c r="U372">
+        <v>2.1</v>
+      </c>
+      <c r="V372">
+        <v>3.5</v>
+      </c>
+      <c r="W372">
+        <v>1.4</v>
+      </c>
+      <c r="X372">
+        <v>2.75</v>
+      </c>
+      <c r="Y372">
+        <v>3</v>
+      </c>
+      <c r="Z372">
+        <v>1.36</v>
+      </c>
+      <c r="AA372">
+        <v>8</v>
+      </c>
+      <c r="AB372">
+        <v>1.08</v>
+      </c>
+      <c r="AC372">
+        <v>2.35</v>
+      </c>
+      <c r="AD372">
+        <v>3.3</v>
+      </c>
+      <c r="AE372">
+        <v>2.8</v>
+      </c>
+      <c r="AF372">
+        <v>1.05</v>
+      </c>
+      <c r="AG372">
+        <v>11</v>
+      </c>
+      <c r="AH372">
+        <v>1.35</v>
+      </c>
+      <c r="AI372">
+        <v>3.2</v>
+      </c>
+      <c r="AJ372">
+        <v>1.98</v>
+      </c>
+      <c r="AK372">
+        <v>1.78</v>
+      </c>
+      <c r="AL372">
+        <v>1.8</v>
+      </c>
+      <c r="AM372">
+        <v>1.95</v>
+      </c>
+      <c r="AN372">
+        <v>1.4</v>
+      </c>
+      <c r="AO372">
+        <v>1.25</v>
+      </c>
+      <c r="AP372">
+        <v>1.6</v>
+      </c>
+      <c r="AQ372">
+        <v>1.19</v>
+      </c>
+      <c r="AR372">
+        <v>1.19</v>
+      </c>
+      <c r="AS372">
+        <v>1.29</v>
+      </c>
+      <c r="AT372">
+        <v>1.12</v>
+      </c>
+      <c r="AU372">
+        <v>1.39</v>
+      </c>
+      <c r="AV372">
+        <v>1.43</v>
+      </c>
+      <c r="AW372">
+        <v>2.82</v>
+      </c>
+      <c r="AX372">
+        <v>2</v>
+      </c>
+      <c r="AY372">
+        <v>8</v>
+      </c>
+      <c r="AZ372">
+        <v>2.05</v>
+      </c>
+      <c r="BA372">
+        <v>1.18</v>
+      </c>
+      <c r="BB372">
+        <v>1.27</v>
+      </c>
+      <c r="BC372">
+        <v>1.5</v>
+      </c>
+      <c r="BD372">
+        <v>2</v>
+      </c>
+      <c r="BE372">
+        <v>2.45</v>
+      </c>
+      <c r="BF372">
+        <v>6</v>
+      </c>
+      <c r="BG372">
+        <v>0</v>
+      </c>
+      <c r="BH372">
+        <v>4</v>
+      </c>
+      <c r="BI372">
+        <v>5</v>
+      </c>
+      <c r="BJ372">
+        <v>10</v>
+      </c>
+      <c r="BK372">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="373" spans="1:63">
+      <c r="A373" s="1">
+        <v>372</v>
+      </c>
+      <c r="B373">
+        <v>2569915</v>
+      </c>
+      <c r="C373" t="s">
+        <v>63</v>
+      </c>
+      <c r="D373" t="s">
+        <v>64</v>
+      </c>
+      <c r="E373" s="2">
+        <v>44975.5</v>
+      </c>
+      <c r="F373">
+        <v>33</v>
+      </c>
+      <c r="G373" t="s">
+        <v>75</v>
+      </c>
+      <c r="H373" t="s">
+        <v>83</v>
+      </c>
+      <c r="I373">
+        <v>1</v>
+      </c>
+      <c r="J373">
+        <v>1</v>
+      </c>
+      <c r="K373">
+        <v>2</v>
+      </c>
+      <c r="L373">
+        <v>1</v>
+      </c>
+      <c r="M373">
+        <v>2</v>
+      </c>
+      <c r="N373">
+        <v>3</v>
+      </c>
+      <c r="O373" t="s">
+        <v>154</v>
+      </c>
+      <c r="P373" t="s">
+        <v>447</v>
+      </c>
+      <c r="Q373">
+        <v>8</v>
+      </c>
+      <c r="R373">
+        <v>5</v>
+      </c>
+      <c r="S373">
+        <v>13</v>
+      </c>
+      <c r="T373">
+        <v>2.88</v>
+      </c>
+      <c r="U373">
+        <v>2.25</v>
+      </c>
+      <c r="V373">
+        <v>3.6</v>
+      </c>
+      <c r="W373">
+        <v>1.36</v>
+      </c>
+      <c r="X373">
+        <v>3</v>
+      </c>
+      <c r="Y373">
+        <v>2.63</v>
+      </c>
+      <c r="Z373">
+        <v>1.44</v>
+      </c>
+      <c r="AA373">
+        <v>7</v>
+      </c>
+      <c r="AB373">
+        <v>1.1</v>
+      </c>
+      <c r="AC373">
+        <v>2.16</v>
+      </c>
+      <c r="AD373">
+        <v>3.2</v>
+      </c>
+      <c r="AE373">
+        <v>3.2</v>
+      </c>
+      <c r="AF373">
+        <v>1.03</v>
+      </c>
+      <c r="AG373">
+        <v>13</v>
+      </c>
+      <c r="AH373">
+        <v>1.25</v>
+      </c>
+      <c r="AI373">
+        <v>3.75</v>
+      </c>
+      <c r="AJ373">
+        <v>1.78</v>
+      </c>
+      <c r="AK373">
+        <v>1.98</v>
+      </c>
+      <c r="AL373">
+        <v>1.67</v>
+      </c>
+      <c r="AM373">
+        <v>2.1</v>
+      </c>
+      <c r="AN373">
+        <v>1.36</v>
+      </c>
+      <c r="AO373">
+        <v>1.29</v>
+      </c>
+      <c r="AP373">
+        <v>1.68</v>
+      </c>
+      <c r="AQ373">
+        <v>1.33</v>
+      </c>
+      <c r="AR373">
+        <v>0.8</v>
+      </c>
+      <c r="AS373">
+        <v>1.25</v>
+      </c>
+      <c r="AT373">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AU373">
+        <v>1.56</v>
+      </c>
+      <c r="AV373">
+        <v>1.32</v>
+      </c>
+      <c r="AW373">
+        <v>2.88</v>
+      </c>
+      <c r="AX373">
+        <v>1.83</v>
+      </c>
+      <c r="AY373">
+        <v>8.5</v>
+      </c>
+      <c r="AZ373">
+        <v>2.2</v>
+      </c>
+      <c r="BA373">
+        <v>1.15</v>
+      </c>
+      <c r="BB373">
+        <v>1.26</v>
+      </c>
+      <c r="BC373">
+        <v>1.47</v>
+      </c>
+      <c r="BD373">
+        <v>1.85</v>
+      </c>
+      <c r="BE373">
+        <v>2.35</v>
+      </c>
+      <c r="BF373">
+        <v>3</v>
+      </c>
+      <c r="BG373">
+        <v>10</v>
+      </c>
+      <c r="BH373">
+        <v>8</v>
+      </c>
+      <c r="BI373">
+        <v>3</v>
+      </c>
+      <c r="BJ373">
+        <v>11</v>
+      </c>
+      <c r="BK373">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="374" spans="1:63">
+      <c r="A374" s="1">
+        <v>373</v>
+      </c>
+      <c r="B374">
+        <v>2569916</v>
+      </c>
+      <c r="C374" t="s">
+        <v>63</v>
+      </c>
+      <c r="D374" t="s">
+        <v>64</v>
+      </c>
+      <c r="E374" s="2">
+        <v>44975.5</v>
+      </c>
+      <c r="F374">
+        <v>33</v>
+      </c>
+      <c r="G374" t="s">
+        <v>74</v>
+      </c>
+      <c r="H374" t="s">
+        <v>81</v>
+      </c>
+      <c r="I374">
+        <v>1</v>
+      </c>
+      <c r="J374">
+        <v>0</v>
+      </c>
+      <c r="K374">
+        <v>1</v>
+      </c>
+      <c r="L374">
+        <v>1</v>
+      </c>
+      <c r="M374">
+        <v>0</v>
+      </c>
+      <c r="N374">
+        <v>1</v>
+      </c>
+      <c r="O374" t="s">
+        <v>228</v>
+      </c>
+      <c r="P374" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q374">
+        <v>6</v>
+      </c>
+      <c r="R374">
+        <v>8</v>
+      </c>
+      <c r="S374">
+        <v>14</v>
+      </c>
+      <c r="T374">
+        <v>4.33</v>
+      </c>
+      <c r="U374">
+        <v>2.05</v>
+      </c>
+      <c r="V374">
+        <v>2.75</v>
+      </c>
+      <c r="W374">
+        <v>1.44</v>
+      </c>
+      <c r="X374">
+        <v>2.63</v>
+      </c>
+      <c r="Y374">
+        <v>3.25</v>
+      </c>
+      <c r="Z374">
+        <v>1.33</v>
+      </c>
+      <c r="AA374">
+        <v>10</v>
+      </c>
+      <c r="AB374">
+        <v>1.06</v>
+      </c>
+      <c r="AC374">
+        <v>3.4</v>
+      </c>
+      <c r="AD374">
+        <v>3.25</v>
+      </c>
+      <c r="AE374">
+        <v>2.07</v>
+      </c>
+      <c r="AF374">
+        <v>1.06</v>
+      </c>
+      <c r="AG374">
+        <v>9.5</v>
+      </c>
+      <c r="AH374">
+        <v>1.38</v>
+      </c>
+      <c r="AI374">
+        <v>3</v>
+      </c>
+      <c r="AJ374">
+        <v>2.16</v>
+      </c>
+      <c r="AK374">
+        <v>1.66</v>
+      </c>
+      <c r="AL374">
+        <v>1.95</v>
+      </c>
+      <c r="AM374">
+        <v>1.8</v>
+      </c>
+      <c r="AN374">
+        <v>1.73</v>
+      </c>
+      <c r="AO374">
+        <v>1.32</v>
+      </c>
+      <c r="AP374">
+        <v>1.3</v>
+      </c>
+      <c r="AQ374">
+        <v>1.2</v>
+      </c>
+      <c r="AR374">
+        <v>1.13</v>
+      </c>
+      <c r="AS374">
+        <v>1.31</v>
+      </c>
+      <c r="AT374">
+        <v>1.06</v>
+      </c>
+      <c r="AU374">
+        <v>1.28</v>
+      </c>
+      <c r="AV374">
+        <v>1.23</v>
+      </c>
+      <c r="AW374">
+        <v>2.51</v>
+      </c>
+      <c r="AX374">
+        <v>2.28</v>
+      </c>
+      <c r="AY374">
+        <v>8</v>
+      </c>
+      <c r="AZ374">
+        <v>1.85</v>
+      </c>
+      <c r="BA374">
+        <v>1.2</v>
+      </c>
+      <c r="BB374">
+        <v>1.39</v>
+      </c>
+      <c r="BC374">
+        <v>1.7</v>
+      </c>
+      <c r="BD374">
+        <v>2.2</v>
+      </c>
+      <c r="BE374">
+        <v>2.95</v>
+      </c>
+      <c r="BF374">
+        <v>4</v>
+      </c>
+      <c r="BG374">
+        <v>4</v>
+      </c>
+      <c r="BH374">
+        <v>2</v>
+      </c>
+      <c r="BI374">
+        <v>2</v>
+      </c>
+      <c r="BJ374">
+        <v>6</v>
+      </c>
+      <c r="BK374">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="375" spans="1:63">
+      <c r="A375" s="1">
+        <v>374</v>
+      </c>
+      <c r="B375">
+        <v>2569920</v>
+      </c>
+      <c r="C375" t="s">
+        <v>63</v>
+      </c>
+      <c r="D375" t="s">
+        <v>64</v>
+      </c>
+      <c r="E375" s="2">
+        <v>44975.5</v>
+      </c>
+      <c r="F375">
+        <v>33</v>
+      </c>
+      <c r="G375" t="s">
+        <v>70</v>
+      </c>
+      <c r="H375" t="s">
+        <v>79</v>
+      </c>
+      <c r="I375">
+        <v>0</v>
+      </c>
+      <c r="J375">
+        <v>0</v>
+      </c>
+      <c r="K375">
+        <v>0</v>
+      </c>
+      <c r="L375">
+        <v>0</v>
+      </c>
+      <c r="M375">
+        <v>0</v>
+      </c>
+      <c r="N375">
+        <v>0</v>
+      </c>
+      <c r="O375" t="s">
+        <v>93</v>
+      </c>
+      <c r="P375" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q375">
+        <v>9</v>
+      </c>
+      <c r="R375">
+        <v>4</v>
+      </c>
+      <c r="S375">
+        <v>13</v>
+      </c>
+      <c r="T375">
+        <v>3.6</v>
+      </c>
+      <c r="U375">
+        <v>2.05</v>
+      </c>
+      <c r="V375">
+        <v>3.2</v>
+      </c>
+      <c r="W375">
+        <v>1.44</v>
+      </c>
+      <c r="X375">
+        <v>2.63</v>
+      </c>
+      <c r="Y375">
+        <v>3.25</v>
+      </c>
+      <c r="Z375">
+        <v>1.33</v>
+      </c>
+      <c r="AA375">
+        <v>10</v>
+      </c>
+      <c r="AB375">
+        <v>1.06</v>
+      </c>
+      <c r="AC375">
+        <v>2.8</v>
+      </c>
+      <c r="AD375">
+        <v>3.15</v>
+      </c>
+      <c r="AE375">
+        <v>2.4</v>
+      </c>
+      <c r="AF375">
+        <v>1.06</v>
+      </c>
+      <c r="AG375">
+        <v>9.5</v>
+      </c>
+      <c r="AH375">
+        <v>1.38</v>
+      </c>
+      <c r="AI375">
+        <v>3</v>
+      </c>
+      <c r="AJ375">
+        <v>2.16</v>
+      </c>
+      <c r="AK375">
+        <v>1.65</v>
+      </c>
+      <c r="AL375">
+        <v>1.91</v>
+      </c>
+      <c r="AM375">
+        <v>1.91</v>
+      </c>
+      <c r="AN375">
+        <v>1.54</v>
+      </c>
+      <c r="AO375">
+        <v>1.33</v>
+      </c>
+      <c r="AP375">
+        <v>1.41</v>
+      </c>
+      <c r="AQ375">
+        <v>1.43</v>
+      </c>
+      <c r="AR375">
+        <v>1.29</v>
+      </c>
+      <c r="AS375">
+        <v>1.4</v>
+      </c>
+      <c r="AT375">
+        <v>1.27</v>
+      </c>
+      <c r="AU375">
+        <v>1.2</v>
+      </c>
+      <c r="AV375">
+        <v>1.5</v>
+      </c>
+      <c r="AW375">
+        <v>2.7</v>
+      </c>
+      <c r="AX375">
+        <v>2.05</v>
+      </c>
+      <c r="AY375">
+        <v>8</v>
+      </c>
+      <c r="AZ375">
+        <v>1.95</v>
+      </c>
+      <c r="BA375">
+        <v>1.19</v>
+      </c>
+      <c r="BB375">
+        <v>1.43</v>
+      </c>
+      <c r="BC375">
+        <v>1.67</v>
+      </c>
+      <c r="BD375">
+        <v>2.05</v>
+      </c>
+      <c r="BE375">
+        <v>2.6</v>
+      </c>
+      <c r="BF375">
+        <v>3</v>
+      </c>
+      <c r="BG375">
+        <v>6</v>
+      </c>
+      <c r="BH375">
+        <v>9</v>
+      </c>
+      <c r="BI375">
+        <v>6</v>
+      </c>
+      <c r="BJ375">
+        <v>12</v>
+      </c>
+      <c r="BK375">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="376" spans="1:63">
+      <c r="A376" s="1">
+        <v>375</v>
+      </c>
+      <c r="B376">
+        <v>2569919</v>
+      </c>
+      <c r="C376" t="s">
+        <v>63</v>
+      </c>
+      <c r="D376" t="s">
+        <v>64</v>
+      </c>
+      <c r="E376" s="2">
+        <v>44975.5</v>
+      </c>
+      <c r="F376">
+        <v>33</v>
+      </c>
+      <c r="G376" t="s">
+        <v>76</v>
+      </c>
+      <c r="H376" t="s">
+        <v>82</v>
+      </c>
+      <c r="I376">
+        <v>2</v>
+      </c>
+      <c r="J376">
+        <v>0</v>
+      </c>
+      <c r="K376">
+        <v>2</v>
+      </c>
+      <c r="L376">
+        <v>4</v>
+      </c>
+      <c r="M376">
+        <v>0</v>
+      </c>
+      <c r="N376">
+        <v>4</v>
+      </c>
+      <c r="O376" t="s">
+        <v>312</v>
+      </c>
+      <c r="P376" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q376">
+        <v>10</v>
+      </c>
+      <c r="R376">
+        <v>3</v>
+      </c>
+      <c r="S376">
+        <v>13</v>
+      </c>
+      <c r="T376">
+        <v>1.8</v>
+      </c>
+      <c r="U376">
+        <v>2.63</v>
+      </c>
+      <c r="V376">
+        <v>7.5</v>
+      </c>
+      <c r="W376">
+        <v>1.29</v>
+      </c>
+      <c r="X376">
+        <v>3.5</v>
+      </c>
+      <c r="Y376">
+        <v>2.25</v>
+      </c>
+      <c r="Z376">
+        <v>1.57</v>
+      </c>
+      <c r="AA376">
+        <v>5.5</v>
+      </c>
+      <c r="AB376">
+        <v>1.14</v>
+      </c>
+      <c r="AC376">
+        <v>1.33</v>
+      </c>
+      <c r="AD376">
+        <v>5</v>
+      </c>
+      <c r="AE376">
+        <v>7.5</v>
+      </c>
+      <c r="AF376">
+        <v>1.01</v>
+      </c>
+      <c r="AG376">
+        <v>19</v>
+      </c>
+      <c r="AH376">
+        <v>1.16</v>
+      </c>
+      <c r="AI376">
+        <v>5</v>
+      </c>
+      <c r="AJ376">
+        <v>1.53</v>
+      </c>
+      <c r="AK376">
+        <v>2.43</v>
+      </c>
+      <c r="AL376">
+        <v>1.91</v>
+      </c>
+      <c r="AM376">
+        <v>1.91</v>
+      </c>
+      <c r="AN376">
+        <v>1.08</v>
+      </c>
+      <c r="AO376">
+        <v>1.12</v>
+      </c>
+      <c r="AP376">
+        <v>3.2</v>
+      </c>
+      <c r="AQ376">
+        <v>2</v>
+      </c>
+      <c r="AR376">
+        <v>0.63</v>
+      </c>
+      <c r="AS376">
+        <v>2.06</v>
+      </c>
+      <c r="AT376">
+        <v>0.59</v>
+      </c>
+      <c r="AU376">
+        <v>2.11</v>
+      </c>
+      <c r="AV376">
+        <v>1.21</v>
+      </c>
+      <c r="AW376">
+        <v>3.32</v>
+      </c>
+      <c r="AX376">
+        <v>1.19</v>
+      </c>
+      <c r="AY376">
+        <v>11</v>
+      </c>
+      <c r="AZ376">
+        <v>5.65</v>
+      </c>
+      <c r="BA376">
+        <v>1.18</v>
+      </c>
+      <c r="BB376">
+        <v>1.34</v>
+      </c>
+      <c r="BC376">
+        <v>1.6</v>
+      </c>
+      <c r="BD376">
+        <v>2.05</v>
+      </c>
+      <c r="BE376">
+        <v>2.75</v>
+      </c>
+      <c r="BF376">
+        <v>13</v>
+      </c>
+      <c r="BG376">
+        <v>0</v>
+      </c>
+      <c r="BH376">
+        <v>8</v>
+      </c>
+      <c r="BI376">
+        <v>2</v>
+      </c>
+      <c r="BJ376">
+        <v>21</v>
+      </c>
+      <c r="BK376">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="377" spans="1:63">
+      <c r="A377" s="1">
+        <v>376</v>
+      </c>
+      <c r="B377">
+        <v>2569921</v>
+      </c>
+      <c r="C377" t="s">
+        <v>63</v>
+      </c>
+      <c r="D377" t="s">
+        <v>64</v>
+      </c>
+      <c r="E377" s="2">
+        <v>44975.5</v>
+      </c>
+      <c r="F377">
+        <v>33</v>
+      </c>
+      <c r="G377" t="s">
+        <v>69</v>
+      </c>
+      <c r="H377" t="s">
+        <v>80</v>
+      </c>
+      <c r="I377">
+        <v>0</v>
+      </c>
+      <c r="J377">
+        <v>3</v>
+      </c>
+      <c r="K377">
+        <v>3</v>
+      </c>
+      <c r="L377">
+        <v>0</v>
+      </c>
+      <c r="M377">
+        <v>3</v>
+      </c>
+      <c r="N377">
+        <v>3</v>
+      </c>
+      <c r="O377" t="s">
+        <v>93</v>
+      </c>
+      <c r="P377" t="s">
+        <v>448</v>
+      </c>
+      <c r="Q377">
+        <v>8</v>
+      </c>
+      <c r="R377">
+        <v>6</v>
+      </c>
+      <c r="S377">
+        <v>14</v>
+      </c>
+      <c r="T377">
+        <v>4.33</v>
+      </c>
+      <c r="U377">
+        <v>2.3</v>
+      </c>
+      <c r="V377">
+        <v>2.4</v>
+      </c>
+      <c r="W377">
+        <v>1.33</v>
+      </c>
+      <c r="X377">
+        <v>3.25</v>
+      </c>
+      <c r="Y377">
+        <v>2.5</v>
+      </c>
+      <c r="Z377">
+        <v>1.5</v>
+      </c>
+      <c r="AA377">
+        <v>6.5</v>
+      </c>
+      <c r="AB377">
+        <v>1.11</v>
+      </c>
+      <c r="AC377">
+        <v>3.85</v>
+      </c>
+      <c r="AD377">
+        <v>3.6</v>
+      </c>
+      <c r="AE377">
+        <v>1.82</v>
+      </c>
+      <c r="AF377">
+        <v>1.03</v>
+      </c>
+      <c r="AG377">
+        <v>15</v>
+      </c>
+      <c r="AH377">
+        <v>1.22</v>
+      </c>
+      <c r="AI377">
+        <v>4.2</v>
+      </c>
+      <c r="AJ377">
+        <v>1.68</v>
+      </c>
+      <c r="AK377">
+        <v>2.1</v>
+      </c>
+      <c r="AL377">
+        <v>1.67</v>
+      </c>
+      <c r="AM377">
+        <v>2.1</v>
+      </c>
+      <c r="AN377">
+        <v>1.93</v>
+      </c>
+      <c r="AO377">
+        <v>1.26</v>
+      </c>
+      <c r="AP377">
+        <v>1.26</v>
+      </c>
+      <c r="AQ377">
+        <v>1.4</v>
+      </c>
+      <c r="AR377">
+        <v>1.07</v>
+      </c>
+      <c r="AS377">
+        <v>1.31</v>
+      </c>
+      <c r="AT377">
+        <v>1.19</v>
+      </c>
+      <c r="AU377">
+        <v>1.35</v>
+      </c>
+      <c r="AV377">
+        <v>1.49</v>
+      </c>
+      <c r="AW377">
+        <v>2.84</v>
+      </c>
+      <c r="AX377">
+        <v>3.86</v>
+      </c>
+      <c r="AY377">
+        <v>9.5</v>
+      </c>
+      <c r="AZ377">
+        <v>1.34</v>
+      </c>
+      <c r="BA377">
+        <v>1.2</v>
+      </c>
+      <c r="BB377">
+        <v>1.36</v>
+      </c>
+      <c r="BC377">
+        <v>1.65</v>
+      </c>
+      <c r="BD377">
+        <v>2</v>
+      </c>
+      <c r="BE377">
+        <v>2.5</v>
+      </c>
+      <c r="BF377">
+        <v>2</v>
+      </c>
+      <c r="BG377">
+        <v>7</v>
+      </c>
+      <c r="BH377">
+        <v>10</v>
+      </c>
+      <c r="BI377">
+        <v>3</v>
+      </c>
+      <c r="BJ377">
+        <v>12</v>
+      </c>
+      <c r="BK377">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/England EFL League One_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/England EFL League One_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2403" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2427" uniqueCount="460">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -979,6 +979,12 @@
     <t>['5', '20', '26', '90+1']</t>
   </si>
   <si>
+    <t>['73', '84', '87']</t>
+  </si>
+  <si>
+    <t>['43', '67']</t>
+  </si>
+  <si>
     <t>['36', '90+4']</t>
   </si>
   <si>
@@ -1749,7 +1755,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK391"/>
+  <dimension ref="A1:BK395"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1993,7 +1999,7 @@
         <v>89</v>
       </c>
       <c r="P2" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q2">
         <v>6</v>
@@ -2375,7 +2381,7 @@
         <v>91</v>
       </c>
       <c r="P4" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q4">
         <v>7</v>
@@ -3035,7 +3041,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AT7">
         <v>1.12</v>
@@ -3417,7 +3423,7 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AT9">
         <v>1.06</v>
@@ -3521,7 +3527,7 @@
         <v>97</v>
       </c>
       <c r="P10" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q10">
         <v>2</v>
@@ -3802,7 +3808,7 @@
         <v>1.31</v>
       </c>
       <c r="AT11">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3903,7 +3909,7 @@
         <v>99</v>
       </c>
       <c r="P12" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q12">
         <v>4</v>
@@ -4184,7 +4190,7 @@
         <v>2.06</v>
       </c>
       <c r="AT13">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -4285,7 +4291,7 @@
         <v>93</v>
       </c>
       <c r="P14" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q14">
         <v>5</v>
@@ -4754,7 +4760,7 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT16">
         <v>1.19</v>
@@ -4945,7 +4951,7 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AT17">
         <v>0.44</v>
@@ -5240,7 +5246,7 @@
         <v>103</v>
       </c>
       <c r="P19" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -5431,7 +5437,7 @@
         <v>93</v>
       </c>
       <c r="P20" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -6285,7 +6291,7 @@
         <v>2.07</v>
       </c>
       <c r="AT24">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AU24">
         <v>0</v>
@@ -6386,7 +6392,7 @@
         <v>108</v>
       </c>
       <c r="P25" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q25">
         <v>2</v>
@@ -6959,7 +6965,7 @@
         <v>111</v>
       </c>
       <c r="P28" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q28">
         <v>12</v>
@@ -7431,7 +7437,7 @@
         <v>1.29</v>
       </c>
       <c r="AT30">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU30">
         <v>1.29</v>
@@ -7532,7 +7538,7 @@
         <v>113</v>
       </c>
       <c r="P31" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q31">
         <v>5</v>
@@ -8004,7 +8010,7 @@
         <v>2.06</v>
       </c>
       <c r="AT33">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AU33">
         <v>2</v>
@@ -8192,7 +8198,7 @@
         <v>0</v>
       </c>
       <c r="AS34">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AT34">
         <v>1.75</v>
@@ -8296,7 +8302,7 @@
         <v>93</v>
       </c>
       <c r="P35" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q35">
         <v>5</v>
@@ -8487,7 +8493,7 @@
         <v>117</v>
       </c>
       <c r="P36" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -8765,7 +8771,7 @@
         <v>3</v>
       </c>
       <c r="AS37">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AT37">
         <v>0.59</v>
@@ -9147,7 +9153,7 @@
         <v>0</v>
       </c>
       <c r="AS39">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT39">
         <v>0.47</v>
@@ -9338,7 +9344,7 @@
         <v>3</v>
       </c>
       <c r="AS40">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AT40">
         <v>2.07</v>
@@ -9442,7 +9448,7 @@
         <v>121</v>
       </c>
       <c r="P41" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q41">
         <v>10</v>
@@ -9914,7 +9920,7 @@
         <v>1.18</v>
       </c>
       <c r="AT43">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AU43">
         <v>0.57</v>
@@ -10970,7 +10976,7 @@
         <v>93</v>
       </c>
       <c r="P49" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q49">
         <v>2</v>
@@ -11161,7 +11167,7 @@
         <v>93</v>
       </c>
       <c r="P50" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q50">
         <v>6</v>
@@ -11439,7 +11445,7 @@
         <v>1.5</v>
       </c>
       <c r="AS51">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT51">
         <v>1.24</v>
@@ -11630,7 +11636,7 @@
         <v>2</v>
       </c>
       <c r="AS52">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AT52">
         <v>1.19</v>
@@ -12116,7 +12122,7 @@
         <v>130</v>
       </c>
       <c r="P55" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q55">
         <v>8</v>
@@ -12498,7 +12504,7 @@
         <v>93</v>
       </c>
       <c r="P57" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q57">
         <v>7</v>
@@ -12779,7 +12785,7 @@
         <v>1.44</v>
       </c>
       <c r="AT58">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AU58">
         <v>1.47</v>
@@ -12880,7 +12886,7 @@
         <v>93</v>
       </c>
       <c r="P59" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q59">
         <v>4</v>
@@ -13071,7 +13077,7 @@
         <v>93</v>
       </c>
       <c r="P60" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q60">
         <v>7</v>
@@ -13262,7 +13268,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q61">
         <v>9</v>
@@ -13925,7 +13931,7 @@
         <v>2.69</v>
       </c>
       <c r="AT64">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU64">
         <v>2.04</v>
@@ -14026,7 +14032,7 @@
         <v>93</v>
       </c>
       <c r="P65" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Q65">
         <v>7</v>
@@ -14116,7 +14122,7 @@
         <v>1.41</v>
       </c>
       <c r="AT65">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AU65">
         <v>1.3</v>
@@ -14217,7 +14223,7 @@
         <v>135</v>
       </c>
       <c r="P66" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q66">
         <v>3</v>
@@ -14304,7 +14310,7 @@
         <v>0.5</v>
       </c>
       <c r="AS66">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AT66">
         <v>1.38</v>
@@ -14408,7 +14414,7 @@
         <v>136</v>
       </c>
       <c r="P67" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Q67">
         <v>4</v>
@@ -14686,7 +14692,7 @@
         <v>1.5</v>
       </c>
       <c r="AS68">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AT68">
         <v>1.19</v>
@@ -14790,7 +14796,7 @@
         <v>118</v>
       </c>
       <c r="P69" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q69">
         <v>3</v>
@@ -14981,7 +14987,7 @@
         <v>138</v>
       </c>
       <c r="P70" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q70">
         <v>6</v>
@@ -15641,7 +15647,7 @@
         <v>1</v>
       </c>
       <c r="AS73">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT73">
         <v>1.19</v>
@@ -15745,7 +15751,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Q74">
         <v>2</v>
@@ -15835,7 +15841,7 @@
         <v>1.29</v>
       </c>
       <c r="AT74">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AU74">
         <v>1.45</v>
@@ -16127,7 +16133,7 @@
         <v>93</v>
       </c>
       <c r="P76" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Q76">
         <v>6</v>
@@ -16599,7 +16605,7 @@
         <v>1.44</v>
       </c>
       <c r="AT78">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AU78">
         <v>1.58</v>
@@ -16700,7 +16706,7 @@
         <v>93</v>
       </c>
       <c r="P79" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="Q79">
         <v>9</v>
@@ -17082,7 +17088,7 @@
         <v>145</v>
       </c>
       <c r="P81" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="Q81">
         <v>11</v>
@@ -17273,7 +17279,7 @@
         <v>146</v>
       </c>
       <c r="P82" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Q82">
         <v>5</v>
@@ -17464,7 +17470,7 @@
         <v>93</v>
       </c>
       <c r="P83" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Q83">
         <v>6</v>
@@ -17655,7 +17661,7 @@
         <v>147</v>
       </c>
       <c r="P84" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="Q84">
         <v>4</v>
@@ -17742,7 +17748,7 @@
         <v>1</v>
       </c>
       <c r="AS84">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AT84">
         <v>1.47</v>
@@ -17846,7 +17852,7 @@
         <v>148</v>
       </c>
       <c r="P85" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Q85">
         <v>1</v>
@@ -18037,7 +18043,7 @@
         <v>93</v>
       </c>
       <c r="P86" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -18228,7 +18234,7 @@
         <v>149</v>
       </c>
       <c r="P87" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q87">
         <v>9</v>
@@ -18697,7 +18703,7 @@
         <v>0.67</v>
       </c>
       <c r="AS89">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AT89">
         <v>1.31</v>
@@ -18801,7 +18807,7 @@
         <v>93</v>
       </c>
       <c r="P90" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="Q90">
         <v>3</v>
@@ -18891,7 +18897,7 @@
         <v>0.59</v>
       </c>
       <c r="AT90">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU90">
         <v>1.3</v>
@@ -18992,7 +18998,7 @@
         <v>93</v>
       </c>
       <c r="P91" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="Q91">
         <v>3</v>
@@ -19183,7 +19189,7 @@
         <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="Q92">
         <v>5</v>
@@ -19947,7 +19953,7 @@
         <v>93</v>
       </c>
       <c r="P96" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q96">
         <v>11</v>
@@ -20034,7 +20040,7 @@
         <v>0.67</v>
       </c>
       <c r="AS96">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AT96">
         <v>1.38</v>
@@ -20138,7 +20144,7 @@
         <v>156</v>
       </c>
       <c r="P97" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="Q97">
         <v>6</v>
@@ -20419,7 +20425,7 @@
         <v>1.13</v>
       </c>
       <c r="AT98">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AU98">
         <v>1.83</v>
@@ -20711,7 +20717,7 @@
         <v>159</v>
       </c>
       <c r="P100" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="Q100">
         <v>9</v>
@@ -20902,7 +20908,7 @@
         <v>93</v>
       </c>
       <c r="P101" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="Q101">
         <v>3</v>
@@ -21284,7 +21290,7 @@
         <v>160</v>
       </c>
       <c r="P103" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="Q103">
         <v>5</v>
@@ -21374,7 +21380,7 @@
         <v>1.06</v>
       </c>
       <c r="AT103">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AU103">
         <v>1.9</v>
@@ -21666,7 +21672,7 @@
         <v>162</v>
       </c>
       <c r="P105" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="Q105">
         <v>2</v>
@@ -21753,7 +21759,7 @@
         <v>1.5</v>
       </c>
       <c r="AS105">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT105">
         <v>1.47</v>
@@ -21857,7 +21863,7 @@
         <v>163</v>
       </c>
       <c r="P106" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="Q106">
         <v>3</v>
@@ -22048,7 +22054,7 @@
         <v>164</v>
       </c>
       <c r="P107" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q107">
         <v>8</v>
@@ -22135,7 +22141,7 @@
         <v>1</v>
       </c>
       <c r="AS107">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AT107">
         <v>1.44</v>
@@ -22239,7 +22245,7 @@
         <v>129</v>
       </c>
       <c r="P108" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="Q108">
         <v>9</v>
@@ -22430,7 +22436,7 @@
         <v>93</v>
       </c>
       <c r="P109" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="Q109">
         <v>5</v>
@@ -22621,7 +22627,7 @@
         <v>93</v>
       </c>
       <c r="P110" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="Q110">
         <v>3</v>
@@ -22812,7 +22818,7 @@
         <v>165</v>
       </c>
       <c r="P111" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="Q111">
         <v>4</v>
@@ -23194,7 +23200,7 @@
         <v>166</v>
       </c>
       <c r="P113" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="Q113">
         <v>0</v>
@@ -23472,7 +23478,7 @@
         <v>1</v>
       </c>
       <c r="AS114">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AT114">
         <v>1.06</v>
@@ -24149,7 +24155,7 @@
         <v>93</v>
       </c>
       <c r="P118" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="Q118">
         <v>5</v>
@@ -24340,7 +24346,7 @@
         <v>171</v>
       </c>
       <c r="P119" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="Q119">
         <v>6</v>
@@ -24722,7 +24728,7 @@
         <v>173</v>
       </c>
       <c r="P121" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="Q121">
         <v>1</v>
@@ -25104,7 +25110,7 @@
         <v>174</v>
       </c>
       <c r="P123" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="Q123">
         <v>9</v>
@@ -25868,7 +25874,7 @@
         <v>177</v>
       </c>
       <c r="P127" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="Q127">
         <v>8</v>
@@ -26059,7 +26065,7 @@
         <v>93</v>
       </c>
       <c r="P128" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="Q128">
         <v>2</v>
@@ -26250,7 +26256,7 @@
         <v>178</v>
       </c>
       <c r="P129" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="Q129">
         <v>5</v>
@@ -26722,7 +26728,7 @@
         <v>1.2</v>
       </c>
       <c r="AT131">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU131">
         <v>1.38</v>
@@ -27292,7 +27298,7 @@
         <v>0.5</v>
       </c>
       <c r="AS134">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AT134">
         <v>1.13</v>
@@ -27587,7 +27593,7 @@
         <v>93</v>
       </c>
       <c r="P136" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="Q136">
         <v>7</v>
@@ -27778,7 +27784,7 @@
         <v>109</v>
       </c>
       <c r="P137" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="Q137">
         <v>2</v>
@@ -28247,7 +28253,7 @@
         <v>0.67</v>
       </c>
       <c r="AS139">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AT139">
         <v>0.9399999999999999</v>
@@ -28542,7 +28548,7 @@
         <v>185</v>
       </c>
       <c r="P141" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q141">
         <v>6</v>
@@ -28629,7 +28635,7 @@
         <v>1.6</v>
       </c>
       <c r="AS141">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT141">
         <v>1.38</v>
@@ -28823,7 +28829,7 @@
         <v>2.35</v>
       </c>
       <c r="AT142">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AU142">
         <v>1.59</v>
@@ -28924,7 +28930,7 @@
         <v>187</v>
       </c>
       <c r="P143" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="Q143">
         <v>7</v>
@@ -29011,7 +29017,7 @@
         <v>0.8</v>
       </c>
       <c r="AS143">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AT143">
         <v>1.06</v>
@@ -29205,7 +29211,7 @@
         <v>0.76</v>
       </c>
       <c r="AT144">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU144">
         <v>1.35</v>
@@ -29396,7 +29402,7 @@
         <v>1.71</v>
       </c>
       <c r="AT145">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AU145">
         <v>1.24</v>
@@ -29497,7 +29503,7 @@
         <v>189</v>
       </c>
       <c r="P146" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="Q146">
         <v>4</v>
@@ -29688,7 +29694,7 @@
         <v>93</v>
       </c>
       <c r="P147" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Q147">
         <v>0</v>
@@ -29966,7 +29972,7 @@
         <v>1</v>
       </c>
       <c r="AS148">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AT148">
         <v>0.59</v>
@@ -30070,7 +30076,7 @@
         <v>93</v>
       </c>
       <c r="P149" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="Q149">
         <v>6</v>
@@ -30261,7 +30267,7 @@
         <v>191</v>
       </c>
       <c r="P150" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="Q150">
         <v>7</v>
@@ -30452,7 +30458,7 @@
         <v>192</v>
       </c>
       <c r="P151" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="Q151">
         <v>5</v>
@@ -31216,7 +31222,7 @@
         <v>94</v>
       </c>
       <c r="P155" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="Q155">
         <v>1</v>
@@ -31407,7 +31413,7 @@
         <v>193</v>
       </c>
       <c r="P156" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="Q156">
         <v>13</v>
@@ -31598,7 +31604,7 @@
         <v>194</v>
       </c>
       <c r="P157" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q157">
         <v>4</v>
@@ -31980,7 +31986,7 @@
         <v>93</v>
       </c>
       <c r="P159" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="Q159">
         <v>5</v>
@@ -32640,7 +32646,7 @@
         <v>2.14</v>
       </c>
       <c r="AS162">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AT162">
         <v>2.07</v>
@@ -32744,7 +32750,7 @@
         <v>197</v>
       </c>
       <c r="P163" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="Q163">
         <v>6</v>
@@ -33508,7 +33514,7 @@
         <v>198</v>
       </c>
       <c r="P167" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="Q167">
         <v>3</v>
@@ -33980,7 +33986,7 @@
         <v>1.25</v>
       </c>
       <c r="AT169">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AU169">
         <v>1.42</v>
@@ -34081,7 +34087,7 @@
         <v>200</v>
       </c>
       <c r="P170" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="Q170">
         <v>8</v>
@@ -34272,7 +34278,7 @@
         <v>201</v>
       </c>
       <c r="P171" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="Q171">
         <v>4</v>
@@ -34362,7 +34368,7 @@
         <v>1.13</v>
       </c>
       <c r="AT171">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU171">
         <v>1.62</v>
@@ -34654,7 +34660,7 @@
         <v>202</v>
       </c>
       <c r="P173" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="Q173">
         <v>11</v>
@@ -34932,7 +34938,7 @@
         <v>1.17</v>
       </c>
       <c r="AS174">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT174">
         <v>1.06</v>
@@ -35314,7 +35320,7 @@
         <v>1.17</v>
       </c>
       <c r="AS176">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AT176">
         <v>0.88</v>
@@ -35418,7 +35424,7 @@
         <v>153</v>
       </c>
       <c r="P177" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q177">
         <v>8</v>
@@ -35696,7 +35702,7 @@
         <v>1.14</v>
       </c>
       <c r="AS178">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AT178">
         <v>1.12</v>
@@ -35991,7 +35997,7 @@
         <v>93</v>
       </c>
       <c r="P180" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="Q180">
         <v>1</v>
@@ -36081,7 +36087,7 @@
         <v>1.35</v>
       </c>
       <c r="AT180">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AU180">
         <v>1.63</v>
@@ -36373,7 +36379,7 @@
         <v>208</v>
       </c>
       <c r="P182" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="Q182">
         <v>4</v>
@@ -36564,7 +36570,7 @@
         <v>93</v>
       </c>
       <c r="P183" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="Q183">
         <v>6</v>
@@ -37137,7 +37143,7 @@
         <v>211</v>
       </c>
       <c r="P186" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="Q186">
         <v>7</v>
@@ -37224,7 +37230,7 @@
         <v>1.38</v>
       </c>
       <c r="AS186">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AT186">
         <v>1.24</v>
@@ -37418,7 +37424,7 @@
         <v>1.2</v>
       </c>
       <c r="AT187">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AU187">
         <v>1.47</v>
@@ -37519,7 +37525,7 @@
         <v>212</v>
       </c>
       <c r="P188" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="Q188">
         <v>1</v>
@@ -37710,7 +37716,7 @@
         <v>213</v>
       </c>
       <c r="P189" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="Q189">
         <v>4</v>
@@ -38179,7 +38185,7 @@
         <v>0.88</v>
       </c>
       <c r="AS191">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AT191">
         <v>0.47</v>
@@ -38283,7 +38289,7 @@
         <v>216</v>
       </c>
       <c r="P192" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="Q192">
         <v>13</v>
@@ -38474,7 +38480,7 @@
         <v>217</v>
       </c>
       <c r="P193" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="Q193">
         <v>7</v>
@@ -38752,7 +38758,7 @@
         <v>1.38</v>
       </c>
       <c r="AS194">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT194">
         <v>1.38</v>
@@ -39047,7 +39053,7 @@
         <v>219</v>
       </c>
       <c r="P196" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="Q196">
         <v>6</v>
@@ -39238,7 +39244,7 @@
         <v>220</v>
       </c>
       <c r="P197" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="Q197">
         <v>3</v>
@@ -39620,7 +39626,7 @@
         <v>222</v>
       </c>
       <c r="P199" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="Q199">
         <v>6</v>
@@ -39811,7 +39817,7 @@
         <v>223</v>
       </c>
       <c r="P200" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="Q200">
         <v>7</v>
@@ -39898,7 +39904,7 @@
         <v>0.88</v>
       </c>
       <c r="AS200">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AT200">
         <v>0.88</v>
@@ -40002,7 +40008,7 @@
         <v>224</v>
       </c>
       <c r="P201" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q201">
         <v>12</v>
@@ -40766,7 +40772,7 @@
         <v>131</v>
       </c>
       <c r="P205" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="Q205">
         <v>6</v>
@@ -41044,7 +41050,7 @@
         <v>1.75</v>
       </c>
       <c r="AS206">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AT206">
         <v>1.47</v>
@@ -41238,7 +41244,7 @@
         <v>2.06</v>
       </c>
       <c r="AT207">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AU207">
         <v>2.16</v>
@@ -41339,7 +41345,7 @@
         <v>229</v>
       </c>
       <c r="P208" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="Q208">
         <v>4</v>
@@ -41530,7 +41536,7 @@
         <v>93</v>
       </c>
       <c r="P209" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="Q209">
         <v>6</v>
@@ -41721,7 +41727,7 @@
         <v>230</v>
       </c>
       <c r="P210" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="Q210">
         <v>12</v>
@@ -41912,7 +41918,7 @@
         <v>231</v>
       </c>
       <c r="P211" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="Q211">
         <v>8</v>
@@ -42384,7 +42390,7 @@
         <v>1.31</v>
       </c>
       <c r="AT213">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU213">
         <v>1.37</v>
@@ -42572,7 +42578,7 @@
         <v>1.33</v>
       </c>
       <c r="AS214">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT214">
         <v>1.31</v>
@@ -42676,7 +42682,7 @@
         <v>93</v>
       </c>
       <c r="P215" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="Q215">
         <v>6</v>
@@ -43336,7 +43342,7 @@
         <v>0.78</v>
       </c>
       <c r="AS218">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AT218">
         <v>0.44</v>
@@ -43440,7 +43446,7 @@
         <v>234</v>
       </c>
       <c r="P219" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="Q219">
         <v>2</v>
@@ -43530,7 +43536,7 @@
         <v>1.18</v>
       </c>
       <c r="AT219">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU219">
         <v>1.43</v>
@@ -44013,7 +44019,7 @@
         <v>237</v>
       </c>
       <c r="P222" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="Q222">
         <v>9</v>
@@ -44485,7 +44491,7 @@
         <v>2.07</v>
       </c>
       <c r="AT224">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AU224">
         <v>1.6</v>
@@ -44867,7 +44873,7 @@
         <v>1.35</v>
       </c>
       <c r="AT226">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AU226">
         <v>1.5</v>
@@ -44968,7 +44974,7 @@
         <v>155</v>
       </c>
       <c r="P227" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="Q227">
         <v>3</v>
@@ -45055,7 +45061,7 @@
         <v>1.56</v>
       </c>
       <c r="AS227">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AT227">
         <v>1.75</v>
@@ -45350,7 +45356,7 @@
         <v>93</v>
       </c>
       <c r="P229" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="Q229">
         <v>4</v>
@@ -45732,7 +45738,7 @@
         <v>241</v>
       </c>
       <c r="P231" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="Q231">
         <v>5</v>
@@ -46392,7 +46398,7 @@
         <v>2.11</v>
       </c>
       <c r="AS234">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AT234">
         <v>2.07</v>
@@ -47069,7 +47075,7 @@
         <v>246</v>
       </c>
       <c r="P238" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="Q238">
         <v>6</v>
@@ -47159,7 +47165,7 @@
         <v>1.71</v>
       </c>
       <c r="AT238">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU238">
         <v>1.31</v>
@@ -47541,7 +47547,7 @@
         <v>0.76</v>
       </c>
       <c r="AT240">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AU240">
         <v>1.3</v>
@@ -47642,7 +47648,7 @@
         <v>249</v>
       </c>
       <c r="P241" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q241">
         <v>10</v>
@@ -47833,7 +47839,7 @@
         <v>197</v>
       </c>
       <c r="P242" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="Q242">
         <v>6</v>
@@ -48111,7 +48117,7 @@
         <v>1.3</v>
       </c>
       <c r="AS243">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AT243">
         <v>1.44</v>
@@ -49170,7 +49176,7 @@
         <v>252</v>
       </c>
       <c r="P249" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="Q249">
         <v>7</v>
@@ -49448,7 +49454,7 @@
         <v>0.8</v>
       </c>
       <c r="AS250">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AT250">
         <v>0.59</v>
@@ -49743,7 +49749,7 @@
         <v>216</v>
       </c>
       <c r="P252" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="Q252">
         <v>9</v>
@@ -50125,7 +50131,7 @@
         <v>93</v>
       </c>
       <c r="P254" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="Q254">
         <v>6</v>
@@ -50212,10 +50218,10 @@
         <v>1.11</v>
       </c>
       <c r="AS254">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT254">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AU254">
         <v>1.44</v>
@@ -51653,7 +51659,7 @@
         <v>228</v>
       </c>
       <c r="P262" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="Q262">
         <v>3</v>
@@ -52226,7 +52232,7 @@
         <v>259</v>
       </c>
       <c r="P265" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Q265">
         <v>3</v>
@@ -52698,7 +52704,7 @@
         <v>1.71</v>
       </c>
       <c r="AT267">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AU267">
         <v>1.31</v>
@@ -52990,7 +52996,7 @@
         <v>261</v>
       </c>
       <c r="P269" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="Q269">
         <v>3</v>
@@ -53077,7 +53083,7 @@
         <v>2.09</v>
       </c>
       <c r="AS269">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT269">
         <v>1.76</v>
@@ -53459,10 +53465,10 @@
         <v>1.3</v>
       </c>
       <c r="AS271">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AT271">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AU271">
         <v>1.87</v>
@@ -53754,7 +53760,7 @@
         <v>102</v>
       </c>
       <c r="P273" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="Q273">
         <v>6</v>
@@ -53945,7 +53951,7 @@
         <v>265</v>
       </c>
       <c r="P274" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="Q274">
         <v>3</v>
@@ -54605,7 +54611,7 @@
         <v>0.7</v>
       </c>
       <c r="AS277">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AT277">
         <v>0.47</v>
@@ -54796,10 +54802,10 @@
         <v>1.2</v>
       </c>
       <c r="AS278">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AT278">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU278">
         <v>1.22</v>
@@ -54900,7 +54906,7 @@
         <v>269</v>
       </c>
       <c r="P279" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q279">
         <v>5</v>
@@ -54990,7 +54996,7 @@
         <v>1.25</v>
       </c>
       <c r="AT279">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AU279">
         <v>1.63</v>
@@ -55181,7 +55187,7 @@
         <v>2.69</v>
       </c>
       <c r="AT280">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AU280">
         <v>1.83</v>
@@ -55282,7 +55288,7 @@
         <v>209</v>
       </c>
       <c r="P281" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="Q281">
         <v>7</v>
@@ -55369,7 +55375,7 @@
         <v>0.73</v>
       </c>
       <c r="AS281">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT281">
         <v>1.13</v>
@@ -55473,7 +55479,7 @@
         <v>93</v>
       </c>
       <c r="P282" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="Q282">
         <v>8</v>
@@ -55560,7 +55566,7 @@
         <v>1.17</v>
       </c>
       <c r="AS282">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AT282">
         <v>1.44</v>
@@ -55664,7 +55670,7 @@
         <v>241</v>
       </c>
       <c r="P283" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="Q283">
         <v>2</v>
@@ -56237,7 +56243,7 @@
         <v>93</v>
       </c>
       <c r="P286" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="Q286">
         <v>8</v>
@@ -56706,7 +56712,7 @@
         <v>1</v>
       </c>
       <c r="AS288">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AT288">
         <v>0.88</v>
@@ -56810,7 +56816,7 @@
         <v>93</v>
       </c>
       <c r="P289" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="Q289">
         <v>3</v>
@@ -56900,7 +56906,7 @@
         <v>2.07</v>
       </c>
       <c r="AT289">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU289">
         <v>1.64</v>
@@ -57088,7 +57094,7 @@
         <v>2</v>
       </c>
       <c r="AS290">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AT290">
         <v>1.76</v>
@@ -57192,7 +57198,7 @@
         <v>274</v>
       </c>
       <c r="P291" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Q291">
         <v>0</v>
@@ -57383,7 +57389,7 @@
         <v>187</v>
       </c>
       <c r="P292" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="Q292">
         <v>9</v>
@@ -57664,7 +57670,7 @@
         <v>1.41</v>
       </c>
       <c r="AT293">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AU293">
         <v>1.33</v>
@@ -58147,7 +58153,7 @@
         <v>276</v>
       </c>
       <c r="P296" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="Q296">
         <v>3</v>
@@ -58529,7 +58535,7 @@
         <v>277</v>
       </c>
       <c r="P298" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="Q298">
         <v>10</v>
@@ -59102,7 +59108,7 @@
         <v>93</v>
       </c>
       <c r="P301" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="Q301">
         <v>9</v>
@@ -59866,7 +59872,7 @@
         <v>93</v>
       </c>
       <c r="P305" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="Q305">
         <v>1</v>
@@ -60335,10 +60341,10 @@
         <v>1.33</v>
       </c>
       <c r="AS307">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AT307">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU307">
         <v>1.67</v>
@@ -60529,7 +60535,7 @@
         <v>0.76</v>
       </c>
       <c r="AT308">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AU308">
         <v>1.32</v>
@@ -60821,7 +60827,7 @@
         <v>284</v>
       </c>
       <c r="P310" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="Q310">
         <v>6</v>
@@ -60911,7 +60917,7 @@
         <v>2.69</v>
       </c>
       <c r="AT310">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AU310">
         <v>1.83</v>
@@ -61099,7 +61105,7 @@
         <v>1.23</v>
       </c>
       <c r="AS311">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT311">
         <v>1.12</v>
@@ -61585,7 +61591,7 @@
         <v>130</v>
       </c>
       <c r="P314" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="Q314">
         <v>7</v>
@@ -62540,7 +62546,7 @@
         <v>93</v>
       </c>
       <c r="P319" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="Q319">
         <v>4</v>
@@ -62731,7 +62737,7 @@
         <v>196</v>
       </c>
       <c r="P320" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="Q320">
         <v>6</v>
@@ -62821,7 +62827,7 @@
         <v>1.35</v>
       </c>
       <c r="AT320">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU320">
         <v>1.51</v>
@@ -63009,7 +63015,7 @@
         <v>0.54</v>
       </c>
       <c r="AS321">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AT321">
         <v>0.47</v>
@@ -63200,7 +63206,7 @@
         <v>1.5</v>
       </c>
       <c r="AS322">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AT322">
         <v>1.27</v>
@@ -63877,7 +63883,7 @@
         <v>93</v>
       </c>
       <c r="P326" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="Q326">
         <v>5</v>
@@ -64068,7 +64074,7 @@
         <v>293</v>
       </c>
       <c r="P327" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="Q327">
         <v>3</v>
@@ -64259,7 +64265,7 @@
         <v>99</v>
       </c>
       <c r="P328" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="Q328">
         <v>10</v>
@@ -64450,7 +64456,7 @@
         <v>93</v>
       </c>
       <c r="P329" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="Q329">
         <v>8</v>
@@ -64832,7 +64838,7 @@
         <v>93</v>
       </c>
       <c r="P331" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="Q331">
         <v>1</v>
@@ -65023,7 +65029,7 @@
         <v>93</v>
       </c>
       <c r="P332" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="Q332">
         <v>5</v>
@@ -65304,7 +65310,7 @@
         <v>1.25</v>
       </c>
       <c r="AT333">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AU333">
         <v>1.63</v>
@@ -65495,7 +65501,7 @@
         <v>2.22</v>
       </c>
       <c r="AT334">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AU334">
         <v>1.5</v>
@@ -65683,7 +65689,7 @@
         <v>0.54</v>
       </c>
       <c r="AS335">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AT335">
         <v>0.44</v>
@@ -65787,7 +65793,7 @@
         <v>295</v>
       </c>
       <c r="P336" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="Q336">
         <v>14</v>
@@ -65978,7 +65984,7 @@
         <v>296</v>
       </c>
       <c r="P337" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="Q337">
         <v>5</v>
@@ -66169,7 +66175,7 @@
         <v>93</v>
       </c>
       <c r="P338" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="Q338">
         <v>6</v>
@@ -66447,7 +66453,7 @@
         <v>1.62</v>
       </c>
       <c r="AS339">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT339">
         <v>1.75</v>
@@ -67020,7 +67026,7 @@
         <v>1.2</v>
       </c>
       <c r="AS342">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AT342">
         <v>1.24</v>
@@ -67506,7 +67512,7 @@
         <v>299</v>
       </c>
       <c r="P345" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="Q345">
         <v>2</v>
@@ -67697,7 +67703,7 @@
         <v>300</v>
       </c>
       <c r="P346" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="Q346">
         <v>6</v>
@@ -68079,7 +68085,7 @@
         <v>302</v>
       </c>
       <c r="P348" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="Q348">
         <v>7</v>
@@ -68461,7 +68467,7 @@
         <v>93</v>
       </c>
       <c r="P350" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="Q350">
         <v>8</v>
@@ -68548,10 +68554,10 @@
         <v>1.36</v>
       </c>
       <c r="AS350">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AT350">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU350">
         <v>1.9</v>
@@ -68652,7 +68658,7 @@
         <v>304</v>
       </c>
       <c r="P351" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="Q351">
         <v>5</v>
@@ -69503,7 +69509,7 @@
         <v>0.86</v>
       </c>
       <c r="AS355">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT355">
         <v>0.9399999999999999</v>
@@ -69798,7 +69804,7 @@
         <v>132</v>
       </c>
       <c r="P357" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="Q357">
         <v>10</v>
@@ -69989,7 +69995,7 @@
         <v>277</v>
       </c>
       <c r="P358" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="Q358">
         <v>6</v>
@@ -70180,7 +70186,7 @@
         <v>93</v>
       </c>
       <c r="P359" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="Q359">
         <v>7</v>
@@ -71034,7 +71040,7 @@
         <v>2.22</v>
       </c>
       <c r="AT363">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AU363">
         <v>1.48</v>
@@ -71222,7 +71228,7 @@
         <v>1.21</v>
       </c>
       <c r="AS364">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AT364">
         <v>1.19</v>
@@ -71326,7 +71332,7 @@
         <v>308</v>
       </c>
       <c r="P365" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="Q365">
         <v>4</v>
@@ -71416,7 +71422,7 @@
         <v>1.31</v>
       </c>
       <c r="AT365">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AU365">
         <v>1.27</v>
@@ -71986,7 +71992,7 @@
         <v>1.21</v>
       </c>
       <c r="AS368">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AT368">
         <v>1.13</v>
@@ -72090,7 +72096,7 @@
         <v>93</v>
       </c>
       <c r="P369" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="Q369">
         <v>5</v>
@@ -72371,7 +72377,7 @@
         <v>1.88</v>
       </c>
       <c r="AT370">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU370">
         <v>1.81</v>
@@ -72472,7 +72478,7 @@
         <v>311</v>
       </c>
       <c r="P371" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="Q371">
         <v>10</v>
@@ -72562,7 +72568,7 @@
         <v>2.35</v>
       </c>
       <c r="AT371">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AU371">
         <v>1.78</v>
@@ -72854,7 +72860,7 @@
         <v>154</v>
       </c>
       <c r="P373" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="Q373">
         <v>8</v>
@@ -73323,7 +73329,7 @@
         <v>1.29</v>
       </c>
       <c r="AS375">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AT375">
         <v>1.27</v>
@@ -73618,7 +73624,7 @@
         <v>93</v>
       </c>
       <c r="P377" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="Q377">
         <v>8</v>
@@ -74191,7 +74197,7 @@
         <v>93</v>
       </c>
       <c r="P380" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="Q380">
         <v>6</v>
@@ -75337,7 +75343,7 @@
         <v>256</v>
       </c>
       <c r="P386" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Q386">
         <v>2</v>
@@ -76101,7 +76107,7 @@
         <v>319</v>
       </c>
       <c r="P390" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="Q390">
         <v>4</v>
@@ -76188,7 +76194,7 @@
         <v>1.56</v>
       </c>
       <c r="AS390">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AT390">
         <v>1.47</v>
@@ -76379,10 +76385,10 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AS391">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT391">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AU391">
         <v>1.5</v>
@@ -76434,6 +76440,770 @@
       </c>
       <c r="BK391">
         <v>10</v>
+      </c>
+    </row>
+    <row r="392" spans="1:63">
+      <c r="A392" s="1">
+        <v>391</v>
+      </c>
+      <c r="B392">
+        <v>2568059</v>
+      </c>
+      <c r="C392" t="s">
+        <v>63</v>
+      </c>
+      <c r="D392" t="s">
+        <v>64</v>
+      </c>
+      <c r="E392" s="2">
+        <v>44985.69791666666</v>
+      </c>
+      <c r="F392">
+        <v>11</v>
+      </c>
+      <c r="G392" t="s">
+        <v>79</v>
+      </c>
+      <c r="H392" t="s">
+        <v>86</v>
+      </c>
+      <c r="I392">
+        <v>0</v>
+      </c>
+      <c r="J392">
+        <v>0</v>
+      </c>
+      <c r="K392">
+        <v>0</v>
+      </c>
+      <c r="L392">
+        <v>3</v>
+      </c>
+      <c r="M392">
+        <v>1</v>
+      </c>
+      <c r="N392">
+        <v>4</v>
+      </c>
+      <c r="O392" t="s">
+        <v>321</v>
+      </c>
+      <c r="P392" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q392">
+        <v>6</v>
+      </c>
+      <c r="R392">
+        <v>2</v>
+      </c>
+      <c r="S392">
+        <v>8</v>
+      </c>
+      <c r="T392">
+        <v>2.97</v>
+      </c>
+      <c r="U392">
+        <v>2.11</v>
+      </c>
+      <c r="V392">
+        <v>3.62</v>
+      </c>
+      <c r="W392">
+        <v>1.42</v>
+      </c>
+      <c r="X392">
+        <v>2.78</v>
+      </c>
+      <c r="Y392">
+        <v>2.94</v>
+      </c>
+      <c r="Z392">
+        <v>1.38</v>
+      </c>
+      <c r="AA392">
+        <v>7.6</v>
+      </c>
+      <c r="AB392">
+        <v>1.07</v>
+      </c>
+      <c r="AC392">
+        <v>2.81</v>
+      </c>
+      <c r="AD392">
+        <v>3.3</v>
+      </c>
+      <c r="AE392">
+        <v>2.4</v>
+      </c>
+      <c r="AF392">
+        <v>1.02</v>
+      </c>
+      <c r="AG392">
+        <v>8.6</v>
+      </c>
+      <c r="AH392">
+        <v>1.31</v>
+      </c>
+      <c r="AI392">
+        <v>3.2</v>
+      </c>
+      <c r="AJ392">
+        <v>1.97</v>
+      </c>
+      <c r="AK392">
+        <v>1.78</v>
+      </c>
+      <c r="AL392">
+        <v>1.79</v>
+      </c>
+      <c r="AM392">
+        <v>1.98</v>
+      </c>
+      <c r="AN392">
+        <v>1.43</v>
+      </c>
+      <c r="AO392">
+        <v>1.35</v>
+      </c>
+      <c r="AP392">
+        <v>1.62</v>
+      </c>
+      <c r="AQ392">
+        <v>1.63</v>
+      </c>
+      <c r="AR392">
+        <v>1.38</v>
+      </c>
+      <c r="AS392">
+        <v>1.71</v>
+      </c>
+      <c r="AT392">
+        <v>1.29</v>
+      </c>
+      <c r="AU392">
+        <v>1.51</v>
+      </c>
+      <c r="AV392">
+        <v>1.39</v>
+      </c>
+      <c r="AW392">
+        <v>2.9</v>
+      </c>
+      <c r="AX392">
+        <v>2.2</v>
+      </c>
+      <c r="AY392">
+        <v>8</v>
+      </c>
+      <c r="AZ392">
+        <v>1.91</v>
+      </c>
+      <c r="BA392">
+        <v>1.21</v>
+      </c>
+      <c r="BB392">
+        <v>1.41</v>
+      </c>
+      <c r="BC392">
+        <v>1.75</v>
+      </c>
+      <c r="BD392">
+        <v>2.19</v>
+      </c>
+      <c r="BE392">
+        <v>2.93</v>
+      </c>
+      <c r="BF392">
+        <v>5</v>
+      </c>
+      <c r="BG392">
+        <v>2</v>
+      </c>
+      <c r="BH392">
+        <v>13</v>
+      </c>
+      <c r="BI392">
+        <v>8</v>
+      </c>
+      <c r="BJ392">
+        <v>18</v>
+      </c>
+      <c r="BK392">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="393" spans="1:63">
+      <c r="A393" s="1">
+        <v>392</v>
+      </c>
+      <c r="B393">
+        <v>2569861</v>
+      </c>
+      <c r="C393" t="s">
+        <v>63</v>
+      </c>
+      <c r="D393" t="s">
+        <v>64</v>
+      </c>
+      <c r="E393" s="2">
+        <v>44985.69791666666</v>
+      </c>
+      <c r="F393">
+        <v>28</v>
+      </c>
+      <c r="G393" t="s">
+        <v>80</v>
+      </c>
+      <c r="H393" t="s">
+        <v>85</v>
+      </c>
+      <c r="I393">
+        <v>0</v>
+      </c>
+      <c r="J393">
+        <v>0</v>
+      </c>
+      <c r="K393">
+        <v>0</v>
+      </c>
+      <c r="L393">
+        <v>0</v>
+      </c>
+      <c r="M393">
+        <v>0</v>
+      </c>
+      <c r="N393">
+        <v>0</v>
+      </c>
+      <c r="O393" t="s">
+        <v>93</v>
+      </c>
+      <c r="P393" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q393">
+        <v>5</v>
+      </c>
+      <c r="R393">
+        <v>8</v>
+      </c>
+      <c r="S393">
+        <v>13</v>
+      </c>
+      <c r="T393">
+        <v>2.45</v>
+      </c>
+      <c r="U393">
+        <v>2.25</v>
+      </c>
+      <c r="V393">
+        <v>4.5</v>
+      </c>
+      <c r="W393">
+        <v>1.34</v>
+      </c>
+      <c r="X393">
+        <v>3</v>
+      </c>
+      <c r="Y393">
+        <v>2.65</v>
+      </c>
+      <c r="Z393">
+        <v>1.43</v>
+      </c>
+      <c r="AA393">
+        <v>6.45</v>
+      </c>
+      <c r="AB393">
+        <v>1.09</v>
+      </c>
+      <c r="AC393">
+        <v>1.78</v>
+      </c>
+      <c r="AD393">
+        <v>3.75</v>
+      </c>
+      <c r="AE393">
+        <v>4.06</v>
+      </c>
+      <c r="AF393">
+        <v>1.04</v>
+      </c>
+      <c r="AG393">
+        <v>12</v>
+      </c>
+      <c r="AH393">
+        <v>1.25</v>
+      </c>
+      <c r="AI393">
+        <v>3.75</v>
+      </c>
+      <c r="AJ393">
+        <v>1.73</v>
+      </c>
+      <c r="AK393">
+        <v>2.03</v>
+      </c>
+      <c r="AL393">
+        <v>1.72</v>
+      </c>
+      <c r="AM393">
+        <v>2.05</v>
+      </c>
+      <c r="AN393">
+        <v>1.22</v>
+      </c>
+      <c r="AO393">
+        <v>1.22</v>
+      </c>
+      <c r="AP393">
+        <v>2</v>
+      </c>
+      <c r="AQ393">
+        <v>2.07</v>
+      </c>
+      <c r="AR393">
+        <v>1.13</v>
+      </c>
+      <c r="AS393">
+        <v>2</v>
+      </c>
+      <c r="AT393">
+        <v>1.13</v>
+      </c>
+      <c r="AU393">
+        <v>1.91</v>
+      </c>
+      <c r="AV393">
+        <v>1.15</v>
+      </c>
+      <c r="AW393">
+        <v>3.06</v>
+      </c>
+      <c r="AX393">
+        <v>1.44</v>
+      </c>
+      <c r="AY393">
+        <v>8</v>
+      </c>
+      <c r="AZ393">
+        <v>3.55</v>
+      </c>
+      <c r="BA393">
+        <v>1.2</v>
+      </c>
+      <c r="BB393">
+        <v>1.39</v>
+      </c>
+      <c r="BC393">
+        <v>1.7</v>
+      </c>
+      <c r="BD393">
+        <v>2.2</v>
+      </c>
+      <c r="BE393">
+        <v>3</v>
+      </c>
+      <c r="BF393">
+        <v>3</v>
+      </c>
+      <c r="BG393">
+        <v>3</v>
+      </c>
+      <c r="BH393">
+        <v>6</v>
+      </c>
+      <c r="BI393">
+        <v>13</v>
+      </c>
+      <c r="BJ393">
+        <v>9</v>
+      </c>
+      <c r="BK393">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="394" spans="1:63">
+      <c r="A394" s="1">
+        <v>393</v>
+      </c>
+      <c r="B394">
+        <v>2568054</v>
+      </c>
+      <c r="C394" t="s">
+        <v>63</v>
+      </c>
+      <c r="D394" t="s">
+        <v>64</v>
+      </c>
+      <c r="E394" s="2">
+        <v>44985.69791666666</v>
+      </c>
+      <c r="F394">
+        <v>11</v>
+      </c>
+      <c r="G394" t="s">
+        <v>70</v>
+      </c>
+      <c r="H394" t="s">
+        <v>77</v>
+      </c>
+      <c r="I394">
+        <v>1</v>
+      </c>
+      <c r="J394">
+        <v>0</v>
+      </c>
+      <c r="K394">
+        <v>1</v>
+      </c>
+      <c r="L394">
+        <v>1</v>
+      </c>
+      <c r="M394">
+        <v>1</v>
+      </c>
+      <c r="N394">
+        <v>2</v>
+      </c>
+      <c r="O394" t="s">
+        <v>187</v>
+      </c>
+      <c r="P394" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q394">
+        <v>5</v>
+      </c>
+      <c r="R394">
+        <v>3</v>
+      </c>
+      <c r="S394">
+        <v>8</v>
+      </c>
+      <c r="T394">
+        <v>3.2</v>
+      </c>
+      <c r="U394">
+        <v>2.1</v>
+      </c>
+      <c r="V394">
+        <v>3.4</v>
+      </c>
+      <c r="W394">
+        <v>1.44</v>
+      </c>
+      <c r="X394">
+        <v>2.63</v>
+      </c>
+      <c r="Y394">
+        <v>3.25</v>
+      </c>
+      <c r="Z394">
+        <v>1.33</v>
+      </c>
+      <c r="AA394">
+        <v>9</v>
+      </c>
+      <c r="AB394">
+        <v>1.07</v>
+      </c>
+      <c r="AC394">
+        <v>2.25</v>
+      </c>
+      <c r="AD394">
+        <v>3.2</v>
+      </c>
+      <c r="AE394">
+        <v>3.14</v>
+      </c>
+      <c r="AF394">
+        <v>1.03</v>
+      </c>
+      <c r="AG394">
+        <v>8</v>
+      </c>
+      <c r="AH394">
+        <v>1.35</v>
+      </c>
+      <c r="AI394">
+        <v>2.98</v>
+      </c>
+      <c r="AJ394">
+        <v>2.31</v>
+      </c>
+      <c r="AK394">
+        <v>1.57</v>
+      </c>
+      <c r="AL394">
+        <v>1.8</v>
+      </c>
+      <c r="AM394">
+        <v>1.95</v>
+      </c>
+      <c r="AN394">
+        <v>1.44</v>
+      </c>
+      <c r="AO394">
+        <v>1.28</v>
+      </c>
+      <c r="AP394">
+        <v>1.55</v>
+      </c>
+      <c r="AQ394">
+        <v>1.4</v>
+      </c>
+      <c r="AR394">
+        <v>1.19</v>
+      </c>
+      <c r="AS394">
+        <v>1.38</v>
+      </c>
+      <c r="AT394">
+        <v>1.18</v>
+      </c>
+      <c r="AU394">
+        <v>1.19</v>
+      </c>
+      <c r="AV394">
+        <v>1.18</v>
+      </c>
+      <c r="AW394">
+        <v>2.37</v>
+      </c>
+      <c r="AX394">
+        <v>1.75</v>
+      </c>
+      <c r="AY394">
+        <v>8</v>
+      </c>
+      <c r="AZ394">
+        <v>2.52</v>
+      </c>
+      <c r="BA394">
+        <v>1.27</v>
+      </c>
+      <c r="BB394">
+        <v>1.52</v>
+      </c>
+      <c r="BC394">
+        <v>2</v>
+      </c>
+      <c r="BD394">
+        <v>2.49</v>
+      </c>
+      <c r="BE394">
+        <v>3.42</v>
+      </c>
+      <c r="BF394">
+        <v>2</v>
+      </c>
+      <c r="BG394">
+        <v>4</v>
+      </c>
+      <c r="BH394">
+        <v>9</v>
+      </c>
+      <c r="BI394">
+        <v>4</v>
+      </c>
+      <c r="BJ394">
+        <v>11</v>
+      </c>
+      <c r="BK394">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="395" spans="1:63">
+      <c r="A395" s="1">
+        <v>394</v>
+      </c>
+      <c r="B395">
+        <v>2568052</v>
+      </c>
+      <c r="C395" t="s">
+        <v>63</v>
+      </c>
+      <c r="D395" t="s">
+        <v>64</v>
+      </c>
+      <c r="E395" s="2">
+        <v>44985.69791666666</v>
+      </c>
+      <c r="F395">
+        <v>11</v>
+      </c>
+      <c r="G395" t="s">
+        <v>72</v>
+      </c>
+      <c r="H395" t="s">
+        <v>73</v>
+      </c>
+      <c r="I395">
+        <v>1</v>
+      </c>
+      <c r="J395">
+        <v>0</v>
+      </c>
+      <c r="K395">
+        <v>1</v>
+      </c>
+      <c r="L395">
+        <v>2</v>
+      </c>
+      <c r="M395">
+        <v>0</v>
+      </c>
+      <c r="N395">
+        <v>2</v>
+      </c>
+      <c r="O395" t="s">
+        <v>322</v>
+      </c>
+      <c r="P395" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q395">
+        <v>3</v>
+      </c>
+      <c r="R395">
+        <v>2</v>
+      </c>
+      <c r="S395">
+        <v>5</v>
+      </c>
+      <c r="T395">
+        <v>2.1</v>
+      </c>
+      <c r="U395">
+        <v>2.25</v>
+      </c>
+      <c r="V395">
+        <v>6</v>
+      </c>
+      <c r="W395">
+        <v>1.4</v>
+      </c>
+      <c r="X395">
+        <v>2.75</v>
+      </c>
+      <c r="Y395">
+        <v>2.75</v>
+      </c>
+      <c r="Z395">
+        <v>1.4</v>
+      </c>
+      <c r="AA395">
+        <v>8</v>
+      </c>
+      <c r="AB395">
+        <v>1.08</v>
+      </c>
+      <c r="AC395">
+        <v>1.36</v>
+      </c>
+      <c r="AD395">
+        <v>4.7</v>
+      </c>
+      <c r="AE395">
+        <v>7.88</v>
+      </c>
+      <c r="AF395">
+        <v>1.02</v>
+      </c>
+      <c r="AG395">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AH395">
+        <v>1.31</v>
+      </c>
+      <c r="AI395">
+        <v>3.2</v>
+      </c>
+      <c r="AJ395">
+        <v>1.75</v>
+      </c>
+      <c r="AK395">
+        <v>2.01</v>
+      </c>
+      <c r="AL395">
+        <v>2</v>
+      </c>
+      <c r="AM395">
+        <v>1.75</v>
+      </c>
+      <c r="AN395">
+        <v>1.14</v>
+      </c>
+      <c r="AO395">
+        <v>1.2</v>
+      </c>
+      <c r="AP395">
+        <v>2.35</v>
+      </c>
+      <c r="AQ395">
+        <v>2.25</v>
+      </c>
+      <c r="AR395">
+        <v>0.88</v>
+      </c>
+      <c r="AS395">
+        <v>2.29</v>
+      </c>
+      <c r="AT395">
+        <v>0.83</v>
+      </c>
+      <c r="AU395">
+        <v>1.81</v>
+      </c>
+      <c r="AV395">
+        <v>1.07</v>
+      </c>
+      <c r="AW395">
+        <v>2.88</v>
+      </c>
+      <c r="AX395">
+        <v>1.26</v>
+      </c>
+      <c r="AY395">
+        <v>10</v>
+      </c>
+      <c r="AZ395">
+        <v>4.64</v>
+      </c>
+      <c r="BA395">
+        <v>1.25</v>
+      </c>
+      <c r="BB395">
+        <v>1.49</v>
+      </c>
+      <c r="BC395">
+        <v>1.85</v>
+      </c>
+      <c r="BD395">
+        <v>2.41</v>
+      </c>
+      <c r="BE395">
+        <v>3.28</v>
+      </c>
+      <c r="BF395">
+        <v>4</v>
+      </c>
+      <c r="BG395">
+        <v>0</v>
+      </c>
+      <c r="BH395">
+        <v>8</v>
+      </c>
+      <c r="BI395">
+        <v>6</v>
+      </c>
+      <c r="BJ395">
+        <v>12</v>
+      </c>
+      <c r="BK395">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/England EFL League One_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/England EFL League One_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2499" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2541" uniqueCount="470">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1003,6 +1003,21 @@
     <t>['44', '64']</t>
   </si>
   <si>
+    <t>['17', '87']</t>
+  </si>
+  <si>
+    <t>['12', '56', '90+4']</t>
+  </si>
+  <si>
+    <t>['4', '66']</t>
+  </si>
+  <si>
+    <t>['17', '20', '60']</t>
+  </si>
+  <si>
+    <t>['59', '70']</t>
+  </si>
+  <si>
     <t>['36', '90+4']</t>
   </si>
   <si>
@@ -1770,7 +1785,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK407"/>
+  <dimension ref="A1:BK414"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2014,7 +2029,7 @@
         <v>89</v>
       </c>
       <c r="P2" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="Q2">
         <v>6</v>
@@ -2292,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AT3">
         <v>0.88</v>
@@ -2396,7 +2411,7 @@
         <v>91</v>
       </c>
       <c r="P4" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="Q4">
         <v>7</v>
@@ -2486,7 +2501,7 @@
         <v>2.39</v>
       </c>
       <c r="AT4">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -2677,7 +2692,7 @@
         <v>1.39</v>
       </c>
       <c r="AT5">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2868,7 +2883,7 @@
         <v>1.39</v>
       </c>
       <c r="AT6">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -3247,7 +3262,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>2.71</v>
+        <v>2.72</v>
       </c>
       <c r="AT8">
         <v>1.71</v>
@@ -3542,7 +3557,7 @@
         <v>97</v>
       </c>
       <c r="P10" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="Q10">
         <v>2</v>
@@ -3629,7 +3644,7 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT10">
         <v>1.12</v>
@@ -3820,7 +3835,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AT11">
         <v>1.11</v>
@@ -3924,7 +3939,7 @@
         <v>99</v>
       </c>
       <c r="P12" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="Q12">
         <v>4</v>
@@ -4202,7 +4217,7 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AT13">
         <v>1.28</v>
@@ -4587,7 +4602,7 @@
         <v>1.71</v>
       </c>
       <c r="AT15">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -4778,7 +4793,7 @@
         <v>1.71</v>
       </c>
       <c r="AT16">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4966,10 +4981,10 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT17">
-        <v>0.44</v>
+        <v>0.47</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -5261,7 +5276,7 @@
         <v>103</v>
       </c>
       <c r="P19" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -5452,7 +5467,7 @@
         <v>93</v>
       </c>
       <c r="P20" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -5924,7 +5939,7 @@
         <v>1.35</v>
       </c>
       <c r="AT22">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AU22">
         <v>0</v>
@@ -6303,7 +6318,7 @@
         <v>0</v>
       </c>
       <c r="AS24">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT24">
         <v>0.83</v>
@@ -6876,7 +6891,7 @@
         <v>3</v>
       </c>
       <c r="AS27">
-        <v>2.71</v>
+        <v>2.72</v>
       </c>
       <c r="AT27">
         <v>1.12</v>
@@ -6980,7 +6995,7 @@
         <v>111</v>
       </c>
       <c r="P28" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="Q28">
         <v>12</v>
@@ -7067,10 +7082,10 @@
         <v>1</v>
       </c>
       <c r="AS28">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AT28">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AU28">
         <v>2.22</v>
@@ -7553,7 +7568,7 @@
         <v>113</v>
       </c>
       <c r="P31" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="Q31">
         <v>5</v>
@@ -7643,7 +7658,7 @@
         <v>1.39</v>
       </c>
       <c r="AT31">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AU31">
         <v>0.9</v>
@@ -7831,7 +7846,7 @@
         <v>1</v>
       </c>
       <c r="AS32">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AT32">
         <v>1.11</v>
@@ -8022,7 +8037,7 @@
         <v>0</v>
       </c>
       <c r="AS33">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AT33">
         <v>1.11</v>
@@ -8317,7 +8332,7 @@
         <v>93</v>
       </c>
       <c r="P35" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="Q35">
         <v>5</v>
@@ -8404,10 +8419,10 @@
         <v>1</v>
       </c>
       <c r="AS35">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT35">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU35">
         <v>1.65</v>
@@ -8508,7 +8523,7 @@
         <v>117</v>
       </c>
       <c r="P36" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -8980,7 +8995,7 @@
         <v>1.71</v>
       </c>
       <c r="AT38">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AU38">
         <v>1.48</v>
@@ -9359,7 +9374,7 @@
         <v>3</v>
       </c>
       <c r="AS40">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT40">
         <v>2.07</v>
@@ -9463,7 +9478,7 @@
         <v>121</v>
       </c>
       <c r="P41" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="Q41">
         <v>10</v>
@@ -9553,7 +9568,7 @@
         <v>1.06</v>
       </c>
       <c r="AT41">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AU41">
         <v>1.6</v>
@@ -10508,7 +10523,7 @@
         <v>2.22</v>
       </c>
       <c r="AT46">
-        <v>0.44</v>
+        <v>0.47</v>
       </c>
       <c r="AU46">
         <v>2.09</v>
@@ -10696,7 +10711,7 @@
         <v>3</v>
       </c>
       <c r="AS47">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT47">
         <v>1.24</v>
@@ -10991,7 +11006,7 @@
         <v>93</v>
       </c>
       <c r="P49" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="Q49">
         <v>2</v>
@@ -11182,7 +11197,7 @@
         <v>93</v>
       </c>
       <c r="P50" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="Q50">
         <v>6</v>
@@ -11651,10 +11666,10 @@
         <v>2</v>
       </c>
       <c r="AS52">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT52">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AU52">
         <v>2.06</v>
@@ -11845,7 +11860,7 @@
         <v>0.59</v>
       </c>
       <c r="AT53">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU53">
         <v>1.32</v>
@@ -12036,7 +12051,7 @@
         <v>1.18</v>
       </c>
       <c r="AT54">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AU54">
         <v>1.23</v>
@@ -12137,7 +12152,7 @@
         <v>130</v>
       </c>
       <c r="P55" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="Q55">
         <v>8</v>
@@ -12227,7 +12242,7 @@
         <v>1.06</v>
       </c>
       <c r="AT55">
-        <v>0.44</v>
+        <v>0.47</v>
       </c>
       <c r="AU55">
         <v>1.78</v>
@@ -12519,7 +12534,7 @@
         <v>93</v>
       </c>
       <c r="P57" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="Q57">
         <v>7</v>
@@ -12901,7 +12916,7 @@
         <v>93</v>
       </c>
       <c r="P59" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="Q59">
         <v>4</v>
@@ -13092,7 +13107,7 @@
         <v>93</v>
       </c>
       <c r="P60" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="Q60">
         <v>7</v>
@@ -13179,7 +13194,7 @@
         <v>0</v>
       </c>
       <c r="AS60">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT60">
         <v>1.44</v>
@@ -13283,7 +13298,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="Q61">
         <v>9</v>
@@ -13370,7 +13385,7 @@
         <v>0.5</v>
       </c>
       <c r="AS61">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AT61">
         <v>1.06</v>
@@ -13755,7 +13770,7 @@
         <v>1.39</v>
       </c>
       <c r="AT63">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU63">
         <v>1.61</v>
@@ -13943,7 +13958,7 @@
         <v>1</v>
       </c>
       <c r="AS64">
-        <v>2.71</v>
+        <v>2.72</v>
       </c>
       <c r="AT64">
         <v>1.28</v>
@@ -14047,7 +14062,7 @@
         <v>93</v>
       </c>
       <c r="P65" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="Q65">
         <v>7</v>
@@ -14238,7 +14253,7 @@
         <v>135</v>
       </c>
       <c r="P66" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="Q66">
         <v>3</v>
@@ -14328,7 +14343,7 @@
         <v>1.47</v>
       </c>
       <c r="AT66">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AU66">
         <v>1.42</v>
@@ -14429,7 +14444,7 @@
         <v>136</v>
       </c>
       <c r="P67" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="Q67">
         <v>4</v>
@@ -14516,7 +14531,7 @@
         <v>0</v>
       </c>
       <c r="AS67">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AT67">
         <v>1.71</v>
@@ -14811,7 +14826,7 @@
         <v>118</v>
       </c>
       <c r="P69" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="Q69">
         <v>3</v>
@@ -14898,7 +14913,7 @@
         <v>0</v>
       </c>
       <c r="AS69">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT69">
         <v>1</v>
@@ -15002,7 +15017,7 @@
         <v>138</v>
       </c>
       <c r="P70" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="Q70">
         <v>6</v>
@@ -15089,7 +15104,7 @@
         <v>0.5</v>
       </c>
       <c r="AS70">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AT70">
         <v>0.88</v>
@@ -15283,7 +15298,7 @@
         <v>1.24</v>
       </c>
       <c r="AT71">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AU71">
         <v>1.15</v>
@@ -15766,7 +15781,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="Q74">
         <v>2</v>
@@ -16148,7 +16163,7 @@
         <v>93</v>
       </c>
       <c r="P76" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="Q76">
         <v>6</v>
@@ -16238,7 +16253,7 @@
         <v>0.76</v>
       </c>
       <c r="AT76">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AU76">
         <v>1.23</v>
@@ -16721,7 +16736,7 @@
         <v>93</v>
       </c>
       <c r="P79" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="Q79">
         <v>9</v>
@@ -16999,10 +17014,10 @@
         <v>1.33</v>
       </c>
       <c r="AS80">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AT80">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AU80">
         <v>1.88</v>
@@ -17103,7 +17118,7 @@
         <v>145</v>
       </c>
       <c r="P81" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="Q81">
         <v>11</v>
@@ -17193,7 +17208,7 @@
         <v>1.24</v>
       </c>
       <c r="AT81">
-        <v>0.44</v>
+        <v>0.47</v>
       </c>
       <c r="AU81">
         <v>1.15</v>
@@ -17294,7 +17309,7 @@
         <v>146</v>
       </c>
       <c r="P82" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="Q82">
         <v>5</v>
@@ -17485,7 +17500,7 @@
         <v>93</v>
       </c>
       <c r="P83" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="Q83">
         <v>6</v>
@@ -17676,7 +17691,7 @@
         <v>147</v>
       </c>
       <c r="P84" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="Q84">
         <v>4</v>
@@ -17867,7 +17882,7 @@
         <v>148</v>
       </c>
       <c r="P85" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="Q85">
         <v>1</v>
@@ -17957,7 +17972,7 @@
         <v>0.76</v>
       </c>
       <c r="AT85">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU85">
         <v>1.43</v>
@@ -18058,7 +18073,7 @@
         <v>93</v>
       </c>
       <c r="P86" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -18148,7 +18163,7 @@
         <v>1.25</v>
       </c>
       <c r="AT86">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU86">
         <v>1.19</v>
@@ -18249,7 +18264,7 @@
         <v>149</v>
       </c>
       <c r="P87" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="Q87">
         <v>9</v>
@@ -18336,7 +18351,7 @@
         <v>1</v>
       </c>
       <c r="AS87">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT87">
         <v>1.06</v>
@@ -18527,7 +18542,7 @@
         <v>1</v>
       </c>
       <c r="AS88">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AT88">
         <v>1.24</v>
@@ -18721,7 +18736,7 @@
         <v>1.47</v>
       </c>
       <c r="AT89">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AU89">
         <v>1.31</v>
@@ -18822,7 +18837,7 @@
         <v>93</v>
       </c>
       <c r="P90" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="Q90">
         <v>3</v>
@@ -19013,7 +19028,7 @@
         <v>93</v>
       </c>
       <c r="P91" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="Q91">
         <v>3</v>
@@ -19204,7 +19219,7 @@
         <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="Q92">
         <v>5</v>
@@ -19482,7 +19497,7 @@
         <v>1</v>
       </c>
       <c r="AS93">
-        <v>2.71</v>
+        <v>2.72</v>
       </c>
       <c r="AT93">
         <v>1</v>
@@ -19864,10 +19879,10 @@
         <v>1.33</v>
       </c>
       <c r="AS95">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AT95">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU95">
         <v>2.16</v>
@@ -20055,10 +20070,10 @@
         <v>0.67</v>
       </c>
       <c r="AS96">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT96">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AU96">
         <v>2.02</v>
@@ -20159,7 +20174,7 @@
         <v>156</v>
       </c>
       <c r="P97" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="Q97">
         <v>6</v>
@@ -20246,7 +20261,7 @@
         <v>0.33</v>
       </c>
       <c r="AS97">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT97">
         <v>0.47</v>
@@ -20732,7 +20747,7 @@
         <v>159</v>
       </c>
       <c r="P100" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="Q100">
         <v>9</v>
@@ -20822,7 +20837,7 @@
         <v>1.24</v>
       </c>
       <c r="AT100">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AU100">
         <v>1.5</v>
@@ -20923,7 +20938,7 @@
         <v>93</v>
       </c>
       <c r="P101" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="Q101">
         <v>3</v>
@@ -21010,7 +21025,7 @@
         <v>1</v>
       </c>
       <c r="AS101">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AT101">
         <v>1.71</v>
@@ -21305,7 +21320,7 @@
         <v>160</v>
       </c>
       <c r="P103" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="Q103">
         <v>5</v>
@@ -21586,7 +21601,7 @@
         <v>1.39</v>
       </c>
       <c r="AT104">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AU104">
         <v>1.44</v>
@@ -21687,7 +21702,7 @@
         <v>162</v>
       </c>
       <c r="P105" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="Q105">
         <v>2</v>
@@ -21878,7 +21893,7 @@
         <v>163</v>
       </c>
       <c r="P106" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="Q106">
         <v>3</v>
@@ -22069,7 +22084,7 @@
         <v>164</v>
       </c>
       <c r="P107" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="Q107">
         <v>8</v>
@@ -22260,7 +22275,7 @@
         <v>129</v>
       </c>
       <c r="P108" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="Q108">
         <v>9</v>
@@ -22350,7 +22365,7 @@
         <v>0.76</v>
       </c>
       <c r="AT108">
-        <v>0.44</v>
+        <v>0.47</v>
       </c>
       <c r="AU108">
         <v>1.38</v>
@@ -22451,7 +22466,7 @@
         <v>93</v>
       </c>
       <c r="P109" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="Q109">
         <v>5</v>
@@ -22642,7 +22657,7 @@
         <v>93</v>
       </c>
       <c r="P110" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="Q110">
         <v>3</v>
@@ -22833,7 +22848,7 @@
         <v>165</v>
       </c>
       <c r="P111" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="Q111">
         <v>4</v>
@@ -22920,7 +22935,7 @@
         <v>0.6</v>
       </c>
       <c r="AS111">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT111">
         <v>1.06</v>
@@ -23114,7 +23129,7 @@
         <v>1.24</v>
       </c>
       <c r="AT112">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU112">
         <v>1.62</v>
@@ -23215,7 +23230,7 @@
         <v>166</v>
       </c>
       <c r="P113" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="Q113">
         <v>0</v>
@@ -23493,7 +23508,7 @@
         <v>1</v>
       </c>
       <c r="AS114">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT114">
         <v>1.06</v>
@@ -24066,7 +24081,7 @@
         <v>2.6</v>
       </c>
       <c r="AS117">
-        <v>2.71</v>
+        <v>2.72</v>
       </c>
       <c r="AT117">
         <v>1.76</v>
@@ -24170,7 +24185,7 @@
         <v>93</v>
       </c>
       <c r="P118" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="Q118">
         <v>5</v>
@@ -24361,7 +24376,7 @@
         <v>171</v>
       </c>
       <c r="P119" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="Q119">
         <v>6</v>
@@ -24639,10 +24654,10 @@
         <v>1.6</v>
       </c>
       <c r="AS120">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT120">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AU120">
         <v>1.42</v>
@@ -24743,7 +24758,7 @@
         <v>173</v>
       </c>
       <c r="P121" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="Q121">
         <v>1</v>
@@ -25125,7 +25140,7 @@
         <v>174</v>
       </c>
       <c r="P123" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="Q123">
         <v>9</v>
@@ -25406,7 +25421,7 @@
         <v>2.22</v>
       </c>
       <c r="AT124">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AU124">
         <v>1.69</v>
@@ -25597,7 +25612,7 @@
         <v>1.25</v>
       </c>
       <c r="AT125">
-        <v>0.44</v>
+        <v>0.47</v>
       </c>
       <c r="AU125">
         <v>1.76</v>
@@ -25785,7 +25800,7 @@
         <v>1.4</v>
       </c>
       <c r="AS126">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AT126">
         <v>1.47</v>
@@ -25889,7 +25904,7 @@
         <v>177</v>
       </c>
       <c r="P127" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="Q127">
         <v>8</v>
@@ -25976,10 +25991,10 @@
         <v>2.5</v>
       </c>
       <c r="AS127">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AT127">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU127">
         <v>2.04</v>
@@ -26080,7 +26095,7 @@
         <v>93</v>
       </c>
       <c r="P128" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="Q128">
         <v>2</v>
@@ -26167,10 +26182,10 @@
         <v>0.5</v>
       </c>
       <c r="AS128">
+        <v>1.22</v>
+      </c>
+      <c r="AT128">
         <v>1.24</v>
-      </c>
-      <c r="AT128">
-        <v>1.31</v>
       </c>
       <c r="AU128">
         <v>1.58</v>
@@ -26271,7 +26286,7 @@
         <v>178</v>
       </c>
       <c r="P129" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="Q129">
         <v>5</v>
@@ -26552,7 +26567,7 @@
         <v>1.25</v>
       </c>
       <c r="AT130">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AU130">
         <v>1.28</v>
@@ -26740,7 +26755,7 @@
         <v>1.25</v>
       </c>
       <c r="AS131">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT131">
         <v>1.28</v>
@@ -26931,7 +26946,7 @@
         <v>0.8</v>
       </c>
       <c r="AS132">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AT132">
         <v>0.47</v>
@@ -27122,7 +27137,7 @@
         <v>2.4</v>
       </c>
       <c r="AS133">
-        <v>2.71</v>
+        <v>2.72</v>
       </c>
       <c r="AT133">
         <v>2.07</v>
@@ -27608,7 +27623,7 @@
         <v>93</v>
       </c>
       <c r="P136" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="Q136">
         <v>7</v>
@@ -27695,7 +27710,7 @@
         <v>1</v>
       </c>
       <c r="AS136">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT136">
         <v>1.11</v>
@@ -27799,7 +27814,7 @@
         <v>109</v>
       </c>
       <c r="P137" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="Q137">
         <v>2</v>
@@ -28268,7 +28283,7 @@
         <v>0.67</v>
       </c>
       <c r="AS139">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT139">
         <v>0.88</v>
@@ -28459,10 +28474,10 @@
         <v>1.4</v>
       </c>
       <c r="AS140">
-        <v>2.71</v>
+        <v>2.72</v>
       </c>
       <c r="AT140">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU140">
         <v>1.91</v>
@@ -28563,7 +28578,7 @@
         <v>185</v>
       </c>
       <c r="P141" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="Q141">
         <v>6</v>
@@ -28653,7 +28668,7 @@
         <v>1.71</v>
       </c>
       <c r="AT141">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AU141">
         <v>1.5</v>
@@ -28945,7 +28960,7 @@
         <v>187</v>
       </c>
       <c r="P143" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="Q143">
         <v>7</v>
@@ -29518,7 +29533,7 @@
         <v>189</v>
       </c>
       <c r="P146" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="Q146">
         <v>4</v>
@@ -29709,7 +29724,7 @@
         <v>93</v>
       </c>
       <c r="P147" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="Q147">
         <v>0</v>
@@ -29987,7 +30002,7 @@
         <v>1</v>
       </c>
       <c r="AS148">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT148">
         <v>0.5600000000000001</v>
@@ -30091,7 +30106,7 @@
         <v>93</v>
       </c>
       <c r="P149" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="Q149">
         <v>6</v>
@@ -30178,7 +30193,7 @@
         <v>2</v>
       </c>
       <c r="AS149">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AT149">
         <v>2.07</v>
@@ -30282,7 +30297,7 @@
         <v>191</v>
       </c>
       <c r="P150" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="Q150">
         <v>7</v>
@@ -30369,7 +30384,7 @@
         <v>1.17</v>
       </c>
       <c r="AS150">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT150">
         <v>1.24</v>
@@ -30473,7 +30488,7 @@
         <v>192</v>
       </c>
       <c r="P151" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="Q151">
         <v>5</v>
@@ -30754,7 +30769,7 @@
         <v>1.18</v>
       </c>
       <c r="AT152">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AU152">
         <v>1.31</v>
@@ -30945,7 +30960,7 @@
         <v>1.25</v>
       </c>
       <c r="AT153">
-        <v>0.44</v>
+        <v>0.47</v>
       </c>
       <c r="AU153">
         <v>1.37</v>
@@ -31133,10 +31148,10 @@
         <v>1.17</v>
       </c>
       <c r="AS154">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AT154">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AU154">
         <v>2.02</v>
@@ -31237,7 +31252,7 @@
         <v>94</v>
       </c>
       <c r="P155" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="Q155">
         <v>1</v>
@@ -31428,7 +31443,7 @@
         <v>193</v>
       </c>
       <c r="P156" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="Q156">
         <v>13</v>
@@ -31706,7 +31721,7 @@
         <v>1</v>
       </c>
       <c r="AS157">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AT157">
         <v>1.12</v>
@@ -32001,7 +32016,7 @@
         <v>93</v>
       </c>
       <c r="P159" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="Q159">
         <v>5</v>
@@ -32091,7 +32106,7 @@
         <v>1.25</v>
       </c>
       <c r="AT159">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AU159">
         <v>1.73</v>
@@ -32282,7 +32297,7 @@
         <v>1.35</v>
       </c>
       <c r="AT160">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU160">
         <v>1.65</v>
@@ -32470,10 +32485,10 @@
         <v>1.33</v>
       </c>
       <c r="AS161">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AT161">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AU161">
         <v>2.19</v>
@@ -32765,7 +32780,7 @@
         <v>197</v>
       </c>
       <c r="P163" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="Q163">
         <v>6</v>
@@ -33428,7 +33443,7 @@
         <v>0.76</v>
       </c>
       <c r="AT166">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU166">
         <v>1.28</v>
@@ -33529,7 +33544,7 @@
         <v>198</v>
       </c>
       <c r="P167" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="Q167">
         <v>3</v>
@@ -33619,7 +33634,7 @@
         <v>1.44</v>
       </c>
       <c r="AT167">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AU167">
         <v>1.54</v>
@@ -33807,7 +33822,7 @@
         <v>1.17</v>
       </c>
       <c r="AS168">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AT168">
         <v>1.06</v>
@@ -34102,7 +34117,7 @@
         <v>200</v>
       </c>
       <c r="P170" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="Q170">
         <v>8</v>
@@ -34293,7 +34308,7 @@
         <v>201</v>
       </c>
       <c r="P171" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="Q171">
         <v>4</v>
@@ -34675,7 +34690,7 @@
         <v>202</v>
       </c>
       <c r="P173" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="Q173">
         <v>11</v>
@@ -34762,7 +34777,7 @@
         <v>0.57</v>
       </c>
       <c r="AS173">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AT173">
         <v>0.47</v>
@@ -35144,10 +35159,10 @@
         <v>1.57</v>
       </c>
       <c r="AS175">
-        <v>2.71</v>
+        <v>2.72</v>
       </c>
       <c r="AT175">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AU175">
         <v>1.84</v>
@@ -35335,10 +35350,10 @@
         <v>1.17</v>
       </c>
       <c r="AS176">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT176">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU176">
         <v>2.07</v>
@@ -35908,10 +35923,10 @@
         <v>0.86</v>
       </c>
       <c r="AS179">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT179">
-        <v>0.44</v>
+        <v>0.47</v>
       </c>
       <c r="AU179">
         <v>1.42</v>
@@ -36012,7 +36027,7 @@
         <v>93</v>
       </c>
       <c r="P180" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="Q180">
         <v>1</v>
@@ -36394,7 +36409,7 @@
         <v>208</v>
       </c>
       <c r="P182" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="Q182">
         <v>4</v>
@@ -36585,7 +36600,7 @@
         <v>93</v>
       </c>
       <c r="P183" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="Q183">
         <v>6</v>
@@ -36672,10 +36687,10 @@
         <v>1.43</v>
       </c>
       <c r="AS183">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT183">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AU183">
         <v>1.65</v>
@@ -37057,7 +37072,7 @@
         <v>1.18</v>
       </c>
       <c r="AT185">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU185">
         <v>1.42</v>
@@ -37158,7 +37173,7 @@
         <v>211</v>
       </c>
       <c r="P186" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="Q186">
         <v>7</v>
@@ -37436,7 +37451,7 @@
         <v>1.29</v>
       </c>
       <c r="AS187">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT187">
         <v>1.11</v>
@@ -37540,7 +37555,7 @@
         <v>212</v>
       </c>
       <c r="P188" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="Q188">
         <v>1</v>
@@ -37731,7 +37746,7 @@
         <v>213</v>
       </c>
       <c r="P189" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="Q189">
         <v>4</v>
@@ -38009,7 +38024,7 @@
         <v>0.88</v>
       </c>
       <c r="AS190">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT190">
         <v>0.5600000000000001</v>
@@ -38200,7 +38215,7 @@
         <v>0.88</v>
       </c>
       <c r="AS191">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT191">
         <v>0.47</v>
@@ -38304,7 +38319,7 @@
         <v>216</v>
       </c>
       <c r="P192" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="Q192">
         <v>13</v>
@@ -38391,10 +38406,10 @@
         <v>0.75</v>
       </c>
       <c r="AS192">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AT192">
-        <v>0.44</v>
+        <v>0.47</v>
       </c>
       <c r="AU192">
         <v>2.08</v>
@@ -38495,7 +38510,7 @@
         <v>217</v>
       </c>
       <c r="P193" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="Q193">
         <v>7</v>
@@ -38776,7 +38791,7 @@
         <v>1.71</v>
       </c>
       <c r="AT194">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AU194">
         <v>1.42</v>
@@ -38967,7 +38982,7 @@
         <v>1.39</v>
       </c>
       <c r="AT195">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AU195">
         <v>1.42</v>
@@ -39068,7 +39083,7 @@
         <v>219</v>
       </c>
       <c r="P196" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="Q196">
         <v>6</v>
@@ -39155,7 +39170,7 @@
         <v>1.13</v>
       </c>
       <c r="AS196">
-        <v>2.71</v>
+        <v>2.72</v>
       </c>
       <c r="AT196">
         <v>1.11</v>
@@ -39259,7 +39274,7 @@
         <v>220</v>
       </c>
       <c r="P197" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="Q197">
         <v>3</v>
@@ -39349,7 +39364,7 @@
         <v>1.39</v>
       </c>
       <c r="AT197">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AU197">
         <v>1.19</v>
@@ -39540,7 +39555,7 @@
         <v>1.06</v>
       </c>
       <c r="AT198">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AU198">
         <v>1.92</v>
@@ -39641,7 +39656,7 @@
         <v>222</v>
       </c>
       <c r="P199" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="Q199">
         <v>6</v>
@@ -39728,7 +39743,7 @@
         <v>1.43</v>
       </c>
       <c r="AS199">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AT199">
         <v>1.06</v>
@@ -39832,7 +39847,7 @@
         <v>223</v>
       </c>
       <c r="P200" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="Q200">
         <v>7</v>
@@ -39922,7 +39937,7 @@
         <v>1.47</v>
       </c>
       <c r="AT200">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU200">
         <v>1.15</v>
@@ -40023,7 +40038,7 @@
         <v>224</v>
       </c>
       <c r="P201" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="Q201">
         <v>12</v>
@@ -40686,7 +40701,7 @@
         <v>1.39</v>
       </c>
       <c r="AT204">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU204">
         <v>1.23</v>
@@ -40787,7 +40802,7 @@
         <v>131</v>
       </c>
       <c r="P205" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="Q205">
         <v>6</v>
@@ -40877,7 +40892,7 @@
         <v>0.59</v>
       </c>
       <c r="AT205">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AU205">
         <v>1.13</v>
@@ -41256,7 +41271,7 @@
         <v>0.71</v>
       </c>
       <c r="AS207">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AT207">
         <v>0.83</v>
@@ -41360,7 +41375,7 @@
         <v>229</v>
       </c>
       <c r="P208" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="Q208">
         <v>4</v>
@@ -41551,7 +41566,7 @@
         <v>93</v>
       </c>
       <c r="P209" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="Q209">
         <v>6</v>
@@ -41742,7 +41757,7 @@
         <v>230</v>
       </c>
       <c r="P210" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="Q210">
         <v>12</v>
@@ -41933,7 +41948,7 @@
         <v>231</v>
       </c>
       <c r="P211" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="Q211">
         <v>8</v>
@@ -42023,7 +42038,7 @@
         <v>1.24</v>
       </c>
       <c r="AT211">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AU211">
         <v>1.6</v>
@@ -42402,7 +42417,7 @@
         <v>1.14</v>
       </c>
       <c r="AS213">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AT213">
         <v>1.28</v>
@@ -42596,7 +42611,7 @@
         <v>1.71</v>
       </c>
       <c r="AT214">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AU214">
         <v>1.47</v>
@@ -42697,7 +42712,7 @@
         <v>93</v>
       </c>
       <c r="P215" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="Q215">
         <v>6</v>
@@ -43169,7 +43184,7 @@
         <v>2.39</v>
       </c>
       <c r="AT217">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AU217">
         <v>1.81</v>
@@ -43360,7 +43375,7 @@
         <v>1.47</v>
       </c>
       <c r="AT218">
-        <v>0.44</v>
+        <v>0.47</v>
       </c>
       <c r="AU218">
         <v>1.24</v>
@@ -43461,7 +43476,7 @@
         <v>234</v>
       </c>
       <c r="P219" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="Q219">
         <v>2</v>
@@ -43739,7 +43754,7 @@
         <v>1.44</v>
       </c>
       <c r="AS220">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT220">
         <v>1.44</v>
@@ -44034,7 +44049,7 @@
         <v>237</v>
       </c>
       <c r="P222" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="Q222">
         <v>9</v>
@@ -44503,7 +44518,7 @@
         <v>1.25</v>
       </c>
       <c r="AS224">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT224">
         <v>1.11</v>
@@ -44694,10 +44709,10 @@
         <v>0.89</v>
       </c>
       <c r="AS225">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AT225">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU225">
         <v>1.37</v>
@@ -44989,7 +45004,7 @@
         <v>155</v>
       </c>
       <c r="P227" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="Q227">
         <v>3</v>
@@ -45076,7 +45091,7 @@
         <v>1.56</v>
       </c>
       <c r="AS227">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT227">
         <v>1.71</v>
@@ -45371,7 +45386,7 @@
         <v>93</v>
       </c>
       <c r="P229" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="Q229">
         <v>4</v>
@@ -45458,7 +45473,7 @@
         <v>1.22</v>
       </c>
       <c r="AS229">
-        <v>2.71</v>
+        <v>2.72</v>
       </c>
       <c r="AT229">
         <v>1.06</v>
@@ -45753,7 +45768,7 @@
         <v>241</v>
       </c>
       <c r="P231" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="Q231">
         <v>5</v>
@@ -45840,10 +45855,10 @@
         <v>1.22</v>
       </c>
       <c r="AS231">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AT231">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AU231">
         <v>2.27</v>
@@ -46034,7 +46049,7 @@
         <v>1.71</v>
       </c>
       <c r="AT232">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AU232">
         <v>1.29</v>
@@ -46986,10 +47001,10 @@
         <v>1.75</v>
       </c>
       <c r="AS237">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AT237">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU237">
         <v>2.04</v>
@@ -47090,7 +47105,7 @@
         <v>246</v>
       </c>
       <c r="P238" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="Q238">
         <v>6</v>
@@ -47368,7 +47383,7 @@
         <v>0.9</v>
       </c>
       <c r="AS239">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AT239">
         <v>1.12</v>
@@ -47753,7 +47768,7 @@
         <v>1.25</v>
       </c>
       <c r="AT241">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AU241">
         <v>1.63</v>
@@ -47854,7 +47869,7 @@
         <v>197</v>
       </c>
       <c r="P242" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="Q242">
         <v>6</v>
@@ -47944,7 +47959,7 @@
         <v>0.59</v>
       </c>
       <c r="AT242">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AU242">
         <v>1.25</v>
@@ -48705,7 +48720,7 @@
         <v>1.6</v>
       </c>
       <c r="AS246">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AT246">
         <v>1.47</v>
@@ -49087,7 +49102,7 @@
         <v>2.3</v>
       </c>
       <c r="AS248">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AT248">
         <v>1.76</v>
@@ -49191,7 +49206,7 @@
         <v>252</v>
       </c>
       <c r="P249" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="Q249">
         <v>7</v>
@@ -49278,10 +49293,10 @@
         <v>0.7</v>
       </c>
       <c r="AS249">
-        <v>2.71</v>
+        <v>2.72</v>
       </c>
       <c r="AT249">
-        <v>0.44</v>
+        <v>0.47</v>
       </c>
       <c r="AU249">
         <v>1.72</v>
@@ -49660,7 +49675,7 @@
         <v>0.6</v>
       </c>
       <c r="AS251">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT251">
         <v>0.88</v>
@@ -49764,7 +49779,7 @@
         <v>216</v>
       </c>
       <c r="P252" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="Q252">
         <v>9</v>
@@ -50146,7 +50161,7 @@
         <v>93</v>
       </c>
       <c r="P254" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="Q254">
         <v>6</v>
@@ -50424,7 +50439,7 @@
         <v>1.55</v>
       </c>
       <c r="AS255">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT255">
         <v>1.47</v>
@@ -50618,7 +50633,7 @@
         <v>1.44</v>
       </c>
       <c r="AT256">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU256">
         <v>1.41</v>
@@ -50806,10 +50821,10 @@
         <v>1.2</v>
       </c>
       <c r="AS257">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AT257">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AU257">
         <v>1.33</v>
@@ -51191,7 +51206,7 @@
         <v>1.25</v>
       </c>
       <c r="AT259">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AU259">
         <v>1.63</v>
@@ -51570,7 +51585,7 @@
         <v>1.27</v>
       </c>
       <c r="AS261">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AT261">
         <v>1</v>
@@ -51674,7 +51689,7 @@
         <v>228</v>
       </c>
       <c r="P262" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="Q262">
         <v>3</v>
@@ -52146,7 +52161,7 @@
         <v>1.39</v>
       </c>
       <c r="AT264">
-        <v>0.44</v>
+        <v>0.47</v>
       </c>
       <c r="AU264">
         <v>1.43</v>
@@ -52247,7 +52262,7 @@
         <v>259</v>
       </c>
       <c r="P265" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="Q265">
         <v>3</v>
@@ -52334,7 +52349,7 @@
         <v>1.36</v>
       </c>
       <c r="AS265">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AT265">
         <v>1.24</v>
@@ -52528,7 +52543,7 @@
         <v>2.22</v>
       </c>
       <c r="AT266">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AU266">
         <v>1.58</v>
@@ -53011,7 +53026,7 @@
         <v>261</v>
       </c>
       <c r="P269" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="Q269">
         <v>3</v>
@@ -53289,7 +53304,7 @@
         <v>1.27</v>
       </c>
       <c r="AS270">
-        <v>2.71</v>
+        <v>2.72</v>
       </c>
       <c r="AT270">
         <v>1.44</v>
@@ -53480,7 +53495,7 @@
         <v>1.3</v>
       </c>
       <c r="AS271">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT271">
         <v>1.11</v>
@@ -53775,7 +53790,7 @@
         <v>102</v>
       </c>
       <c r="P273" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="Q273">
         <v>6</v>
@@ -53966,7 +53981,7 @@
         <v>265</v>
       </c>
       <c r="P274" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="Q274">
         <v>3</v>
@@ -54244,10 +54259,10 @@
         <v>1.36</v>
       </c>
       <c r="AS275">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT275">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AU275">
         <v>1.65</v>
@@ -54438,7 +54453,7 @@
         <v>1.39</v>
       </c>
       <c r="AT276">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU276">
         <v>1.26</v>
@@ -54921,7 +54936,7 @@
         <v>269</v>
       </c>
       <c r="P279" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="Q279">
         <v>5</v>
@@ -55199,7 +55214,7 @@
         <v>1.18</v>
       </c>
       <c r="AS280">
-        <v>2.71</v>
+        <v>2.72</v>
       </c>
       <c r="AT280">
         <v>1.11</v>
@@ -55303,7 +55318,7 @@
         <v>209</v>
       </c>
       <c r="P281" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="Q281">
         <v>7</v>
@@ -55494,7 +55509,7 @@
         <v>93</v>
       </c>
       <c r="P282" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="Q282">
         <v>8</v>
@@ -55581,7 +55596,7 @@
         <v>1.17</v>
       </c>
       <c r="AS282">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT282">
         <v>1.44</v>
@@ -55685,7 +55700,7 @@
         <v>241</v>
       </c>
       <c r="P283" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="Q283">
         <v>2</v>
@@ -56258,7 +56273,7 @@
         <v>93</v>
       </c>
       <c r="P286" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="Q286">
         <v>8</v>
@@ -56348,7 +56363,7 @@
         <v>1.71</v>
       </c>
       <c r="AT286">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AU286">
         <v>1.33</v>
@@ -56730,7 +56745,7 @@
         <v>2.22</v>
       </c>
       <c r="AT288">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU288">
         <v>1.66</v>
@@ -56831,7 +56846,7 @@
         <v>93</v>
       </c>
       <c r="P289" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="Q289">
         <v>3</v>
@@ -56918,7 +56933,7 @@
         <v>1.18</v>
       </c>
       <c r="AS289">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT289">
         <v>1.28</v>
@@ -57213,7 +57228,7 @@
         <v>274</v>
       </c>
       <c r="P291" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="Q291">
         <v>0</v>
@@ -57303,7 +57318,7 @@
         <v>1.35</v>
       </c>
       <c r="AT291">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AU291">
         <v>1.52</v>
@@ -57404,7 +57419,7 @@
         <v>187</v>
       </c>
       <c r="P292" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="Q292">
         <v>9</v>
@@ -57491,7 +57506,7 @@
         <v>1.25</v>
       </c>
       <c r="AS292">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AT292">
         <v>1.24</v>
@@ -58067,7 +58082,7 @@
         <v>0.59</v>
       </c>
       <c r="AT295">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AU295">
         <v>1.33</v>
@@ -58168,7 +58183,7 @@
         <v>276</v>
       </c>
       <c r="P296" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="Q296">
         <v>3</v>
@@ -58255,10 +58270,10 @@
         <v>1.25</v>
       </c>
       <c r="AS296">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT296">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AU296">
         <v>1.48</v>
@@ -58550,7 +58565,7 @@
         <v>277</v>
       </c>
       <c r="P298" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="Q298">
         <v>10</v>
@@ -58828,7 +58843,7 @@
         <v>1.62</v>
       </c>
       <c r="AS299">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AT299">
         <v>1.47</v>
@@ -59123,7 +59138,7 @@
         <v>93</v>
       </c>
       <c r="P301" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="Q301">
         <v>9</v>
@@ -59213,7 +59228,7 @@
         <v>1.25</v>
       </c>
       <c r="AT301">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AU301">
         <v>1.63</v>
@@ -59401,7 +59416,7 @@
         <v>2</v>
       </c>
       <c r="AS302">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AT302">
         <v>2.07</v>
@@ -59595,7 +59610,7 @@
         <v>2.22</v>
       </c>
       <c r="AT303">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU303">
         <v>1.55</v>
@@ -59887,7 +59902,7 @@
         <v>93</v>
       </c>
       <c r="P305" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="Q305">
         <v>1</v>
@@ -60165,10 +60180,10 @@
         <v>0.92</v>
       </c>
       <c r="AS306">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT306">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU306">
         <v>1.58</v>
@@ -60842,7 +60857,7 @@
         <v>284</v>
       </c>
       <c r="P310" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="Q310">
         <v>6</v>
@@ -60929,7 +60944,7 @@
         <v>0.92</v>
       </c>
       <c r="AS310">
-        <v>2.71</v>
+        <v>2.72</v>
       </c>
       <c r="AT310">
         <v>0.83</v>
@@ -61505,7 +61520,7 @@
         <v>2.39</v>
       </c>
       <c r="AT313">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AU313">
         <v>1.8</v>
@@ -61606,7 +61621,7 @@
         <v>130</v>
       </c>
       <c r="P314" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="Q314">
         <v>7</v>
@@ -61696,7 +61711,7 @@
         <v>1.39</v>
       </c>
       <c r="AT314">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AU314">
         <v>1.43</v>
@@ -61887,7 +61902,7 @@
         <v>0.59</v>
       </c>
       <c r="AT315">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AU315">
         <v>1.3</v>
@@ -62075,7 +62090,7 @@
         <v>1.31</v>
       </c>
       <c r="AS316">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AT316">
         <v>1</v>
@@ -62457,10 +62472,10 @@
         <v>0.58</v>
       </c>
       <c r="AS318">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AT318">
-        <v>0.44</v>
+        <v>0.47</v>
       </c>
       <c r="AU318">
         <v>2.13</v>
@@ -62561,7 +62576,7 @@
         <v>93</v>
       </c>
       <c r="P319" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="Q319">
         <v>4</v>
@@ -62651,7 +62666,7 @@
         <v>1.18</v>
       </c>
       <c r="AT319">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU319">
         <v>1.46</v>
@@ -62752,7 +62767,7 @@
         <v>196</v>
       </c>
       <c r="P320" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="Q320">
         <v>6</v>
@@ -63221,10 +63236,10 @@
         <v>1.5</v>
       </c>
       <c r="AS322">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT322">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU322">
         <v>1.93</v>
@@ -63412,7 +63427,7 @@
         <v>1.31</v>
       </c>
       <c r="AS323">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT323">
         <v>1.06</v>
@@ -63898,7 +63913,7 @@
         <v>93</v>
       </c>
       <c r="P326" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="Q326">
         <v>5</v>
@@ -64089,7 +64104,7 @@
         <v>293</v>
       </c>
       <c r="P327" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="Q327">
         <v>3</v>
@@ -64280,7 +64295,7 @@
         <v>99</v>
       </c>
       <c r="P328" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="Q328">
         <v>10</v>
@@ -64471,7 +64486,7 @@
         <v>93</v>
       </c>
       <c r="P329" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="Q329">
         <v>8</v>
@@ -64561,7 +64576,7 @@
         <v>1.06</v>
       </c>
       <c r="AT329">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AU329">
         <v>1.84</v>
@@ -64853,7 +64868,7 @@
         <v>93</v>
       </c>
       <c r="P331" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="Q331">
         <v>1</v>
@@ -64943,7 +64958,7 @@
         <v>1.25</v>
       </c>
       <c r="AT331">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AU331">
         <v>1.48</v>
@@ -65044,7 +65059,7 @@
         <v>93</v>
       </c>
       <c r="P332" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="Q332">
         <v>5</v>
@@ -65707,7 +65722,7 @@
         <v>2.22</v>
       </c>
       <c r="AT335">
-        <v>0.44</v>
+        <v>0.47</v>
       </c>
       <c r="AU335">
         <v>1.65</v>
@@ -65808,7 +65823,7 @@
         <v>295</v>
       </c>
       <c r="P336" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="Q336">
         <v>14</v>
@@ -65999,7 +66014,7 @@
         <v>296</v>
       </c>
       <c r="P337" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="Q337">
         <v>5</v>
@@ -66190,7 +66205,7 @@
         <v>93</v>
       </c>
       <c r="P338" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="Q338">
         <v>6</v>
@@ -66659,7 +66674,7 @@
         <v>1.79</v>
       </c>
       <c r="AS340">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AT340">
         <v>1.76</v>
@@ -66853,7 +66868,7 @@
         <v>1.39</v>
       </c>
       <c r="AT341">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU341">
         <v>1.4</v>
@@ -67232,7 +67247,7 @@
         <v>0.57</v>
       </c>
       <c r="AS343">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT343">
         <v>0.47</v>
@@ -67527,7 +67542,7 @@
         <v>299</v>
       </c>
       <c r="P345" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="Q345">
         <v>2</v>
@@ -67617,7 +67632,7 @@
         <v>1.35</v>
       </c>
       <c r="AT345">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AU345">
         <v>1.52</v>
@@ -67718,7 +67733,7 @@
         <v>300</v>
       </c>
       <c r="P346" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="Q346">
         <v>6</v>
@@ -67805,7 +67820,7 @@
         <v>2.08</v>
       </c>
       <c r="AS346">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AT346">
         <v>2.07</v>
@@ -68100,7 +68115,7 @@
         <v>302</v>
       </c>
       <c r="P348" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="Q348">
         <v>7</v>
@@ -68378,10 +68393,10 @@
         <v>1.38</v>
       </c>
       <c r="AS349">
-        <v>2.71</v>
+        <v>2.72</v>
       </c>
       <c r="AT349">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU349">
         <v>1.83</v>
@@ -68482,7 +68497,7 @@
         <v>93</v>
       </c>
       <c r="P350" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="Q350">
         <v>8</v>
@@ -68569,7 +68584,7 @@
         <v>1.36</v>
       </c>
       <c r="AS350">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT350">
         <v>1.28</v>
@@ -68673,7 +68688,7 @@
         <v>304</v>
       </c>
       <c r="P351" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="Q351">
         <v>5</v>
@@ -68760,10 +68775,10 @@
         <v>1.5</v>
       </c>
       <c r="AS351">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AT351">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AU351">
         <v>1.8</v>
@@ -69142,10 +69157,10 @@
         <v>0.86</v>
       </c>
       <c r="AS353">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT353">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU353">
         <v>1.47</v>
@@ -69336,7 +69351,7 @@
         <v>2.39</v>
       </c>
       <c r="AT354">
-        <v>0.44</v>
+        <v>0.47</v>
       </c>
       <c r="AU354">
         <v>1.77</v>
@@ -69819,7 +69834,7 @@
         <v>132</v>
       </c>
       <c r="P357" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="Q357">
         <v>10</v>
@@ -70010,7 +70025,7 @@
         <v>277</v>
       </c>
       <c r="P358" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="Q358">
         <v>6</v>
@@ -70201,7 +70216,7 @@
         <v>93</v>
       </c>
       <c r="P359" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="Q359">
         <v>7</v>
@@ -70864,7 +70879,7 @@
         <v>1.44</v>
       </c>
       <c r="AT362">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AU362">
         <v>1.46</v>
@@ -71246,7 +71261,7 @@
         <v>2.22</v>
       </c>
       <c r="AT364">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AU364">
         <v>1.73</v>
@@ -71347,7 +71362,7 @@
         <v>308</v>
       </c>
       <c r="P365" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="Q365">
         <v>4</v>
@@ -71434,7 +71449,7 @@
         <v>0.8</v>
       </c>
       <c r="AS365">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AT365">
         <v>0.83</v>
@@ -71628,7 +71643,7 @@
         <v>1.25</v>
       </c>
       <c r="AT366">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AU366">
         <v>1.49</v>
@@ -71816,10 +71831,10 @@
         <v>1.4</v>
       </c>
       <c r="AS367">
-        <v>2.71</v>
+        <v>2.72</v>
       </c>
       <c r="AT367">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AU367">
         <v>1.85</v>
@@ -72111,7 +72126,7 @@
         <v>93</v>
       </c>
       <c r="P369" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="Q369">
         <v>5</v>
@@ -72198,7 +72213,7 @@
         <v>1.67</v>
       </c>
       <c r="AS369">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT369">
         <v>1.71</v>
@@ -72389,7 +72404,7 @@
         <v>1.47</v>
       </c>
       <c r="AS370">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AT370">
         <v>1.28</v>
@@ -72493,7 +72508,7 @@
         <v>311</v>
       </c>
       <c r="P371" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="Q371">
         <v>10</v>
@@ -72875,7 +72890,7 @@
         <v>154</v>
       </c>
       <c r="P373" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="Q373">
         <v>8</v>
@@ -73153,7 +73168,7 @@
         <v>1.13</v>
       </c>
       <c r="AS374">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AT374">
         <v>1</v>
@@ -73347,7 +73362,7 @@
         <v>1.47</v>
       </c>
       <c r="AT375">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU375">
         <v>1.2</v>
@@ -73535,7 +73550,7 @@
         <v>0.63</v>
       </c>
       <c r="AS376">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AT376">
         <v>0.5600000000000001</v>
@@ -73639,7 +73654,7 @@
         <v>93</v>
       </c>
       <c r="P377" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="Q377">
         <v>8</v>
@@ -74212,7 +74227,7 @@
         <v>93</v>
       </c>
       <c r="P380" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="Q380">
         <v>6</v>
@@ -74684,7 +74699,7 @@
         <v>1.25</v>
       </c>
       <c r="AT382">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU382">
         <v>1.59</v>
@@ -75257,7 +75272,7 @@
         <v>1.18</v>
       </c>
       <c r="AT385">
-        <v>0.44</v>
+        <v>0.47</v>
       </c>
       <c r="AU385">
         <v>1.43</v>
@@ -75358,7 +75373,7 @@
         <v>256</v>
       </c>
       <c r="P386" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="Q386">
         <v>2</v>
@@ -75448,7 +75463,7 @@
         <v>0.76</v>
       </c>
       <c r="AT386">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AU386">
         <v>1.27</v>
@@ -75827,10 +75842,10 @@
         <v>1.4</v>
       </c>
       <c r="AS388">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT388">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AU388">
         <v>1.55</v>
@@ -76122,7 +76137,7 @@
         <v>319</v>
       </c>
       <c r="P390" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="Q390">
         <v>4</v>
@@ -76209,7 +76224,7 @@
         <v>1.56</v>
       </c>
       <c r="AS390">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT390">
         <v>1.47</v>
@@ -76504,7 +76519,7 @@
         <v>321</v>
       </c>
       <c r="P392" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="Q392">
         <v>6</v>
@@ -76782,7 +76797,7 @@
         <v>1.13</v>
       </c>
       <c r="AS393">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT393">
         <v>1.06</v>
@@ -77274,10 +77289,10 @@
         <v>2</v>
       </c>
       <c r="R396">
+        <v>9</v>
+      </c>
+      <c r="S396">
         <v>11</v>
-      </c>
-      <c r="S396">
-        <v>13</v>
       </c>
       <c r="T396">
         <v>4.5</v>
@@ -77650,7 +77665,7 @@
         <v>324</v>
       </c>
       <c r="P398" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="Q398">
         <v>3</v>
@@ -77740,7 +77755,7 @@
         <v>2.22</v>
       </c>
       <c r="AT398">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AU398">
         <v>1.79</v>
@@ -77928,7 +77943,7 @@
         <v>1.13</v>
       </c>
       <c r="AS399">
-        <v>2.71</v>
+        <v>2.72</v>
       </c>
       <c r="AT399">
         <v>1.06</v>
@@ -78501,10 +78516,10 @@
         <v>1.38</v>
       </c>
       <c r="AS402">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT402">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AU402">
         <v>1.45</v>
@@ -78692,10 +78707,10 @@
         <v>1.27</v>
       </c>
       <c r="AS403">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AT403">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU403">
         <v>1.26</v>
@@ -79074,7 +79089,7 @@
         <v>1.12</v>
       </c>
       <c r="AS405">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AT405">
         <v>1.11</v>
@@ -79265,7 +79280,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AS406">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AT406">
         <v>0.88</v>
@@ -79511,6 +79526,1343 @@
       </c>
       <c r="BK407">
         <v>6</v>
+      </c>
+    </row>
+    <row r="408" spans="1:63">
+      <c r="A408" s="1">
+        <v>407</v>
+      </c>
+      <c r="B408">
+        <v>2568188</v>
+      </c>
+      <c r="C408" t="s">
+        <v>63</v>
+      </c>
+      <c r="D408" t="s">
+        <v>64</v>
+      </c>
+      <c r="E408" s="2">
+        <v>44992.69791666666</v>
+      </c>
+      <c r="F408">
+        <v>22</v>
+      </c>
+      <c r="G408" t="s">
+        <v>80</v>
+      </c>
+      <c r="H408" t="s">
+        <v>78</v>
+      </c>
+      <c r="I408">
+        <v>1</v>
+      </c>
+      <c r="J408">
+        <v>1</v>
+      </c>
+      <c r="K408">
+        <v>2</v>
+      </c>
+      <c r="L408">
+        <v>2</v>
+      </c>
+      <c r="M408">
+        <v>1</v>
+      </c>
+      <c r="N408">
+        <v>3</v>
+      </c>
+      <c r="O408" t="s">
+        <v>329</v>
+      </c>
+      <c r="P408" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q408">
+        <v>5</v>
+      </c>
+      <c r="R408">
+        <v>7</v>
+      </c>
+      <c r="S408">
+        <v>12</v>
+      </c>
+      <c r="T408">
+        <v>2.28</v>
+      </c>
+      <c r="U408">
+        <v>2.17</v>
+      </c>
+      <c r="V408">
+        <v>5.35</v>
+      </c>
+      <c r="W408">
+        <v>1.42</v>
+      </c>
+      <c r="X408">
+        <v>2.78</v>
+      </c>
+      <c r="Y408">
+        <v>2.94</v>
+      </c>
+      <c r="Z408">
+        <v>1.38</v>
+      </c>
+      <c r="AA408">
+        <v>7.6</v>
+      </c>
+      <c r="AB408">
+        <v>1.07</v>
+      </c>
+      <c r="AC408">
+        <v>1.72</v>
+      </c>
+      <c r="AD408">
+        <v>3.62</v>
+      </c>
+      <c r="AE408">
+        <v>4.33</v>
+      </c>
+      <c r="AF408">
+        <v>1.02</v>
+      </c>
+      <c r="AG408">
+        <v>8.6</v>
+      </c>
+      <c r="AH408">
+        <v>1.31</v>
+      </c>
+      <c r="AI408">
+        <v>3.2</v>
+      </c>
+      <c r="AJ408">
+        <v>1.85</v>
+      </c>
+      <c r="AK408">
+        <v>1.85</v>
+      </c>
+      <c r="AL408">
+        <v>1.93</v>
+      </c>
+      <c r="AM408">
+        <v>1.83</v>
+      </c>
+      <c r="AN408">
+        <v>1.2</v>
+      </c>
+      <c r="AO408">
+        <v>1.3</v>
+      </c>
+      <c r="AP408">
+        <v>2.18</v>
+      </c>
+      <c r="AQ408">
+        <v>2</v>
+      </c>
+      <c r="AR408">
+        <v>1.35</v>
+      </c>
+      <c r="AS408">
+        <v>2.06</v>
+      </c>
+      <c r="AT408">
+        <v>1.28</v>
+      </c>
+      <c r="AU408">
+        <v>1.85</v>
+      </c>
+      <c r="AV408">
+        <v>1.12</v>
+      </c>
+      <c r="AW408">
+        <v>2.97</v>
+      </c>
+      <c r="AX408">
+        <v>1.25</v>
+      </c>
+      <c r="AY408">
+        <v>10.25</v>
+      </c>
+      <c r="AZ408">
+        <v>5.3</v>
+      </c>
+      <c r="BA408">
+        <v>1.19</v>
+      </c>
+      <c r="BB408">
+        <v>1.4</v>
+      </c>
+      <c r="BC408">
+        <v>1.74</v>
+      </c>
+      <c r="BD408">
+        <v>2.19</v>
+      </c>
+      <c r="BE408">
+        <v>2.88</v>
+      </c>
+      <c r="BF408">
+        <v>4</v>
+      </c>
+      <c r="BG408">
+        <v>3</v>
+      </c>
+      <c r="BH408">
+        <v>8</v>
+      </c>
+      <c r="BI408">
+        <v>8</v>
+      </c>
+      <c r="BJ408">
+        <v>12</v>
+      </c>
+      <c r="BK408">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="409" spans="1:63">
+      <c r="A409" s="1">
+        <v>408</v>
+      </c>
+      <c r="B409">
+        <v>2569870</v>
+      </c>
+      <c r="C409" t="s">
+        <v>63</v>
+      </c>
+      <c r="D409" t="s">
+        <v>64</v>
+      </c>
+      <c r="E409" s="2">
+        <v>44992.69791666666</v>
+      </c>
+      <c r="F409">
+        <v>29</v>
+      </c>
+      <c r="G409" t="s">
+        <v>76</v>
+      </c>
+      <c r="H409" t="s">
+        <v>65</v>
+      </c>
+      <c r="I409">
+        <v>1</v>
+      </c>
+      <c r="J409">
+        <v>0</v>
+      </c>
+      <c r="K409">
+        <v>1</v>
+      </c>
+      <c r="L409">
+        <v>3</v>
+      </c>
+      <c r="M409">
+        <v>0</v>
+      </c>
+      <c r="N409">
+        <v>3</v>
+      </c>
+      <c r="O409" t="s">
+        <v>330</v>
+      </c>
+      <c r="P409" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q409">
+        <v>6</v>
+      </c>
+      <c r="R409">
+        <v>3</v>
+      </c>
+      <c r="S409">
+        <v>9</v>
+      </c>
+      <c r="T409">
+        <v>1.8</v>
+      </c>
+      <c r="U409">
+        <v>2.6</v>
+      </c>
+      <c r="V409">
+        <v>8</v>
+      </c>
+      <c r="W409">
+        <v>1.29</v>
+      </c>
+      <c r="X409">
+        <v>3.5</v>
+      </c>
+      <c r="Y409">
+        <v>2.38</v>
+      </c>
+      <c r="Z409">
+        <v>1.53</v>
+      </c>
+      <c r="AA409">
+        <v>5.5</v>
+      </c>
+      <c r="AB409">
+        <v>1.14</v>
+      </c>
+      <c r="AC409">
+        <v>1.28</v>
+      </c>
+      <c r="AD409">
+        <v>5.2</v>
+      </c>
+      <c r="AE409">
+        <v>8.75</v>
+      </c>
+      <c r="AF409">
+        <v>1.02</v>
+      </c>
+      <c r="AG409">
+        <v>18</v>
+      </c>
+      <c r="AH409">
+        <v>1.18</v>
+      </c>
+      <c r="AI409">
+        <v>4.5</v>
+      </c>
+      <c r="AJ409">
+        <v>1.62</v>
+      </c>
+      <c r="AK409">
+        <v>2.15</v>
+      </c>
+      <c r="AL409">
+        <v>1.95</v>
+      </c>
+      <c r="AM409">
+        <v>1.8</v>
+      </c>
+      <c r="AN409">
+        <v>1.07</v>
+      </c>
+      <c r="AO409">
+        <v>1.12</v>
+      </c>
+      <c r="AP409">
+        <v>3.3</v>
+      </c>
+      <c r="AQ409">
+        <v>2.12</v>
+      </c>
+      <c r="AR409">
+        <v>0.88</v>
+      </c>
+      <c r="AS409">
+        <v>2.17</v>
+      </c>
+      <c r="AT409">
+        <v>0.82</v>
+      </c>
+      <c r="AU409">
+        <v>2.12</v>
+      </c>
+      <c r="AV409">
+        <v>1.3</v>
+      </c>
+      <c r="AW409">
+        <v>3.42</v>
+      </c>
+      <c r="AX409">
+        <v>1.19</v>
+      </c>
+      <c r="AY409">
+        <v>11</v>
+      </c>
+      <c r="AZ409">
+        <v>5.65</v>
+      </c>
+      <c r="BA409">
+        <v>1.15</v>
+      </c>
+      <c r="BB409">
+        <v>1.33</v>
+      </c>
+      <c r="BC409">
+        <v>1.65</v>
+      </c>
+      <c r="BD409">
+        <v>2</v>
+      </c>
+      <c r="BE409">
+        <v>2.5</v>
+      </c>
+      <c r="BF409">
+        <v>9</v>
+      </c>
+      <c r="BG409">
+        <v>4</v>
+      </c>
+      <c r="BH409">
+        <v>10</v>
+      </c>
+      <c r="BI409">
+        <v>2</v>
+      </c>
+      <c r="BJ409">
+        <v>19</v>
+      </c>
+      <c r="BK409">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="410" spans="1:63">
+      <c r="A410" s="1">
+        <v>409</v>
+      </c>
+      <c r="B410">
+        <v>2568185</v>
+      </c>
+      <c r="C410" t="s">
+        <v>63</v>
+      </c>
+      <c r="D410" t="s">
+        <v>64</v>
+      </c>
+      <c r="E410" s="2">
+        <v>44992.69791666666</v>
+      </c>
+      <c r="F410">
+        <v>22</v>
+      </c>
+      <c r="G410" t="s">
+        <v>73</v>
+      </c>
+      <c r="H410" t="s">
+        <v>70</v>
+      </c>
+      <c r="I410">
+        <v>0</v>
+      </c>
+      <c r="J410">
+        <v>0</v>
+      </c>
+      <c r="K410">
+        <v>0</v>
+      </c>
+      <c r="L410">
+        <v>0</v>
+      </c>
+      <c r="M410">
+        <v>0</v>
+      </c>
+      <c r="N410">
+        <v>0</v>
+      </c>
+      <c r="O410" t="s">
+        <v>93</v>
+      </c>
+      <c r="P410" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q410">
+        <v>6</v>
+      </c>
+      <c r="R410">
+        <v>4</v>
+      </c>
+      <c r="S410">
+        <v>10</v>
+      </c>
+      <c r="T410">
+        <v>3.22</v>
+      </c>
+      <c r="U410">
+        <v>2.03</v>
+      </c>
+      <c r="V410">
+        <v>3.54</v>
+      </c>
+      <c r="W410">
+        <v>1.47</v>
+      </c>
+      <c r="X410">
+        <v>2.6</v>
+      </c>
+      <c r="Y410">
+        <v>3.2</v>
+      </c>
+      <c r="Z410">
+        <v>1.33</v>
+      </c>
+      <c r="AA410">
+        <v>8.6</v>
+      </c>
+      <c r="AB410">
+        <v>1.06</v>
+      </c>
+      <c r="AC410">
+        <v>2.48</v>
+      </c>
+      <c r="AD410">
+        <v>3.22</v>
+      </c>
+      <c r="AE410">
+        <v>2.67</v>
+      </c>
+      <c r="AF410">
+        <v>1.04</v>
+      </c>
+      <c r="AG410">
+        <v>7.6</v>
+      </c>
+      <c r="AH410">
+        <v>1.38</v>
+      </c>
+      <c r="AI410">
+        <v>2.85</v>
+      </c>
+      <c r="AJ410">
+        <v>2.1</v>
+      </c>
+      <c r="AK410">
+        <v>1.65</v>
+      </c>
+      <c r="AL410">
+        <v>1.9</v>
+      </c>
+      <c r="AM410">
+        <v>1.86</v>
+      </c>
+      <c r="AN410">
+        <v>1.46</v>
+      </c>
+      <c r="AO410">
+        <v>1.36</v>
+      </c>
+      <c r="AP410">
+        <v>1.54</v>
+      </c>
+      <c r="AQ410">
+        <v>1.31</v>
+      </c>
+      <c r="AR410">
+        <v>1.19</v>
+      </c>
+      <c r="AS410">
+        <v>1.29</v>
+      </c>
+      <c r="AT410">
+        <v>1.18</v>
+      </c>
+      <c r="AU410">
+        <v>1.45</v>
+      </c>
+      <c r="AV410">
+        <v>1</v>
+      </c>
+      <c r="AW410">
+        <v>2.45</v>
+      </c>
+      <c r="AX410">
+        <v>2.01</v>
+      </c>
+      <c r="AY410">
+        <v>7.8</v>
+      </c>
+      <c r="AZ410">
+        <v>2.17</v>
+      </c>
+      <c r="BA410">
+        <v>1.18</v>
+      </c>
+      <c r="BB410">
+        <v>1.36</v>
+      </c>
+      <c r="BC410">
+        <v>1.67</v>
+      </c>
+      <c r="BD410">
+        <v>2.12</v>
+      </c>
+      <c r="BE410">
+        <v>2.81</v>
+      </c>
+      <c r="BF410">
+        <v>2</v>
+      </c>
+      <c r="BG410">
+        <v>0</v>
+      </c>
+      <c r="BH410">
+        <v>4</v>
+      </c>
+      <c r="BI410">
+        <v>12</v>
+      </c>
+      <c r="BJ410">
+        <v>6</v>
+      </c>
+      <c r="BK410">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="411" spans="1:63">
+      <c r="A411" s="1">
+        <v>410</v>
+      </c>
+      <c r="B411">
+        <v>2569845</v>
+      </c>
+      <c r="C411" t="s">
+        <v>63</v>
+      </c>
+      <c r="D411" t="s">
+        <v>64</v>
+      </c>
+      <c r="E411" s="2">
+        <v>44992.69791666666</v>
+      </c>
+      <c r="F411">
+        <v>27</v>
+      </c>
+      <c r="G411" t="s">
+        <v>74</v>
+      </c>
+      <c r="H411" t="s">
+        <v>69</v>
+      </c>
+      <c r="I411">
+        <v>1</v>
+      </c>
+      <c r="J411">
+        <v>1</v>
+      </c>
+      <c r="K411">
+        <v>2</v>
+      </c>
+      <c r="L411">
+        <v>1</v>
+      </c>
+      <c r="M411">
+        <v>1</v>
+      </c>
+      <c r="N411">
+        <v>2</v>
+      </c>
+      <c r="O411" t="s">
+        <v>132</v>
+      </c>
+      <c r="P411" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q411">
+        <v>9</v>
+      </c>
+      <c r="R411">
+        <v>1</v>
+      </c>
+      <c r="S411">
+        <v>10</v>
+      </c>
+      <c r="T411">
+        <v>2.88</v>
+      </c>
+      <c r="U411">
+        <v>2.1</v>
+      </c>
+      <c r="V411">
+        <v>4</v>
+      </c>
+      <c r="W411">
+        <v>1.44</v>
+      </c>
+      <c r="X411">
+        <v>2.63</v>
+      </c>
+      <c r="Y411">
+        <v>3.25</v>
+      </c>
+      <c r="Z411">
+        <v>1.33</v>
+      </c>
+      <c r="AA411">
+        <v>9</v>
+      </c>
+      <c r="AB411">
+        <v>1.07</v>
+      </c>
+      <c r="AC411">
+        <v>2.07</v>
+      </c>
+      <c r="AD411">
+        <v>3.3</v>
+      </c>
+      <c r="AE411">
+        <v>3.3</v>
+      </c>
+      <c r="AF411">
+        <v>1.06</v>
+      </c>
+      <c r="AG411">
+        <v>10</v>
+      </c>
+      <c r="AH411">
+        <v>1.35</v>
+      </c>
+      <c r="AI411">
+        <v>3.2</v>
+      </c>
+      <c r="AJ411">
+        <v>2</v>
+      </c>
+      <c r="AK411">
+        <v>1.72</v>
+      </c>
+      <c r="AL411">
+        <v>1.8</v>
+      </c>
+      <c r="AM411">
+        <v>1.95</v>
+      </c>
+      <c r="AN411">
+        <v>1.36</v>
+      </c>
+      <c r="AO411">
+        <v>1.25</v>
+      </c>
+      <c r="AP411">
+        <v>1.68</v>
+      </c>
+      <c r="AQ411">
+        <v>1.24</v>
+      </c>
+      <c r="AR411">
+        <v>0.44</v>
+      </c>
+      <c r="AS411">
+        <v>1.22</v>
+      </c>
+      <c r="AT411">
+        <v>0.47</v>
+      </c>
+      <c r="AU411">
+        <v>1.28</v>
+      </c>
+      <c r="AV411">
+        <v>1.05</v>
+      </c>
+      <c r="AW411">
+        <v>2.33</v>
+      </c>
+      <c r="AX411">
+        <v>1.48</v>
+      </c>
+      <c r="AY411">
+        <v>8</v>
+      </c>
+      <c r="AZ411">
+        <v>3.3</v>
+      </c>
+      <c r="BA411">
+        <v>1.18</v>
+      </c>
+      <c r="BB411">
+        <v>1.34</v>
+      </c>
+      <c r="BC411">
+        <v>1.6</v>
+      </c>
+      <c r="BD411">
+        <v>2.02</v>
+      </c>
+      <c r="BE411">
+        <v>2.65</v>
+      </c>
+      <c r="BF411">
+        <v>8</v>
+      </c>
+      <c r="BG411">
+        <v>4</v>
+      </c>
+      <c r="BH411">
+        <v>16</v>
+      </c>
+      <c r="BI411">
+        <v>5</v>
+      </c>
+      <c r="BJ411">
+        <v>24</v>
+      </c>
+      <c r="BK411">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="412" spans="1:63">
+      <c r="A412" s="1">
+        <v>411</v>
+      </c>
+      <c r="B412">
+        <v>2569877</v>
+      </c>
+      <c r="C412" t="s">
+        <v>63</v>
+      </c>
+      <c r="D412" t="s">
+        <v>64</v>
+      </c>
+      <c r="E412" s="2">
+        <v>44992.69791666666</v>
+      </c>
+      <c r="F412">
+        <v>29</v>
+      </c>
+      <c r="G412" t="s">
+        <v>66</v>
+      </c>
+      <c r="H412" t="s">
+        <v>88</v>
+      </c>
+      <c r="I412">
+        <v>1</v>
+      </c>
+      <c r="J412">
+        <v>0</v>
+      </c>
+      <c r="K412">
+        <v>1</v>
+      </c>
+      <c r="L412">
+        <v>2</v>
+      </c>
+      <c r="M412">
+        <v>0</v>
+      </c>
+      <c r="N412">
+        <v>2</v>
+      </c>
+      <c r="O412" t="s">
+        <v>331</v>
+      </c>
+      <c r="P412" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q412">
+        <v>7</v>
+      </c>
+      <c r="R412">
+        <v>4</v>
+      </c>
+      <c r="S412">
+        <v>11</v>
+      </c>
+      <c r="T412">
+        <v>2.4</v>
+      </c>
+      <c r="U412">
+        <v>2.2</v>
+      </c>
+      <c r="V412">
+        <v>4.75</v>
+      </c>
+      <c r="W412">
+        <v>1.36</v>
+      </c>
+      <c r="X412">
+        <v>3</v>
+      </c>
+      <c r="Y412">
+        <v>2.75</v>
+      </c>
+      <c r="Z412">
+        <v>1.4</v>
+      </c>
+      <c r="AA412">
+        <v>8</v>
+      </c>
+      <c r="AB412">
+        <v>1.08</v>
+      </c>
+      <c r="AC412">
+        <v>1.75</v>
+      </c>
+      <c r="AD412">
+        <v>3.53</v>
+      </c>
+      <c r="AE412">
+        <v>4.23</v>
+      </c>
+      <c r="AF412">
+        <v>1.04</v>
+      </c>
+      <c r="AG412">
+        <v>12</v>
+      </c>
+      <c r="AH412">
+        <v>1.27</v>
+      </c>
+      <c r="AI412">
+        <v>3.4</v>
+      </c>
+      <c r="AJ412">
+        <v>1.85</v>
+      </c>
+      <c r="AK412">
+        <v>1.85</v>
+      </c>
+      <c r="AL412">
+        <v>1.8</v>
+      </c>
+      <c r="AM412">
+        <v>1.95</v>
+      </c>
+      <c r="AN412">
+        <v>1.2</v>
+      </c>
+      <c r="AO412">
+        <v>1.24</v>
+      </c>
+      <c r="AP412">
+        <v>2</v>
+      </c>
+      <c r="AQ412">
+        <v>1.82</v>
+      </c>
+      <c r="AR412">
+        <v>1.29</v>
+      </c>
+      <c r="AS412">
+        <v>1.89</v>
+      </c>
+      <c r="AT412">
+        <v>1.22</v>
+      </c>
+      <c r="AU412">
+        <v>1.74</v>
+      </c>
+      <c r="AV412">
+        <v>1.22</v>
+      </c>
+      <c r="AW412">
+        <v>2.96</v>
+      </c>
+      <c r="AX412">
+        <v>1.55</v>
+      </c>
+      <c r="AY412">
+        <v>8.5</v>
+      </c>
+      <c r="AZ412">
+        <v>3.01</v>
+      </c>
+      <c r="BA412">
+        <v>1.19</v>
+      </c>
+      <c r="BB412">
+        <v>1.32</v>
+      </c>
+      <c r="BC412">
+        <v>1.65</v>
+      </c>
+      <c r="BD412">
+        <v>2</v>
+      </c>
+      <c r="BE412">
+        <v>2.5</v>
+      </c>
+      <c r="BF412">
+        <v>6</v>
+      </c>
+      <c r="BG412">
+        <v>5</v>
+      </c>
+      <c r="BH412">
+        <v>17</v>
+      </c>
+      <c r="BI412">
+        <v>9</v>
+      </c>
+      <c r="BJ412">
+        <v>23</v>
+      </c>
+      <c r="BK412">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="413" spans="1:63">
+      <c r="A413" s="1">
+        <v>412</v>
+      </c>
+      <c r="B413">
+        <v>2568014</v>
+      </c>
+      <c r="C413" t="s">
+        <v>63</v>
+      </c>
+      <c r="D413" t="s">
+        <v>64</v>
+      </c>
+      <c r="E413" s="2">
+        <v>44992.69791666666</v>
+      </c>
+      <c r="F413">
+        <v>8</v>
+      </c>
+      <c r="G413" t="s">
+        <v>87</v>
+      </c>
+      <c r="H413" t="s">
+        <v>79</v>
+      </c>
+      <c r="I413">
+        <v>2</v>
+      </c>
+      <c r="J413">
+        <v>0</v>
+      </c>
+      <c r="K413">
+        <v>2</v>
+      </c>
+      <c r="L413">
+        <v>3</v>
+      </c>
+      <c r="M413">
+        <v>1</v>
+      </c>
+      <c r="N413">
+        <v>4</v>
+      </c>
+      <c r="O413" t="s">
+        <v>332</v>
+      </c>
+      <c r="P413" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q413">
+        <v>4</v>
+      </c>
+      <c r="R413">
+        <v>2</v>
+      </c>
+      <c r="S413">
+        <v>6</v>
+      </c>
+      <c r="T413">
+        <v>3.3</v>
+      </c>
+      <c r="U413">
+        <v>2.15</v>
+      </c>
+      <c r="V413">
+        <v>3.2</v>
+      </c>
+      <c r="W413">
+        <v>1.36</v>
+      </c>
+      <c r="X413">
+        <v>2.9</v>
+      </c>
+      <c r="Y413">
+        <v>2.75</v>
+      </c>
+      <c r="Z413">
+        <v>1.4</v>
+      </c>
+      <c r="AA413">
+        <v>6.95</v>
+      </c>
+      <c r="AB413">
+        <v>1.07</v>
+      </c>
+      <c r="AC413">
+        <v>1.97</v>
+      </c>
+      <c r="AD413">
+        <v>3.3</v>
+      </c>
+      <c r="AE413">
+        <v>3.58</v>
+      </c>
+      <c r="AF413">
+        <v>1.04</v>
+      </c>
+      <c r="AG413">
+        <v>12</v>
+      </c>
+      <c r="AH413">
+        <v>1.3</v>
+      </c>
+      <c r="AI413">
+        <v>3.5</v>
+      </c>
+      <c r="AJ413">
+        <v>1.9</v>
+      </c>
+      <c r="AK413">
+        <v>1.8</v>
+      </c>
+      <c r="AL413">
+        <v>1.72</v>
+      </c>
+      <c r="AM413">
+        <v>2.1</v>
+      </c>
+      <c r="AN413">
+        <v>1.53</v>
+      </c>
+      <c r="AO413">
+        <v>1.25</v>
+      </c>
+      <c r="AP413">
+        <v>1.47</v>
+      </c>
+      <c r="AQ413">
+        <v>2.07</v>
+      </c>
+      <c r="AR413">
+        <v>1.38</v>
+      </c>
+      <c r="AS413">
+        <v>2.13</v>
+      </c>
+      <c r="AT413">
+        <v>1.29</v>
+      </c>
+      <c r="AU413">
+        <v>1.54</v>
+      </c>
+      <c r="AV413">
+        <v>1.46</v>
+      </c>
+      <c r="AW413">
+        <v>3</v>
+      </c>
+      <c r="AX413">
+        <v>1.9</v>
+      </c>
+      <c r="AY413">
+        <v>7</v>
+      </c>
+      <c r="AZ413">
+        <v>2.3</v>
+      </c>
+      <c r="BA413">
+        <v>1.27</v>
+      </c>
+      <c r="BB413">
+        <v>1.5</v>
+      </c>
+      <c r="BC413">
+        <v>1.87</v>
+      </c>
+      <c r="BD413">
+        <v>2.45</v>
+      </c>
+      <c r="BE413">
+        <v>3.4</v>
+      </c>
+      <c r="BF413">
+        <v>9</v>
+      </c>
+      <c r="BG413">
+        <v>3</v>
+      </c>
+      <c r="BH413">
+        <v>10</v>
+      </c>
+      <c r="BI413">
+        <v>5</v>
+      </c>
+      <c r="BJ413">
+        <v>19</v>
+      </c>
+      <c r="BK413">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="414" spans="1:63">
+      <c r="A414" s="1">
+        <v>413</v>
+      </c>
+      <c r="B414">
+        <v>2569875</v>
+      </c>
+      <c r="C414" t="s">
+        <v>63</v>
+      </c>
+      <c r="D414" t="s">
+        <v>64</v>
+      </c>
+      <c r="E414" s="2">
+        <v>44992.70833333334</v>
+      </c>
+      <c r="F414">
+        <v>29</v>
+      </c>
+      <c r="G414" t="s">
+        <v>71</v>
+      </c>
+      <c r="H414" t="s">
+        <v>72</v>
+      </c>
+      <c r="I414">
+        <v>0</v>
+      </c>
+      <c r="J414">
+        <v>1</v>
+      </c>
+      <c r="K414">
+        <v>1</v>
+      </c>
+      <c r="L414">
+        <v>2</v>
+      </c>
+      <c r="M414">
+        <v>1</v>
+      </c>
+      <c r="N414">
+        <v>3</v>
+      </c>
+      <c r="O414" t="s">
+        <v>333</v>
+      </c>
+      <c r="P414" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q414">
+        <v>4</v>
+      </c>
+      <c r="R414">
+        <v>4</v>
+      </c>
+      <c r="S414">
+        <v>8</v>
+      </c>
+      <c r="T414">
+        <v>3.4</v>
+      </c>
+      <c r="U414">
+        <v>2.1</v>
+      </c>
+      <c r="V414">
+        <v>3.1</v>
+      </c>
+      <c r="W414">
+        <v>1.4</v>
+      </c>
+      <c r="X414">
+        <v>2.75</v>
+      </c>
+      <c r="Y414">
+        <v>2.75</v>
+      </c>
+      <c r="Z414">
+        <v>1.4</v>
+      </c>
+      <c r="AA414">
+        <v>8</v>
+      </c>
+      <c r="AB414">
+        <v>1.08</v>
+      </c>
+      <c r="AC414">
+        <v>2.7</v>
+      </c>
+      <c r="AD414">
+        <v>3.27</v>
+      </c>
+      <c r="AE414">
+        <v>2.42</v>
+      </c>
+      <c r="AF414">
+        <v>1.06</v>
+      </c>
+      <c r="AG414">
+        <v>8</v>
+      </c>
+      <c r="AH414">
+        <v>1.3</v>
+      </c>
+      <c r="AI414">
+        <v>3.4</v>
+      </c>
+      <c r="AJ414">
+        <v>1.9</v>
+      </c>
+      <c r="AK414">
+        <v>1.8</v>
+      </c>
+      <c r="AL414">
+        <v>1.75</v>
+      </c>
+      <c r="AM414">
+        <v>2</v>
+      </c>
+      <c r="AN414">
+        <v>1.5</v>
+      </c>
+      <c r="AO414">
+        <v>1.3</v>
+      </c>
+      <c r="AP414">
+        <v>1.4</v>
+      </c>
+      <c r="AQ414">
+        <v>2.71</v>
+      </c>
+      <c r="AR414">
+        <v>1.31</v>
+      </c>
+      <c r="AS414">
+        <v>2.72</v>
+      </c>
+      <c r="AT414">
+        <v>1.24</v>
+      </c>
+      <c r="AU414">
+        <v>1.82</v>
+      </c>
+      <c r="AV414">
+        <v>1.64</v>
+      </c>
+      <c r="AW414">
+        <v>3.46</v>
+      </c>
+      <c r="AX414">
+        <v>2.05</v>
+      </c>
+      <c r="AY414">
+        <v>8</v>
+      </c>
+      <c r="AZ414">
+        <v>1.95</v>
+      </c>
+      <c r="BA414">
+        <v>1.19</v>
+      </c>
+      <c r="BB414">
+        <v>1.29</v>
+      </c>
+      <c r="BC414">
+        <v>1.57</v>
+      </c>
+      <c r="BD414">
+        <v>2</v>
+      </c>
+      <c r="BE414">
+        <v>2.4</v>
+      </c>
+      <c r="BF414">
+        <v>5</v>
+      </c>
+      <c r="BG414">
+        <v>4</v>
+      </c>
+      <c r="BH414">
+        <v>6</v>
+      </c>
+      <c r="BI414">
+        <v>6</v>
+      </c>
+      <c r="BJ414">
+        <v>11</v>
+      </c>
+      <c r="BK414">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/England EFL League One_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/England EFL League One_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2613" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2637" uniqueCount="485">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1039,6 +1039,9 @@
     <t>['10', '18']</t>
   </si>
   <si>
+    <t>['28', '55']</t>
+  </si>
+  <si>
     <t>['36', '90+4']</t>
   </si>
   <si>
@@ -1455,6 +1458,18 @@
   <si>
     <t>['44', '68']</t>
   </si>
+  <si>
+    <t>['13', '57', '81']</t>
+  </si>
+  <si>
+    <t>['12', '19', '38', '51', '64']</t>
+  </si>
+  <si>
+    <t>['16', '62']</t>
+  </si>
+  <si>
+    <t>['17', '21', '43', '69']</t>
+  </si>
 </sst>
 </file>
 
@@ -1815,7 +1830,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK426"/>
+  <dimension ref="A1:BK430"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2059,7 +2074,7 @@
         <v>89</v>
       </c>
       <c r="P2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q2">
         <v>6</v>
@@ -2146,10 +2161,10 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AT2">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -2441,7 +2456,7 @@
         <v>91</v>
       </c>
       <c r="P4" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q4">
         <v>7</v>
@@ -2531,7 +2546,7 @@
         <v>2.39</v>
       </c>
       <c r="AT4">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -2910,7 +2925,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AT6">
         <v>1.28</v>
@@ -3587,7 +3602,7 @@
         <v>97</v>
       </c>
       <c r="P10" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q10">
         <v>2</v>
@@ -3677,7 +3692,7 @@
         <v>1.29</v>
       </c>
       <c r="AT10">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3969,7 +3984,7 @@
         <v>99</v>
       </c>
       <c r="P12" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q12">
         <v>4</v>
@@ -4056,7 +4071,7 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AT12">
         <v>0.5600000000000001</v>
@@ -5306,7 +5321,7 @@
         <v>103</v>
       </c>
       <c r="P19" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -5497,7 +5512,7 @@
         <v>93</v>
       </c>
       <c r="P20" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -5584,7 +5599,7 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AT20">
         <v>1.33</v>
@@ -6160,7 +6175,7 @@
         <v>2.11</v>
       </c>
       <c r="AT23">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AU23">
         <v>0</v>
@@ -6730,7 +6745,7 @@
         <v>0</v>
       </c>
       <c r="AS26">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AT26">
         <v>1</v>
@@ -6924,7 +6939,7 @@
         <v>2.72</v>
       </c>
       <c r="AT27">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AU27">
         <v>1.94</v>
@@ -7025,7 +7040,7 @@
         <v>111</v>
       </c>
       <c r="P28" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q28">
         <v>12</v>
@@ -7306,7 +7321,7 @@
         <v>2.39</v>
       </c>
       <c r="AT29">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AU29">
         <v>1.98</v>
@@ -7685,7 +7700,7 @@
         <v>0</v>
       </c>
       <c r="AS31">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AT31">
         <v>1.22</v>
@@ -8362,7 +8377,7 @@
         <v>93</v>
       </c>
       <c r="P35" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q35">
         <v>5</v>
@@ -8452,7 +8467,7 @@
         <v>1.29</v>
       </c>
       <c r="AT35">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AU35">
         <v>1.65</v>
@@ -8553,7 +8568,7 @@
         <v>117</v>
       </c>
       <c r="P36" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -8640,7 +8655,7 @@
         <v>0</v>
       </c>
       <c r="AS36">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AT36">
         <v>0.88</v>
@@ -9508,7 +9523,7 @@
         <v>121</v>
       </c>
       <c r="P41" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q41">
         <v>10</v>
@@ -10359,7 +10374,7 @@
         <v>3</v>
       </c>
       <c r="AS45">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AT45">
         <v>1.83</v>
@@ -10935,7 +10950,7 @@
         <v>1.53</v>
       </c>
       <c r="AT48">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AU48">
         <v>1.2</v>
@@ -11036,7 +11051,7 @@
         <v>93</v>
       </c>
       <c r="P49" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q49">
         <v>2</v>
@@ -11227,7 +11242,7 @@
         <v>93</v>
       </c>
       <c r="P50" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q50">
         <v>6</v>
@@ -12182,7 +12197,7 @@
         <v>130</v>
       </c>
       <c r="P55" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q55">
         <v>8</v>
@@ -12564,7 +12579,7 @@
         <v>93</v>
       </c>
       <c r="P57" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q57">
         <v>7</v>
@@ -12651,7 +12666,7 @@
         <v>0</v>
       </c>
       <c r="AS57">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AT57">
         <v>1.06</v>
@@ -12946,7 +12961,7 @@
         <v>93</v>
       </c>
       <c r="P59" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q59">
         <v>4</v>
@@ -13137,7 +13152,7 @@
         <v>93</v>
       </c>
       <c r="P60" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q60">
         <v>7</v>
@@ -13227,7 +13242,7 @@
         <v>2.18</v>
       </c>
       <c r="AT60">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AU60">
         <v>1.81</v>
@@ -13328,7 +13343,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q61">
         <v>9</v>
@@ -13418,7 +13433,7 @@
         <v>1.89</v>
       </c>
       <c r="AT61">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AU61">
         <v>2.29</v>
@@ -13800,7 +13815,7 @@
         <v>1.39</v>
       </c>
       <c r="AT63">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AU63">
         <v>1.61</v>
@@ -14092,7 +14107,7 @@
         <v>93</v>
       </c>
       <c r="P65" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q65">
         <v>7</v>
@@ -14179,7 +14194,7 @@
         <v>0</v>
       </c>
       <c r="AS65">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AT65">
         <v>1.11</v>
@@ -14283,7 +14298,7 @@
         <v>135</v>
       </c>
       <c r="P66" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q66">
         <v>3</v>
@@ -14474,7 +14489,7 @@
         <v>136</v>
       </c>
       <c r="P67" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q67">
         <v>4</v>
@@ -14755,7 +14770,7 @@
         <v>2.22</v>
       </c>
       <c r="AT68">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AU68">
         <v>1.28</v>
@@ -14856,7 +14871,7 @@
         <v>118</v>
       </c>
       <c r="P69" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q69">
         <v>3</v>
@@ -15047,7 +15062,7 @@
         <v>138</v>
       </c>
       <c r="P70" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q70">
         <v>6</v>
@@ -15325,7 +15340,7 @@
         <v>2</v>
       </c>
       <c r="AS71">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AT71">
         <v>1.28</v>
@@ -15516,7 +15531,7 @@
         <v>0.5</v>
       </c>
       <c r="AS72">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AT72">
         <v>1.11</v>
@@ -15710,7 +15725,7 @@
         <v>1.61</v>
       </c>
       <c r="AT73">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AU73">
         <v>1.5</v>
@@ -15811,7 +15826,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q74">
         <v>2</v>
@@ -16193,7 +16208,7 @@
         <v>93</v>
       </c>
       <c r="P76" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q76">
         <v>6</v>
@@ -16474,7 +16489,7 @@
         <v>1.17</v>
       </c>
       <c r="AT77">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AU77">
         <v>1.09</v>
@@ -16766,7 +16781,7 @@
         <v>93</v>
       </c>
       <c r="P79" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q79">
         <v>9</v>
@@ -17148,7 +17163,7 @@
         <v>145</v>
       </c>
       <c r="P81" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q81">
         <v>11</v>
@@ -17235,7 +17250,7 @@
         <v>0.33</v>
       </c>
       <c r="AS81">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AT81">
         <v>0.44</v>
@@ -17339,7 +17354,7 @@
         <v>146</v>
       </c>
       <c r="P82" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q82">
         <v>5</v>
@@ -17429,7 +17444,7 @@
         <v>2.11</v>
       </c>
       <c r="AT82">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AU82">
         <v>1.78</v>
@@ -17530,7 +17545,7 @@
         <v>93</v>
       </c>
       <c r="P83" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q83">
         <v>6</v>
@@ -17617,7 +17632,7 @@
         <v>3</v>
       </c>
       <c r="AS83">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AT83">
         <v>1.83</v>
@@ -17721,7 +17736,7 @@
         <v>147</v>
       </c>
       <c r="P84" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q84">
         <v>4</v>
@@ -17912,7 +17927,7 @@
         <v>148</v>
       </c>
       <c r="P85" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q85">
         <v>1</v>
@@ -18103,7 +18118,7 @@
         <v>93</v>
       </c>
       <c r="P86" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -18190,10 +18205,10 @@
         <v>2.33</v>
       </c>
       <c r="AS86">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AT86">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AU86">
         <v>1.19</v>
@@ -18867,7 +18882,7 @@
         <v>93</v>
       </c>
       <c r="P90" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q90">
         <v>3</v>
@@ -19058,7 +19073,7 @@
         <v>93</v>
       </c>
       <c r="P91" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q91">
         <v>3</v>
@@ -19145,7 +19160,7 @@
         <v>2</v>
       </c>
       <c r="AS91">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AT91">
         <v>2.13</v>
@@ -19249,7 +19264,7 @@
         <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q92">
         <v>5</v>
@@ -20204,7 +20219,7 @@
         <v>156</v>
       </c>
       <c r="P97" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q97">
         <v>6</v>
@@ -20482,7 +20497,7 @@
         <v>1.25</v>
       </c>
       <c r="AS98">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AT98">
         <v>0.95</v>
@@ -20676,7 +20691,7 @@
         <v>2.11</v>
       </c>
       <c r="AT99">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AU99">
         <v>1.81</v>
@@ -20777,7 +20792,7 @@
         <v>159</v>
       </c>
       <c r="P100" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q100">
         <v>9</v>
@@ -20864,7 +20879,7 @@
         <v>1</v>
       </c>
       <c r="AS100">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AT100">
         <v>1.11</v>
@@ -20968,7 +20983,7 @@
         <v>93</v>
       </c>
       <c r="P101" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q101">
         <v>3</v>
@@ -21249,7 +21264,7 @@
         <v>1.17</v>
       </c>
       <c r="AT102">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AU102">
         <v>1.4</v>
@@ -21350,7 +21365,7 @@
         <v>160</v>
       </c>
       <c r="P103" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q103">
         <v>5</v>
@@ -21732,7 +21747,7 @@
         <v>162</v>
       </c>
       <c r="P105" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q105">
         <v>2</v>
@@ -21923,7 +21938,7 @@
         <v>163</v>
       </c>
       <c r="P106" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q106">
         <v>3</v>
@@ -22114,7 +22129,7 @@
         <v>164</v>
       </c>
       <c r="P107" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q107">
         <v>8</v>
@@ -22204,7 +22219,7 @@
         <v>2.22</v>
       </c>
       <c r="AT107">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AU107">
         <v>1.52</v>
@@ -22305,7 +22320,7 @@
         <v>129</v>
       </c>
       <c r="P108" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q108">
         <v>9</v>
@@ -22496,7 +22511,7 @@
         <v>93</v>
       </c>
       <c r="P109" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q109">
         <v>5</v>
@@ -22687,7 +22702,7 @@
         <v>93</v>
       </c>
       <c r="P110" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q110">
         <v>3</v>
@@ -22878,7 +22893,7 @@
         <v>165</v>
       </c>
       <c r="P111" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q111">
         <v>4</v>
@@ -22968,7 +22983,7 @@
         <v>2.18</v>
       </c>
       <c r="AT111">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AU111">
         <v>1.75</v>
@@ -23156,7 +23171,7 @@
         <v>1</v>
       </c>
       <c r="AS112">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AT112">
         <v>0.83</v>
@@ -23260,7 +23275,7 @@
         <v>166</v>
       </c>
       <c r="P113" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q113">
         <v>0</v>
@@ -23347,7 +23362,7 @@
         <v>0.25</v>
       </c>
       <c r="AS113">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AT113">
         <v>0.44</v>
@@ -23732,7 +23747,7 @@
         <v>2.39</v>
       </c>
       <c r="AT115">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AU115">
         <v>1.52</v>
@@ -24215,7 +24230,7 @@
         <v>93</v>
       </c>
       <c r="P118" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q118">
         <v>5</v>
@@ -24406,7 +24421,7 @@
         <v>171</v>
       </c>
       <c r="P119" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q119">
         <v>6</v>
@@ -24788,7 +24803,7 @@
         <v>173</v>
       </c>
       <c r="P121" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q121">
         <v>1</v>
@@ -25170,7 +25185,7 @@
         <v>174</v>
       </c>
       <c r="P123" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Q123">
         <v>9</v>
@@ -25257,7 +25272,7 @@
         <v>1.25</v>
       </c>
       <c r="AS123">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AT123">
         <v>0.5600000000000001</v>
@@ -25639,7 +25654,7 @@
         <v>1</v>
       </c>
       <c r="AS125">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AT125">
         <v>0.44</v>
@@ -25934,7 +25949,7 @@
         <v>177</v>
       </c>
       <c r="P127" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q127">
         <v>8</v>
@@ -26024,7 +26039,7 @@
         <v>2.17</v>
       </c>
       <c r="AT127">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AU127">
         <v>2.04</v>
@@ -26125,7 +26140,7 @@
         <v>93</v>
       </c>
       <c r="P128" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q128">
         <v>2</v>
@@ -26316,7 +26331,7 @@
         <v>178</v>
       </c>
       <c r="P129" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q129">
         <v>5</v>
@@ -26406,7 +26421,7 @@
         <v>0.72</v>
       </c>
       <c r="AT129">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AU129">
         <v>1.1</v>
@@ -26594,7 +26609,7 @@
         <v>1.25</v>
       </c>
       <c r="AS130">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AT130">
         <v>1.22</v>
@@ -27361,7 +27376,7 @@
         <v>1.47</v>
       </c>
       <c r="AT134">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AU134">
         <v>1.3</v>
@@ -27549,7 +27564,7 @@
         <v>0.67</v>
       </c>
       <c r="AS135">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AT135">
         <v>0.44</v>
@@ -27653,7 +27668,7 @@
         <v>93</v>
       </c>
       <c r="P136" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Q136">
         <v>7</v>
@@ -27844,7 +27859,7 @@
         <v>109</v>
       </c>
       <c r="P137" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Q137">
         <v>2</v>
@@ -27931,7 +27946,7 @@
         <v>2.17</v>
       </c>
       <c r="AS137">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AT137">
         <v>1.83</v>
@@ -28125,7 +28140,7 @@
         <v>1</v>
       </c>
       <c r="AT138">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AU138">
         <v>1.87</v>
@@ -28608,7 +28623,7 @@
         <v>185</v>
       </c>
       <c r="P141" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q141">
         <v>6</v>
@@ -28990,7 +29005,7 @@
         <v>187</v>
       </c>
       <c r="P143" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Q143">
         <v>7</v>
@@ -29563,7 +29578,7 @@
         <v>189</v>
       </c>
       <c r="P146" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Q146">
         <v>4</v>
@@ -29754,7 +29769,7 @@
         <v>93</v>
       </c>
       <c r="P147" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q147">
         <v>0</v>
@@ -30136,7 +30151,7 @@
         <v>93</v>
       </c>
       <c r="P149" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Q149">
         <v>6</v>
@@ -30327,7 +30342,7 @@
         <v>191</v>
       </c>
       <c r="P150" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Q150">
         <v>7</v>
@@ -30518,7 +30533,7 @@
         <v>192</v>
       </c>
       <c r="P151" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Q151">
         <v>5</v>
@@ -30987,7 +31002,7 @@
         <v>0.83</v>
       </c>
       <c r="AS153">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AT153">
         <v>0.44</v>
@@ -31282,7 +31297,7 @@
         <v>94</v>
       </c>
       <c r="P155" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q155">
         <v>1</v>
@@ -31473,7 +31488,7 @@
         <v>193</v>
       </c>
       <c r="P156" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Q156">
         <v>13</v>
@@ -31754,7 +31769,7 @@
         <v>1.89</v>
       </c>
       <c r="AT157">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AU157">
         <v>2.07</v>
@@ -32046,7 +32061,7 @@
         <v>93</v>
       </c>
       <c r="P159" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="Q159">
         <v>5</v>
@@ -32133,7 +32148,7 @@
         <v>1</v>
       </c>
       <c r="AS159">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AT159">
         <v>1.33</v>
@@ -32327,7 +32342,7 @@
         <v>1.33</v>
       </c>
       <c r="AT160">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AU160">
         <v>1.65</v>
@@ -32810,7 +32825,7 @@
         <v>197</v>
       </c>
       <c r="P163" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="Q163">
         <v>6</v>
@@ -32900,7 +32915,7 @@
         <v>1</v>
       </c>
       <c r="AT163">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AU163">
         <v>1.99</v>
@@ -33088,7 +33103,7 @@
         <v>1.57</v>
       </c>
       <c r="AS164">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AT164">
         <v>1.71</v>
@@ -33282,7 +33297,7 @@
         <v>0.72</v>
       </c>
       <c r="AT165">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AU165">
         <v>1.03</v>
@@ -33473,7 +33488,7 @@
         <v>0.72</v>
       </c>
       <c r="AT166">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AU166">
         <v>1.28</v>
@@ -33574,7 +33589,7 @@
         <v>198</v>
       </c>
       <c r="P167" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q167">
         <v>3</v>
@@ -34043,7 +34058,7 @@
         <v>0.83</v>
       </c>
       <c r="AS169">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AT169">
         <v>0.95</v>
@@ -34147,7 +34162,7 @@
         <v>200</v>
       </c>
       <c r="P170" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="Q170">
         <v>8</v>
@@ -34234,7 +34249,7 @@
         <v>1.86</v>
       </c>
       <c r="AS170">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AT170">
         <v>1.39</v>
@@ -34338,7 +34353,7 @@
         <v>201</v>
       </c>
       <c r="P171" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="Q171">
         <v>4</v>
@@ -34425,7 +34440,7 @@
         <v>0.83</v>
       </c>
       <c r="AS171">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AT171">
         <v>1.28</v>
@@ -34619,7 +34634,7 @@
         <v>1.78</v>
       </c>
       <c r="AT172">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AU172">
         <v>1.29</v>
@@ -34720,7 +34735,7 @@
         <v>202</v>
       </c>
       <c r="P173" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="Q173">
         <v>11</v>
@@ -36057,7 +36072,7 @@
         <v>93</v>
       </c>
       <c r="P180" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="Q180">
         <v>1</v>
@@ -36439,7 +36454,7 @@
         <v>208</v>
       </c>
       <c r="P182" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="Q182">
         <v>4</v>
@@ -36630,7 +36645,7 @@
         <v>93</v>
       </c>
       <c r="P183" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="Q183">
         <v>6</v>
@@ -37203,7 +37218,7 @@
         <v>211</v>
       </c>
       <c r="P186" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="Q186">
         <v>7</v>
@@ -37585,7 +37600,7 @@
         <v>212</v>
       </c>
       <c r="P188" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="Q188">
         <v>1</v>
@@ -37776,7 +37791,7 @@
         <v>213</v>
       </c>
       <c r="P189" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="Q189">
         <v>4</v>
@@ -38349,7 +38364,7 @@
         <v>216</v>
       </c>
       <c r="P192" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="Q192">
         <v>13</v>
@@ -38540,7 +38555,7 @@
         <v>217</v>
       </c>
       <c r="P193" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="Q193">
         <v>7</v>
@@ -39113,7 +39128,7 @@
         <v>219</v>
       </c>
       <c r="P196" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Q196">
         <v>6</v>
@@ -39304,7 +39319,7 @@
         <v>220</v>
       </c>
       <c r="P197" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="Q197">
         <v>3</v>
@@ -39391,7 +39406,7 @@
         <v>1.14</v>
       </c>
       <c r="AS197">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AT197">
         <v>1.33</v>
@@ -39686,7 +39701,7 @@
         <v>222</v>
       </c>
       <c r="P199" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="Q199">
         <v>6</v>
@@ -39877,7 +39892,7 @@
         <v>223</v>
       </c>
       <c r="P200" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q200">
         <v>7</v>
@@ -40068,7 +40083,7 @@
         <v>224</v>
       </c>
       <c r="P201" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q201">
         <v>12</v>
@@ -40728,10 +40743,10 @@
         <v>1.86</v>
       </c>
       <c r="AS204">
+        <v>1.32</v>
+      </c>
+      <c r="AT204">
         <v>1.39</v>
-      </c>
-      <c r="AT204">
-        <v>1.29</v>
       </c>
       <c r="AU204">
         <v>1.23</v>
@@ -40832,7 +40847,7 @@
         <v>131</v>
       </c>
       <c r="P205" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="Q205">
         <v>6</v>
@@ -41405,7 +41420,7 @@
         <v>229</v>
       </c>
       <c r="P208" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="Q208">
         <v>4</v>
@@ -41495,7 +41510,7 @@
         <v>1.53</v>
       </c>
       <c r="AT208">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AU208">
         <v>1.51</v>
@@ -41596,7 +41611,7 @@
         <v>93</v>
       </c>
       <c r="P209" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="Q209">
         <v>6</v>
@@ -41686,7 +41701,7 @@
         <v>0.72</v>
       </c>
       <c r="AT209">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AU209">
         <v>1.27</v>
@@ -41787,7 +41802,7 @@
         <v>230</v>
       </c>
       <c r="P210" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="Q210">
         <v>12</v>
@@ -41874,10 +41889,10 @@
         <v>0.88</v>
       </c>
       <c r="AS210">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AT210">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AU210">
         <v>1.46</v>
@@ -41978,7 +41993,7 @@
         <v>231</v>
       </c>
       <c r="P211" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="Q211">
         <v>8</v>
@@ -42065,7 +42080,7 @@
         <v>1.25</v>
       </c>
       <c r="AS211">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AT211">
         <v>1.22</v>
@@ -42256,7 +42271,7 @@
         <v>2</v>
       </c>
       <c r="AS212">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AT212">
         <v>2.13</v>
@@ -42742,7 +42757,7 @@
         <v>93</v>
       </c>
       <c r="P215" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="Q215">
         <v>6</v>
@@ -43506,7 +43521,7 @@
         <v>234</v>
       </c>
       <c r="P219" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="Q219">
         <v>2</v>
@@ -43787,7 +43802,7 @@
         <v>1.29</v>
       </c>
       <c r="AT220">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AU220">
         <v>1.47</v>
@@ -43978,7 +43993,7 @@
         <v>1.39</v>
       </c>
       <c r="AT221">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AU221">
         <v>1.43</v>
@@ -44079,7 +44094,7 @@
         <v>237</v>
       </c>
       <c r="P222" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="Q222">
         <v>9</v>
@@ -44166,7 +44181,7 @@
         <v>1.67</v>
       </c>
       <c r="AS222">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AT222">
         <v>1.39</v>
@@ -44357,10 +44372,10 @@
         <v>1</v>
       </c>
       <c r="AS223">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AT223">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AU223">
         <v>1.59</v>
@@ -45034,7 +45049,7 @@
         <v>155</v>
       </c>
       <c r="P227" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="Q227">
         <v>3</v>
@@ -45312,7 +45327,7 @@
         <v>1</v>
       </c>
       <c r="AS228">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AT228">
         <v>1.11</v>
@@ -45416,7 +45431,7 @@
         <v>93</v>
       </c>
       <c r="P229" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="Q229">
         <v>4</v>
@@ -45798,7 +45813,7 @@
         <v>241</v>
       </c>
       <c r="P231" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="Q231">
         <v>5</v>
@@ -46840,7 +46855,7 @@
         <v>1.33</v>
       </c>
       <c r="AS236">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AT236">
         <v>1</v>
@@ -47034,7 +47049,7 @@
         <v>1.89</v>
       </c>
       <c r="AT237">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AU237">
         <v>2.04</v>
@@ -47135,7 +47150,7 @@
         <v>246</v>
       </c>
       <c r="P238" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="Q238">
         <v>6</v>
@@ -47416,7 +47431,7 @@
         <v>2.17</v>
       </c>
       <c r="AT239">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AU239">
         <v>2.21</v>
@@ -47795,7 +47810,7 @@
         <v>1.3</v>
       </c>
       <c r="AS241">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AT241">
         <v>1.33</v>
@@ -47899,7 +47914,7 @@
         <v>197</v>
       </c>
       <c r="P242" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="Q242">
         <v>6</v>
@@ -48180,7 +48195,7 @@
         <v>1.47</v>
       </c>
       <c r="AT243">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AU243">
         <v>1.25</v>
@@ -48559,7 +48574,7 @@
         <v>1.4</v>
       </c>
       <c r="AS245">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AT245">
         <v>1.06</v>
@@ -49236,7 +49251,7 @@
         <v>252</v>
       </c>
       <c r="P249" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="Q249">
         <v>7</v>
@@ -49809,7 +49824,7 @@
         <v>216</v>
       </c>
       <c r="P252" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="Q252">
         <v>9</v>
@@ -50191,7 +50206,7 @@
         <v>93</v>
       </c>
       <c r="P254" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="Q254">
         <v>6</v>
@@ -50663,7 +50678,7 @@
         <v>1.53</v>
       </c>
       <c r="AT256">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AU256">
         <v>1.41</v>
@@ -51233,7 +51248,7 @@
         <v>1.3</v>
       </c>
       <c r="AS259">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AT259">
         <v>1.11</v>
@@ -51424,7 +51439,7 @@
         <v>1.7</v>
       </c>
       <c r="AS260">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AT260">
         <v>1.71</v>
@@ -51719,7 +51734,7 @@
         <v>228</v>
       </c>
       <c r="P262" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="Q262">
         <v>3</v>
@@ -52000,7 +52015,7 @@
         <v>1.33</v>
       </c>
       <c r="AT263">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AU263">
         <v>1.56</v>
@@ -52292,7 +52307,7 @@
         <v>259</v>
       </c>
       <c r="P265" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q265">
         <v>3</v>
@@ -53056,7 +53071,7 @@
         <v>261</v>
       </c>
       <c r="P269" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="Q269">
         <v>3</v>
@@ -53337,7 +53352,7 @@
         <v>2.72</v>
       </c>
       <c r="AT270">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AU270">
         <v>1.86</v>
@@ -53719,7 +53734,7 @@
         <v>1</v>
       </c>
       <c r="AT272">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AU272">
         <v>1.89</v>
@@ -53820,7 +53835,7 @@
         <v>102</v>
       </c>
       <c r="P273" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="Q273">
         <v>6</v>
@@ -54011,7 +54026,7 @@
         <v>265</v>
       </c>
       <c r="P274" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="Q274">
         <v>3</v>
@@ -54098,7 +54113,7 @@
         <v>0.91</v>
       </c>
       <c r="AS274">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AT274">
         <v>1.11</v>
@@ -54480,7 +54495,7 @@
         <v>1.1</v>
       </c>
       <c r="AS276">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AT276">
         <v>0.83</v>
@@ -54966,7 +54981,7 @@
         <v>269</v>
       </c>
       <c r="P279" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q279">
         <v>5</v>
@@ -55053,7 +55068,7 @@
         <v>1.09</v>
       </c>
       <c r="AS279">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AT279">
         <v>0.95</v>
@@ -55348,7 +55363,7 @@
         <v>209</v>
       </c>
       <c r="P281" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="Q281">
         <v>7</v>
@@ -55438,7 +55453,7 @@
         <v>1.61</v>
       </c>
       <c r="AT281">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AU281">
         <v>1.44</v>
@@ -55539,7 +55554,7 @@
         <v>93</v>
       </c>
       <c r="P282" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="Q282">
         <v>8</v>
@@ -55629,7 +55644,7 @@
         <v>1.94</v>
       </c>
       <c r="AT282">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AU282">
         <v>1.88</v>
@@ -55730,7 +55745,7 @@
         <v>241</v>
       </c>
       <c r="P283" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="Q283">
         <v>2</v>
@@ -56199,7 +56214,7 @@
         <v>0.75</v>
       </c>
       <c r="AS285">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AT285">
         <v>0.88</v>
@@ -56303,7 +56318,7 @@
         <v>93</v>
       </c>
       <c r="P286" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="Q286">
         <v>8</v>
@@ -56876,7 +56891,7 @@
         <v>93</v>
       </c>
       <c r="P289" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="Q289">
         <v>3</v>
@@ -57258,7 +57273,7 @@
         <v>274</v>
       </c>
       <c r="P291" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q291">
         <v>0</v>
@@ -57449,7 +57464,7 @@
         <v>187</v>
       </c>
       <c r="P292" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="Q292">
         <v>9</v>
@@ -57727,7 +57742,7 @@
         <v>1</v>
       </c>
       <c r="AS293">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AT293">
         <v>0.95</v>
@@ -58213,7 +58228,7 @@
         <v>276</v>
       </c>
       <c r="P296" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="Q296">
         <v>3</v>
@@ -58595,7 +58610,7 @@
         <v>277</v>
       </c>
       <c r="P298" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="Q298">
         <v>10</v>
@@ -59168,7 +59183,7 @@
         <v>93</v>
       </c>
       <c r="P301" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="Q301">
         <v>9</v>
@@ -59255,7 +59270,7 @@
         <v>1.09</v>
       </c>
       <c r="AS301">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AT301">
         <v>1.28</v>
@@ -59640,7 +59655,7 @@
         <v>2.11</v>
       </c>
       <c r="AT303">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AU303">
         <v>1.55</v>
@@ -59828,7 +59843,7 @@
         <v>1.38</v>
       </c>
       <c r="AS304">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AT304">
         <v>1.33</v>
@@ -59932,7 +59947,7 @@
         <v>93</v>
       </c>
       <c r="P305" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="Q305">
         <v>1</v>
@@ -60022,7 +60037,7 @@
         <v>1.39</v>
       </c>
       <c r="AT305">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AU305">
         <v>1.42</v>
@@ -60887,7 +60902,7 @@
         <v>284</v>
       </c>
       <c r="P310" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="Q310">
         <v>6</v>
@@ -61651,7 +61666,7 @@
         <v>130</v>
       </c>
       <c r="P314" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="Q314">
         <v>7</v>
@@ -62606,7 +62621,7 @@
         <v>93</v>
       </c>
       <c r="P319" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="Q319">
         <v>4</v>
@@ -62696,7 +62711,7 @@
         <v>1.17</v>
       </c>
       <c r="AT319">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AU319">
         <v>1.46</v>
@@ -62797,7 +62812,7 @@
         <v>196</v>
       </c>
       <c r="P320" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="Q320">
         <v>6</v>
@@ -63269,7 +63284,7 @@
         <v>1.94</v>
       </c>
       <c r="AT322">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AU322">
         <v>1.93</v>
@@ -63839,7 +63854,7 @@
         <v>1.21</v>
       </c>
       <c r="AS325">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AT325">
         <v>1</v>
@@ -63943,7 +63958,7 @@
         <v>93</v>
       </c>
       <c r="P326" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="Q326">
         <v>5</v>
@@ -64134,7 +64149,7 @@
         <v>293</v>
       </c>
       <c r="P327" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q327">
         <v>3</v>
@@ -64221,7 +64236,7 @@
         <v>1.29</v>
       </c>
       <c r="AS327">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AT327">
         <v>1.33</v>
@@ -64325,7 +64340,7 @@
         <v>99</v>
       </c>
       <c r="P328" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="Q328">
         <v>10</v>
@@ -64516,7 +64531,7 @@
         <v>93</v>
       </c>
       <c r="P329" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="Q329">
         <v>8</v>
@@ -64898,7 +64913,7 @@
         <v>93</v>
       </c>
       <c r="P331" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="Q331">
         <v>1</v>
@@ -64985,7 +65000,7 @@
         <v>1.08</v>
       </c>
       <c r="AS331">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AT331">
         <v>1.11</v>
@@ -65089,7 +65104,7 @@
         <v>93</v>
       </c>
       <c r="P332" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="Q332">
         <v>5</v>
@@ -65179,7 +65194,7 @@
         <v>1.39</v>
       </c>
       <c r="AT332">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AU332">
         <v>1.43</v>
@@ -65367,7 +65382,7 @@
         <v>1.23</v>
       </c>
       <c r="AS333">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AT333">
         <v>1.11</v>
@@ -65853,7 +65868,7 @@
         <v>295</v>
       </c>
       <c r="P336" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="Q336">
         <v>14</v>
@@ -65943,7 +65958,7 @@
         <v>1.53</v>
       </c>
       <c r="AT336">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AU336">
         <v>1.44</v>
@@ -66044,7 +66059,7 @@
         <v>296</v>
       </c>
       <c r="P337" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="Q337">
         <v>5</v>
@@ -66235,7 +66250,7 @@
         <v>93</v>
       </c>
       <c r="P338" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="Q338">
         <v>6</v>
@@ -66325,7 +66340,7 @@
         <v>0.72</v>
       </c>
       <c r="AT338">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AU338">
         <v>1.3</v>
@@ -67468,7 +67483,7 @@
         <v>1.27</v>
       </c>
       <c r="AS344">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AT344">
         <v>1.11</v>
@@ -67572,7 +67587,7 @@
         <v>299</v>
       </c>
       <c r="P345" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="Q345">
         <v>2</v>
@@ -67763,7 +67778,7 @@
         <v>300</v>
       </c>
       <c r="P346" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="Q346">
         <v>6</v>
@@ -68145,7 +68160,7 @@
         <v>302</v>
       </c>
       <c r="P348" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="Q348">
         <v>7</v>
@@ -68426,7 +68441,7 @@
         <v>2.72</v>
       </c>
       <c r="AT349">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AU349">
         <v>1.83</v>
@@ -68527,7 +68542,7 @@
         <v>93</v>
       </c>
       <c r="P350" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="Q350">
         <v>8</v>
@@ -68718,7 +68733,7 @@
         <v>304</v>
       </c>
       <c r="P351" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="Q351">
         <v>5</v>
@@ -68996,7 +69011,7 @@
         <v>0.6</v>
       </c>
       <c r="AS352">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AT352">
         <v>0.5600000000000001</v>
@@ -69760,7 +69775,7 @@
         <v>1.73</v>
       </c>
       <c r="AS356">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AT356">
         <v>1.83</v>
@@ -69864,7 +69879,7 @@
         <v>132</v>
       </c>
       <c r="P357" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="Q357">
         <v>10</v>
@@ -70055,7 +70070,7 @@
         <v>277</v>
       </c>
       <c r="P358" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="Q358">
         <v>6</v>
@@ -70246,7 +70261,7 @@
         <v>93</v>
       </c>
       <c r="P359" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="Q359">
         <v>7</v>
@@ -70333,10 +70348,10 @@
         <v>1.43</v>
       </c>
       <c r="AS359">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AT359">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AU359">
         <v>1.44</v>
@@ -70527,7 +70542,7 @@
         <v>0.72</v>
       </c>
       <c r="AT360">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AU360">
         <v>1.28</v>
@@ -70718,7 +70733,7 @@
         <v>1.17</v>
       </c>
       <c r="AT361">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AU361">
         <v>1.51</v>
@@ -71392,7 +71407,7 @@
         <v>308</v>
       </c>
       <c r="P365" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="Q365">
         <v>4</v>
@@ -71670,7 +71685,7 @@
         <v>1.47</v>
       </c>
       <c r="AS366">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AT366">
         <v>1.28</v>
@@ -72055,7 +72070,7 @@
         <v>2.22</v>
       </c>
       <c r="AT368">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AU368">
         <v>1.79</v>
@@ -72156,7 +72171,7 @@
         <v>93</v>
       </c>
       <c r="P369" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="Q369">
         <v>5</v>
@@ -72538,7 +72553,7 @@
         <v>311</v>
       </c>
       <c r="P371" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="Q371">
         <v>10</v>
@@ -72920,7 +72935,7 @@
         <v>154</v>
       </c>
       <c r="P373" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="Q373">
         <v>8</v>
@@ -73007,7 +73022,7 @@
         <v>0.8</v>
       </c>
       <c r="AS373">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AT373">
         <v>0.88</v>
@@ -73392,7 +73407,7 @@
         <v>1.47</v>
       </c>
       <c r="AT375">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AU375">
         <v>1.2</v>
@@ -73684,7 +73699,7 @@
         <v>93</v>
       </c>
       <c r="P377" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="Q377">
         <v>8</v>
@@ -73771,10 +73786,10 @@
         <v>1.07</v>
       </c>
       <c r="AS377">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AT377">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AU377">
         <v>1.35</v>
@@ -73962,7 +73977,7 @@
         <v>1.2</v>
       </c>
       <c r="AS378">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AT378">
         <v>1.06</v>
@@ -74257,7 +74272,7 @@
         <v>93</v>
       </c>
       <c r="P380" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="Q380">
         <v>6</v>
@@ -74726,7 +74741,7 @@
         <v>0.87</v>
       </c>
       <c r="AS382">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AT382">
         <v>0.83</v>
@@ -75403,7 +75418,7 @@
         <v>256</v>
       </c>
       <c r="P386" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q386">
         <v>2</v>
@@ -76066,7 +76081,7 @@
         <v>1.78</v>
       </c>
       <c r="AT389">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AU389">
         <v>1.41</v>
@@ -76167,7 +76182,7 @@
         <v>319</v>
       </c>
       <c r="P390" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="Q390">
         <v>4</v>
@@ -76549,7 +76564,7 @@
         <v>321</v>
       </c>
       <c r="P392" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q392">
         <v>6</v>
@@ -76830,7 +76845,7 @@
         <v>1.94</v>
       </c>
       <c r="AT393">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AU393">
         <v>1.91</v>
@@ -77400,7 +77415,7 @@
         <v>1.29</v>
       </c>
       <c r="AS396">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AT396">
         <v>1.28</v>
@@ -77695,7 +77710,7 @@
         <v>324</v>
       </c>
       <c r="P398" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="Q398">
         <v>3</v>
@@ -77976,7 +77991,7 @@
         <v>2.72</v>
       </c>
       <c r="AT399">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AU399">
         <v>1.84</v>
@@ -78358,7 +78373,7 @@
         <v>2.39</v>
       </c>
       <c r="AT401">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AU401">
         <v>1.79</v>
@@ -78740,7 +78755,7 @@
         <v>1.22</v>
       </c>
       <c r="AT403">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AU403">
         <v>1.26</v>
@@ -78928,7 +78943,7 @@
         <v>1.75</v>
       </c>
       <c r="AS404">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AT404">
         <v>1.71</v>
@@ -79501,7 +79516,7 @@
         <v>0.59</v>
       </c>
       <c r="AS407">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AT407">
         <v>0.5600000000000001</v>
@@ -80650,7 +80665,7 @@
         <v>2.18</v>
       </c>
       <c r="AT413">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AU413">
         <v>1.54</v>
@@ -81133,7 +81148,7 @@
         <v>93</v>
       </c>
       <c r="P416" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q416">
         <v>9</v>
@@ -81324,7 +81339,7 @@
         <v>93</v>
       </c>
       <c r="P417" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="Q417">
         <v>3</v>
@@ -81515,7 +81530,7 @@
         <v>335</v>
       </c>
       <c r="P418" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="Q418">
         <v>11</v>
@@ -81897,7 +81912,7 @@
         <v>166</v>
       </c>
       <c r="P420" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="Q420">
         <v>7</v>
@@ -82470,7 +82485,7 @@
         <v>338</v>
       </c>
       <c r="P423" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q423">
         <v>3</v>
@@ -82661,7 +82676,7 @@
         <v>93</v>
       </c>
       <c r="P424" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="Q424">
         <v>6</v>
@@ -83043,7 +83058,7 @@
         <v>340</v>
       </c>
       <c r="P426" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q426">
         <v>4</v>
@@ -83130,10 +83145,10 @@
         <v>1.44</v>
       </c>
       <c r="AS426">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AT426">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AU426">
         <v>1.58</v>
@@ -83185,6 +83200,770 @@
       </c>
       <c r="BK426">
         <v>18</v>
+      </c>
+    </row>
+    <row r="427" spans="1:63">
+      <c r="A427" s="1">
+        <v>426</v>
+      </c>
+      <c r="B427">
+        <v>2568170</v>
+      </c>
+      <c r="C427" t="s">
+        <v>63</v>
+      </c>
+      <c r="D427" t="s">
+        <v>64</v>
+      </c>
+      <c r="E427" s="2">
+        <v>44999.69791666666</v>
+      </c>
+      <c r="F427">
+        <v>21</v>
+      </c>
+      <c r="G427" t="s">
+        <v>65</v>
+      </c>
+      <c r="H427" t="s">
+        <v>79</v>
+      </c>
+      <c r="I427">
+        <v>0</v>
+      </c>
+      <c r="J427">
+        <v>1</v>
+      </c>
+      <c r="K427">
+        <v>1</v>
+      </c>
+      <c r="L427">
+        <v>1</v>
+      </c>
+      <c r="M427">
+        <v>3</v>
+      </c>
+      <c r="N427">
+        <v>4</v>
+      </c>
+      <c r="O427" t="s">
+        <v>313</v>
+      </c>
+      <c r="P427" t="s">
+        <v>481</v>
+      </c>
+      <c r="Q427">
+        <v>7</v>
+      </c>
+      <c r="R427">
+        <v>4</v>
+      </c>
+      <c r="S427">
+        <v>11</v>
+      </c>
+      <c r="T427">
+        <v>3.65</v>
+      </c>
+      <c r="U427">
+        <v>2.12</v>
+      </c>
+      <c r="V427">
+        <v>2.88</v>
+      </c>
+      <c r="W427">
+        <v>1.34</v>
+      </c>
+      <c r="X427">
+        <v>3</v>
+      </c>
+      <c r="Y427">
+        <v>2.8</v>
+      </c>
+      <c r="Z427">
+        <v>1.38</v>
+      </c>
+      <c r="AA427">
+        <v>7.5</v>
+      </c>
+      <c r="AB427">
+        <v>1.07</v>
+      </c>
+      <c r="AC427">
+        <v>3.44</v>
+      </c>
+      <c r="AD427">
+        <v>3.24</v>
+      </c>
+      <c r="AE427">
+        <v>2.18</v>
+      </c>
+      <c r="AF427">
+        <v>1.04</v>
+      </c>
+      <c r="AG427">
+        <v>11</v>
+      </c>
+      <c r="AH427">
+        <v>1.3</v>
+      </c>
+      <c r="AI427">
+        <v>3.5</v>
+      </c>
+      <c r="AJ427">
+        <v>1.85</v>
+      </c>
+      <c r="AK427">
+        <v>1.95</v>
+      </c>
+      <c r="AL427">
+        <v>1.68</v>
+      </c>
+      <c r="AM427">
+        <v>2.12</v>
+      </c>
+      <c r="AN427">
+        <v>1.62</v>
+      </c>
+      <c r="AO427">
+        <v>1.33</v>
+      </c>
+      <c r="AP427">
+        <v>1.36</v>
+      </c>
+      <c r="AQ427">
+        <v>1.25</v>
+      </c>
+      <c r="AR427">
+        <v>1.29</v>
+      </c>
+      <c r="AS427">
+        <v>1.18</v>
+      </c>
+      <c r="AT427">
+        <v>1.39</v>
+      </c>
+      <c r="AU427">
+        <v>1.45</v>
+      </c>
+      <c r="AV427">
+        <v>1.43</v>
+      </c>
+      <c r="AW427">
+        <v>2.88</v>
+      </c>
+      <c r="AX427">
+        <v>2.43</v>
+      </c>
+      <c r="AY427">
+        <v>7.5</v>
+      </c>
+      <c r="AZ427">
+        <v>1.8</v>
+      </c>
+      <c r="BA427">
+        <v>1.18</v>
+      </c>
+      <c r="BB427">
+        <v>1.34</v>
+      </c>
+      <c r="BC427">
+        <v>1.6</v>
+      </c>
+      <c r="BD427">
+        <v>1.98</v>
+      </c>
+      <c r="BE427">
+        <v>2.65</v>
+      </c>
+      <c r="BF427">
+        <v>5</v>
+      </c>
+      <c r="BG427">
+        <v>6</v>
+      </c>
+      <c r="BH427">
+        <v>16</v>
+      </c>
+      <c r="BI427">
+        <v>5</v>
+      </c>
+      <c r="BJ427">
+        <v>21</v>
+      </c>
+      <c r="BK427">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="428" spans="1:63">
+      <c r="A428" s="1">
+        <v>427</v>
+      </c>
+      <c r="B428">
+        <v>2569541</v>
+      </c>
+      <c r="C428" t="s">
+        <v>63</v>
+      </c>
+      <c r="D428" t="s">
+        <v>64</v>
+      </c>
+      <c r="E428" s="2">
+        <v>44999.69791666666</v>
+      </c>
+      <c r="F428">
+        <v>26</v>
+      </c>
+      <c r="G428" t="s">
+        <v>83</v>
+      </c>
+      <c r="H428" t="s">
+        <v>80</v>
+      </c>
+      <c r="I428">
+        <v>1</v>
+      </c>
+      <c r="J428">
+        <v>3</v>
+      </c>
+      <c r="K428">
+        <v>4</v>
+      </c>
+      <c r="L428">
+        <v>2</v>
+      </c>
+      <c r="M428">
+        <v>5</v>
+      </c>
+      <c r="N428">
+        <v>7</v>
+      </c>
+      <c r="O428" t="s">
+        <v>341</v>
+      </c>
+      <c r="P428" t="s">
+        <v>482</v>
+      </c>
+      <c r="Q428">
+        <v>4</v>
+      </c>
+      <c r="R428">
+        <v>4</v>
+      </c>
+      <c r="S428">
+        <v>8</v>
+      </c>
+      <c r="T428">
+        <v>3.3</v>
+      </c>
+      <c r="U428">
+        <v>2.15</v>
+      </c>
+      <c r="V428">
+        <v>2.9</v>
+      </c>
+      <c r="W428">
+        <v>1.35</v>
+      </c>
+      <c r="X428">
+        <v>2.95</v>
+      </c>
+      <c r="Y428">
+        <v>2.6</v>
+      </c>
+      <c r="Z428">
+        <v>1.42</v>
+      </c>
+      <c r="AA428">
+        <v>6.75</v>
+      </c>
+      <c r="AB428">
+        <v>1.1</v>
+      </c>
+      <c r="AC428">
+        <v>3.22</v>
+      </c>
+      <c r="AD428">
+        <v>3.44</v>
+      </c>
+      <c r="AE428">
+        <v>2.19</v>
+      </c>
+      <c r="AF428">
+        <v>1.04</v>
+      </c>
+      <c r="AG428">
+        <v>13</v>
+      </c>
+      <c r="AH428">
+        <v>1.24</v>
+      </c>
+      <c r="AI428">
+        <v>3.7</v>
+      </c>
+      <c r="AJ428">
+        <v>1.75</v>
+      </c>
+      <c r="AK428">
+        <v>2.05</v>
+      </c>
+      <c r="AL428">
+        <v>1.62</v>
+      </c>
+      <c r="AM428">
+        <v>2.15</v>
+      </c>
+      <c r="AN428">
+        <v>1.55</v>
+      </c>
+      <c r="AO428">
+        <v>1.27</v>
+      </c>
+      <c r="AP428">
+        <v>1.42</v>
+      </c>
+      <c r="AQ428">
+        <v>1.35</v>
+      </c>
+      <c r="AR428">
+        <v>1.12</v>
+      </c>
+      <c r="AS428">
+        <v>1.28</v>
+      </c>
+      <c r="AT428">
+        <v>1.22</v>
+      </c>
+      <c r="AU428">
+        <v>1.56</v>
+      </c>
+      <c r="AV428">
+        <v>1.41</v>
+      </c>
+      <c r="AW428">
+        <v>2.97</v>
+      </c>
+      <c r="AX428">
+        <v>1.89</v>
+      </c>
+      <c r="AY428">
+        <v>7.5</v>
+      </c>
+      <c r="AZ428">
+        <v>2.3</v>
+      </c>
+      <c r="BA428">
+        <v>1.2</v>
+      </c>
+      <c r="BB428">
+        <v>1.38</v>
+      </c>
+      <c r="BC428">
+        <v>1.67</v>
+      </c>
+      <c r="BD428">
+        <v>2.12</v>
+      </c>
+      <c r="BE428">
+        <v>2.85</v>
+      </c>
+      <c r="BF428">
+        <v>10</v>
+      </c>
+      <c r="BG428">
+        <v>9</v>
+      </c>
+      <c r="BH428">
+        <v>6</v>
+      </c>
+      <c r="BI428">
+        <v>5</v>
+      </c>
+      <c r="BJ428">
+        <v>16</v>
+      </c>
+      <c r="BK428">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="429" spans="1:63">
+      <c r="A429" s="1">
+        <v>428</v>
+      </c>
+      <c r="B429">
+        <v>2569855</v>
+      </c>
+      <c r="C429" t="s">
+        <v>63</v>
+      </c>
+      <c r="D429" t="s">
+        <v>64</v>
+      </c>
+      <c r="E429" s="2">
+        <v>44999.69791666666</v>
+      </c>
+      <c r="F429">
+        <v>28</v>
+      </c>
+      <c r="G429" t="s">
+        <v>75</v>
+      </c>
+      <c r="H429" t="s">
+        <v>66</v>
+      </c>
+      <c r="I429">
+        <v>0</v>
+      </c>
+      <c r="J429">
+        <v>1</v>
+      </c>
+      <c r="K429">
+        <v>1</v>
+      </c>
+      <c r="L429">
+        <v>0</v>
+      </c>
+      <c r="M429">
+        <v>2</v>
+      </c>
+      <c r="N429">
+        <v>2</v>
+      </c>
+      <c r="O429" t="s">
+        <v>93</v>
+      </c>
+      <c r="P429" t="s">
+        <v>483</v>
+      </c>
+      <c r="Q429">
+        <v>6</v>
+      </c>
+      <c r="R429">
+        <v>3</v>
+      </c>
+      <c r="S429">
+        <v>9</v>
+      </c>
+      <c r="T429">
+        <v>2.9</v>
+      </c>
+      <c r="U429">
+        <v>2.15</v>
+      </c>
+      <c r="V429">
+        <v>3.2</v>
+      </c>
+      <c r="W429">
+        <v>1.37</v>
+      </c>
+      <c r="X429">
+        <v>2.8</v>
+      </c>
+      <c r="Y429">
+        <v>2.8</v>
+      </c>
+      <c r="Z429">
+        <v>1.37</v>
+      </c>
+      <c r="AA429">
+        <v>6.5</v>
+      </c>
+      <c r="AB429">
+        <v>1.08</v>
+      </c>
+      <c r="AC429">
+        <v>2.88</v>
+      </c>
+      <c r="AD429">
+        <v>3.5</v>
+      </c>
+      <c r="AE429">
+        <v>2.36</v>
+      </c>
+      <c r="AF429">
+        <v>1.03</v>
+      </c>
+      <c r="AG429">
+        <v>8.5</v>
+      </c>
+      <c r="AH429">
+        <v>1.25</v>
+      </c>
+      <c r="AI429">
+        <v>3.5</v>
+      </c>
+      <c r="AJ429">
+        <v>1.83</v>
+      </c>
+      <c r="AK429">
+        <v>1.95</v>
+      </c>
+      <c r="AL429">
+        <v>1.65</v>
+      </c>
+      <c r="AM429">
+        <v>2.1</v>
+      </c>
+      <c r="AN429">
+        <v>1.45</v>
+      </c>
+      <c r="AO429">
+        <v>1.25</v>
+      </c>
+      <c r="AP429">
+        <v>1.47</v>
+      </c>
+      <c r="AQ429">
+        <v>1.24</v>
+      </c>
+      <c r="AR429">
+        <v>1.35</v>
+      </c>
+      <c r="AS429">
+        <v>1.17</v>
+      </c>
+      <c r="AT429">
+        <v>1.44</v>
+      </c>
+      <c r="AU429">
+        <v>1.5</v>
+      </c>
+      <c r="AV429">
+        <v>1.5</v>
+      </c>
+      <c r="AW429">
+        <v>3</v>
+      </c>
+      <c r="AX429">
+        <v>1.71</v>
+      </c>
+      <c r="AY429">
+        <v>7.5</v>
+      </c>
+      <c r="AZ429">
+        <v>2.6</v>
+      </c>
+      <c r="BA429">
+        <v>1.14</v>
+      </c>
+      <c r="BB429">
+        <v>1.21</v>
+      </c>
+      <c r="BC429">
+        <v>1.4</v>
+      </c>
+      <c r="BD429">
+        <v>1.7</v>
+      </c>
+      <c r="BE429">
+        <v>2.15</v>
+      </c>
+      <c r="BF429">
+        <v>6</v>
+      </c>
+      <c r="BG429">
+        <v>9</v>
+      </c>
+      <c r="BH429">
+        <v>12</v>
+      </c>
+      <c r="BI429">
+        <v>5</v>
+      </c>
+      <c r="BJ429">
+        <v>18</v>
+      </c>
+      <c r="BK429">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="430" spans="1:63">
+      <c r="A430" s="1">
+        <v>429</v>
+      </c>
+      <c r="B430">
+        <v>2568179</v>
+      </c>
+      <c r="C430" t="s">
+        <v>63</v>
+      </c>
+      <c r="D430" t="s">
+        <v>64</v>
+      </c>
+      <c r="E430" s="2">
+        <v>44999.69791666666</v>
+      </c>
+      <c r="F430">
+        <v>21</v>
+      </c>
+      <c r="G430" t="s">
+        <v>69</v>
+      </c>
+      <c r="H430" t="s">
+        <v>85</v>
+      </c>
+      <c r="I430">
+        <v>0</v>
+      </c>
+      <c r="J430">
+        <v>3</v>
+      </c>
+      <c r="K430">
+        <v>3</v>
+      </c>
+      <c r="L430">
+        <v>1</v>
+      </c>
+      <c r="M430">
+        <v>4</v>
+      </c>
+      <c r="N430">
+        <v>5</v>
+      </c>
+      <c r="O430" t="s">
+        <v>308</v>
+      </c>
+      <c r="P430" t="s">
+        <v>484</v>
+      </c>
+      <c r="Q430">
+        <v>5</v>
+      </c>
+      <c r="R430">
+        <v>4</v>
+      </c>
+      <c r="S430">
+        <v>9</v>
+      </c>
+      <c r="T430">
+        <v>4.33</v>
+      </c>
+      <c r="U430">
+        <v>2.15</v>
+      </c>
+      <c r="V430">
+        <v>2.6</v>
+      </c>
+      <c r="W430">
+        <v>1.39</v>
+      </c>
+      <c r="X430">
+        <v>2.8</v>
+      </c>
+      <c r="Y430">
+        <v>2.9</v>
+      </c>
+      <c r="Z430">
+        <v>1.37</v>
+      </c>
+      <c r="AA430">
+        <v>7.35</v>
+      </c>
+      <c r="AB430">
+        <v>1.06</v>
+      </c>
+      <c r="AC430">
+        <v>3.24</v>
+      </c>
+      <c r="AD430">
+        <v>3.38</v>
+      </c>
+      <c r="AE430">
+        <v>2.21</v>
+      </c>
+      <c r="AF430">
+        <v>1.03</v>
+      </c>
+      <c r="AG430">
+        <v>8.5</v>
+      </c>
+      <c r="AH430">
+        <v>1.27</v>
+      </c>
+      <c r="AI430">
+        <v>3.4</v>
+      </c>
+      <c r="AJ430">
+        <v>1.9</v>
+      </c>
+      <c r="AK430">
+        <v>1.87</v>
+      </c>
+      <c r="AL430">
+        <v>1.87</v>
+      </c>
+      <c r="AM430">
+        <v>1.95</v>
+      </c>
+      <c r="AN430">
+        <v>1.95</v>
+      </c>
+      <c r="AO430">
+        <v>1.25</v>
+      </c>
+      <c r="AP430">
+        <v>1.22</v>
+      </c>
+      <c r="AQ430">
+        <v>1.39</v>
+      </c>
+      <c r="AR430">
+        <v>1.06</v>
+      </c>
+      <c r="AS430">
+        <v>1.32</v>
+      </c>
+      <c r="AT430">
+        <v>1.17</v>
+      </c>
+      <c r="AU430">
+        <v>1.32</v>
+      </c>
+      <c r="AV430">
+        <v>1.15</v>
+      </c>
+      <c r="AW430">
+        <v>2.47</v>
+      </c>
+      <c r="AX430">
+        <v>2.9</v>
+      </c>
+      <c r="AY430">
+        <v>7.5</v>
+      </c>
+      <c r="AZ430">
+        <v>1.58</v>
+      </c>
+      <c r="BA430">
+        <v>1.2</v>
+      </c>
+      <c r="BB430">
+        <v>1.38</v>
+      </c>
+      <c r="BC430">
+        <v>1.67</v>
+      </c>
+      <c r="BD430">
+        <v>2.12</v>
+      </c>
+      <c r="BE430">
+        <v>2.85</v>
+      </c>
+      <c r="BF430">
+        <v>3</v>
+      </c>
+      <c r="BG430">
+        <v>9</v>
+      </c>
+      <c r="BH430">
+        <v>8</v>
+      </c>
+      <c r="BI430">
+        <v>10</v>
+      </c>
+      <c r="BJ430">
+        <v>11</v>
+      </c>
+      <c r="BK430">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/England EFL League One_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/England EFL League One_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2709" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2721" uniqueCount="498">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1060,6 +1060,9 @@
     <t>['8', '47']</t>
   </si>
   <si>
+    <t>['10', '12', '83', '90+6']</t>
+  </si>
+  <si>
     <t>['36', '90+4']</t>
   </si>
   <si>
@@ -1500,6 +1503,12 @@
   <si>
     <t>['11', '30']</t>
   </si>
+  <si>
+    <t>['14', '78']</t>
+  </si>
+  <si>
+    <t>['33', '74']</t>
+  </si>
 </sst>
 </file>
 
@@ -1860,7 +1869,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK442"/>
+  <dimension ref="A1:BK444"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2104,7 +2113,7 @@
         <v>89</v>
       </c>
       <c r="P2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q2">
         <v>6</v>
@@ -2191,7 +2200,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AT2">
         <v>1.26</v>
@@ -2486,7 +2495,7 @@
         <v>91</v>
       </c>
       <c r="P4" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q4">
         <v>7</v>
@@ -3632,7 +3641,7 @@
         <v>97</v>
       </c>
       <c r="P10" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q10">
         <v>2</v>
@@ -4014,7 +4023,7 @@
         <v>99</v>
       </c>
       <c r="P12" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q12">
         <v>4</v>
@@ -4486,7 +4495,7 @@
         <v>0.72</v>
       </c>
       <c r="AT14">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -5351,7 +5360,7 @@
         <v>103</v>
       </c>
       <c r="P19" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -5542,7 +5551,7 @@
         <v>93</v>
       </c>
       <c r="P20" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -6393,7 +6402,7 @@
         <v>0</v>
       </c>
       <c r="AS24">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AT24">
         <v>0.95</v>
@@ -6587,7 +6596,7 @@
         <v>1.17</v>
       </c>
       <c r="AT25">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AU25">
         <v>0</v>
@@ -7070,7 +7079,7 @@
         <v>111</v>
       </c>
       <c r="P28" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q28">
         <v>12</v>
@@ -8407,7 +8416,7 @@
         <v>93</v>
       </c>
       <c r="P35" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q35">
         <v>5</v>
@@ -8598,7 +8607,7 @@
         <v>117</v>
       </c>
       <c r="P36" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -8685,7 +8694,7 @@
         <v>0</v>
       </c>
       <c r="AS36">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AT36">
         <v>1</v>
@@ -9452,7 +9461,7 @@
         <v>1.94</v>
       </c>
       <c r="AT40">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AU40">
         <v>1.9</v>
@@ -9553,7 +9562,7 @@
         <v>121</v>
       </c>
       <c r="P41" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q41">
         <v>10</v>
@@ -10216,7 +10225,7 @@
         <v>1.33</v>
       </c>
       <c r="AT44">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AU44">
         <v>1.01</v>
@@ -10786,7 +10795,7 @@
         <v>3</v>
       </c>
       <c r="AS47">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AT47">
         <v>1.33</v>
@@ -11081,7 +11090,7 @@
         <v>93</v>
       </c>
       <c r="P49" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q49">
         <v>2</v>
@@ -11272,7 +11281,7 @@
         <v>93</v>
       </c>
       <c r="P50" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q50">
         <v>6</v>
@@ -11362,7 +11371,7 @@
         <v>0.72</v>
       </c>
       <c r="AT50">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AU50">
         <v>1.06</v>
@@ -12227,7 +12236,7 @@
         <v>130</v>
       </c>
       <c r="P55" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q55">
         <v>8</v>
@@ -12609,7 +12618,7 @@
         <v>93</v>
       </c>
       <c r="P57" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q57">
         <v>7</v>
@@ -12991,7 +13000,7 @@
         <v>93</v>
       </c>
       <c r="P59" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q59">
         <v>4</v>
@@ -13081,7 +13090,7 @@
         <v>2.11</v>
       </c>
       <c r="AT59">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AU59">
         <v>1.95</v>
@@ -13182,7 +13191,7 @@
         <v>93</v>
       </c>
       <c r="P60" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q60">
         <v>7</v>
@@ -13269,7 +13278,7 @@
         <v>0</v>
       </c>
       <c r="AS60">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AT60">
         <v>1.44</v>
@@ -13373,7 +13382,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q61">
         <v>9</v>
@@ -14137,7 +14146,7 @@
         <v>93</v>
       </c>
       <c r="P65" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q65">
         <v>7</v>
@@ -14328,7 +14337,7 @@
         <v>135</v>
       </c>
       <c r="P66" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q66">
         <v>3</v>
@@ -14519,7 +14528,7 @@
         <v>136</v>
       </c>
       <c r="P67" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q67">
         <v>4</v>
@@ -14901,7 +14910,7 @@
         <v>118</v>
       </c>
       <c r="P69" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q69">
         <v>3</v>
@@ -15092,7 +15101,7 @@
         <v>138</v>
       </c>
       <c r="P70" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q70">
         <v>6</v>
@@ -15561,7 +15570,7 @@
         <v>0.5</v>
       </c>
       <c r="AS72">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AT72">
         <v>1.05</v>
@@ -15856,7 +15865,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q74">
         <v>2</v>
@@ -16238,7 +16247,7 @@
         <v>93</v>
       </c>
       <c r="P76" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q76">
         <v>6</v>
@@ -16811,7 +16820,7 @@
         <v>93</v>
       </c>
       <c r="P79" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q79">
         <v>9</v>
@@ -17193,7 +17202,7 @@
         <v>145</v>
       </c>
       <c r="P81" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q81">
         <v>11</v>
@@ -17384,7 +17393,7 @@
         <v>146</v>
       </c>
       <c r="P82" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q82">
         <v>5</v>
@@ -17575,7 +17584,7 @@
         <v>93</v>
       </c>
       <c r="P83" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q83">
         <v>6</v>
@@ -17662,7 +17671,7 @@
         <v>3</v>
       </c>
       <c r="AS83">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AT83">
         <v>1.83</v>
@@ -17766,7 +17775,7 @@
         <v>147</v>
       </c>
       <c r="P84" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q84">
         <v>4</v>
@@ -17856,7 +17865,7 @@
         <v>2.11</v>
       </c>
       <c r="AT84">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AU84">
         <v>1.58</v>
@@ -17957,7 +17966,7 @@
         <v>148</v>
       </c>
       <c r="P85" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q85">
         <v>1</v>
@@ -18148,7 +18157,7 @@
         <v>93</v>
       </c>
       <c r="P86" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -18426,7 +18435,7 @@
         <v>1</v>
       </c>
       <c r="AS87">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AT87">
         <v>1.06</v>
@@ -18912,7 +18921,7 @@
         <v>93</v>
       </c>
       <c r="P90" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q90">
         <v>3</v>
@@ -19103,7 +19112,7 @@
         <v>93</v>
       </c>
       <c r="P91" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q91">
         <v>3</v>
@@ -19193,7 +19202,7 @@
         <v>1.3</v>
       </c>
       <c r="AT91">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AU91">
         <v>1.56</v>
@@ -19294,7 +19303,7 @@
         <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q92">
         <v>5</v>
@@ -20249,7 +20258,7 @@
         <v>156</v>
       </c>
       <c r="P97" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q97">
         <v>6</v>
@@ -20527,7 +20536,7 @@
         <v>1.25</v>
       </c>
       <c r="AS98">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AT98">
         <v>0.95</v>
@@ -20822,7 +20831,7 @@
         <v>159</v>
       </c>
       <c r="P100" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q100">
         <v>9</v>
@@ -21013,7 +21022,7 @@
         <v>93</v>
       </c>
       <c r="P101" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q101">
         <v>3</v>
@@ -21395,7 +21404,7 @@
         <v>160</v>
       </c>
       <c r="P103" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q103">
         <v>5</v>
@@ -21777,7 +21786,7 @@
         <v>162</v>
       </c>
       <c r="P105" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q105">
         <v>2</v>
@@ -21867,7 +21876,7 @@
         <v>1.61</v>
       </c>
       <c r="AT105">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AU105">
         <v>1.46</v>
@@ -21968,7 +21977,7 @@
         <v>163</v>
       </c>
       <c r="P106" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q106">
         <v>3</v>
@@ -22159,7 +22168,7 @@
         <v>164</v>
       </c>
       <c r="P107" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q107">
         <v>8</v>
@@ -22350,7 +22359,7 @@
         <v>129</v>
       </c>
       <c r="P108" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q108">
         <v>9</v>
@@ -22541,7 +22550,7 @@
         <v>93</v>
       </c>
       <c r="P109" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Q109">
         <v>5</v>
@@ -22732,7 +22741,7 @@
         <v>93</v>
       </c>
       <c r="P110" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q110">
         <v>3</v>
@@ -22923,7 +22932,7 @@
         <v>165</v>
       </c>
       <c r="P111" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q111">
         <v>4</v>
@@ -23010,7 +23019,7 @@
         <v>0.6</v>
       </c>
       <c r="AS111">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AT111">
         <v>1.26</v>
@@ -23305,7 +23314,7 @@
         <v>166</v>
       </c>
       <c r="P113" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q113">
         <v>0</v>
@@ -24260,7 +24269,7 @@
         <v>93</v>
       </c>
       <c r="P118" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Q118">
         <v>5</v>
@@ -24451,7 +24460,7 @@
         <v>171</v>
       </c>
       <c r="P119" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Q119">
         <v>6</v>
@@ -25114,7 +25123,7 @@
         <v>1.32</v>
       </c>
       <c r="AT122">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AU122">
         <v>1.48</v>
@@ -25215,7 +25224,7 @@
         <v>174</v>
       </c>
       <c r="P123" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Q123">
         <v>9</v>
@@ -25684,7 +25693,7 @@
         <v>1</v>
       </c>
       <c r="AS125">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AT125">
         <v>0.44</v>
@@ -25878,7 +25887,7 @@
         <v>1.79</v>
       </c>
       <c r="AT126">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AU126">
         <v>2.07</v>
@@ -25979,7 +25988,7 @@
         <v>177</v>
       </c>
       <c r="P127" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Q127">
         <v>8</v>
@@ -26170,7 +26179,7 @@
         <v>93</v>
       </c>
       <c r="P128" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Q128">
         <v>2</v>
@@ -26361,7 +26370,7 @@
         <v>178</v>
       </c>
       <c r="P129" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Q129">
         <v>5</v>
@@ -27215,7 +27224,7 @@
         <v>2.74</v>
       </c>
       <c r="AT133">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AU133">
         <v>1.75</v>
@@ -27698,7 +27707,7 @@
         <v>93</v>
       </c>
       <c r="P136" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Q136">
         <v>7</v>
@@ -27785,7 +27794,7 @@
         <v>1</v>
       </c>
       <c r="AS136">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AT136">
         <v>1.05</v>
@@ -27889,7 +27898,7 @@
         <v>109</v>
       </c>
       <c r="P137" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q137">
         <v>2</v>
@@ -28653,7 +28662,7 @@
         <v>185</v>
       </c>
       <c r="P141" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q141">
         <v>6</v>
@@ -29035,7 +29044,7 @@
         <v>187</v>
       </c>
       <c r="P143" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Q143">
         <v>7</v>
@@ -29608,7 +29617,7 @@
         <v>189</v>
       </c>
       <c r="P146" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="Q146">
         <v>4</v>
@@ -29799,7 +29808,7 @@
         <v>93</v>
       </c>
       <c r="P147" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q147">
         <v>0</v>
@@ -30181,7 +30190,7 @@
         <v>93</v>
       </c>
       <c r="P149" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="Q149">
         <v>6</v>
@@ -30271,7 +30280,7 @@
         <v>1.16</v>
       </c>
       <c r="AT149">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AU149">
         <v>1.45</v>
@@ -30372,7 +30381,7 @@
         <v>191</v>
       </c>
       <c r="P150" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="Q150">
         <v>7</v>
@@ -30563,7 +30572,7 @@
         <v>192</v>
       </c>
       <c r="P151" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="Q151">
         <v>5</v>
@@ -31327,7 +31336,7 @@
         <v>94</v>
       </c>
       <c r="P155" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="Q155">
         <v>1</v>
@@ -31417,7 +31426,7 @@
         <v>0.72</v>
       </c>
       <c r="AT155">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AU155">
         <v>1.02</v>
@@ -31518,7 +31527,7 @@
         <v>193</v>
       </c>
       <c r="P156" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="Q156">
         <v>13</v>
@@ -32091,7 +32100,7 @@
         <v>93</v>
       </c>
       <c r="P159" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="Q159">
         <v>5</v>
@@ -32178,7 +32187,7 @@
         <v>1</v>
       </c>
       <c r="AS159">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AT159">
         <v>1.33</v>
@@ -32754,7 +32763,7 @@
         <v>1.39</v>
       </c>
       <c r="AT162">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AU162">
         <v>1.21</v>
@@ -32855,7 +32864,7 @@
         <v>197</v>
       </c>
       <c r="P163" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="Q163">
         <v>6</v>
@@ -33619,7 +33628,7 @@
         <v>198</v>
       </c>
       <c r="P167" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q167">
         <v>3</v>
@@ -34192,7 +34201,7 @@
         <v>200</v>
       </c>
       <c r="P170" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="Q170">
         <v>8</v>
@@ -34282,7 +34291,7 @@
         <v>1.11</v>
       </c>
       <c r="AT170">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AU170">
         <v>1.55</v>
@@ -34383,7 +34392,7 @@
         <v>201</v>
       </c>
       <c r="P171" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="Q171">
         <v>4</v>
@@ -34470,7 +34479,7 @@
         <v>0.83</v>
       </c>
       <c r="AS171">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AT171">
         <v>1.26</v>
@@ -34765,7 +34774,7 @@
         <v>202</v>
       </c>
       <c r="P173" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="Q173">
         <v>11</v>
@@ -36102,7 +36111,7 @@
         <v>93</v>
       </c>
       <c r="P180" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="Q180">
         <v>1</v>
@@ -36484,7 +36493,7 @@
         <v>208</v>
       </c>
       <c r="P182" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="Q182">
         <v>4</v>
@@ -36675,7 +36684,7 @@
         <v>93</v>
       </c>
       <c r="P183" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Q183">
         <v>6</v>
@@ -36762,7 +36771,7 @@
         <v>1.43</v>
       </c>
       <c r="AS183">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AT183">
         <v>1.11</v>
@@ -37248,7 +37257,7 @@
         <v>211</v>
       </c>
       <c r="P186" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="Q186">
         <v>7</v>
@@ -37630,7 +37639,7 @@
         <v>212</v>
       </c>
       <c r="P188" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="Q188">
         <v>1</v>
@@ -37821,7 +37830,7 @@
         <v>213</v>
       </c>
       <c r="P189" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="Q189">
         <v>4</v>
@@ -38099,7 +38108,7 @@
         <v>0.88</v>
       </c>
       <c r="AS190">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AT190">
         <v>0.53</v>
@@ -38394,7 +38403,7 @@
         <v>216</v>
       </c>
       <c r="P192" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="Q192">
         <v>13</v>
@@ -38585,7 +38594,7 @@
         <v>217</v>
       </c>
       <c r="P193" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="Q193">
         <v>7</v>
@@ -39158,7 +39167,7 @@
         <v>219</v>
       </c>
       <c r="P196" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="Q196">
         <v>6</v>
@@ -39349,7 +39358,7 @@
         <v>220</v>
       </c>
       <c r="P197" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="Q197">
         <v>3</v>
@@ -39731,7 +39740,7 @@
         <v>222</v>
       </c>
       <c r="P199" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="Q199">
         <v>6</v>
@@ -39922,7 +39931,7 @@
         <v>223</v>
       </c>
       <c r="P200" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q200">
         <v>7</v>
@@ -40113,7 +40122,7 @@
         <v>224</v>
       </c>
       <c r="P201" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q201">
         <v>12</v>
@@ -40877,7 +40886,7 @@
         <v>131</v>
       </c>
       <c r="P205" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="Q205">
         <v>6</v>
@@ -41158,7 +41167,7 @@
         <v>1.39</v>
       </c>
       <c r="AT206">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AU206">
         <v>1.14</v>
@@ -41450,7 +41459,7 @@
         <v>229</v>
       </c>
       <c r="P208" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="Q208">
         <v>4</v>
@@ -41641,7 +41650,7 @@
         <v>93</v>
       </c>
       <c r="P209" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="Q209">
         <v>6</v>
@@ -41832,7 +41841,7 @@
         <v>230</v>
       </c>
       <c r="P210" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="Q210">
         <v>12</v>
@@ -42023,7 +42032,7 @@
         <v>231</v>
       </c>
       <c r="P211" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="Q211">
         <v>8</v>
@@ -42301,10 +42310,10 @@
         <v>2</v>
       </c>
       <c r="AS212">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AT212">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AU212">
         <v>1.64</v>
@@ -42787,7 +42796,7 @@
         <v>93</v>
       </c>
       <c r="P215" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="Q215">
         <v>6</v>
@@ -43551,7 +43560,7 @@
         <v>234</v>
       </c>
       <c r="P219" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="Q219">
         <v>2</v>
@@ -44124,7 +44133,7 @@
         <v>237</v>
       </c>
       <c r="P222" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="Q222">
         <v>9</v>
@@ -44214,7 +44223,7 @@
         <v>1.28</v>
       </c>
       <c r="AT222">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AU222">
         <v>1.62</v>
@@ -44593,7 +44602,7 @@
         <v>1.25</v>
       </c>
       <c r="AS224">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AT224">
         <v>1.21</v>
@@ -45079,7 +45088,7 @@
         <v>155</v>
       </c>
       <c r="P227" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="Q227">
         <v>3</v>
@@ -45461,7 +45470,7 @@
         <v>93</v>
       </c>
       <c r="P229" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="Q229">
         <v>4</v>
@@ -45843,7 +45852,7 @@
         <v>241</v>
       </c>
       <c r="P231" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="Q231">
         <v>5</v>
@@ -46506,7 +46515,7 @@
         <v>2.11</v>
       </c>
       <c r="AT234">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AU234">
         <v>1.69</v>
@@ -46885,7 +46894,7 @@
         <v>1.33</v>
       </c>
       <c r="AS236">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AT236">
         <v>1</v>
@@ -47180,7 +47189,7 @@
         <v>246</v>
       </c>
       <c r="P238" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="Q238">
         <v>6</v>
@@ -47944,7 +47953,7 @@
         <v>197</v>
       </c>
       <c r="P242" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="Q242">
         <v>6</v>
@@ -48416,7 +48425,7 @@
         <v>1.53</v>
       </c>
       <c r="AT244">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AU244">
         <v>1.41</v>
@@ -48798,7 +48807,7 @@
         <v>1.16</v>
       </c>
       <c r="AT246">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AU246">
         <v>1.32</v>
@@ -49281,7 +49290,7 @@
         <v>252</v>
       </c>
       <c r="P249" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="Q249">
         <v>7</v>
@@ -49750,7 +49759,7 @@
         <v>0.6</v>
       </c>
       <c r="AS251">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AT251">
         <v>1</v>
@@ -49854,7 +49863,7 @@
         <v>216</v>
       </c>
       <c r="P252" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="Q252">
         <v>9</v>
@@ -50236,7 +50245,7 @@
         <v>93</v>
       </c>
       <c r="P254" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="Q254">
         <v>6</v>
@@ -50517,7 +50526,7 @@
         <v>1.39</v>
       </c>
       <c r="AT255">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AU255">
         <v>1.46</v>
@@ -51469,7 +51478,7 @@
         <v>1.7</v>
       </c>
       <c r="AS260">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AT260">
         <v>1.78</v>
@@ -51764,7 +51773,7 @@
         <v>228</v>
       </c>
       <c r="P262" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="Q262">
         <v>3</v>
@@ -51854,7 +51863,7 @@
         <v>1.17</v>
       </c>
       <c r="AT262">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AU262">
         <v>1.42</v>
@@ -52337,7 +52346,7 @@
         <v>259</v>
       </c>
       <c r="P265" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q265">
         <v>3</v>
@@ -53101,7 +53110,7 @@
         <v>261</v>
       </c>
       <c r="P269" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="Q269">
         <v>3</v>
@@ -53865,7 +53874,7 @@
         <v>102</v>
       </c>
       <c r="P273" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="Q273">
         <v>6</v>
@@ -54056,7 +54065,7 @@
         <v>265</v>
       </c>
       <c r="P274" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="Q274">
         <v>3</v>
@@ -54334,7 +54343,7 @@
         <v>1.36</v>
       </c>
       <c r="AS275">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AT275">
         <v>1.32</v>
@@ -55011,7 +55020,7 @@
         <v>269</v>
       </c>
       <c r="P279" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q279">
         <v>5</v>
@@ -55393,7 +55402,7 @@
         <v>209</v>
       </c>
       <c r="P281" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="Q281">
         <v>7</v>
@@ -55584,7 +55593,7 @@
         <v>93</v>
       </c>
       <c r="P282" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="Q282">
         <v>8</v>
@@ -55775,7 +55784,7 @@
         <v>241</v>
       </c>
       <c r="P283" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="Q283">
         <v>2</v>
@@ -56348,7 +56357,7 @@
         <v>93</v>
       </c>
       <c r="P286" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="Q286">
         <v>8</v>
@@ -56921,7 +56930,7 @@
         <v>93</v>
       </c>
       <c r="P289" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="Q289">
         <v>3</v>
@@ -57008,7 +57017,7 @@
         <v>1.18</v>
       </c>
       <c r="AS289">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AT289">
         <v>1.26</v>
@@ -57303,7 +57312,7 @@
         <v>274</v>
       </c>
       <c r="P291" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q291">
         <v>0</v>
@@ -57494,7 +57503,7 @@
         <v>187</v>
       </c>
       <c r="P292" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="Q292">
         <v>9</v>
@@ -57966,7 +57975,7 @@
         <v>2.11</v>
       </c>
       <c r="AT294">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AU294">
         <v>1.54</v>
@@ -58258,7 +58267,7 @@
         <v>276</v>
       </c>
       <c r="P296" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="Q296">
         <v>3</v>
@@ -58640,7 +58649,7 @@
         <v>277</v>
       </c>
       <c r="P298" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="Q298">
         <v>10</v>
@@ -58921,7 +58930,7 @@
         <v>2.21</v>
       </c>
       <c r="AT299">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AU299">
         <v>2.17</v>
@@ -59213,7 +59222,7 @@
         <v>93</v>
       </c>
       <c r="P301" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="Q301">
         <v>9</v>
@@ -59494,7 +59503,7 @@
         <v>1.79</v>
       </c>
       <c r="AT302">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AU302">
         <v>1.88</v>
@@ -59873,7 +59882,7 @@
         <v>1.38</v>
       </c>
       <c r="AS304">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AT304">
         <v>1.33</v>
@@ -59977,7 +59986,7 @@
         <v>93</v>
       </c>
       <c r="P305" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="Q305">
         <v>1</v>
@@ -60255,7 +60264,7 @@
         <v>0.92</v>
       </c>
       <c r="AS306">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AT306">
         <v>0.83</v>
@@ -60932,7 +60941,7 @@
         <v>284</v>
       </c>
       <c r="P310" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="Q310">
         <v>6</v>
@@ -61696,7 +61705,7 @@
         <v>130</v>
       </c>
       <c r="P314" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="Q314">
         <v>7</v>
@@ -62651,7 +62660,7 @@
         <v>93</v>
       </c>
       <c r="P319" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="Q319">
         <v>4</v>
@@ -62842,7 +62851,7 @@
         <v>196</v>
       </c>
       <c r="P320" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="Q320">
         <v>6</v>
@@ -63988,7 +63997,7 @@
         <v>93</v>
       </c>
       <c r="P326" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="Q326">
         <v>5</v>
@@ -64179,7 +64188,7 @@
         <v>293</v>
       </c>
       <c r="P327" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Q327">
         <v>3</v>
@@ -64370,7 +64379,7 @@
         <v>99</v>
       </c>
       <c r="P328" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="Q328">
         <v>10</v>
@@ -64561,7 +64570,7 @@
         <v>93</v>
       </c>
       <c r="P329" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="Q329">
         <v>8</v>
@@ -64842,7 +64851,7 @@
         <v>2.32</v>
       </c>
       <c r="AT330">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AU330">
         <v>1.79</v>
@@ -64943,7 +64952,7 @@
         <v>93</v>
       </c>
       <c r="P331" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="Q331">
         <v>1</v>
@@ -65030,7 +65039,7 @@
         <v>1.08</v>
       </c>
       <c r="AS331">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AT331">
         <v>1.11</v>
@@ -65134,7 +65143,7 @@
         <v>93</v>
       </c>
       <c r="P332" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="Q332">
         <v>5</v>
@@ -65898,7 +65907,7 @@
         <v>295</v>
       </c>
       <c r="P336" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="Q336">
         <v>14</v>
@@ -66089,7 +66098,7 @@
         <v>296</v>
       </c>
       <c r="P337" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="Q337">
         <v>5</v>
@@ -66280,7 +66289,7 @@
         <v>93</v>
       </c>
       <c r="P338" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="Q338">
         <v>6</v>
@@ -67322,7 +67331,7 @@
         <v>0.57</v>
       </c>
       <c r="AS343">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AT343">
         <v>0.44</v>
@@ -67617,7 +67626,7 @@
         <v>299</v>
       </c>
       <c r="P345" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="Q345">
         <v>2</v>
@@ -67808,7 +67817,7 @@
         <v>300</v>
       </c>
       <c r="P346" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="Q346">
         <v>6</v>
@@ -67898,7 +67907,7 @@
         <v>2.21</v>
       </c>
       <c r="AT346">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AU346">
         <v>2.14</v>
@@ -68190,7 +68199,7 @@
         <v>302</v>
       </c>
       <c r="P348" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="Q348">
         <v>7</v>
@@ -68572,7 +68581,7 @@
         <v>93</v>
       </c>
       <c r="P350" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="Q350">
         <v>8</v>
@@ -68763,7 +68772,7 @@
         <v>304</v>
       </c>
       <c r="P351" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="Q351">
         <v>5</v>
@@ -69909,7 +69918,7 @@
         <v>132</v>
       </c>
       <c r="P357" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="Q357">
         <v>10</v>
@@ -70100,7 +70109,7 @@
         <v>277</v>
       </c>
       <c r="P358" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="Q358">
         <v>6</v>
@@ -70190,7 +70199,7 @@
         <v>1</v>
       </c>
       <c r="AT358">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AU358">
         <v>1.82</v>
@@ -70291,7 +70300,7 @@
         <v>93</v>
       </c>
       <c r="P359" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="Q359">
         <v>7</v>
@@ -70378,7 +70387,7 @@
         <v>1.43</v>
       </c>
       <c r="AS359">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AT359">
         <v>1.44</v>
@@ -71437,7 +71446,7 @@
         <v>308</v>
       </c>
       <c r="P365" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="Q365">
         <v>4</v>
@@ -71715,7 +71724,7 @@
         <v>1.47</v>
       </c>
       <c r="AS366">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AT366">
         <v>1.21</v>
@@ -72201,7 +72210,7 @@
         <v>93</v>
       </c>
       <c r="P369" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="Q369">
         <v>5</v>
@@ -72583,7 +72592,7 @@
         <v>311</v>
       </c>
       <c r="P371" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="Q371">
         <v>10</v>
@@ -72965,7 +72974,7 @@
         <v>154</v>
       </c>
       <c r="P373" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="Q373">
         <v>8</v>
@@ -73729,7 +73738,7 @@
         <v>93</v>
       </c>
       <c r="P377" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="Q377">
         <v>8</v>
@@ -74302,7 +74311,7 @@
         <v>93</v>
       </c>
       <c r="P380" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="Q380">
         <v>6</v>
@@ -74965,7 +74974,7 @@
         <v>1.33</v>
       </c>
       <c r="AT383">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AU383">
         <v>1.53</v>
@@ -75448,7 +75457,7 @@
         <v>256</v>
       </c>
       <c r="P386" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q386">
         <v>2</v>
@@ -75917,7 +75926,7 @@
         <v>1.4</v>
       </c>
       <c r="AS388">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AT388">
         <v>1.33</v>
@@ -76212,7 +76221,7 @@
         <v>319</v>
       </c>
       <c r="P390" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="Q390">
         <v>4</v>
@@ -76302,7 +76311,7 @@
         <v>1.94</v>
       </c>
       <c r="AT390">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AU390">
         <v>1.89</v>
@@ -76594,7 +76603,7 @@
         <v>321</v>
       </c>
       <c r="P392" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q392">
         <v>6</v>
@@ -77740,7 +77749,7 @@
         <v>324</v>
       </c>
       <c r="P398" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="Q398">
         <v>3</v>
@@ -79546,7 +79555,7 @@
         <v>0.59</v>
       </c>
       <c r="AS407">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AT407">
         <v>0.53</v>
@@ -79928,7 +79937,7 @@
         <v>1.38</v>
       </c>
       <c r="AS409">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AT409">
         <v>1.47</v>
@@ -80987,7 +80996,7 @@
         <v>93</v>
       </c>
       <c r="P415" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="Q415">
         <v>6</v>
@@ -81369,7 +81378,7 @@
         <v>166</v>
       </c>
       <c r="P417" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="Q417">
         <v>7</v>
@@ -81942,7 +81951,7 @@
         <v>336</v>
       </c>
       <c r="P420" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q420">
         <v>3</v>
@@ -82133,7 +82142,7 @@
         <v>337</v>
       </c>
       <c r="P421" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q421">
         <v>4</v>
@@ -82324,7 +82333,7 @@
         <v>93</v>
       </c>
       <c r="P422" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="Q422">
         <v>3</v>
@@ -82515,7 +82524,7 @@
         <v>338</v>
       </c>
       <c r="P423" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="Q423">
         <v>11</v>
@@ -82796,7 +82805,7 @@
         <v>1.61</v>
       </c>
       <c r="AT424">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AU424">
         <v>1.54</v>
@@ -83175,10 +83184,10 @@
         <v>1.47</v>
       </c>
       <c r="AS426">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AT426">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AU426">
         <v>1.57</v>
@@ -83279,7 +83288,7 @@
         <v>93</v>
       </c>
       <c r="P427" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="Q427">
         <v>6</v>
@@ -83470,7 +83479,7 @@
         <v>313</v>
       </c>
       <c r="P428" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="Q428">
         <v>7</v>
@@ -83557,7 +83566,7 @@
         <v>1.29</v>
       </c>
       <c r="AS428">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AT428">
         <v>1.47</v>
@@ -83661,7 +83670,7 @@
         <v>308</v>
       </c>
       <c r="P429" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="Q429">
         <v>5</v>
@@ -83852,7 +83861,7 @@
         <v>341</v>
       </c>
       <c r="P430" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="Q430">
         <v>4</v>
@@ -84234,7 +84243,7 @@
         <v>93</v>
       </c>
       <c r="P432" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="Q432">
         <v>2</v>
@@ -84425,7 +84434,7 @@
         <v>343</v>
       </c>
       <c r="P433" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="Q433">
         <v>3</v>
@@ -84703,7 +84712,7 @@
         <v>1.11</v>
       </c>
       <c r="AS434">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AT434">
         <v>1.21</v>
@@ -84807,7 +84816,7 @@
         <v>93</v>
       </c>
       <c r="P435" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="Q435">
         <v>4</v>
@@ -84998,7 +85007,7 @@
         <v>344</v>
       </c>
       <c r="P436" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="Q436">
         <v>8</v>
@@ -85380,7 +85389,7 @@
         <v>93</v>
       </c>
       <c r="P438" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="Q438">
         <v>3</v>
@@ -86144,7 +86153,7 @@
         <v>93</v>
       </c>
       <c r="P442" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q442">
         <v>12</v>
@@ -86286,6 +86295,388 @@
       </c>
       <c r="BK442">
         <v>6</v>
+      </c>
+    </row>
+    <row r="443" spans="1:63">
+      <c r="A443" s="1">
+        <v>442</v>
+      </c>
+      <c r="B443">
+        <v>2569443</v>
+      </c>
+      <c r="C443" t="s">
+        <v>63</v>
+      </c>
+      <c r="D443" t="s">
+        <v>64</v>
+      </c>
+      <c r="E443" s="2">
+        <v>45006.69791666666</v>
+      </c>
+      <c r="F443">
+        <v>26</v>
+      </c>
+      <c r="G443" t="s">
+        <v>65</v>
+      </c>
+      <c r="H443" t="s">
+        <v>71</v>
+      </c>
+      <c r="I443">
+        <v>0</v>
+      </c>
+      <c r="J443">
+        <v>1</v>
+      </c>
+      <c r="K443">
+        <v>1</v>
+      </c>
+      <c r="L443">
+        <v>0</v>
+      </c>
+      <c r="M443">
+        <v>2</v>
+      </c>
+      <c r="N443">
+        <v>2</v>
+      </c>
+      <c r="O443" t="s">
+        <v>93</v>
+      </c>
+      <c r="P443" t="s">
+        <v>496</v>
+      </c>
+      <c r="Q443">
+        <v>5</v>
+      </c>
+      <c r="R443">
+        <v>4</v>
+      </c>
+      <c r="S443">
+        <v>9</v>
+      </c>
+      <c r="T443">
+        <v>3.6</v>
+      </c>
+      <c r="U443">
+        <v>2.15</v>
+      </c>
+      <c r="V443">
+        <v>2.95</v>
+      </c>
+      <c r="W443">
+        <v>1.36</v>
+      </c>
+      <c r="X443">
+        <v>2.9</v>
+      </c>
+      <c r="Y443">
+        <v>2.8</v>
+      </c>
+      <c r="Z443">
+        <v>1.39</v>
+      </c>
+      <c r="AA443">
+        <v>6.95</v>
+      </c>
+      <c r="AB443">
+        <v>1.07</v>
+      </c>
+      <c r="AC443">
+        <v>3.3</v>
+      </c>
+      <c r="AD443">
+        <v>3.25</v>
+      </c>
+      <c r="AE443">
+        <v>2.05</v>
+      </c>
+      <c r="AF443">
+        <v>1.05</v>
+      </c>
+      <c r="AG443">
+        <v>11</v>
+      </c>
+      <c r="AH443">
+        <v>1.3</v>
+      </c>
+      <c r="AI443">
+        <v>3.5</v>
+      </c>
+      <c r="AJ443">
+        <v>1.83</v>
+      </c>
+      <c r="AK443">
+        <v>1.88</v>
+      </c>
+      <c r="AL443">
+        <v>1.72</v>
+      </c>
+      <c r="AM443">
+        <v>2.1</v>
+      </c>
+      <c r="AN443">
+        <v>1.65</v>
+      </c>
+      <c r="AO443">
+        <v>1.25</v>
+      </c>
+      <c r="AP443">
+        <v>1.38</v>
+      </c>
+      <c r="AQ443">
+        <v>1.11</v>
+      </c>
+      <c r="AR443">
+        <v>1.39</v>
+      </c>
+      <c r="AS443">
+        <v>1.05</v>
+      </c>
+      <c r="AT443">
+        <v>1.47</v>
+      </c>
+      <c r="AU443">
+        <v>1.47</v>
+      </c>
+      <c r="AV443">
+        <v>1.34</v>
+      </c>
+      <c r="AW443">
+        <v>2.81</v>
+      </c>
+      <c r="AX443">
+        <v>3.15</v>
+      </c>
+      <c r="AY443">
+        <v>6.5</v>
+      </c>
+      <c r="AZ443">
+        <v>1.46</v>
+      </c>
+      <c r="BA443">
+        <v>1.2</v>
+      </c>
+      <c r="BB443">
+        <v>1.35</v>
+      </c>
+      <c r="BC443">
+        <v>1.65</v>
+      </c>
+      <c r="BD443">
+        <v>2.01</v>
+      </c>
+      <c r="BE443">
+        <v>2.4</v>
+      </c>
+      <c r="BF443">
+        <v>5</v>
+      </c>
+      <c r="BG443">
+        <v>7</v>
+      </c>
+      <c r="BH443">
+        <v>7</v>
+      </c>
+      <c r="BI443">
+        <v>6</v>
+      </c>
+      <c r="BJ443">
+        <v>12</v>
+      </c>
+      <c r="BK443">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="444" spans="1:63">
+      <c r="A444" s="1">
+        <v>443</v>
+      </c>
+      <c r="B444">
+        <v>2569866</v>
+      </c>
+      <c r="C444" t="s">
+        <v>63</v>
+      </c>
+      <c r="D444" t="s">
+        <v>64</v>
+      </c>
+      <c r="E444" s="2">
+        <v>45006.70833333334</v>
+      </c>
+      <c r="F444">
+        <v>29</v>
+      </c>
+      <c r="G444" t="s">
+        <v>87</v>
+      </c>
+      <c r="H444" t="s">
+        <v>67</v>
+      </c>
+      <c r="I444">
+        <v>2</v>
+      </c>
+      <c r="J444">
+        <v>1</v>
+      </c>
+      <c r="K444">
+        <v>3</v>
+      </c>
+      <c r="L444">
+        <v>4</v>
+      </c>
+      <c r="M444">
+        <v>2</v>
+      </c>
+      <c r="N444">
+        <v>6</v>
+      </c>
+      <c r="O444" t="s">
+        <v>348</v>
+      </c>
+      <c r="P444" t="s">
+        <v>497</v>
+      </c>
+      <c r="Q444">
+        <v>1</v>
+      </c>
+      <c r="R444">
+        <v>6</v>
+      </c>
+      <c r="S444">
+        <v>7</v>
+      </c>
+      <c r="T444">
+        <v>3.6</v>
+      </c>
+      <c r="U444">
+        <v>2.1</v>
+      </c>
+      <c r="V444">
+        <v>3.1</v>
+      </c>
+      <c r="W444">
+        <v>1.42</v>
+      </c>
+      <c r="X444">
+        <v>2.7</v>
+      </c>
+      <c r="Y444">
+        <v>2.85</v>
+      </c>
+      <c r="Z444">
+        <v>1.38</v>
+      </c>
+      <c r="AA444">
+        <v>8</v>
+      </c>
+      <c r="AB444">
+        <v>1.08</v>
+      </c>
+      <c r="AC444">
+        <v>2.9</v>
+      </c>
+      <c r="AD444">
+        <v>3.05</v>
+      </c>
+      <c r="AE444">
+        <v>2.35</v>
+      </c>
+      <c r="AF444">
+        <v>1.05</v>
+      </c>
+      <c r="AG444">
+        <v>10.5</v>
+      </c>
+      <c r="AH444">
+        <v>1.3</v>
+      </c>
+      <c r="AI444">
+        <v>3.2</v>
+      </c>
+      <c r="AJ444">
+        <v>2.02</v>
+      </c>
+      <c r="AK444">
+        <v>1.78</v>
+      </c>
+      <c r="AL444">
+        <v>1.8</v>
+      </c>
+      <c r="AM444">
+        <v>1.96</v>
+      </c>
+      <c r="AN444">
+        <v>1.57</v>
+      </c>
+      <c r="AO444">
+        <v>1.28</v>
+      </c>
+      <c r="AP444">
+        <v>1.4</v>
+      </c>
+      <c r="AQ444">
+        <v>2.18</v>
+      </c>
+      <c r="AR444">
+        <v>2.13</v>
+      </c>
+      <c r="AS444">
+        <v>2.22</v>
+      </c>
+      <c r="AT444">
+        <v>2</v>
+      </c>
+      <c r="AU444">
+        <v>1.57</v>
+      </c>
+      <c r="AV444">
+        <v>1.57</v>
+      </c>
+      <c r="AW444">
+        <v>3.14</v>
+      </c>
+      <c r="AX444">
+        <v>2.1</v>
+      </c>
+      <c r="AY444">
+        <v>5.75</v>
+      </c>
+      <c r="AZ444">
+        <v>1.95</v>
+      </c>
+      <c r="BA444">
+        <v>1.28</v>
+      </c>
+      <c r="BB444">
+        <v>1.55</v>
+      </c>
+      <c r="BC444">
+        <v>1.89</v>
+      </c>
+      <c r="BD444">
+        <v>2.33</v>
+      </c>
+      <c r="BE444">
+        <v>3.1</v>
+      </c>
+      <c r="BF444">
+        <v>5</v>
+      </c>
+      <c r="BG444">
+        <v>7</v>
+      </c>
+      <c r="BH444">
+        <v>9</v>
+      </c>
+      <c r="BI444">
+        <v>13</v>
+      </c>
+      <c r="BJ444">
+        <v>14</v>
+      </c>
+      <c r="BK444">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/England EFL League One_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/England EFL League One_20222023.xlsx
@@ -1045,7 +1045,7 @@
     <t>['11']</t>
   </si>
   <si>
-    <t>['2', '80']</t>
+    <t>['8', '47']</t>
   </si>
   <si>
     <t>['72']</t>
@@ -1057,7 +1057,7 @@
     <t>['15', '51']</t>
   </si>
   <si>
-    <t>['8', '47']</t>
+    <t>['2', '80']</t>
   </si>
   <si>
     <t>['10', '12', '83', '90+6']</t>
@@ -1492,9 +1492,6 @@
     <t>['28', '67', '83']</t>
   </si>
   <si>
-    <t>['8', '48', '67']</t>
-  </si>
-  <si>
     <t>['18', '69']</t>
   </si>
   <si>
@@ -1502,6 +1499,9 @@
   </si>
   <si>
     <t>['11', '30']</t>
+  </si>
+  <si>
+    <t>['8', '48', '67']</t>
   </si>
   <si>
     <t>['14', '78']</t>
@@ -84392,7 +84392,7 @@
         <v>432</v>
       </c>
       <c r="B433">
-        <v>2569971</v>
+        <v>2569970</v>
       </c>
       <c r="C433" t="s">
         <v>63</v>
@@ -84407,142 +84407,142 @@
         <v>37</v>
       </c>
       <c r="G433" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="H433" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I433">
         <v>1</v>
       </c>
       <c r="J433">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K433">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L433">
         <v>2</v>
       </c>
       <c r="M433">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N433">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O433" t="s">
         <v>343</v>
       </c>
       <c r="P433" t="s">
-        <v>492</v>
+        <v>93</v>
       </c>
       <c r="Q433">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="R433">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S433">
+        <v>8</v>
+      </c>
+      <c r="T433">
+        <v>1.95</v>
+      </c>
+      <c r="U433">
+        <v>2.4</v>
+      </c>
+      <c r="V433">
         <v>6</v>
       </c>
-      <c r="T433">
-        <v>2.6</v>
-      </c>
-      <c r="U433">
-        <v>2.15</v>
-      </c>
-      <c r="V433">
-        <v>3.7</v>
-      </c>
       <c r="W433">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="X433">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Y433">
-        <v>2.62</v>
+        <v>2.4</v>
       </c>
       <c r="Z433">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="AA433">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="AB433">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="AC433">
-        <v>1.95</v>
+        <v>1.37</v>
       </c>
       <c r="AD433">
-        <v>3.3</v>
+        <v>4.7</v>
       </c>
       <c r="AE433">
-        <v>3.7</v>
+        <v>7.5</v>
       </c>
       <c r="AF433">
-        <v>1.06</v>
+        <v>1.02</v>
       </c>
       <c r="AG433">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="AH433">
+        <v>1.19</v>
+      </c>
+      <c r="AI433">
+        <v>4.05</v>
+      </c>
+      <c r="AJ433">
+        <v>1.8</v>
+      </c>
+      <c r="AK433">
+        <v>1.9</v>
+      </c>
+      <c r="AL433">
+        <v>1.85</v>
+      </c>
+      <c r="AM433">
+        <v>1.85</v>
+      </c>
+      <c r="AN433">
+        <v>1.13</v>
+      </c>
+      <c r="AO433">
+        <v>1.18</v>
+      </c>
+      <c r="AP433">
+        <v>2.75</v>
+      </c>
+      <c r="AQ433">
+        <v>2.72</v>
+      </c>
+      <c r="AR433">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AS433">
+        <v>2.74</v>
+      </c>
+      <c r="AT433">
+        <v>0.53</v>
+      </c>
+      <c r="AU433">
+        <v>1.8</v>
+      </c>
+      <c r="AV433">
+        <v>1.15</v>
+      </c>
+      <c r="AW433">
+        <v>2.95</v>
+      </c>
+      <c r="AX433">
         <v>1.3</v>
       </c>
-      <c r="AI433">
-        <v>3.4</v>
-      </c>
-      <c r="AJ433">
-        <v>1.85</v>
-      </c>
-      <c r="AK433">
-        <v>1.85</v>
-      </c>
-      <c r="AL433">
-        <v>1.73</v>
-      </c>
-      <c r="AM433">
-        <v>2</v>
-      </c>
-      <c r="AN433">
-        <v>1.29</v>
-      </c>
-      <c r="AO433">
-        <v>1.3</v>
-      </c>
-      <c r="AP433">
-        <v>1.73</v>
-      </c>
-      <c r="AQ433">
-        <v>1.39</v>
-      </c>
-      <c r="AR433">
-        <v>0.88</v>
-      </c>
-      <c r="AS433">
-        <v>1.32</v>
-      </c>
-      <c r="AT433">
-        <v>1</v>
-      </c>
-      <c r="AU433">
-        <v>1.39</v>
-      </c>
-      <c r="AV433">
-        <v>1.34</v>
-      </c>
-      <c r="AW433">
-        <v>2.73</v>
-      </c>
-      <c r="AX433">
-        <v>1.64</v>
-      </c>
       <c r="AY433">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AZ433">
-        <v>2.66</v>
+        <v>4.42</v>
       </c>
       <c r="BA433">
         <v>1.18</v>
@@ -84560,22 +84560,22 @@
         <v>2.7</v>
       </c>
       <c r="BF433">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BG433">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="BH433">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BI433">
+        <v>2</v>
+      </c>
+      <c r="BJ433">
         <v>4</v>
       </c>
-      <c r="BJ433">
-        <v>8</v>
-      </c>
       <c r="BK433">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="434" spans="1:63">
@@ -84816,7 +84816,7 @@
         <v>93</v>
       </c>
       <c r="P435" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="Q435">
         <v>4</v>
@@ -85007,7 +85007,7 @@
         <v>344</v>
       </c>
       <c r="P436" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="Q436">
         <v>8</v>
@@ -85389,7 +85389,7 @@
         <v>93</v>
       </c>
       <c r="P438" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="Q438">
         <v>3</v>
@@ -85729,7 +85729,7 @@
         <v>439</v>
       </c>
       <c r="B440">
-        <v>2569969</v>
+        <v>2569973</v>
       </c>
       <c r="C440" t="s">
         <v>63</v>
@@ -85744,52 +85744,52 @@
         <v>37</v>
       </c>
       <c r="G440" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H440" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="I440">
         <v>0</v>
       </c>
       <c r="J440">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K440">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L440">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M440">
         <v>1</v>
       </c>
       <c r="N440">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O440" t="s">
-        <v>179</v>
+        <v>93</v>
       </c>
       <c r="P440" t="s">
-        <v>131</v>
+        <v>392</v>
       </c>
       <c r="Q440">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="R440">
         <v>1</v>
       </c>
       <c r="S440">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="T440">
-        <v>3.8</v>
+        <v>3.05</v>
       </c>
       <c r="U440">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="V440">
-        <v>2.38</v>
+        <v>3.3</v>
       </c>
       <c r="W440">
         <v>1.36</v>
@@ -85810,13 +85810,13 @@
         <v>1.1</v>
       </c>
       <c r="AC440">
-        <v>3.35</v>
+        <v>2.6</v>
       </c>
       <c r="AD440">
         <v>3.25</v>
       </c>
       <c r="AE440">
-        <v>2.05</v>
+        <v>2.45</v>
       </c>
       <c r="AF440">
         <v>1.06</v>
@@ -85831,88 +85831,88 @@
         <v>3.4</v>
       </c>
       <c r="AJ440">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="AK440">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="AL440">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AM440">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AN440">
-        <v>1.8</v>
+        <v>1.45</v>
       </c>
       <c r="AO440">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="AP440">
-        <v>1.25</v>
+        <v>1.55</v>
       </c>
       <c r="AQ440">
-        <v>1.32</v>
+        <v>1.89</v>
       </c>
       <c r="AR440">
-        <v>1</v>
+        <v>1.71</v>
       </c>
       <c r="AS440">
-        <v>1.3</v>
+        <v>1.79</v>
       </c>
       <c r="AT440">
-        <v>1</v>
+        <v>1.78</v>
       </c>
       <c r="AU440">
-        <v>1.31</v>
+        <v>1.77</v>
       </c>
       <c r="AV440">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AW440">
-        <v>2.56</v>
+        <v>3.12</v>
       </c>
       <c r="AX440">
-        <v>3.01</v>
+        <v>2.1</v>
       </c>
       <c r="AY440">
         <v>8.5</v>
       </c>
       <c r="AZ440">
-        <v>1.55</v>
+        <v>1.91</v>
       </c>
       <c r="BA440">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="BB440">
-        <v>1.34</v>
+        <v>1.29</v>
       </c>
       <c r="BC440">
-        <v>1.61</v>
+        <v>1.5</v>
       </c>
       <c r="BD440">
-        <v>2.02</v>
+        <v>1.95</v>
       </c>
       <c r="BE440">
-        <v>2.7</v>
+        <v>2.43</v>
       </c>
       <c r="BF440">
+        <v>2</v>
+      </c>
+      <c r="BG440">
         <v>3</v>
       </c>
-      <c r="BG440">
+      <c r="BH440">
         <v>5</v>
       </c>
-      <c r="BH440">
-        <v>1</v>
-      </c>
       <c r="BI440">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BJ440">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BK440">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="441" spans="1:63">
@@ -85920,7 +85920,7 @@
         <v>440</v>
       </c>
       <c r="B441">
-        <v>2569970</v>
+        <v>2569969</v>
       </c>
       <c r="C441" t="s">
         <v>63</v>
@@ -85935,142 +85935,142 @@
         <v>37</v>
       </c>
       <c r="G441" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H441" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I441">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J441">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K441">
         <v>1</v>
       </c>
       <c r="L441">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M441">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N441">
         <v>2</v>
       </c>
       <c r="O441" t="s">
-        <v>347</v>
+        <v>179</v>
       </c>
       <c r="P441" t="s">
-        <v>93</v>
+        <v>131</v>
       </c>
       <c r="Q441">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="R441">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S441">
+        <v>2</v>
+      </c>
+      <c r="T441">
+        <v>3.8</v>
+      </c>
+      <c r="U441">
+        <v>2.25</v>
+      </c>
+      <c r="V441">
+        <v>2.38</v>
+      </c>
+      <c r="W441">
+        <v>1.36</v>
+      </c>
+      <c r="X441">
+        <v>3</v>
+      </c>
+      <c r="Y441">
+        <v>2.62</v>
+      </c>
+      <c r="Z441">
+        <v>1.44</v>
+      </c>
+      <c r="AA441">
+        <v>6.5</v>
+      </c>
+      <c r="AB441">
+        <v>1.1</v>
+      </c>
+      <c r="AC441">
+        <v>3.35</v>
+      </c>
+      <c r="AD441">
+        <v>3.25</v>
+      </c>
+      <c r="AE441">
+        <v>2.05</v>
+      </c>
+      <c r="AF441">
+        <v>1.06</v>
+      </c>
+      <c r="AG441">
         <v>8</v>
       </c>
-      <c r="T441">
-        <v>1.95</v>
-      </c>
-      <c r="U441">
-        <v>2.4</v>
-      </c>
-      <c r="V441">
-        <v>6</v>
-      </c>
-      <c r="W441">
+      <c r="AH441">
         <v>1.3</v>
       </c>
-      <c r="X441">
-        <v>3.2</v>
-      </c>
-      <c r="Y441">
-        <v>2.4</v>
-      </c>
-      <c r="Z441">
-        <v>1.5</v>
-      </c>
-      <c r="AA441">
-        <v>5.5</v>
-      </c>
-      <c r="AB441">
-        <v>1.11</v>
-      </c>
-      <c r="AC441">
-        <v>1.37</v>
-      </c>
-      <c r="AD441">
-        <v>4.7</v>
-      </c>
-      <c r="AE441">
-        <v>7.5</v>
-      </c>
-      <c r="AF441">
-        <v>1.02</v>
-      </c>
-      <c r="AG441">
-        <v>15</v>
-      </c>
-      <c r="AH441">
-        <v>1.19</v>
-      </c>
       <c r="AI441">
-        <v>4.05</v>
+        <v>3.4</v>
       </c>
       <c r="AJ441">
+        <v>1.85</v>
+      </c>
+      <c r="AK441">
+        <v>1.85</v>
+      </c>
+      <c r="AL441">
         <v>1.8</v>
       </c>
-      <c r="AK441">
-        <v>1.9</v>
-      </c>
-      <c r="AL441">
-        <v>1.85</v>
-      </c>
       <c r="AM441">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="AN441">
-        <v>1.13</v>
+        <v>1.8</v>
       </c>
       <c r="AO441">
-        <v>1.18</v>
+        <v>1.3</v>
       </c>
       <c r="AP441">
-        <v>2.75</v>
+        <v>1.25</v>
       </c>
       <c r="AQ441">
-        <v>2.72</v>
+        <v>1.32</v>
       </c>
       <c r="AR441">
-        <v>0.5600000000000001</v>
+        <v>1</v>
       </c>
       <c r="AS441">
-        <v>2.74</v>
+        <v>1.3</v>
       </c>
       <c r="AT441">
-        <v>0.53</v>
+        <v>1</v>
       </c>
       <c r="AU441">
-        <v>1.8</v>
+        <v>1.31</v>
       </c>
       <c r="AV441">
-        <v>1.15</v>
+        <v>1.25</v>
       </c>
       <c r="AW441">
-        <v>2.95</v>
+        <v>2.56</v>
       </c>
       <c r="AX441">
-        <v>1.3</v>
+        <v>3.01</v>
       </c>
       <c r="AY441">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AZ441">
-        <v>4.42</v>
+        <v>1.55</v>
       </c>
       <c r="BA441">
         <v>1.18</v>
@@ -86091,19 +86091,19 @@
         <v>3</v>
       </c>
       <c r="BG441">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BH441">
         <v>1</v>
       </c>
       <c r="BI441">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BJ441">
         <v>4</v>
       </c>
       <c r="BK441">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="442" spans="1:63">
@@ -86111,7 +86111,7 @@
         <v>441</v>
       </c>
       <c r="B442">
-        <v>2569973</v>
+        <v>2569971</v>
       </c>
       <c r="C442" t="s">
         <v>63</v>
@@ -86126,52 +86126,52 @@
         <v>37</v>
       </c>
       <c r="G442" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H442" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="I442">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J442">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K442">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L442">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M442">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N442">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O442" t="s">
-        <v>93</v>
+        <v>347</v>
       </c>
       <c r="P442" t="s">
-        <v>392</v>
+        <v>495</v>
       </c>
       <c r="Q442">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="R442">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S442">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="T442">
-        <v>3.05</v>
+        <v>2.6</v>
       </c>
       <c r="U442">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="V442">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="W442">
         <v>1.36</v>
@@ -86192,13 +86192,13 @@
         <v>1.1</v>
       </c>
       <c r="AC442">
-        <v>2.6</v>
+        <v>1.95</v>
       </c>
       <c r="AD442">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="AE442">
-        <v>2.45</v>
+        <v>3.7</v>
       </c>
       <c r="AF442">
         <v>1.06</v>
@@ -86213,10 +86213,10 @@
         <v>3.4</v>
       </c>
       <c r="AJ442">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="AK442">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="AL442">
         <v>1.73</v>
@@ -86225,76 +86225,76 @@
         <v>2</v>
       </c>
       <c r="AN442">
-        <v>1.45</v>
+        <v>1.29</v>
       </c>
       <c r="AO442">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="AP442">
-        <v>1.55</v>
+        <v>1.73</v>
       </c>
       <c r="AQ442">
-        <v>1.89</v>
+        <v>1.39</v>
       </c>
       <c r="AR442">
-        <v>1.71</v>
+        <v>0.88</v>
       </c>
       <c r="AS442">
-        <v>1.79</v>
+        <v>1.32</v>
       </c>
       <c r="AT442">
-        <v>1.78</v>
+        <v>1</v>
       </c>
       <c r="AU442">
-        <v>1.77</v>
+        <v>1.39</v>
       </c>
       <c r="AV442">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="AW442">
-        <v>3.12</v>
+        <v>2.73</v>
       </c>
       <c r="AX442">
-        <v>2.1</v>
+        <v>1.64</v>
       </c>
       <c r="AY442">
         <v>8.5</v>
       </c>
       <c r="AZ442">
-        <v>1.91</v>
+        <v>2.66</v>
       </c>
       <c r="BA442">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="BB442">
-        <v>1.29</v>
+        <v>1.34</v>
       </c>
       <c r="BC442">
-        <v>1.5</v>
+        <v>1.61</v>
       </c>
       <c r="BD442">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="BE442">
-        <v>2.43</v>
+        <v>2.7</v>
       </c>
       <c r="BF442">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BG442">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BH442">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BI442">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BJ442">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BK442">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="443" spans="1:63">
